--- a/hodiny.xlsx
+++ b/hodiny.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19AA81CB-1082-45E0-B6C6-049CFE09A2A7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96AE444-CD71-4DA7-9F76-F4A05125C6B9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5070" yWindow="5070" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>čas [min]</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>9.6.</t>
+  </si>
+  <si>
+    <t>10.6.</t>
   </si>
 </sst>
 </file>
@@ -606,7 +609,7 @@
   <dimension ref="B1:J255"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1781,27 +1784,34 @@
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C42" s="2"/>
-      <c r="D42" s="10"/>
+      <c r="B42" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="2">
+        <v>9.7222222222222224E-2</v>
+      </c>
+      <c r="D42" s="10">
+        <v>0.12569444444444444</v>
+      </c>
       <c r="E42" s="12">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>2.8472222222222218E-2</v>
       </c>
       <c r="F42" s="13">
         <f t="shared" si="10"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G42" s="8">
         <f t="shared" si="11"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H42" s="8">
         <f t="shared" si="12"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I42" s="15">
         <f t="shared" si="13"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.25">
@@ -1813,19 +1823,19 @@
       </c>
       <c r="F43" s="13">
         <f t="shared" si="10"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G43" s="8">
         <f t="shared" si="11"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H43" s="8">
         <f t="shared" si="12"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I43" s="15">
         <f t="shared" si="13"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.25">
@@ -1837,19 +1847,19 @@
       </c>
       <c r="F44" s="13">
         <f t="shared" si="10"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G44" s="8">
         <f t="shared" si="11"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H44" s="8">
         <f t="shared" si="12"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I44" s="15">
         <f t="shared" si="13"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.25">
@@ -1861,19 +1871,19 @@
       </c>
       <c r="F45" s="13">
         <f t="shared" si="10"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G45" s="8">
         <f t="shared" si="11"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H45" s="8">
         <f t="shared" si="12"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I45" s="15">
         <f t="shared" si="13"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
@@ -1885,19 +1895,19 @@
       </c>
       <c r="F46" s="13">
         <f t="shared" si="10"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G46" s="8">
         <f t="shared" si="11"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H46" s="8">
         <f t="shared" si="12"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I46" s="15">
         <f t="shared" si="13"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.25">
@@ -1909,19 +1919,19 @@
       </c>
       <c r="F47" s="13">
         <f t="shared" si="10"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G47" s="8">
         <f t="shared" si="11"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H47" s="8">
         <f t="shared" si="12"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I47" s="15">
         <f t="shared" si="13"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.25">
@@ -1933,19 +1943,19 @@
       </c>
       <c r="F48" s="13">
         <f t="shared" si="10"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G48" s="8">
         <f t="shared" si="11"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H48" s="8">
         <f t="shared" si="12"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I48" s="15">
         <f t="shared" si="13"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="49" spans="3:9" x14ac:dyDescent="0.25">
@@ -1957,19 +1967,19 @@
       </c>
       <c r="F49" s="13">
         <f t="shared" si="10"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G49" s="8">
         <f t="shared" si="11"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H49" s="8">
         <f t="shared" si="12"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I49" s="15">
         <f t="shared" si="13"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="50" spans="3:9" x14ac:dyDescent="0.25">
@@ -1981,19 +1991,19 @@
       </c>
       <c r="F50" s="13">
         <f t="shared" si="10"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G50" s="8">
         <f t="shared" si="11"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H50" s="8">
         <f t="shared" si="12"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I50" s="15">
         <f t="shared" si="13"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="51" spans="3:9" x14ac:dyDescent="0.25">
@@ -2005,19 +2015,19 @@
       </c>
       <c r="F51" s="13">
         <f t="shared" si="10"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G51" s="8">
         <f t="shared" si="11"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H51" s="8">
         <f t="shared" si="12"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I51" s="15">
         <f t="shared" si="13"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="52" spans="3:9" x14ac:dyDescent="0.25">
@@ -2029,19 +2039,19 @@
       </c>
       <c r="F52" s="13">
         <f t="shared" si="10"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G52" s="8">
         <f t="shared" si="11"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H52" s="8">
         <f t="shared" si="12"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I52" s="15">
         <f t="shared" si="13"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="53" spans="3:9" x14ac:dyDescent="0.25">
@@ -2053,19 +2063,19 @@
       </c>
       <c r="F53" s="13">
         <f t="shared" si="10"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G53" s="8">
         <f t="shared" si="11"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H53" s="8">
         <f t="shared" si="12"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I53" s="15">
         <f t="shared" si="13"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="54" spans="3:9" x14ac:dyDescent="0.25">
@@ -2077,19 +2087,19 @@
       </c>
       <c r="F54" s="13">
         <f t="shared" si="10"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G54" s="8">
         <f t="shared" si="11"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H54" s="8">
         <f t="shared" si="12"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I54" s="15">
         <f t="shared" si="13"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="55" spans="3:9" x14ac:dyDescent="0.25">
@@ -2101,19 +2111,19 @@
       </c>
       <c r="F55" s="13">
         <f t="shared" si="10"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G55" s="8">
         <f t="shared" si="11"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H55" s="8">
         <f t="shared" si="12"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I55" s="15">
         <f t="shared" si="13"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="56" spans="3:9" x14ac:dyDescent="0.25">
@@ -2125,19 +2135,19 @@
       </c>
       <c r="F56" s="13">
         <f t="shared" si="10"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G56" s="8">
         <f t="shared" si="11"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H56" s="8">
         <f t="shared" si="12"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I56" s="15">
         <f t="shared" si="13"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="57" spans="3:9" x14ac:dyDescent="0.25">
@@ -2149,19 +2159,19 @@
       </c>
       <c r="F57" s="13">
         <f t="shared" si="10"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G57" s="8">
         <f t="shared" si="11"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H57" s="8">
         <f t="shared" si="12"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I57" s="15">
         <f t="shared" si="13"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="58" spans="3:9" x14ac:dyDescent="0.25">
@@ -2173,19 +2183,19 @@
       </c>
       <c r="F58" s="13">
         <f t="shared" si="10"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G58" s="8">
         <f t="shared" si="11"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H58" s="8">
         <f t="shared" si="12"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I58" s="15">
         <f t="shared" si="13"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="59" spans="3:9" x14ac:dyDescent="0.25">
@@ -2197,19 +2207,19 @@
       </c>
       <c r="F59" s="13">
         <f t="shared" si="10"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G59" s="8">
         <f t="shared" si="11"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H59" s="8">
         <f t="shared" si="12"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I59" s="15">
         <f t="shared" si="13"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="60" spans="3:9" x14ac:dyDescent="0.25">
@@ -2221,19 +2231,19 @@
       </c>
       <c r="F60" s="13">
         <f t="shared" si="10"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G60" s="8">
         <f t="shared" si="11"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H60" s="8">
         <f t="shared" si="12"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I60" s="15">
         <f t="shared" si="13"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="61" spans="3:9" x14ac:dyDescent="0.25">
@@ -2245,19 +2255,19 @@
       </c>
       <c r="F61" s="13">
         <f t="shared" si="10"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G61" s="8">
         <f t="shared" si="11"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H61" s="8">
         <f t="shared" si="12"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I61" s="15">
         <f t="shared" si="13"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="62" spans="3:9" x14ac:dyDescent="0.25">
@@ -2269,19 +2279,19 @@
       </c>
       <c r="F62" s="13">
         <f t="shared" si="10"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G62" s="8">
         <f t="shared" si="11"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H62" s="8">
         <f t="shared" si="12"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I62" s="15">
         <f t="shared" si="13"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="63" spans="3:9" x14ac:dyDescent="0.25">
@@ -2293,19 +2303,19 @@
       </c>
       <c r="F63" s="13">
         <f t="shared" si="10"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G63" s="8">
         <f t="shared" si="11"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H63" s="8">
         <f t="shared" si="12"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I63" s="15">
         <f t="shared" si="13"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="64" spans="3:9" x14ac:dyDescent="0.25">
@@ -2317,19 +2327,19 @@
       </c>
       <c r="F64" s="13">
         <f t="shared" si="10"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G64" s="8">
         <f t="shared" si="11"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H64" s="8">
         <f t="shared" si="12"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I64" s="15">
         <f t="shared" si="13"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="65" spans="3:9" x14ac:dyDescent="0.25">
@@ -2341,19 +2351,19 @@
       </c>
       <c r="F65" s="13">
         <f t="shared" si="10"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G65" s="8">
         <f t="shared" si="11"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H65" s="8">
         <f t="shared" si="12"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I65" s="15">
         <f t="shared" si="13"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="66" spans="3:9" x14ac:dyDescent="0.25">
@@ -2365,19 +2375,19 @@
       </c>
       <c r="F66" s="13">
         <f t="shared" si="10"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G66" s="8">
         <f t="shared" si="11"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H66" s="8">
         <f t="shared" si="12"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I66" s="15">
         <f t="shared" si="13"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="67" spans="3:9" x14ac:dyDescent="0.25">
@@ -2389,19 +2399,19 @@
       </c>
       <c r="F67" s="13">
         <f t="shared" si="10"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G67" s="8">
         <f t="shared" si="11"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H67" s="8">
         <f t="shared" si="12"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I67" s="15">
         <f t="shared" si="13"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="68" spans="3:9" x14ac:dyDescent="0.25">
@@ -2413,19 +2423,19 @@
       </c>
       <c r="F68" s="13">
         <f t="shared" si="10"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G68" s="8">
         <f t="shared" si="11"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H68" s="8">
         <f t="shared" si="12"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I68" s="15">
         <f t="shared" si="13"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="69" spans="3:9" x14ac:dyDescent="0.25">
@@ -2437,19 +2447,19 @@
       </c>
       <c r="F69" s="13">
         <f t="shared" si="10"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G69" s="8">
         <f t="shared" si="11"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H69" s="8">
         <f t="shared" si="12"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I69" s="15">
         <f t="shared" si="13"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="70" spans="3:9" x14ac:dyDescent="0.25">
@@ -2461,19 +2471,19 @@
       </c>
       <c r="F70" s="13">
         <f t="shared" si="10"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G70" s="8">
         <f t="shared" si="11"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H70" s="8">
         <f t="shared" si="12"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I70" s="15">
         <f t="shared" si="13"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="71" spans="3:9" x14ac:dyDescent="0.25">
@@ -2485,19 +2495,19 @@
       </c>
       <c r="F71" s="13">
         <f t="shared" si="10"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G71" s="8">
         <f t="shared" si="11"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H71" s="8">
         <f t="shared" si="12"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I71" s="15">
         <f t="shared" si="13"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="72" spans="3:9" x14ac:dyDescent="0.25">
@@ -2509,19 +2519,19 @@
       </c>
       <c r="F72" s="13">
         <f t="shared" si="10"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G72" s="8">
         <f t="shared" si="11"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H72" s="8">
         <f t="shared" si="12"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I72" s="15">
         <f t="shared" si="13"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="73" spans="3:9" x14ac:dyDescent="0.25">
@@ -2533,19 +2543,19 @@
       </c>
       <c r="F73" s="13">
         <f t="shared" si="10"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G73" s="8">
         <f t="shared" si="11"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H73" s="8">
         <f t="shared" si="12"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I73" s="15">
         <f t="shared" si="13"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="74" spans="3:9" x14ac:dyDescent="0.25">
@@ -2557,19 +2567,19 @@
       </c>
       <c r="F74" s="13">
         <f t="shared" si="10"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G74" s="8">
         <f t="shared" si="11"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H74" s="8">
         <f t="shared" si="12"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I74" s="15">
         <f t="shared" si="13"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="75" spans="3:9" x14ac:dyDescent="0.25">
@@ -2581,19 +2591,19 @@
       </c>
       <c r="F75" s="13">
         <f t="shared" si="10"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G75" s="8">
         <f t="shared" si="11"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H75" s="8">
         <f t="shared" si="12"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I75" s="15">
         <f t="shared" si="13"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="76" spans="3:9" x14ac:dyDescent="0.25">
@@ -2605,19 +2615,19 @@
       </c>
       <c r="F76" s="13">
         <f t="shared" si="10"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G76" s="8">
         <f t="shared" si="11"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H76" s="8">
         <f t="shared" si="12"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I76" s="15">
         <f t="shared" si="13"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="77" spans="3:9" x14ac:dyDescent="0.25">
@@ -2629,19 +2639,19 @@
       </c>
       <c r="F77" s="13">
         <f t="shared" si="10"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G77" s="8">
         <f t="shared" si="11"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H77" s="8">
         <f t="shared" si="12"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I77" s="15">
         <f t="shared" si="13"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="78" spans="3:9" x14ac:dyDescent="0.25">
@@ -2653,19 +2663,19 @@
       </c>
       <c r="F78" s="13">
         <f t="shared" si="10"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G78" s="8">
         <f t="shared" si="11"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H78" s="8">
         <f t="shared" si="12"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I78" s="15">
         <f t="shared" si="13"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="79" spans="3:9" x14ac:dyDescent="0.25">
@@ -2677,19 +2687,19 @@
       </c>
       <c r="F79" s="13">
         <f t="shared" si="10"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G79" s="8">
         <f t="shared" si="11"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H79" s="8">
         <f t="shared" si="12"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I79" s="15">
         <f t="shared" si="13"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="80" spans="3:9" x14ac:dyDescent="0.25">
@@ -2701,19 +2711,19 @@
       </c>
       <c r="F80" s="13">
         <f t="shared" si="10"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G80" s="8">
         <f t="shared" si="11"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H80" s="8">
         <f t="shared" si="12"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I80" s="15">
         <f t="shared" si="13"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="81" spans="3:9" x14ac:dyDescent="0.25">
@@ -2725,19 +2735,19 @@
       </c>
       <c r="F81" s="13">
         <f t="shared" si="10"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G81" s="8">
         <f t="shared" si="11"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H81" s="8">
         <f t="shared" si="12"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I81" s="15">
         <f t="shared" si="13"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="82" spans="3:9" x14ac:dyDescent="0.25">
@@ -2749,19 +2759,19 @@
       </c>
       <c r="F82" s="13">
         <f t="shared" si="10"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G82" s="8">
         <f t="shared" si="11"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H82" s="8">
         <f t="shared" si="12"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I82" s="15">
         <f t="shared" si="13"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="83" spans="3:9" x14ac:dyDescent="0.25">
@@ -2773,19 +2783,19 @@
       </c>
       <c r="F83" s="13">
         <f t="shared" si="10"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G83" s="8">
         <f t="shared" si="11"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H83" s="8">
         <f t="shared" si="12"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I83" s="15">
         <f t="shared" si="13"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="84" spans="3:9" x14ac:dyDescent="0.25">
@@ -2797,19 +2807,19 @@
       </c>
       <c r="F84" s="13">
         <f t="shared" si="10"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G84" s="8">
         <f t="shared" si="11"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H84" s="8">
         <f t="shared" si="12"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I84" s="15">
         <f t="shared" si="13"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="85" spans="3:9" x14ac:dyDescent="0.25">
@@ -2821,19 +2831,19 @@
       </c>
       <c r="F85" s="13">
         <f t="shared" si="10"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G85" s="8">
         <f t="shared" si="11"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H85" s="8">
         <f t="shared" si="12"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I85" s="15">
         <f t="shared" si="13"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="86" spans="3:9" x14ac:dyDescent="0.25">
@@ -2845,19 +2855,19 @@
       </c>
       <c r="F86" s="13">
         <f t="shared" si="10"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G86" s="8">
         <f t="shared" si="11"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H86" s="8">
         <f t="shared" si="12"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I86" s="15">
         <f t="shared" si="13"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="87" spans="3:9" x14ac:dyDescent="0.25">
@@ -2869,19 +2879,19 @@
       </c>
       <c r="F87" s="13">
         <f t="shared" si="10"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G87" s="8">
         <f t="shared" si="11"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H87" s="8">
         <f t="shared" si="12"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I87" s="15">
         <f t="shared" si="13"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="88" spans="3:9" x14ac:dyDescent="0.25">
@@ -2893,19 +2903,19 @@
       </c>
       <c r="F88" s="13">
         <f t="shared" si="10"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G88" s="8">
         <f t="shared" si="11"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H88" s="8">
         <f t="shared" si="12"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I88" s="15">
         <f t="shared" si="13"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="89" spans="3:9" x14ac:dyDescent="0.25">
@@ -2917,19 +2927,19 @@
       </c>
       <c r="F89" s="13">
         <f t="shared" si="10"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G89" s="8">
         <f t="shared" si="11"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H89" s="8">
         <f t="shared" si="12"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I89" s="15">
         <f t="shared" si="13"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="90" spans="3:9" x14ac:dyDescent="0.25">
@@ -2941,19 +2951,19 @@
       </c>
       <c r="F90" s="13">
         <f t="shared" si="10"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G90" s="8">
         <f t="shared" si="11"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H90" s="8">
         <f t="shared" si="12"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I90" s="15">
         <f t="shared" si="13"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="91" spans="3:9" x14ac:dyDescent="0.25">
@@ -2965,19 +2975,19 @@
       </c>
       <c r="F91" s="13">
         <f t="shared" si="10"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G91" s="8">
         <f t="shared" si="11"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H91" s="8">
         <f t="shared" si="12"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I91" s="15">
         <f t="shared" si="13"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="92" spans="3:9" x14ac:dyDescent="0.25">
@@ -2989,19 +2999,19 @@
       </c>
       <c r="F92" s="13">
         <f t="shared" si="10"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G92" s="8">
         <f t="shared" si="11"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H92" s="8">
         <f t="shared" si="12"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I92" s="15">
         <f t="shared" si="13"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="93" spans="3:9" x14ac:dyDescent="0.25">
@@ -3013,19 +3023,19 @@
       </c>
       <c r="F93" s="13">
         <f t="shared" si="10"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G93" s="8">
         <f t="shared" si="11"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H93" s="8">
         <f t="shared" si="12"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I93" s="15">
         <f t="shared" si="13"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="94" spans="3:9" x14ac:dyDescent="0.25">
@@ -3037,19 +3047,19 @@
       </c>
       <c r="F94" s="13">
         <f t="shared" si="10"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G94" s="8">
         <f t="shared" si="11"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H94" s="8">
         <f t="shared" si="12"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I94" s="15">
         <f t="shared" si="13"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="95" spans="3:9" x14ac:dyDescent="0.25">
@@ -3061,19 +3071,19 @@
       </c>
       <c r="F95" s="13">
         <f t="shared" si="10"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G95" s="8">
         <f t="shared" si="11"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H95" s="8">
         <f t="shared" si="12"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I95" s="15">
         <f t="shared" si="13"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="96" spans="3:9" x14ac:dyDescent="0.25">
@@ -3085,19 +3095,19 @@
       </c>
       <c r="F96" s="13">
         <f t="shared" si="10"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G96" s="8">
         <f t="shared" si="11"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H96" s="8">
         <f t="shared" si="12"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I96" s="15">
         <f t="shared" si="13"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="97" spans="3:9" x14ac:dyDescent="0.25">
@@ -3109,19 +3119,19 @@
       </c>
       <c r="F97" s="13">
         <f t="shared" si="10"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G97" s="8">
         <f t="shared" si="11"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H97" s="8">
         <f t="shared" si="12"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I97" s="15">
         <f t="shared" si="13"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="98" spans="3:9" x14ac:dyDescent="0.25">
@@ -3133,19 +3143,19 @@
       </c>
       <c r="F98" s="13">
         <f t="shared" si="10"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G98" s="8">
         <f t="shared" si="11"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H98" s="8">
         <f t="shared" si="12"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I98" s="15">
         <f t="shared" si="13"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="99" spans="3:9" x14ac:dyDescent="0.25">
@@ -3157,19 +3167,19 @@
       </c>
       <c r="F99" s="13">
         <f t="shared" si="10"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G99" s="8">
         <f t="shared" si="11"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H99" s="8">
         <f t="shared" si="12"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I99" s="15">
         <f t="shared" si="13"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="100" spans="3:9" x14ac:dyDescent="0.25">
@@ -3181,19 +3191,19 @@
       </c>
       <c r="F100" s="13">
         <f t="shared" si="10"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G100" s="8">
         <f t="shared" si="11"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H100" s="8">
         <f t="shared" si="12"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I100" s="15">
         <f t="shared" si="13"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="101" spans="3:9" x14ac:dyDescent="0.25">
@@ -3205,19 +3215,19 @@
       </c>
       <c r="F101" s="13">
         <f t="shared" si="10"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G101" s="8">
         <f t="shared" si="11"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H101" s="8">
         <f t="shared" si="12"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I101" s="15">
         <f t="shared" si="13"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="102" spans="3:9" x14ac:dyDescent="0.25">
@@ -3229,19 +3239,19 @@
       </c>
       <c r="F102" s="13">
         <f t="shared" si="10"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G102" s="8">
         <f t="shared" si="11"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H102" s="8">
         <f t="shared" si="12"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I102" s="15">
         <f t="shared" si="13"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="103" spans="3:9" x14ac:dyDescent="0.25">
@@ -3253,19 +3263,19 @@
       </c>
       <c r="F103" s="13">
         <f t="shared" si="10"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G103" s="8">
         <f t="shared" si="11"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H103" s="8">
         <f t="shared" si="12"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I103" s="15">
         <f t="shared" si="13"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="104" spans="3:9" x14ac:dyDescent="0.25">
@@ -3277,19 +3287,19 @@
       </c>
       <c r="F104" s="13">
         <f t="shared" ref="F104:F167" si="15">F103+E104</f>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G104" s="8">
         <f t="shared" ref="G104:G167" si="16">F104</f>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H104" s="8">
         <f t="shared" ref="H104:H167" si="17">(H103+G104-G103)</f>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I104" s="15">
         <f t="shared" ref="I104:I167" si="18">H104*24*$J$2</f>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="105" spans="3:9" x14ac:dyDescent="0.25">
@@ -3301,19 +3311,19 @@
       </c>
       <c r="F105" s="13">
         <f t="shared" si="15"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G105" s="8">
         <f t="shared" si="16"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H105" s="8">
         <f t="shared" si="17"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I105" s="15">
         <f t="shared" si="18"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="106" spans="3:9" x14ac:dyDescent="0.25">
@@ -3325,19 +3335,19 @@
       </c>
       <c r="F106" s="13">
         <f t="shared" si="15"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G106" s="8">
         <f t="shared" si="16"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H106" s="8">
         <f t="shared" si="17"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I106" s="15">
         <f t="shared" si="18"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="107" spans="3:9" x14ac:dyDescent="0.25">
@@ -3349,19 +3359,19 @@
       </c>
       <c r="F107" s="13">
         <f t="shared" si="15"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G107" s="8">
         <f t="shared" si="16"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H107" s="8">
         <f t="shared" si="17"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I107" s="15">
         <f t="shared" si="18"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="108" spans="3:9" x14ac:dyDescent="0.25">
@@ -3373,19 +3383,19 @@
       </c>
       <c r="F108" s="13">
         <f t="shared" si="15"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G108" s="8">
         <f t="shared" si="16"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H108" s="8">
         <f t="shared" si="17"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I108" s="15">
         <f t="shared" si="18"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="109" spans="3:9" x14ac:dyDescent="0.25">
@@ -3397,19 +3407,19 @@
       </c>
       <c r="F109" s="13">
         <f t="shared" si="15"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G109" s="8">
         <f t="shared" si="16"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H109" s="8">
         <f t="shared" si="17"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I109" s="15">
         <f t="shared" si="18"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="110" spans="3:9" x14ac:dyDescent="0.25">
@@ -3421,19 +3431,19 @@
       </c>
       <c r="F110" s="13">
         <f t="shared" si="15"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G110" s="8">
         <f t="shared" si="16"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H110" s="8">
         <f t="shared" si="17"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I110" s="15">
         <f t="shared" si="18"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="111" spans="3:9" x14ac:dyDescent="0.25">
@@ -3445,19 +3455,19 @@
       </c>
       <c r="F111" s="13">
         <f t="shared" si="15"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G111" s="8">
         <f t="shared" si="16"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H111" s="8">
         <f t="shared" si="17"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I111" s="15">
         <f t="shared" si="18"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="112" spans="3:9" x14ac:dyDescent="0.25">
@@ -3469,19 +3479,19 @@
       </c>
       <c r="F112" s="13">
         <f t="shared" si="15"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G112" s="8">
         <f t="shared" si="16"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H112" s="8">
         <f t="shared" si="17"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I112" s="15">
         <f t="shared" si="18"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="113" spans="3:9" x14ac:dyDescent="0.25">
@@ -3493,19 +3503,19 @@
       </c>
       <c r="F113" s="13">
         <f t="shared" si="15"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G113" s="8">
         <f t="shared" si="16"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H113" s="8">
         <f t="shared" si="17"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I113" s="15">
         <f t="shared" si="18"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="114" spans="3:9" x14ac:dyDescent="0.25">
@@ -3517,19 +3527,19 @@
       </c>
       <c r="F114" s="13">
         <f t="shared" si="15"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G114" s="8">
         <f t="shared" si="16"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H114" s="8">
         <f t="shared" si="17"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I114" s="15">
         <f t="shared" si="18"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="115" spans="3:9" x14ac:dyDescent="0.25">
@@ -3541,19 +3551,19 @@
       </c>
       <c r="F115" s="13">
         <f t="shared" si="15"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G115" s="8">
         <f t="shared" si="16"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H115" s="8">
         <f t="shared" si="17"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I115" s="15">
         <f t="shared" si="18"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="116" spans="3:9" x14ac:dyDescent="0.25">
@@ -3565,19 +3575,19 @@
       </c>
       <c r="F116" s="13">
         <f t="shared" si="15"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G116" s="8">
         <f t="shared" si="16"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H116" s="8">
         <f t="shared" si="17"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I116" s="15">
         <f t="shared" si="18"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="117" spans="3:9" x14ac:dyDescent="0.25">
@@ -3589,19 +3599,19 @@
       </c>
       <c r="F117" s="13">
         <f t="shared" si="15"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G117" s="8">
         <f t="shared" si="16"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H117" s="8">
         <f t="shared" si="17"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I117" s="15">
         <f t="shared" si="18"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="118" spans="3:9" x14ac:dyDescent="0.25">
@@ -3613,19 +3623,19 @@
       </c>
       <c r="F118" s="13">
         <f t="shared" si="15"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G118" s="8">
         <f t="shared" si="16"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H118" s="8">
         <f t="shared" si="17"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I118" s="15">
         <f t="shared" si="18"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="119" spans="3:9" x14ac:dyDescent="0.25">
@@ -3637,19 +3647,19 @@
       </c>
       <c r="F119" s="13">
         <f t="shared" si="15"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G119" s="8">
         <f t="shared" si="16"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H119" s="8">
         <f t="shared" si="17"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I119" s="15">
         <f t="shared" si="18"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="120" spans="3:9" x14ac:dyDescent="0.25">
@@ -3661,19 +3671,19 @@
       </c>
       <c r="F120" s="13">
         <f t="shared" si="15"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G120" s="8">
         <f t="shared" si="16"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H120" s="8">
         <f t="shared" si="17"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I120" s="15">
         <f t="shared" si="18"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="121" spans="3:9" x14ac:dyDescent="0.25">
@@ -3685,19 +3695,19 @@
       </c>
       <c r="F121" s="13">
         <f t="shared" si="15"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G121" s="8">
         <f t="shared" si="16"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H121" s="8">
         <f t="shared" si="17"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I121" s="15">
         <f t="shared" si="18"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="122" spans="3:9" x14ac:dyDescent="0.25">
@@ -3709,19 +3719,19 @@
       </c>
       <c r="F122" s="13">
         <f t="shared" si="15"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G122" s="8">
         <f t="shared" si="16"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H122" s="8">
         <f t="shared" si="17"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I122" s="15">
         <f t="shared" si="18"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="123" spans="3:9" x14ac:dyDescent="0.25">
@@ -3733,19 +3743,19 @@
       </c>
       <c r="F123" s="13">
         <f t="shared" si="15"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G123" s="8">
         <f t="shared" si="16"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H123" s="8">
         <f t="shared" si="17"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I123" s="15">
         <f t="shared" si="18"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="124" spans="3:9" x14ac:dyDescent="0.25">
@@ -3757,19 +3767,19 @@
       </c>
       <c r="F124" s="13">
         <f t="shared" si="15"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G124" s="8">
         <f t="shared" si="16"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H124" s="8">
         <f t="shared" si="17"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I124" s="15">
         <f t="shared" si="18"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="125" spans="3:9" x14ac:dyDescent="0.25">
@@ -3781,19 +3791,19 @@
       </c>
       <c r="F125" s="13">
         <f t="shared" si="15"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G125" s="8">
         <f t="shared" si="16"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H125" s="8">
         <f t="shared" si="17"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I125" s="15">
         <f t="shared" si="18"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="126" spans="3:9" x14ac:dyDescent="0.25">
@@ -3805,19 +3815,19 @@
       </c>
       <c r="F126" s="13">
         <f t="shared" si="15"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G126" s="8">
         <f t="shared" si="16"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H126" s="8">
         <f t="shared" si="17"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I126" s="15">
         <f t="shared" si="18"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="127" spans="3:9" x14ac:dyDescent="0.25">
@@ -3829,19 +3839,19 @@
       </c>
       <c r="F127" s="13">
         <f t="shared" si="15"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G127" s="8">
         <f t="shared" si="16"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H127" s="8">
         <f t="shared" si="17"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I127" s="15">
         <f t="shared" si="18"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="128" spans="3:9" x14ac:dyDescent="0.25">
@@ -3853,19 +3863,19 @@
       </c>
       <c r="F128" s="13">
         <f t="shared" si="15"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G128" s="8">
         <f t="shared" si="16"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H128" s="8">
         <f t="shared" si="17"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I128" s="15">
         <f t="shared" si="18"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="129" spans="3:9" x14ac:dyDescent="0.25">
@@ -3877,19 +3887,19 @@
       </c>
       <c r="F129" s="13">
         <f t="shared" si="15"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G129" s="8">
         <f t="shared" si="16"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H129" s="8">
         <f t="shared" si="17"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I129" s="15">
         <f t="shared" si="18"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="130" spans="3:9" x14ac:dyDescent="0.25">
@@ -3901,19 +3911,19 @@
       </c>
       <c r="F130" s="13">
         <f t="shared" si="15"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G130" s="8">
         <f t="shared" si="16"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H130" s="8">
         <f t="shared" si="17"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I130" s="15">
         <f t="shared" si="18"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="131" spans="3:9" x14ac:dyDescent="0.25">
@@ -3925,19 +3935,19 @@
       </c>
       <c r="F131" s="13">
         <f t="shared" si="15"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G131" s="8">
         <f t="shared" si="16"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H131" s="8">
         <f t="shared" si="17"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I131" s="15">
         <f t="shared" si="18"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="132" spans="3:9" x14ac:dyDescent="0.25">
@@ -3949,19 +3959,19 @@
       </c>
       <c r="F132" s="13">
         <f t="shared" si="15"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G132" s="8">
         <f t="shared" si="16"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H132" s="8">
         <f t="shared" si="17"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I132" s="15">
         <f t="shared" si="18"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="133" spans="3:9" x14ac:dyDescent="0.25">
@@ -3973,19 +3983,19 @@
       </c>
       <c r="F133" s="13">
         <f t="shared" si="15"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G133" s="8">
         <f t="shared" si="16"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H133" s="8">
         <f t="shared" si="17"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I133" s="15">
         <f t="shared" si="18"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="134" spans="3:9" x14ac:dyDescent="0.25">
@@ -3997,19 +4007,19 @@
       </c>
       <c r="F134" s="13">
         <f t="shared" si="15"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G134" s="8">
         <f t="shared" si="16"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H134" s="8">
         <f t="shared" si="17"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I134" s="15">
         <f t="shared" si="18"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="135" spans="3:9" x14ac:dyDescent="0.25">
@@ -4021,19 +4031,19 @@
       </c>
       <c r="F135" s="13">
         <f t="shared" si="15"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G135" s="8">
         <f t="shared" si="16"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H135" s="8">
         <f t="shared" si="17"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I135" s="15">
         <f t="shared" si="18"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="136" spans="3:9" x14ac:dyDescent="0.25">
@@ -4045,19 +4055,19 @@
       </c>
       <c r="F136" s="13">
         <f t="shared" si="15"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G136" s="8">
         <f t="shared" si="16"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H136" s="8">
         <f t="shared" si="17"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I136" s="15">
         <f t="shared" si="18"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="137" spans="3:9" x14ac:dyDescent="0.25">
@@ -4069,19 +4079,19 @@
       </c>
       <c r="F137" s="13">
         <f t="shared" si="15"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G137" s="8">
         <f t="shared" si="16"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H137" s="8">
         <f t="shared" si="17"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I137" s="15">
         <f t="shared" si="18"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="138" spans="3:9" x14ac:dyDescent="0.25">
@@ -4093,19 +4103,19 @@
       </c>
       <c r="F138" s="13">
         <f t="shared" si="15"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G138" s="8">
         <f t="shared" si="16"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H138" s="8">
         <f t="shared" si="17"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I138" s="15">
         <f t="shared" si="18"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="139" spans="3:9" x14ac:dyDescent="0.25">
@@ -4117,19 +4127,19 @@
       </c>
       <c r="F139" s="13">
         <f t="shared" si="15"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G139" s="8">
         <f t="shared" si="16"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H139" s="8">
         <f t="shared" si="17"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I139" s="15">
         <f t="shared" si="18"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="140" spans="3:9" x14ac:dyDescent="0.25">
@@ -4141,19 +4151,19 @@
       </c>
       <c r="F140" s="13">
         <f t="shared" si="15"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G140" s="8">
         <f t="shared" si="16"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H140" s="8">
         <f t="shared" si="17"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I140" s="15">
         <f t="shared" si="18"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="141" spans="3:9" x14ac:dyDescent="0.25">
@@ -4165,19 +4175,19 @@
       </c>
       <c r="F141" s="13">
         <f t="shared" si="15"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G141" s="8">
         <f t="shared" si="16"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H141" s="8">
         <f t="shared" si="17"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I141" s="15">
         <f t="shared" si="18"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="142" spans="3:9" x14ac:dyDescent="0.25">
@@ -4189,19 +4199,19 @@
       </c>
       <c r="F142" s="13">
         <f t="shared" si="15"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G142" s="8">
         <f t="shared" si="16"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H142" s="8">
         <f t="shared" si="17"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I142" s="15">
         <f t="shared" si="18"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="143" spans="3:9" x14ac:dyDescent="0.25">
@@ -4213,19 +4223,19 @@
       </c>
       <c r="F143" s="13">
         <f t="shared" si="15"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G143" s="8">
         <f t="shared" si="16"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H143" s="8">
         <f t="shared" si="17"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I143" s="15">
         <f t="shared" si="18"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="144" spans="3:9" x14ac:dyDescent="0.25">
@@ -4237,19 +4247,19 @@
       </c>
       <c r="F144" s="13">
         <f t="shared" si="15"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G144" s="8">
         <f t="shared" si="16"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H144" s="8">
         <f t="shared" si="17"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I144" s="15">
         <f t="shared" si="18"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="145" spans="3:9" x14ac:dyDescent="0.25">
@@ -4261,19 +4271,19 @@
       </c>
       <c r="F145" s="13">
         <f t="shared" si="15"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G145" s="8">
         <f t="shared" si="16"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H145" s="8">
         <f t="shared" si="17"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I145" s="15">
         <f t="shared" si="18"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="146" spans="3:9" x14ac:dyDescent="0.25">
@@ -4285,19 +4295,19 @@
       </c>
       <c r="F146" s="13">
         <f t="shared" si="15"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G146" s="8">
         <f t="shared" si="16"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H146" s="8">
         <f t="shared" si="17"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I146" s="15">
         <f t="shared" si="18"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="147" spans="3:9" x14ac:dyDescent="0.25">
@@ -4309,19 +4319,19 @@
       </c>
       <c r="F147" s="13">
         <f t="shared" si="15"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G147" s="8">
         <f t="shared" si="16"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H147" s="8">
         <f t="shared" si="17"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I147" s="15">
         <f t="shared" si="18"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="148" spans="3:9" x14ac:dyDescent="0.25">
@@ -4333,19 +4343,19 @@
       </c>
       <c r="F148" s="13">
         <f t="shared" si="15"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G148" s="8">
         <f t="shared" si="16"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H148" s="8">
         <f t="shared" si="17"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I148" s="15">
         <f t="shared" si="18"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="149" spans="3:9" x14ac:dyDescent="0.25">
@@ -4357,19 +4367,19 @@
       </c>
       <c r="F149" s="13">
         <f t="shared" si="15"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G149" s="8">
         <f t="shared" si="16"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H149" s="8">
         <f t="shared" si="17"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I149" s="15">
         <f t="shared" si="18"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="150" spans="3:9" x14ac:dyDescent="0.25">
@@ -4381,19 +4391,19 @@
       </c>
       <c r="F150" s="13">
         <f t="shared" si="15"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G150" s="8">
         <f t="shared" si="16"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H150" s="8">
         <f t="shared" si="17"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I150" s="15">
         <f t="shared" si="18"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="151" spans="3:9" x14ac:dyDescent="0.25">
@@ -4405,19 +4415,19 @@
       </c>
       <c r="F151" s="13">
         <f t="shared" si="15"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G151" s="8">
         <f t="shared" si="16"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H151" s="8">
         <f t="shared" si="17"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I151" s="15">
         <f t="shared" si="18"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="152" spans="3:9" x14ac:dyDescent="0.25">
@@ -4429,19 +4439,19 @@
       </c>
       <c r="F152" s="13">
         <f t="shared" si="15"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G152" s="8">
         <f t="shared" si="16"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H152" s="8">
         <f t="shared" si="17"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I152" s="15">
         <f t="shared" si="18"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="153" spans="3:9" x14ac:dyDescent="0.25">
@@ -4453,19 +4463,19 @@
       </c>
       <c r="F153" s="13">
         <f t="shared" si="15"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G153" s="8">
         <f t="shared" si="16"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H153" s="8">
         <f t="shared" si="17"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I153" s="15">
         <f t="shared" si="18"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="154" spans="3:9" x14ac:dyDescent="0.25">
@@ -4477,19 +4487,19 @@
       </c>
       <c r="F154" s="13">
         <f t="shared" si="15"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G154" s="8">
         <f t="shared" si="16"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H154" s="8">
         <f t="shared" si="17"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I154" s="15">
         <f t="shared" si="18"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="155" spans="3:9" x14ac:dyDescent="0.25">
@@ -4501,19 +4511,19 @@
       </c>
       <c r="F155" s="13">
         <f t="shared" si="15"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G155" s="8">
         <f t="shared" si="16"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H155" s="8">
         <f t="shared" si="17"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I155" s="15">
         <f t="shared" si="18"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="156" spans="3:9" x14ac:dyDescent="0.25">
@@ -4525,19 +4535,19 @@
       </c>
       <c r="F156" s="13">
         <f t="shared" si="15"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G156" s="8">
         <f t="shared" si="16"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H156" s="8">
         <f t="shared" si="17"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I156" s="15">
         <f t="shared" si="18"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="157" spans="3:9" x14ac:dyDescent="0.25">
@@ -4549,19 +4559,19 @@
       </c>
       <c r="F157" s="13">
         <f t="shared" si="15"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G157" s="8">
         <f t="shared" si="16"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H157" s="8">
         <f t="shared" si="17"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I157" s="15">
         <f t="shared" si="18"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="158" spans="3:9" x14ac:dyDescent="0.25">
@@ -4573,19 +4583,19 @@
       </c>
       <c r="F158" s="13">
         <f t="shared" si="15"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G158" s="8">
         <f t="shared" si="16"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H158" s="8">
         <f t="shared" si="17"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I158" s="15">
         <f t="shared" si="18"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="159" spans="3:9" x14ac:dyDescent="0.25">
@@ -4597,19 +4607,19 @@
       </c>
       <c r="F159" s="13">
         <f t="shared" si="15"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G159" s="8">
         <f t="shared" si="16"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H159" s="8">
         <f t="shared" si="17"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I159" s="15">
         <f t="shared" si="18"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="160" spans="3:9" x14ac:dyDescent="0.25">
@@ -4621,19 +4631,19 @@
       </c>
       <c r="F160" s="13">
         <f t="shared" si="15"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G160" s="8">
         <f t="shared" si="16"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H160" s="8">
         <f t="shared" si="17"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I160" s="15">
         <f t="shared" si="18"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="161" spans="3:9" x14ac:dyDescent="0.25">
@@ -4645,19 +4655,19 @@
       </c>
       <c r="F161" s="13">
         <f t="shared" si="15"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G161" s="8">
         <f t="shared" si="16"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H161" s="8">
         <f t="shared" si="17"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I161" s="15">
         <f t="shared" si="18"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="162" spans="3:9" x14ac:dyDescent="0.25">
@@ -4669,19 +4679,19 @@
       </c>
       <c r="F162" s="13">
         <f t="shared" si="15"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G162" s="8">
         <f t="shared" si="16"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H162" s="8">
         <f t="shared" si="17"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I162" s="15">
         <f t="shared" si="18"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="163" spans="3:9" x14ac:dyDescent="0.25">
@@ -4693,19 +4703,19 @@
       </c>
       <c r="F163" s="13">
         <f t="shared" si="15"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G163" s="8">
         <f t="shared" si="16"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H163" s="8">
         <f t="shared" si="17"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I163" s="15">
         <f t="shared" si="18"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="164" spans="3:9" x14ac:dyDescent="0.25">
@@ -4717,19 +4727,19 @@
       </c>
       <c r="F164" s="13">
         <f t="shared" si="15"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G164" s="8">
         <f t="shared" si="16"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H164" s="8">
         <f t="shared" si="17"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I164" s="15">
         <f t="shared" si="18"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="165" spans="3:9" x14ac:dyDescent="0.25">
@@ -4741,19 +4751,19 @@
       </c>
       <c r="F165" s="13">
         <f t="shared" si="15"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G165" s="8">
         <f t="shared" si="16"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H165" s="8">
         <f t="shared" si="17"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I165" s="15">
         <f t="shared" si="18"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="166" spans="3:9" x14ac:dyDescent="0.25">
@@ -4765,19 +4775,19 @@
       </c>
       <c r="F166" s="13">
         <f t="shared" si="15"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G166" s="8">
         <f t="shared" si="16"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H166" s="8">
         <f t="shared" si="17"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I166" s="15">
         <f t="shared" si="18"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="167" spans="3:9" x14ac:dyDescent="0.25">
@@ -4789,19 +4799,19 @@
       </c>
       <c r="F167" s="13">
         <f t="shared" si="15"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G167" s="8">
         <f t="shared" si="16"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H167" s="8">
         <f t="shared" si="17"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I167" s="15">
         <f t="shared" si="18"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="168" spans="3:9" x14ac:dyDescent="0.25">
@@ -4813,19 +4823,19 @@
       </c>
       <c r="F168" s="13">
         <f t="shared" ref="F168:F231" si="20">F167+E168</f>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G168" s="8">
         <f t="shared" ref="G168:G231" si="21">F168</f>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H168" s="8">
         <f t="shared" ref="H168:H231" si="22">(H167+G168-G167)</f>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I168" s="15">
         <f t="shared" ref="I168:I231" si="23">H168*24*$J$2</f>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="169" spans="3:9" x14ac:dyDescent="0.25">
@@ -4837,19 +4847,19 @@
       </c>
       <c r="F169" s="13">
         <f t="shared" si="20"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G169" s="8">
         <f t="shared" si="21"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H169" s="8">
         <f t="shared" si="22"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I169" s="15">
         <f t="shared" si="23"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="170" spans="3:9" x14ac:dyDescent="0.25">
@@ -4861,19 +4871,19 @@
       </c>
       <c r="F170" s="13">
         <f t="shared" si="20"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G170" s="8">
         <f t="shared" si="21"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H170" s="8">
         <f t="shared" si="22"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I170" s="15">
         <f t="shared" si="23"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="171" spans="3:9" x14ac:dyDescent="0.25">
@@ -4885,19 +4895,19 @@
       </c>
       <c r="F171" s="13">
         <f t="shared" si="20"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G171" s="8">
         <f t="shared" si="21"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H171" s="8">
         <f t="shared" si="22"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I171" s="15">
         <f t="shared" si="23"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="172" spans="3:9" x14ac:dyDescent="0.25">
@@ -4909,19 +4919,19 @@
       </c>
       <c r="F172" s="13">
         <f t="shared" si="20"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G172" s="8">
         <f t="shared" si="21"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H172" s="8">
         <f t="shared" si="22"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I172" s="15">
         <f t="shared" si="23"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="173" spans="3:9" x14ac:dyDescent="0.25">
@@ -4933,19 +4943,19 @@
       </c>
       <c r="F173" s="13">
         <f t="shared" si="20"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G173" s="8">
         <f t="shared" si="21"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H173" s="8">
         <f t="shared" si="22"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I173" s="15">
         <f t="shared" si="23"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="174" spans="3:9" x14ac:dyDescent="0.25">
@@ -4957,19 +4967,19 @@
       </c>
       <c r="F174" s="13">
         <f t="shared" si="20"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G174" s="8">
         <f t="shared" si="21"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H174" s="8">
         <f t="shared" si="22"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I174" s="15">
         <f t="shared" si="23"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="175" spans="3:9" x14ac:dyDescent="0.25">
@@ -4981,19 +4991,19 @@
       </c>
       <c r="F175" s="13">
         <f t="shared" si="20"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G175" s="8">
         <f t="shared" si="21"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H175" s="8">
         <f t="shared" si="22"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I175" s="15">
         <f t="shared" si="23"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="176" spans="3:9" x14ac:dyDescent="0.25">
@@ -5005,19 +5015,19 @@
       </c>
       <c r="F176" s="13">
         <f t="shared" si="20"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G176" s="8">
         <f t="shared" si="21"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H176" s="8">
         <f t="shared" si="22"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I176" s="15">
         <f t="shared" si="23"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="177" spans="3:9" x14ac:dyDescent="0.25">
@@ -5029,19 +5039,19 @@
       </c>
       <c r="F177" s="13">
         <f t="shared" si="20"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G177" s="8">
         <f t="shared" si="21"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H177" s="8">
         <f t="shared" si="22"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I177" s="15">
         <f t="shared" si="23"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="178" spans="3:9" x14ac:dyDescent="0.25">
@@ -5053,19 +5063,19 @@
       </c>
       <c r="F178" s="13">
         <f t="shared" si="20"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G178" s="8">
         <f t="shared" si="21"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H178" s="8">
         <f t="shared" si="22"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I178" s="15">
         <f t="shared" si="23"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="179" spans="3:9" x14ac:dyDescent="0.25">
@@ -5077,19 +5087,19 @@
       </c>
       <c r="F179" s="13">
         <f t="shared" si="20"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G179" s="8">
         <f t="shared" si="21"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H179" s="8">
         <f t="shared" si="22"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I179" s="15">
         <f t="shared" si="23"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="180" spans="3:9" x14ac:dyDescent="0.25">
@@ -5101,19 +5111,19 @@
       </c>
       <c r="F180" s="13">
         <f t="shared" si="20"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G180" s="8">
         <f t="shared" si="21"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H180" s="8">
         <f t="shared" si="22"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I180" s="15">
         <f t="shared" si="23"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="181" spans="3:9" x14ac:dyDescent="0.25">
@@ -5125,19 +5135,19 @@
       </c>
       <c r="F181" s="13">
         <f t="shared" si="20"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G181" s="8">
         <f t="shared" si="21"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H181" s="8">
         <f t="shared" si="22"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I181" s="15">
         <f t="shared" si="23"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="182" spans="3:9" x14ac:dyDescent="0.25">
@@ -5149,19 +5159,19 @@
       </c>
       <c r="F182" s="13">
         <f t="shared" si="20"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G182" s="8">
         <f t="shared" si="21"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H182" s="8">
         <f t="shared" si="22"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I182" s="15">
         <f t="shared" si="23"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="183" spans="3:9" x14ac:dyDescent="0.25">
@@ -5173,19 +5183,19 @@
       </c>
       <c r="F183" s="13">
         <f t="shared" si="20"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G183" s="8">
         <f t="shared" si="21"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H183" s="8">
         <f t="shared" si="22"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I183" s="15">
         <f t="shared" si="23"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="184" spans="3:9" x14ac:dyDescent="0.25">
@@ -5197,19 +5207,19 @@
       </c>
       <c r="F184" s="13">
         <f t="shared" si="20"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G184" s="8">
         <f t="shared" si="21"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H184" s="8">
         <f t="shared" si="22"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I184" s="15">
         <f t="shared" si="23"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="185" spans="3:9" x14ac:dyDescent="0.25">
@@ -5221,19 +5231,19 @@
       </c>
       <c r="F185" s="13">
         <f t="shared" si="20"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G185" s="8">
         <f t="shared" si="21"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H185" s="8">
         <f t="shared" si="22"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I185" s="15">
         <f t="shared" si="23"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="186" spans="3:9" x14ac:dyDescent="0.25">
@@ -5245,19 +5255,19 @@
       </c>
       <c r="F186" s="13">
         <f t="shared" si="20"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G186" s="8">
         <f t="shared" si="21"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H186" s="8">
         <f t="shared" si="22"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I186" s="15">
         <f t="shared" si="23"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="187" spans="3:9" x14ac:dyDescent="0.25">
@@ -5269,19 +5279,19 @@
       </c>
       <c r="F187" s="13">
         <f t="shared" si="20"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G187" s="8">
         <f t="shared" si="21"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H187" s="8">
         <f t="shared" si="22"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I187" s="15">
         <f t="shared" si="23"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="188" spans="3:9" x14ac:dyDescent="0.25">
@@ -5293,19 +5303,19 @@
       </c>
       <c r="F188" s="13">
         <f t="shared" si="20"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G188" s="8">
         <f t="shared" si="21"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H188" s="8">
         <f t="shared" si="22"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I188" s="15">
         <f t="shared" si="23"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="189" spans="3:9" x14ac:dyDescent="0.25">
@@ -5317,19 +5327,19 @@
       </c>
       <c r="F189" s="13">
         <f t="shared" si="20"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G189" s="8">
         <f t="shared" si="21"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H189" s="8">
         <f t="shared" si="22"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I189" s="15">
         <f t="shared" si="23"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="190" spans="3:9" x14ac:dyDescent="0.25">
@@ -5341,19 +5351,19 @@
       </c>
       <c r="F190" s="13">
         <f t="shared" si="20"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G190" s="8">
         <f t="shared" si="21"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H190" s="8">
         <f t="shared" si="22"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I190" s="15">
         <f t="shared" si="23"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="191" spans="3:9" x14ac:dyDescent="0.25">
@@ -5365,19 +5375,19 @@
       </c>
       <c r="F191" s="13">
         <f t="shared" si="20"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G191" s="8">
         <f t="shared" si="21"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H191" s="8">
         <f t="shared" si="22"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I191" s="15">
         <f t="shared" si="23"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="192" spans="3:9" x14ac:dyDescent="0.25">
@@ -5389,19 +5399,19 @@
       </c>
       <c r="F192" s="13">
         <f t="shared" si="20"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G192" s="8">
         <f t="shared" si="21"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H192" s="8">
         <f t="shared" si="22"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I192" s="15">
         <f t="shared" si="23"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="193" spans="3:9" x14ac:dyDescent="0.25">
@@ -5413,19 +5423,19 @@
       </c>
       <c r="F193" s="13">
         <f t="shared" si="20"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G193" s="8">
         <f t="shared" si="21"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H193" s="8">
         <f t="shared" si="22"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I193" s="15">
         <f t="shared" si="23"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="194" spans="3:9" x14ac:dyDescent="0.25">
@@ -5437,19 +5447,19 @@
       </c>
       <c r="F194" s="13">
         <f t="shared" si="20"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G194" s="8">
         <f t="shared" si="21"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H194" s="8">
         <f t="shared" si="22"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I194" s="15">
         <f t="shared" si="23"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="195" spans="3:9" x14ac:dyDescent="0.25">
@@ -5461,19 +5471,19 @@
       </c>
       <c r="F195" s="13">
         <f t="shared" si="20"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G195" s="8">
         <f t="shared" si="21"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H195" s="8">
         <f t="shared" si="22"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I195" s="15">
         <f t="shared" si="23"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="196" spans="3:9" x14ac:dyDescent="0.25">
@@ -5485,19 +5495,19 @@
       </c>
       <c r="F196" s="13">
         <f t="shared" si="20"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G196" s="8">
         <f t="shared" si="21"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H196" s="8">
         <f t="shared" si="22"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I196" s="15">
         <f t="shared" si="23"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="197" spans="3:9" x14ac:dyDescent="0.25">
@@ -5509,19 +5519,19 @@
       </c>
       <c r="F197" s="13">
         <f t="shared" si="20"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G197" s="8">
         <f t="shared" si="21"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H197" s="8">
         <f t="shared" si="22"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I197" s="15">
         <f t="shared" si="23"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="198" spans="3:9" x14ac:dyDescent="0.25">
@@ -5533,19 +5543,19 @@
       </c>
       <c r="F198" s="13">
         <f t="shared" si="20"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G198" s="8">
         <f t="shared" si="21"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H198" s="8">
         <f t="shared" si="22"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I198" s="15">
         <f t="shared" si="23"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="199" spans="3:9" x14ac:dyDescent="0.25">
@@ -5557,19 +5567,19 @@
       </c>
       <c r="F199" s="13">
         <f t="shared" si="20"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G199" s="8">
         <f t="shared" si="21"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H199" s="8">
         <f t="shared" si="22"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I199" s="15">
         <f t="shared" si="23"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="200" spans="3:9" x14ac:dyDescent="0.25">
@@ -5581,19 +5591,19 @@
       </c>
       <c r="F200" s="13">
         <f t="shared" si="20"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G200" s="8">
         <f t="shared" si="21"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H200" s="8">
         <f t="shared" si="22"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I200" s="15">
         <f t="shared" si="23"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="201" spans="3:9" x14ac:dyDescent="0.25">
@@ -5605,19 +5615,19 @@
       </c>
       <c r="F201" s="13">
         <f t="shared" si="20"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G201" s="8">
         <f t="shared" si="21"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H201" s="8">
         <f t="shared" si="22"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I201" s="15">
         <f t="shared" si="23"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="202" spans="3:9" x14ac:dyDescent="0.25">
@@ -5629,19 +5639,19 @@
       </c>
       <c r="F202" s="13">
         <f t="shared" si="20"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G202" s="8">
         <f t="shared" si="21"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H202" s="8">
         <f t="shared" si="22"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I202" s="15">
         <f t="shared" si="23"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="203" spans="3:9" x14ac:dyDescent="0.25">
@@ -5653,19 +5663,19 @@
       </c>
       <c r="F203" s="13">
         <f t="shared" si="20"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G203" s="8">
         <f t="shared" si="21"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H203" s="8">
         <f t="shared" si="22"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I203" s="15">
         <f t="shared" si="23"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="204" spans="3:9" x14ac:dyDescent="0.25">
@@ -5677,19 +5687,19 @@
       </c>
       <c r="F204" s="13">
         <f t="shared" si="20"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G204" s="8">
         <f t="shared" si="21"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H204" s="8">
         <f t="shared" si="22"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I204" s="15">
         <f t="shared" si="23"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="205" spans="3:9" x14ac:dyDescent="0.25">
@@ -5701,19 +5711,19 @@
       </c>
       <c r="F205" s="13">
         <f t="shared" si="20"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G205" s="8">
         <f t="shared" si="21"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H205" s="8">
         <f t="shared" si="22"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I205" s="15">
         <f t="shared" si="23"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="206" spans="3:9" x14ac:dyDescent="0.25">
@@ -5725,19 +5735,19 @@
       </c>
       <c r="F206" s="13">
         <f t="shared" si="20"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G206" s="8">
         <f t="shared" si="21"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H206" s="8">
         <f t="shared" si="22"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I206" s="15">
         <f t="shared" si="23"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="207" spans="3:9" x14ac:dyDescent="0.25">
@@ -5749,19 +5759,19 @@
       </c>
       <c r="F207" s="13">
         <f t="shared" si="20"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G207" s="8">
         <f t="shared" si="21"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H207" s="8">
         <f t="shared" si="22"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I207" s="15">
         <f t="shared" si="23"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="208" spans="3:9" x14ac:dyDescent="0.25">
@@ -5773,19 +5783,19 @@
       </c>
       <c r="F208" s="13">
         <f t="shared" si="20"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G208" s="8">
         <f t="shared" si="21"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H208" s="8">
         <f t="shared" si="22"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I208" s="15">
         <f t="shared" si="23"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="209" spans="3:9" x14ac:dyDescent="0.25">
@@ -5797,19 +5807,19 @@
       </c>
       <c r="F209" s="13">
         <f t="shared" si="20"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G209" s="8">
         <f t="shared" si="21"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H209" s="8">
         <f t="shared" si="22"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I209" s="15">
         <f t="shared" si="23"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="210" spans="3:9" x14ac:dyDescent="0.25">
@@ -5821,19 +5831,19 @@
       </c>
       <c r="F210" s="13">
         <f t="shared" si="20"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G210" s="8">
         <f t="shared" si="21"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H210" s="8">
         <f t="shared" si="22"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I210" s="15">
         <f t="shared" si="23"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="211" spans="3:9" x14ac:dyDescent="0.25">
@@ -5845,19 +5855,19 @@
       </c>
       <c r="F211" s="13">
         <f t="shared" si="20"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G211" s="8">
         <f t="shared" si="21"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H211" s="8">
         <f t="shared" si="22"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I211" s="15">
         <f t="shared" si="23"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="212" spans="3:9" x14ac:dyDescent="0.25">
@@ -5869,19 +5879,19 @@
       </c>
       <c r="F212" s="13">
         <f t="shared" si="20"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G212" s="8">
         <f t="shared" si="21"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H212" s="8">
         <f t="shared" si="22"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I212" s="15">
         <f t="shared" si="23"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="213" spans="3:9" x14ac:dyDescent="0.25">
@@ -5893,19 +5903,19 @@
       </c>
       <c r="F213" s="13">
         <f t="shared" si="20"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G213" s="8">
         <f t="shared" si="21"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H213" s="8">
         <f t="shared" si="22"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I213" s="15">
         <f t="shared" si="23"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="214" spans="3:9" x14ac:dyDescent="0.25">
@@ -5917,19 +5927,19 @@
       </c>
       <c r="F214" s="13">
         <f t="shared" si="20"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G214" s="8">
         <f t="shared" si="21"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H214" s="8">
         <f t="shared" si="22"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I214" s="15">
         <f t="shared" si="23"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="215" spans="3:9" x14ac:dyDescent="0.25">
@@ -5941,19 +5951,19 @@
       </c>
       <c r="F215" s="13">
         <f t="shared" si="20"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G215" s="8">
         <f t="shared" si="21"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H215" s="8">
         <f t="shared" si="22"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I215" s="15">
         <f t="shared" si="23"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="216" spans="3:9" x14ac:dyDescent="0.25">
@@ -5965,19 +5975,19 @@
       </c>
       <c r="F216" s="13">
         <f t="shared" si="20"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G216" s="8">
         <f t="shared" si="21"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H216" s="8">
         <f t="shared" si="22"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I216" s="15">
         <f t="shared" si="23"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="217" spans="3:9" x14ac:dyDescent="0.25">
@@ -5989,19 +5999,19 @@
       </c>
       <c r="F217" s="13">
         <f t="shared" si="20"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G217" s="8">
         <f t="shared" si="21"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H217" s="8">
         <f t="shared" si="22"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I217" s="15">
         <f t="shared" si="23"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="218" spans="3:9" x14ac:dyDescent="0.25">
@@ -6013,19 +6023,19 @@
       </c>
       <c r="F218" s="13">
         <f t="shared" si="20"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G218" s="8">
         <f t="shared" si="21"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H218" s="8">
         <f t="shared" si="22"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I218" s="15">
         <f t="shared" si="23"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="219" spans="3:9" x14ac:dyDescent="0.25">
@@ -6037,19 +6047,19 @@
       </c>
       <c r="F219" s="13">
         <f t="shared" si="20"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G219" s="8">
         <f t="shared" si="21"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H219" s="8">
         <f t="shared" si="22"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I219" s="15">
         <f t="shared" si="23"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="220" spans="3:9" x14ac:dyDescent="0.25">
@@ -6061,19 +6071,19 @@
       </c>
       <c r="F220" s="13">
         <f t="shared" si="20"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G220" s="8">
         <f t="shared" si="21"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H220" s="8">
         <f t="shared" si="22"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I220" s="15">
         <f t="shared" si="23"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="221" spans="3:9" x14ac:dyDescent="0.25">
@@ -6085,19 +6095,19 @@
       </c>
       <c r="F221" s="13">
         <f t="shared" si="20"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G221" s="8">
         <f t="shared" si="21"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H221" s="8">
         <f t="shared" si="22"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I221" s="15">
         <f t="shared" si="23"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="222" spans="3:9" x14ac:dyDescent="0.25">
@@ -6109,19 +6119,19 @@
       </c>
       <c r="F222" s="13">
         <f t="shared" si="20"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G222" s="8">
         <f t="shared" si="21"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H222" s="8">
         <f t="shared" si="22"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I222" s="15">
         <f t="shared" si="23"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="223" spans="3:9" x14ac:dyDescent="0.25">
@@ -6133,19 +6143,19 @@
       </c>
       <c r="F223" s="13">
         <f t="shared" si="20"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G223" s="8">
         <f t="shared" si="21"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H223" s="8">
         <f t="shared" si="22"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I223" s="15">
         <f t="shared" si="23"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="224" spans="3:9" x14ac:dyDescent="0.25">
@@ -6157,19 +6167,19 @@
       </c>
       <c r="F224" s="13">
         <f t="shared" si="20"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G224" s="8">
         <f t="shared" si="21"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H224" s="8">
         <f t="shared" si="22"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I224" s="15">
         <f t="shared" si="23"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="225" spans="3:9" x14ac:dyDescent="0.25">
@@ -6181,19 +6191,19 @@
       </c>
       <c r="F225" s="13">
         <f t="shared" si="20"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G225" s="8">
         <f t="shared" si="21"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H225" s="8">
         <f t="shared" si="22"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I225" s="15">
         <f t="shared" si="23"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="226" spans="3:9" x14ac:dyDescent="0.25">
@@ -6205,19 +6215,19 @@
       </c>
       <c r="F226" s="13">
         <f t="shared" si="20"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G226" s="8">
         <f t="shared" si="21"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H226" s="8">
         <f t="shared" si="22"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I226" s="15">
         <f t="shared" si="23"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="227" spans="3:9" x14ac:dyDescent="0.25">
@@ -6229,19 +6239,19 @@
       </c>
       <c r="F227" s="13">
         <f t="shared" si="20"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G227" s="8">
         <f t="shared" si="21"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H227" s="8">
         <f t="shared" si="22"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I227" s="15">
         <f t="shared" si="23"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="228" spans="3:9" x14ac:dyDescent="0.25">
@@ -6253,19 +6263,19 @@
       </c>
       <c r="F228" s="13">
         <f t="shared" si="20"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G228" s="8">
         <f t="shared" si="21"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H228" s="8">
         <f t="shared" si="22"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I228" s="15">
         <f t="shared" si="23"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="229" spans="3:9" x14ac:dyDescent="0.25">
@@ -6277,19 +6287,19 @@
       </c>
       <c r="F229" s="13">
         <f t="shared" si="20"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G229" s="8">
         <f t="shared" si="21"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H229" s="8">
         <f t="shared" si="22"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I229" s="15">
         <f t="shared" si="23"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="230" spans="3:9" x14ac:dyDescent="0.25">
@@ -6301,19 +6311,19 @@
       </c>
       <c r="F230" s="13">
         <f t="shared" si="20"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G230" s="8">
         <f t="shared" si="21"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H230" s="8">
         <f t="shared" si="22"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I230" s="15">
         <f t="shared" si="23"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="231" spans="3:9" x14ac:dyDescent="0.25">
@@ -6325,19 +6335,19 @@
       </c>
       <c r="F231" s="13">
         <f t="shared" si="20"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G231" s="8">
         <f t="shared" si="21"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H231" s="8">
         <f t="shared" si="22"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I231" s="15">
         <f t="shared" si="23"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="232" spans="3:9" x14ac:dyDescent="0.25">
@@ -6349,19 +6359,19 @@
       </c>
       <c r="F232" s="13">
         <f t="shared" ref="F232:F255" si="25">F231+E232</f>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G232" s="8">
         <f t="shared" ref="G232:G255" si="26">F232</f>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H232" s="8">
         <f t="shared" ref="H232:H255" si="27">(H231+G232-G231)</f>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I232" s="15">
         <f t="shared" ref="I232:I255" si="28">H232*24*$J$2</f>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="233" spans="3:9" x14ac:dyDescent="0.25">
@@ -6373,19 +6383,19 @@
       </c>
       <c r="F233" s="13">
         <f t="shared" si="25"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G233" s="8">
         <f t="shared" si="26"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H233" s="8">
         <f t="shared" si="27"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I233" s="15">
         <f t="shared" si="28"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="234" spans="3:9" x14ac:dyDescent="0.25">
@@ -6397,19 +6407,19 @@
       </c>
       <c r="F234" s="13">
         <f t="shared" si="25"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G234" s="8">
         <f t="shared" si="26"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H234" s="8">
         <f t="shared" si="27"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I234" s="15">
         <f t="shared" si="28"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="235" spans="3:9" x14ac:dyDescent="0.25">
@@ -6421,19 +6431,19 @@
       </c>
       <c r="F235" s="13">
         <f t="shared" si="25"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G235" s="8">
         <f t="shared" si="26"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H235" s="8">
         <f t="shared" si="27"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I235" s="15">
         <f t="shared" si="28"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="236" spans="3:9" x14ac:dyDescent="0.25">
@@ -6445,19 +6455,19 @@
       </c>
       <c r="F236" s="13">
         <f t="shared" si="25"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G236" s="8">
         <f t="shared" si="26"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H236" s="8">
         <f t="shared" si="27"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I236" s="15">
         <f t="shared" si="28"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="237" spans="3:9" x14ac:dyDescent="0.25">
@@ -6469,19 +6479,19 @@
       </c>
       <c r="F237" s="13">
         <f t="shared" si="25"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G237" s="8">
         <f t="shared" si="26"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H237" s="8">
         <f t="shared" si="27"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I237" s="15">
         <f t="shared" si="28"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="238" spans="3:9" x14ac:dyDescent="0.25">
@@ -6493,19 +6503,19 @@
       </c>
       <c r="F238" s="13">
         <f t="shared" si="25"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G238" s="8">
         <f t="shared" si="26"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H238" s="8">
         <f t="shared" si="27"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I238" s="15">
         <f t="shared" si="28"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="239" spans="3:9" x14ac:dyDescent="0.25">
@@ -6517,19 +6527,19 @@
       </c>
       <c r="F239" s="13">
         <f t="shared" si="25"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G239" s="8">
         <f t="shared" si="26"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H239" s="8">
         <f t="shared" si="27"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I239" s="15">
         <f t="shared" si="28"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="240" spans="3:9" x14ac:dyDescent="0.25">
@@ -6541,19 +6551,19 @@
       </c>
       <c r="F240" s="13">
         <f t="shared" si="25"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G240" s="8">
         <f t="shared" si="26"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H240" s="8">
         <f t="shared" si="27"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I240" s="15">
         <f t="shared" si="28"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="241" spans="3:9" x14ac:dyDescent="0.25">
@@ -6565,19 +6575,19 @@
       </c>
       <c r="F241" s="13">
         <f t="shared" si="25"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G241" s="8">
         <f t="shared" si="26"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H241" s="8">
         <f t="shared" si="27"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I241" s="15">
         <f t="shared" si="28"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="242" spans="3:9" x14ac:dyDescent="0.25">
@@ -6589,19 +6599,19 @@
       </c>
       <c r="F242" s="13">
         <f t="shared" si="25"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G242" s="8">
         <f t="shared" si="26"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H242" s="8">
         <f t="shared" si="27"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I242" s="15">
         <f t="shared" si="28"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="243" spans="3:9" x14ac:dyDescent="0.25">
@@ -6613,19 +6623,19 @@
       </c>
       <c r="F243" s="13">
         <f t="shared" si="25"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G243" s="8">
         <f t="shared" si="26"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H243" s="8">
         <f t="shared" si="27"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I243" s="15">
         <f t="shared" si="28"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="244" spans="3:9" x14ac:dyDescent="0.25">
@@ -6637,19 +6647,19 @@
       </c>
       <c r="F244" s="13">
         <f t="shared" si="25"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G244" s="8">
         <f t="shared" si="26"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H244" s="8">
         <f t="shared" si="27"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I244" s="15">
         <f t="shared" si="28"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="245" spans="3:9" x14ac:dyDescent="0.25">
@@ -6661,19 +6671,19 @@
       </c>
       <c r="F245" s="13">
         <f t="shared" si="25"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G245" s="8">
         <f t="shared" si="26"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H245" s="8">
         <f t="shared" si="27"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I245" s="15">
         <f t="shared" si="28"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="246" spans="3:9" x14ac:dyDescent="0.25">
@@ -6685,19 +6695,19 @@
       </c>
       <c r="F246" s="13">
         <f t="shared" si="25"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G246" s="8">
         <f t="shared" si="26"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H246" s="8">
         <f t="shared" si="27"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I246" s="15">
         <f t="shared" si="28"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="247" spans="3:9" x14ac:dyDescent="0.25">
@@ -6709,19 +6719,19 @@
       </c>
       <c r="F247" s="13">
         <f t="shared" si="25"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G247" s="8">
         <f t="shared" si="26"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H247" s="8">
         <f t="shared" si="27"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I247" s="15">
         <f t="shared" si="28"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="248" spans="3:9" x14ac:dyDescent="0.25">
@@ -6733,19 +6743,19 @@
       </c>
       <c r="F248" s="13">
         <f t="shared" si="25"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G248" s="8">
         <f t="shared" si="26"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H248" s="8">
         <f t="shared" si="27"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I248" s="15">
         <f t="shared" si="28"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="249" spans="3:9" x14ac:dyDescent="0.25">
@@ -6757,19 +6767,19 @@
       </c>
       <c r="F249" s="13">
         <f t="shared" si="25"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G249" s="8">
         <f t="shared" si="26"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H249" s="8">
         <f t="shared" si="27"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I249" s="15">
         <f t="shared" si="28"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="250" spans="3:9" x14ac:dyDescent="0.25">
@@ -6781,19 +6791,19 @@
       </c>
       <c r="F250" s="13">
         <f t="shared" si="25"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G250" s="8">
         <f t="shared" si="26"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H250" s="8">
         <f t="shared" si="27"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I250" s="15">
         <f t="shared" si="28"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="251" spans="3:9" x14ac:dyDescent="0.25">
@@ -6805,19 +6815,19 @@
       </c>
       <c r="F251" s="13">
         <f t="shared" si="25"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G251" s="8">
         <f t="shared" si="26"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H251" s="8">
         <f t="shared" si="27"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I251" s="15">
         <f t="shared" si="28"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="252" spans="3:9" x14ac:dyDescent="0.25">
@@ -6829,19 +6839,19 @@
       </c>
       <c r="F252" s="13">
         <f t="shared" si="25"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G252" s="8">
         <f t="shared" si="26"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H252" s="8">
         <f t="shared" si="27"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I252" s="15">
         <f t="shared" si="28"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="253" spans="3:9" x14ac:dyDescent="0.25">
@@ -6853,19 +6863,19 @@
       </c>
       <c r="F253" s="13">
         <f t="shared" si="25"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G253" s="8">
         <f t="shared" si="26"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H253" s="8">
         <f t="shared" si="27"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I253" s="15">
         <f t="shared" si="28"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="254" spans="3:9" x14ac:dyDescent="0.25">
@@ -6877,19 +6887,19 @@
       </c>
       <c r="F254" s="13">
         <f t="shared" si="25"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G254" s="8">
         <f t="shared" si="26"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H254" s="8">
         <f t="shared" si="27"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I254" s="15">
         <f t="shared" si="28"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
     <row r="255" spans="3:9" x14ac:dyDescent="0.25">
@@ -6901,19 +6911,19 @@
       </c>
       <c r="F255" s="13">
         <f t="shared" si="25"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="G255" s="8">
         <f t="shared" si="26"/>
-        <v>0.25972222222222208</v>
+        <v>0.28819444444444431</v>
       </c>
       <c r="H255" s="8">
         <f t="shared" si="27"/>
-        <v>1.4097222222222223</v>
+        <v>1.4381944444444446</v>
       </c>
       <c r="I255" s="15">
         <f t="shared" si="28"/>
-        <v>5751.666666666667</v>
+        <v>5867.833333333333</v>
       </c>
     </row>
   </sheetData>

--- a/hodiny.xlsx
+++ b/hodiny.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96AE444-CD71-4DA7-9F76-F4A05125C6B9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94DEEABE-E642-47EA-9516-35CA7B554763}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5070" yWindow="5070" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -608,8 +608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1815,99 +1815,115 @@
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C43" s="2"/>
-      <c r="D43" s="10"/>
+      <c r="C43" s="2">
+        <v>0.53749999999999998</v>
+      </c>
+      <c r="D43" s="10">
+        <v>0.60416666666666663</v>
+      </c>
       <c r="E43" s="12">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>6.6666666666666652E-2</v>
       </c>
       <c r="F43" s="13">
         <f t="shared" si="10"/>
-        <v>0.28819444444444431</v>
+        <v>0.35486111111111096</v>
       </c>
       <c r="G43" s="8">
         <f t="shared" si="11"/>
-        <v>0.28819444444444431</v>
+        <v>0.35486111111111096</v>
       </c>
       <c r="H43" s="8">
         <f t="shared" si="12"/>
-        <v>1.4381944444444446</v>
+        <v>1.5048611111111114</v>
       </c>
       <c r="I43" s="15">
         <f t="shared" si="13"/>
-        <v>5867.833333333333</v>
+        <v>6139.8333333333348</v>
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C44" s="2"/>
-      <c r="D44" s="10"/>
+      <c r="C44" s="2">
+        <v>0.65138888888888891</v>
+      </c>
+      <c r="D44" s="10">
+        <v>0.6875</v>
+      </c>
       <c r="E44" s="12">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>3.6111111111111094E-2</v>
       </c>
       <c r="F44" s="13">
         <f t="shared" si="10"/>
-        <v>0.28819444444444431</v>
+        <v>0.39097222222222205</v>
       </c>
       <c r="G44" s="8">
         <f t="shared" si="11"/>
-        <v>0.28819444444444431</v>
+        <v>0.39097222222222205</v>
       </c>
       <c r="H44" s="8">
         <f t="shared" si="12"/>
-        <v>1.4381944444444446</v>
+        <v>1.5409722222222224</v>
       </c>
       <c r="I44" s="15">
         <f t="shared" si="13"/>
-        <v>5867.833333333333</v>
+        <v>6287.166666666667</v>
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C45" s="2"/>
-      <c r="D45" s="10"/>
+      <c r="C45" s="2">
+        <v>0.71805555555555556</v>
+      </c>
+      <c r="D45" s="10">
+        <v>0.7319444444444444</v>
+      </c>
       <c r="E45" s="12">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1.388888888888884E-2</v>
       </c>
       <c r="F45" s="13">
         <f t="shared" si="10"/>
-        <v>0.28819444444444431</v>
+        <v>0.40486111111111089</v>
       </c>
       <c r="G45" s="8">
         <f t="shared" si="11"/>
-        <v>0.28819444444444431</v>
+        <v>0.40486111111111089</v>
       </c>
       <c r="H45" s="8">
         <f t="shared" si="12"/>
-        <v>1.4381944444444446</v>
+        <v>1.5548611111111112</v>
       </c>
       <c r="I45" s="15">
         <f t="shared" si="13"/>
-        <v>5867.833333333333</v>
+        <v>6343.8333333333339</v>
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C46" s="2"/>
-      <c r="D46" s="10"/>
+      <c r="C46" s="2">
+        <v>0.84236111111111101</v>
+      </c>
+      <c r="D46" s="10">
+        <v>0.87986111111111109</v>
+      </c>
       <c r="E46" s="12">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>3.7500000000000089E-2</v>
       </c>
       <c r="F46" s="13">
         <f t="shared" si="10"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G46" s="8">
         <f t="shared" si="11"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H46" s="8">
         <f t="shared" si="12"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I46" s="15">
         <f t="shared" si="13"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.25">
@@ -1919,19 +1935,19 @@
       </c>
       <c r="F47" s="13">
         <f t="shared" si="10"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G47" s="8">
         <f t="shared" si="11"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H47" s="8">
         <f t="shared" si="12"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I47" s="15">
         <f t="shared" si="13"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.25">
@@ -1943,19 +1959,19 @@
       </c>
       <c r="F48" s="13">
         <f t="shared" si="10"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G48" s="8">
         <f t="shared" si="11"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H48" s="8">
         <f t="shared" si="12"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I48" s="15">
         <f t="shared" si="13"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="49" spans="3:9" x14ac:dyDescent="0.25">
@@ -1967,19 +1983,19 @@
       </c>
       <c r="F49" s="13">
         <f t="shared" si="10"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G49" s="8">
         <f t="shared" si="11"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H49" s="8">
         <f t="shared" si="12"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I49" s="15">
         <f t="shared" si="13"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="50" spans="3:9" x14ac:dyDescent="0.25">
@@ -1991,19 +2007,19 @@
       </c>
       <c r="F50" s="13">
         <f t="shared" si="10"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G50" s="8">
         <f t="shared" si="11"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H50" s="8">
         <f t="shared" si="12"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I50" s="15">
         <f t="shared" si="13"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="51" spans="3:9" x14ac:dyDescent="0.25">
@@ -2015,19 +2031,19 @@
       </c>
       <c r="F51" s="13">
         <f t="shared" si="10"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G51" s="8">
         <f t="shared" si="11"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H51" s="8">
         <f t="shared" si="12"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I51" s="15">
         <f t="shared" si="13"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="52" spans="3:9" x14ac:dyDescent="0.25">
@@ -2039,19 +2055,19 @@
       </c>
       <c r="F52" s="13">
         <f t="shared" si="10"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G52" s="8">
         <f t="shared" si="11"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H52" s="8">
         <f t="shared" si="12"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I52" s="15">
         <f t="shared" si="13"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="53" spans="3:9" x14ac:dyDescent="0.25">
@@ -2063,19 +2079,19 @@
       </c>
       <c r="F53" s="13">
         <f t="shared" si="10"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G53" s="8">
         <f t="shared" si="11"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H53" s="8">
         <f t="shared" si="12"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I53" s="15">
         <f t="shared" si="13"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="54" spans="3:9" x14ac:dyDescent="0.25">
@@ -2087,19 +2103,19 @@
       </c>
       <c r="F54" s="13">
         <f t="shared" si="10"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G54" s="8">
         <f t="shared" si="11"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H54" s="8">
         <f t="shared" si="12"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I54" s="15">
         <f t="shared" si="13"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="55" spans="3:9" x14ac:dyDescent="0.25">
@@ -2111,19 +2127,19 @@
       </c>
       <c r="F55" s="13">
         <f t="shared" si="10"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G55" s="8">
         <f t="shared" si="11"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H55" s="8">
         <f t="shared" si="12"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I55" s="15">
         <f t="shared" si="13"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="56" spans="3:9" x14ac:dyDescent="0.25">
@@ -2135,19 +2151,19 @@
       </c>
       <c r="F56" s="13">
         <f t="shared" si="10"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G56" s="8">
         <f t="shared" si="11"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H56" s="8">
         <f t="shared" si="12"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I56" s="15">
         <f t="shared" si="13"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="57" spans="3:9" x14ac:dyDescent="0.25">
@@ -2159,19 +2175,19 @@
       </c>
       <c r="F57" s="13">
         <f t="shared" si="10"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G57" s="8">
         <f t="shared" si="11"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H57" s="8">
         <f t="shared" si="12"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I57" s="15">
         <f t="shared" si="13"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="58" spans="3:9" x14ac:dyDescent="0.25">
@@ -2183,19 +2199,19 @@
       </c>
       <c r="F58" s="13">
         <f t="shared" si="10"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G58" s="8">
         <f t="shared" si="11"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H58" s="8">
         <f t="shared" si="12"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I58" s="15">
         <f t="shared" si="13"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="59" spans="3:9" x14ac:dyDescent="0.25">
@@ -2207,19 +2223,19 @@
       </c>
       <c r="F59" s="13">
         <f t="shared" si="10"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G59" s="8">
         <f t="shared" si="11"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H59" s="8">
         <f t="shared" si="12"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I59" s="15">
         <f t="shared" si="13"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="60" spans="3:9" x14ac:dyDescent="0.25">
@@ -2231,19 +2247,19 @@
       </c>
       <c r="F60" s="13">
         <f t="shared" si="10"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G60" s="8">
         <f t="shared" si="11"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H60" s="8">
         <f t="shared" si="12"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I60" s="15">
         <f t="shared" si="13"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="61" spans="3:9" x14ac:dyDescent="0.25">
@@ -2255,19 +2271,19 @@
       </c>
       <c r="F61" s="13">
         <f t="shared" si="10"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G61" s="8">
         <f t="shared" si="11"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H61" s="8">
         <f t="shared" si="12"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I61" s="15">
         <f t="shared" si="13"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="62" spans="3:9" x14ac:dyDescent="0.25">
@@ -2279,19 +2295,19 @@
       </c>
       <c r="F62" s="13">
         <f t="shared" si="10"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G62" s="8">
         <f t="shared" si="11"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H62" s="8">
         <f t="shared" si="12"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I62" s="15">
         <f t="shared" si="13"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="63" spans="3:9" x14ac:dyDescent="0.25">
@@ -2303,19 +2319,19 @@
       </c>
       <c r="F63" s="13">
         <f t="shared" si="10"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G63" s="8">
         <f t="shared" si="11"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H63" s="8">
         <f t="shared" si="12"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I63" s="15">
         <f t="shared" si="13"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="64" spans="3:9" x14ac:dyDescent="0.25">
@@ -2327,19 +2343,19 @@
       </c>
       <c r="F64" s="13">
         <f t="shared" si="10"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G64" s="8">
         <f t="shared" si="11"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H64" s="8">
         <f t="shared" si="12"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I64" s="15">
         <f t="shared" si="13"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="65" spans="3:9" x14ac:dyDescent="0.25">
@@ -2351,19 +2367,19 @@
       </c>
       <c r="F65" s="13">
         <f t="shared" si="10"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G65" s="8">
         <f t="shared" si="11"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H65" s="8">
         <f t="shared" si="12"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I65" s="15">
         <f t="shared" si="13"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="66" spans="3:9" x14ac:dyDescent="0.25">
@@ -2375,19 +2391,19 @@
       </c>
       <c r="F66" s="13">
         <f t="shared" si="10"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G66" s="8">
         <f t="shared" si="11"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H66" s="8">
         <f t="shared" si="12"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I66" s="15">
         <f t="shared" si="13"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="67" spans="3:9" x14ac:dyDescent="0.25">
@@ -2399,19 +2415,19 @@
       </c>
       <c r="F67" s="13">
         <f t="shared" si="10"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G67" s="8">
         <f t="shared" si="11"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H67" s="8">
         <f t="shared" si="12"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I67" s="15">
         <f t="shared" si="13"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="68" spans="3:9" x14ac:dyDescent="0.25">
@@ -2423,19 +2439,19 @@
       </c>
       <c r="F68" s="13">
         <f t="shared" si="10"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G68" s="8">
         <f t="shared" si="11"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H68" s="8">
         <f t="shared" si="12"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I68" s="15">
         <f t="shared" si="13"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="69" spans="3:9" x14ac:dyDescent="0.25">
@@ -2447,19 +2463,19 @@
       </c>
       <c r="F69" s="13">
         <f t="shared" si="10"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G69" s="8">
         <f t="shared" si="11"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H69" s="8">
         <f t="shared" si="12"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I69" s="15">
         <f t="shared" si="13"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="70" spans="3:9" x14ac:dyDescent="0.25">
@@ -2471,19 +2487,19 @@
       </c>
       <c r="F70" s="13">
         <f t="shared" si="10"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G70" s="8">
         <f t="shared" si="11"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H70" s="8">
         <f t="shared" si="12"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I70" s="15">
         <f t="shared" si="13"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="71" spans="3:9" x14ac:dyDescent="0.25">
@@ -2495,19 +2511,19 @@
       </c>
       <c r="F71" s="13">
         <f t="shared" si="10"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G71" s="8">
         <f t="shared" si="11"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H71" s="8">
         <f t="shared" si="12"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I71" s="15">
         <f t="shared" si="13"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="72" spans="3:9" x14ac:dyDescent="0.25">
@@ -2519,19 +2535,19 @@
       </c>
       <c r="F72" s="13">
         <f t="shared" si="10"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G72" s="8">
         <f t="shared" si="11"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H72" s="8">
         <f t="shared" si="12"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I72" s="15">
         <f t="shared" si="13"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="73" spans="3:9" x14ac:dyDescent="0.25">
@@ -2543,19 +2559,19 @@
       </c>
       <c r="F73" s="13">
         <f t="shared" si="10"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G73" s="8">
         <f t="shared" si="11"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H73" s="8">
         <f t="shared" si="12"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I73" s="15">
         <f t="shared" si="13"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="74" spans="3:9" x14ac:dyDescent="0.25">
@@ -2567,19 +2583,19 @@
       </c>
       <c r="F74" s="13">
         <f t="shared" si="10"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G74" s="8">
         <f t="shared" si="11"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H74" s="8">
         <f t="shared" si="12"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I74" s="15">
         <f t="shared" si="13"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="75" spans="3:9" x14ac:dyDescent="0.25">
@@ -2591,19 +2607,19 @@
       </c>
       <c r="F75" s="13">
         <f t="shared" si="10"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G75" s="8">
         <f t="shared" si="11"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H75" s="8">
         <f t="shared" si="12"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I75" s="15">
         <f t="shared" si="13"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="76" spans="3:9" x14ac:dyDescent="0.25">
@@ -2615,19 +2631,19 @@
       </c>
       <c r="F76" s="13">
         <f t="shared" si="10"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G76" s="8">
         <f t="shared" si="11"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H76" s="8">
         <f t="shared" si="12"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I76" s="15">
         <f t="shared" si="13"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="77" spans="3:9" x14ac:dyDescent="0.25">
@@ -2639,19 +2655,19 @@
       </c>
       <c r="F77" s="13">
         <f t="shared" si="10"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G77" s="8">
         <f t="shared" si="11"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H77" s="8">
         <f t="shared" si="12"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I77" s="15">
         <f t="shared" si="13"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="78" spans="3:9" x14ac:dyDescent="0.25">
@@ -2663,19 +2679,19 @@
       </c>
       <c r="F78" s="13">
         <f t="shared" si="10"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G78" s="8">
         <f t="shared" si="11"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H78" s="8">
         <f t="shared" si="12"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I78" s="15">
         <f t="shared" si="13"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="79" spans="3:9" x14ac:dyDescent="0.25">
@@ -2687,19 +2703,19 @@
       </c>
       <c r="F79" s="13">
         <f t="shared" si="10"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G79" s="8">
         <f t="shared" si="11"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H79" s="8">
         <f t="shared" si="12"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I79" s="15">
         <f t="shared" si="13"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="80" spans="3:9" x14ac:dyDescent="0.25">
@@ -2711,19 +2727,19 @@
       </c>
       <c r="F80" s="13">
         <f t="shared" si="10"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G80" s="8">
         <f t="shared" si="11"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H80" s="8">
         <f t="shared" si="12"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I80" s="15">
         <f t="shared" si="13"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="81" spans="3:9" x14ac:dyDescent="0.25">
@@ -2735,19 +2751,19 @@
       </c>
       <c r="F81" s="13">
         <f t="shared" si="10"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G81" s="8">
         <f t="shared" si="11"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H81" s="8">
         <f t="shared" si="12"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I81" s="15">
         <f t="shared" si="13"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="82" spans="3:9" x14ac:dyDescent="0.25">
@@ -2759,19 +2775,19 @@
       </c>
       <c r="F82" s="13">
         <f t="shared" si="10"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G82" s="8">
         <f t="shared" si="11"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H82" s="8">
         <f t="shared" si="12"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I82" s="15">
         <f t="shared" si="13"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="83" spans="3:9" x14ac:dyDescent="0.25">
@@ -2783,19 +2799,19 @@
       </c>
       <c r="F83" s="13">
         <f t="shared" si="10"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G83" s="8">
         <f t="shared" si="11"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H83" s="8">
         <f t="shared" si="12"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I83" s="15">
         <f t="shared" si="13"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="84" spans="3:9" x14ac:dyDescent="0.25">
@@ -2807,19 +2823,19 @@
       </c>
       <c r="F84" s="13">
         <f t="shared" si="10"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G84" s="8">
         <f t="shared" si="11"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H84" s="8">
         <f t="shared" si="12"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I84" s="15">
         <f t="shared" si="13"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="85" spans="3:9" x14ac:dyDescent="0.25">
@@ -2831,19 +2847,19 @@
       </c>
       <c r="F85" s="13">
         <f t="shared" si="10"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G85" s="8">
         <f t="shared" si="11"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H85" s="8">
         <f t="shared" si="12"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I85" s="15">
         <f t="shared" si="13"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="86" spans="3:9" x14ac:dyDescent="0.25">
@@ -2855,19 +2871,19 @@
       </c>
       <c r="F86" s="13">
         <f t="shared" si="10"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G86" s="8">
         <f t="shared" si="11"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H86" s="8">
         <f t="shared" si="12"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I86" s="15">
         <f t="shared" si="13"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="87" spans="3:9" x14ac:dyDescent="0.25">
@@ -2879,19 +2895,19 @@
       </c>
       <c r="F87" s="13">
         <f t="shared" si="10"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G87" s="8">
         <f t="shared" si="11"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H87" s="8">
         <f t="shared" si="12"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I87" s="15">
         <f t="shared" si="13"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="88" spans="3:9" x14ac:dyDescent="0.25">
@@ -2903,19 +2919,19 @@
       </c>
       <c r="F88" s="13">
         <f t="shared" si="10"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G88" s="8">
         <f t="shared" si="11"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H88" s="8">
         <f t="shared" si="12"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I88" s="15">
         <f t="shared" si="13"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="89" spans="3:9" x14ac:dyDescent="0.25">
@@ -2927,19 +2943,19 @@
       </c>
       <c r="F89" s="13">
         <f t="shared" si="10"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G89" s="8">
         <f t="shared" si="11"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H89" s="8">
         <f t="shared" si="12"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I89" s="15">
         <f t="shared" si="13"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="90" spans="3:9" x14ac:dyDescent="0.25">
@@ -2951,19 +2967,19 @@
       </c>
       <c r="F90" s="13">
         <f t="shared" si="10"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G90" s="8">
         <f t="shared" si="11"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H90" s="8">
         <f t="shared" si="12"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I90" s="15">
         <f t="shared" si="13"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="91" spans="3:9" x14ac:dyDescent="0.25">
@@ -2975,19 +2991,19 @@
       </c>
       <c r="F91" s="13">
         <f t="shared" si="10"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G91" s="8">
         <f t="shared" si="11"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H91" s="8">
         <f t="shared" si="12"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I91" s="15">
         <f t="shared" si="13"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="92" spans="3:9" x14ac:dyDescent="0.25">
@@ -2999,19 +3015,19 @@
       </c>
       <c r="F92" s="13">
         <f t="shared" si="10"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G92" s="8">
         <f t="shared" si="11"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H92" s="8">
         <f t="shared" si="12"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I92" s="15">
         <f t="shared" si="13"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="93" spans="3:9" x14ac:dyDescent="0.25">
@@ -3023,19 +3039,19 @@
       </c>
       <c r="F93" s="13">
         <f t="shared" si="10"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G93" s="8">
         <f t="shared" si="11"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H93" s="8">
         <f t="shared" si="12"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I93" s="15">
         <f t="shared" si="13"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="94" spans="3:9" x14ac:dyDescent="0.25">
@@ -3047,19 +3063,19 @@
       </c>
       <c r="F94" s="13">
         <f t="shared" si="10"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G94" s="8">
         <f t="shared" si="11"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H94" s="8">
         <f t="shared" si="12"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I94" s="15">
         <f t="shared" si="13"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="95" spans="3:9" x14ac:dyDescent="0.25">
@@ -3071,19 +3087,19 @@
       </c>
       <c r="F95" s="13">
         <f t="shared" si="10"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G95" s="8">
         <f t="shared" si="11"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H95" s="8">
         <f t="shared" si="12"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I95" s="15">
         <f t="shared" si="13"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="96" spans="3:9" x14ac:dyDescent="0.25">
@@ -3095,19 +3111,19 @@
       </c>
       <c r="F96" s="13">
         <f t="shared" si="10"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G96" s="8">
         <f t="shared" si="11"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H96" s="8">
         <f t="shared" si="12"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I96" s="15">
         <f t="shared" si="13"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="97" spans="3:9" x14ac:dyDescent="0.25">
@@ -3119,19 +3135,19 @@
       </c>
       <c r="F97" s="13">
         <f t="shared" si="10"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G97" s="8">
         <f t="shared" si="11"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H97" s="8">
         <f t="shared" si="12"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I97" s="15">
         <f t="shared" si="13"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="98" spans="3:9" x14ac:dyDescent="0.25">
@@ -3143,19 +3159,19 @@
       </c>
       <c r="F98" s="13">
         <f t="shared" si="10"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G98" s="8">
         <f t="shared" si="11"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H98" s="8">
         <f t="shared" si="12"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I98" s="15">
         <f t="shared" si="13"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="99" spans="3:9" x14ac:dyDescent="0.25">
@@ -3167,19 +3183,19 @@
       </c>
       <c r="F99" s="13">
         <f t="shared" si="10"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G99" s="8">
         <f t="shared" si="11"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H99" s="8">
         <f t="shared" si="12"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I99" s="15">
         <f t="shared" si="13"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="100" spans="3:9" x14ac:dyDescent="0.25">
@@ -3191,19 +3207,19 @@
       </c>
       <c r="F100" s="13">
         <f t="shared" si="10"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G100" s="8">
         <f t="shared" si="11"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H100" s="8">
         <f t="shared" si="12"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I100" s="15">
         <f t="shared" si="13"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="101" spans="3:9" x14ac:dyDescent="0.25">
@@ -3215,19 +3231,19 @@
       </c>
       <c r="F101" s="13">
         <f t="shared" si="10"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G101" s="8">
         <f t="shared" si="11"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H101" s="8">
         <f t="shared" si="12"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I101" s="15">
         <f t="shared" si="13"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="102" spans="3:9" x14ac:dyDescent="0.25">
@@ -3239,19 +3255,19 @@
       </c>
       <c r="F102" s="13">
         <f t="shared" si="10"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G102" s="8">
         <f t="shared" si="11"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H102" s="8">
         <f t="shared" si="12"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I102" s="15">
         <f t="shared" si="13"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="103" spans="3:9" x14ac:dyDescent="0.25">
@@ -3263,19 +3279,19 @@
       </c>
       <c r="F103" s="13">
         <f t="shared" si="10"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G103" s="8">
         <f t="shared" si="11"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H103" s="8">
         <f t="shared" si="12"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I103" s="15">
         <f t="shared" si="13"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="104" spans="3:9" x14ac:dyDescent="0.25">
@@ -3287,19 +3303,19 @@
       </c>
       <c r="F104" s="13">
         <f t="shared" ref="F104:F167" si="15">F103+E104</f>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G104" s="8">
         <f t="shared" ref="G104:G167" si="16">F104</f>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H104" s="8">
         <f t="shared" ref="H104:H167" si="17">(H103+G104-G103)</f>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I104" s="15">
         <f t="shared" ref="I104:I167" si="18">H104*24*$J$2</f>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="105" spans="3:9" x14ac:dyDescent="0.25">
@@ -3311,19 +3327,19 @@
       </c>
       <c r="F105" s="13">
         <f t="shared" si="15"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G105" s="8">
         <f t="shared" si="16"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H105" s="8">
         <f t="shared" si="17"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I105" s="15">
         <f t="shared" si="18"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="106" spans="3:9" x14ac:dyDescent="0.25">
@@ -3335,19 +3351,19 @@
       </c>
       <c r="F106" s="13">
         <f t="shared" si="15"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G106" s="8">
         <f t="shared" si="16"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H106" s="8">
         <f t="shared" si="17"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I106" s="15">
         <f t="shared" si="18"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="107" spans="3:9" x14ac:dyDescent="0.25">
@@ -3359,19 +3375,19 @@
       </c>
       <c r="F107" s="13">
         <f t="shared" si="15"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G107" s="8">
         <f t="shared" si="16"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H107" s="8">
         <f t="shared" si="17"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I107" s="15">
         <f t="shared" si="18"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="108" spans="3:9" x14ac:dyDescent="0.25">
@@ -3383,19 +3399,19 @@
       </c>
       <c r="F108" s="13">
         <f t="shared" si="15"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G108" s="8">
         <f t="shared" si="16"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H108" s="8">
         <f t="shared" si="17"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I108" s="15">
         <f t="shared" si="18"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="109" spans="3:9" x14ac:dyDescent="0.25">
@@ -3407,19 +3423,19 @@
       </c>
       <c r="F109" s="13">
         <f t="shared" si="15"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G109" s="8">
         <f t="shared" si="16"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H109" s="8">
         <f t="shared" si="17"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I109" s="15">
         <f t="shared" si="18"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="110" spans="3:9" x14ac:dyDescent="0.25">
@@ -3431,19 +3447,19 @@
       </c>
       <c r="F110" s="13">
         <f t="shared" si="15"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G110" s="8">
         <f t="shared" si="16"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H110" s="8">
         <f t="shared" si="17"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I110" s="15">
         <f t="shared" si="18"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="111" spans="3:9" x14ac:dyDescent="0.25">
@@ -3455,19 +3471,19 @@
       </c>
       <c r="F111" s="13">
         <f t="shared" si="15"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G111" s="8">
         <f t="shared" si="16"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H111" s="8">
         <f t="shared" si="17"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I111" s="15">
         <f t="shared" si="18"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="112" spans="3:9" x14ac:dyDescent="0.25">
@@ -3479,19 +3495,19 @@
       </c>
       <c r="F112" s="13">
         <f t="shared" si="15"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G112" s="8">
         <f t="shared" si="16"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H112" s="8">
         <f t="shared" si="17"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I112" s="15">
         <f t="shared" si="18"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="113" spans="3:9" x14ac:dyDescent="0.25">
@@ -3503,19 +3519,19 @@
       </c>
       <c r="F113" s="13">
         <f t="shared" si="15"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G113" s="8">
         <f t="shared" si="16"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H113" s="8">
         <f t="shared" si="17"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I113" s="15">
         <f t="shared" si="18"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="114" spans="3:9" x14ac:dyDescent="0.25">
@@ -3527,19 +3543,19 @@
       </c>
       <c r="F114" s="13">
         <f t="shared" si="15"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G114" s="8">
         <f t="shared" si="16"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H114" s="8">
         <f t="shared" si="17"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I114" s="15">
         <f t="shared" si="18"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="115" spans="3:9" x14ac:dyDescent="0.25">
@@ -3551,19 +3567,19 @@
       </c>
       <c r="F115" s="13">
         <f t="shared" si="15"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G115" s="8">
         <f t="shared" si="16"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H115" s="8">
         <f t="shared" si="17"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I115" s="15">
         <f t="shared" si="18"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="116" spans="3:9" x14ac:dyDescent="0.25">
@@ -3575,19 +3591,19 @@
       </c>
       <c r="F116" s="13">
         <f t="shared" si="15"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G116" s="8">
         <f t="shared" si="16"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H116" s="8">
         <f t="shared" si="17"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I116" s="15">
         <f t="shared" si="18"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="117" spans="3:9" x14ac:dyDescent="0.25">
@@ -3599,19 +3615,19 @@
       </c>
       <c r="F117" s="13">
         <f t="shared" si="15"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G117" s="8">
         <f t="shared" si="16"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H117" s="8">
         <f t="shared" si="17"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I117" s="15">
         <f t="shared" si="18"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="118" spans="3:9" x14ac:dyDescent="0.25">
@@ -3623,19 +3639,19 @@
       </c>
       <c r="F118" s="13">
         <f t="shared" si="15"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G118" s="8">
         <f t="shared" si="16"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H118" s="8">
         <f t="shared" si="17"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I118" s="15">
         <f t="shared" si="18"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="119" spans="3:9" x14ac:dyDescent="0.25">
@@ -3647,19 +3663,19 @@
       </c>
       <c r="F119" s="13">
         <f t="shared" si="15"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G119" s="8">
         <f t="shared" si="16"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H119" s="8">
         <f t="shared" si="17"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I119" s="15">
         <f t="shared" si="18"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="120" spans="3:9" x14ac:dyDescent="0.25">
@@ -3671,19 +3687,19 @@
       </c>
       <c r="F120" s="13">
         <f t="shared" si="15"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G120" s="8">
         <f t="shared" si="16"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H120" s="8">
         <f t="shared" si="17"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I120" s="15">
         <f t="shared" si="18"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="121" spans="3:9" x14ac:dyDescent="0.25">
@@ -3695,19 +3711,19 @@
       </c>
       <c r="F121" s="13">
         <f t="shared" si="15"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G121" s="8">
         <f t="shared" si="16"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H121" s="8">
         <f t="shared" si="17"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I121" s="15">
         <f t="shared" si="18"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="122" spans="3:9" x14ac:dyDescent="0.25">
@@ -3719,19 +3735,19 @@
       </c>
       <c r="F122" s="13">
         <f t="shared" si="15"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G122" s="8">
         <f t="shared" si="16"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H122" s="8">
         <f t="shared" si="17"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I122" s="15">
         <f t="shared" si="18"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="123" spans="3:9" x14ac:dyDescent="0.25">
@@ -3743,19 +3759,19 @@
       </c>
       <c r="F123" s="13">
         <f t="shared" si="15"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G123" s="8">
         <f t="shared" si="16"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H123" s="8">
         <f t="shared" si="17"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I123" s="15">
         <f t="shared" si="18"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="124" spans="3:9" x14ac:dyDescent="0.25">
@@ -3767,19 +3783,19 @@
       </c>
       <c r="F124" s="13">
         <f t="shared" si="15"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G124" s="8">
         <f t="shared" si="16"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H124" s="8">
         <f t="shared" si="17"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I124" s="15">
         <f t="shared" si="18"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="125" spans="3:9" x14ac:dyDescent="0.25">
@@ -3791,19 +3807,19 @@
       </c>
       <c r="F125" s="13">
         <f t="shared" si="15"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G125" s="8">
         <f t="shared" si="16"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H125" s="8">
         <f t="shared" si="17"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I125" s="15">
         <f t="shared" si="18"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="126" spans="3:9" x14ac:dyDescent="0.25">
@@ -3815,19 +3831,19 @@
       </c>
       <c r="F126" s="13">
         <f t="shared" si="15"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G126" s="8">
         <f t="shared" si="16"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H126" s="8">
         <f t="shared" si="17"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I126" s="15">
         <f t="shared" si="18"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="127" spans="3:9" x14ac:dyDescent="0.25">
@@ -3839,19 +3855,19 @@
       </c>
       <c r="F127" s="13">
         <f t="shared" si="15"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G127" s="8">
         <f t="shared" si="16"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H127" s="8">
         <f t="shared" si="17"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I127" s="15">
         <f t="shared" si="18"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="128" spans="3:9" x14ac:dyDescent="0.25">
@@ -3863,19 +3879,19 @@
       </c>
       <c r="F128" s="13">
         <f t="shared" si="15"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G128" s="8">
         <f t="shared" si="16"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H128" s="8">
         <f t="shared" si="17"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I128" s="15">
         <f t="shared" si="18"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="129" spans="3:9" x14ac:dyDescent="0.25">
@@ -3887,19 +3903,19 @@
       </c>
       <c r="F129" s="13">
         <f t="shared" si="15"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G129" s="8">
         <f t="shared" si="16"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H129" s="8">
         <f t="shared" si="17"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I129" s="15">
         <f t="shared" si="18"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="130" spans="3:9" x14ac:dyDescent="0.25">
@@ -3911,19 +3927,19 @@
       </c>
       <c r="F130" s="13">
         <f t="shared" si="15"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G130" s="8">
         <f t="shared" si="16"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H130" s="8">
         <f t="shared" si="17"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I130" s="15">
         <f t="shared" si="18"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="131" spans="3:9" x14ac:dyDescent="0.25">
@@ -3935,19 +3951,19 @@
       </c>
       <c r="F131" s="13">
         <f t="shared" si="15"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G131" s="8">
         <f t="shared" si="16"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H131" s="8">
         <f t="shared" si="17"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I131" s="15">
         <f t="shared" si="18"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="132" spans="3:9" x14ac:dyDescent="0.25">
@@ -3959,19 +3975,19 @@
       </c>
       <c r="F132" s="13">
         <f t="shared" si="15"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G132" s="8">
         <f t="shared" si="16"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H132" s="8">
         <f t="shared" si="17"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I132" s="15">
         <f t="shared" si="18"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="133" spans="3:9" x14ac:dyDescent="0.25">
@@ -3983,19 +3999,19 @@
       </c>
       <c r="F133" s="13">
         <f t="shared" si="15"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G133" s="8">
         <f t="shared" si="16"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H133" s="8">
         <f t="shared" si="17"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I133" s="15">
         <f t="shared" si="18"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="134" spans="3:9" x14ac:dyDescent="0.25">
@@ -4007,19 +4023,19 @@
       </c>
       <c r="F134" s="13">
         <f t="shared" si="15"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G134" s="8">
         <f t="shared" si="16"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H134" s="8">
         <f t="shared" si="17"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I134" s="15">
         <f t="shared" si="18"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="135" spans="3:9" x14ac:dyDescent="0.25">
@@ -4031,19 +4047,19 @@
       </c>
       <c r="F135" s="13">
         <f t="shared" si="15"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G135" s="8">
         <f t="shared" si="16"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H135" s="8">
         <f t="shared" si="17"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I135" s="15">
         <f t="shared" si="18"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="136" spans="3:9" x14ac:dyDescent="0.25">
@@ -4055,19 +4071,19 @@
       </c>
       <c r="F136" s="13">
         <f t="shared" si="15"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G136" s="8">
         <f t="shared" si="16"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H136" s="8">
         <f t="shared" si="17"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I136" s="15">
         <f t="shared" si="18"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="137" spans="3:9" x14ac:dyDescent="0.25">
@@ -4079,19 +4095,19 @@
       </c>
       <c r="F137" s="13">
         <f t="shared" si="15"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G137" s="8">
         <f t="shared" si="16"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H137" s="8">
         <f t="shared" si="17"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I137" s="15">
         <f t="shared" si="18"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="138" spans="3:9" x14ac:dyDescent="0.25">
@@ -4103,19 +4119,19 @@
       </c>
       <c r="F138" s="13">
         <f t="shared" si="15"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G138" s="8">
         <f t="shared" si="16"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H138" s="8">
         <f t="shared" si="17"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I138" s="15">
         <f t="shared" si="18"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="139" spans="3:9" x14ac:dyDescent="0.25">
@@ -4127,19 +4143,19 @@
       </c>
       <c r="F139" s="13">
         <f t="shared" si="15"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G139" s="8">
         <f t="shared" si="16"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H139" s="8">
         <f t="shared" si="17"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I139" s="15">
         <f t="shared" si="18"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="140" spans="3:9" x14ac:dyDescent="0.25">
@@ -4151,19 +4167,19 @@
       </c>
       <c r="F140" s="13">
         <f t="shared" si="15"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G140" s="8">
         <f t="shared" si="16"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H140" s="8">
         <f t="shared" si="17"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I140" s="15">
         <f t="shared" si="18"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="141" spans="3:9" x14ac:dyDescent="0.25">
@@ -4175,19 +4191,19 @@
       </c>
       <c r="F141" s="13">
         <f t="shared" si="15"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G141" s="8">
         <f t="shared" si="16"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H141" s="8">
         <f t="shared" si="17"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I141" s="15">
         <f t="shared" si="18"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="142" spans="3:9" x14ac:dyDescent="0.25">
@@ -4199,19 +4215,19 @@
       </c>
       <c r="F142" s="13">
         <f t="shared" si="15"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G142" s="8">
         <f t="shared" si="16"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H142" s="8">
         <f t="shared" si="17"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I142" s="15">
         <f t="shared" si="18"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="143" spans="3:9" x14ac:dyDescent="0.25">
@@ -4223,19 +4239,19 @@
       </c>
       <c r="F143" s="13">
         <f t="shared" si="15"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G143" s="8">
         <f t="shared" si="16"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H143" s="8">
         <f t="shared" si="17"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I143" s="15">
         <f t="shared" si="18"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="144" spans="3:9" x14ac:dyDescent="0.25">
@@ -4247,19 +4263,19 @@
       </c>
       <c r="F144" s="13">
         <f t="shared" si="15"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G144" s="8">
         <f t="shared" si="16"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H144" s="8">
         <f t="shared" si="17"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I144" s="15">
         <f t="shared" si="18"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="145" spans="3:9" x14ac:dyDescent="0.25">
@@ -4271,19 +4287,19 @@
       </c>
       <c r="F145" s="13">
         <f t="shared" si="15"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G145" s="8">
         <f t="shared" si="16"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H145" s="8">
         <f t="shared" si="17"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I145" s="15">
         <f t="shared" si="18"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="146" spans="3:9" x14ac:dyDescent="0.25">
@@ -4295,19 +4311,19 @@
       </c>
       <c r="F146" s="13">
         <f t="shared" si="15"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G146" s="8">
         <f t="shared" si="16"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H146" s="8">
         <f t="shared" si="17"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I146" s="15">
         <f t="shared" si="18"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="147" spans="3:9" x14ac:dyDescent="0.25">
@@ -4319,19 +4335,19 @@
       </c>
       <c r="F147" s="13">
         <f t="shared" si="15"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G147" s="8">
         <f t="shared" si="16"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H147" s="8">
         <f t="shared" si="17"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I147" s="15">
         <f t="shared" si="18"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="148" spans="3:9" x14ac:dyDescent="0.25">
@@ -4343,19 +4359,19 @@
       </c>
       <c r="F148" s="13">
         <f t="shared" si="15"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G148" s="8">
         <f t="shared" si="16"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H148" s="8">
         <f t="shared" si="17"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I148" s="15">
         <f t="shared" si="18"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="149" spans="3:9" x14ac:dyDescent="0.25">
@@ -4367,19 +4383,19 @@
       </c>
       <c r="F149" s="13">
         <f t="shared" si="15"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G149" s="8">
         <f t="shared" si="16"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H149" s="8">
         <f t="shared" si="17"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I149" s="15">
         <f t="shared" si="18"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="150" spans="3:9" x14ac:dyDescent="0.25">
@@ -4391,19 +4407,19 @@
       </c>
       <c r="F150" s="13">
         <f t="shared" si="15"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G150" s="8">
         <f t="shared" si="16"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H150" s="8">
         <f t="shared" si="17"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I150" s="15">
         <f t="shared" si="18"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="151" spans="3:9" x14ac:dyDescent="0.25">
@@ -4415,19 +4431,19 @@
       </c>
       <c r="F151" s="13">
         <f t="shared" si="15"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G151" s="8">
         <f t="shared" si="16"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H151" s="8">
         <f t="shared" si="17"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I151" s="15">
         <f t="shared" si="18"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="152" spans="3:9" x14ac:dyDescent="0.25">
@@ -4439,19 +4455,19 @@
       </c>
       <c r="F152" s="13">
         <f t="shared" si="15"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G152" s="8">
         <f t="shared" si="16"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H152" s="8">
         <f t="shared" si="17"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I152" s="15">
         <f t="shared" si="18"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="153" spans="3:9" x14ac:dyDescent="0.25">
@@ -4463,19 +4479,19 @@
       </c>
       <c r="F153" s="13">
         <f t="shared" si="15"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G153" s="8">
         <f t="shared" si="16"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H153" s="8">
         <f t="shared" si="17"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I153" s="15">
         <f t="shared" si="18"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="154" spans="3:9" x14ac:dyDescent="0.25">
@@ -4487,19 +4503,19 @@
       </c>
       <c r="F154" s="13">
         <f t="shared" si="15"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G154" s="8">
         <f t="shared" si="16"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H154" s="8">
         <f t="shared" si="17"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I154" s="15">
         <f t="shared" si="18"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="155" spans="3:9" x14ac:dyDescent="0.25">
@@ -4511,19 +4527,19 @@
       </c>
       <c r="F155" s="13">
         <f t="shared" si="15"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G155" s="8">
         <f t="shared" si="16"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H155" s="8">
         <f t="shared" si="17"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I155" s="15">
         <f t="shared" si="18"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="156" spans="3:9" x14ac:dyDescent="0.25">
@@ -4535,19 +4551,19 @@
       </c>
       <c r="F156" s="13">
         <f t="shared" si="15"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G156" s="8">
         <f t="shared" si="16"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H156" s="8">
         <f t="shared" si="17"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I156" s="15">
         <f t="shared" si="18"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="157" spans="3:9" x14ac:dyDescent="0.25">
@@ -4559,19 +4575,19 @@
       </c>
       <c r="F157" s="13">
         <f t="shared" si="15"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G157" s="8">
         <f t="shared" si="16"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H157" s="8">
         <f t="shared" si="17"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I157" s="15">
         <f t="shared" si="18"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="158" spans="3:9" x14ac:dyDescent="0.25">
@@ -4583,19 +4599,19 @@
       </c>
       <c r="F158" s="13">
         <f t="shared" si="15"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G158" s="8">
         <f t="shared" si="16"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H158" s="8">
         <f t="shared" si="17"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I158" s="15">
         <f t="shared" si="18"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="159" spans="3:9" x14ac:dyDescent="0.25">
@@ -4607,19 +4623,19 @@
       </c>
       <c r="F159" s="13">
         <f t="shared" si="15"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G159" s="8">
         <f t="shared" si="16"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H159" s="8">
         <f t="shared" si="17"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I159" s="15">
         <f t="shared" si="18"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="160" spans="3:9" x14ac:dyDescent="0.25">
@@ -4631,19 +4647,19 @@
       </c>
       <c r="F160" s="13">
         <f t="shared" si="15"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G160" s="8">
         <f t="shared" si="16"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H160" s="8">
         <f t="shared" si="17"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I160" s="15">
         <f t="shared" si="18"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="161" spans="3:9" x14ac:dyDescent="0.25">
@@ -4655,19 +4671,19 @@
       </c>
       <c r="F161" s="13">
         <f t="shared" si="15"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G161" s="8">
         <f t="shared" si="16"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H161" s="8">
         <f t="shared" si="17"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I161" s="15">
         <f t="shared" si="18"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="162" spans="3:9" x14ac:dyDescent="0.25">
@@ -4679,19 +4695,19 @@
       </c>
       <c r="F162" s="13">
         <f t="shared" si="15"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G162" s="8">
         <f t="shared" si="16"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H162" s="8">
         <f t="shared" si="17"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I162" s="15">
         <f t="shared" si="18"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="163" spans="3:9" x14ac:dyDescent="0.25">
@@ -4703,19 +4719,19 @@
       </c>
       <c r="F163" s="13">
         <f t="shared" si="15"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G163" s="8">
         <f t="shared" si="16"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H163" s="8">
         <f t="shared" si="17"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I163" s="15">
         <f t="shared" si="18"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="164" spans="3:9" x14ac:dyDescent="0.25">
@@ -4727,19 +4743,19 @@
       </c>
       <c r="F164" s="13">
         <f t="shared" si="15"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G164" s="8">
         <f t="shared" si="16"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H164" s="8">
         <f t="shared" si="17"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I164" s="15">
         <f t="shared" si="18"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="165" spans="3:9" x14ac:dyDescent="0.25">
@@ -4751,19 +4767,19 @@
       </c>
       <c r="F165" s="13">
         <f t="shared" si="15"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G165" s="8">
         <f t="shared" si="16"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H165" s="8">
         <f t="shared" si="17"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I165" s="15">
         <f t="shared" si="18"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="166" spans="3:9" x14ac:dyDescent="0.25">
@@ -4775,19 +4791,19 @@
       </c>
       <c r="F166" s="13">
         <f t="shared" si="15"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G166" s="8">
         <f t="shared" si="16"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H166" s="8">
         <f t="shared" si="17"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I166" s="15">
         <f t="shared" si="18"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="167" spans="3:9" x14ac:dyDescent="0.25">
@@ -4799,19 +4815,19 @@
       </c>
       <c r="F167" s="13">
         <f t="shared" si="15"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G167" s="8">
         <f t="shared" si="16"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H167" s="8">
         <f t="shared" si="17"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I167" s="15">
         <f t="shared" si="18"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="168" spans="3:9" x14ac:dyDescent="0.25">
@@ -4823,19 +4839,19 @@
       </c>
       <c r="F168" s="13">
         <f t="shared" ref="F168:F231" si="20">F167+E168</f>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G168" s="8">
         <f t="shared" ref="G168:G231" si="21">F168</f>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H168" s="8">
         <f t="shared" ref="H168:H231" si="22">(H167+G168-G167)</f>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I168" s="15">
         <f t="shared" ref="I168:I231" si="23">H168*24*$J$2</f>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="169" spans="3:9" x14ac:dyDescent="0.25">
@@ -4847,19 +4863,19 @@
       </c>
       <c r="F169" s="13">
         <f t="shared" si="20"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G169" s="8">
         <f t="shared" si="21"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H169" s="8">
         <f t="shared" si="22"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I169" s="15">
         <f t="shared" si="23"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="170" spans="3:9" x14ac:dyDescent="0.25">
@@ -4871,19 +4887,19 @@
       </c>
       <c r="F170" s="13">
         <f t="shared" si="20"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G170" s="8">
         <f t="shared" si="21"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H170" s="8">
         <f t="shared" si="22"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I170" s="15">
         <f t="shared" si="23"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="171" spans="3:9" x14ac:dyDescent="0.25">
@@ -4895,19 +4911,19 @@
       </c>
       <c r="F171" s="13">
         <f t="shared" si="20"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G171" s="8">
         <f t="shared" si="21"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H171" s="8">
         <f t="shared" si="22"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I171" s="15">
         <f t="shared" si="23"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="172" spans="3:9" x14ac:dyDescent="0.25">
@@ -4919,19 +4935,19 @@
       </c>
       <c r="F172" s="13">
         <f t="shared" si="20"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G172" s="8">
         <f t="shared" si="21"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H172" s="8">
         <f t="shared" si="22"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I172" s="15">
         <f t="shared" si="23"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="173" spans="3:9" x14ac:dyDescent="0.25">
@@ -4943,19 +4959,19 @@
       </c>
       <c r="F173" s="13">
         <f t="shared" si="20"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G173" s="8">
         <f t="shared" si="21"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H173" s="8">
         <f t="shared" si="22"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I173" s="15">
         <f t="shared" si="23"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="174" spans="3:9" x14ac:dyDescent="0.25">
@@ -4967,19 +4983,19 @@
       </c>
       <c r="F174" s="13">
         <f t="shared" si="20"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G174" s="8">
         <f t="shared" si="21"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H174" s="8">
         <f t="shared" si="22"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I174" s="15">
         <f t="shared" si="23"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="175" spans="3:9" x14ac:dyDescent="0.25">
@@ -4991,19 +5007,19 @@
       </c>
       <c r="F175" s="13">
         <f t="shared" si="20"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G175" s="8">
         <f t="shared" si="21"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H175" s="8">
         <f t="shared" si="22"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I175" s="15">
         <f t="shared" si="23"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="176" spans="3:9" x14ac:dyDescent="0.25">
@@ -5015,19 +5031,19 @@
       </c>
       <c r="F176" s="13">
         <f t="shared" si="20"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G176" s="8">
         <f t="shared" si="21"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H176" s="8">
         <f t="shared" si="22"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I176" s="15">
         <f t="shared" si="23"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="177" spans="3:9" x14ac:dyDescent="0.25">
@@ -5039,19 +5055,19 @@
       </c>
       <c r="F177" s="13">
         <f t="shared" si="20"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G177" s="8">
         <f t="shared" si="21"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H177" s="8">
         <f t="shared" si="22"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I177" s="15">
         <f t="shared" si="23"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="178" spans="3:9" x14ac:dyDescent="0.25">
@@ -5063,19 +5079,19 @@
       </c>
       <c r="F178" s="13">
         <f t="shared" si="20"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G178" s="8">
         <f t="shared" si="21"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H178" s="8">
         <f t="shared" si="22"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I178" s="15">
         <f t="shared" si="23"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="179" spans="3:9" x14ac:dyDescent="0.25">
@@ -5087,19 +5103,19 @@
       </c>
       <c r="F179" s="13">
         <f t="shared" si="20"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G179" s="8">
         <f t="shared" si="21"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H179" s="8">
         <f t="shared" si="22"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I179" s="15">
         <f t="shared" si="23"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="180" spans="3:9" x14ac:dyDescent="0.25">
@@ -5111,19 +5127,19 @@
       </c>
       <c r="F180" s="13">
         <f t="shared" si="20"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G180" s="8">
         <f t="shared" si="21"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H180" s="8">
         <f t="shared" si="22"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I180" s="15">
         <f t="shared" si="23"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="181" spans="3:9" x14ac:dyDescent="0.25">
@@ -5135,19 +5151,19 @@
       </c>
       <c r="F181" s="13">
         <f t="shared" si="20"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G181" s="8">
         <f t="shared" si="21"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H181" s="8">
         <f t="shared" si="22"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I181" s="15">
         <f t="shared" si="23"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="182" spans="3:9" x14ac:dyDescent="0.25">
@@ -5159,19 +5175,19 @@
       </c>
       <c r="F182" s="13">
         <f t="shared" si="20"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G182" s="8">
         <f t="shared" si="21"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H182" s="8">
         <f t="shared" si="22"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I182" s="15">
         <f t="shared" si="23"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="183" spans="3:9" x14ac:dyDescent="0.25">
@@ -5183,19 +5199,19 @@
       </c>
       <c r="F183" s="13">
         <f t="shared" si="20"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G183" s="8">
         <f t="shared" si="21"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H183" s="8">
         <f t="shared" si="22"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I183" s="15">
         <f t="shared" si="23"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="184" spans="3:9" x14ac:dyDescent="0.25">
@@ -5207,19 +5223,19 @@
       </c>
       <c r="F184" s="13">
         <f t="shared" si="20"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G184" s="8">
         <f t="shared" si="21"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H184" s="8">
         <f t="shared" si="22"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I184" s="15">
         <f t="shared" si="23"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="185" spans="3:9" x14ac:dyDescent="0.25">
@@ -5231,19 +5247,19 @@
       </c>
       <c r="F185" s="13">
         <f t="shared" si="20"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G185" s="8">
         <f t="shared" si="21"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H185" s="8">
         <f t="shared" si="22"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I185" s="15">
         <f t="shared" si="23"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="186" spans="3:9" x14ac:dyDescent="0.25">
@@ -5255,19 +5271,19 @@
       </c>
       <c r="F186" s="13">
         <f t="shared" si="20"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G186" s="8">
         <f t="shared" si="21"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H186" s="8">
         <f t="shared" si="22"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I186" s="15">
         <f t="shared" si="23"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="187" spans="3:9" x14ac:dyDescent="0.25">
@@ -5279,19 +5295,19 @@
       </c>
       <c r="F187" s="13">
         <f t="shared" si="20"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G187" s="8">
         <f t="shared" si="21"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H187" s="8">
         <f t="shared" si="22"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I187" s="15">
         <f t="shared" si="23"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="188" spans="3:9" x14ac:dyDescent="0.25">
@@ -5303,19 +5319,19 @@
       </c>
       <c r="F188" s="13">
         <f t="shared" si="20"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G188" s="8">
         <f t="shared" si="21"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H188" s="8">
         <f t="shared" si="22"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I188" s="15">
         <f t="shared" si="23"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="189" spans="3:9" x14ac:dyDescent="0.25">
@@ -5327,19 +5343,19 @@
       </c>
       <c r="F189" s="13">
         <f t="shared" si="20"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G189" s="8">
         <f t="shared" si="21"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H189" s="8">
         <f t="shared" si="22"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I189" s="15">
         <f t="shared" si="23"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="190" spans="3:9" x14ac:dyDescent="0.25">
@@ -5351,19 +5367,19 @@
       </c>
       <c r="F190" s="13">
         <f t="shared" si="20"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G190" s="8">
         <f t="shared" si="21"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H190" s="8">
         <f t="shared" si="22"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I190" s="15">
         <f t="shared" si="23"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="191" spans="3:9" x14ac:dyDescent="0.25">
@@ -5375,19 +5391,19 @@
       </c>
       <c r="F191" s="13">
         <f t="shared" si="20"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G191" s="8">
         <f t="shared" si="21"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H191" s="8">
         <f t="shared" si="22"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I191" s="15">
         <f t="shared" si="23"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="192" spans="3:9" x14ac:dyDescent="0.25">
@@ -5399,19 +5415,19 @@
       </c>
       <c r="F192" s="13">
         <f t="shared" si="20"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G192" s="8">
         <f t="shared" si="21"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H192" s="8">
         <f t="shared" si="22"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I192" s="15">
         <f t="shared" si="23"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="193" spans="3:9" x14ac:dyDescent="0.25">
@@ -5423,19 +5439,19 @@
       </c>
       <c r="F193" s="13">
         <f t="shared" si="20"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G193" s="8">
         <f t="shared" si="21"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H193" s="8">
         <f t="shared" si="22"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I193" s="15">
         <f t="shared" si="23"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="194" spans="3:9" x14ac:dyDescent="0.25">
@@ -5447,19 +5463,19 @@
       </c>
       <c r="F194" s="13">
         <f t="shared" si="20"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G194" s="8">
         <f t="shared" si="21"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H194" s="8">
         <f t="shared" si="22"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I194" s="15">
         <f t="shared" si="23"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="195" spans="3:9" x14ac:dyDescent="0.25">
@@ -5471,19 +5487,19 @@
       </c>
       <c r="F195" s="13">
         <f t="shared" si="20"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G195" s="8">
         <f t="shared" si="21"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H195" s="8">
         <f t="shared" si="22"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I195" s="15">
         <f t="shared" si="23"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="196" spans="3:9" x14ac:dyDescent="0.25">
@@ -5495,19 +5511,19 @@
       </c>
       <c r="F196" s="13">
         <f t="shared" si="20"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G196" s="8">
         <f t="shared" si="21"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H196" s="8">
         <f t="shared" si="22"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I196" s="15">
         <f t="shared" si="23"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="197" spans="3:9" x14ac:dyDescent="0.25">
@@ -5519,19 +5535,19 @@
       </c>
       <c r="F197" s="13">
         <f t="shared" si="20"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G197" s="8">
         <f t="shared" si="21"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H197" s="8">
         <f t="shared" si="22"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I197" s="15">
         <f t="shared" si="23"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="198" spans="3:9" x14ac:dyDescent="0.25">
@@ -5543,19 +5559,19 @@
       </c>
       <c r="F198" s="13">
         <f t="shared" si="20"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G198" s="8">
         <f t="shared" si="21"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H198" s="8">
         <f t="shared" si="22"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I198" s="15">
         <f t="shared" si="23"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="199" spans="3:9" x14ac:dyDescent="0.25">
@@ -5567,19 +5583,19 @@
       </c>
       <c r="F199" s="13">
         <f t="shared" si="20"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G199" s="8">
         <f t="shared" si="21"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H199" s="8">
         <f t="shared" si="22"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I199" s="15">
         <f t="shared" si="23"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="200" spans="3:9" x14ac:dyDescent="0.25">
@@ -5591,19 +5607,19 @@
       </c>
       <c r="F200" s="13">
         <f t="shared" si="20"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G200" s="8">
         <f t="shared" si="21"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H200" s="8">
         <f t="shared" si="22"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I200" s="15">
         <f t="shared" si="23"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="201" spans="3:9" x14ac:dyDescent="0.25">
@@ -5615,19 +5631,19 @@
       </c>
       <c r="F201" s="13">
         <f t="shared" si="20"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G201" s="8">
         <f t="shared" si="21"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H201" s="8">
         <f t="shared" si="22"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I201" s="15">
         <f t="shared" si="23"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="202" spans="3:9" x14ac:dyDescent="0.25">
@@ -5639,19 +5655,19 @@
       </c>
       <c r="F202" s="13">
         <f t="shared" si="20"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G202" s="8">
         <f t="shared" si="21"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H202" s="8">
         <f t="shared" si="22"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I202" s="15">
         <f t="shared" si="23"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="203" spans="3:9" x14ac:dyDescent="0.25">
@@ -5663,19 +5679,19 @@
       </c>
       <c r="F203" s="13">
         <f t="shared" si="20"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G203" s="8">
         <f t="shared" si="21"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H203" s="8">
         <f t="shared" si="22"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I203" s="15">
         <f t="shared" si="23"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="204" spans="3:9" x14ac:dyDescent="0.25">
@@ -5687,19 +5703,19 @@
       </c>
       <c r="F204" s="13">
         <f t="shared" si="20"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G204" s="8">
         <f t="shared" si="21"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H204" s="8">
         <f t="shared" si="22"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I204" s="15">
         <f t="shared" si="23"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="205" spans="3:9" x14ac:dyDescent="0.25">
@@ -5711,19 +5727,19 @@
       </c>
       <c r="F205" s="13">
         <f t="shared" si="20"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G205" s="8">
         <f t="shared" si="21"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H205" s="8">
         <f t="shared" si="22"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I205" s="15">
         <f t="shared" si="23"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="206" spans="3:9" x14ac:dyDescent="0.25">
@@ -5735,19 +5751,19 @@
       </c>
       <c r="F206" s="13">
         <f t="shared" si="20"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G206" s="8">
         <f t="shared" si="21"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H206" s="8">
         <f t="shared" si="22"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I206" s="15">
         <f t="shared" si="23"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="207" spans="3:9" x14ac:dyDescent="0.25">
@@ -5759,19 +5775,19 @@
       </c>
       <c r="F207" s="13">
         <f t="shared" si="20"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G207" s="8">
         <f t="shared" si="21"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H207" s="8">
         <f t="shared" si="22"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I207" s="15">
         <f t="shared" si="23"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="208" spans="3:9" x14ac:dyDescent="0.25">
@@ -5783,19 +5799,19 @@
       </c>
       <c r="F208" s="13">
         <f t="shared" si="20"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G208" s="8">
         <f t="shared" si="21"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H208" s="8">
         <f t="shared" si="22"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I208" s="15">
         <f t="shared" si="23"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="209" spans="3:9" x14ac:dyDescent="0.25">
@@ -5807,19 +5823,19 @@
       </c>
       <c r="F209" s="13">
         <f t="shared" si="20"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G209" s="8">
         <f t="shared" si="21"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H209" s="8">
         <f t="shared" si="22"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I209" s="15">
         <f t="shared" si="23"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="210" spans="3:9" x14ac:dyDescent="0.25">
@@ -5831,19 +5847,19 @@
       </c>
       <c r="F210" s="13">
         <f t="shared" si="20"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G210" s="8">
         <f t="shared" si="21"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H210" s="8">
         <f t="shared" si="22"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I210" s="15">
         <f t="shared" si="23"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="211" spans="3:9" x14ac:dyDescent="0.25">
@@ -5855,19 +5871,19 @@
       </c>
       <c r="F211" s="13">
         <f t="shared" si="20"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G211" s="8">
         <f t="shared" si="21"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H211" s="8">
         <f t="shared" si="22"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I211" s="15">
         <f t="shared" si="23"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="212" spans="3:9" x14ac:dyDescent="0.25">
@@ -5879,19 +5895,19 @@
       </c>
       <c r="F212" s="13">
         <f t="shared" si="20"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G212" s="8">
         <f t="shared" si="21"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H212" s="8">
         <f t="shared" si="22"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I212" s="15">
         <f t="shared" si="23"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="213" spans="3:9" x14ac:dyDescent="0.25">
@@ -5903,19 +5919,19 @@
       </c>
       <c r="F213" s="13">
         <f t="shared" si="20"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G213" s="8">
         <f t="shared" si="21"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H213" s="8">
         <f t="shared" si="22"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I213" s="15">
         <f t="shared" si="23"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="214" spans="3:9" x14ac:dyDescent="0.25">
@@ -5927,19 +5943,19 @@
       </c>
       <c r="F214" s="13">
         <f t="shared" si="20"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G214" s="8">
         <f t="shared" si="21"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H214" s="8">
         <f t="shared" si="22"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I214" s="15">
         <f t="shared" si="23"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="215" spans="3:9" x14ac:dyDescent="0.25">
@@ -5951,19 +5967,19 @@
       </c>
       <c r="F215" s="13">
         <f t="shared" si="20"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G215" s="8">
         <f t="shared" si="21"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H215" s="8">
         <f t="shared" si="22"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I215" s="15">
         <f t="shared" si="23"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="216" spans="3:9" x14ac:dyDescent="0.25">
@@ -5975,19 +5991,19 @@
       </c>
       <c r="F216" s="13">
         <f t="shared" si="20"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G216" s="8">
         <f t="shared" si="21"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H216" s="8">
         <f t="shared" si="22"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I216" s="15">
         <f t="shared" si="23"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="217" spans="3:9" x14ac:dyDescent="0.25">
@@ -5999,19 +6015,19 @@
       </c>
       <c r="F217" s="13">
         <f t="shared" si="20"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G217" s="8">
         <f t="shared" si="21"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H217" s="8">
         <f t="shared" si="22"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I217" s="15">
         <f t="shared" si="23"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="218" spans="3:9" x14ac:dyDescent="0.25">
@@ -6023,19 +6039,19 @@
       </c>
       <c r="F218" s="13">
         <f t="shared" si="20"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G218" s="8">
         <f t="shared" si="21"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H218" s="8">
         <f t="shared" si="22"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I218" s="15">
         <f t="shared" si="23"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="219" spans="3:9" x14ac:dyDescent="0.25">
@@ -6047,19 +6063,19 @@
       </c>
       <c r="F219" s="13">
         <f t="shared" si="20"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G219" s="8">
         <f t="shared" si="21"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H219" s="8">
         <f t="shared" si="22"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I219" s="15">
         <f t="shared" si="23"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="220" spans="3:9" x14ac:dyDescent="0.25">
@@ -6071,19 +6087,19 @@
       </c>
       <c r="F220" s="13">
         <f t="shared" si="20"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G220" s="8">
         <f t="shared" si="21"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H220" s="8">
         <f t="shared" si="22"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I220" s="15">
         <f t="shared" si="23"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="221" spans="3:9" x14ac:dyDescent="0.25">
@@ -6095,19 +6111,19 @@
       </c>
       <c r="F221" s="13">
         <f t="shared" si="20"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G221" s="8">
         <f t="shared" si="21"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H221" s="8">
         <f t="shared" si="22"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I221" s="15">
         <f t="shared" si="23"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="222" spans="3:9" x14ac:dyDescent="0.25">
@@ -6119,19 +6135,19 @@
       </c>
       <c r="F222" s="13">
         <f t="shared" si="20"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G222" s="8">
         <f t="shared" si="21"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H222" s="8">
         <f t="shared" si="22"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I222" s="15">
         <f t="shared" si="23"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="223" spans="3:9" x14ac:dyDescent="0.25">
@@ -6143,19 +6159,19 @@
       </c>
       <c r="F223" s="13">
         <f t="shared" si="20"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G223" s="8">
         <f t="shared" si="21"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H223" s="8">
         <f t="shared" si="22"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I223" s="15">
         <f t="shared" si="23"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="224" spans="3:9" x14ac:dyDescent="0.25">
@@ -6167,19 +6183,19 @@
       </c>
       <c r="F224" s="13">
         <f t="shared" si="20"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G224" s="8">
         <f t="shared" si="21"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H224" s="8">
         <f t="shared" si="22"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I224" s="15">
         <f t="shared" si="23"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="225" spans="3:9" x14ac:dyDescent="0.25">
@@ -6191,19 +6207,19 @@
       </c>
       <c r="F225" s="13">
         <f t="shared" si="20"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G225" s="8">
         <f t="shared" si="21"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H225" s="8">
         <f t="shared" si="22"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I225" s="15">
         <f t="shared" si="23"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="226" spans="3:9" x14ac:dyDescent="0.25">
@@ -6215,19 +6231,19 @@
       </c>
       <c r="F226" s="13">
         <f t="shared" si="20"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G226" s="8">
         <f t="shared" si="21"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H226" s="8">
         <f t="shared" si="22"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I226" s="15">
         <f t="shared" si="23"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="227" spans="3:9" x14ac:dyDescent="0.25">
@@ -6239,19 +6255,19 @@
       </c>
       <c r="F227" s="13">
         <f t="shared" si="20"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G227" s="8">
         <f t="shared" si="21"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H227" s="8">
         <f t="shared" si="22"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I227" s="15">
         <f t="shared" si="23"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="228" spans="3:9" x14ac:dyDescent="0.25">
@@ -6263,19 +6279,19 @@
       </c>
       <c r="F228" s="13">
         <f t="shared" si="20"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G228" s="8">
         <f t="shared" si="21"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H228" s="8">
         <f t="shared" si="22"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I228" s="15">
         <f t="shared" si="23"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="229" spans="3:9" x14ac:dyDescent="0.25">
@@ -6287,19 +6303,19 @@
       </c>
       <c r="F229" s="13">
         <f t="shared" si="20"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G229" s="8">
         <f t="shared" si="21"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H229" s="8">
         <f t="shared" si="22"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I229" s="15">
         <f t="shared" si="23"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="230" spans="3:9" x14ac:dyDescent="0.25">
@@ -6311,19 +6327,19 @@
       </c>
       <c r="F230" s="13">
         <f t="shared" si="20"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G230" s="8">
         <f t="shared" si="21"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H230" s="8">
         <f t="shared" si="22"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I230" s="15">
         <f t="shared" si="23"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="231" spans="3:9" x14ac:dyDescent="0.25">
@@ -6335,19 +6351,19 @@
       </c>
       <c r="F231" s="13">
         <f t="shared" si="20"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G231" s="8">
         <f t="shared" si="21"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H231" s="8">
         <f t="shared" si="22"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I231" s="15">
         <f t="shared" si="23"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="232" spans="3:9" x14ac:dyDescent="0.25">
@@ -6359,19 +6375,19 @@
       </c>
       <c r="F232" s="13">
         <f t="shared" ref="F232:F255" si="25">F231+E232</f>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G232" s="8">
         <f t="shared" ref="G232:G255" si="26">F232</f>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H232" s="8">
         <f t="shared" ref="H232:H255" si="27">(H231+G232-G231)</f>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I232" s="15">
         <f t="shared" ref="I232:I255" si="28">H232*24*$J$2</f>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="233" spans="3:9" x14ac:dyDescent="0.25">
@@ -6383,19 +6399,19 @@
       </c>
       <c r="F233" s="13">
         <f t="shared" si="25"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G233" s="8">
         <f t="shared" si="26"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H233" s="8">
         <f t="shared" si="27"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I233" s="15">
         <f t="shared" si="28"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="234" spans="3:9" x14ac:dyDescent="0.25">
@@ -6407,19 +6423,19 @@
       </c>
       <c r="F234" s="13">
         <f t="shared" si="25"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G234" s="8">
         <f t="shared" si="26"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H234" s="8">
         <f t="shared" si="27"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I234" s="15">
         <f t="shared" si="28"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="235" spans="3:9" x14ac:dyDescent="0.25">
@@ -6431,19 +6447,19 @@
       </c>
       <c r="F235" s="13">
         <f t="shared" si="25"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G235" s="8">
         <f t="shared" si="26"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H235" s="8">
         <f t="shared" si="27"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I235" s="15">
         <f t="shared" si="28"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="236" spans="3:9" x14ac:dyDescent="0.25">
@@ -6455,19 +6471,19 @@
       </c>
       <c r="F236" s="13">
         <f t="shared" si="25"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G236" s="8">
         <f t="shared" si="26"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H236" s="8">
         <f t="shared" si="27"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I236" s="15">
         <f t="shared" si="28"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="237" spans="3:9" x14ac:dyDescent="0.25">
@@ -6479,19 +6495,19 @@
       </c>
       <c r="F237" s="13">
         <f t="shared" si="25"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G237" s="8">
         <f t="shared" si="26"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H237" s="8">
         <f t="shared" si="27"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I237" s="15">
         <f t="shared" si="28"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="238" spans="3:9" x14ac:dyDescent="0.25">
@@ -6503,19 +6519,19 @@
       </c>
       <c r="F238" s="13">
         <f t="shared" si="25"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G238" s="8">
         <f t="shared" si="26"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H238" s="8">
         <f t="shared" si="27"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I238" s="15">
         <f t="shared" si="28"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="239" spans="3:9" x14ac:dyDescent="0.25">
@@ -6527,19 +6543,19 @@
       </c>
       <c r="F239" s="13">
         <f t="shared" si="25"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G239" s="8">
         <f t="shared" si="26"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H239" s="8">
         <f t="shared" si="27"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I239" s="15">
         <f t="shared" si="28"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="240" spans="3:9" x14ac:dyDescent="0.25">
@@ -6551,19 +6567,19 @@
       </c>
       <c r="F240" s="13">
         <f t="shared" si="25"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G240" s="8">
         <f t="shared" si="26"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H240" s="8">
         <f t="shared" si="27"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I240" s="15">
         <f t="shared" si="28"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="241" spans="3:9" x14ac:dyDescent="0.25">
@@ -6575,19 +6591,19 @@
       </c>
       <c r="F241" s="13">
         <f t="shared" si="25"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G241" s="8">
         <f t="shared" si="26"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H241" s="8">
         <f t="shared" si="27"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I241" s="15">
         <f t="shared" si="28"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="242" spans="3:9" x14ac:dyDescent="0.25">
@@ -6599,19 +6615,19 @@
       </c>
       <c r="F242" s="13">
         <f t="shared" si="25"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G242" s="8">
         <f t="shared" si="26"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H242" s="8">
         <f t="shared" si="27"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I242" s="15">
         <f t="shared" si="28"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="243" spans="3:9" x14ac:dyDescent="0.25">
@@ -6623,19 +6639,19 @@
       </c>
       <c r="F243" s="13">
         <f t="shared" si="25"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G243" s="8">
         <f t="shared" si="26"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H243" s="8">
         <f t="shared" si="27"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I243" s="15">
         <f t="shared" si="28"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="244" spans="3:9" x14ac:dyDescent="0.25">
@@ -6647,19 +6663,19 @@
       </c>
       <c r="F244" s="13">
         <f t="shared" si="25"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G244" s="8">
         <f t="shared" si="26"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H244" s="8">
         <f t="shared" si="27"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I244" s="15">
         <f t="shared" si="28"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="245" spans="3:9" x14ac:dyDescent="0.25">
@@ -6671,19 +6687,19 @@
       </c>
       <c r="F245" s="13">
         <f t="shared" si="25"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G245" s="8">
         <f t="shared" si="26"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H245" s="8">
         <f t="shared" si="27"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I245" s="15">
         <f t="shared" si="28"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="246" spans="3:9" x14ac:dyDescent="0.25">
@@ -6695,19 +6711,19 @@
       </c>
       <c r="F246" s="13">
         <f t="shared" si="25"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G246" s="8">
         <f t="shared" si="26"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H246" s="8">
         <f t="shared" si="27"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I246" s="15">
         <f t="shared" si="28"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="247" spans="3:9" x14ac:dyDescent="0.25">
@@ -6719,19 +6735,19 @@
       </c>
       <c r="F247" s="13">
         <f t="shared" si="25"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G247" s="8">
         <f t="shared" si="26"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H247" s="8">
         <f t="shared" si="27"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I247" s="15">
         <f t="shared" si="28"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="248" spans="3:9" x14ac:dyDescent="0.25">
@@ -6743,19 +6759,19 @@
       </c>
       <c r="F248" s="13">
         <f t="shared" si="25"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G248" s="8">
         <f t="shared" si="26"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H248" s="8">
         <f t="shared" si="27"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I248" s="15">
         <f t="shared" si="28"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="249" spans="3:9" x14ac:dyDescent="0.25">
@@ -6767,19 +6783,19 @@
       </c>
       <c r="F249" s="13">
         <f t="shared" si="25"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G249" s="8">
         <f t="shared" si="26"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H249" s="8">
         <f t="shared" si="27"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I249" s="15">
         <f t="shared" si="28"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="250" spans="3:9" x14ac:dyDescent="0.25">
@@ -6791,19 +6807,19 @@
       </c>
       <c r="F250" s="13">
         <f t="shared" si="25"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G250" s="8">
         <f t="shared" si="26"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H250" s="8">
         <f t="shared" si="27"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I250" s="15">
         <f t="shared" si="28"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="251" spans="3:9" x14ac:dyDescent="0.25">
@@ -6815,19 +6831,19 @@
       </c>
       <c r="F251" s="13">
         <f t="shared" si="25"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G251" s="8">
         <f t="shared" si="26"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H251" s="8">
         <f t="shared" si="27"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I251" s="15">
         <f t="shared" si="28"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="252" spans="3:9" x14ac:dyDescent="0.25">
@@ -6839,19 +6855,19 @@
       </c>
       <c r="F252" s="13">
         <f t="shared" si="25"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G252" s="8">
         <f t="shared" si="26"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H252" s="8">
         <f t="shared" si="27"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I252" s="15">
         <f t="shared" si="28"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="253" spans="3:9" x14ac:dyDescent="0.25">
@@ -6863,19 +6879,19 @@
       </c>
       <c r="F253" s="13">
         <f t="shared" si="25"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G253" s="8">
         <f t="shared" si="26"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H253" s="8">
         <f t="shared" si="27"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I253" s="15">
         <f t="shared" si="28"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="254" spans="3:9" x14ac:dyDescent="0.25">
@@ -6887,19 +6903,19 @@
       </c>
       <c r="F254" s="13">
         <f t="shared" si="25"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G254" s="8">
         <f t="shared" si="26"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H254" s="8">
         <f t="shared" si="27"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I254" s="15">
         <f t="shared" si="28"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
     <row r="255" spans="3:9" x14ac:dyDescent="0.25">
@@ -6911,19 +6927,19 @@
       </c>
       <c r="F255" s="13">
         <f t="shared" si="25"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="G255" s="8">
         <f t="shared" si="26"/>
-        <v>0.28819444444444431</v>
+        <v>0.44236111111111098</v>
       </c>
       <c r="H255" s="8">
         <f t="shared" si="27"/>
-        <v>1.4381944444444446</v>
+        <v>1.5923611111111113</v>
       </c>
       <c r="I255" s="15">
         <f t="shared" si="28"/>
-        <v>5867.833333333333</v>
+        <v>6496.8333333333339</v>
       </c>
     </row>
   </sheetData>

--- a/hodiny.xlsx
+++ b/hodiny.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94DEEABE-E642-47EA-9516-35CA7B554763}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9900C817-91E7-4DB2-9341-A8C5522799A2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5070" yWindow="5070" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>čas [min]</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>10.6.</t>
+  </si>
+  <si>
+    <t>11.6.</t>
   </si>
 </sst>
 </file>
@@ -609,7 +612,7 @@
   <dimension ref="B1:J255"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1927,147 +1930,174 @@
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C47" s="2"/>
-      <c r="D47" s="10"/>
+      <c r="B47" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C47" s="2">
+        <v>0.66805555555555562</v>
+      </c>
+      <c r="D47" s="10">
+        <v>0.70694444444444438</v>
+      </c>
       <c r="E47" s="12">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>3.8888888888888751E-2</v>
       </c>
       <c r="F47" s="13">
         <f t="shared" si="10"/>
-        <v>0.44236111111111098</v>
+        <v>0.48124999999999973</v>
       </c>
       <c r="G47" s="8">
         <f t="shared" si="11"/>
-        <v>0.44236111111111098</v>
+        <v>0.48124999999999973</v>
       </c>
       <c r="H47" s="8">
         <f t="shared" si="12"/>
-        <v>1.5923611111111113</v>
+        <v>1.6312500000000001</v>
       </c>
       <c r="I47" s="15">
         <f t="shared" si="13"/>
-        <v>6496.8333333333339</v>
+        <v>6655.5000000000009</v>
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C48" s="2"/>
-      <c r="D48" s="10"/>
+      <c r="C48" s="2">
+        <v>0.75138888888888899</v>
+      </c>
+      <c r="D48" s="10">
+        <v>0.75624999999999998</v>
+      </c>
       <c r="E48" s="12">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>4.8611111111109828E-3</v>
       </c>
       <c r="F48" s="13">
         <f t="shared" si="10"/>
-        <v>0.44236111111111098</v>
+        <v>0.48611111111111072</v>
       </c>
       <c r="G48" s="8">
         <f t="shared" si="11"/>
-        <v>0.44236111111111098</v>
+        <v>0.48611111111111072</v>
       </c>
       <c r="H48" s="8">
         <f t="shared" si="12"/>
-        <v>1.5923611111111113</v>
+        <v>1.6361111111111111</v>
       </c>
       <c r="I48" s="15">
         <f t="shared" si="13"/>
-        <v>6496.8333333333339</v>
+        <v>6675.333333333333</v>
       </c>
     </row>
     <row r="49" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C49" s="2"/>
-      <c r="D49" s="10"/>
+      <c r="C49" s="2">
+        <v>0.7631944444444444</v>
+      </c>
+      <c r="D49" s="10">
+        <v>0.77430555555555547</v>
+      </c>
       <c r="E49" s="12">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1.1111111111111072E-2</v>
       </c>
       <c r="F49" s="13">
         <f t="shared" si="10"/>
-        <v>0.44236111111111098</v>
+        <v>0.49722222222222179</v>
       </c>
       <c r="G49" s="8">
         <f t="shared" si="11"/>
-        <v>0.44236111111111098</v>
+        <v>0.49722222222222179</v>
       </c>
       <c r="H49" s="8">
         <f t="shared" si="12"/>
-        <v>1.5923611111111113</v>
+        <v>1.6472222222222221</v>
       </c>
       <c r="I49" s="15">
         <f t="shared" si="13"/>
-        <v>6496.8333333333339</v>
+        <v>6720.6666666666661</v>
       </c>
     </row>
     <row r="50" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C50" s="2"/>
-      <c r="D50" s="10"/>
+      <c r="C50" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D50" s="10">
+        <v>0.83611111111111114</v>
+      </c>
       <c r="E50" s="12">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>4.4444444444444509E-2</v>
       </c>
       <c r="F50" s="13">
         <f t="shared" si="10"/>
-        <v>0.44236111111111098</v>
+        <v>0.5416666666666663</v>
       </c>
       <c r="G50" s="8">
         <f t="shared" si="11"/>
-        <v>0.44236111111111098</v>
+        <v>0.5416666666666663</v>
       </c>
       <c r="H50" s="8">
         <f t="shared" si="12"/>
-        <v>1.5923611111111113</v>
+        <v>1.6916666666666664</v>
       </c>
       <c r="I50" s="15">
         <f t="shared" si="13"/>
-        <v>6496.8333333333339</v>
+        <v>6901.9999999999991</v>
       </c>
     </row>
     <row r="51" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C51" s="2"/>
-      <c r="D51" s="10"/>
+      <c r="C51" s="2">
+        <v>0.83958333333333324</v>
+      </c>
+      <c r="D51" s="10">
+        <v>0.87222222222222223</v>
+      </c>
       <c r="E51" s="12">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>3.2638888888888995E-2</v>
       </c>
       <c r="F51" s="13">
         <f t="shared" si="10"/>
-        <v>0.44236111111111098</v>
+        <v>0.57430555555555529</v>
       </c>
       <c r="G51" s="8">
         <f t="shared" si="11"/>
-        <v>0.44236111111111098</v>
+        <v>0.57430555555555529</v>
       </c>
       <c r="H51" s="8">
         <f t="shared" si="12"/>
-        <v>1.5923611111111113</v>
+        <v>1.7243055555555553</v>
       </c>
       <c r="I51" s="15">
         <f t="shared" si="13"/>
-        <v>6496.8333333333339</v>
+        <v>7035.1666666666652</v>
       </c>
     </row>
     <row r="52" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C52" s="2"/>
-      <c r="D52" s="10"/>
+      <c r="C52" s="2">
+        <v>0.88194444444444453</v>
+      </c>
+      <c r="D52" s="10">
+        <v>0.94444444444444453</v>
+      </c>
       <c r="E52" s="12">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="F52" s="13">
         <f t="shared" si="10"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G52" s="8">
         <f t="shared" si="11"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H52" s="8">
         <f t="shared" si="12"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I52" s="15">
         <f t="shared" si="13"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="53" spans="3:9" x14ac:dyDescent="0.25">
@@ -2079,19 +2109,19 @@
       </c>
       <c r="F53" s="13">
         <f t="shared" si="10"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G53" s="8">
         <f t="shared" si="11"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H53" s="8">
         <f t="shared" si="12"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I53" s="15">
         <f t="shared" si="13"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="54" spans="3:9" x14ac:dyDescent="0.25">
@@ -2103,19 +2133,19 @@
       </c>
       <c r="F54" s="13">
         <f t="shared" si="10"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G54" s="8">
         <f t="shared" si="11"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H54" s="8">
         <f t="shared" si="12"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I54" s="15">
         <f t="shared" si="13"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="55" spans="3:9" x14ac:dyDescent="0.25">
@@ -2127,19 +2157,19 @@
       </c>
       <c r="F55" s="13">
         <f t="shared" si="10"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G55" s="8">
         <f t="shared" si="11"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H55" s="8">
         <f t="shared" si="12"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I55" s="15">
         <f t="shared" si="13"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="56" spans="3:9" x14ac:dyDescent="0.25">
@@ -2151,19 +2181,19 @@
       </c>
       <c r="F56" s="13">
         <f t="shared" si="10"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G56" s="8">
         <f t="shared" si="11"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H56" s="8">
         <f t="shared" si="12"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I56" s="15">
         <f t="shared" si="13"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="57" spans="3:9" x14ac:dyDescent="0.25">
@@ -2175,19 +2205,19 @@
       </c>
       <c r="F57" s="13">
         <f t="shared" si="10"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G57" s="8">
         <f t="shared" si="11"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H57" s="8">
         <f t="shared" si="12"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I57" s="15">
         <f t="shared" si="13"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="58" spans="3:9" x14ac:dyDescent="0.25">
@@ -2199,19 +2229,19 @@
       </c>
       <c r="F58" s="13">
         <f t="shared" si="10"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G58" s="8">
         <f t="shared" si="11"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H58" s="8">
         <f t="shared" si="12"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I58" s="15">
         <f t="shared" si="13"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="59" spans="3:9" x14ac:dyDescent="0.25">
@@ -2223,19 +2253,19 @@
       </c>
       <c r="F59" s="13">
         <f t="shared" si="10"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G59" s="8">
         <f t="shared" si="11"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H59" s="8">
         <f t="shared" si="12"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I59" s="15">
         <f t="shared" si="13"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="60" spans="3:9" x14ac:dyDescent="0.25">
@@ -2247,19 +2277,19 @@
       </c>
       <c r="F60" s="13">
         <f t="shared" si="10"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G60" s="8">
         <f t="shared" si="11"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H60" s="8">
         <f t="shared" si="12"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I60" s="15">
         <f t="shared" si="13"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="61" spans="3:9" x14ac:dyDescent="0.25">
@@ -2271,19 +2301,19 @@
       </c>
       <c r="F61" s="13">
         <f t="shared" si="10"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G61" s="8">
         <f t="shared" si="11"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H61" s="8">
         <f t="shared" si="12"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I61" s="15">
         <f t="shared" si="13"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="62" spans="3:9" x14ac:dyDescent="0.25">
@@ -2295,19 +2325,19 @@
       </c>
       <c r="F62" s="13">
         <f t="shared" si="10"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G62" s="8">
         <f t="shared" si="11"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H62" s="8">
         <f t="shared" si="12"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I62" s="15">
         <f t="shared" si="13"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="63" spans="3:9" x14ac:dyDescent="0.25">
@@ -2319,19 +2349,19 @@
       </c>
       <c r="F63" s="13">
         <f t="shared" si="10"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G63" s="8">
         <f t="shared" si="11"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H63" s="8">
         <f t="shared" si="12"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I63" s="15">
         <f t="shared" si="13"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="64" spans="3:9" x14ac:dyDescent="0.25">
@@ -2343,19 +2373,19 @@
       </c>
       <c r="F64" s="13">
         <f t="shared" si="10"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G64" s="8">
         <f t="shared" si="11"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H64" s="8">
         <f t="shared" si="12"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I64" s="15">
         <f t="shared" si="13"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="65" spans="3:9" x14ac:dyDescent="0.25">
@@ -2367,19 +2397,19 @@
       </c>
       <c r="F65" s="13">
         <f t="shared" si="10"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G65" s="8">
         <f t="shared" si="11"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H65" s="8">
         <f t="shared" si="12"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I65" s="15">
         <f t="shared" si="13"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="66" spans="3:9" x14ac:dyDescent="0.25">
@@ -2391,19 +2421,19 @@
       </c>
       <c r="F66" s="13">
         <f t="shared" si="10"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G66" s="8">
         <f t="shared" si="11"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H66" s="8">
         <f t="shared" si="12"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I66" s="15">
         <f t="shared" si="13"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="67" spans="3:9" x14ac:dyDescent="0.25">
@@ -2415,19 +2445,19 @@
       </c>
       <c r="F67" s="13">
         <f t="shared" si="10"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G67" s="8">
         <f t="shared" si="11"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H67" s="8">
         <f t="shared" si="12"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I67" s="15">
         <f t="shared" si="13"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="68" spans="3:9" x14ac:dyDescent="0.25">
@@ -2439,19 +2469,19 @@
       </c>
       <c r="F68" s="13">
         <f t="shared" si="10"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G68" s="8">
         <f t="shared" si="11"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H68" s="8">
         <f t="shared" si="12"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I68" s="15">
         <f t="shared" si="13"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="69" spans="3:9" x14ac:dyDescent="0.25">
@@ -2463,19 +2493,19 @@
       </c>
       <c r="F69" s="13">
         <f t="shared" si="10"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G69" s="8">
         <f t="shared" si="11"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H69" s="8">
         <f t="shared" si="12"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I69" s="15">
         <f t="shared" si="13"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="70" spans="3:9" x14ac:dyDescent="0.25">
@@ -2487,19 +2517,19 @@
       </c>
       <c r="F70" s="13">
         <f t="shared" si="10"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G70" s="8">
         <f t="shared" si="11"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H70" s="8">
         <f t="shared" si="12"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I70" s="15">
         <f t="shared" si="13"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="71" spans="3:9" x14ac:dyDescent="0.25">
@@ -2511,19 +2541,19 @@
       </c>
       <c r="F71" s="13">
         <f t="shared" si="10"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G71" s="8">
         <f t="shared" si="11"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H71" s="8">
         <f t="shared" si="12"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I71" s="15">
         <f t="shared" si="13"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="72" spans="3:9" x14ac:dyDescent="0.25">
@@ -2535,19 +2565,19 @@
       </c>
       <c r="F72" s="13">
         <f t="shared" si="10"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G72" s="8">
         <f t="shared" si="11"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H72" s="8">
         <f t="shared" si="12"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I72" s="15">
         <f t="shared" si="13"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="73" spans="3:9" x14ac:dyDescent="0.25">
@@ -2559,19 +2589,19 @@
       </c>
       <c r="F73" s="13">
         <f t="shared" si="10"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G73" s="8">
         <f t="shared" si="11"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H73" s="8">
         <f t="shared" si="12"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I73" s="15">
         <f t="shared" si="13"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="74" spans="3:9" x14ac:dyDescent="0.25">
@@ -2583,19 +2613,19 @@
       </c>
       <c r="F74" s="13">
         <f t="shared" si="10"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G74" s="8">
         <f t="shared" si="11"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H74" s="8">
         <f t="shared" si="12"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I74" s="15">
         <f t="shared" si="13"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="75" spans="3:9" x14ac:dyDescent="0.25">
@@ -2607,19 +2637,19 @@
       </c>
       <c r="F75" s="13">
         <f t="shared" si="10"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G75" s="8">
         <f t="shared" si="11"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H75" s="8">
         <f t="shared" si="12"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I75" s="15">
         <f t="shared" si="13"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="76" spans="3:9" x14ac:dyDescent="0.25">
@@ -2631,19 +2661,19 @@
       </c>
       <c r="F76" s="13">
         <f t="shared" si="10"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G76" s="8">
         <f t="shared" si="11"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H76" s="8">
         <f t="shared" si="12"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I76" s="15">
         <f t="shared" si="13"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="77" spans="3:9" x14ac:dyDescent="0.25">
@@ -2655,19 +2685,19 @@
       </c>
       <c r="F77" s="13">
         <f t="shared" si="10"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G77" s="8">
         <f t="shared" si="11"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H77" s="8">
         <f t="shared" si="12"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I77" s="15">
         <f t="shared" si="13"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="78" spans="3:9" x14ac:dyDescent="0.25">
@@ -2679,19 +2709,19 @@
       </c>
       <c r="F78" s="13">
         <f t="shared" si="10"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G78" s="8">
         <f t="shared" si="11"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H78" s="8">
         <f t="shared" si="12"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I78" s="15">
         <f t="shared" si="13"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="79" spans="3:9" x14ac:dyDescent="0.25">
@@ -2703,19 +2733,19 @@
       </c>
       <c r="F79" s="13">
         <f t="shared" si="10"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G79" s="8">
         <f t="shared" si="11"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H79" s="8">
         <f t="shared" si="12"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I79" s="15">
         <f t="shared" si="13"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="80" spans="3:9" x14ac:dyDescent="0.25">
@@ -2727,19 +2757,19 @@
       </c>
       <c r="F80" s="13">
         <f t="shared" si="10"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G80" s="8">
         <f t="shared" si="11"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H80" s="8">
         <f t="shared" si="12"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I80" s="15">
         <f t="shared" si="13"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="81" spans="3:9" x14ac:dyDescent="0.25">
@@ -2751,19 +2781,19 @@
       </c>
       <c r="F81" s="13">
         <f t="shared" si="10"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G81" s="8">
         <f t="shared" si="11"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H81" s="8">
         <f t="shared" si="12"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I81" s="15">
         <f t="shared" si="13"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="82" spans="3:9" x14ac:dyDescent="0.25">
@@ -2775,19 +2805,19 @@
       </c>
       <c r="F82" s="13">
         <f t="shared" si="10"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G82" s="8">
         <f t="shared" si="11"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H82" s="8">
         <f t="shared" si="12"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I82" s="15">
         <f t="shared" si="13"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="83" spans="3:9" x14ac:dyDescent="0.25">
@@ -2799,19 +2829,19 @@
       </c>
       <c r="F83" s="13">
         <f t="shared" si="10"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G83" s="8">
         <f t="shared" si="11"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H83" s="8">
         <f t="shared" si="12"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I83" s="15">
         <f t="shared" si="13"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="84" spans="3:9" x14ac:dyDescent="0.25">
@@ -2823,19 +2853,19 @@
       </c>
       <c r="F84" s="13">
         <f t="shared" si="10"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G84" s="8">
         <f t="shared" si="11"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H84" s="8">
         <f t="shared" si="12"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I84" s="15">
         <f t="shared" si="13"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="85" spans="3:9" x14ac:dyDescent="0.25">
@@ -2847,19 +2877,19 @@
       </c>
       <c r="F85" s="13">
         <f t="shared" si="10"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G85" s="8">
         <f t="shared" si="11"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H85" s="8">
         <f t="shared" si="12"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I85" s="15">
         <f t="shared" si="13"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="86" spans="3:9" x14ac:dyDescent="0.25">
@@ -2871,19 +2901,19 @@
       </c>
       <c r="F86" s="13">
         <f t="shared" si="10"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G86" s="8">
         <f t="shared" si="11"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H86" s="8">
         <f t="shared" si="12"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I86" s="15">
         <f t="shared" si="13"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="87" spans="3:9" x14ac:dyDescent="0.25">
@@ -2895,19 +2925,19 @@
       </c>
       <c r="F87" s="13">
         <f t="shared" si="10"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G87" s="8">
         <f t="shared" si="11"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H87" s="8">
         <f t="shared" si="12"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I87" s="15">
         <f t="shared" si="13"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="88" spans="3:9" x14ac:dyDescent="0.25">
@@ -2919,19 +2949,19 @@
       </c>
       <c r="F88" s="13">
         <f t="shared" si="10"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G88" s="8">
         <f t="shared" si="11"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H88" s="8">
         <f t="shared" si="12"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I88" s="15">
         <f t="shared" si="13"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="89" spans="3:9" x14ac:dyDescent="0.25">
@@ -2943,19 +2973,19 @@
       </c>
       <c r="F89" s="13">
         <f t="shared" si="10"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G89" s="8">
         <f t="shared" si="11"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H89" s="8">
         <f t="shared" si="12"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I89" s="15">
         <f t="shared" si="13"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="90" spans="3:9" x14ac:dyDescent="0.25">
@@ -2967,19 +2997,19 @@
       </c>
       <c r="F90" s="13">
         <f t="shared" si="10"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G90" s="8">
         <f t="shared" si="11"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H90" s="8">
         <f t="shared" si="12"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I90" s="15">
         <f t="shared" si="13"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="91" spans="3:9" x14ac:dyDescent="0.25">
@@ -2991,19 +3021,19 @@
       </c>
       <c r="F91" s="13">
         <f t="shared" si="10"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G91" s="8">
         <f t="shared" si="11"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H91" s="8">
         <f t="shared" si="12"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I91" s="15">
         <f t="shared" si="13"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="92" spans="3:9" x14ac:dyDescent="0.25">
@@ -3015,19 +3045,19 @@
       </c>
       <c r="F92" s="13">
         <f t="shared" si="10"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G92" s="8">
         <f t="shared" si="11"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H92" s="8">
         <f t="shared" si="12"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I92" s="15">
         <f t="shared" si="13"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="93" spans="3:9" x14ac:dyDescent="0.25">
@@ -3039,19 +3069,19 @@
       </c>
       <c r="F93" s="13">
         <f t="shared" si="10"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G93" s="8">
         <f t="shared" si="11"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H93" s="8">
         <f t="shared" si="12"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I93" s="15">
         <f t="shared" si="13"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="94" spans="3:9" x14ac:dyDescent="0.25">
@@ -3063,19 +3093,19 @@
       </c>
       <c r="F94" s="13">
         <f t="shared" si="10"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G94" s="8">
         <f t="shared" si="11"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H94" s="8">
         <f t="shared" si="12"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I94" s="15">
         <f t="shared" si="13"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="95" spans="3:9" x14ac:dyDescent="0.25">
@@ -3087,19 +3117,19 @@
       </c>
       <c r="F95" s="13">
         <f t="shared" si="10"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G95" s="8">
         <f t="shared" si="11"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H95" s="8">
         <f t="shared" si="12"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I95" s="15">
         <f t="shared" si="13"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="96" spans="3:9" x14ac:dyDescent="0.25">
@@ -3111,19 +3141,19 @@
       </c>
       <c r="F96" s="13">
         <f t="shared" si="10"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G96" s="8">
         <f t="shared" si="11"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H96" s="8">
         <f t="shared" si="12"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I96" s="15">
         <f t="shared" si="13"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="97" spans="3:9" x14ac:dyDescent="0.25">
@@ -3135,19 +3165,19 @@
       </c>
       <c r="F97" s="13">
         <f t="shared" si="10"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G97" s="8">
         <f t="shared" si="11"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H97" s="8">
         <f t="shared" si="12"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I97" s="15">
         <f t="shared" si="13"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="98" spans="3:9" x14ac:dyDescent="0.25">
@@ -3159,19 +3189,19 @@
       </c>
       <c r="F98" s="13">
         <f t="shared" si="10"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G98" s="8">
         <f t="shared" si="11"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H98" s="8">
         <f t="shared" si="12"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I98" s="15">
         <f t="shared" si="13"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="99" spans="3:9" x14ac:dyDescent="0.25">
@@ -3183,19 +3213,19 @@
       </c>
       <c r="F99" s="13">
         <f t="shared" si="10"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G99" s="8">
         <f t="shared" si="11"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H99" s="8">
         <f t="shared" si="12"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I99" s="15">
         <f t="shared" si="13"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="100" spans="3:9" x14ac:dyDescent="0.25">
@@ -3207,19 +3237,19 @@
       </c>
       <c r="F100" s="13">
         <f t="shared" si="10"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G100" s="8">
         <f t="shared" si="11"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H100" s="8">
         <f t="shared" si="12"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I100" s="15">
         <f t="shared" si="13"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="101" spans="3:9" x14ac:dyDescent="0.25">
@@ -3231,19 +3261,19 @@
       </c>
       <c r="F101" s="13">
         <f t="shared" si="10"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G101" s="8">
         <f t="shared" si="11"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H101" s="8">
         <f t="shared" si="12"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I101" s="15">
         <f t="shared" si="13"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="102" spans="3:9" x14ac:dyDescent="0.25">
@@ -3255,19 +3285,19 @@
       </c>
       <c r="F102" s="13">
         <f t="shared" si="10"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G102" s="8">
         <f t="shared" si="11"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H102" s="8">
         <f t="shared" si="12"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I102" s="15">
         <f t="shared" si="13"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="103" spans="3:9" x14ac:dyDescent="0.25">
@@ -3279,19 +3309,19 @@
       </c>
       <c r="F103" s="13">
         <f t="shared" si="10"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G103" s="8">
         <f t="shared" si="11"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H103" s="8">
         <f t="shared" si="12"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I103" s="15">
         <f t="shared" si="13"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="104" spans="3:9" x14ac:dyDescent="0.25">
@@ -3303,19 +3333,19 @@
       </c>
       <c r="F104" s="13">
         <f t="shared" ref="F104:F167" si="15">F103+E104</f>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G104" s="8">
         <f t="shared" ref="G104:G167" si="16">F104</f>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H104" s="8">
         <f t="shared" ref="H104:H167" si="17">(H103+G104-G103)</f>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I104" s="15">
         <f t="shared" ref="I104:I167" si="18">H104*24*$J$2</f>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="105" spans="3:9" x14ac:dyDescent="0.25">
@@ -3327,19 +3357,19 @@
       </c>
       <c r="F105" s="13">
         <f t="shared" si="15"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G105" s="8">
         <f t="shared" si="16"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H105" s="8">
         <f t="shared" si="17"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I105" s="15">
         <f t="shared" si="18"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="106" spans="3:9" x14ac:dyDescent="0.25">
@@ -3351,19 +3381,19 @@
       </c>
       <c r="F106" s="13">
         <f t="shared" si="15"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G106" s="8">
         <f t="shared" si="16"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H106" s="8">
         <f t="shared" si="17"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I106" s="15">
         <f t="shared" si="18"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="107" spans="3:9" x14ac:dyDescent="0.25">
@@ -3375,19 +3405,19 @@
       </c>
       <c r="F107" s="13">
         <f t="shared" si="15"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G107" s="8">
         <f t="shared" si="16"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H107" s="8">
         <f t="shared" si="17"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I107" s="15">
         <f t="shared" si="18"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="108" spans="3:9" x14ac:dyDescent="0.25">
@@ -3399,19 +3429,19 @@
       </c>
       <c r="F108" s="13">
         <f t="shared" si="15"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G108" s="8">
         <f t="shared" si="16"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H108" s="8">
         <f t="shared" si="17"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I108" s="15">
         <f t="shared" si="18"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="109" spans="3:9" x14ac:dyDescent="0.25">
@@ -3423,19 +3453,19 @@
       </c>
       <c r="F109" s="13">
         <f t="shared" si="15"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G109" s="8">
         <f t="shared" si="16"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H109" s="8">
         <f t="shared" si="17"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I109" s="15">
         <f t="shared" si="18"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="110" spans="3:9" x14ac:dyDescent="0.25">
@@ -3447,19 +3477,19 @@
       </c>
       <c r="F110" s="13">
         <f t="shared" si="15"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G110" s="8">
         <f t="shared" si="16"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H110" s="8">
         <f t="shared" si="17"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I110" s="15">
         <f t="shared" si="18"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="111" spans="3:9" x14ac:dyDescent="0.25">
@@ -3471,19 +3501,19 @@
       </c>
       <c r="F111" s="13">
         <f t="shared" si="15"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G111" s="8">
         <f t="shared" si="16"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H111" s="8">
         <f t="shared" si="17"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I111" s="15">
         <f t="shared" si="18"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="112" spans="3:9" x14ac:dyDescent="0.25">
@@ -3495,19 +3525,19 @@
       </c>
       <c r="F112" s="13">
         <f t="shared" si="15"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G112" s="8">
         <f t="shared" si="16"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H112" s="8">
         <f t="shared" si="17"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I112" s="15">
         <f t="shared" si="18"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="113" spans="3:9" x14ac:dyDescent="0.25">
@@ -3519,19 +3549,19 @@
       </c>
       <c r="F113" s="13">
         <f t="shared" si="15"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G113" s="8">
         <f t="shared" si="16"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H113" s="8">
         <f t="shared" si="17"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I113" s="15">
         <f t="shared" si="18"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="114" spans="3:9" x14ac:dyDescent="0.25">
@@ -3543,19 +3573,19 @@
       </c>
       <c r="F114" s="13">
         <f t="shared" si="15"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G114" s="8">
         <f t="shared" si="16"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H114" s="8">
         <f t="shared" si="17"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I114" s="15">
         <f t="shared" si="18"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="115" spans="3:9" x14ac:dyDescent="0.25">
@@ -3567,19 +3597,19 @@
       </c>
       <c r="F115" s="13">
         <f t="shared" si="15"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G115" s="8">
         <f t="shared" si="16"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H115" s="8">
         <f t="shared" si="17"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I115" s="15">
         <f t="shared" si="18"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="116" spans="3:9" x14ac:dyDescent="0.25">
@@ -3591,19 +3621,19 @@
       </c>
       <c r="F116" s="13">
         <f t="shared" si="15"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G116" s="8">
         <f t="shared" si="16"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H116" s="8">
         <f t="shared" si="17"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I116" s="15">
         <f t="shared" si="18"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="117" spans="3:9" x14ac:dyDescent="0.25">
@@ -3615,19 +3645,19 @@
       </c>
       <c r="F117" s="13">
         <f t="shared" si="15"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G117" s="8">
         <f t="shared" si="16"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H117" s="8">
         <f t="shared" si="17"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I117" s="15">
         <f t="shared" si="18"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="118" spans="3:9" x14ac:dyDescent="0.25">
@@ -3639,19 +3669,19 @@
       </c>
       <c r="F118" s="13">
         <f t="shared" si="15"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G118" s="8">
         <f t="shared" si="16"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H118" s="8">
         <f t="shared" si="17"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I118" s="15">
         <f t="shared" si="18"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="119" spans="3:9" x14ac:dyDescent="0.25">
@@ -3663,19 +3693,19 @@
       </c>
       <c r="F119" s="13">
         <f t="shared" si="15"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G119" s="8">
         <f t="shared" si="16"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H119" s="8">
         <f t="shared" si="17"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I119" s="15">
         <f t="shared" si="18"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="120" spans="3:9" x14ac:dyDescent="0.25">
@@ -3687,19 +3717,19 @@
       </c>
       <c r="F120" s="13">
         <f t="shared" si="15"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G120" s="8">
         <f t="shared" si="16"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H120" s="8">
         <f t="shared" si="17"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I120" s="15">
         <f t="shared" si="18"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="121" spans="3:9" x14ac:dyDescent="0.25">
@@ -3711,19 +3741,19 @@
       </c>
       <c r="F121" s="13">
         <f t="shared" si="15"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G121" s="8">
         <f t="shared" si="16"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H121" s="8">
         <f t="shared" si="17"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I121" s="15">
         <f t="shared" si="18"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="122" spans="3:9" x14ac:dyDescent="0.25">
@@ -3735,19 +3765,19 @@
       </c>
       <c r="F122" s="13">
         <f t="shared" si="15"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G122" s="8">
         <f t="shared" si="16"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H122" s="8">
         <f t="shared" si="17"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I122" s="15">
         <f t="shared" si="18"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="123" spans="3:9" x14ac:dyDescent="0.25">
@@ -3759,19 +3789,19 @@
       </c>
       <c r="F123" s="13">
         <f t="shared" si="15"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G123" s="8">
         <f t="shared" si="16"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H123" s="8">
         <f t="shared" si="17"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I123" s="15">
         <f t="shared" si="18"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="124" spans="3:9" x14ac:dyDescent="0.25">
@@ -3783,19 +3813,19 @@
       </c>
       <c r="F124" s="13">
         <f t="shared" si="15"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G124" s="8">
         <f t="shared" si="16"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H124" s="8">
         <f t="shared" si="17"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I124" s="15">
         <f t="shared" si="18"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="125" spans="3:9" x14ac:dyDescent="0.25">
@@ -3807,19 +3837,19 @@
       </c>
       <c r="F125" s="13">
         <f t="shared" si="15"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G125" s="8">
         <f t="shared" si="16"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H125" s="8">
         <f t="shared" si="17"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I125" s="15">
         <f t="shared" si="18"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="126" spans="3:9" x14ac:dyDescent="0.25">
@@ -3831,19 +3861,19 @@
       </c>
       <c r="F126" s="13">
         <f t="shared" si="15"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G126" s="8">
         <f t="shared" si="16"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H126" s="8">
         <f t="shared" si="17"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I126" s="15">
         <f t="shared" si="18"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="127" spans="3:9" x14ac:dyDescent="0.25">
@@ -3855,19 +3885,19 @@
       </c>
       <c r="F127" s="13">
         <f t="shared" si="15"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G127" s="8">
         <f t="shared" si="16"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H127" s="8">
         <f t="shared" si="17"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I127" s="15">
         <f t="shared" si="18"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="128" spans="3:9" x14ac:dyDescent="0.25">
@@ -3879,19 +3909,19 @@
       </c>
       <c r="F128" s="13">
         <f t="shared" si="15"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G128" s="8">
         <f t="shared" si="16"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H128" s="8">
         <f t="shared" si="17"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I128" s="15">
         <f t="shared" si="18"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="129" spans="3:9" x14ac:dyDescent="0.25">
@@ -3903,19 +3933,19 @@
       </c>
       <c r="F129" s="13">
         <f t="shared" si="15"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G129" s="8">
         <f t="shared" si="16"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H129" s="8">
         <f t="shared" si="17"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I129" s="15">
         <f t="shared" si="18"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="130" spans="3:9" x14ac:dyDescent="0.25">
@@ -3927,19 +3957,19 @@
       </c>
       <c r="F130" s="13">
         <f t="shared" si="15"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G130" s="8">
         <f t="shared" si="16"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H130" s="8">
         <f t="shared" si="17"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I130" s="15">
         <f t="shared" si="18"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="131" spans="3:9" x14ac:dyDescent="0.25">
@@ -3951,19 +3981,19 @@
       </c>
       <c r="F131" s="13">
         <f t="shared" si="15"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G131" s="8">
         <f t="shared" si="16"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H131" s="8">
         <f t="shared" si="17"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I131" s="15">
         <f t="shared" si="18"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="132" spans="3:9" x14ac:dyDescent="0.25">
@@ -3975,19 +4005,19 @@
       </c>
       <c r="F132" s="13">
         <f t="shared" si="15"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G132" s="8">
         <f t="shared" si="16"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H132" s="8">
         <f t="shared" si="17"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I132" s="15">
         <f t="shared" si="18"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="133" spans="3:9" x14ac:dyDescent="0.25">
@@ -3999,19 +4029,19 @@
       </c>
       <c r="F133" s="13">
         <f t="shared" si="15"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G133" s="8">
         <f t="shared" si="16"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H133" s="8">
         <f t="shared" si="17"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I133" s="15">
         <f t="shared" si="18"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="134" spans="3:9" x14ac:dyDescent="0.25">
@@ -4023,19 +4053,19 @@
       </c>
       <c r="F134" s="13">
         <f t="shared" si="15"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G134" s="8">
         <f t="shared" si="16"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H134" s="8">
         <f t="shared" si="17"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I134" s="15">
         <f t="shared" si="18"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="135" spans="3:9" x14ac:dyDescent="0.25">
@@ -4047,19 +4077,19 @@
       </c>
       <c r="F135" s="13">
         <f t="shared" si="15"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G135" s="8">
         <f t="shared" si="16"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H135" s="8">
         <f t="shared" si="17"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I135" s="15">
         <f t="shared" si="18"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="136" spans="3:9" x14ac:dyDescent="0.25">
@@ -4071,19 +4101,19 @@
       </c>
       <c r="F136" s="13">
         <f t="shared" si="15"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G136" s="8">
         <f t="shared" si="16"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H136" s="8">
         <f t="shared" si="17"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I136" s="15">
         <f t="shared" si="18"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="137" spans="3:9" x14ac:dyDescent="0.25">
@@ -4095,19 +4125,19 @@
       </c>
       <c r="F137" s="13">
         <f t="shared" si="15"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G137" s="8">
         <f t="shared" si="16"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H137" s="8">
         <f t="shared" si="17"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I137" s="15">
         <f t="shared" si="18"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="138" spans="3:9" x14ac:dyDescent="0.25">
@@ -4119,19 +4149,19 @@
       </c>
       <c r="F138" s="13">
         <f t="shared" si="15"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G138" s="8">
         <f t="shared" si="16"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H138" s="8">
         <f t="shared" si="17"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I138" s="15">
         <f t="shared" si="18"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="139" spans="3:9" x14ac:dyDescent="0.25">
@@ -4143,19 +4173,19 @@
       </c>
       <c r="F139" s="13">
         <f t="shared" si="15"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G139" s="8">
         <f t="shared" si="16"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H139" s="8">
         <f t="shared" si="17"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I139" s="15">
         <f t="shared" si="18"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="140" spans="3:9" x14ac:dyDescent="0.25">
@@ -4167,19 +4197,19 @@
       </c>
       <c r="F140" s="13">
         <f t="shared" si="15"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G140" s="8">
         <f t="shared" si="16"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H140" s="8">
         <f t="shared" si="17"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I140" s="15">
         <f t="shared" si="18"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="141" spans="3:9" x14ac:dyDescent="0.25">
@@ -4191,19 +4221,19 @@
       </c>
       <c r="F141" s="13">
         <f t="shared" si="15"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G141" s="8">
         <f t="shared" si="16"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H141" s="8">
         <f t="shared" si="17"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I141" s="15">
         <f t="shared" si="18"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="142" spans="3:9" x14ac:dyDescent="0.25">
@@ -4215,19 +4245,19 @@
       </c>
       <c r="F142" s="13">
         <f t="shared" si="15"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G142" s="8">
         <f t="shared" si="16"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H142" s="8">
         <f t="shared" si="17"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I142" s="15">
         <f t="shared" si="18"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="143" spans="3:9" x14ac:dyDescent="0.25">
@@ -4239,19 +4269,19 @@
       </c>
       <c r="F143" s="13">
         <f t="shared" si="15"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G143" s="8">
         <f t="shared" si="16"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H143" s="8">
         <f t="shared" si="17"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I143" s="15">
         <f t="shared" si="18"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="144" spans="3:9" x14ac:dyDescent="0.25">
@@ -4263,19 +4293,19 @@
       </c>
       <c r="F144" s="13">
         <f t="shared" si="15"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G144" s="8">
         <f t="shared" si="16"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H144" s="8">
         <f t="shared" si="17"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I144" s="15">
         <f t="shared" si="18"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="145" spans="3:9" x14ac:dyDescent="0.25">
@@ -4287,19 +4317,19 @@
       </c>
       <c r="F145" s="13">
         <f t="shared" si="15"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G145" s="8">
         <f t="shared" si="16"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H145" s="8">
         <f t="shared" si="17"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I145" s="15">
         <f t="shared" si="18"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="146" spans="3:9" x14ac:dyDescent="0.25">
@@ -4311,19 +4341,19 @@
       </c>
       <c r="F146" s="13">
         <f t="shared" si="15"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G146" s="8">
         <f t="shared" si="16"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H146" s="8">
         <f t="shared" si="17"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I146" s="15">
         <f t="shared" si="18"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="147" spans="3:9" x14ac:dyDescent="0.25">
@@ -4335,19 +4365,19 @@
       </c>
       <c r="F147" s="13">
         <f t="shared" si="15"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G147" s="8">
         <f t="shared" si="16"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H147" s="8">
         <f t="shared" si="17"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I147" s="15">
         <f t="shared" si="18"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="148" spans="3:9" x14ac:dyDescent="0.25">
@@ -4359,19 +4389,19 @@
       </c>
       <c r="F148" s="13">
         <f t="shared" si="15"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G148" s="8">
         <f t="shared" si="16"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H148" s="8">
         <f t="shared" si="17"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I148" s="15">
         <f t="shared" si="18"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="149" spans="3:9" x14ac:dyDescent="0.25">
@@ -4383,19 +4413,19 @@
       </c>
       <c r="F149" s="13">
         <f t="shared" si="15"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G149" s="8">
         <f t="shared" si="16"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H149" s="8">
         <f t="shared" si="17"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I149" s="15">
         <f t="shared" si="18"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="150" spans="3:9" x14ac:dyDescent="0.25">
@@ -4407,19 +4437,19 @@
       </c>
       <c r="F150" s="13">
         <f t="shared" si="15"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G150" s="8">
         <f t="shared" si="16"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H150" s="8">
         <f t="shared" si="17"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I150" s="15">
         <f t="shared" si="18"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="151" spans="3:9" x14ac:dyDescent="0.25">
@@ -4431,19 +4461,19 @@
       </c>
       <c r="F151" s="13">
         <f t="shared" si="15"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G151" s="8">
         <f t="shared" si="16"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H151" s="8">
         <f t="shared" si="17"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I151" s="15">
         <f t="shared" si="18"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="152" spans="3:9" x14ac:dyDescent="0.25">
@@ -4455,19 +4485,19 @@
       </c>
       <c r="F152" s="13">
         <f t="shared" si="15"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G152" s="8">
         <f t="shared" si="16"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H152" s="8">
         <f t="shared" si="17"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I152" s="15">
         <f t="shared" si="18"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="153" spans="3:9" x14ac:dyDescent="0.25">
@@ -4479,19 +4509,19 @@
       </c>
       <c r="F153" s="13">
         <f t="shared" si="15"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G153" s="8">
         <f t="shared" si="16"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H153" s="8">
         <f t="shared" si="17"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I153" s="15">
         <f t="shared" si="18"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="154" spans="3:9" x14ac:dyDescent="0.25">
@@ -4503,19 +4533,19 @@
       </c>
       <c r="F154" s="13">
         <f t="shared" si="15"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G154" s="8">
         <f t="shared" si="16"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H154" s="8">
         <f t="shared" si="17"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I154" s="15">
         <f t="shared" si="18"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="155" spans="3:9" x14ac:dyDescent="0.25">
@@ -4527,19 +4557,19 @@
       </c>
       <c r="F155" s="13">
         <f t="shared" si="15"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G155" s="8">
         <f t="shared" si="16"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H155" s="8">
         <f t="shared" si="17"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I155" s="15">
         <f t="shared" si="18"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="156" spans="3:9" x14ac:dyDescent="0.25">
@@ -4551,19 +4581,19 @@
       </c>
       <c r="F156" s="13">
         <f t="shared" si="15"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G156" s="8">
         <f t="shared" si="16"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H156" s="8">
         <f t="shared" si="17"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I156" s="15">
         <f t="shared" si="18"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="157" spans="3:9" x14ac:dyDescent="0.25">
@@ -4575,19 +4605,19 @@
       </c>
       <c r="F157" s="13">
         <f t="shared" si="15"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G157" s="8">
         <f t="shared" si="16"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H157" s="8">
         <f t="shared" si="17"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I157" s="15">
         <f t="shared" si="18"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="158" spans="3:9" x14ac:dyDescent="0.25">
@@ -4599,19 +4629,19 @@
       </c>
       <c r="F158" s="13">
         <f t="shared" si="15"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G158" s="8">
         <f t="shared" si="16"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H158" s="8">
         <f t="shared" si="17"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I158" s="15">
         <f t="shared" si="18"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="159" spans="3:9" x14ac:dyDescent="0.25">
@@ -4623,19 +4653,19 @@
       </c>
       <c r="F159" s="13">
         <f t="shared" si="15"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G159" s="8">
         <f t="shared" si="16"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H159" s="8">
         <f t="shared" si="17"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I159" s="15">
         <f t="shared" si="18"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="160" spans="3:9" x14ac:dyDescent="0.25">
@@ -4647,19 +4677,19 @@
       </c>
       <c r="F160" s="13">
         <f t="shared" si="15"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G160" s="8">
         <f t="shared" si="16"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H160" s="8">
         <f t="shared" si="17"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I160" s="15">
         <f t="shared" si="18"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="161" spans="3:9" x14ac:dyDescent="0.25">
@@ -4671,19 +4701,19 @@
       </c>
       <c r="F161" s="13">
         <f t="shared" si="15"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G161" s="8">
         <f t="shared" si="16"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H161" s="8">
         <f t="shared" si="17"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I161" s="15">
         <f t="shared" si="18"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="162" spans="3:9" x14ac:dyDescent="0.25">
@@ -4695,19 +4725,19 @@
       </c>
       <c r="F162" s="13">
         <f t="shared" si="15"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G162" s="8">
         <f t="shared" si="16"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H162" s="8">
         <f t="shared" si="17"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I162" s="15">
         <f t="shared" si="18"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="163" spans="3:9" x14ac:dyDescent="0.25">
@@ -4719,19 +4749,19 @@
       </c>
       <c r="F163" s="13">
         <f t="shared" si="15"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G163" s="8">
         <f t="shared" si="16"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H163" s="8">
         <f t="shared" si="17"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I163" s="15">
         <f t="shared" si="18"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="164" spans="3:9" x14ac:dyDescent="0.25">
@@ -4743,19 +4773,19 @@
       </c>
       <c r="F164" s="13">
         <f t="shared" si="15"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G164" s="8">
         <f t="shared" si="16"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H164" s="8">
         <f t="shared" si="17"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I164" s="15">
         <f t="shared" si="18"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="165" spans="3:9" x14ac:dyDescent="0.25">
@@ -4767,19 +4797,19 @@
       </c>
       <c r="F165" s="13">
         <f t="shared" si="15"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G165" s="8">
         <f t="shared" si="16"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H165" s="8">
         <f t="shared" si="17"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I165" s="15">
         <f t="shared" si="18"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="166" spans="3:9" x14ac:dyDescent="0.25">
@@ -4791,19 +4821,19 @@
       </c>
       <c r="F166" s="13">
         <f t="shared" si="15"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G166" s="8">
         <f t="shared" si="16"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H166" s="8">
         <f t="shared" si="17"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I166" s="15">
         <f t="shared" si="18"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="167" spans="3:9" x14ac:dyDescent="0.25">
@@ -4815,19 +4845,19 @@
       </c>
       <c r="F167" s="13">
         <f t="shared" si="15"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G167" s="8">
         <f t="shared" si="16"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H167" s="8">
         <f t="shared" si="17"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I167" s="15">
         <f t="shared" si="18"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="168" spans="3:9" x14ac:dyDescent="0.25">
@@ -4839,19 +4869,19 @@
       </c>
       <c r="F168" s="13">
         <f t="shared" ref="F168:F231" si="20">F167+E168</f>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G168" s="8">
         <f t="shared" ref="G168:G231" si="21">F168</f>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H168" s="8">
         <f t="shared" ref="H168:H231" si="22">(H167+G168-G167)</f>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I168" s="15">
         <f t="shared" ref="I168:I231" si="23">H168*24*$J$2</f>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="169" spans="3:9" x14ac:dyDescent="0.25">
@@ -4863,19 +4893,19 @@
       </c>
       <c r="F169" s="13">
         <f t="shared" si="20"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G169" s="8">
         <f t="shared" si="21"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H169" s="8">
         <f t="shared" si="22"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I169" s="15">
         <f t="shared" si="23"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="170" spans="3:9" x14ac:dyDescent="0.25">
@@ -4887,19 +4917,19 @@
       </c>
       <c r="F170" s="13">
         <f t="shared" si="20"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G170" s="8">
         <f t="shared" si="21"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H170" s="8">
         <f t="shared" si="22"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I170" s="15">
         <f t="shared" si="23"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="171" spans="3:9" x14ac:dyDescent="0.25">
@@ -4911,19 +4941,19 @@
       </c>
       <c r="F171" s="13">
         <f t="shared" si="20"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G171" s="8">
         <f t="shared" si="21"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H171" s="8">
         <f t="shared" si="22"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I171" s="15">
         <f t="shared" si="23"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="172" spans="3:9" x14ac:dyDescent="0.25">
@@ -4935,19 +4965,19 @@
       </c>
       <c r="F172" s="13">
         <f t="shared" si="20"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G172" s="8">
         <f t="shared" si="21"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H172" s="8">
         <f t="shared" si="22"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I172" s="15">
         <f t="shared" si="23"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="173" spans="3:9" x14ac:dyDescent="0.25">
@@ -4959,19 +4989,19 @@
       </c>
       <c r="F173" s="13">
         <f t="shared" si="20"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G173" s="8">
         <f t="shared" si="21"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H173" s="8">
         <f t="shared" si="22"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I173" s="15">
         <f t="shared" si="23"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="174" spans="3:9" x14ac:dyDescent="0.25">
@@ -4983,19 +5013,19 @@
       </c>
       <c r="F174" s="13">
         <f t="shared" si="20"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G174" s="8">
         <f t="shared" si="21"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H174" s="8">
         <f t="shared" si="22"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I174" s="15">
         <f t="shared" si="23"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="175" spans="3:9" x14ac:dyDescent="0.25">
@@ -5007,19 +5037,19 @@
       </c>
       <c r="F175" s="13">
         <f t="shared" si="20"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G175" s="8">
         <f t="shared" si="21"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H175" s="8">
         <f t="shared" si="22"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I175" s="15">
         <f t="shared" si="23"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="176" spans="3:9" x14ac:dyDescent="0.25">
@@ -5031,19 +5061,19 @@
       </c>
       <c r="F176" s="13">
         <f t="shared" si="20"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G176" s="8">
         <f t="shared" si="21"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H176" s="8">
         <f t="shared" si="22"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I176" s="15">
         <f t="shared" si="23"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="177" spans="3:9" x14ac:dyDescent="0.25">
@@ -5055,19 +5085,19 @@
       </c>
       <c r="F177" s="13">
         <f t="shared" si="20"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G177" s="8">
         <f t="shared" si="21"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H177" s="8">
         <f t="shared" si="22"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I177" s="15">
         <f t="shared" si="23"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="178" spans="3:9" x14ac:dyDescent="0.25">
@@ -5079,19 +5109,19 @@
       </c>
       <c r="F178" s="13">
         <f t="shared" si="20"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G178" s="8">
         <f t="shared" si="21"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H178" s="8">
         <f t="shared" si="22"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I178" s="15">
         <f t="shared" si="23"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="179" spans="3:9" x14ac:dyDescent="0.25">
@@ -5103,19 +5133,19 @@
       </c>
       <c r="F179" s="13">
         <f t="shared" si="20"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G179" s="8">
         <f t="shared" si="21"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H179" s="8">
         <f t="shared" si="22"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I179" s="15">
         <f t="shared" si="23"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="180" spans="3:9" x14ac:dyDescent="0.25">
@@ -5127,19 +5157,19 @@
       </c>
       <c r="F180" s="13">
         <f t="shared" si="20"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G180" s="8">
         <f t="shared" si="21"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H180" s="8">
         <f t="shared" si="22"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I180" s="15">
         <f t="shared" si="23"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="181" spans="3:9" x14ac:dyDescent="0.25">
@@ -5151,19 +5181,19 @@
       </c>
       <c r="F181" s="13">
         <f t="shared" si="20"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G181" s="8">
         <f t="shared" si="21"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H181" s="8">
         <f t="shared" si="22"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I181" s="15">
         <f t="shared" si="23"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="182" spans="3:9" x14ac:dyDescent="0.25">
@@ -5175,19 +5205,19 @@
       </c>
       <c r="F182" s="13">
         <f t="shared" si="20"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G182" s="8">
         <f t="shared" si="21"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H182" s="8">
         <f t="shared" si="22"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I182" s="15">
         <f t="shared" si="23"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="183" spans="3:9" x14ac:dyDescent="0.25">
@@ -5199,19 +5229,19 @@
       </c>
       <c r="F183" s="13">
         <f t="shared" si="20"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G183" s="8">
         <f t="shared" si="21"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H183" s="8">
         <f t="shared" si="22"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I183" s="15">
         <f t="shared" si="23"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="184" spans="3:9" x14ac:dyDescent="0.25">
@@ -5223,19 +5253,19 @@
       </c>
       <c r="F184" s="13">
         <f t="shared" si="20"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G184" s="8">
         <f t="shared" si="21"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H184" s="8">
         <f t="shared" si="22"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I184" s="15">
         <f t="shared" si="23"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="185" spans="3:9" x14ac:dyDescent="0.25">
@@ -5247,19 +5277,19 @@
       </c>
       <c r="F185" s="13">
         <f t="shared" si="20"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G185" s="8">
         <f t="shared" si="21"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H185" s="8">
         <f t="shared" si="22"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I185" s="15">
         <f t="shared" si="23"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="186" spans="3:9" x14ac:dyDescent="0.25">
@@ -5271,19 +5301,19 @@
       </c>
       <c r="F186" s="13">
         <f t="shared" si="20"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G186" s="8">
         <f t="shared" si="21"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H186" s="8">
         <f t="shared" si="22"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I186" s="15">
         <f t="shared" si="23"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="187" spans="3:9" x14ac:dyDescent="0.25">
@@ -5295,19 +5325,19 @@
       </c>
       <c r="F187" s="13">
         <f t="shared" si="20"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G187" s="8">
         <f t="shared" si="21"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H187" s="8">
         <f t="shared" si="22"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I187" s="15">
         <f t="shared" si="23"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="188" spans="3:9" x14ac:dyDescent="0.25">
@@ -5319,19 +5349,19 @@
       </c>
       <c r="F188" s="13">
         <f t="shared" si="20"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G188" s="8">
         <f t="shared" si="21"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H188" s="8">
         <f t="shared" si="22"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I188" s="15">
         <f t="shared" si="23"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="189" spans="3:9" x14ac:dyDescent="0.25">
@@ -5343,19 +5373,19 @@
       </c>
       <c r="F189" s="13">
         <f t="shared" si="20"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G189" s="8">
         <f t="shared" si="21"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H189" s="8">
         <f t="shared" si="22"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I189" s="15">
         <f t="shared" si="23"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="190" spans="3:9" x14ac:dyDescent="0.25">
@@ -5367,19 +5397,19 @@
       </c>
       <c r="F190" s="13">
         <f t="shared" si="20"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G190" s="8">
         <f t="shared" si="21"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H190" s="8">
         <f t="shared" si="22"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I190" s="15">
         <f t="shared" si="23"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="191" spans="3:9" x14ac:dyDescent="0.25">
@@ -5391,19 +5421,19 @@
       </c>
       <c r="F191" s="13">
         <f t="shared" si="20"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G191" s="8">
         <f t="shared" si="21"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H191" s="8">
         <f t="shared" si="22"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I191" s="15">
         <f t="shared" si="23"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="192" spans="3:9" x14ac:dyDescent="0.25">
@@ -5415,19 +5445,19 @@
       </c>
       <c r="F192" s="13">
         <f t="shared" si="20"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G192" s="8">
         <f t="shared" si="21"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H192" s="8">
         <f t="shared" si="22"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I192" s="15">
         <f t="shared" si="23"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="193" spans="3:9" x14ac:dyDescent="0.25">
@@ -5439,19 +5469,19 @@
       </c>
       <c r="F193" s="13">
         <f t="shared" si="20"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G193" s="8">
         <f t="shared" si="21"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H193" s="8">
         <f t="shared" si="22"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I193" s="15">
         <f t="shared" si="23"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="194" spans="3:9" x14ac:dyDescent="0.25">
@@ -5463,19 +5493,19 @@
       </c>
       <c r="F194" s="13">
         <f t="shared" si="20"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G194" s="8">
         <f t="shared" si="21"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H194" s="8">
         <f t="shared" si="22"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I194" s="15">
         <f t="shared" si="23"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="195" spans="3:9" x14ac:dyDescent="0.25">
@@ -5487,19 +5517,19 @@
       </c>
       <c r="F195" s="13">
         <f t="shared" si="20"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G195" s="8">
         <f t="shared" si="21"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H195" s="8">
         <f t="shared" si="22"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I195" s="15">
         <f t="shared" si="23"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="196" spans="3:9" x14ac:dyDescent="0.25">
@@ -5511,19 +5541,19 @@
       </c>
       <c r="F196" s="13">
         <f t="shared" si="20"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G196" s="8">
         <f t="shared" si="21"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H196" s="8">
         <f t="shared" si="22"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I196" s="15">
         <f t="shared" si="23"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="197" spans="3:9" x14ac:dyDescent="0.25">
@@ -5535,19 +5565,19 @@
       </c>
       <c r="F197" s="13">
         <f t="shared" si="20"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G197" s="8">
         <f t="shared" si="21"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H197" s="8">
         <f t="shared" si="22"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I197" s="15">
         <f t="shared" si="23"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="198" spans="3:9" x14ac:dyDescent="0.25">
@@ -5559,19 +5589,19 @@
       </c>
       <c r="F198" s="13">
         <f t="shared" si="20"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G198" s="8">
         <f t="shared" si="21"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H198" s="8">
         <f t="shared" si="22"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I198" s="15">
         <f t="shared" si="23"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="199" spans="3:9" x14ac:dyDescent="0.25">
@@ -5583,19 +5613,19 @@
       </c>
       <c r="F199" s="13">
         <f t="shared" si="20"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G199" s="8">
         <f t="shared" si="21"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H199" s="8">
         <f t="shared" si="22"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I199" s="15">
         <f t="shared" si="23"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="200" spans="3:9" x14ac:dyDescent="0.25">
@@ -5607,19 +5637,19 @@
       </c>
       <c r="F200" s="13">
         <f t="shared" si="20"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G200" s="8">
         <f t="shared" si="21"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H200" s="8">
         <f t="shared" si="22"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I200" s="15">
         <f t="shared" si="23"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="201" spans="3:9" x14ac:dyDescent="0.25">
@@ -5631,19 +5661,19 @@
       </c>
       <c r="F201" s="13">
         <f t="shared" si="20"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G201" s="8">
         <f t="shared" si="21"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H201" s="8">
         <f t="shared" si="22"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I201" s="15">
         <f t="shared" si="23"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="202" spans="3:9" x14ac:dyDescent="0.25">
@@ -5655,19 +5685,19 @@
       </c>
       <c r="F202" s="13">
         <f t="shared" si="20"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G202" s="8">
         <f t="shared" si="21"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H202" s="8">
         <f t="shared" si="22"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I202" s="15">
         <f t="shared" si="23"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="203" spans="3:9" x14ac:dyDescent="0.25">
@@ -5679,19 +5709,19 @@
       </c>
       <c r="F203" s="13">
         <f t="shared" si="20"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G203" s="8">
         <f t="shared" si="21"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H203" s="8">
         <f t="shared" si="22"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I203" s="15">
         <f t="shared" si="23"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="204" spans="3:9" x14ac:dyDescent="0.25">
@@ -5703,19 +5733,19 @@
       </c>
       <c r="F204" s="13">
         <f t="shared" si="20"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G204" s="8">
         <f t="shared" si="21"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H204" s="8">
         <f t="shared" si="22"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I204" s="15">
         <f t="shared" si="23"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="205" spans="3:9" x14ac:dyDescent="0.25">
@@ -5727,19 +5757,19 @@
       </c>
       <c r="F205" s="13">
         <f t="shared" si="20"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G205" s="8">
         <f t="shared" si="21"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H205" s="8">
         <f t="shared" si="22"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I205" s="15">
         <f t="shared" si="23"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="206" spans="3:9" x14ac:dyDescent="0.25">
@@ -5751,19 +5781,19 @@
       </c>
       <c r="F206" s="13">
         <f t="shared" si="20"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G206" s="8">
         <f t="shared" si="21"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H206" s="8">
         <f t="shared" si="22"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I206" s="15">
         <f t="shared" si="23"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="207" spans="3:9" x14ac:dyDescent="0.25">
@@ -5775,19 +5805,19 @@
       </c>
       <c r="F207" s="13">
         <f t="shared" si="20"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G207" s="8">
         <f t="shared" si="21"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H207" s="8">
         <f t="shared" si="22"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I207" s="15">
         <f t="shared" si="23"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="208" spans="3:9" x14ac:dyDescent="0.25">
@@ -5799,19 +5829,19 @@
       </c>
       <c r="F208" s="13">
         <f t="shared" si="20"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G208" s="8">
         <f t="shared" si="21"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H208" s="8">
         <f t="shared" si="22"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I208" s="15">
         <f t="shared" si="23"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="209" spans="3:9" x14ac:dyDescent="0.25">
@@ -5823,19 +5853,19 @@
       </c>
       <c r="F209" s="13">
         <f t="shared" si="20"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G209" s="8">
         <f t="shared" si="21"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H209" s="8">
         <f t="shared" si="22"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I209" s="15">
         <f t="shared" si="23"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="210" spans="3:9" x14ac:dyDescent="0.25">
@@ -5847,19 +5877,19 @@
       </c>
       <c r="F210" s="13">
         <f t="shared" si="20"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G210" s="8">
         <f t="shared" si="21"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H210" s="8">
         <f t="shared" si="22"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I210" s="15">
         <f t="shared" si="23"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="211" spans="3:9" x14ac:dyDescent="0.25">
@@ -5871,19 +5901,19 @@
       </c>
       <c r="F211" s="13">
         <f t="shared" si="20"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G211" s="8">
         <f t="shared" si="21"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H211" s="8">
         <f t="shared" si="22"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I211" s="15">
         <f t="shared" si="23"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="212" spans="3:9" x14ac:dyDescent="0.25">
@@ -5895,19 +5925,19 @@
       </c>
       <c r="F212" s="13">
         <f t="shared" si="20"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G212" s="8">
         <f t="shared" si="21"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H212" s="8">
         <f t="shared" si="22"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I212" s="15">
         <f t="shared" si="23"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="213" spans="3:9" x14ac:dyDescent="0.25">
@@ -5919,19 +5949,19 @@
       </c>
       <c r="F213" s="13">
         <f t="shared" si="20"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G213" s="8">
         <f t="shared" si="21"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H213" s="8">
         <f t="shared" si="22"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I213" s="15">
         <f t="shared" si="23"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="214" spans="3:9" x14ac:dyDescent="0.25">
@@ -5943,19 +5973,19 @@
       </c>
       <c r="F214" s="13">
         <f t="shared" si="20"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G214" s="8">
         <f t="shared" si="21"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H214" s="8">
         <f t="shared" si="22"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I214" s="15">
         <f t="shared" si="23"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="215" spans="3:9" x14ac:dyDescent="0.25">
@@ -5967,19 +5997,19 @@
       </c>
       <c r="F215" s="13">
         <f t="shared" si="20"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G215" s="8">
         <f t="shared" si="21"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H215" s="8">
         <f t="shared" si="22"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I215" s="15">
         <f t="shared" si="23"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="216" spans="3:9" x14ac:dyDescent="0.25">
@@ -5991,19 +6021,19 @@
       </c>
       <c r="F216" s="13">
         <f t="shared" si="20"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G216" s="8">
         <f t="shared" si="21"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H216" s="8">
         <f t="shared" si="22"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I216" s="15">
         <f t="shared" si="23"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="217" spans="3:9" x14ac:dyDescent="0.25">
@@ -6015,19 +6045,19 @@
       </c>
       <c r="F217" s="13">
         <f t="shared" si="20"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G217" s="8">
         <f t="shared" si="21"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H217" s="8">
         <f t="shared" si="22"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I217" s="15">
         <f t="shared" si="23"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="218" spans="3:9" x14ac:dyDescent="0.25">
@@ -6039,19 +6069,19 @@
       </c>
       <c r="F218" s="13">
         <f t="shared" si="20"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G218" s="8">
         <f t="shared" si="21"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H218" s="8">
         <f t="shared" si="22"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I218" s="15">
         <f t="shared" si="23"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="219" spans="3:9" x14ac:dyDescent="0.25">
@@ -6063,19 +6093,19 @@
       </c>
       <c r="F219" s="13">
         <f t="shared" si="20"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G219" s="8">
         <f t="shared" si="21"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H219" s="8">
         <f t="shared" si="22"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I219" s="15">
         <f t="shared" si="23"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="220" spans="3:9" x14ac:dyDescent="0.25">
@@ -6087,19 +6117,19 @@
       </c>
       <c r="F220" s="13">
         <f t="shared" si="20"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G220" s="8">
         <f t="shared" si="21"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H220" s="8">
         <f t="shared" si="22"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I220" s="15">
         <f t="shared" si="23"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="221" spans="3:9" x14ac:dyDescent="0.25">
@@ -6111,19 +6141,19 @@
       </c>
       <c r="F221" s="13">
         <f t="shared" si="20"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G221" s="8">
         <f t="shared" si="21"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H221" s="8">
         <f t="shared" si="22"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I221" s="15">
         <f t="shared" si="23"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="222" spans="3:9" x14ac:dyDescent="0.25">
@@ -6135,19 +6165,19 @@
       </c>
       <c r="F222" s="13">
         <f t="shared" si="20"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G222" s="8">
         <f t="shared" si="21"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H222" s="8">
         <f t="shared" si="22"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I222" s="15">
         <f t="shared" si="23"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="223" spans="3:9" x14ac:dyDescent="0.25">
@@ -6159,19 +6189,19 @@
       </c>
       <c r="F223" s="13">
         <f t="shared" si="20"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G223" s="8">
         <f t="shared" si="21"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H223" s="8">
         <f t="shared" si="22"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I223" s="15">
         <f t="shared" si="23"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="224" spans="3:9" x14ac:dyDescent="0.25">
@@ -6183,19 +6213,19 @@
       </c>
       <c r="F224" s="13">
         <f t="shared" si="20"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G224" s="8">
         <f t="shared" si="21"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H224" s="8">
         <f t="shared" si="22"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I224" s="15">
         <f t="shared" si="23"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="225" spans="3:9" x14ac:dyDescent="0.25">
@@ -6207,19 +6237,19 @@
       </c>
       <c r="F225" s="13">
         <f t="shared" si="20"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G225" s="8">
         <f t="shared" si="21"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H225" s="8">
         <f t="shared" si="22"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I225" s="15">
         <f t="shared" si="23"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="226" spans="3:9" x14ac:dyDescent="0.25">
@@ -6231,19 +6261,19 @@
       </c>
       <c r="F226" s="13">
         <f t="shared" si="20"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G226" s="8">
         <f t="shared" si="21"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H226" s="8">
         <f t="shared" si="22"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I226" s="15">
         <f t="shared" si="23"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="227" spans="3:9" x14ac:dyDescent="0.25">
@@ -6255,19 +6285,19 @@
       </c>
       <c r="F227" s="13">
         <f t="shared" si="20"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G227" s="8">
         <f t="shared" si="21"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H227" s="8">
         <f t="shared" si="22"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I227" s="15">
         <f t="shared" si="23"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="228" spans="3:9" x14ac:dyDescent="0.25">
@@ -6279,19 +6309,19 @@
       </c>
       <c r="F228" s="13">
         <f t="shared" si="20"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G228" s="8">
         <f t="shared" si="21"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H228" s="8">
         <f t="shared" si="22"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I228" s="15">
         <f t="shared" si="23"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="229" spans="3:9" x14ac:dyDescent="0.25">
@@ -6303,19 +6333,19 @@
       </c>
       <c r="F229" s="13">
         <f t="shared" si="20"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G229" s="8">
         <f t="shared" si="21"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H229" s="8">
         <f t="shared" si="22"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I229" s="15">
         <f t="shared" si="23"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="230" spans="3:9" x14ac:dyDescent="0.25">
@@ -6327,19 +6357,19 @@
       </c>
       <c r="F230" s="13">
         <f t="shared" si="20"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G230" s="8">
         <f t="shared" si="21"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H230" s="8">
         <f t="shared" si="22"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I230" s="15">
         <f t="shared" si="23"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="231" spans="3:9" x14ac:dyDescent="0.25">
@@ -6351,19 +6381,19 @@
       </c>
       <c r="F231" s="13">
         <f t="shared" si="20"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G231" s="8">
         <f t="shared" si="21"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H231" s="8">
         <f t="shared" si="22"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I231" s="15">
         <f t="shared" si="23"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="232" spans="3:9" x14ac:dyDescent="0.25">
@@ -6375,19 +6405,19 @@
       </c>
       <c r="F232" s="13">
         <f t="shared" ref="F232:F255" si="25">F231+E232</f>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G232" s="8">
         <f t="shared" ref="G232:G255" si="26">F232</f>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H232" s="8">
         <f t="shared" ref="H232:H255" si="27">(H231+G232-G231)</f>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I232" s="15">
         <f t="shared" ref="I232:I255" si="28">H232*24*$J$2</f>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="233" spans="3:9" x14ac:dyDescent="0.25">
@@ -6399,19 +6429,19 @@
       </c>
       <c r="F233" s="13">
         <f t="shared" si="25"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G233" s="8">
         <f t="shared" si="26"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H233" s="8">
         <f t="shared" si="27"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I233" s="15">
         <f t="shared" si="28"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="234" spans="3:9" x14ac:dyDescent="0.25">
@@ -6423,19 +6453,19 @@
       </c>
       <c r="F234" s="13">
         <f t="shared" si="25"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G234" s="8">
         <f t="shared" si="26"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H234" s="8">
         <f t="shared" si="27"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I234" s="15">
         <f t="shared" si="28"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="235" spans="3:9" x14ac:dyDescent="0.25">
@@ -6447,19 +6477,19 @@
       </c>
       <c r="F235" s="13">
         <f t="shared" si="25"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G235" s="8">
         <f t="shared" si="26"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H235" s="8">
         <f t="shared" si="27"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I235" s="15">
         <f t="shared" si="28"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="236" spans="3:9" x14ac:dyDescent="0.25">
@@ -6471,19 +6501,19 @@
       </c>
       <c r="F236" s="13">
         <f t="shared" si="25"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G236" s="8">
         <f t="shared" si="26"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H236" s="8">
         <f t="shared" si="27"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I236" s="15">
         <f t="shared" si="28"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="237" spans="3:9" x14ac:dyDescent="0.25">
@@ -6495,19 +6525,19 @@
       </c>
       <c r="F237" s="13">
         <f t="shared" si="25"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G237" s="8">
         <f t="shared" si="26"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H237" s="8">
         <f t="shared" si="27"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I237" s="15">
         <f t="shared" si="28"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="238" spans="3:9" x14ac:dyDescent="0.25">
@@ -6519,19 +6549,19 @@
       </c>
       <c r="F238" s="13">
         <f t="shared" si="25"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G238" s="8">
         <f t="shared" si="26"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H238" s="8">
         <f t="shared" si="27"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I238" s="15">
         <f t="shared" si="28"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="239" spans="3:9" x14ac:dyDescent="0.25">
@@ -6543,19 +6573,19 @@
       </c>
       <c r="F239" s="13">
         <f t="shared" si="25"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G239" s="8">
         <f t="shared" si="26"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H239" s="8">
         <f t="shared" si="27"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I239" s="15">
         <f t="shared" si="28"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="240" spans="3:9" x14ac:dyDescent="0.25">
@@ -6567,19 +6597,19 @@
       </c>
       <c r="F240" s="13">
         <f t="shared" si="25"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G240" s="8">
         <f t="shared" si="26"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H240" s="8">
         <f t="shared" si="27"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I240" s="15">
         <f t="shared" si="28"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="241" spans="3:9" x14ac:dyDescent="0.25">
@@ -6591,19 +6621,19 @@
       </c>
       <c r="F241" s="13">
         <f t="shared" si="25"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G241" s="8">
         <f t="shared" si="26"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H241" s="8">
         <f t="shared" si="27"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I241" s="15">
         <f t="shared" si="28"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="242" spans="3:9" x14ac:dyDescent="0.25">
@@ -6615,19 +6645,19 @@
       </c>
       <c r="F242" s="13">
         <f t="shared" si="25"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G242" s="8">
         <f t="shared" si="26"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H242" s="8">
         <f t="shared" si="27"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I242" s="15">
         <f t="shared" si="28"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="243" spans="3:9" x14ac:dyDescent="0.25">
@@ -6639,19 +6669,19 @@
       </c>
       <c r="F243" s="13">
         <f t="shared" si="25"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G243" s="8">
         <f t="shared" si="26"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H243" s="8">
         <f t="shared" si="27"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I243" s="15">
         <f t="shared" si="28"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="244" spans="3:9" x14ac:dyDescent="0.25">
@@ -6663,19 +6693,19 @@
       </c>
       <c r="F244" s="13">
         <f t="shared" si="25"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G244" s="8">
         <f t="shared" si="26"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H244" s="8">
         <f t="shared" si="27"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I244" s="15">
         <f t="shared" si="28"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="245" spans="3:9" x14ac:dyDescent="0.25">
@@ -6687,19 +6717,19 @@
       </c>
       <c r="F245" s="13">
         <f t="shared" si="25"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G245" s="8">
         <f t="shared" si="26"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H245" s="8">
         <f t="shared" si="27"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I245" s="15">
         <f t="shared" si="28"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="246" spans="3:9" x14ac:dyDescent="0.25">
@@ -6711,19 +6741,19 @@
       </c>
       <c r="F246" s="13">
         <f t="shared" si="25"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G246" s="8">
         <f t="shared" si="26"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H246" s="8">
         <f t="shared" si="27"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I246" s="15">
         <f t="shared" si="28"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="247" spans="3:9" x14ac:dyDescent="0.25">
@@ -6735,19 +6765,19 @@
       </c>
       <c r="F247" s="13">
         <f t="shared" si="25"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G247" s="8">
         <f t="shared" si="26"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H247" s="8">
         <f t="shared" si="27"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I247" s="15">
         <f t="shared" si="28"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="248" spans="3:9" x14ac:dyDescent="0.25">
@@ -6759,19 +6789,19 @@
       </c>
       <c r="F248" s="13">
         <f t="shared" si="25"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G248" s="8">
         <f t="shared" si="26"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H248" s="8">
         <f t="shared" si="27"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I248" s="15">
         <f t="shared" si="28"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="249" spans="3:9" x14ac:dyDescent="0.25">
@@ -6783,19 +6813,19 @@
       </c>
       <c r="F249" s="13">
         <f t="shared" si="25"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G249" s="8">
         <f t="shared" si="26"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H249" s="8">
         <f t="shared" si="27"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I249" s="15">
         <f t="shared" si="28"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="250" spans="3:9" x14ac:dyDescent="0.25">
@@ -6807,19 +6837,19 @@
       </c>
       <c r="F250" s="13">
         <f t="shared" si="25"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G250" s="8">
         <f t="shared" si="26"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H250" s="8">
         <f t="shared" si="27"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I250" s="15">
         <f t="shared" si="28"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="251" spans="3:9" x14ac:dyDescent="0.25">
@@ -6831,19 +6861,19 @@
       </c>
       <c r="F251" s="13">
         <f t="shared" si="25"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G251" s="8">
         <f t="shared" si="26"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H251" s="8">
         <f t="shared" si="27"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I251" s="15">
         <f t="shared" si="28"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="252" spans="3:9" x14ac:dyDescent="0.25">
@@ -6855,19 +6885,19 @@
       </c>
       <c r="F252" s="13">
         <f t="shared" si="25"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G252" s="8">
         <f t="shared" si="26"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H252" s="8">
         <f t="shared" si="27"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I252" s="15">
         <f t="shared" si="28"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="253" spans="3:9" x14ac:dyDescent="0.25">
@@ -6879,19 +6909,19 @@
       </c>
       <c r="F253" s="13">
         <f t="shared" si="25"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G253" s="8">
         <f t="shared" si="26"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H253" s="8">
         <f t="shared" si="27"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I253" s="15">
         <f t="shared" si="28"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="254" spans="3:9" x14ac:dyDescent="0.25">
@@ -6903,19 +6933,19 @@
       </c>
       <c r="F254" s="13">
         <f t="shared" si="25"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G254" s="8">
         <f t="shared" si="26"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H254" s="8">
         <f t="shared" si="27"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I254" s="15">
         <f t="shared" si="28"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
     <row r="255" spans="3:9" x14ac:dyDescent="0.25">
@@ -6927,19 +6957,19 @@
       </c>
       <c r="F255" s="13">
         <f t="shared" si="25"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="G255" s="8">
         <f t="shared" si="26"/>
-        <v>0.44236111111111098</v>
+        <v>0.63680555555555529</v>
       </c>
       <c r="H255" s="8">
         <f t="shared" si="27"/>
-        <v>1.5923611111111113</v>
+        <v>1.7868055555555555</v>
       </c>
       <c r="I255" s="15">
         <f t="shared" si="28"/>
-        <v>6496.8333333333339</v>
+        <v>7290.166666666667</v>
       </c>
     </row>
   </sheetData>

--- a/hodiny.xlsx
+++ b/hodiny.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9900C817-91E7-4DB2-9341-A8C5522799A2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A31C22-5F62-46C9-AB59-9710DEB63735}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5070" yWindow="5070" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>čas [min]</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>11.6.</t>
+  </si>
+  <si>
+    <t>12.6.</t>
   </si>
 </sst>
 </file>
@@ -611,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1988,7 +1991,7 @@
         <v>6675.333333333333</v>
       </c>
     </row>
-    <row r="49" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C49" s="2">
         <v>0.7631944444444444</v>
       </c>
@@ -2016,7 +2019,7 @@
         <v>6720.6666666666661</v>
       </c>
     </row>
-    <row r="50" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C50" s="2">
         <v>0.79166666666666663</v>
       </c>
@@ -2044,7 +2047,7 @@
         <v>6901.9999999999991</v>
       </c>
     </row>
-    <row r="51" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C51" s="2">
         <v>0.83958333333333324</v>
       </c>
@@ -2072,7 +2075,7 @@
         <v>7035.1666666666652</v>
       </c>
     </row>
-    <row r="52" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C52" s="2">
         <v>0.88194444444444453</v>
       </c>
@@ -2100,55 +2103,66 @@
         <v>7290.166666666667</v>
       </c>
     </row>
-    <row r="53" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C53" s="2"/>
-      <c r="D53" s="10"/>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B53" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C53" s="2">
+        <v>0</v>
+      </c>
+      <c r="D53" s="10">
+        <v>0.18680555555555556</v>
+      </c>
       <c r="E53" s="12">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.18680555555555556</v>
       </c>
       <c r="F53" s="13">
         <f t="shared" si="10"/>
-        <v>0.63680555555555529</v>
+        <v>0.82361111111111085</v>
       </c>
       <c r="G53" s="8">
         <f t="shared" si="11"/>
-        <v>0.63680555555555529</v>
+        <v>0.82361111111111085</v>
       </c>
       <c r="H53" s="8">
         <f t="shared" si="12"/>
-        <v>1.7868055555555555</v>
+        <v>1.9736111111111114</v>
       </c>
       <c r="I53" s="15">
         <f t="shared" si="13"/>
-        <v>7290.166666666667</v>
-      </c>
-    </row>
-    <row r="54" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C54" s="2"/>
-      <c r="D54" s="10"/>
+        <v>8052.3333333333348</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C54" s="2">
+        <v>0.4381944444444445</v>
+      </c>
+      <c r="D54" s="10">
+        <v>0.50486111111111109</v>
+      </c>
       <c r="E54" s="12">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>6.6666666666666596E-2</v>
       </c>
       <c r="F54" s="13">
         <f t="shared" si="10"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G54" s="8">
         <f t="shared" si="11"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H54" s="8">
         <f t="shared" si="12"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I54" s="15">
         <f t="shared" si="13"/>
-        <v>7290.166666666667</v>
-      </c>
-    </row>
-    <row r="55" spans="3:9" x14ac:dyDescent="0.25">
+        <v>8324.3333333333339</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C55" s="2"/>
       <c r="D55" s="10"/>
       <c r="E55" s="12">
@@ -2157,22 +2171,22 @@
       </c>
       <c r="F55" s="13">
         <f t="shared" si="10"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G55" s="8">
         <f t="shared" si="11"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H55" s="8">
         <f t="shared" si="12"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I55" s="15">
         <f t="shared" si="13"/>
-        <v>7290.166666666667</v>
-      </c>
-    </row>
-    <row r="56" spans="3:9" x14ac:dyDescent="0.25">
+        <v>8324.3333333333339</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C56" s="2"/>
       <c r="D56" s="10"/>
       <c r="E56" s="12">
@@ -2181,22 +2195,22 @@
       </c>
       <c r="F56" s="13">
         <f t="shared" si="10"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G56" s="8">
         <f t="shared" si="11"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H56" s="8">
         <f t="shared" si="12"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I56" s="15">
         <f t="shared" si="13"/>
-        <v>7290.166666666667</v>
-      </c>
-    </row>
-    <row r="57" spans="3:9" x14ac:dyDescent="0.25">
+        <v>8324.3333333333339</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C57" s="2"/>
       <c r="D57" s="10"/>
       <c r="E57" s="12">
@@ -2205,22 +2219,22 @@
       </c>
       <c r="F57" s="13">
         <f t="shared" si="10"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G57" s="8">
         <f t="shared" si="11"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H57" s="8">
         <f t="shared" si="12"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I57" s="15">
         <f t="shared" si="13"/>
-        <v>7290.166666666667</v>
-      </c>
-    </row>
-    <row r="58" spans="3:9" x14ac:dyDescent="0.25">
+        <v>8324.3333333333339</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C58" s="2"/>
       <c r="D58" s="10"/>
       <c r="E58" s="12">
@@ -2229,22 +2243,22 @@
       </c>
       <c r="F58" s="13">
         <f t="shared" si="10"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G58" s="8">
         <f t="shared" si="11"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H58" s="8">
         <f t="shared" si="12"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I58" s="15">
         <f t="shared" si="13"/>
-        <v>7290.166666666667</v>
-      </c>
-    </row>
-    <row r="59" spans="3:9" x14ac:dyDescent="0.25">
+        <v>8324.3333333333339</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C59" s="2"/>
       <c r="D59" s="10"/>
       <c r="E59" s="12">
@@ -2253,22 +2267,22 @@
       </c>
       <c r="F59" s="13">
         <f t="shared" si="10"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G59" s="8">
         <f t="shared" si="11"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H59" s="8">
         <f t="shared" si="12"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I59" s="15">
         <f t="shared" si="13"/>
-        <v>7290.166666666667</v>
-      </c>
-    </row>
-    <row r="60" spans="3:9" x14ac:dyDescent="0.25">
+        <v>8324.3333333333339</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C60" s="2"/>
       <c r="D60" s="10"/>
       <c r="E60" s="12">
@@ -2277,22 +2291,22 @@
       </c>
       <c r="F60" s="13">
         <f t="shared" si="10"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G60" s="8">
         <f t="shared" si="11"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H60" s="8">
         <f t="shared" si="12"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I60" s="15">
         <f t="shared" si="13"/>
-        <v>7290.166666666667</v>
-      </c>
-    </row>
-    <row r="61" spans="3:9" x14ac:dyDescent="0.25">
+        <v>8324.3333333333339</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C61" s="2"/>
       <c r="D61" s="10"/>
       <c r="E61" s="12">
@@ -2301,22 +2315,22 @@
       </c>
       <c r="F61" s="13">
         <f t="shared" si="10"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G61" s="8">
         <f t="shared" si="11"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H61" s="8">
         <f t="shared" si="12"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I61" s="15">
         <f t="shared" si="13"/>
-        <v>7290.166666666667</v>
-      </c>
-    </row>
-    <row r="62" spans="3:9" x14ac:dyDescent="0.25">
+        <v>8324.3333333333339</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C62" s="2"/>
       <c r="D62" s="10"/>
       <c r="E62" s="12">
@@ -2325,22 +2339,22 @@
       </c>
       <c r="F62" s="13">
         <f t="shared" si="10"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G62" s="8">
         <f t="shared" si="11"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H62" s="8">
         <f t="shared" si="12"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I62" s="15">
         <f t="shared" si="13"/>
-        <v>7290.166666666667</v>
-      </c>
-    </row>
-    <row r="63" spans="3:9" x14ac:dyDescent="0.25">
+        <v>8324.3333333333339</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C63" s="2"/>
       <c r="D63" s="10"/>
       <c r="E63" s="12">
@@ -2349,22 +2363,22 @@
       </c>
       <c r="F63" s="13">
         <f t="shared" si="10"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G63" s="8">
         <f t="shared" si="11"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H63" s="8">
         <f t="shared" si="12"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I63" s="15">
         <f t="shared" si="13"/>
-        <v>7290.166666666667</v>
-      </c>
-    </row>
-    <row r="64" spans="3:9" x14ac:dyDescent="0.25">
+        <v>8324.3333333333339</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C64" s="2"/>
       <c r="D64" s="10"/>
       <c r="E64" s="12">
@@ -2373,19 +2387,19 @@
       </c>
       <c r="F64" s="13">
         <f t="shared" si="10"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G64" s="8">
         <f t="shared" si="11"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H64" s="8">
         <f t="shared" si="12"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I64" s="15">
         <f t="shared" si="13"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="65" spans="3:9" x14ac:dyDescent="0.25">
@@ -2397,19 +2411,19 @@
       </c>
       <c r="F65" s="13">
         <f t="shared" si="10"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G65" s="8">
         <f t="shared" si="11"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H65" s="8">
         <f t="shared" si="12"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I65" s="15">
         <f t="shared" si="13"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="66" spans="3:9" x14ac:dyDescent="0.25">
@@ -2421,19 +2435,19 @@
       </c>
       <c r="F66" s="13">
         <f t="shared" si="10"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G66" s="8">
         <f t="shared" si="11"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H66" s="8">
         <f t="shared" si="12"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I66" s="15">
         <f t="shared" si="13"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="67" spans="3:9" x14ac:dyDescent="0.25">
@@ -2445,19 +2459,19 @@
       </c>
       <c r="F67" s="13">
         <f t="shared" si="10"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G67" s="8">
         <f t="shared" si="11"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H67" s="8">
         <f t="shared" si="12"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I67" s="15">
         <f t="shared" si="13"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="68" spans="3:9" x14ac:dyDescent="0.25">
@@ -2469,19 +2483,19 @@
       </c>
       <c r="F68" s="13">
         <f t="shared" si="10"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G68" s="8">
         <f t="shared" si="11"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H68" s="8">
         <f t="shared" si="12"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I68" s="15">
         <f t="shared" si="13"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="69" spans="3:9" x14ac:dyDescent="0.25">
@@ -2493,19 +2507,19 @@
       </c>
       <c r="F69" s="13">
         <f t="shared" si="10"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G69" s="8">
         <f t="shared" si="11"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H69" s="8">
         <f t="shared" si="12"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I69" s="15">
         <f t="shared" si="13"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="70" spans="3:9" x14ac:dyDescent="0.25">
@@ -2517,19 +2531,19 @@
       </c>
       <c r="F70" s="13">
         <f t="shared" si="10"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G70" s="8">
         <f t="shared" si="11"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H70" s="8">
         <f t="shared" si="12"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I70" s="15">
         <f t="shared" si="13"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="71" spans="3:9" x14ac:dyDescent="0.25">
@@ -2541,19 +2555,19 @@
       </c>
       <c r="F71" s="13">
         <f t="shared" si="10"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G71" s="8">
         <f t="shared" si="11"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H71" s="8">
         <f t="shared" si="12"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I71" s="15">
         <f t="shared" si="13"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="72" spans="3:9" x14ac:dyDescent="0.25">
@@ -2565,19 +2579,19 @@
       </c>
       <c r="F72" s="13">
         <f t="shared" si="10"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G72" s="8">
         <f t="shared" si="11"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H72" s="8">
         <f t="shared" si="12"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I72" s="15">
         <f t="shared" si="13"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="73" spans="3:9" x14ac:dyDescent="0.25">
@@ -2589,19 +2603,19 @@
       </c>
       <c r="F73" s="13">
         <f t="shared" si="10"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G73" s="8">
         <f t="shared" si="11"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H73" s="8">
         <f t="shared" si="12"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I73" s="15">
         <f t="shared" si="13"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="74" spans="3:9" x14ac:dyDescent="0.25">
@@ -2613,19 +2627,19 @@
       </c>
       <c r="F74" s="13">
         <f t="shared" si="10"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G74" s="8">
         <f t="shared" si="11"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H74" s="8">
         <f t="shared" si="12"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I74" s="15">
         <f t="shared" si="13"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="75" spans="3:9" x14ac:dyDescent="0.25">
@@ -2637,19 +2651,19 @@
       </c>
       <c r="F75" s="13">
         <f t="shared" si="10"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G75" s="8">
         <f t="shared" si="11"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H75" s="8">
         <f t="shared" si="12"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I75" s="15">
         <f t="shared" si="13"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="76" spans="3:9" x14ac:dyDescent="0.25">
@@ -2661,19 +2675,19 @@
       </c>
       <c r="F76" s="13">
         <f t="shared" si="10"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G76" s="8">
         <f t="shared" si="11"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H76" s="8">
         <f t="shared" si="12"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I76" s="15">
         <f t="shared" si="13"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="77" spans="3:9" x14ac:dyDescent="0.25">
@@ -2685,19 +2699,19 @@
       </c>
       <c r="F77" s="13">
         <f t="shared" si="10"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G77" s="8">
         <f t="shared" si="11"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H77" s="8">
         <f t="shared" si="12"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I77" s="15">
         <f t="shared" si="13"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="78" spans="3:9" x14ac:dyDescent="0.25">
@@ -2709,19 +2723,19 @@
       </c>
       <c r="F78" s="13">
         <f t="shared" si="10"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G78" s="8">
         <f t="shared" si="11"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H78" s="8">
         <f t="shared" si="12"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I78" s="15">
         <f t="shared" si="13"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="79" spans="3:9" x14ac:dyDescent="0.25">
@@ -2733,19 +2747,19 @@
       </c>
       <c r="F79" s="13">
         <f t="shared" si="10"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G79" s="8">
         <f t="shared" si="11"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H79" s="8">
         <f t="shared" si="12"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I79" s="15">
         <f t="shared" si="13"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="80" spans="3:9" x14ac:dyDescent="0.25">
@@ -2757,19 +2771,19 @@
       </c>
       <c r="F80" s="13">
         <f t="shared" si="10"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G80" s="8">
         <f t="shared" si="11"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H80" s="8">
         <f t="shared" si="12"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I80" s="15">
         <f t="shared" si="13"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="81" spans="3:9" x14ac:dyDescent="0.25">
@@ -2781,19 +2795,19 @@
       </c>
       <c r="F81" s="13">
         <f t="shared" si="10"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G81" s="8">
         <f t="shared" si="11"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H81" s="8">
         <f t="shared" si="12"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I81" s="15">
         <f t="shared" si="13"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="82" spans="3:9" x14ac:dyDescent="0.25">
@@ -2805,19 +2819,19 @@
       </c>
       <c r="F82" s="13">
         <f t="shared" si="10"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G82" s="8">
         <f t="shared" si="11"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H82" s="8">
         <f t="shared" si="12"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I82" s="15">
         <f t="shared" si="13"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="83" spans="3:9" x14ac:dyDescent="0.25">
@@ -2829,19 +2843,19 @@
       </c>
       <c r="F83" s="13">
         <f t="shared" si="10"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G83" s="8">
         <f t="shared" si="11"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H83" s="8">
         <f t="shared" si="12"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I83" s="15">
         <f t="shared" si="13"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="84" spans="3:9" x14ac:dyDescent="0.25">
@@ -2853,19 +2867,19 @@
       </c>
       <c r="F84" s="13">
         <f t="shared" si="10"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G84" s="8">
         <f t="shared" si="11"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H84" s="8">
         <f t="shared" si="12"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I84" s="15">
         <f t="shared" si="13"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="85" spans="3:9" x14ac:dyDescent="0.25">
@@ -2877,19 +2891,19 @@
       </c>
       <c r="F85" s="13">
         <f t="shared" si="10"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G85" s="8">
         <f t="shared" si="11"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H85" s="8">
         <f t="shared" si="12"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I85" s="15">
         <f t="shared" si="13"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="86" spans="3:9" x14ac:dyDescent="0.25">
@@ -2901,19 +2915,19 @@
       </c>
       <c r="F86" s="13">
         <f t="shared" si="10"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G86" s="8">
         <f t="shared" si="11"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H86" s="8">
         <f t="shared" si="12"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I86" s="15">
         <f t="shared" si="13"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="87" spans="3:9" x14ac:dyDescent="0.25">
@@ -2925,19 +2939,19 @@
       </c>
       <c r="F87" s="13">
         <f t="shared" si="10"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G87" s="8">
         <f t="shared" si="11"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H87" s="8">
         <f t="shared" si="12"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I87" s="15">
         <f t="shared" si="13"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="88" spans="3:9" x14ac:dyDescent="0.25">
@@ -2949,19 +2963,19 @@
       </c>
       <c r="F88" s="13">
         <f t="shared" si="10"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G88" s="8">
         <f t="shared" si="11"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H88" s="8">
         <f t="shared" si="12"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I88" s="15">
         <f t="shared" si="13"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="89" spans="3:9" x14ac:dyDescent="0.25">
@@ -2973,19 +2987,19 @@
       </c>
       <c r="F89" s="13">
         <f t="shared" si="10"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G89" s="8">
         <f t="shared" si="11"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H89" s="8">
         <f t="shared" si="12"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I89" s="15">
         <f t="shared" si="13"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="90" spans="3:9" x14ac:dyDescent="0.25">
@@ -2997,19 +3011,19 @@
       </c>
       <c r="F90" s="13">
         <f t="shared" si="10"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G90" s="8">
         <f t="shared" si="11"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H90" s="8">
         <f t="shared" si="12"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I90" s="15">
         <f t="shared" si="13"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="91" spans="3:9" x14ac:dyDescent="0.25">
@@ -3021,19 +3035,19 @@
       </c>
       <c r="F91" s="13">
         <f t="shared" si="10"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G91" s="8">
         <f t="shared" si="11"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H91" s="8">
         <f t="shared" si="12"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I91" s="15">
         <f t="shared" si="13"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="92" spans="3:9" x14ac:dyDescent="0.25">
@@ -3045,19 +3059,19 @@
       </c>
       <c r="F92" s="13">
         <f t="shared" si="10"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G92" s="8">
         <f t="shared" si="11"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H92" s="8">
         <f t="shared" si="12"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I92" s="15">
         <f t="shared" si="13"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="93" spans="3:9" x14ac:dyDescent="0.25">
@@ -3069,19 +3083,19 @@
       </c>
       <c r="F93" s="13">
         <f t="shared" si="10"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G93" s="8">
         <f t="shared" si="11"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H93" s="8">
         <f t="shared" si="12"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I93" s="15">
         <f t="shared" si="13"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="94" spans="3:9" x14ac:dyDescent="0.25">
@@ -3093,19 +3107,19 @@
       </c>
       <c r="F94" s="13">
         <f t="shared" si="10"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G94" s="8">
         <f t="shared" si="11"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H94" s="8">
         <f t="shared" si="12"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I94" s="15">
         <f t="shared" si="13"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="95" spans="3:9" x14ac:dyDescent="0.25">
@@ -3117,19 +3131,19 @@
       </c>
       <c r="F95" s="13">
         <f t="shared" si="10"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G95" s="8">
         <f t="shared" si="11"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H95" s="8">
         <f t="shared" si="12"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I95" s="15">
         <f t="shared" si="13"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="96" spans="3:9" x14ac:dyDescent="0.25">
@@ -3141,19 +3155,19 @@
       </c>
       <c r="F96" s="13">
         <f t="shared" si="10"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G96" s="8">
         <f t="shared" si="11"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H96" s="8">
         <f t="shared" si="12"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I96" s="15">
         <f t="shared" si="13"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="97" spans="3:9" x14ac:dyDescent="0.25">
@@ -3165,19 +3179,19 @@
       </c>
       <c r="F97" s="13">
         <f t="shared" si="10"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G97" s="8">
         <f t="shared" si="11"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H97" s="8">
         <f t="shared" si="12"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I97" s="15">
         <f t="shared" si="13"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="98" spans="3:9" x14ac:dyDescent="0.25">
@@ -3189,19 +3203,19 @@
       </c>
       <c r="F98" s="13">
         <f t="shared" si="10"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G98" s="8">
         <f t="shared" si="11"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H98" s="8">
         <f t="shared" si="12"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I98" s="15">
         <f t="shared" si="13"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="99" spans="3:9" x14ac:dyDescent="0.25">
@@ -3213,19 +3227,19 @@
       </c>
       <c r="F99" s="13">
         <f t="shared" si="10"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G99" s="8">
         <f t="shared" si="11"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H99" s="8">
         <f t="shared" si="12"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I99" s="15">
         <f t="shared" si="13"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="100" spans="3:9" x14ac:dyDescent="0.25">
@@ -3237,19 +3251,19 @@
       </c>
       <c r="F100" s="13">
         <f t="shared" si="10"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G100" s="8">
         <f t="shared" si="11"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H100" s="8">
         <f t="shared" si="12"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I100" s="15">
         <f t="shared" si="13"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="101" spans="3:9" x14ac:dyDescent="0.25">
@@ -3261,19 +3275,19 @@
       </c>
       <c r="F101" s="13">
         <f t="shared" si="10"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G101" s="8">
         <f t="shared" si="11"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H101" s="8">
         <f t="shared" si="12"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I101" s="15">
         <f t="shared" si="13"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="102" spans="3:9" x14ac:dyDescent="0.25">
@@ -3285,19 +3299,19 @@
       </c>
       <c r="F102" s="13">
         <f t="shared" si="10"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G102" s="8">
         <f t="shared" si="11"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H102" s="8">
         <f t="shared" si="12"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I102" s="15">
         <f t="shared" si="13"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="103" spans="3:9" x14ac:dyDescent="0.25">
@@ -3309,19 +3323,19 @@
       </c>
       <c r="F103" s="13">
         <f t="shared" si="10"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G103" s="8">
         <f t="shared" si="11"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H103" s="8">
         <f t="shared" si="12"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I103" s="15">
         <f t="shared" si="13"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="104" spans="3:9" x14ac:dyDescent="0.25">
@@ -3333,19 +3347,19 @@
       </c>
       <c r="F104" s="13">
         <f t="shared" ref="F104:F167" si="15">F103+E104</f>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G104" s="8">
         <f t="shared" ref="G104:G167" si="16">F104</f>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H104" s="8">
         <f t="shared" ref="H104:H167" si="17">(H103+G104-G103)</f>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I104" s="15">
         <f t="shared" ref="I104:I167" si="18">H104*24*$J$2</f>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="105" spans="3:9" x14ac:dyDescent="0.25">
@@ -3357,19 +3371,19 @@
       </c>
       <c r="F105" s="13">
         <f t="shared" si="15"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G105" s="8">
         <f t="shared" si="16"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H105" s="8">
         <f t="shared" si="17"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I105" s="15">
         <f t="shared" si="18"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="106" spans="3:9" x14ac:dyDescent="0.25">
@@ -3381,19 +3395,19 @@
       </c>
       <c r="F106" s="13">
         <f t="shared" si="15"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G106" s="8">
         <f t="shared" si="16"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H106" s="8">
         <f t="shared" si="17"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I106" s="15">
         <f t="shared" si="18"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="107" spans="3:9" x14ac:dyDescent="0.25">
@@ -3405,19 +3419,19 @@
       </c>
       <c r="F107" s="13">
         <f t="shared" si="15"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G107" s="8">
         <f t="shared" si="16"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H107" s="8">
         <f t="shared" si="17"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I107" s="15">
         <f t="shared" si="18"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="108" spans="3:9" x14ac:dyDescent="0.25">
@@ -3429,19 +3443,19 @@
       </c>
       <c r="F108" s="13">
         <f t="shared" si="15"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G108" s="8">
         <f t="shared" si="16"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H108" s="8">
         <f t="shared" si="17"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I108" s="15">
         <f t="shared" si="18"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="109" spans="3:9" x14ac:dyDescent="0.25">
@@ -3453,19 +3467,19 @@
       </c>
       <c r="F109" s="13">
         <f t="shared" si="15"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G109" s="8">
         <f t="shared" si="16"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H109" s="8">
         <f t="shared" si="17"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I109" s="15">
         <f t="shared" si="18"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="110" spans="3:9" x14ac:dyDescent="0.25">
@@ -3477,19 +3491,19 @@
       </c>
       <c r="F110" s="13">
         <f t="shared" si="15"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G110" s="8">
         <f t="shared" si="16"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H110" s="8">
         <f t="shared" si="17"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I110" s="15">
         <f t="shared" si="18"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="111" spans="3:9" x14ac:dyDescent="0.25">
@@ -3501,19 +3515,19 @@
       </c>
       <c r="F111" s="13">
         <f t="shared" si="15"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G111" s="8">
         <f t="shared" si="16"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H111" s="8">
         <f t="shared" si="17"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I111" s="15">
         <f t="shared" si="18"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="112" spans="3:9" x14ac:dyDescent="0.25">
@@ -3525,19 +3539,19 @@
       </c>
       <c r="F112" s="13">
         <f t="shared" si="15"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G112" s="8">
         <f t="shared" si="16"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H112" s="8">
         <f t="shared" si="17"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I112" s="15">
         <f t="shared" si="18"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="113" spans="3:9" x14ac:dyDescent="0.25">
@@ -3549,19 +3563,19 @@
       </c>
       <c r="F113" s="13">
         <f t="shared" si="15"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G113" s="8">
         <f t="shared" si="16"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H113" s="8">
         <f t="shared" si="17"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I113" s="15">
         <f t="shared" si="18"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="114" spans="3:9" x14ac:dyDescent="0.25">
@@ -3573,19 +3587,19 @@
       </c>
       <c r="F114" s="13">
         <f t="shared" si="15"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G114" s="8">
         <f t="shared" si="16"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H114" s="8">
         <f t="shared" si="17"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I114" s="15">
         <f t="shared" si="18"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="115" spans="3:9" x14ac:dyDescent="0.25">
@@ -3597,19 +3611,19 @@
       </c>
       <c r="F115" s="13">
         <f t="shared" si="15"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G115" s="8">
         <f t="shared" si="16"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H115" s="8">
         <f t="shared" si="17"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I115" s="15">
         <f t="shared" si="18"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="116" spans="3:9" x14ac:dyDescent="0.25">
@@ -3621,19 +3635,19 @@
       </c>
       <c r="F116" s="13">
         <f t="shared" si="15"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G116" s="8">
         <f t="shared" si="16"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H116" s="8">
         <f t="shared" si="17"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I116" s="15">
         <f t="shared" si="18"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="117" spans="3:9" x14ac:dyDescent="0.25">
@@ -3645,19 +3659,19 @@
       </c>
       <c r="F117" s="13">
         <f t="shared" si="15"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G117" s="8">
         <f t="shared" si="16"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H117" s="8">
         <f t="shared" si="17"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I117" s="15">
         <f t="shared" si="18"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="118" spans="3:9" x14ac:dyDescent="0.25">
@@ -3669,19 +3683,19 @@
       </c>
       <c r="F118" s="13">
         <f t="shared" si="15"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G118" s="8">
         <f t="shared" si="16"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H118" s="8">
         <f t="shared" si="17"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I118" s="15">
         <f t="shared" si="18"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="119" spans="3:9" x14ac:dyDescent="0.25">
@@ -3693,19 +3707,19 @@
       </c>
       <c r="F119" s="13">
         <f t="shared" si="15"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G119" s="8">
         <f t="shared" si="16"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H119" s="8">
         <f t="shared" si="17"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I119" s="15">
         <f t="shared" si="18"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="120" spans="3:9" x14ac:dyDescent="0.25">
@@ -3717,19 +3731,19 @@
       </c>
       <c r="F120" s="13">
         <f t="shared" si="15"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G120" s="8">
         <f t="shared" si="16"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H120" s="8">
         <f t="shared" si="17"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I120" s="15">
         <f t="shared" si="18"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="121" spans="3:9" x14ac:dyDescent="0.25">
@@ -3741,19 +3755,19 @@
       </c>
       <c r="F121" s="13">
         <f t="shared" si="15"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G121" s="8">
         <f t="shared" si="16"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H121" s="8">
         <f t="shared" si="17"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I121" s="15">
         <f t="shared" si="18"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="122" spans="3:9" x14ac:dyDescent="0.25">
@@ -3765,19 +3779,19 @@
       </c>
       <c r="F122" s="13">
         <f t="shared" si="15"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G122" s="8">
         <f t="shared" si="16"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H122" s="8">
         <f t="shared" si="17"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I122" s="15">
         <f t="shared" si="18"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="123" spans="3:9" x14ac:dyDescent="0.25">
@@ -3789,19 +3803,19 @@
       </c>
       <c r="F123" s="13">
         <f t="shared" si="15"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G123" s="8">
         <f t="shared" si="16"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H123" s="8">
         <f t="shared" si="17"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I123" s="15">
         <f t="shared" si="18"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="124" spans="3:9" x14ac:dyDescent="0.25">
@@ -3813,19 +3827,19 @@
       </c>
       <c r="F124" s="13">
         <f t="shared" si="15"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G124" s="8">
         <f t="shared" si="16"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H124" s="8">
         <f t="shared" si="17"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I124" s="15">
         <f t="shared" si="18"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="125" spans="3:9" x14ac:dyDescent="0.25">
@@ -3837,19 +3851,19 @@
       </c>
       <c r="F125" s="13">
         <f t="shared" si="15"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G125" s="8">
         <f t="shared" si="16"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H125" s="8">
         <f t="shared" si="17"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I125" s="15">
         <f t="shared" si="18"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="126" spans="3:9" x14ac:dyDescent="0.25">
@@ -3861,19 +3875,19 @@
       </c>
       <c r="F126" s="13">
         <f t="shared" si="15"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G126" s="8">
         <f t="shared" si="16"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H126" s="8">
         <f t="shared" si="17"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I126" s="15">
         <f t="shared" si="18"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="127" spans="3:9" x14ac:dyDescent="0.25">
@@ -3885,19 +3899,19 @@
       </c>
       <c r="F127" s="13">
         <f t="shared" si="15"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G127" s="8">
         <f t="shared" si="16"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H127" s="8">
         <f t="shared" si="17"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I127" s="15">
         <f t="shared" si="18"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="128" spans="3:9" x14ac:dyDescent="0.25">
@@ -3909,19 +3923,19 @@
       </c>
       <c r="F128" s="13">
         <f t="shared" si="15"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G128" s="8">
         <f t="shared" si="16"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H128" s="8">
         <f t="shared" si="17"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I128" s="15">
         <f t="shared" si="18"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="129" spans="3:9" x14ac:dyDescent="0.25">
@@ -3933,19 +3947,19 @@
       </c>
       <c r="F129" s="13">
         <f t="shared" si="15"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G129" s="8">
         <f t="shared" si="16"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H129" s="8">
         <f t="shared" si="17"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I129" s="15">
         <f t="shared" si="18"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="130" spans="3:9" x14ac:dyDescent="0.25">
@@ -3957,19 +3971,19 @@
       </c>
       <c r="F130" s="13">
         <f t="shared" si="15"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G130" s="8">
         <f t="shared" si="16"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H130" s="8">
         <f t="shared" si="17"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I130" s="15">
         <f t="shared" si="18"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="131" spans="3:9" x14ac:dyDescent="0.25">
@@ -3981,19 +3995,19 @@
       </c>
       <c r="F131" s="13">
         <f t="shared" si="15"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G131" s="8">
         <f t="shared" si="16"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H131" s="8">
         <f t="shared" si="17"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I131" s="15">
         <f t="shared" si="18"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="132" spans="3:9" x14ac:dyDescent="0.25">
@@ -4005,19 +4019,19 @@
       </c>
       <c r="F132" s="13">
         <f t="shared" si="15"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G132" s="8">
         <f t="shared" si="16"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H132" s="8">
         <f t="shared" si="17"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I132" s="15">
         <f t="shared" si="18"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="133" spans="3:9" x14ac:dyDescent="0.25">
@@ -4029,19 +4043,19 @@
       </c>
       <c r="F133" s="13">
         <f t="shared" si="15"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G133" s="8">
         <f t="shared" si="16"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H133" s="8">
         <f t="shared" si="17"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I133" s="15">
         <f t="shared" si="18"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="134" spans="3:9" x14ac:dyDescent="0.25">
@@ -4053,19 +4067,19 @@
       </c>
       <c r="F134" s="13">
         <f t="shared" si="15"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G134" s="8">
         <f t="shared" si="16"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H134" s="8">
         <f t="shared" si="17"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I134" s="15">
         <f t="shared" si="18"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="135" spans="3:9" x14ac:dyDescent="0.25">
@@ -4077,19 +4091,19 @@
       </c>
       <c r="F135" s="13">
         <f t="shared" si="15"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G135" s="8">
         <f t="shared" si="16"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H135" s="8">
         <f t="shared" si="17"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I135" s="15">
         <f t="shared" si="18"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="136" spans="3:9" x14ac:dyDescent="0.25">
@@ -4101,19 +4115,19 @@
       </c>
       <c r="F136" s="13">
         <f t="shared" si="15"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G136" s="8">
         <f t="shared" si="16"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H136" s="8">
         <f t="shared" si="17"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I136" s="15">
         <f t="shared" si="18"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="137" spans="3:9" x14ac:dyDescent="0.25">
@@ -4125,19 +4139,19 @@
       </c>
       <c r="F137" s="13">
         <f t="shared" si="15"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G137" s="8">
         <f t="shared" si="16"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H137" s="8">
         <f t="shared" si="17"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I137" s="15">
         <f t="shared" si="18"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="138" spans="3:9" x14ac:dyDescent="0.25">
@@ -4149,19 +4163,19 @@
       </c>
       <c r="F138" s="13">
         <f t="shared" si="15"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G138" s="8">
         <f t="shared" si="16"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H138" s="8">
         <f t="shared" si="17"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I138" s="15">
         <f t="shared" si="18"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="139" spans="3:9" x14ac:dyDescent="0.25">
@@ -4173,19 +4187,19 @@
       </c>
       <c r="F139" s="13">
         <f t="shared" si="15"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G139" s="8">
         <f t="shared" si="16"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H139" s="8">
         <f t="shared" si="17"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I139" s="15">
         <f t="shared" si="18"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="140" spans="3:9" x14ac:dyDescent="0.25">
@@ -4197,19 +4211,19 @@
       </c>
       <c r="F140" s="13">
         <f t="shared" si="15"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G140" s="8">
         <f t="shared" si="16"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H140" s="8">
         <f t="shared" si="17"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I140" s="15">
         <f t="shared" si="18"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="141" spans="3:9" x14ac:dyDescent="0.25">
@@ -4221,19 +4235,19 @@
       </c>
       <c r="F141" s="13">
         <f t="shared" si="15"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G141" s="8">
         <f t="shared" si="16"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H141" s="8">
         <f t="shared" si="17"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I141" s="15">
         <f t="shared" si="18"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="142" spans="3:9" x14ac:dyDescent="0.25">
@@ -4245,19 +4259,19 @@
       </c>
       <c r="F142" s="13">
         <f t="shared" si="15"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G142" s="8">
         <f t="shared" si="16"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H142" s="8">
         <f t="shared" si="17"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I142" s="15">
         <f t="shared" si="18"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="143" spans="3:9" x14ac:dyDescent="0.25">
@@ -4269,19 +4283,19 @@
       </c>
       <c r="F143" s="13">
         <f t="shared" si="15"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G143" s="8">
         <f t="shared" si="16"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H143" s="8">
         <f t="shared" si="17"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I143" s="15">
         <f t="shared" si="18"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="144" spans="3:9" x14ac:dyDescent="0.25">
@@ -4293,19 +4307,19 @@
       </c>
       <c r="F144" s="13">
         <f t="shared" si="15"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G144" s="8">
         <f t="shared" si="16"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H144" s="8">
         <f t="shared" si="17"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I144" s="15">
         <f t="shared" si="18"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="145" spans="3:9" x14ac:dyDescent="0.25">
@@ -4317,19 +4331,19 @@
       </c>
       <c r="F145" s="13">
         <f t="shared" si="15"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G145" s="8">
         <f t="shared" si="16"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H145" s="8">
         <f t="shared" si="17"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I145" s="15">
         <f t="shared" si="18"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="146" spans="3:9" x14ac:dyDescent="0.25">
@@ -4341,19 +4355,19 @@
       </c>
       <c r="F146" s="13">
         <f t="shared" si="15"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G146" s="8">
         <f t="shared" si="16"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H146" s="8">
         <f t="shared" si="17"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I146" s="15">
         <f t="shared" si="18"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="147" spans="3:9" x14ac:dyDescent="0.25">
@@ -4365,19 +4379,19 @@
       </c>
       <c r="F147" s="13">
         <f t="shared" si="15"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G147" s="8">
         <f t="shared" si="16"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H147" s="8">
         <f t="shared" si="17"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I147" s="15">
         <f t="shared" si="18"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="148" spans="3:9" x14ac:dyDescent="0.25">
@@ -4389,19 +4403,19 @@
       </c>
       <c r="F148" s="13">
         <f t="shared" si="15"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G148" s="8">
         <f t="shared" si="16"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H148" s="8">
         <f t="shared" si="17"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I148" s="15">
         <f t="shared" si="18"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="149" spans="3:9" x14ac:dyDescent="0.25">
@@ -4413,19 +4427,19 @@
       </c>
       <c r="F149" s="13">
         <f t="shared" si="15"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G149" s="8">
         <f t="shared" si="16"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H149" s="8">
         <f t="shared" si="17"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I149" s="15">
         <f t="shared" si="18"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="150" spans="3:9" x14ac:dyDescent="0.25">
@@ -4437,19 +4451,19 @@
       </c>
       <c r="F150" s="13">
         <f t="shared" si="15"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G150" s="8">
         <f t="shared" si="16"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H150" s="8">
         <f t="shared" si="17"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I150" s="15">
         <f t="shared" si="18"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="151" spans="3:9" x14ac:dyDescent="0.25">
@@ -4461,19 +4475,19 @@
       </c>
       <c r="F151" s="13">
         <f t="shared" si="15"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G151" s="8">
         <f t="shared" si="16"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H151" s="8">
         <f t="shared" si="17"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I151" s="15">
         <f t="shared" si="18"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="152" spans="3:9" x14ac:dyDescent="0.25">
@@ -4485,19 +4499,19 @@
       </c>
       <c r="F152" s="13">
         <f t="shared" si="15"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G152" s="8">
         <f t="shared" si="16"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H152" s="8">
         <f t="shared" si="17"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I152" s="15">
         <f t="shared" si="18"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="153" spans="3:9" x14ac:dyDescent="0.25">
@@ -4509,19 +4523,19 @@
       </c>
       <c r="F153" s="13">
         <f t="shared" si="15"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G153" s="8">
         <f t="shared" si="16"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H153" s="8">
         <f t="shared" si="17"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I153" s="15">
         <f t="shared" si="18"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="154" spans="3:9" x14ac:dyDescent="0.25">
@@ -4533,19 +4547,19 @@
       </c>
       <c r="F154" s="13">
         <f t="shared" si="15"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G154" s="8">
         <f t="shared" si="16"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H154" s="8">
         <f t="shared" si="17"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I154" s="15">
         <f t="shared" si="18"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="155" spans="3:9" x14ac:dyDescent="0.25">
@@ -4557,19 +4571,19 @@
       </c>
       <c r="F155" s="13">
         <f t="shared" si="15"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G155" s="8">
         <f t="shared" si="16"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H155" s="8">
         <f t="shared" si="17"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I155" s="15">
         <f t="shared" si="18"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="156" spans="3:9" x14ac:dyDescent="0.25">
@@ -4581,19 +4595,19 @@
       </c>
       <c r="F156" s="13">
         <f t="shared" si="15"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G156" s="8">
         <f t="shared" si="16"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H156" s="8">
         <f t="shared" si="17"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I156" s="15">
         <f t="shared" si="18"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="157" spans="3:9" x14ac:dyDescent="0.25">
@@ -4605,19 +4619,19 @@
       </c>
       <c r="F157" s="13">
         <f t="shared" si="15"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G157" s="8">
         <f t="shared" si="16"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H157" s="8">
         <f t="shared" si="17"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I157" s="15">
         <f t="shared" si="18"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="158" spans="3:9" x14ac:dyDescent="0.25">
@@ -4629,19 +4643,19 @@
       </c>
       <c r="F158" s="13">
         <f t="shared" si="15"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G158" s="8">
         <f t="shared" si="16"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H158" s="8">
         <f t="shared" si="17"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I158" s="15">
         <f t="shared" si="18"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="159" spans="3:9" x14ac:dyDescent="0.25">
@@ -4653,19 +4667,19 @@
       </c>
       <c r="F159" s="13">
         <f t="shared" si="15"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G159" s="8">
         <f t="shared" si="16"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H159" s="8">
         <f t="shared" si="17"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I159" s="15">
         <f t="shared" si="18"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="160" spans="3:9" x14ac:dyDescent="0.25">
@@ -4677,19 +4691,19 @@
       </c>
       <c r="F160" s="13">
         <f t="shared" si="15"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G160" s="8">
         <f t="shared" si="16"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H160" s="8">
         <f t="shared" si="17"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I160" s="15">
         <f t="shared" si="18"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="161" spans="3:9" x14ac:dyDescent="0.25">
@@ -4701,19 +4715,19 @@
       </c>
       <c r="F161" s="13">
         <f t="shared" si="15"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G161" s="8">
         <f t="shared" si="16"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H161" s="8">
         <f t="shared" si="17"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I161" s="15">
         <f t="shared" si="18"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="162" spans="3:9" x14ac:dyDescent="0.25">
@@ -4725,19 +4739,19 @@
       </c>
       <c r="F162" s="13">
         <f t="shared" si="15"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G162" s="8">
         <f t="shared" si="16"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H162" s="8">
         <f t="shared" si="17"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I162" s="15">
         <f t="shared" si="18"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="163" spans="3:9" x14ac:dyDescent="0.25">
@@ -4749,19 +4763,19 @@
       </c>
       <c r="F163" s="13">
         <f t="shared" si="15"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G163" s="8">
         <f t="shared" si="16"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H163" s="8">
         <f t="shared" si="17"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I163" s="15">
         <f t="shared" si="18"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="164" spans="3:9" x14ac:dyDescent="0.25">
@@ -4773,19 +4787,19 @@
       </c>
       <c r="F164" s="13">
         <f t="shared" si="15"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G164" s="8">
         <f t="shared" si="16"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H164" s="8">
         <f t="shared" si="17"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I164" s="15">
         <f t="shared" si="18"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="165" spans="3:9" x14ac:dyDescent="0.25">
@@ -4797,19 +4811,19 @@
       </c>
       <c r="F165" s="13">
         <f t="shared" si="15"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G165" s="8">
         <f t="shared" si="16"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H165" s="8">
         <f t="shared" si="17"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I165" s="15">
         <f t="shared" si="18"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="166" spans="3:9" x14ac:dyDescent="0.25">
@@ -4821,19 +4835,19 @@
       </c>
       <c r="F166" s="13">
         <f t="shared" si="15"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G166" s="8">
         <f t="shared" si="16"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H166" s="8">
         <f t="shared" si="17"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I166" s="15">
         <f t="shared" si="18"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="167" spans="3:9" x14ac:dyDescent="0.25">
@@ -4845,19 +4859,19 @@
       </c>
       <c r="F167" s="13">
         <f t="shared" si="15"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G167" s="8">
         <f t="shared" si="16"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H167" s="8">
         <f t="shared" si="17"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I167" s="15">
         <f t="shared" si="18"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="168" spans="3:9" x14ac:dyDescent="0.25">
@@ -4869,19 +4883,19 @@
       </c>
       <c r="F168" s="13">
         <f t="shared" ref="F168:F231" si="20">F167+E168</f>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G168" s="8">
         <f t="shared" ref="G168:G231" si="21">F168</f>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H168" s="8">
         <f t="shared" ref="H168:H231" si="22">(H167+G168-G167)</f>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I168" s="15">
         <f t="shared" ref="I168:I231" si="23">H168*24*$J$2</f>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="169" spans="3:9" x14ac:dyDescent="0.25">
@@ -4893,19 +4907,19 @@
       </c>
       <c r="F169" s="13">
         <f t="shared" si="20"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G169" s="8">
         <f t="shared" si="21"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H169" s="8">
         <f t="shared" si="22"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I169" s="15">
         <f t="shared" si="23"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="170" spans="3:9" x14ac:dyDescent="0.25">
@@ -4917,19 +4931,19 @@
       </c>
       <c r="F170" s="13">
         <f t="shared" si="20"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G170" s="8">
         <f t="shared" si="21"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H170" s="8">
         <f t="shared" si="22"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I170" s="15">
         <f t="shared" si="23"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="171" spans="3:9" x14ac:dyDescent="0.25">
@@ -4941,19 +4955,19 @@
       </c>
       <c r="F171" s="13">
         <f t="shared" si="20"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G171" s="8">
         <f t="shared" si="21"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H171" s="8">
         <f t="shared" si="22"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I171" s="15">
         <f t="shared" si="23"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="172" spans="3:9" x14ac:dyDescent="0.25">
@@ -4965,19 +4979,19 @@
       </c>
       <c r="F172" s="13">
         <f t="shared" si="20"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G172" s="8">
         <f t="shared" si="21"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H172" s="8">
         <f t="shared" si="22"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I172" s="15">
         <f t="shared" si="23"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="173" spans="3:9" x14ac:dyDescent="0.25">
@@ -4989,19 +5003,19 @@
       </c>
       <c r="F173" s="13">
         <f t="shared" si="20"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G173" s="8">
         <f t="shared" si="21"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H173" s="8">
         <f t="shared" si="22"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I173" s="15">
         <f t="shared" si="23"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="174" spans="3:9" x14ac:dyDescent="0.25">
@@ -5013,19 +5027,19 @@
       </c>
       <c r="F174" s="13">
         <f t="shared" si="20"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G174" s="8">
         <f t="shared" si="21"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H174" s="8">
         <f t="shared" si="22"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I174" s="15">
         <f t="shared" si="23"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="175" spans="3:9" x14ac:dyDescent="0.25">
@@ -5037,19 +5051,19 @@
       </c>
       <c r="F175" s="13">
         <f t="shared" si="20"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G175" s="8">
         <f t="shared" si="21"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H175" s="8">
         <f t="shared" si="22"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I175" s="15">
         <f t="shared" si="23"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="176" spans="3:9" x14ac:dyDescent="0.25">
@@ -5061,19 +5075,19 @@
       </c>
       <c r="F176" s="13">
         <f t="shared" si="20"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G176" s="8">
         <f t="shared" si="21"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H176" s="8">
         <f t="shared" si="22"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I176" s="15">
         <f t="shared" si="23"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="177" spans="3:9" x14ac:dyDescent="0.25">
@@ -5085,19 +5099,19 @@
       </c>
       <c r="F177" s="13">
         <f t="shared" si="20"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G177" s="8">
         <f t="shared" si="21"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H177" s="8">
         <f t="shared" si="22"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I177" s="15">
         <f t="shared" si="23"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="178" spans="3:9" x14ac:dyDescent="0.25">
@@ -5109,19 +5123,19 @@
       </c>
       <c r="F178" s="13">
         <f t="shared" si="20"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G178" s="8">
         <f t="shared" si="21"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H178" s="8">
         <f t="shared" si="22"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I178" s="15">
         <f t="shared" si="23"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="179" spans="3:9" x14ac:dyDescent="0.25">
@@ -5133,19 +5147,19 @@
       </c>
       <c r="F179" s="13">
         <f t="shared" si="20"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G179" s="8">
         <f t="shared" si="21"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H179" s="8">
         <f t="shared" si="22"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I179" s="15">
         <f t="shared" si="23"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="180" spans="3:9" x14ac:dyDescent="0.25">
@@ -5157,19 +5171,19 @@
       </c>
       <c r="F180" s="13">
         <f t="shared" si="20"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G180" s="8">
         <f t="shared" si="21"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H180" s="8">
         <f t="shared" si="22"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I180" s="15">
         <f t="shared" si="23"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="181" spans="3:9" x14ac:dyDescent="0.25">
@@ -5181,19 +5195,19 @@
       </c>
       <c r="F181" s="13">
         <f t="shared" si="20"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G181" s="8">
         <f t="shared" si="21"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H181" s="8">
         <f t="shared" si="22"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I181" s="15">
         <f t="shared" si="23"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="182" spans="3:9" x14ac:dyDescent="0.25">
@@ -5205,19 +5219,19 @@
       </c>
       <c r="F182" s="13">
         <f t="shared" si="20"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G182" s="8">
         <f t="shared" si="21"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H182" s="8">
         <f t="shared" si="22"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I182" s="15">
         <f t="shared" si="23"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="183" spans="3:9" x14ac:dyDescent="0.25">
@@ -5229,19 +5243,19 @@
       </c>
       <c r="F183" s="13">
         <f t="shared" si="20"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G183" s="8">
         <f t="shared" si="21"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H183" s="8">
         <f t="shared" si="22"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I183" s="15">
         <f t="shared" si="23"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="184" spans="3:9" x14ac:dyDescent="0.25">
@@ -5253,19 +5267,19 @@
       </c>
       <c r="F184" s="13">
         <f t="shared" si="20"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G184" s="8">
         <f t="shared" si="21"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H184" s="8">
         <f t="shared" si="22"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I184" s="15">
         <f t="shared" si="23"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="185" spans="3:9" x14ac:dyDescent="0.25">
@@ -5277,19 +5291,19 @@
       </c>
       <c r="F185" s="13">
         <f t="shared" si="20"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G185" s="8">
         <f t="shared" si="21"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H185" s="8">
         <f t="shared" si="22"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I185" s="15">
         <f t="shared" si="23"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="186" spans="3:9" x14ac:dyDescent="0.25">
@@ -5301,19 +5315,19 @@
       </c>
       <c r="F186" s="13">
         <f t="shared" si="20"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G186" s="8">
         <f t="shared" si="21"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H186" s="8">
         <f t="shared" si="22"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I186" s="15">
         <f t="shared" si="23"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="187" spans="3:9" x14ac:dyDescent="0.25">
@@ -5325,19 +5339,19 @@
       </c>
       <c r="F187" s="13">
         <f t="shared" si="20"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G187" s="8">
         <f t="shared" si="21"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H187" s="8">
         <f t="shared" si="22"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I187" s="15">
         <f t="shared" si="23"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="188" spans="3:9" x14ac:dyDescent="0.25">
@@ -5349,19 +5363,19 @@
       </c>
       <c r="F188" s="13">
         <f t="shared" si="20"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G188" s="8">
         <f t="shared" si="21"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H188" s="8">
         <f t="shared" si="22"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I188" s="15">
         <f t="shared" si="23"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="189" spans="3:9" x14ac:dyDescent="0.25">
@@ -5373,19 +5387,19 @@
       </c>
       <c r="F189" s="13">
         <f t="shared" si="20"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G189" s="8">
         <f t="shared" si="21"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H189" s="8">
         <f t="shared" si="22"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I189" s="15">
         <f t="shared" si="23"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="190" spans="3:9" x14ac:dyDescent="0.25">
@@ -5397,19 +5411,19 @@
       </c>
       <c r="F190" s="13">
         <f t="shared" si="20"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G190" s="8">
         <f t="shared" si="21"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H190" s="8">
         <f t="shared" si="22"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I190" s="15">
         <f t="shared" si="23"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="191" spans="3:9" x14ac:dyDescent="0.25">
@@ -5421,19 +5435,19 @@
       </c>
       <c r="F191" s="13">
         <f t="shared" si="20"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G191" s="8">
         <f t="shared" si="21"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H191" s="8">
         <f t="shared" si="22"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I191" s="15">
         <f t="shared" si="23"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="192" spans="3:9" x14ac:dyDescent="0.25">
@@ -5445,19 +5459,19 @@
       </c>
       <c r="F192" s="13">
         <f t="shared" si="20"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G192" s="8">
         <f t="shared" si="21"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H192" s="8">
         <f t="shared" si="22"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I192" s="15">
         <f t="shared" si="23"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="193" spans="3:9" x14ac:dyDescent="0.25">
@@ -5469,19 +5483,19 @@
       </c>
       <c r="F193" s="13">
         <f t="shared" si="20"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G193" s="8">
         <f t="shared" si="21"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H193" s="8">
         <f t="shared" si="22"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I193" s="15">
         <f t="shared" si="23"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="194" spans="3:9" x14ac:dyDescent="0.25">
@@ -5493,19 +5507,19 @@
       </c>
       <c r="F194" s="13">
         <f t="shared" si="20"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G194" s="8">
         <f t="shared" si="21"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H194" s="8">
         <f t="shared" si="22"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I194" s="15">
         <f t="shared" si="23"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="195" spans="3:9" x14ac:dyDescent="0.25">
@@ -5517,19 +5531,19 @@
       </c>
       <c r="F195" s="13">
         <f t="shared" si="20"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G195" s="8">
         <f t="shared" si="21"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H195" s="8">
         <f t="shared" si="22"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I195" s="15">
         <f t="shared" si="23"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="196" spans="3:9" x14ac:dyDescent="0.25">
@@ -5541,19 +5555,19 @@
       </c>
       <c r="F196" s="13">
         <f t="shared" si="20"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G196" s="8">
         <f t="shared" si="21"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H196" s="8">
         <f t="shared" si="22"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I196" s="15">
         <f t="shared" si="23"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="197" spans="3:9" x14ac:dyDescent="0.25">
@@ -5565,19 +5579,19 @@
       </c>
       <c r="F197" s="13">
         <f t="shared" si="20"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G197" s="8">
         <f t="shared" si="21"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H197" s="8">
         <f t="shared" si="22"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I197" s="15">
         <f t="shared" si="23"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="198" spans="3:9" x14ac:dyDescent="0.25">
@@ -5589,19 +5603,19 @@
       </c>
       <c r="F198" s="13">
         <f t="shared" si="20"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G198" s="8">
         <f t="shared" si="21"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H198" s="8">
         <f t="shared" si="22"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I198" s="15">
         <f t="shared" si="23"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="199" spans="3:9" x14ac:dyDescent="0.25">
@@ -5613,19 +5627,19 @@
       </c>
       <c r="F199" s="13">
         <f t="shared" si="20"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G199" s="8">
         <f t="shared" si="21"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H199" s="8">
         <f t="shared" si="22"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I199" s="15">
         <f t="shared" si="23"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="200" spans="3:9" x14ac:dyDescent="0.25">
@@ -5637,19 +5651,19 @@
       </c>
       <c r="F200" s="13">
         <f t="shared" si="20"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G200" s="8">
         <f t="shared" si="21"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H200" s="8">
         <f t="shared" si="22"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I200" s="15">
         <f t="shared" si="23"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="201" spans="3:9" x14ac:dyDescent="0.25">
@@ -5661,19 +5675,19 @@
       </c>
       <c r="F201" s="13">
         <f t="shared" si="20"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G201" s="8">
         <f t="shared" si="21"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H201" s="8">
         <f t="shared" si="22"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I201" s="15">
         <f t="shared" si="23"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="202" spans="3:9" x14ac:dyDescent="0.25">
@@ -5685,19 +5699,19 @@
       </c>
       <c r="F202" s="13">
         <f t="shared" si="20"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G202" s="8">
         <f t="shared" si="21"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H202" s="8">
         <f t="shared" si="22"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I202" s="15">
         <f t="shared" si="23"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="203" spans="3:9" x14ac:dyDescent="0.25">
@@ -5709,19 +5723,19 @@
       </c>
       <c r="F203" s="13">
         <f t="shared" si="20"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G203" s="8">
         <f t="shared" si="21"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H203" s="8">
         <f t="shared" si="22"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I203" s="15">
         <f t="shared" si="23"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="204" spans="3:9" x14ac:dyDescent="0.25">
@@ -5733,19 +5747,19 @@
       </c>
       <c r="F204" s="13">
         <f t="shared" si="20"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G204" s="8">
         <f t="shared" si="21"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H204" s="8">
         <f t="shared" si="22"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I204" s="15">
         <f t="shared" si="23"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="205" spans="3:9" x14ac:dyDescent="0.25">
@@ -5757,19 +5771,19 @@
       </c>
       <c r="F205" s="13">
         <f t="shared" si="20"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G205" s="8">
         <f t="shared" si="21"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H205" s="8">
         <f t="shared" si="22"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I205" s="15">
         <f t="shared" si="23"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="206" spans="3:9" x14ac:dyDescent="0.25">
@@ -5781,19 +5795,19 @@
       </c>
       <c r="F206" s="13">
         <f t="shared" si="20"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G206" s="8">
         <f t="shared" si="21"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H206" s="8">
         <f t="shared" si="22"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I206" s="15">
         <f t="shared" si="23"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="207" spans="3:9" x14ac:dyDescent="0.25">
@@ -5805,19 +5819,19 @@
       </c>
       <c r="F207" s="13">
         <f t="shared" si="20"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G207" s="8">
         <f t="shared" si="21"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H207" s="8">
         <f t="shared" si="22"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I207" s="15">
         <f t="shared" si="23"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="208" spans="3:9" x14ac:dyDescent="0.25">
@@ -5829,19 +5843,19 @@
       </c>
       <c r="F208" s="13">
         <f t="shared" si="20"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G208" s="8">
         <f t="shared" si="21"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H208" s="8">
         <f t="shared" si="22"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I208" s="15">
         <f t="shared" si="23"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="209" spans="3:9" x14ac:dyDescent="0.25">
@@ -5853,19 +5867,19 @@
       </c>
       <c r="F209" s="13">
         <f t="shared" si="20"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G209" s="8">
         <f t="shared" si="21"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H209" s="8">
         <f t="shared" si="22"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I209" s="15">
         <f t="shared" si="23"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="210" spans="3:9" x14ac:dyDescent="0.25">
@@ -5877,19 +5891,19 @@
       </c>
       <c r="F210" s="13">
         <f t="shared" si="20"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G210" s="8">
         <f t="shared" si="21"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H210" s="8">
         <f t="shared" si="22"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I210" s="15">
         <f t="shared" si="23"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="211" spans="3:9" x14ac:dyDescent="0.25">
@@ -5901,19 +5915,19 @@
       </c>
       <c r="F211" s="13">
         <f t="shared" si="20"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G211" s="8">
         <f t="shared" si="21"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H211" s="8">
         <f t="shared" si="22"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I211" s="15">
         <f t="shared" si="23"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="212" spans="3:9" x14ac:dyDescent="0.25">
@@ -5925,19 +5939,19 @@
       </c>
       <c r="F212" s="13">
         <f t="shared" si="20"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G212" s="8">
         <f t="shared" si="21"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H212" s="8">
         <f t="shared" si="22"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I212" s="15">
         <f t="shared" si="23"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="213" spans="3:9" x14ac:dyDescent="0.25">
@@ -5949,19 +5963,19 @@
       </c>
       <c r="F213" s="13">
         <f t="shared" si="20"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G213" s="8">
         <f t="shared" si="21"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H213" s="8">
         <f t="shared" si="22"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I213" s="15">
         <f t="shared" si="23"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="214" spans="3:9" x14ac:dyDescent="0.25">
@@ -5973,19 +5987,19 @@
       </c>
       <c r="F214" s="13">
         <f t="shared" si="20"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G214" s="8">
         <f t="shared" si="21"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H214" s="8">
         <f t="shared" si="22"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I214" s="15">
         <f t="shared" si="23"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="215" spans="3:9" x14ac:dyDescent="0.25">
@@ -5997,19 +6011,19 @@
       </c>
       <c r="F215" s="13">
         <f t="shared" si="20"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G215" s="8">
         <f t="shared" si="21"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H215" s="8">
         <f t="shared" si="22"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I215" s="15">
         <f t="shared" si="23"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="216" spans="3:9" x14ac:dyDescent="0.25">
@@ -6021,19 +6035,19 @@
       </c>
       <c r="F216" s="13">
         <f t="shared" si="20"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G216" s="8">
         <f t="shared" si="21"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H216" s="8">
         <f t="shared" si="22"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I216" s="15">
         <f t="shared" si="23"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="217" spans="3:9" x14ac:dyDescent="0.25">
@@ -6045,19 +6059,19 @@
       </c>
       <c r="F217" s="13">
         <f t="shared" si="20"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G217" s="8">
         <f t="shared" si="21"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H217" s="8">
         <f t="shared" si="22"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I217" s="15">
         <f t="shared" si="23"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="218" spans="3:9" x14ac:dyDescent="0.25">
@@ -6069,19 +6083,19 @@
       </c>
       <c r="F218" s="13">
         <f t="shared" si="20"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G218" s="8">
         <f t="shared" si="21"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H218" s="8">
         <f t="shared" si="22"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I218" s="15">
         <f t="shared" si="23"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="219" spans="3:9" x14ac:dyDescent="0.25">
@@ -6093,19 +6107,19 @@
       </c>
       <c r="F219" s="13">
         <f t="shared" si="20"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G219" s="8">
         <f t="shared" si="21"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H219" s="8">
         <f t="shared" si="22"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I219" s="15">
         <f t="shared" si="23"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="220" spans="3:9" x14ac:dyDescent="0.25">
@@ -6117,19 +6131,19 @@
       </c>
       <c r="F220" s="13">
         <f t="shared" si="20"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G220" s="8">
         <f t="shared" si="21"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H220" s="8">
         <f t="shared" si="22"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I220" s="15">
         <f t="shared" si="23"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="221" spans="3:9" x14ac:dyDescent="0.25">
@@ -6141,19 +6155,19 @@
       </c>
       <c r="F221" s="13">
         <f t="shared" si="20"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G221" s="8">
         <f t="shared" si="21"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H221" s="8">
         <f t="shared" si="22"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I221" s="15">
         <f t="shared" si="23"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="222" spans="3:9" x14ac:dyDescent="0.25">
@@ -6165,19 +6179,19 @@
       </c>
       <c r="F222" s="13">
         <f t="shared" si="20"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G222" s="8">
         <f t="shared" si="21"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H222" s="8">
         <f t="shared" si="22"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I222" s="15">
         <f t="shared" si="23"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="223" spans="3:9" x14ac:dyDescent="0.25">
@@ -6189,19 +6203,19 @@
       </c>
       <c r="F223" s="13">
         <f t="shared" si="20"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G223" s="8">
         <f t="shared" si="21"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H223" s="8">
         <f t="shared" si="22"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I223" s="15">
         <f t="shared" si="23"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="224" spans="3:9" x14ac:dyDescent="0.25">
@@ -6213,19 +6227,19 @@
       </c>
       <c r="F224" s="13">
         <f t="shared" si="20"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G224" s="8">
         <f t="shared" si="21"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H224" s="8">
         <f t="shared" si="22"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I224" s="15">
         <f t="shared" si="23"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="225" spans="3:9" x14ac:dyDescent="0.25">
@@ -6237,19 +6251,19 @@
       </c>
       <c r="F225" s="13">
         <f t="shared" si="20"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G225" s="8">
         <f t="shared" si="21"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H225" s="8">
         <f t="shared" si="22"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I225" s="15">
         <f t="shared" si="23"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="226" spans="3:9" x14ac:dyDescent="0.25">
@@ -6261,19 +6275,19 @@
       </c>
       <c r="F226" s="13">
         <f t="shared" si="20"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G226" s="8">
         <f t="shared" si="21"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H226" s="8">
         <f t="shared" si="22"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I226" s="15">
         <f t="shared" si="23"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="227" spans="3:9" x14ac:dyDescent="0.25">
@@ -6285,19 +6299,19 @@
       </c>
       <c r="F227" s="13">
         <f t="shared" si="20"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G227" s="8">
         <f t="shared" si="21"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H227" s="8">
         <f t="shared" si="22"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I227" s="15">
         <f t="shared" si="23"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="228" spans="3:9" x14ac:dyDescent="0.25">
@@ -6309,19 +6323,19 @@
       </c>
       <c r="F228" s="13">
         <f t="shared" si="20"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G228" s="8">
         <f t="shared" si="21"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H228" s="8">
         <f t="shared" si="22"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I228" s="15">
         <f t="shared" si="23"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="229" spans="3:9" x14ac:dyDescent="0.25">
@@ -6333,19 +6347,19 @@
       </c>
       <c r="F229" s="13">
         <f t="shared" si="20"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G229" s="8">
         <f t="shared" si="21"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H229" s="8">
         <f t="shared" si="22"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I229" s="15">
         <f t="shared" si="23"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="230" spans="3:9" x14ac:dyDescent="0.25">
@@ -6357,19 +6371,19 @@
       </c>
       <c r="F230" s="13">
         <f t="shared" si="20"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G230" s="8">
         <f t="shared" si="21"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H230" s="8">
         <f t="shared" si="22"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I230" s="15">
         <f t="shared" si="23"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="231" spans="3:9" x14ac:dyDescent="0.25">
@@ -6381,19 +6395,19 @@
       </c>
       <c r="F231" s="13">
         <f t="shared" si="20"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G231" s="8">
         <f t="shared" si="21"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H231" s="8">
         <f t="shared" si="22"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I231" s="15">
         <f t="shared" si="23"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="232" spans="3:9" x14ac:dyDescent="0.25">
@@ -6405,19 +6419,19 @@
       </c>
       <c r="F232" s="13">
         <f t="shared" ref="F232:F255" si="25">F231+E232</f>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G232" s="8">
         <f t="shared" ref="G232:G255" si="26">F232</f>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H232" s="8">
         <f t="shared" ref="H232:H255" si="27">(H231+G232-G231)</f>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I232" s="15">
         <f t="shared" ref="I232:I255" si="28">H232*24*$J$2</f>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="233" spans="3:9" x14ac:dyDescent="0.25">
@@ -6429,19 +6443,19 @@
       </c>
       <c r="F233" s="13">
         <f t="shared" si="25"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G233" s="8">
         <f t="shared" si="26"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H233" s="8">
         <f t="shared" si="27"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I233" s="15">
         <f t="shared" si="28"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="234" spans="3:9" x14ac:dyDescent="0.25">
@@ -6453,19 +6467,19 @@
       </c>
       <c r="F234" s="13">
         <f t="shared" si="25"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G234" s="8">
         <f t="shared" si="26"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H234" s="8">
         <f t="shared" si="27"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I234" s="15">
         <f t="shared" si="28"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="235" spans="3:9" x14ac:dyDescent="0.25">
@@ -6477,19 +6491,19 @@
       </c>
       <c r="F235" s="13">
         <f t="shared" si="25"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G235" s="8">
         <f t="shared" si="26"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H235" s="8">
         <f t="shared" si="27"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I235" s="15">
         <f t="shared" si="28"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="236" spans="3:9" x14ac:dyDescent="0.25">
@@ -6501,19 +6515,19 @@
       </c>
       <c r="F236" s="13">
         <f t="shared" si="25"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G236" s="8">
         <f t="shared" si="26"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H236" s="8">
         <f t="shared" si="27"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I236" s="15">
         <f t="shared" si="28"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="237" spans="3:9" x14ac:dyDescent="0.25">
@@ -6525,19 +6539,19 @@
       </c>
       <c r="F237" s="13">
         <f t="shared" si="25"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G237" s="8">
         <f t="shared" si="26"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H237" s="8">
         <f t="shared" si="27"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I237" s="15">
         <f t="shared" si="28"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="238" spans="3:9" x14ac:dyDescent="0.25">
@@ -6549,19 +6563,19 @@
       </c>
       <c r="F238" s="13">
         <f t="shared" si="25"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G238" s="8">
         <f t="shared" si="26"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H238" s="8">
         <f t="shared" si="27"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I238" s="15">
         <f t="shared" si="28"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="239" spans="3:9" x14ac:dyDescent="0.25">
@@ -6573,19 +6587,19 @@
       </c>
       <c r="F239" s="13">
         <f t="shared" si="25"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G239" s="8">
         <f t="shared" si="26"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H239" s="8">
         <f t="shared" si="27"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I239" s="15">
         <f t="shared" si="28"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="240" spans="3:9" x14ac:dyDescent="0.25">
@@ -6597,19 +6611,19 @@
       </c>
       <c r="F240" s="13">
         <f t="shared" si="25"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G240" s="8">
         <f t="shared" si="26"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H240" s="8">
         <f t="shared" si="27"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I240" s="15">
         <f t="shared" si="28"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="241" spans="3:9" x14ac:dyDescent="0.25">
@@ -6621,19 +6635,19 @@
       </c>
       <c r="F241" s="13">
         <f t="shared" si="25"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G241" s="8">
         <f t="shared" si="26"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H241" s="8">
         <f t="shared" si="27"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I241" s="15">
         <f t="shared" si="28"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="242" spans="3:9" x14ac:dyDescent="0.25">
@@ -6645,19 +6659,19 @@
       </c>
       <c r="F242" s="13">
         <f t="shared" si="25"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G242" s="8">
         <f t="shared" si="26"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H242" s="8">
         <f t="shared" si="27"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I242" s="15">
         <f t="shared" si="28"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="243" spans="3:9" x14ac:dyDescent="0.25">
@@ -6669,19 +6683,19 @@
       </c>
       <c r="F243" s="13">
         <f t="shared" si="25"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G243" s="8">
         <f t="shared" si="26"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H243" s="8">
         <f t="shared" si="27"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I243" s="15">
         <f t="shared" si="28"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="244" spans="3:9" x14ac:dyDescent="0.25">
@@ -6693,19 +6707,19 @@
       </c>
       <c r="F244" s="13">
         <f t="shared" si="25"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G244" s="8">
         <f t="shared" si="26"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H244" s="8">
         <f t="shared" si="27"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I244" s="15">
         <f t="shared" si="28"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="245" spans="3:9" x14ac:dyDescent="0.25">
@@ -6717,19 +6731,19 @@
       </c>
       <c r="F245" s="13">
         <f t="shared" si="25"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G245" s="8">
         <f t="shared" si="26"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H245" s="8">
         <f t="shared" si="27"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I245" s="15">
         <f t="shared" si="28"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="246" spans="3:9" x14ac:dyDescent="0.25">
@@ -6741,19 +6755,19 @@
       </c>
       <c r="F246" s="13">
         <f t="shared" si="25"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G246" s="8">
         <f t="shared" si="26"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H246" s="8">
         <f t="shared" si="27"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I246" s="15">
         <f t="shared" si="28"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="247" spans="3:9" x14ac:dyDescent="0.25">
@@ -6765,19 +6779,19 @@
       </c>
       <c r="F247" s="13">
         <f t="shared" si="25"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G247" s="8">
         <f t="shared" si="26"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H247" s="8">
         <f t="shared" si="27"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I247" s="15">
         <f t="shared" si="28"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="248" spans="3:9" x14ac:dyDescent="0.25">
@@ -6789,19 +6803,19 @@
       </c>
       <c r="F248" s="13">
         <f t="shared" si="25"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G248" s="8">
         <f t="shared" si="26"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H248" s="8">
         <f t="shared" si="27"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I248" s="15">
         <f t="shared" si="28"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="249" spans="3:9" x14ac:dyDescent="0.25">
@@ -6813,19 +6827,19 @@
       </c>
       <c r="F249" s="13">
         <f t="shared" si="25"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G249" s="8">
         <f t="shared" si="26"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H249" s="8">
         <f t="shared" si="27"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I249" s="15">
         <f t="shared" si="28"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="250" spans="3:9" x14ac:dyDescent="0.25">
@@ -6837,19 +6851,19 @@
       </c>
       <c r="F250" s="13">
         <f t="shared" si="25"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G250" s="8">
         <f t="shared" si="26"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H250" s="8">
         <f t="shared" si="27"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I250" s="15">
         <f t="shared" si="28"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="251" spans="3:9" x14ac:dyDescent="0.25">
@@ -6861,19 +6875,19 @@
       </c>
       <c r="F251" s="13">
         <f t="shared" si="25"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G251" s="8">
         <f t="shared" si="26"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H251" s="8">
         <f t="shared" si="27"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I251" s="15">
         <f t="shared" si="28"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="252" spans="3:9" x14ac:dyDescent="0.25">
@@ -6885,19 +6899,19 @@
       </c>
       <c r="F252" s="13">
         <f t="shared" si="25"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G252" s="8">
         <f t="shared" si="26"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H252" s="8">
         <f t="shared" si="27"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I252" s="15">
         <f t="shared" si="28"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="253" spans="3:9" x14ac:dyDescent="0.25">
@@ -6909,19 +6923,19 @@
       </c>
       <c r="F253" s="13">
         <f t="shared" si="25"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G253" s="8">
         <f t="shared" si="26"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H253" s="8">
         <f t="shared" si="27"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I253" s="15">
         <f t="shared" si="28"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="254" spans="3:9" x14ac:dyDescent="0.25">
@@ -6933,19 +6947,19 @@
       </c>
       <c r="F254" s="13">
         <f t="shared" si="25"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G254" s="8">
         <f t="shared" si="26"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H254" s="8">
         <f t="shared" si="27"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I254" s="15">
         <f t="shared" si="28"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
     <row r="255" spans="3:9" x14ac:dyDescent="0.25">
@@ -6957,19 +6971,19 @@
       </c>
       <c r="F255" s="13">
         <f t="shared" si="25"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="G255" s="8">
         <f t="shared" si="26"/>
-        <v>0.63680555555555529</v>
+        <v>0.8902777777777775</v>
       </c>
       <c r="H255" s="8">
         <f t="shared" si="27"/>
-        <v>1.7868055555555555</v>
+        <v>2.0402777777777779</v>
       </c>
       <c r="I255" s="15">
         <f t="shared" si="28"/>
-        <v>7290.166666666667</v>
+        <v>8324.3333333333339</v>
       </c>
     </row>
   </sheetData>

--- a/hodiny.xlsx
+++ b/hodiny.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A31C22-5F62-46C9-AB59-9710DEB63735}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF52DD4-EE5A-4CC6-872A-FEFCC2F6C9D3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5070" yWindow="5070" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>čas [min]</t>
   </si>
@@ -101,6 +101,15 @@
   </si>
   <si>
     <t>12.6.</t>
+  </si>
+  <si>
+    <t>13.6.</t>
+  </si>
+  <si>
+    <t>14.6.</t>
+  </si>
+  <si>
+    <t>začatek 2784</t>
   </si>
 </sst>
 </file>
@@ -614,8 +623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J63" sqref="J63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1991,7 +2000,7 @@
         <v>6675.333333333333</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C49" s="2">
         <v>0.7631944444444444</v>
       </c>
@@ -2019,7 +2028,7 @@
         <v>6720.6666666666661</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C50" s="2">
         <v>0.79166666666666663</v>
       </c>
@@ -2047,7 +2056,7 @@
         <v>6901.9999999999991</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C51" s="2">
         <v>0.83958333333333324</v>
       </c>
@@ -2075,7 +2084,7 @@
         <v>7035.1666666666652</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C52" s="2">
         <v>0.88194444444444453</v>
       </c>
@@ -2103,7 +2112,7 @@
         <v>7290.166666666667</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B53" s="16" t="s">
         <v>25</v>
       </c>
@@ -2134,7 +2143,7 @@
         <v>8052.3333333333348</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C54" s="2">
         <v>0.4381944444444445</v>
       </c>
@@ -2162,223 +2171,268 @@
         <v>8324.3333333333339</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C55" s="2"/>
-      <c r="D55" s="10"/>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C55" s="2">
+        <v>0.68611111111111101</v>
+      </c>
+      <c r="D55" s="10">
+        <v>0.70000000000000007</v>
+      </c>
       <c r="E55" s="12">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1.3888888888889062E-2</v>
       </c>
       <c r="F55" s="13">
         <f t="shared" si="10"/>
-        <v>0.8902777777777775</v>
+        <v>0.90416666666666656</v>
       </c>
       <c r="G55" s="8">
         <f t="shared" si="11"/>
-        <v>0.8902777777777775</v>
+        <v>0.90416666666666656</v>
       </c>
       <c r="H55" s="8">
         <f t="shared" si="12"/>
-        <v>2.0402777777777779</v>
+        <v>2.0541666666666671</v>
       </c>
       <c r="I55" s="15">
         <f t="shared" si="13"/>
-        <v>8324.3333333333339</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C56" s="2"/>
-      <c r="D56" s="10"/>
+        <v>8381.0000000000018</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C56" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D56" s="10">
+        <v>0.72083333333333333</v>
+      </c>
       <c r="E56" s="12">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1.2499999999999956E-2</v>
       </c>
       <c r="F56" s="13">
         <f t="shared" si="10"/>
-        <v>0.8902777777777775</v>
+        <v>0.91666666666666652</v>
       </c>
       <c r="G56" s="8">
         <f t="shared" si="11"/>
-        <v>0.8902777777777775</v>
+        <v>0.91666666666666652</v>
       </c>
       <c r="H56" s="8">
         <f t="shared" si="12"/>
-        <v>2.0402777777777779</v>
+        <v>2.0666666666666673</v>
       </c>
       <c r="I56" s="15">
         <f t="shared" si="13"/>
-        <v>8324.3333333333339</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C57" s="2"/>
-      <c r="D57" s="10"/>
+        <v>8432.0000000000018</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C57" s="2">
+        <v>0.94513888888888886</v>
+      </c>
+      <c r="D57" s="10">
+        <v>0.98888888888888893</v>
+      </c>
       <c r="E57" s="12">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>4.3750000000000067E-2</v>
       </c>
       <c r="F57" s="13">
         <f t="shared" si="10"/>
-        <v>0.8902777777777775</v>
+        <v>0.96041666666666659</v>
       </c>
       <c r="G57" s="8">
         <f t="shared" si="11"/>
-        <v>0.8902777777777775</v>
+        <v>0.96041666666666659</v>
       </c>
       <c r="H57" s="8">
         <f t="shared" si="12"/>
-        <v>2.0402777777777779</v>
+        <v>2.1104166666666675</v>
       </c>
       <c r="I57" s="15">
         <f t="shared" si="13"/>
-        <v>8324.3333333333339</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C58" s="2"/>
-      <c r="D58" s="10"/>
+        <v>8610.5000000000036</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B58" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C58" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="D58" s="10">
+        <v>0.66249999999999998</v>
+      </c>
       <c r="E58" s="12">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>3.7499999999999978E-2</v>
       </c>
       <c r="F58" s="13">
         <f t="shared" si="10"/>
-        <v>0.8902777777777775</v>
+        <v>0.99791666666666656</v>
       </c>
       <c r="G58" s="8">
         <f t="shared" si="11"/>
-        <v>0.8902777777777775</v>
+        <v>0.99791666666666656</v>
       </c>
       <c r="H58" s="8">
         <f t="shared" si="12"/>
-        <v>2.0402777777777779</v>
+        <v>2.1479166666666676</v>
       </c>
       <c r="I58" s="15">
         <f t="shared" si="13"/>
-        <v>8324.3333333333339</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C59" s="2"/>
-      <c r="D59" s="10"/>
+        <v>8763.5000000000036</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C59" s="2">
+        <v>0.8041666666666667</v>
+      </c>
+      <c r="D59" s="10">
+        <v>0.83888888888888891</v>
+      </c>
       <c r="E59" s="12">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>3.472222222222221E-2</v>
       </c>
       <c r="F59" s="13">
         <f t="shared" si="10"/>
-        <v>0.8902777777777775</v>
+        <v>1.0326388888888887</v>
       </c>
       <c r="G59" s="8">
         <f t="shared" si="11"/>
-        <v>0.8902777777777775</v>
+        <v>1.0326388888888887</v>
       </c>
       <c r="H59" s="8">
         <f t="shared" si="12"/>
-        <v>2.0402777777777779</v>
+        <v>2.1826388888888895</v>
       </c>
       <c r="I59" s="15">
         <f t="shared" si="13"/>
-        <v>8324.3333333333339</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C60" s="2"/>
-      <c r="D60" s="10"/>
+        <v>8905.1666666666697</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C60" s="2">
+        <v>0.85069444444444453</v>
+      </c>
+      <c r="D60" s="10">
+        <v>0.92013888888888884</v>
+      </c>
       <c r="E60" s="12">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>6.9444444444444309E-2</v>
       </c>
       <c r="F60" s="13">
         <f t="shared" si="10"/>
-        <v>0.8902777777777775</v>
+        <v>1.1020833333333329</v>
       </c>
       <c r="G60" s="8">
         <f t="shared" si="11"/>
-        <v>0.8902777777777775</v>
+        <v>1.1020833333333329</v>
       </c>
       <c r="H60" s="8">
         <f t="shared" si="12"/>
-        <v>2.0402777777777779</v>
+        <v>2.2520833333333337</v>
       </c>
       <c r="I60" s="15">
         <f t="shared" si="13"/>
-        <v>8324.3333333333339</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C61" s="2"/>
-      <c r="D61" s="10"/>
+        <v>9188.5000000000018</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C61" s="2">
+        <v>0.95138888888888884</v>
+      </c>
+      <c r="D61" s="10">
+        <v>0.9868055555555556</v>
+      </c>
       <c r="E61" s="12">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>3.5416666666666763E-2</v>
       </c>
       <c r="F61" s="13">
         <f t="shared" si="10"/>
-        <v>0.8902777777777775</v>
+        <v>1.1374999999999997</v>
       </c>
       <c r="G61" s="8">
         <f t="shared" si="11"/>
-        <v>0.8902777777777775</v>
+        <v>1.1374999999999997</v>
       </c>
       <c r="H61" s="8">
         <f t="shared" si="12"/>
-        <v>2.0402777777777779</v>
+        <v>2.2875000000000005</v>
       </c>
       <c r="I61" s="15">
         <f t="shared" si="13"/>
-        <v>8324.3333333333339</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C62" s="2"/>
-      <c r="D62" s="10"/>
+        <v>9333.0000000000018</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C62" s="2">
+        <v>0.99305555555555547</v>
+      </c>
+      <c r="D62" s="10">
+        <v>1</v>
+      </c>
       <c r="E62" s="12">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>6.9444444444445308E-3</v>
       </c>
       <c r="F62" s="13">
         <f t="shared" si="10"/>
-        <v>0.8902777777777775</v>
+        <v>1.1444444444444444</v>
       </c>
       <c r="G62" s="8">
         <f t="shared" si="11"/>
-        <v>0.8902777777777775</v>
+        <v>1.1444444444444444</v>
       </c>
       <c r="H62" s="8">
         <f t="shared" si="12"/>
-        <v>2.0402777777777779</v>
+        <v>2.2944444444444452</v>
       </c>
       <c r="I62" s="15">
         <f t="shared" si="13"/>
-        <v>8324.3333333333339</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C63" s="2"/>
-      <c r="D63" s="10"/>
+        <v>9361.3333333333358</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B63" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C63" s="2">
+        <v>0</v>
+      </c>
+      <c r="D63" s="10">
+        <v>7.5694444444444439E-2</v>
+      </c>
       <c r="E63" s="12">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>7.5694444444444439E-2</v>
       </c>
       <c r="F63" s="13">
         <f t="shared" si="10"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G63" s="8">
         <f t="shared" si="11"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H63" s="8">
         <f t="shared" si="12"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888899</v>
       </c>
       <c r="I63" s="15">
         <f t="shared" si="13"/>
-        <v>8324.3333333333339</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+        <v>9670.1666666666697</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C64" s="2"/>
       <c r="D64" s="10"/>
       <c r="E64" s="12">
@@ -2387,19 +2441,19 @@
       </c>
       <c r="F64" s="13">
         <f t="shared" si="10"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G64" s="8">
         <f t="shared" si="11"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H64" s="8">
         <f t="shared" si="12"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I64" s="15">
         <f t="shared" si="13"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="65" spans="3:9" x14ac:dyDescent="0.25">
@@ -2411,19 +2465,19 @@
       </c>
       <c r="F65" s="13">
         <f t="shared" si="10"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G65" s="8">
         <f t="shared" si="11"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H65" s="8">
         <f t="shared" si="12"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I65" s="15">
         <f t="shared" si="13"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="66" spans="3:9" x14ac:dyDescent="0.25">
@@ -2435,19 +2489,19 @@
       </c>
       <c r="F66" s="13">
         <f t="shared" si="10"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G66" s="8">
         <f t="shared" si="11"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H66" s="8">
         <f t="shared" si="12"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I66" s="15">
         <f t="shared" si="13"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="67" spans="3:9" x14ac:dyDescent="0.25">
@@ -2459,19 +2513,19 @@
       </c>
       <c r="F67" s="13">
         <f t="shared" si="10"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G67" s="8">
         <f t="shared" si="11"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H67" s="8">
         <f t="shared" si="12"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I67" s="15">
         <f t="shared" si="13"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="68" spans="3:9" x14ac:dyDescent="0.25">
@@ -2483,19 +2537,19 @@
       </c>
       <c r="F68" s="13">
         <f t="shared" si="10"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G68" s="8">
         <f t="shared" si="11"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H68" s="8">
         <f t="shared" si="12"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I68" s="15">
         <f t="shared" si="13"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="69" spans="3:9" x14ac:dyDescent="0.25">
@@ -2507,19 +2561,19 @@
       </c>
       <c r="F69" s="13">
         <f t="shared" si="10"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G69" s="8">
         <f t="shared" si="11"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H69" s="8">
         <f t="shared" si="12"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I69" s="15">
         <f t="shared" si="13"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="70" spans="3:9" x14ac:dyDescent="0.25">
@@ -2531,19 +2585,19 @@
       </c>
       <c r="F70" s="13">
         <f t="shared" si="10"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G70" s="8">
         <f t="shared" si="11"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H70" s="8">
         <f t="shared" si="12"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I70" s="15">
         <f t="shared" si="13"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="71" spans="3:9" x14ac:dyDescent="0.25">
@@ -2555,19 +2609,19 @@
       </c>
       <c r="F71" s="13">
         <f t="shared" si="10"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G71" s="8">
         <f t="shared" si="11"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H71" s="8">
         <f t="shared" si="12"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I71" s="15">
         <f t="shared" si="13"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="72" spans="3:9" x14ac:dyDescent="0.25">
@@ -2579,19 +2633,19 @@
       </c>
       <c r="F72" s="13">
         <f t="shared" si="10"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G72" s="8">
         <f t="shared" si="11"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H72" s="8">
         <f t="shared" si="12"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I72" s="15">
         <f t="shared" si="13"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="73" spans="3:9" x14ac:dyDescent="0.25">
@@ -2603,19 +2657,19 @@
       </c>
       <c r="F73" s="13">
         <f t="shared" si="10"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G73" s="8">
         <f t="shared" si="11"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H73" s="8">
         <f t="shared" si="12"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I73" s="15">
         <f t="shared" si="13"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="74" spans="3:9" x14ac:dyDescent="0.25">
@@ -2627,19 +2681,19 @@
       </c>
       <c r="F74" s="13">
         <f t="shared" si="10"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G74" s="8">
         <f t="shared" si="11"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H74" s="8">
         <f t="shared" si="12"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I74" s="15">
         <f t="shared" si="13"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="75" spans="3:9" x14ac:dyDescent="0.25">
@@ -2651,19 +2705,19 @@
       </c>
       <c r="F75" s="13">
         <f t="shared" si="10"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G75" s="8">
         <f t="shared" si="11"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H75" s="8">
         <f t="shared" si="12"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I75" s="15">
         <f t="shared" si="13"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="76" spans="3:9" x14ac:dyDescent="0.25">
@@ -2675,19 +2729,19 @@
       </c>
       <c r="F76" s="13">
         <f t="shared" si="10"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G76" s="8">
         <f t="shared" si="11"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H76" s="8">
         <f t="shared" si="12"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I76" s="15">
         <f t="shared" si="13"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="77" spans="3:9" x14ac:dyDescent="0.25">
@@ -2699,19 +2753,19 @@
       </c>
       <c r="F77" s="13">
         <f t="shared" si="10"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G77" s="8">
         <f t="shared" si="11"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H77" s="8">
         <f t="shared" si="12"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I77" s="15">
         <f t="shared" si="13"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="78" spans="3:9" x14ac:dyDescent="0.25">
@@ -2723,19 +2777,19 @@
       </c>
       <c r="F78" s="13">
         <f t="shared" si="10"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G78" s="8">
         <f t="shared" si="11"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H78" s="8">
         <f t="shared" si="12"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I78" s="15">
         <f t="shared" si="13"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="79" spans="3:9" x14ac:dyDescent="0.25">
@@ -2747,19 +2801,19 @@
       </c>
       <c r="F79" s="13">
         <f t="shared" si="10"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G79" s="8">
         <f t="shared" si="11"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H79" s="8">
         <f t="shared" si="12"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I79" s="15">
         <f t="shared" si="13"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="80" spans="3:9" x14ac:dyDescent="0.25">
@@ -2771,19 +2825,19 @@
       </c>
       <c r="F80" s="13">
         <f t="shared" si="10"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G80" s="8">
         <f t="shared" si="11"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H80" s="8">
         <f t="shared" si="12"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I80" s="15">
         <f t="shared" si="13"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="81" spans="3:9" x14ac:dyDescent="0.25">
@@ -2795,19 +2849,19 @@
       </c>
       <c r="F81" s="13">
         <f t="shared" si="10"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G81" s="8">
         <f t="shared" si="11"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H81" s="8">
         <f t="shared" si="12"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I81" s="15">
         <f t="shared" si="13"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="82" spans="3:9" x14ac:dyDescent="0.25">
@@ -2819,19 +2873,19 @@
       </c>
       <c r="F82" s="13">
         <f t="shared" si="10"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G82" s="8">
         <f t="shared" si="11"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H82" s="8">
         <f t="shared" si="12"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I82" s="15">
         <f t="shared" si="13"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="83" spans="3:9" x14ac:dyDescent="0.25">
@@ -2843,19 +2897,19 @@
       </c>
       <c r="F83" s="13">
         <f t="shared" si="10"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G83" s="8">
         <f t="shared" si="11"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H83" s="8">
         <f t="shared" si="12"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I83" s="15">
         <f t="shared" si="13"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="84" spans="3:9" x14ac:dyDescent="0.25">
@@ -2867,19 +2921,19 @@
       </c>
       <c r="F84" s="13">
         <f t="shared" si="10"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G84" s="8">
         <f t="shared" si="11"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H84" s="8">
         <f t="shared" si="12"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I84" s="15">
         <f t="shared" si="13"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="85" spans="3:9" x14ac:dyDescent="0.25">
@@ -2891,19 +2945,19 @@
       </c>
       <c r="F85" s="13">
         <f t="shared" si="10"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G85" s="8">
         <f t="shared" si="11"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H85" s="8">
         <f t="shared" si="12"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I85" s="15">
         <f t="shared" si="13"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="86" spans="3:9" x14ac:dyDescent="0.25">
@@ -2915,19 +2969,19 @@
       </c>
       <c r="F86" s="13">
         <f t="shared" si="10"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G86" s="8">
         <f t="shared" si="11"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H86" s="8">
         <f t="shared" si="12"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I86" s="15">
         <f t="shared" si="13"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="87" spans="3:9" x14ac:dyDescent="0.25">
@@ -2939,19 +2993,19 @@
       </c>
       <c r="F87" s="13">
         <f t="shared" si="10"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G87" s="8">
         <f t="shared" si="11"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H87" s="8">
         <f t="shared" si="12"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I87" s="15">
         <f t="shared" si="13"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="88" spans="3:9" x14ac:dyDescent="0.25">
@@ -2963,19 +3017,19 @@
       </c>
       <c r="F88" s="13">
         <f t="shared" si="10"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G88" s="8">
         <f t="shared" si="11"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H88" s="8">
         <f t="shared" si="12"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I88" s="15">
         <f t="shared" si="13"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="89" spans="3:9" x14ac:dyDescent="0.25">
@@ -2987,19 +3041,19 @@
       </c>
       <c r="F89" s="13">
         <f t="shared" si="10"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G89" s="8">
         <f t="shared" si="11"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H89" s="8">
         <f t="shared" si="12"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I89" s="15">
         <f t="shared" si="13"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="90" spans="3:9" x14ac:dyDescent="0.25">
@@ -3011,19 +3065,19 @@
       </c>
       <c r="F90" s="13">
         <f t="shared" si="10"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G90" s="8">
         <f t="shared" si="11"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H90" s="8">
         <f t="shared" si="12"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I90" s="15">
         <f t="shared" si="13"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="91" spans="3:9" x14ac:dyDescent="0.25">
@@ -3035,19 +3089,19 @@
       </c>
       <c r="F91" s="13">
         <f t="shared" si="10"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G91" s="8">
         <f t="shared" si="11"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H91" s="8">
         <f t="shared" si="12"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I91" s="15">
         <f t="shared" si="13"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="92" spans="3:9" x14ac:dyDescent="0.25">
@@ -3059,19 +3113,19 @@
       </c>
       <c r="F92" s="13">
         <f t="shared" si="10"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G92" s="8">
         <f t="shared" si="11"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H92" s="8">
         <f t="shared" si="12"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I92" s="15">
         <f t="shared" si="13"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="93" spans="3:9" x14ac:dyDescent="0.25">
@@ -3083,19 +3137,19 @@
       </c>
       <c r="F93" s="13">
         <f t="shared" si="10"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G93" s="8">
         <f t="shared" si="11"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H93" s="8">
         <f t="shared" si="12"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I93" s="15">
         <f t="shared" si="13"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="94" spans="3:9" x14ac:dyDescent="0.25">
@@ -3107,19 +3161,19 @@
       </c>
       <c r="F94" s="13">
         <f t="shared" si="10"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G94" s="8">
         <f t="shared" si="11"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H94" s="8">
         <f t="shared" si="12"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I94" s="15">
         <f t="shared" si="13"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="95" spans="3:9" x14ac:dyDescent="0.25">
@@ -3131,19 +3185,19 @@
       </c>
       <c r="F95" s="13">
         <f t="shared" si="10"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G95" s="8">
         <f t="shared" si="11"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H95" s="8">
         <f t="shared" si="12"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I95" s="15">
         <f t="shared" si="13"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="96" spans="3:9" x14ac:dyDescent="0.25">
@@ -3155,19 +3209,19 @@
       </c>
       <c r="F96" s="13">
         <f t="shared" si="10"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G96" s="8">
         <f t="shared" si="11"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H96" s="8">
         <f t="shared" si="12"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I96" s="15">
         <f t="shared" si="13"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="97" spans="3:9" x14ac:dyDescent="0.25">
@@ -3179,19 +3233,19 @@
       </c>
       <c r="F97" s="13">
         <f t="shared" si="10"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G97" s="8">
         <f t="shared" si="11"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H97" s="8">
         <f t="shared" si="12"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I97" s="15">
         <f t="shared" si="13"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="98" spans="3:9" x14ac:dyDescent="0.25">
@@ -3203,19 +3257,19 @@
       </c>
       <c r="F98" s="13">
         <f t="shared" si="10"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G98" s="8">
         <f t="shared" si="11"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H98" s="8">
         <f t="shared" si="12"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I98" s="15">
         <f t="shared" si="13"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="99" spans="3:9" x14ac:dyDescent="0.25">
@@ -3227,19 +3281,19 @@
       </c>
       <c r="F99" s="13">
         <f t="shared" si="10"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G99" s="8">
         <f t="shared" si="11"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H99" s="8">
         <f t="shared" si="12"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I99" s="15">
         <f t="shared" si="13"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="100" spans="3:9" x14ac:dyDescent="0.25">
@@ -3251,19 +3305,19 @@
       </c>
       <c r="F100" s="13">
         <f t="shared" si="10"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G100" s="8">
         <f t="shared" si="11"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H100" s="8">
         <f t="shared" si="12"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I100" s="15">
         <f t="shared" si="13"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="101" spans="3:9" x14ac:dyDescent="0.25">
@@ -3275,19 +3329,19 @@
       </c>
       <c r="F101" s="13">
         <f t="shared" si="10"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G101" s="8">
         <f t="shared" si="11"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H101" s="8">
         <f t="shared" si="12"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I101" s="15">
         <f t="shared" si="13"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="102" spans="3:9" x14ac:dyDescent="0.25">
@@ -3299,19 +3353,19 @@
       </c>
       <c r="F102" s="13">
         <f t="shared" si="10"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G102" s="8">
         <f t="shared" si="11"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H102" s="8">
         <f t="shared" si="12"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I102" s="15">
         <f t="shared" si="13"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="103" spans="3:9" x14ac:dyDescent="0.25">
@@ -3323,19 +3377,19 @@
       </c>
       <c r="F103" s="13">
         <f t="shared" si="10"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G103" s="8">
         <f t="shared" si="11"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H103" s="8">
         <f t="shared" si="12"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I103" s="15">
         <f t="shared" si="13"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="104" spans="3:9" x14ac:dyDescent="0.25">
@@ -3347,19 +3401,19 @@
       </c>
       <c r="F104" s="13">
         <f t="shared" ref="F104:F167" si="15">F103+E104</f>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G104" s="8">
         <f t="shared" ref="G104:G167" si="16">F104</f>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H104" s="8">
         <f t="shared" ref="H104:H167" si="17">(H103+G104-G103)</f>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I104" s="15">
         <f t="shared" ref="I104:I167" si="18">H104*24*$J$2</f>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="105" spans="3:9" x14ac:dyDescent="0.25">
@@ -3371,19 +3425,19 @@
       </c>
       <c r="F105" s="13">
         <f t="shared" si="15"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G105" s="8">
         <f t="shared" si="16"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H105" s="8">
         <f t="shared" si="17"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I105" s="15">
         <f t="shared" si="18"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="106" spans="3:9" x14ac:dyDescent="0.25">
@@ -3395,19 +3449,19 @@
       </c>
       <c r="F106" s="13">
         <f t="shared" si="15"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G106" s="8">
         <f t="shared" si="16"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H106" s="8">
         <f t="shared" si="17"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I106" s="15">
         <f t="shared" si="18"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="107" spans="3:9" x14ac:dyDescent="0.25">
@@ -3419,19 +3473,19 @@
       </c>
       <c r="F107" s="13">
         <f t="shared" si="15"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G107" s="8">
         <f t="shared" si="16"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H107" s="8">
         <f t="shared" si="17"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I107" s="15">
         <f t="shared" si="18"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="108" spans="3:9" x14ac:dyDescent="0.25">
@@ -3443,19 +3497,19 @@
       </c>
       <c r="F108" s="13">
         <f t="shared" si="15"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G108" s="8">
         <f t="shared" si="16"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H108" s="8">
         <f t="shared" si="17"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I108" s="15">
         <f t="shared" si="18"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="109" spans="3:9" x14ac:dyDescent="0.25">
@@ -3467,19 +3521,19 @@
       </c>
       <c r="F109" s="13">
         <f t="shared" si="15"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G109" s="8">
         <f t="shared" si="16"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H109" s="8">
         <f t="shared" si="17"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I109" s="15">
         <f t="shared" si="18"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="110" spans="3:9" x14ac:dyDescent="0.25">
@@ -3491,19 +3545,19 @@
       </c>
       <c r="F110" s="13">
         <f t="shared" si="15"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G110" s="8">
         <f t="shared" si="16"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H110" s="8">
         <f t="shared" si="17"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I110" s="15">
         <f t="shared" si="18"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="111" spans="3:9" x14ac:dyDescent="0.25">
@@ -3515,19 +3569,19 @@
       </c>
       <c r="F111" s="13">
         <f t="shared" si="15"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G111" s="8">
         <f t="shared" si="16"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H111" s="8">
         <f t="shared" si="17"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I111" s="15">
         <f t="shared" si="18"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="112" spans="3:9" x14ac:dyDescent="0.25">
@@ -3539,19 +3593,19 @@
       </c>
       <c r="F112" s="13">
         <f t="shared" si="15"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G112" s="8">
         <f t="shared" si="16"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H112" s="8">
         <f t="shared" si="17"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I112" s="15">
         <f t="shared" si="18"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="113" spans="3:9" x14ac:dyDescent="0.25">
@@ -3563,19 +3617,19 @@
       </c>
       <c r="F113" s="13">
         <f t="shared" si="15"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G113" s="8">
         <f t="shared" si="16"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H113" s="8">
         <f t="shared" si="17"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I113" s="15">
         <f t="shared" si="18"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="114" spans="3:9" x14ac:dyDescent="0.25">
@@ -3587,19 +3641,19 @@
       </c>
       <c r="F114" s="13">
         <f t="shared" si="15"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G114" s="8">
         <f t="shared" si="16"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H114" s="8">
         <f t="shared" si="17"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I114" s="15">
         <f t="shared" si="18"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="115" spans="3:9" x14ac:dyDescent="0.25">
@@ -3611,19 +3665,19 @@
       </c>
       <c r="F115" s="13">
         <f t="shared" si="15"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G115" s="8">
         <f t="shared" si="16"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H115" s="8">
         <f t="shared" si="17"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I115" s="15">
         <f t="shared" si="18"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="116" spans="3:9" x14ac:dyDescent="0.25">
@@ -3635,19 +3689,19 @@
       </c>
       <c r="F116" s="13">
         <f t="shared" si="15"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G116" s="8">
         <f t="shared" si="16"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H116" s="8">
         <f t="shared" si="17"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I116" s="15">
         <f t="shared" si="18"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="117" spans="3:9" x14ac:dyDescent="0.25">
@@ -3659,19 +3713,19 @@
       </c>
       <c r="F117" s="13">
         <f t="shared" si="15"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G117" s="8">
         <f t="shared" si="16"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H117" s="8">
         <f t="shared" si="17"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I117" s="15">
         <f t="shared" si="18"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="118" spans="3:9" x14ac:dyDescent="0.25">
@@ -3683,19 +3737,19 @@
       </c>
       <c r="F118" s="13">
         <f t="shared" si="15"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G118" s="8">
         <f t="shared" si="16"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H118" s="8">
         <f t="shared" si="17"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I118" s="15">
         <f t="shared" si="18"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="119" spans="3:9" x14ac:dyDescent="0.25">
@@ -3707,19 +3761,19 @@
       </c>
       <c r="F119" s="13">
         <f t="shared" si="15"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G119" s="8">
         <f t="shared" si="16"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H119" s="8">
         <f t="shared" si="17"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I119" s="15">
         <f t="shared" si="18"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="120" spans="3:9" x14ac:dyDescent="0.25">
@@ -3731,19 +3785,19 @@
       </c>
       <c r="F120" s="13">
         <f t="shared" si="15"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G120" s="8">
         <f t="shared" si="16"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H120" s="8">
         <f t="shared" si="17"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I120" s="15">
         <f t="shared" si="18"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="121" spans="3:9" x14ac:dyDescent="0.25">
@@ -3755,19 +3809,19 @@
       </c>
       <c r="F121" s="13">
         <f t="shared" si="15"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G121" s="8">
         <f t="shared" si="16"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H121" s="8">
         <f t="shared" si="17"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I121" s="15">
         <f t="shared" si="18"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="122" spans="3:9" x14ac:dyDescent="0.25">
@@ -3779,19 +3833,19 @@
       </c>
       <c r="F122" s="13">
         <f t="shared" si="15"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G122" s="8">
         <f t="shared" si="16"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H122" s="8">
         <f t="shared" si="17"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I122" s="15">
         <f t="shared" si="18"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="123" spans="3:9" x14ac:dyDescent="0.25">
@@ -3803,19 +3857,19 @@
       </c>
       <c r="F123" s="13">
         <f t="shared" si="15"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G123" s="8">
         <f t="shared" si="16"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H123" s="8">
         <f t="shared" si="17"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I123" s="15">
         <f t="shared" si="18"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="124" spans="3:9" x14ac:dyDescent="0.25">
@@ -3827,19 +3881,19 @@
       </c>
       <c r="F124" s="13">
         <f t="shared" si="15"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G124" s="8">
         <f t="shared" si="16"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H124" s="8">
         <f t="shared" si="17"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I124" s="15">
         <f t="shared" si="18"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="125" spans="3:9" x14ac:dyDescent="0.25">
@@ -3851,19 +3905,19 @@
       </c>
       <c r="F125" s="13">
         <f t="shared" si="15"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G125" s="8">
         <f t="shared" si="16"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H125" s="8">
         <f t="shared" si="17"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I125" s="15">
         <f t="shared" si="18"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="126" spans="3:9" x14ac:dyDescent="0.25">
@@ -3875,19 +3929,19 @@
       </c>
       <c r="F126" s="13">
         <f t="shared" si="15"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G126" s="8">
         <f t="shared" si="16"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H126" s="8">
         <f t="shared" si="17"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I126" s="15">
         <f t="shared" si="18"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="127" spans="3:9" x14ac:dyDescent="0.25">
@@ -3899,19 +3953,19 @@
       </c>
       <c r="F127" s="13">
         <f t="shared" si="15"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G127" s="8">
         <f t="shared" si="16"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H127" s="8">
         <f t="shared" si="17"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I127" s="15">
         <f t="shared" si="18"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="128" spans="3:9" x14ac:dyDescent="0.25">
@@ -3923,19 +3977,19 @@
       </c>
       <c r="F128" s="13">
         <f t="shared" si="15"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G128" s="8">
         <f t="shared" si="16"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H128" s="8">
         <f t="shared" si="17"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I128" s="15">
         <f t="shared" si="18"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="129" spans="3:9" x14ac:dyDescent="0.25">
@@ -3947,19 +4001,19 @@
       </c>
       <c r="F129" s="13">
         <f t="shared" si="15"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G129" s="8">
         <f t="shared" si="16"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H129" s="8">
         <f t="shared" si="17"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I129" s="15">
         <f t="shared" si="18"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="130" spans="3:9" x14ac:dyDescent="0.25">
@@ -3971,19 +4025,19 @@
       </c>
       <c r="F130" s="13">
         <f t="shared" si="15"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G130" s="8">
         <f t="shared" si="16"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H130" s="8">
         <f t="shared" si="17"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I130" s="15">
         <f t="shared" si="18"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="131" spans="3:9" x14ac:dyDescent="0.25">
@@ -3995,19 +4049,19 @@
       </c>
       <c r="F131" s="13">
         <f t="shared" si="15"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G131" s="8">
         <f t="shared" si="16"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H131" s="8">
         <f t="shared" si="17"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I131" s="15">
         <f t="shared" si="18"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="132" spans="3:9" x14ac:dyDescent="0.25">
@@ -4019,19 +4073,19 @@
       </c>
       <c r="F132" s="13">
         <f t="shared" si="15"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G132" s="8">
         <f t="shared" si="16"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H132" s="8">
         <f t="shared" si="17"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I132" s="15">
         <f t="shared" si="18"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="133" spans="3:9" x14ac:dyDescent="0.25">
@@ -4043,19 +4097,19 @@
       </c>
       <c r="F133" s="13">
         <f t="shared" si="15"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G133" s="8">
         <f t="shared" si="16"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H133" s="8">
         <f t="shared" si="17"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I133" s="15">
         <f t="shared" si="18"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="134" spans="3:9" x14ac:dyDescent="0.25">
@@ -4067,19 +4121,19 @@
       </c>
       <c r="F134" s="13">
         <f t="shared" si="15"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G134" s="8">
         <f t="shared" si="16"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H134" s="8">
         <f t="shared" si="17"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I134" s="15">
         <f t="shared" si="18"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="135" spans="3:9" x14ac:dyDescent="0.25">
@@ -4091,19 +4145,19 @@
       </c>
       <c r="F135" s="13">
         <f t="shared" si="15"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G135" s="8">
         <f t="shared" si="16"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H135" s="8">
         <f t="shared" si="17"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I135" s="15">
         <f t="shared" si="18"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="136" spans="3:9" x14ac:dyDescent="0.25">
@@ -4115,19 +4169,19 @@
       </c>
       <c r="F136" s="13">
         <f t="shared" si="15"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G136" s="8">
         <f t="shared" si="16"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H136" s="8">
         <f t="shared" si="17"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I136" s="15">
         <f t="shared" si="18"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="137" spans="3:9" x14ac:dyDescent="0.25">
@@ -4139,19 +4193,19 @@
       </c>
       <c r="F137" s="13">
         <f t="shared" si="15"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G137" s="8">
         <f t="shared" si="16"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H137" s="8">
         <f t="shared" si="17"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I137" s="15">
         <f t="shared" si="18"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="138" spans="3:9" x14ac:dyDescent="0.25">
@@ -4163,19 +4217,19 @@
       </c>
       <c r="F138" s="13">
         <f t="shared" si="15"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G138" s="8">
         <f t="shared" si="16"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H138" s="8">
         <f t="shared" si="17"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I138" s="15">
         <f t="shared" si="18"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="139" spans="3:9" x14ac:dyDescent="0.25">
@@ -4187,19 +4241,19 @@
       </c>
       <c r="F139" s="13">
         <f t="shared" si="15"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G139" s="8">
         <f t="shared" si="16"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H139" s="8">
         <f t="shared" si="17"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I139" s="15">
         <f t="shared" si="18"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="140" spans="3:9" x14ac:dyDescent="0.25">
@@ -4211,19 +4265,19 @@
       </c>
       <c r="F140" s="13">
         <f t="shared" si="15"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G140" s="8">
         <f t="shared" si="16"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H140" s="8">
         <f t="shared" si="17"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I140" s="15">
         <f t="shared" si="18"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="141" spans="3:9" x14ac:dyDescent="0.25">
@@ -4235,19 +4289,19 @@
       </c>
       <c r="F141" s="13">
         <f t="shared" si="15"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G141" s="8">
         <f t="shared" si="16"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H141" s="8">
         <f t="shared" si="17"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I141" s="15">
         <f t="shared" si="18"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="142" spans="3:9" x14ac:dyDescent="0.25">
@@ -4259,19 +4313,19 @@
       </c>
       <c r="F142" s="13">
         <f t="shared" si="15"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G142" s="8">
         <f t="shared" si="16"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H142" s="8">
         <f t="shared" si="17"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I142" s="15">
         <f t="shared" si="18"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="143" spans="3:9" x14ac:dyDescent="0.25">
@@ -4283,19 +4337,19 @@
       </c>
       <c r="F143" s="13">
         <f t="shared" si="15"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G143" s="8">
         <f t="shared" si="16"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H143" s="8">
         <f t="shared" si="17"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I143" s="15">
         <f t="shared" si="18"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="144" spans="3:9" x14ac:dyDescent="0.25">
@@ -4307,19 +4361,19 @@
       </c>
       <c r="F144" s="13">
         <f t="shared" si="15"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G144" s="8">
         <f t="shared" si="16"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H144" s="8">
         <f t="shared" si="17"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I144" s="15">
         <f t="shared" si="18"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="145" spans="3:9" x14ac:dyDescent="0.25">
@@ -4331,19 +4385,19 @@
       </c>
       <c r="F145" s="13">
         <f t="shared" si="15"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G145" s="8">
         <f t="shared" si="16"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H145" s="8">
         <f t="shared" si="17"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I145" s="15">
         <f t="shared" si="18"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="146" spans="3:9" x14ac:dyDescent="0.25">
@@ -4355,19 +4409,19 @@
       </c>
       <c r="F146" s="13">
         <f t="shared" si="15"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G146" s="8">
         <f t="shared" si="16"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H146" s="8">
         <f t="shared" si="17"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I146" s="15">
         <f t="shared" si="18"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="147" spans="3:9" x14ac:dyDescent="0.25">
@@ -4379,19 +4433,19 @@
       </c>
       <c r="F147" s="13">
         <f t="shared" si="15"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G147" s="8">
         <f t="shared" si="16"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H147" s="8">
         <f t="shared" si="17"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I147" s="15">
         <f t="shared" si="18"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="148" spans="3:9" x14ac:dyDescent="0.25">
@@ -4403,19 +4457,19 @@
       </c>
       <c r="F148" s="13">
         <f t="shared" si="15"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G148" s="8">
         <f t="shared" si="16"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H148" s="8">
         <f t="shared" si="17"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I148" s="15">
         <f t="shared" si="18"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="149" spans="3:9" x14ac:dyDescent="0.25">
@@ -4427,19 +4481,19 @@
       </c>
       <c r="F149" s="13">
         <f t="shared" si="15"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G149" s="8">
         <f t="shared" si="16"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H149" s="8">
         <f t="shared" si="17"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I149" s="15">
         <f t="shared" si="18"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="150" spans="3:9" x14ac:dyDescent="0.25">
@@ -4451,19 +4505,19 @@
       </c>
       <c r="F150" s="13">
         <f t="shared" si="15"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G150" s="8">
         <f t="shared" si="16"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H150" s="8">
         <f t="shared" si="17"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I150" s="15">
         <f t="shared" si="18"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="151" spans="3:9" x14ac:dyDescent="0.25">
@@ -4475,19 +4529,19 @@
       </c>
       <c r="F151" s="13">
         <f t="shared" si="15"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G151" s="8">
         <f t="shared" si="16"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H151" s="8">
         <f t="shared" si="17"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I151" s="15">
         <f t="shared" si="18"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="152" spans="3:9" x14ac:dyDescent="0.25">
@@ -4499,19 +4553,19 @@
       </c>
       <c r="F152" s="13">
         <f t="shared" si="15"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G152" s="8">
         <f t="shared" si="16"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H152" s="8">
         <f t="shared" si="17"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I152" s="15">
         <f t="shared" si="18"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="153" spans="3:9" x14ac:dyDescent="0.25">
@@ -4523,19 +4577,19 @@
       </c>
       <c r="F153" s="13">
         <f t="shared" si="15"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G153" s="8">
         <f t="shared" si="16"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H153" s="8">
         <f t="shared" si="17"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I153" s="15">
         <f t="shared" si="18"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="154" spans="3:9" x14ac:dyDescent="0.25">
@@ -4547,19 +4601,19 @@
       </c>
       <c r="F154" s="13">
         <f t="shared" si="15"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G154" s="8">
         <f t="shared" si="16"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H154" s="8">
         <f t="shared" si="17"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I154" s="15">
         <f t="shared" si="18"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="155" spans="3:9" x14ac:dyDescent="0.25">
@@ -4571,19 +4625,19 @@
       </c>
       <c r="F155" s="13">
         <f t="shared" si="15"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G155" s="8">
         <f t="shared" si="16"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H155" s="8">
         <f t="shared" si="17"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I155" s="15">
         <f t="shared" si="18"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="156" spans="3:9" x14ac:dyDescent="0.25">
@@ -4595,19 +4649,19 @@
       </c>
       <c r="F156" s="13">
         <f t="shared" si="15"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G156" s="8">
         <f t="shared" si="16"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H156" s="8">
         <f t="shared" si="17"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I156" s="15">
         <f t="shared" si="18"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="157" spans="3:9" x14ac:dyDescent="0.25">
@@ -4619,19 +4673,19 @@
       </c>
       <c r="F157" s="13">
         <f t="shared" si="15"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G157" s="8">
         <f t="shared" si="16"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H157" s="8">
         <f t="shared" si="17"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I157" s="15">
         <f t="shared" si="18"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="158" spans="3:9" x14ac:dyDescent="0.25">
@@ -4643,19 +4697,19 @@
       </c>
       <c r="F158" s="13">
         <f t="shared" si="15"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G158" s="8">
         <f t="shared" si="16"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H158" s="8">
         <f t="shared" si="17"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I158" s="15">
         <f t="shared" si="18"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="159" spans="3:9" x14ac:dyDescent="0.25">
@@ -4667,19 +4721,19 @@
       </c>
       <c r="F159" s="13">
         <f t="shared" si="15"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G159" s="8">
         <f t="shared" si="16"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H159" s="8">
         <f t="shared" si="17"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I159" s="15">
         <f t="shared" si="18"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="160" spans="3:9" x14ac:dyDescent="0.25">
@@ -4691,19 +4745,19 @@
       </c>
       <c r="F160" s="13">
         <f t="shared" si="15"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G160" s="8">
         <f t="shared" si="16"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H160" s="8">
         <f t="shared" si="17"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I160" s="15">
         <f t="shared" si="18"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="161" spans="3:9" x14ac:dyDescent="0.25">
@@ -4715,19 +4769,19 @@
       </c>
       <c r="F161" s="13">
         <f t="shared" si="15"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G161" s="8">
         <f t="shared" si="16"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H161" s="8">
         <f t="shared" si="17"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I161" s="15">
         <f t="shared" si="18"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="162" spans="3:9" x14ac:dyDescent="0.25">
@@ -4739,19 +4793,19 @@
       </c>
       <c r="F162" s="13">
         <f t="shared" si="15"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G162" s="8">
         <f t="shared" si="16"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H162" s="8">
         <f t="shared" si="17"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I162" s="15">
         <f t="shared" si="18"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="163" spans="3:9" x14ac:dyDescent="0.25">
@@ -4763,19 +4817,19 @@
       </c>
       <c r="F163" s="13">
         <f t="shared" si="15"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G163" s="8">
         <f t="shared" si="16"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H163" s="8">
         <f t="shared" si="17"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I163" s="15">
         <f t="shared" si="18"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="164" spans="3:9" x14ac:dyDescent="0.25">
@@ -4787,19 +4841,19 @@
       </c>
       <c r="F164" s="13">
         <f t="shared" si="15"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G164" s="8">
         <f t="shared" si="16"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H164" s="8">
         <f t="shared" si="17"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I164" s="15">
         <f t="shared" si="18"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="165" spans="3:9" x14ac:dyDescent="0.25">
@@ -4811,19 +4865,19 @@
       </c>
       <c r="F165" s="13">
         <f t="shared" si="15"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G165" s="8">
         <f t="shared" si="16"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H165" s="8">
         <f t="shared" si="17"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I165" s="15">
         <f t="shared" si="18"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="166" spans="3:9" x14ac:dyDescent="0.25">
@@ -4835,19 +4889,19 @@
       </c>
       <c r="F166" s="13">
         <f t="shared" si="15"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G166" s="8">
         <f t="shared" si="16"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H166" s="8">
         <f t="shared" si="17"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I166" s="15">
         <f t="shared" si="18"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="167" spans="3:9" x14ac:dyDescent="0.25">
@@ -4859,19 +4913,19 @@
       </c>
       <c r="F167" s="13">
         <f t="shared" si="15"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G167" s="8">
         <f t="shared" si="16"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H167" s="8">
         <f t="shared" si="17"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I167" s="15">
         <f t="shared" si="18"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="168" spans="3:9" x14ac:dyDescent="0.25">
@@ -4883,19 +4937,19 @@
       </c>
       <c r="F168" s="13">
         <f t="shared" ref="F168:F231" si="20">F167+E168</f>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G168" s="8">
         <f t="shared" ref="G168:G231" si="21">F168</f>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H168" s="8">
         <f t="shared" ref="H168:H231" si="22">(H167+G168-G167)</f>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I168" s="15">
         <f t="shared" ref="I168:I231" si="23">H168*24*$J$2</f>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="169" spans="3:9" x14ac:dyDescent="0.25">
@@ -4907,19 +4961,19 @@
       </c>
       <c r="F169" s="13">
         <f t="shared" si="20"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G169" s="8">
         <f t="shared" si="21"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H169" s="8">
         <f t="shared" si="22"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I169" s="15">
         <f t="shared" si="23"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="170" spans="3:9" x14ac:dyDescent="0.25">
@@ -4931,19 +4985,19 @@
       </c>
       <c r="F170" s="13">
         <f t="shared" si="20"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G170" s="8">
         <f t="shared" si="21"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H170" s="8">
         <f t="shared" si="22"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I170" s="15">
         <f t="shared" si="23"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="171" spans="3:9" x14ac:dyDescent="0.25">
@@ -4955,19 +5009,19 @@
       </c>
       <c r="F171" s="13">
         <f t="shared" si="20"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G171" s="8">
         <f t="shared" si="21"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H171" s="8">
         <f t="shared" si="22"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I171" s="15">
         <f t="shared" si="23"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="172" spans="3:9" x14ac:dyDescent="0.25">
@@ -4979,19 +5033,19 @@
       </c>
       <c r="F172" s="13">
         <f t="shared" si="20"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G172" s="8">
         <f t="shared" si="21"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H172" s="8">
         <f t="shared" si="22"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I172" s="15">
         <f t="shared" si="23"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="173" spans="3:9" x14ac:dyDescent="0.25">
@@ -5003,19 +5057,19 @@
       </c>
       <c r="F173" s="13">
         <f t="shared" si="20"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G173" s="8">
         <f t="shared" si="21"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H173" s="8">
         <f t="shared" si="22"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I173" s="15">
         <f t="shared" si="23"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="174" spans="3:9" x14ac:dyDescent="0.25">
@@ -5027,19 +5081,19 @@
       </c>
       <c r="F174" s="13">
         <f t="shared" si="20"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G174" s="8">
         <f t="shared" si="21"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H174" s="8">
         <f t="shared" si="22"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I174" s="15">
         <f t="shared" si="23"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="175" spans="3:9" x14ac:dyDescent="0.25">
@@ -5051,19 +5105,19 @@
       </c>
       <c r="F175" s="13">
         <f t="shared" si="20"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G175" s="8">
         <f t="shared" si="21"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H175" s="8">
         <f t="shared" si="22"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I175" s="15">
         <f t="shared" si="23"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="176" spans="3:9" x14ac:dyDescent="0.25">
@@ -5075,19 +5129,19 @@
       </c>
       <c r="F176" s="13">
         <f t="shared" si="20"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G176" s="8">
         <f t="shared" si="21"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H176" s="8">
         <f t="shared" si="22"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I176" s="15">
         <f t="shared" si="23"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="177" spans="3:9" x14ac:dyDescent="0.25">
@@ -5099,19 +5153,19 @@
       </c>
       <c r="F177" s="13">
         <f t="shared" si="20"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G177" s="8">
         <f t="shared" si="21"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H177" s="8">
         <f t="shared" si="22"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I177" s="15">
         <f t="shared" si="23"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="178" spans="3:9" x14ac:dyDescent="0.25">
@@ -5123,19 +5177,19 @@
       </c>
       <c r="F178" s="13">
         <f t="shared" si="20"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G178" s="8">
         <f t="shared" si="21"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H178" s="8">
         <f t="shared" si="22"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I178" s="15">
         <f t="shared" si="23"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="179" spans="3:9" x14ac:dyDescent="0.25">
@@ -5147,19 +5201,19 @@
       </c>
       <c r="F179" s="13">
         <f t="shared" si="20"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G179" s="8">
         <f t="shared" si="21"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H179" s="8">
         <f t="shared" si="22"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I179" s="15">
         <f t="shared" si="23"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="180" spans="3:9" x14ac:dyDescent="0.25">
@@ -5171,19 +5225,19 @@
       </c>
       <c r="F180" s="13">
         <f t="shared" si="20"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G180" s="8">
         <f t="shared" si="21"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H180" s="8">
         <f t="shared" si="22"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I180" s="15">
         <f t="shared" si="23"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="181" spans="3:9" x14ac:dyDescent="0.25">
@@ -5195,19 +5249,19 @@
       </c>
       <c r="F181" s="13">
         <f t="shared" si="20"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G181" s="8">
         <f t="shared" si="21"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H181" s="8">
         <f t="shared" si="22"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I181" s="15">
         <f t="shared" si="23"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="182" spans="3:9" x14ac:dyDescent="0.25">
@@ -5219,19 +5273,19 @@
       </c>
       <c r="F182" s="13">
         <f t="shared" si="20"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G182" s="8">
         <f t="shared" si="21"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H182" s="8">
         <f t="shared" si="22"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I182" s="15">
         <f t="shared" si="23"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="183" spans="3:9" x14ac:dyDescent="0.25">
@@ -5243,19 +5297,19 @@
       </c>
       <c r="F183" s="13">
         <f t="shared" si="20"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G183" s="8">
         <f t="shared" si="21"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H183" s="8">
         <f t="shared" si="22"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I183" s="15">
         <f t="shared" si="23"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="184" spans="3:9" x14ac:dyDescent="0.25">
@@ -5267,19 +5321,19 @@
       </c>
       <c r="F184" s="13">
         <f t="shared" si="20"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G184" s="8">
         <f t="shared" si="21"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H184" s="8">
         <f t="shared" si="22"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I184" s="15">
         <f t="shared" si="23"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="185" spans="3:9" x14ac:dyDescent="0.25">
@@ -5291,19 +5345,19 @@
       </c>
       <c r="F185" s="13">
         <f t="shared" si="20"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G185" s="8">
         <f t="shared" si="21"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H185" s="8">
         <f t="shared" si="22"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I185" s="15">
         <f t="shared" si="23"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="186" spans="3:9" x14ac:dyDescent="0.25">
@@ -5315,19 +5369,19 @@
       </c>
       <c r="F186" s="13">
         <f t="shared" si="20"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G186" s="8">
         <f t="shared" si="21"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H186" s="8">
         <f t="shared" si="22"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I186" s="15">
         <f t="shared" si="23"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="187" spans="3:9" x14ac:dyDescent="0.25">
@@ -5339,19 +5393,19 @@
       </c>
       <c r="F187" s="13">
         <f t="shared" si="20"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G187" s="8">
         <f t="shared" si="21"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H187" s="8">
         <f t="shared" si="22"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I187" s="15">
         <f t="shared" si="23"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="188" spans="3:9" x14ac:dyDescent="0.25">
@@ -5363,19 +5417,19 @@
       </c>
       <c r="F188" s="13">
         <f t="shared" si="20"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G188" s="8">
         <f t="shared" si="21"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H188" s="8">
         <f t="shared" si="22"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I188" s="15">
         <f t="shared" si="23"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="189" spans="3:9" x14ac:dyDescent="0.25">
@@ -5387,19 +5441,19 @@
       </c>
       <c r="F189" s="13">
         <f t="shared" si="20"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G189" s="8">
         <f t="shared" si="21"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H189" s="8">
         <f t="shared" si="22"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I189" s="15">
         <f t="shared" si="23"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="190" spans="3:9" x14ac:dyDescent="0.25">
@@ -5411,19 +5465,19 @@
       </c>
       <c r="F190" s="13">
         <f t="shared" si="20"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G190" s="8">
         <f t="shared" si="21"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H190" s="8">
         <f t="shared" si="22"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I190" s="15">
         <f t="shared" si="23"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="191" spans="3:9" x14ac:dyDescent="0.25">
@@ -5435,19 +5489,19 @@
       </c>
       <c r="F191" s="13">
         <f t="shared" si="20"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G191" s="8">
         <f t="shared" si="21"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H191" s="8">
         <f t="shared" si="22"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I191" s="15">
         <f t="shared" si="23"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="192" spans="3:9" x14ac:dyDescent="0.25">
@@ -5459,19 +5513,19 @@
       </c>
       <c r="F192" s="13">
         <f t="shared" si="20"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G192" s="8">
         <f t="shared" si="21"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H192" s="8">
         <f t="shared" si="22"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I192" s="15">
         <f t="shared" si="23"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="193" spans="3:9" x14ac:dyDescent="0.25">
@@ -5483,19 +5537,19 @@
       </c>
       <c r="F193" s="13">
         <f t="shared" si="20"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G193" s="8">
         <f t="shared" si="21"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H193" s="8">
         <f t="shared" si="22"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I193" s="15">
         <f t="shared" si="23"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="194" spans="3:9" x14ac:dyDescent="0.25">
@@ -5507,19 +5561,19 @@
       </c>
       <c r="F194" s="13">
         <f t="shared" si="20"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G194" s="8">
         <f t="shared" si="21"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H194" s="8">
         <f t="shared" si="22"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I194" s="15">
         <f t="shared" si="23"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="195" spans="3:9" x14ac:dyDescent="0.25">
@@ -5531,19 +5585,19 @@
       </c>
       <c r="F195" s="13">
         <f t="shared" si="20"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G195" s="8">
         <f t="shared" si="21"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H195" s="8">
         <f t="shared" si="22"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I195" s="15">
         <f t="shared" si="23"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="196" spans="3:9" x14ac:dyDescent="0.25">
@@ -5555,19 +5609,19 @@
       </c>
       <c r="F196" s="13">
         <f t="shared" si="20"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G196" s="8">
         <f t="shared" si="21"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H196" s="8">
         <f t="shared" si="22"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I196" s="15">
         <f t="shared" si="23"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="197" spans="3:9" x14ac:dyDescent="0.25">
@@ -5579,19 +5633,19 @@
       </c>
       <c r="F197" s="13">
         <f t="shared" si="20"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G197" s="8">
         <f t="shared" si="21"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H197" s="8">
         <f t="shared" si="22"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I197" s="15">
         <f t="shared" si="23"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="198" spans="3:9" x14ac:dyDescent="0.25">
@@ -5603,19 +5657,19 @@
       </c>
       <c r="F198" s="13">
         <f t="shared" si="20"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G198" s="8">
         <f t="shared" si="21"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H198" s="8">
         <f t="shared" si="22"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I198" s="15">
         <f t="shared" si="23"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="199" spans="3:9" x14ac:dyDescent="0.25">
@@ -5627,19 +5681,19 @@
       </c>
       <c r="F199" s="13">
         <f t="shared" si="20"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G199" s="8">
         <f t="shared" si="21"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H199" s="8">
         <f t="shared" si="22"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I199" s="15">
         <f t="shared" si="23"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="200" spans="3:9" x14ac:dyDescent="0.25">
@@ -5651,19 +5705,19 @@
       </c>
       <c r="F200" s="13">
         <f t="shared" si="20"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G200" s="8">
         <f t="shared" si="21"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H200" s="8">
         <f t="shared" si="22"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I200" s="15">
         <f t="shared" si="23"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="201" spans="3:9" x14ac:dyDescent="0.25">
@@ -5675,19 +5729,19 @@
       </c>
       <c r="F201" s="13">
         <f t="shared" si="20"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G201" s="8">
         <f t="shared" si="21"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H201" s="8">
         <f t="shared" si="22"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I201" s="15">
         <f t="shared" si="23"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="202" spans="3:9" x14ac:dyDescent="0.25">
@@ -5699,19 +5753,19 @@
       </c>
       <c r="F202" s="13">
         <f t="shared" si="20"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G202" s="8">
         <f t="shared" si="21"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H202" s="8">
         <f t="shared" si="22"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I202" s="15">
         <f t="shared" si="23"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="203" spans="3:9" x14ac:dyDescent="0.25">
@@ -5723,19 +5777,19 @@
       </c>
       <c r="F203" s="13">
         <f t="shared" si="20"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G203" s="8">
         <f t="shared" si="21"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H203" s="8">
         <f t="shared" si="22"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I203" s="15">
         <f t="shared" si="23"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="204" spans="3:9" x14ac:dyDescent="0.25">
@@ -5747,19 +5801,19 @@
       </c>
       <c r="F204" s="13">
         <f t="shared" si="20"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G204" s="8">
         <f t="shared" si="21"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H204" s="8">
         <f t="shared" si="22"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I204" s="15">
         <f t="shared" si="23"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="205" spans="3:9" x14ac:dyDescent="0.25">
@@ -5771,19 +5825,19 @@
       </c>
       <c r="F205" s="13">
         <f t="shared" si="20"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G205" s="8">
         <f t="shared" si="21"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H205" s="8">
         <f t="shared" si="22"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I205" s="15">
         <f t="shared" si="23"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="206" spans="3:9" x14ac:dyDescent="0.25">
@@ -5795,19 +5849,19 @@
       </c>
       <c r="F206" s="13">
         <f t="shared" si="20"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G206" s="8">
         <f t="shared" si="21"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H206" s="8">
         <f t="shared" si="22"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I206" s="15">
         <f t="shared" si="23"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="207" spans="3:9" x14ac:dyDescent="0.25">
@@ -5819,19 +5873,19 @@
       </c>
       <c r="F207" s="13">
         <f t="shared" si="20"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G207" s="8">
         <f t="shared" si="21"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H207" s="8">
         <f t="shared" si="22"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I207" s="15">
         <f t="shared" si="23"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="208" spans="3:9" x14ac:dyDescent="0.25">
@@ -5843,19 +5897,19 @@
       </c>
       <c r="F208" s="13">
         <f t="shared" si="20"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G208" s="8">
         <f t="shared" si="21"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H208" s="8">
         <f t="shared" si="22"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I208" s="15">
         <f t="shared" si="23"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="209" spans="3:9" x14ac:dyDescent="0.25">
@@ -5867,19 +5921,19 @@
       </c>
       <c r="F209" s="13">
         <f t="shared" si="20"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G209" s="8">
         <f t="shared" si="21"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H209" s="8">
         <f t="shared" si="22"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I209" s="15">
         <f t="shared" si="23"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="210" spans="3:9" x14ac:dyDescent="0.25">
@@ -5891,19 +5945,19 @@
       </c>
       <c r="F210" s="13">
         <f t="shared" si="20"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G210" s="8">
         <f t="shared" si="21"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H210" s="8">
         <f t="shared" si="22"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I210" s="15">
         <f t="shared" si="23"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="211" spans="3:9" x14ac:dyDescent="0.25">
@@ -5915,19 +5969,19 @@
       </c>
       <c r="F211" s="13">
         <f t="shared" si="20"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G211" s="8">
         <f t="shared" si="21"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H211" s="8">
         <f t="shared" si="22"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I211" s="15">
         <f t="shared" si="23"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="212" spans="3:9" x14ac:dyDescent="0.25">
@@ -5939,19 +5993,19 @@
       </c>
       <c r="F212" s="13">
         <f t="shared" si="20"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G212" s="8">
         <f t="shared" si="21"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H212" s="8">
         <f t="shared" si="22"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I212" s="15">
         <f t="shared" si="23"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="213" spans="3:9" x14ac:dyDescent="0.25">
@@ -5963,19 +6017,19 @@
       </c>
       <c r="F213" s="13">
         <f t="shared" si="20"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G213" s="8">
         <f t="shared" si="21"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H213" s="8">
         <f t="shared" si="22"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I213" s="15">
         <f t="shared" si="23"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="214" spans="3:9" x14ac:dyDescent="0.25">
@@ -5987,19 +6041,19 @@
       </c>
       <c r="F214" s="13">
         <f t="shared" si="20"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G214" s="8">
         <f t="shared" si="21"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H214" s="8">
         <f t="shared" si="22"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I214" s="15">
         <f t="shared" si="23"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="215" spans="3:9" x14ac:dyDescent="0.25">
@@ -6011,19 +6065,19 @@
       </c>
       <c r="F215" s="13">
         <f t="shared" si="20"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G215" s="8">
         <f t="shared" si="21"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H215" s="8">
         <f t="shared" si="22"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I215" s="15">
         <f t="shared" si="23"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="216" spans="3:9" x14ac:dyDescent="0.25">
@@ -6035,19 +6089,19 @@
       </c>
       <c r="F216" s="13">
         <f t="shared" si="20"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G216" s="8">
         <f t="shared" si="21"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H216" s="8">
         <f t="shared" si="22"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I216" s="15">
         <f t="shared" si="23"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="217" spans="3:9" x14ac:dyDescent="0.25">
@@ -6059,19 +6113,19 @@
       </c>
       <c r="F217" s="13">
         <f t="shared" si="20"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G217" s="8">
         <f t="shared" si="21"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H217" s="8">
         <f t="shared" si="22"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I217" s="15">
         <f t="shared" si="23"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="218" spans="3:9" x14ac:dyDescent="0.25">
@@ -6083,19 +6137,19 @@
       </c>
       <c r="F218" s="13">
         <f t="shared" si="20"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G218" s="8">
         <f t="shared" si="21"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H218" s="8">
         <f t="shared" si="22"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I218" s="15">
         <f t="shared" si="23"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="219" spans="3:9" x14ac:dyDescent="0.25">
@@ -6107,19 +6161,19 @@
       </c>
       <c r="F219" s="13">
         <f t="shared" si="20"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G219" s="8">
         <f t="shared" si="21"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H219" s="8">
         <f t="shared" si="22"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I219" s="15">
         <f t="shared" si="23"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="220" spans="3:9" x14ac:dyDescent="0.25">
@@ -6131,19 +6185,19 @@
       </c>
       <c r="F220" s="13">
         <f t="shared" si="20"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G220" s="8">
         <f t="shared" si="21"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H220" s="8">
         <f t="shared" si="22"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I220" s="15">
         <f t="shared" si="23"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="221" spans="3:9" x14ac:dyDescent="0.25">
@@ -6155,19 +6209,19 @@
       </c>
       <c r="F221" s="13">
         <f t="shared" si="20"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G221" s="8">
         <f t="shared" si="21"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H221" s="8">
         <f t="shared" si="22"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I221" s="15">
         <f t="shared" si="23"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="222" spans="3:9" x14ac:dyDescent="0.25">
@@ -6179,19 +6233,19 @@
       </c>
       <c r="F222" s="13">
         <f t="shared" si="20"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G222" s="8">
         <f t="shared" si="21"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H222" s="8">
         <f t="shared" si="22"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I222" s="15">
         <f t="shared" si="23"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="223" spans="3:9" x14ac:dyDescent="0.25">
@@ -6203,19 +6257,19 @@
       </c>
       <c r="F223" s="13">
         <f t="shared" si="20"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G223" s="8">
         <f t="shared" si="21"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H223" s="8">
         <f t="shared" si="22"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I223" s="15">
         <f t="shared" si="23"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="224" spans="3:9" x14ac:dyDescent="0.25">
@@ -6227,19 +6281,19 @@
       </c>
       <c r="F224" s="13">
         <f t="shared" si="20"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G224" s="8">
         <f t="shared" si="21"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H224" s="8">
         <f t="shared" si="22"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I224" s="15">
         <f t="shared" si="23"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="225" spans="3:9" x14ac:dyDescent="0.25">
@@ -6251,19 +6305,19 @@
       </c>
       <c r="F225" s="13">
         <f t="shared" si="20"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G225" s="8">
         <f t="shared" si="21"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H225" s="8">
         <f t="shared" si="22"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I225" s="15">
         <f t="shared" si="23"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="226" spans="3:9" x14ac:dyDescent="0.25">
@@ -6275,19 +6329,19 @@
       </c>
       <c r="F226" s="13">
         <f t="shared" si="20"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G226" s="8">
         <f t="shared" si="21"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H226" s="8">
         <f t="shared" si="22"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I226" s="15">
         <f t="shared" si="23"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="227" spans="3:9" x14ac:dyDescent="0.25">
@@ -6299,19 +6353,19 @@
       </c>
       <c r="F227" s="13">
         <f t="shared" si="20"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G227" s="8">
         <f t="shared" si="21"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H227" s="8">
         <f t="shared" si="22"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I227" s="15">
         <f t="shared" si="23"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="228" spans="3:9" x14ac:dyDescent="0.25">
@@ -6323,19 +6377,19 @@
       </c>
       <c r="F228" s="13">
         <f t="shared" si="20"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G228" s="8">
         <f t="shared" si="21"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H228" s="8">
         <f t="shared" si="22"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I228" s="15">
         <f t="shared" si="23"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="229" spans="3:9" x14ac:dyDescent="0.25">
@@ -6347,19 +6401,19 @@
       </c>
       <c r="F229" s="13">
         <f t="shared" si="20"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G229" s="8">
         <f t="shared" si="21"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H229" s="8">
         <f t="shared" si="22"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I229" s="15">
         <f t="shared" si="23"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="230" spans="3:9" x14ac:dyDescent="0.25">
@@ -6371,19 +6425,19 @@
       </c>
       <c r="F230" s="13">
         <f t="shared" si="20"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G230" s="8">
         <f t="shared" si="21"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H230" s="8">
         <f t="shared" si="22"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I230" s="15">
         <f t="shared" si="23"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="231" spans="3:9" x14ac:dyDescent="0.25">
@@ -6395,19 +6449,19 @@
       </c>
       <c r="F231" s="13">
         <f t="shared" si="20"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G231" s="8">
         <f t="shared" si="21"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H231" s="8">
         <f t="shared" si="22"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I231" s="15">
         <f t="shared" si="23"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="232" spans="3:9" x14ac:dyDescent="0.25">
@@ -6419,19 +6473,19 @@
       </c>
       <c r="F232" s="13">
         <f t="shared" ref="F232:F255" si="25">F231+E232</f>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G232" s="8">
         <f t="shared" ref="G232:G255" si="26">F232</f>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H232" s="8">
         <f t="shared" ref="H232:H255" si="27">(H231+G232-G231)</f>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I232" s="15">
         <f t="shared" ref="I232:I255" si="28">H232*24*$J$2</f>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="233" spans="3:9" x14ac:dyDescent="0.25">
@@ -6443,19 +6497,19 @@
       </c>
       <c r="F233" s="13">
         <f t="shared" si="25"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G233" s="8">
         <f t="shared" si="26"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H233" s="8">
         <f t="shared" si="27"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I233" s="15">
         <f t="shared" si="28"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="234" spans="3:9" x14ac:dyDescent="0.25">
@@ -6467,19 +6521,19 @@
       </c>
       <c r="F234" s="13">
         <f t="shared" si="25"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G234" s="8">
         <f t="shared" si="26"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H234" s="8">
         <f t="shared" si="27"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I234" s="15">
         <f t="shared" si="28"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="235" spans="3:9" x14ac:dyDescent="0.25">
@@ -6491,19 +6545,19 @@
       </c>
       <c r="F235" s="13">
         <f t="shared" si="25"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G235" s="8">
         <f t="shared" si="26"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H235" s="8">
         <f t="shared" si="27"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I235" s="15">
         <f t="shared" si="28"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="236" spans="3:9" x14ac:dyDescent="0.25">
@@ -6515,19 +6569,19 @@
       </c>
       <c r="F236" s="13">
         <f t="shared" si="25"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G236" s="8">
         <f t="shared" si="26"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H236" s="8">
         <f t="shared" si="27"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I236" s="15">
         <f t="shared" si="28"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="237" spans="3:9" x14ac:dyDescent="0.25">
@@ -6539,19 +6593,19 @@
       </c>
       <c r="F237" s="13">
         <f t="shared" si="25"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G237" s="8">
         <f t="shared" si="26"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H237" s="8">
         <f t="shared" si="27"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I237" s="15">
         <f t="shared" si="28"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="238" spans="3:9" x14ac:dyDescent="0.25">
@@ -6563,19 +6617,19 @@
       </c>
       <c r="F238" s="13">
         <f t="shared" si="25"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G238" s="8">
         <f t="shared" si="26"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H238" s="8">
         <f t="shared" si="27"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I238" s="15">
         <f t="shared" si="28"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="239" spans="3:9" x14ac:dyDescent="0.25">
@@ -6587,19 +6641,19 @@
       </c>
       <c r="F239" s="13">
         <f t="shared" si="25"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G239" s="8">
         <f t="shared" si="26"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H239" s="8">
         <f t="shared" si="27"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I239" s="15">
         <f t="shared" si="28"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="240" spans="3:9" x14ac:dyDescent="0.25">
@@ -6611,19 +6665,19 @@
       </c>
       <c r="F240" s="13">
         <f t="shared" si="25"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G240" s="8">
         <f t="shared" si="26"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H240" s="8">
         <f t="shared" si="27"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I240" s="15">
         <f t="shared" si="28"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="241" spans="3:9" x14ac:dyDescent="0.25">
@@ -6635,19 +6689,19 @@
       </c>
       <c r="F241" s="13">
         <f t="shared" si="25"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G241" s="8">
         <f t="shared" si="26"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H241" s="8">
         <f t="shared" si="27"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I241" s="15">
         <f t="shared" si="28"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="242" spans="3:9" x14ac:dyDescent="0.25">
@@ -6659,19 +6713,19 @@
       </c>
       <c r="F242" s="13">
         <f t="shared" si="25"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G242" s="8">
         <f t="shared" si="26"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H242" s="8">
         <f t="shared" si="27"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I242" s="15">
         <f t="shared" si="28"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="243" spans="3:9" x14ac:dyDescent="0.25">
@@ -6683,19 +6737,19 @@
       </c>
       <c r="F243" s="13">
         <f t="shared" si="25"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G243" s="8">
         <f t="shared" si="26"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H243" s="8">
         <f t="shared" si="27"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I243" s="15">
         <f t="shared" si="28"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="244" spans="3:9" x14ac:dyDescent="0.25">
@@ -6707,19 +6761,19 @@
       </c>
       <c r="F244" s="13">
         <f t="shared" si="25"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G244" s="8">
         <f t="shared" si="26"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H244" s="8">
         <f t="shared" si="27"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I244" s="15">
         <f t="shared" si="28"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="245" spans="3:9" x14ac:dyDescent="0.25">
@@ -6731,19 +6785,19 @@
       </c>
       <c r="F245" s="13">
         <f t="shared" si="25"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G245" s="8">
         <f t="shared" si="26"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H245" s="8">
         <f t="shared" si="27"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I245" s="15">
         <f t="shared" si="28"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="246" spans="3:9" x14ac:dyDescent="0.25">
@@ -6755,19 +6809,19 @@
       </c>
       <c r="F246" s="13">
         <f t="shared" si="25"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G246" s="8">
         <f t="shared" si="26"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H246" s="8">
         <f t="shared" si="27"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I246" s="15">
         <f t="shared" si="28"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="247" spans="3:9" x14ac:dyDescent="0.25">
@@ -6779,19 +6833,19 @@
       </c>
       <c r="F247" s="13">
         <f t="shared" si="25"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G247" s="8">
         <f t="shared" si="26"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H247" s="8">
         <f t="shared" si="27"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I247" s="15">
         <f t="shared" si="28"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="248" spans="3:9" x14ac:dyDescent="0.25">
@@ -6803,19 +6857,19 @@
       </c>
       <c r="F248" s="13">
         <f t="shared" si="25"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G248" s="8">
         <f t="shared" si="26"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H248" s="8">
         <f t="shared" si="27"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I248" s="15">
         <f t="shared" si="28"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="249" spans="3:9" x14ac:dyDescent="0.25">
@@ -6827,19 +6881,19 @@
       </c>
       <c r="F249" s="13">
         <f t="shared" si="25"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G249" s="8">
         <f t="shared" si="26"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H249" s="8">
         <f t="shared" si="27"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I249" s="15">
         <f t="shared" si="28"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="250" spans="3:9" x14ac:dyDescent="0.25">
@@ -6851,19 +6905,19 @@
       </c>
       <c r="F250" s="13">
         <f t="shared" si="25"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G250" s="8">
         <f t="shared" si="26"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H250" s="8">
         <f t="shared" si="27"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I250" s="15">
         <f t="shared" si="28"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="251" spans="3:9" x14ac:dyDescent="0.25">
@@ -6875,19 +6929,19 @@
       </c>
       <c r="F251" s="13">
         <f t="shared" si="25"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G251" s="8">
         <f t="shared" si="26"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H251" s="8">
         <f t="shared" si="27"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I251" s="15">
         <f t="shared" si="28"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="252" spans="3:9" x14ac:dyDescent="0.25">
@@ -6899,19 +6953,19 @@
       </c>
       <c r="F252" s="13">
         <f t="shared" si="25"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G252" s="8">
         <f t="shared" si="26"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H252" s="8">
         <f t="shared" si="27"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I252" s="15">
         <f t="shared" si="28"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="253" spans="3:9" x14ac:dyDescent="0.25">
@@ -6923,19 +6977,19 @@
       </c>
       <c r="F253" s="13">
         <f t="shared" si="25"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G253" s="8">
         <f t="shared" si="26"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H253" s="8">
         <f t="shared" si="27"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I253" s="15">
         <f t="shared" si="28"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="254" spans="3:9" x14ac:dyDescent="0.25">
@@ -6947,19 +7001,19 @@
       </c>
       <c r="F254" s="13">
         <f t="shared" si="25"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G254" s="8">
         <f t="shared" si="26"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H254" s="8">
         <f t="shared" si="27"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I254" s="15">
         <f t="shared" si="28"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
     <row r="255" spans="3:9" x14ac:dyDescent="0.25">
@@ -6971,19 +7025,19 @@
       </c>
       <c r="F255" s="13">
         <f t="shared" si="25"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="G255" s="8">
         <f t="shared" si="26"/>
-        <v>0.8902777777777775</v>
+        <v>1.2201388888888889</v>
       </c>
       <c r="H255" s="8">
         <f t="shared" si="27"/>
-        <v>2.0402777777777779</v>
+        <v>2.3701388888888895</v>
       </c>
       <c r="I255" s="15">
         <f t="shared" si="28"/>
-        <v>8324.3333333333339</v>
+        <v>9670.1666666666697</v>
       </c>
     </row>
   </sheetData>

--- a/hodiny.xlsx
+++ b/hodiny.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF52DD4-EE5A-4CC6-872A-FEFCC2F6C9D3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB1EEA06-2556-483E-91D3-445FF6E27E5E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5070" yWindow="5070" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>čas [min]</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>začatek 2784</t>
+  </si>
+  <si>
+    <t>začátek 6368</t>
   </si>
 </sst>
 </file>
@@ -624,7 +627,7 @@
   <dimension ref="B1:J255"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J63" sqref="J63"/>
+      <selection activeCell="G68" sqref="G68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -636,7 +639,7 @@
     <col min="6" max="6" width="9.140625" style="13"/>
     <col min="7" max="7" width="9.140625" style="6"/>
     <col min="8" max="8" width="11.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" style="15" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="9.140625" style="1"/>
     <col min="12" max="12" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
@@ -2433,126 +2436,149 @@
       </c>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C64" s="2"/>
-      <c r="D64" s="10"/>
+      <c r="C64" s="2">
+        <v>0.56041666666666667</v>
+      </c>
+      <c r="D64" s="10">
+        <v>0.69374999999999998</v>
+      </c>
       <c r="E64" s="12">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="F64" s="13">
         <f t="shared" si="10"/>
-        <v>1.2201388888888889</v>
+        <v>1.3534722222222222</v>
       </c>
       <c r="G64" s="8">
         <f t="shared" si="11"/>
-        <v>1.2201388888888889</v>
+        <v>1.3534722222222222</v>
       </c>
       <c r="H64" s="8">
         <f t="shared" si="12"/>
-        <v>2.3701388888888895</v>
+        <v>2.5034722222222232</v>
       </c>
       <c r="I64" s="15">
         <f t="shared" si="13"/>
-        <v>9670.1666666666697</v>
-      </c>
-    </row>
-    <row r="65" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C65" s="2"/>
-      <c r="D65" s="10"/>
+        <v>10214.166666666672</v>
+      </c>
+    </row>
+    <row r="65" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C65" s="2">
+        <v>0.72569444444444453</v>
+      </c>
+      <c r="D65" s="10">
+        <v>0.76666666666666661</v>
+      </c>
       <c r="E65" s="12">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>4.0972222222222077E-2</v>
       </c>
       <c r="F65" s="13">
         <f t="shared" si="10"/>
-        <v>1.2201388888888889</v>
+        <v>1.3944444444444444</v>
       </c>
       <c r="G65" s="8">
         <f t="shared" si="11"/>
-        <v>1.2201388888888889</v>
+        <v>1.3944444444444444</v>
       </c>
       <c r="H65" s="8">
         <f t="shared" si="12"/>
-        <v>2.3701388888888895</v>
+        <v>2.5444444444444452</v>
       </c>
       <c r="I65" s="15">
         <f t="shared" si="13"/>
-        <v>9670.1666666666697</v>
-      </c>
-    </row>
-    <row r="66" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C66" s="2"/>
-      <c r="D66" s="10"/>
+        <v>10381.333333333336</v>
+      </c>
+    </row>
+    <row r="66" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C66" s="2">
+        <v>0.76666666666666661</v>
+      </c>
+      <c r="D66" s="10">
+        <v>0.76874999999999993</v>
+      </c>
       <c r="E66" s="12">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>2.0833333333333259E-3</v>
       </c>
       <c r="F66" s="13">
         <f t="shared" si="10"/>
-        <v>1.2201388888888889</v>
+        <v>1.3965277777777776</v>
       </c>
       <c r="G66" s="8">
         <f t="shared" si="11"/>
-        <v>1.2201388888888889</v>
+        <v>1.3965277777777776</v>
       </c>
       <c r="H66" s="8">
         <f t="shared" si="12"/>
-        <v>2.3701388888888895</v>
+        <v>2.5465277777777784</v>
       </c>
       <c r="I66" s="15">
         <f t="shared" si="13"/>
-        <v>9670.1666666666697</v>
-      </c>
-    </row>
-    <row r="67" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C67" s="2"/>
-      <c r="D67" s="10"/>
+        <v>10389.833333333336</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="67" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C67" s="2">
+        <v>0.81527777777777777</v>
+      </c>
+      <c r="D67" s="10">
+        <v>0.89097222222222217</v>
+      </c>
       <c r="E67" s="12">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>7.5694444444444398E-2</v>
       </c>
       <c r="F67" s="13">
         <f t="shared" si="10"/>
-        <v>1.2201388888888889</v>
+        <v>1.4722222222222219</v>
       </c>
       <c r="G67" s="8">
         <f t="shared" si="11"/>
-        <v>1.2201388888888889</v>
+        <v>1.4722222222222219</v>
       </c>
       <c r="H67" s="8">
         <f t="shared" si="12"/>
-        <v>2.3701388888888895</v>
+        <v>2.6222222222222231</v>
       </c>
       <c r="I67" s="15">
         <f t="shared" si="13"/>
-        <v>9670.1666666666697</v>
-      </c>
-    </row>
-    <row r="68" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C68" s="2"/>
-      <c r="D68" s="10"/>
+        <v>10698.66666666667</v>
+      </c>
+    </row>
+    <row r="68" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C68" s="2">
+        <v>0.90277777777777779</v>
+      </c>
+      <c r="D68" s="10">
+        <v>0.93333333333333324</v>
+      </c>
       <c r="E68" s="12">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>3.0555555555555447E-2</v>
       </c>
       <c r="F68" s="13">
         <f t="shared" si="10"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G68" s="8">
         <f t="shared" si="11"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H68" s="8">
         <f t="shared" si="12"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777781</v>
       </c>
       <c r="I68" s="15">
         <f t="shared" si="13"/>
-        <v>9670.1666666666697</v>
-      </c>
-    </row>
-    <row r="69" spans="3:9" x14ac:dyDescent="0.25">
+        <v>10823.333333333334</v>
+      </c>
+    </row>
+    <row r="69" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C69" s="2"/>
       <c r="D69" s="10"/>
       <c r="E69" s="12">
@@ -2561,22 +2587,22 @@
       </c>
       <c r="F69" s="13">
         <f t="shared" si="10"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G69" s="8">
         <f t="shared" si="11"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H69" s="8">
         <f t="shared" si="12"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I69" s="15">
         <f t="shared" si="13"/>
-        <v>9670.1666666666697</v>
-      </c>
-    </row>
-    <row r="70" spans="3:9" x14ac:dyDescent="0.25">
+        <v>10823.333333333332</v>
+      </c>
+    </row>
+    <row r="70" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C70" s="2"/>
       <c r="D70" s="10"/>
       <c r="E70" s="12">
@@ -2585,22 +2611,22 @@
       </c>
       <c r="F70" s="13">
         <f t="shared" si="10"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G70" s="8">
         <f t="shared" si="11"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H70" s="8">
         <f t="shared" si="12"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I70" s="15">
         <f t="shared" si="13"/>
-        <v>9670.1666666666697</v>
-      </c>
-    </row>
-    <row r="71" spans="3:9" x14ac:dyDescent="0.25">
+        <v>10823.333333333332</v>
+      </c>
+    </row>
+    <row r="71" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C71" s="2"/>
       <c r="D71" s="10"/>
       <c r="E71" s="12">
@@ -2609,22 +2635,22 @@
       </c>
       <c r="F71" s="13">
         <f t="shared" si="10"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G71" s="8">
         <f t="shared" si="11"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H71" s="8">
         <f t="shared" si="12"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I71" s="15">
         <f t="shared" si="13"/>
-        <v>9670.1666666666697</v>
-      </c>
-    </row>
-    <row r="72" spans="3:9" x14ac:dyDescent="0.25">
+        <v>10823.333333333332</v>
+      </c>
+    </row>
+    <row r="72" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C72" s="2"/>
       <c r="D72" s="10"/>
       <c r="E72" s="12">
@@ -2633,22 +2659,22 @@
       </c>
       <c r="F72" s="13">
         <f t="shared" si="10"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G72" s="8">
         <f t="shared" si="11"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H72" s="8">
         <f t="shared" si="12"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I72" s="15">
         <f t="shared" si="13"/>
-        <v>9670.1666666666697</v>
-      </c>
-    </row>
-    <row r="73" spans="3:9" x14ac:dyDescent="0.25">
+        <v>10823.333333333332</v>
+      </c>
+    </row>
+    <row r="73" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C73" s="2"/>
       <c r="D73" s="10"/>
       <c r="E73" s="12">
@@ -2657,22 +2683,22 @@
       </c>
       <c r="F73" s="13">
         <f t="shared" si="10"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G73" s="8">
         <f t="shared" si="11"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H73" s="8">
         <f t="shared" si="12"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I73" s="15">
         <f t="shared" si="13"/>
-        <v>9670.1666666666697</v>
-      </c>
-    </row>
-    <row r="74" spans="3:9" x14ac:dyDescent="0.25">
+        <v>10823.333333333332</v>
+      </c>
+    </row>
+    <row r="74" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C74" s="2"/>
       <c r="D74" s="10"/>
       <c r="E74" s="12">
@@ -2681,22 +2707,22 @@
       </c>
       <c r="F74" s="13">
         <f t="shared" si="10"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G74" s="8">
         <f t="shared" si="11"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H74" s="8">
         <f t="shared" si="12"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I74" s="15">
         <f t="shared" si="13"/>
-        <v>9670.1666666666697</v>
-      </c>
-    </row>
-    <row r="75" spans="3:9" x14ac:dyDescent="0.25">
+        <v>10823.333333333332</v>
+      </c>
+    </row>
+    <row r="75" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C75" s="2"/>
       <c r="D75" s="10"/>
       <c r="E75" s="12">
@@ -2705,22 +2731,22 @@
       </c>
       <c r="F75" s="13">
         <f t="shared" si="10"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G75" s="8">
         <f t="shared" si="11"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H75" s="8">
         <f t="shared" si="12"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I75" s="15">
         <f t="shared" si="13"/>
-        <v>9670.1666666666697</v>
-      </c>
-    </row>
-    <row r="76" spans="3:9" x14ac:dyDescent="0.25">
+        <v>10823.333333333332</v>
+      </c>
+    </row>
+    <row r="76" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C76" s="2"/>
       <c r="D76" s="10"/>
       <c r="E76" s="12">
@@ -2729,22 +2755,22 @@
       </c>
       <c r="F76" s="13">
         <f t="shared" si="10"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G76" s="8">
         <f t="shared" si="11"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H76" s="8">
         <f t="shared" si="12"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I76" s="15">
         <f t="shared" si="13"/>
-        <v>9670.1666666666697</v>
-      </c>
-    </row>
-    <row r="77" spans="3:9" x14ac:dyDescent="0.25">
+        <v>10823.333333333332</v>
+      </c>
+    </row>
+    <row r="77" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C77" s="2"/>
       <c r="D77" s="10"/>
       <c r="E77" s="12">
@@ -2753,22 +2779,22 @@
       </c>
       <c r="F77" s="13">
         <f t="shared" si="10"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G77" s="8">
         <f t="shared" si="11"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H77" s="8">
         <f t="shared" si="12"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I77" s="15">
         <f t="shared" si="13"/>
-        <v>9670.1666666666697</v>
-      </c>
-    </row>
-    <row r="78" spans="3:9" x14ac:dyDescent="0.25">
+        <v>10823.333333333332</v>
+      </c>
+    </row>
+    <row r="78" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C78" s="2"/>
       <c r="D78" s="10"/>
       <c r="E78" s="12">
@@ -2777,22 +2803,22 @@
       </c>
       <c r="F78" s="13">
         <f t="shared" si="10"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G78" s="8">
         <f t="shared" si="11"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H78" s="8">
         <f t="shared" si="12"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I78" s="15">
         <f t="shared" si="13"/>
-        <v>9670.1666666666697</v>
-      </c>
-    </row>
-    <row r="79" spans="3:9" x14ac:dyDescent="0.25">
+        <v>10823.333333333332</v>
+      </c>
+    </row>
+    <row r="79" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C79" s="2"/>
       <c r="D79" s="10"/>
       <c r="E79" s="12">
@@ -2801,22 +2827,22 @@
       </c>
       <c r="F79" s="13">
         <f t="shared" si="10"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G79" s="8">
         <f t="shared" si="11"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H79" s="8">
         <f t="shared" si="12"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I79" s="15">
         <f t="shared" si="13"/>
-        <v>9670.1666666666697</v>
-      </c>
-    </row>
-    <row r="80" spans="3:9" x14ac:dyDescent="0.25">
+        <v>10823.333333333332</v>
+      </c>
+    </row>
+    <row r="80" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C80" s="2"/>
       <c r="D80" s="10"/>
       <c r="E80" s="12">
@@ -2825,19 +2851,19 @@
       </c>
       <c r="F80" s="13">
         <f t="shared" si="10"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G80" s="8">
         <f t="shared" si="11"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H80" s="8">
         <f t="shared" si="12"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I80" s="15">
         <f t="shared" si="13"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="81" spans="3:9" x14ac:dyDescent="0.25">
@@ -2849,19 +2875,19 @@
       </c>
       <c r="F81" s="13">
         <f t="shared" si="10"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G81" s="8">
         <f t="shared" si="11"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H81" s="8">
         <f t="shared" si="12"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I81" s="15">
         <f t="shared" si="13"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="82" spans="3:9" x14ac:dyDescent="0.25">
@@ -2873,19 +2899,19 @@
       </c>
       <c r="F82" s="13">
         <f t="shared" si="10"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G82" s="8">
         <f t="shared" si="11"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H82" s="8">
         <f t="shared" si="12"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I82" s="15">
         <f t="shared" si="13"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="83" spans="3:9" x14ac:dyDescent="0.25">
@@ -2897,19 +2923,19 @@
       </c>
       <c r="F83" s="13">
         <f t="shared" si="10"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G83" s="8">
         <f t="shared" si="11"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H83" s="8">
         <f t="shared" si="12"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I83" s="15">
         <f t="shared" si="13"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="84" spans="3:9" x14ac:dyDescent="0.25">
@@ -2921,19 +2947,19 @@
       </c>
       <c r="F84" s="13">
         <f t="shared" si="10"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G84" s="8">
         <f t="shared" si="11"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H84" s="8">
         <f t="shared" si="12"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I84" s="15">
         <f t="shared" si="13"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="85" spans="3:9" x14ac:dyDescent="0.25">
@@ -2945,19 +2971,19 @@
       </c>
       <c r="F85" s="13">
         <f t="shared" si="10"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G85" s="8">
         <f t="shared" si="11"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H85" s="8">
         <f t="shared" si="12"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I85" s="15">
         <f t="shared" si="13"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="86" spans="3:9" x14ac:dyDescent="0.25">
@@ -2969,19 +2995,19 @@
       </c>
       <c r="F86" s="13">
         <f t="shared" si="10"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G86" s="8">
         <f t="shared" si="11"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H86" s="8">
         <f t="shared" si="12"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I86" s="15">
         <f t="shared" si="13"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="87" spans="3:9" x14ac:dyDescent="0.25">
@@ -2993,19 +3019,19 @@
       </c>
       <c r="F87" s="13">
         <f t="shared" si="10"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G87" s="8">
         <f t="shared" si="11"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H87" s="8">
         <f t="shared" si="12"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I87" s="15">
         <f t="shared" si="13"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="88" spans="3:9" x14ac:dyDescent="0.25">
@@ -3017,19 +3043,19 @@
       </c>
       <c r="F88" s="13">
         <f t="shared" si="10"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G88" s="8">
         <f t="shared" si="11"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H88" s="8">
         <f t="shared" si="12"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I88" s="15">
         <f t="shared" si="13"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="89" spans="3:9" x14ac:dyDescent="0.25">
@@ -3041,19 +3067,19 @@
       </c>
       <c r="F89" s="13">
         <f t="shared" si="10"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G89" s="8">
         <f t="shared" si="11"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H89" s="8">
         <f t="shared" si="12"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I89" s="15">
         <f t="shared" si="13"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="90" spans="3:9" x14ac:dyDescent="0.25">
@@ -3065,19 +3091,19 @@
       </c>
       <c r="F90" s="13">
         <f t="shared" si="10"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G90" s="8">
         <f t="shared" si="11"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H90" s="8">
         <f t="shared" si="12"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I90" s="15">
         <f t="shared" si="13"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="91" spans="3:9" x14ac:dyDescent="0.25">
@@ -3089,19 +3115,19 @@
       </c>
       <c r="F91" s="13">
         <f t="shared" si="10"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G91" s="8">
         <f t="shared" si="11"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H91" s="8">
         <f t="shared" si="12"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I91" s="15">
         <f t="shared" si="13"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="92" spans="3:9" x14ac:dyDescent="0.25">
@@ -3113,19 +3139,19 @@
       </c>
       <c r="F92" s="13">
         <f t="shared" si="10"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G92" s="8">
         <f t="shared" si="11"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H92" s="8">
         <f t="shared" si="12"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I92" s="15">
         <f t="shared" si="13"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="93" spans="3:9" x14ac:dyDescent="0.25">
@@ -3137,19 +3163,19 @@
       </c>
       <c r="F93" s="13">
         <f t="shared" si="10"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G93" s="8">
         <f t="shared" si="11"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H93" s="8">
         <f t="shared" si="12"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I93" s="15">
         <f t="shared" si="13"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="94" spans="3:9" x14ac:dyDescent="0.25">
@@ -3161,19 +3187,19 @@
       </c>
       <c r="F94" s="13">
         <f t="shared" si="10"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G94" s="8">
         <f t="shared" si="11"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H94" s="8">
         <f t="shared" si="12"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I94" s="15">
         <f t="shared" si="13"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="95" spans="3:9" x14ac:dyDescent="0.25">
@@ -3185,19 +3211,19 @@
       </c>
       <c r="F95" s="13">
         <f t="shared" si="10"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G95" s="8">
         <f t="shared" si="11"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H95" s="8">
         <f t="shared" si="12"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I95" s="15">
         <f t="shared" si="13"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="96" spans="3:9" x14ac:dyDescent="0.25">
@@ -3209,19 +3235,19 @@
       </c>
       <c r="F96" s="13">
         <f t="shared" si="10"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G96" s="8">
         <f t="shared" si="11"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H96" s="8">
         <f t="shared" si="12"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I96" s="15">
         <f t="shared" si="13"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="97" spans="3:9" x14ac:dyDescent="0.25">
@@ -3233,19 +3259,19 @@
       </c>
       <c r="F97" s="13">
         <f t="shared" si="10"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G97" s="8">
         <f t="shared" si="11"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H97" s="8">
         <f t="shared" si="12"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I97" s="15">
         <f t="shared" si="13"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="98" spans="3:9" x14ac:dyDescent="0.25">
@@ -3257,19 +3283,19 @@
       </c>
       <c r="F98" s="13">
         <f t="shared" si="10"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G98" s="8">
         <f t="shared" si="11"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H98" s="8">
         <f t="shared" si="12"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I98" s="15">
         <f t="shared" si="13"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="99" spans="3:9" x14ac:dyDescent="0.25">
@@ -3281,19 +3307,19 @@
       </c>
       <c r="F99" s="13">
         <f t="shared" si="10"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G99" s="8">
         <f t="shared" si="11"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H99" s="8">
         <f t="shared" si="12"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I99" s="15">
         <f t="shared" si="13"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="100" spans="3:9" x14ac:dyDescent="0.25">
@@ -3305,19 +3331,19 @@
       </c>
       <c r="F100" s="13">
         <f t="shared" si="10"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G100" s="8">
         <f t="shared" si="11"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H100" s="8">
         <f t="shared" si="12"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I100" s="15">
         <f t="shared" si="13"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="101" spans="3:9" x14ac:dyDescent="0.25">
@@ -3329,19 +3355,19 @@
       </c>
       <c r="F101" s="13">
         <f t="shared" si="10"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G101" s="8">
         <f t="shared" si="11"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H101" s="8">
         <f t="shared" si="12"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I101" s="15">
         <f t="shared" si="13"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="102" spans="3:9" x14ac:dyDescent="0.25">
@@ -3353,19 +3379,19 @@
       </c>
       <c r="F102" s="13">
         <f t="shared" si="10"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G102" s="8">
         <f t="shared" si="11"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H102" s="8">
         <f t="shared" si="12"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I102" s="15">
         <f t="shared" si="13"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="103" spans="3:9" x14ac:dyDescent="0.25">
@@ -3377,19 +3403,19 @@
       </c>
       <c r="F103" s="13">
         <f t="shared" si="10"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G103" s="8">
         <f t="shared" si="11"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H103" s="8">
         <f t="shared" si="12"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I103" s="15">
         <f t="shared" si="13"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="104" spans="3:9" x14ac:dyDescent="0.25">
@@ -3401,19 +3427,19 @@
       </c>
       <c r="F104" s="13">
         <f t="shared" ref="F104:F167" si="15">F103+E104</f>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G104" s="8">
         <f t="shared" ref="G104:G167" si="16">F104</f>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H104" s="8">
         <f t="shared" ref="H104:H167" si="17">(H103+G104-G103)</f>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I104" s="15">
         <f t="shared" ref="I104:I167" si="18">H104*24*$J$2</f>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="105" spans="3:9" x14ac:dyDescent="0.25">
@@ -3425,19 +3451,19 @@
       </c>
       <c r="F105" s="13">
         <f t="shared" si="15"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G105" s="8">
         <f t="shared" si="16"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H105" s="8">
         <f t="shared" si="17"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I105" s="15">
         <f t="shared" si="18"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="106" spans="3:9" x14ac:dyDescent="0.25">
@@ -3449,19 +3475,19 @@
       </c>
       <c r="F106" s="13">
         <f t="shared" si="15"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G106" s="8">
         <f t="shared" si="16"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H106" s="8">
         <f t="shared" si="17"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I106" s="15">
         <f t="shared" si="18"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="107" spans="3:9" x14ac:dyDescent="0.25">
@@ -3473,19 +3499,19 @@
       </c>
       <c r="F107" s="13">
         <f t="shared" si="15"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G107" s="8">
         <f t="shared" si="16"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H107" s="8">
         <f t="shared" si="17"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I107" s="15">
         <f t="shared" si="18"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="108" spans="3:9" x14ac:dyDescent="0.25">
@@ -3497,19 +3523,19 @@
       </c>
       <c r="F108" s="13">
         <f t="shared" si="15"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G108" s="8">
         <f t="shared" si="16"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H108" s="8">
         <f t="shared" si="17"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I108" s="15">
         <f t="shared" si="18"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="109" spans="3:9" x14ac:dyDescent="0.25">
@@ -3521,19 +3547,19 @@
       </c>
       <c r="F109" s="13">
         <f t="shared" si="15"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G109" s="8">
         <f t="shared" si="16"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H109" s="8">
         <f t="shared" si="17"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I109" s="15">
         <f t="shared" si="18"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="110" spans="3:9" x14ac:dyDescent="0.25">
@@ -3545,19 +3571,19 @@
       </c>
       <c r="F110" s="13">
         <f t="shared" si="15"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G110" s="8">
         <f t="shared" si="16"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H110" s="8">
         <f t="shared" si="17"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I110" s="15">
         <f t="shared" si="18"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="111" spans="3:9" x14ac:dyDescent="0.25">
@@ -3569,19 +3595,19 @@
       </c>
       <c r="F111" s="13">
         <f t="shared" si="15"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G111" s="8">
         <f t="shared" si="16"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H111" s="8">
         <f t="shared" si="17"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I111" s="15">
         <f t="shared" si="18"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="112" spans="3:9" x14ac:dyDescent="0.25">
@@ -3593,19 +3619,19 @@
       </c>
       <c r="F112" s="13">
         <f t="shared" si="15"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G112" s="8">
         <f t="shared" si="16"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H112" s="8">
         <f t="shared" si="17"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I112" s="15">
         <f t="shared" si="18"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="113" spans="3:9" x14ac:dyDescent="0.25">
@@ -3617,19 +3643,19 @@
       </c>
       <c r="F113" s="13">
         <f t="shared" si="15"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G113" s="8">
         <f t="shared" si="16"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H113" s="8">
         <f t="shared" si="17"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I113" s="15">
         <f t="shared" si="18"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="114" spans="3:9" x14ac:dyDescent="0.25">
@@ -3641,19 +3667,19 @@
       </c>
       <c r="F114" s="13">
         <f t="shared" si="15"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G114" s="8">
         <f t="shared" si="16"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H114" s="8">
         <f t="shared" si="17"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I114" s="15">
         <f t="shared" si="18"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="115" spans="3:9" x14ac:dyDescent="0.25">
@@ -3665,19 +3691,19 @@
       </c>
       <c r="F115" s="13">
         <f t="shared" si="15"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G115" s="8">
         <f t="shared" si="16"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H115" s="8">
         <f t="shared" si="17"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I115" s="15">
         <f t="shared" si="18"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="116" spans="3:9" x14ac:dyDescent="0.25">
@@ -3689,19 +3715,19 @@
       </c>
       <c r="F116" s="13">
         <f t="shared" si="15"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G116" s="8">
         <f t="shared" si="16"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H116" s="8">
         <f t="shared" si="17"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I116" s="15">
         <f t="shared" si="18"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="117" spans="3:9" x14ac:dyDescent="0.25">
@@ -3713,19 +3739,19 @@
       </c>
       <c r="F117" s="13">
         <f t="shared" si="15"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G117" s="8">
         <f t="shared" si="16"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H117" s="8">
         <f t="shared" si="17"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I117" s="15">
         <f t="shared" si="18"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="118" spans="3:9" x14ac:dyDescent="0.25">
@@ -3737,19 +3763,19 @@
       </c>
       <c r="F118" s="13">
         <f t="shared" si="15"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G118" s="8">
         <f t="shared" si="16"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H118" s="8">
         <f t="shared" si="17"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I118" s="15">
         <f t="shared" si="18"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="119" spans="3:9" x14ac:dyDescent="0.25">
@@ -3761,19 +3787,19 @@
       </c>
       <c r="F119" s="13">
         <f t="shared" si="15"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G119" s="8">
         <f t="shared" si="16"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H119" s="8">
         <f t="shared" si="17"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I119" s="15">
         <f t="shared" si="18"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="120" spans="3:9" x14ac:dyDescent="0.25">
@@ -3785,19 +3811,19 @@
       </c>
       <c r="F120" s="13">
         <f t="shared" si="15"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G120" s="8">
         <f t="shared" si="16"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H120" s="8">
         <f t="shared" si="17"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I120" s="15">
         <f t="shared" si="18"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="121" spans="3:9" x14ac:dyDescent="0.25">
@@ -3809,19 +3835,19 @@
       </c>
       <c r="F121" s="13">
         <f t="shared" si="15"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G121" s="8">
         <f t="shared" si="16"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H121" s="8">
         <f t="shared" si="17"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I121" s="15">
         <f t="shared" si="18"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="122" spans="3:9" x14ac:dyDescent="0.25">
@@ -3833,19 +3859,19 @@
       </c>
       <c r="F122" s="13">
         <f t="shared" si="15"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G122" s="8">
         <f t="shared" si="16"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H122" s="8">
         <f t="shared" si="17"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I122" s="15">
         <f t="shared" si="18"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="123" spans="3:9" x14ac:dyDescent="0.25">
@@ -3857,19 +3883,19 @@
       </c>
       <c r="F123" s="13">
         <f t="shared" si="15"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G123" s="8">
         <f t="shared" si="16"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H123" s="8">
         <f t="shared" si="17"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I123" s="15">
         <f t="shared" si="18"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="124" spans="3:9" x14ac:dyDescent="0.25">
@@ -3881,19 +3907,19 @@
       </c>
       <c r="F124" s="13">
         <f t="shared" si="15"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G124" s="8">
         <f t="shared" si="16"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H124" s="8">
         <f t="shared" si="17"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I124" s="15">
         <f t="shared" si="18"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="125" spans="3:9" x14ac:dyDescent="0.25">
@@ -3905,19 +3931,19 @@
       </c>
       <c r="F125" s="13">
         <f t="shared" si="15"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G125" s="8">
         <f t="shared" si="16"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H125" s="8">
         <f t="shared" si="17"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I125" s="15">
         <f t="shared" si="18"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="126" spans="3:9" x14ac:dyDescent="0.25">
@@ -3929,19 +3955,19 @@
       </c>
       <c r="F126" s="13">
         <f t="shared" si="15"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G126" s="8">
         <f t="shared" si="16"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H126" s="8">
         <f t="shared" si="17"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I126" s="15">
         <f t="shared" si="18"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="127" spans="3:9" x14ac:dyDescent="0.25">
@@ -3953,19 +3979,19 @@
       </c>
       <c r="F127" s="13">
         <f t="shared" si="15"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G127" s="8">
         <f t="shared" si="16"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H127" s="8">
         <f t="shared" si="17"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I127" s="15">
         <f t="shared" si="18"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="128" spans="3:9" x14ac:dyDescent="0.25">
@@ -3977,19 +4003,19 @@
       </c>
       <c r="F128" s="13">
         <f t="shared" si="15"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G128" s="8">
         <f t="shared" si="16"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H128" s="8">
         <f t="shared" si="17"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I128" s="15">
         <f t="shared" si="18"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="129" spans="3:9" x14ac:dyDescent="0.25">
@@ -4001,19 +4027,19 @@
       </c>
       <c r="F129" s="13">
         <f t="shared" si="15"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G129" s="8">
         <f t="shared" si="16"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H129" s="8">
         <f t="shared" si="17"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I129" s="15">
         <f t="shared" si="18"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="130" spans="3:9" x14ac:dyDescent="0.25">
@@ -4025,19 +4051,19 @@
       </c>
       <c r="F130" s="13">
         <f t="shared" si="15"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G130" s="8">
         <f t="shared" si="16"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H130" s="8">
         <f t="shared" si="17"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I130" s="15">
         <f t="shared" si="18"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="131" spans="3:9" x14ac:dyDescent="0.25">
@@ -4049,19 +4075,19 @@
       </c>
       <c r="F131" s="13">
         <f t="shared" si="15"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G131" s="8">
         <f t="shared" si="16"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H131" s="8">
         <f t="shared" si="17"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I131" s="15">
         <f t="shared" si="18"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="132" spans="3:9" x14ac:dyDescent="0.25">
@@ -4073,19 +4099,19 @@
       </c>
       <c r="F132" s="13">
         <f t="shared" si="15"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G132" s="8">
         <f t="shared" si="16"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H132" s="8">
         <f t="shared" si="17"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I132" s="15">
         <f t="shared" si="18"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="133" spans="3:9" x14ac:dyDescent="0.25">
@@ -4097,19 +4123,19 @@
       </c>
       <c r="F133" s="13">
         <f t="shared" si="15"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G133" s="8">
         <f t="shared" si="16"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H133" s="8">
         <f t="shared" si="17"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I133" s="15">
         <f t="shared" si="18"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="134" spans="3:9" x14ac:dyDescent="0.25">
@@ -4121,19 +4147,19 @@
       </c>
       <c r="F134" s="13">
         <f t="shared" si="15"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G134" s="8">
         <f t="shared" si="16"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H134" s="8">
         <f t="shared" si="17"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I134" s="15">
         <f t="shared" si="18"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="135" spans="3:9" x14ac:dyDescent="0.25">
@@ -4145,19 +4171,19 @@
       </c>
       <c r="F135" s="13">
         <f t="shared" si="15"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G135" s="8">
         <f t="shared" si="16"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H135" s="8">
         <f t="shared" si="17"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I135" s="15">
         <f t="shared" si="18"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="136" spans="3:9" x14ac:dyDescent="0.25">
@@ -4169,19 +4195,19 @@
       </c>
       <c r="F136" s="13">
         <f t="shared" si="15"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G136" s="8">
         <f t="shared" si="16"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H136" s="8">
         <f t="shared" si="17"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I136" s="15">
         <f t="shared" si="18"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="137" spans="3:9" x14ac:dyDescent="0.25">
@@ -4193,19 +4219,19 @@
       </c>
       <c r="F137" s="13">
         <f t="shared" si="15"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G137" s="8">
         <f t="shared" si="16"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H137" s="8">
         <f t="shared" si="17"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I137" s="15">
         <f t="shared" si="18"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="138" spans="3:9" x14ac:dyDescent="0.25">
@@ -4217,19 +4243,19 @@
       </c>
       <c r="F138" s="13">
         <f t="shared" si="15"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G138" s="8">
         <f t="shared" si="16"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H138" s="8">
         <f t="shared" si="17"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I138" s="15">
         <f t="shared" si="18"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="139" spans="3:9" x14ac:dyDescent="0.25">
@@ -4241,19 +4267,19 @@
       </c>
       <c r="F139" s="13">
         <f t="shared" si="15"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G139" s="8">
         <f t="shared" si="16"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H139" s="8">
         <f t="shared" si="17"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I139" s="15">
         <f t="shared" si="18"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="140" spans="3:9" x14ac:dyDescent="0.25">
@@ -4265,19 +4291,19 @@
       </c>
       <c r="F140" s="13">
         <f t="shared" si="15"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G140" s="8">
         <f t="shared" si="16"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H140" s="8">
         <f t="shared" si="17"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I140" s="15">
         <f t="shared" si="18"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="141" spans="3:9" x14ac:dyDescent="0.25">
@@ -4289,19 +4315,19 @@
       </c>
       <c r="F141" s="13">
         <f t="shared" si="15"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G141" s="8">
         <f t="shared" si="16"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H141" s="8">
         <f t="shared" si="17"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I141" s="15">
         <f t="shared" si="18"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="142" spans="3:9" x14ac:dyDescent="0.25">
@@ -4313,19 +4339,19 @@
       </c>
       <c r="F142" s="13">
         <f t="shared" si="15"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G142" s="8">
         <f t="shared" si="16"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H142" s="8">
         <f t="shared" si="17"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I142" s="15">
         <f t="shared" si="18"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="143" spans="3:9" x14ac:dyDescent="0.25">
@@ -4337,19 +4363,19 @@
       </c>
       <c r="F143" s="13">
         <f t="shared" si="15"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G143" s="8">
         <f t="shared" si="16"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H143" s="8">
         <f t="shared" si="17"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I143" s="15">
         <f t="shared" si="18"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="144" spans="3:9" x14ac:dyDescent="0.25">
@@ -4361,19 +4387,19 @@
       </c>
       <c r="F144" s="13">
         <f t="shared" si="15"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G144" s="8">
         <f t="shared" si="16"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H144" s="8">
         <f t="shared" si="17"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I144" s="15">
         <f t="shared" si="18"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="145" spans="3:9" x14ac:dyDescent="0.25">
@@ -4385,19 +4411,19 @@
       </c>
       <c r="F145" s="13">
         <f t="shared" si="15"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G145" s="8">
         <f t="shared" si="16"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H145" s="8">
         <f t="shared" si="17"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I145" s="15">
         <f t="shared" si="18"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="146" spans="3:9" x14ac:dyDescent="0.25">
@@ -4409,19 +4435,19 @@
       </c>
       <c r="F146" s="13">
         <f t="shared" si="15"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G146" s="8">
         <f t="shared" si="16"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H146" s="8">
         <f t="shared" si="17"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I146" s="15">
         <f t="shared" si="18"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="147" spans="3:9" x14ac:dyDescent="0.25">
@@ -4433,19 +4459,19 @@
       </c>
       <c r="F147" s="13">
         <f t="shared" si="15"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G147" s="8">
         <f t="shared" si="16"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H147" s="8">
         <f t="shared" si="17"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I147" s="15">
         <f t="shared" si="18"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="148" spans="3:9" x14ac:dyDescent="0.25">
@@ -4457,19 +4483,19 @@
       </c>
       <c r="F148" s="13">
         <f t="shared" si="15"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G148" s="8">
         <f t="shared" si="16"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H148" s="8">
         <f t="shared" si="17"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I148" s="15">
         <f t="shared" si="18"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="149" spans="3:9" x14ac:dyDescent="0.25">
@@ -4481,19 +4507,19 @@
       </c>
       <c r="F149" s="13">
         <f t="shared" si="15"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G149" s="8">
         <f t="shared" si="16"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H149" s="8">
         <f t="shared" si="17"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I149" s="15">
         <f t="shared" si="18"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="150" spans="3:9" x14ac:dyDescent="0.25">
@@ -4505,19 +4531,19 @@
       </c>
       <c r="F150" s="13">
         <f t="shared" si="15"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G150" s="8">
         <f t="shared" si="16"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H150" s="8">
         <f t="shared" si="17"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I150" s="15">
         <f t="shared" si="18"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="151" spans="3:9" x14ac:dyDescent="0.25">
@@ -4529,19 +4555,19 @@
       </c>
       <c r="F151" s="13">
         <f t="shared" si="15"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G151" s="8">
         <f t="shared" si="16"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H151" s="8">
         <f t="shared" si="17"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I151" s="15">
         <f t="shared" si="18"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="152" spans="3:9" x14ac:dyDescent="0.25">
@@ -4553,19 +4579,19 @@
       </c>
       <c r="F152" s="13">
         <f t="shared" si="15"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G152" s="8">
         <f t="shared" si="16"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H152" s="8">
         <f t="shared" si="17"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I152" s="15">
         <f t="shared" si="18"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="153" spans="3:9" x14ac:dyDescent="0.25">
@@ -4577,19 +4603,19 @@
       </c>
       <c r="F153" s="13">
         <f t="shared" si="15"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G153" s="8">
         <f t="shared" si="16"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H153" s="8">
         <f t="shared" si="17"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I153" s="15">
         <f t="shared" si="18"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="154" spans="3:9" x14ac:dyDescent="0.25">
@@ -4601,19 +4627,19 @@
       </c>
       <c r="F154" s="13">
         <f t="shared" si="15"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G154" s="8">
         <f t="shared" si="16"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H154" s="8">
         <f t="shared" si="17"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I154" s="15">
         <f t="shared" si="18"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="155" spans="3:9" x14ac:dyDescent="0.25">
@@ -4625,19 +4651,19 @@
       </c>
       <c r="F155" s="13">
         <f t="shared" si="15"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G155" s="8">
         <f t="shared" si="16"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H155" s="8">
         <f t="shared" si="17"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I155" s="15">
         <f t="shared" si="18"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="156" spans="3:9" x14ac:dyDescent="0.25">
@@ -4649,19 +4675,19 @@
       </c>
       <c r="F156" s="13">
         <f t="shared" si="15"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G156" s="8">
         <f t="shared" si="16"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H156" s="8">
         <f t="shared" si="17"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I156" s="15">
         <f t="shared" si="18"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="157" spans="3:9" x14ac:dyDescent="0.25">
@@ -4673,19 +4699,19 @@
       </c>
       <c r="F157" s="13">
         <f t="shared" si="15"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G157" s="8">
         <f t="shared" si="16"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H157" s="8">
         <f t="shared" si="17"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I157" s="15">
         <f t="shared" si="18"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="158" spans="3:9" x14ac:dyDescent="0.25">
@@ -4697,19 +4723,19 @@
       </c>
       <c r="F158" s="13">
         <f t="shared" si="15"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G158" s="8">
         <f t="shared" si="16"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H158" s="8">
         <f t="shared" si="17"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I158" s="15">
         <f t="shared" si="18"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="159" spans="3:9" x14ac:dyDescent="0.25">
@@ -4721,19 +4747,19 @@
       </c>
       <c r="F159" s="13">
         <f t="shared" si="15"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G159" s="8">
         <f t="shared" si="16"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H159" s="8">
         <f t="shared" si="17"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I159" s="15">
         <f t="shared" si="18"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="160" spans="3:9" x14ac:dyDescent="0.25">
@@ -4745,19 +4771,19 @@
       </c>
       <c r="F160" s="13">
         <f t="shared" si="15"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G160" s="8">
         <f t="shared" si="16"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H160" s="8">
         <f t="shared" si="17"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I160" s="15">
         <f t="shared" si="18"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="161" spans="3:9" x14ac:dyDescent="0.25">
@@ -4769,19 +4795,19 @@
       </c>
       <c r="F161" s="13">
         <f t="shared" si="15"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G161" s="8">
         <f t="shared" si="16"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H161" s="8">
         <f t="shared" si="17"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I161" s="15">
         <f t="shared" si="18"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="162" spans="3:9" x14ac:dyDescent="0.25">
@@ -4793,19 +4819,19 @@
       </c>
       <c r="F162" s="13">
         <f t="shared" si="15"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G162" s="8">
         <f t="shared" si="16"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H162" s="8">
         <f t="shared" si="17"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I162" s="15">
         <f t="shared" si="18"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="163" spans="3:9" x14ac:dyDescent="0.25">
@@ -4817,19 +4843,19 @@
       </c>
       <c r="F163" s="13">
         <f t="shared" si="15"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G163" s="8">
         <f t="shared" si="16"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H163" s="8">
         <f t="shared" si="17"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I163" s="15">
         <f t="shared" si="18"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="164" spans="3:9" x14ac:dyDescent="0.25">
@@ -4841,19 +4867,19 @@
       </c>
       <c r="F164" s="13">
         <f t="shared" si="15"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G164" s="8">
         <f t="shared" si="16"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H164" s="8">
         <f t="shared" si="17"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I164" s="15">
         <f t="shared" si="18"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="165" spans="3:9" x14ac:dyDescent="0.25">
@@ -4865,19 +4891,19 @@
       </c>
       <c r="F165" s="13">
         <f t="shared" si="15"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G165" s="8">
         <f t="shared" si="16"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H165" s="8">
         <f t="shared" si="17"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I165" s="15">
         <f t="shared" si="18"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="166" spans="3:9" x14ac:dyDescent="0.25">
@@ -4889,19 +4915,19 @@
       </c>
       <c r="F166" s="13">
         <f t="shared" si="15"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G166" s="8">
         <f t="shared" si="16"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H166" s="8">
         <f t="shared" si="17"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I166" s="15">
         <f t="shared" si="18"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="167" spans="3:9" x14ac:dyDescent="0.25">
@@ -4913,19 +4939,19 @@
       </c>
       <c r="F167" s="13">
         <f t="shared" si="15"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G167" s="8">
         <f t="shared" si="16"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H167" s="8">
         <f t="shared" si="17"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I167" s="15">
         <f t="shared" si="18"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="168" spans="3:9" x14ac:dyDescent="0.25">
@@ -4937,19 +4963,19 @@
       </c>
       <c r="F168" s="13">
         <f t="shared" ref="F168:F231" si="20">F167+E168</f>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G168" s="8">
         <f t="shared" ref="G168:G231" si="21">F168</f>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H168" s="8">
         <f t="shared" ref="H168:H231" si="22">(H167+G168-G167)</f>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I168" s="15">
         <f t="shared" ref="I168:I231" si="23">H168*24*$J$2</f>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="169" spans="3:9" x14ac:dyDescent="0.25">
@@ -4961,19 +4987,19 @@
       </c>
       <c r="F169" s="13">
         <f t="shared" si="20"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G169" s="8">
         <f t="shared" si="21"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H169" s="8">
         <f t="shared" si="22"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I169" s="15">
         <f t="shared" si="23"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="170" spans="3:9" x14ac:dyDescent="0.25">
@@ -4985,19 +5011,19 @@
       </c>
       <c r="F170" s="13">
         <f t="shared" si="20"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G170" s="8">
         <f t="shared" si="21"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H170" s="8">
         <f t="shared" si="22"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I170" s="15">
         <f t="shared" si="23"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="171" spans="3:9" x14ac:dyDescent="0.25">
@@ -5009,19 +5035,19 @@
       </c>
       <c r="F171" s="13">
         <f t="shared" si="20"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G171" s="8">
         <f t="shared" si="21"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H171" s="8">
         <f t="shared" si="22"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I171" s="15">
         <f t="shared" si="23"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="172" spans="3:9" x14ac:dyDescent="0.25">
@@ -5033,19 +5059,19 @@
       </c>
       <c r="F172" s="13">
         <f t="shared" si="20"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G172" s="8">
         <f t="shared" si="21"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H172" s="8">
         <f t="shared" si="22"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I172" s="15">
         <f t="shared" si="23"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="173" spans="3:9" x14ac:dyDescent="0.25">
@@ -5057,19 +5083,19 @@
       </c>
       <c r="F173" s="13">
         <f t="shared" si="20"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G173" s="8">
         <f t="shared" si="21"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H173" s="8">
         <f t="shared" si="22"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I173" s="15">
         <f t="shared" si="23"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="174" spans="3:9" x14ac:dyDescent="0.25">
@@ -5081,19 +5107,19 @@
       </c>
       <c r="F174" s="13">
         <f t="shared" si="20"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G174" s="8">
         <f t="shared" si="21"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H174" s="8">
         <f t="shared" si="22"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I174" s="15">
         <f t="shared" si="23"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="175" spans="3:9" x14ac:dyDescent="0.25">
@@ -5105,19 +5131,19 @@
       </c>
       <c r="F175" s="13">
         <f t="shared" si="20"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G175" s="8">
         <f t="shared" si="21"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H175" s="8">
         <f t="shared" si="22"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I175" s="15">
         <f t="shared" si="23"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="176" spans="3:9" x14ac:dyDescent="0.25">
@@ -5129,19 +5155,19 @@
       </c>
       <c r="F176" s="13">
         <f t="shared" si="20"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G176" s="8">
         <f t="shared" si="21"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H176" s="8">
         <f t="shared" si="22"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I176" s="15">
         <f t="shared" si="23"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="177" spans="3:9" x14ac:dyDescent="0.25">
@@ -5153,19 +5179,19 @@
       </c>
       <c r="F177" s="13">
         <f t="shared" si="20"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G177" s="8">
         <f t="shared" si="21"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H177" s="8">
         <f t="shared" si="22"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I177" s="15">
         <f t="shared" si="23"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="178" spans="3:9" x14ac:dyDescent="0.25">
@@ -5177,19 +5203,19 @@
       </c>
       <c r="F178" s="13">
         <f t="shared" si="20"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G178" s="8">
         <f t="shared" si="21"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H178" s="8">
         <f t="shared" si="22"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I178" s="15">
         <f t="shared" si="23"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="179" spans="3:9" x14ac:dyDescent="0.25">
@@ -5201,19 +5227,19 @@
       </c>
       <c r="F179" s="13">
         <f t="shared" si="20"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G179" s="8">
         <f t="shared" si="21"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H179" s="8">
         <f t="shared" si="22"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I179" s="15">
         <f t="shared" si="23"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="180" spans="3:9" x14ac:dyDescent="0.25">
@@ -5225,19 +5251,19 @@
       </c>
       <c r="F180" s="13">
         <f t="shared" si="20"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G180" s="8">
         <f t="shared" si="21"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H180" s="8">
         <f t="shared" si="22"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I180" s="15">
         <f t="shared" si="23"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="181" spans="3:9" x14ac:dyDescent="0.25">
@@ -5249,19 +5275,19 @@
       </c>
       <c r="F181" s="13">
         <f t="shared" si="20"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G181" s="8">
         <f t="shared" si="21"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H181" s="8">
         <f t="shared" si="22"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I181" s="15">
         <f t="shared" si="23"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="182" spans="3:9" x14ac:dyDescent="0.25">
@@ -5273,19 +5299,19 @@
       </c>
       <c r="F182" s="13">
         <f t="shared" si="20"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G182" s="8">
         <f t="shared" si="21"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H182" s="8">
         <f t="shared" si="22"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I182" s="15">
         <f t="shared" si="23"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="183" spans="3:9" x14ac:dyDescent="0.25">
@@ -5297,19 +5323,19 @@
       </c>
       <c r="F183" s="13">
         <f t="shared" si="20"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G183" s="8">
         <f t="shared" si="21"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H183" s="8">
         <f t="shared" si="22"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I183" s="15">
         <f t="shared" si="23"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="184" spans="3:9" x14ac:dyDescent="0.25">
@@ -5321,19 +5347,19 @@
       </c>
       <c r="F184" s="13">
         <f t="shared" si="20"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G184" s="8">
         <f t="shared" si="21"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H184" s="8">
         <f t="shared" si="22"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I184" s="15">
         <f t="shared" si="23"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="185" spans="3:9" x14ac:dyDescent="0.25">
@@ -5345,19 +5371,19 @@
       </c>
       <c r="F185" s="13">
         <f t="shared" si="20"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G185" s="8">
         <f t="shared" si="21"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H185" s="8">
         <f t="shared" si="22"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I185" s="15">
         <f t="shared" si="23"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="186" spans="3:9" x14ac:dyDescent="0.25">
@@ -5369,19 +5395,19 @@
       </c>
       <c r="F186" s="13">
         <f t="shared" si="20"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G186" s="8">
         <f t="shared" si="21"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H186" s="8">
         <f t="shared" si="22"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I186" s="15">
         <f t="shared" si="23"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="187" spans="3:9" x14ac:dyDescent="0.25">
@@ -5393,19 +5419,19 @@
       </c>
       <c r="F187" s="13">
         <f t="shared" si="20"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G187" s="8">
         <f t="shared" si="21"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H187" s="8">
         <f t="shared" si="22"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I187" s="15">
         <f t="shared" si="23"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="188" spans="3:9" x14ac:dyDescent="0.25">
@@ -5417,19 +5443,19 @@
       </c>
       <c r="F188" s="13">
         <f t="shared" si="20"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G188" s="8">
         <f t="shared" si="21"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H188" s="8">
         <f t="shared" si="22"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I188" s="15">
         <f t="shared" si="23"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="189" spans="3:9" x14ac:dyDescent="0.25">
@@ -5441,19 +5467,19 @@
       </c>
       <c r="F189" s="13">
         <f t="shared" si="20"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G189" s="8">
         <f t="shared" si="21"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H189" s="8">
         <f t="shared" si="22"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I189" s="15">
         <f t="shared" si="23"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="190" spans="3:9" x14ac:dyDescent="0.25">
@@ -5465,19 +5491,19 @@
       </c>
       <c r="F190" s="13">
         <f t="shared" si="20"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G190" s="8">
         <f t="shared" si="21"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H190" s="8">
         <f t="shared" si="22"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I190" s="15">
         <f t="shared" si="23"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="191" spans="3:9" x14ac:dyDescent="0.25">
@@ -5489,19 +5515,19 @@
       </c>
       <c r="F191" s="13">
         <f t="shared" si="20"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G191" s="8">
         <f t="shared" si="21"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H191" s="8">
         <f t="shared" si="22"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I191" s="15">
         <f t="shared" si="23"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="192" spans="3:9" x14ac:dyDescent="0.25">
@@ -5513,19 +5539,19 @@
       </c>
       <c r="F192" s="13">
         <f t="shared" si="20"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G192" s="8">
         <f t="shared" si="21"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H192" s="8">
         <f t="shared" si="22"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I192" s="15">
         <f t="shared" si="23"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="193" spans="3:9" x14ac:dyDescent="0.25">
@@ -5537,19 +5563,19 @@
       </c>
       <c r="F193" s="13">
         <f t="shared" si="20"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G193" s="8">
         <f t="shared" si="21"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H193" s="8">
         <f t="shared" si="22"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I193" s="15">
         <f t="shared" si="23"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="194" spans="3:9" x14ac:dyDescent="0.25">
@@ -5561,19 +5587,19 @@
       </c>
       <c r="F194" s="13">
         <f t="shared" si="20"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G194" s="8">
         <f t="shared" si="21"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H194" s="8">
         <f t="shared" si="22"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I194" s="15">
         <f t="shared" si="23"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="195" spans="3:9" x14ac:dyDescent="0.25">
@@ -5585,19 +5611,19 @@
       </c>
       <c r="F195" s="13">
         <f t="shared" si="20"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G195" s="8">
         <f t="shared" si="21"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H195" s="8">
         <f t="shared" si="22"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I195" s="15">
         <f t="shared" si="23"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="196" spans="3:9" x14ac:dyDescent="0.25">
@@ -5609,19 +5635,19 @@
       </c>
       <c r="F196" s="13">
         <f t="shared" si="20"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G196" s="8">
         <f t="shared" si="21"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H196" s="8">
         <f t="shared" si="22"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I196" s="15">
         <f t="shared" si="23"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="197" spans="3:9" x14ac:dyDescent="0.25">
@@ -5633,19 +5659,19 @@
       </c>
       <c r="F197" s="13">
         <f t="shared" si="20"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G197" s="8">
         <f t="shared" si="21"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H197" s="8">
         <f t="shared" si="22"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I197" s="15">
         <f t="shared" si="23"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="198" spans="3:9" x14ac:dyDescent="0.25">
@@ -5657,19 +5683,19 @@
       </c>
       <c r="F198" s="13">
         <f t="shared" si="20"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G198" s="8">
         <f t="shared" si="21"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H198" s="8">
         <f t="shared" si="22"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I198" s="15">
         <f t="shared" si="23"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="199" spans="3:9" x14ac:dyDescent="0.25">
@@ -5681,19 +5707,19 @@
       </c>
       <c r="F199" s="13">
         <f t="shared" si="20"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G199" s="8">
         <f t="shared" si="21"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H199" s="8">
         <f t="shared" si="22"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I199" s="15">
         <f t="shared" si="23"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="200" spans="3:9" x14ac:dyDescent="0.25">
@@ -5705,19 +5731,19 @@
       </c>
       <c r="F200" s="13">
         <f t="shared" si="20"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G200" s="8">
         <f t="shared" si="21"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H200" s="8">
         <f t="shared" si="22"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I200" s="15">
         <f t="shared" si="23"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="201" spans="3:9" x14ac:dyDescent="0.25">
@@ -5729,19 +5755,19 @@
       </c>
       <c r="F201" s="13">
         <f t="shared" si="20"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G201" s="8">
         <f t="shared" si="21"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H201" s="8">
         <f t="shared" si="22"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I201" s="15">
         <f t="shared" si="23"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="202" spans="3:9" x14ac:dyDescent="0.25">
@@ -5753,19 +5779,19 @@
       </c>
       <c r="F202" s="13">
         <f t="shared" si="20"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G202" s="8">
         <f t="shared" si="21"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H202" s="8">
         <f t="shared" si="22"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I202" s="15">
         <f t="shared" si="23"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="203" spans="3:9" x14ac:dyDescent="0.25">
@@ -5777,19 +5803,19 @@
       </c>
       <c r="F203" s="13">
         <f t="shared" si="20"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G203" s="8">
         <f t="shared" si="21"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H203" s="8">
         <f t="shared" si="22"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I203" s="15">
         <f t="shared" si="23"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="204" spans="3:9" x14ac:dyDescent="0.25">
@@ -5801,19 +5827,19 @@
       </c>
       <c r="F204" s="13">
         <f t="shared" si="20"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G204" s="8">
         <f t="shared" si="21"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H204" s="8">
         <f t="shared" si="22"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I204" s="15">
         <f t="shared" si="23"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="205" spans="3:9" x14ac:dyDescent="0.25">
@@ -5825,19 +5851,19 @@
       </c>
       <c r="F205" s="13">
         <f t="shared" si="20"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G205" s="8">
         <f t="shared" si="21"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H205" s="8">
         <f t="shared" si="22"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I205" s="15">
         <f t="shared" si="23"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="206" spans="3:9" x14ac:dyDescent="0.25">
@@ -5849,19 +5875,19 @@
       </c>
       <c r="F206" s="13">
         <f t="shared" si="20"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G206" s="8">
         <f t="shared" si="21"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H206" s="8">
         <f t="shared" si="22"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I206" s="15">
         <f t="shared" si="23"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="207" spans="3:9" x14ac:dyDescent="0.25">
@@ -5873,19 +5899,19 @@
       </c>
       <c r="F207" s="13">
         <f t="shared" si="20"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G207" s="8">
         <f t="shared" si="21"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H207" s="8">
         <f t="shared" si="22"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I207" s="15">
         <f t="shared" si="23"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="208" spans="3:9" x14ac:dyDescent="0.25">
@@ -5897,19 +5923,19 @@
       </c>
       <c r="F208" s="13">
         <f t="shared" si="20"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G208" s="8">
         <f t="shared" si="21"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H208" s="8">
         <f t="shared" si="22"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I208" s="15">
         <f t="shared" si="23"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="209" spans="3:9" x14ac:dyDescent="0.25">
@@ -5921,19 +5947,19 @@
       </c>
       <c r="F209" s="13">
         <f t="shared" si="20"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G209" s="8">
         <f t="shared" si="21"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H209" s="8">
         <f t="shared" si="22"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I209" s="15">
         <f t="shared" si="23"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="210" spans="3:9" x14ac:dyDescent="0.25">
@@ -5945,19 +5971,19 @@
       </c>
       <c r="F210" s="13">
         <f t="shared" si="20"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G210" s="8">
         <f t="shared" si="21"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H210" s="8">
         <f t="shared" si="22"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I210" s="15">
         <f t="shared" si="23"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="211" spans="3:9" x14ac:dyDescent="0.25">
@@ -5969,19 +5995,19 @@
       </c>
       <c r="F211" s="13">
         <f t="shared" si="20"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G211" s="8">
         <f t="shared" si="21"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H211" s="8">
         <f t="shared" si="22"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I211" s="15">
         <f t="shared" si="23"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="212" spans="3:9" x14ac:dyDescent="0.25">
@@ -5993,19 +6019,19 @@
       </c>
       <c r="F212" s="13">
         <f t="shared" si="20"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G212" s="8">
         <f t="shared" si="21"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H212" s="8">
         <f t="shared" si="22"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I212" s="15">
         <f t="shared" si="23"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="213" spans="3:9" x14ac:dyDescent="0.25">
@@ -6017,19 +6043,19 @@
       </c>
       <c r="F213" s="13">
         <f t="shared" si="20"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G213" s="8">
         <f t="shared" si="21"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H213" s="8">
         <f t="shared" si="22"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I213" s="15">
         <f t="shared" si="23"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="214" spans="3:9" x14ac:dyDescent="0.25">
@@ -6041,19 +6067,19 @@
       </c>
       <c r="F214" s="13">
         <f t="shared" si="20"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G214" s="8">
         <f t="shared" si="21"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H214" s="8">
         <f t="shared" si="22"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I214" s="15">
         <f t="shared" si="23"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="215" spans="3:9" x14ac:dyDescent="0.25">
@@ -6065,19 +6091,19 @@
       </c>
       <c r="F215" s="13">
         <f t="shared" si="20"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G215" s="8">
         <f t="shared" si="21"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H215" s="8">
         <f t="shared" si="22"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I215" s="15">
         <f t="shared" si="23"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="216" spans="3:9" x14ac:dyDescent="0.25">
@@ -6089,19 +6115,19 @@
       </c>
       <c r="F216" s="13">
         <f t="shared" si="20"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G216" s="8">
         <f t="shared" si="21"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H216" s="8">
         <f t="shared" si="22"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I216" s="15">
         <f t="shared" si="23"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="217" spans="3:9" x14ac:dyDescent="0.25">
@@ -6113,19 +6139,19 @@
       </c>
       <c r="F217" s="13">
         <f t="shared" si="20"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G217" s="8">
         <f t="shared" si="21"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H217" s="8">
         <f t="shared" si="22"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I217" s="15">
         <f t="shared" si="23"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="218" spans="3:9" x14ac:dyDescent="0.25">
@@ -6137,19 +6163,19 @@
       </c>
       <c r="F218" s="13">
         <f t="shared" si="20"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G218" s="8">
         <f t="shared" si="21"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H218" s="8">
         <f t="shared" si="22"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I218" s="15">
         <f t="shared" si="23"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="219" spans="3:9" x14ac:dyDescent="0.25">
@@ -6161,19 +6187,19 @@
       </c>
       <c r="F219" s="13">
         <f t="shared" si="20"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G219" s="8">
         <f t="shared" si="21"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H219" s="8">
         <f t="shared" si="22"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I219" s="15">
         <f t="shared" si="23"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="220" spans="3:9" x14ac:dyDescent="0.25">
@@ -6185,19 +6211,19 @@
       </c>
       <c r="F220" s="13">
         <f t="shared" si="20"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G220" s="8">
         <f t="shared" si="21"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H220" s="8">
         <f t="shared" si="22"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I220" s="15">
         <f t="shared" si="23"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="221" spans="3:9" x14ac:dyDescent="0.25">
@@ -6209,19 +6235,19 @@
       </c>
       <c r="F221" s="13">
         <f t="shared" si="20"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G221" s="8">
         <f t="shared" si="21"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H221" s="8">
         <f t="shared" si="22"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I221" s="15">
         <f t="shared" si="23"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="222" spans="3:9" x14ac:dyDescent="0.25">
@@ -6233,19 +6259,19 @@
       </c>
       <c r="F222" s="13">
         <f t="shared" si="20"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G222" s="8">
         <f t="shared" si="21"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H222" s="8">
         <f t="shared" si="22"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I222" s="15">
         <f t="shared" si="23"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="223" spans="3:9" x14ac:dyDescent="0.25">
@@ -6257,19 +6283,19 @@
       </c>
       <c r="F223" s="13">
         <f t="shared" si="20"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G223" s="8">
         <f t="shared" si="21"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H223" s="8">
         <f t="shared" si="22"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I223" s="15">
         <f t="shared" si="23"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="224" spans="3:9" x14ac:dyDescent="0.25">
@@ -6281,19 +6307,19 @@
       </c>
       <c r="F224" s="13">
         <f t="shared" si="20"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G224" s="8">
         <f t="shared" si="21"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H224" s="8">
         <f t="shared" si="22"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I224" s="15">
         <f t="shared" si="23"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="225" spans="3:9" x14ac:dyDescent="0.25">
@@ -6305,19 +6331,19 @@
       </c>
       <c r="F225" s="13">
         <f t="shared" si="20"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G225" s="8">
         <f t="shared" si="21"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H225" s="8">
         <f t="shared" si="22"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I225" s="15">
         <f t="shared" si="23"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="226" spans="3:9" x14ac:dyDescent="0.25">
@@ -6329,19 +6355,19 @@
       </c>
       <c r="F226" s="13">
         <f t="shared" si="20"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G226" s="8">
         <f t="shared" si="21"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H226" s="8">
         <f t="shared" si="22"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I226" s="15">
         <f t="shared" si="23"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="227" spans="3:9" x14ac:dyDescent="0.25">
@@ -6353,19 +6379,19 @@
       </c>
       <c r="F227" s="13">
         <f t="shared" si="20"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G227" s="8">
         <f t="shared" si="21"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H227" s="8">
         <f t="shared" si="22"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I227" s="15">
         <f t="shared" si="23"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="228" spans="3:9" x14ac:dyDescent="0.25">
@@ -6377,19 +6403,19 @@
       </c>
       <c r="F228" s="13">
         <f t="shared" si="20"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G228" s="8">
         <f t="shared" si="21"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H228" s="8">
         <f t="shared" si="22"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I228" s="15">
         <f t="shared" si="23"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="229" spans="3:9" x14ac:dyDescent="0.25">
@@ -6401,19 +6427,19 @@
       </c>
       <c r="F229" s="13">
         <f t="shared" si="20"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G229" s="8">
         <f t="shared" si="21"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H229" s="8">
         <f t="shared" si="22"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I229" s="15">
         <f t="shared" si="23"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="230" spans="3:9" x14ac:dyDescent="0.25">
@@ -6425,19 +6451,19 @@
       </c>
       <c r="F230" s="13">
         <f t="shared" si="20"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G230" s="8">
         <f t="shared" si="21"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H230" s="8">
         <f t="shared" si="22"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I230" s="15">
         <f t="shared" si="23"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="231" spans="3:9" x14ac:dyDescent="0.25">
@@ -6449,19 +6475,19 @@
       </c>
       <c r="F231" s="13">
         <f t="shared" si="20"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G231" s="8">
         <f t="shared" si="21"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H231" s="8">
         <f t="shared" si="22"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I231" s="15">
         <f t="shared" si="23"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="232" spans="3:9" x14ac:dyDescent="0.25">
@@ -6473,19 +6499,19 @@
       </c>
       <c r="F232" s="13">
         <f t="shared" ref="F232:F255" si="25">F231+E232</f>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G232" s="8">
         <f t="shared" ref="G232:G255" si="26">F232</f>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H232" s="8">
         <f t="shared" ref="H232:H255" si="27">(H231+G232-G231)</f>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I232" s="15">
         <f t="shared" ref="I232:I255" si="28">H232*24*$J$2</f>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="233" spans="3:9" x14ac:dyDescent="0.25">
@@ -6497,19 +6523,19 @@
       </c>
       <c r="F233" s="13">
         <f t="shared" si="25"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G233" s="8">
         <f t="shared" si="26"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H233" s="8">
         <f t="shared" si="27"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I233" s="15">
         <f t="shared" si="28"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="234" spans="3:9" x14ac:dyDescent="0.25">
@@ -6521,19 +6547,19 @@
       </c>
       <c r="F234" s="13">
         <f t="shared" si="25"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G234" s="8">
         <f t="shared" si="26"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H234" s="8">
         <f t="shared" si="27"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I234" s="15">
         <f t="shared" si="28"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="235" spans="3:9" x14ac:dyDescent="0.25">
@@ -6545,19 +6571,19 @@
       </c>
       <c r="F235" s="13">
         <f t="shared" si="25"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G235" s="8">
         <f t="shared" si="26"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H235" s="8">
         <f t="shared" si="27"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I235" s="15">
         <f t="shared" si="28"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="236" spans="3:9" x14ac:dyDescent="0.25">
@@ -6569,19 +6595,19 @@
       </c>
       <c r="F236" s="13">
         <f t="shared" si="25"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G236" s="8">
         <f t="shared" si="26"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H236" s="8">
         <f t="shared" si="27"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I236" s="15">
         <f t="shared" si="28"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="237" spans="3:9" x14ac:dyDescent="0.25">
@@ -6593,19 +6619,19 @@
       </c>
       <c r="F237" s="13">
         <f t="shared" si="25"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G237" s="8">
         <f t="shared" si="26"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H237" s="8">
         <f t="shared" si="27"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I237" s="15">
         <f t="shared" si="28"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="238" spans="3:9" x14ac:dyDescent="0.25">
@@ -6617,19 +6643,19 @@
       </c>
       <c r="F238" s="13">
         <f t="shared" si="25"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G238" s="8">
         <f t="shared" si="26"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H238" s="8">
         <f t="shared" si="27"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I238" s="15">
         <f t="shared" si="28"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="239" spans="3:9" x14ac:dyDescent="0.25">
@@ -6641,19 +6667,19 @@
       </c>
       <c r="F239" s="13">
         <f t="shared" si="25"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G239" s="8">
         <f t="shared" si="26"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H239" s="8">
         <f t="shared" si="27"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I239" s="15">
         <f t="shared" si="28"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="240" spans="3:9" x14ac:dyDescent="0.25">
@@ -6665,19 +6691,19 @@
       </c>
       <c r="F240" s="13">
         <f t="shared" si="25"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G240" s="8">
         <f t="shared" si="26"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H240" s="8">
         <f t="shared" si="27"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I240" s="15">
         <f t="shared" si="28"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="241" spans="3:9" x14ac:dyDescent="0.25">
@@ -6689,19 +6715,19 @@
       </c>
       <c r="F241" s="13">
         <f t="shared" si="25"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G241" s="8">
         <f t="shared" si="26"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H241" s="8">
         <f t="shared" si="27"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I241" s="15">
         <f t="shared" si="28"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="242" spans="3:9" x14ac:dyDescent="0.25">
@@ -6713,19 +6739,19 @@
       </c>
       <c r="F242" s="13">
         <f t="shared" si="25"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G242" s="8">
         <f t="shared" si="26"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H242" s="8">
         <f t="shared" si="27"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I242" s="15">
         <f t="shared" si="28"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="243" spans="3:9" x14ac:dyDescent="0.25">
@@ -6737,19 +6763,19 @@
       </c>
       <c r="F243" s="13">
         <f t="shared" si="25"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G243" s="8">
         <f t="shared" si="26"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H243" s="8">
         <f t="shared" si="27"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I243" s="15">
         <f t="shared" si="28"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="244" spans="3:9" x14ac:dyDescent="0.25">
@@ -6761,19 +6787,19 @@
       </c>
       <c r="F244" s="13">
         <f t="shared" si="25"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G244" s="8">
         <f t="shared" si="26"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H244" s="8">
         <f t="shared" si="27"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I244" s="15">
         <f t="shared" si="28"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="245" spans="3:9" x14ac:dyDescent="0.25">
@@ -6785,19 +6811,19 @@
       </c>
       <c r="F245" s="13">
         <f t="shared" si="25"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G245" s="8">
         <f t="shared" si="26"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H245" s="8">
         <f t="shared" si="27"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I245" s="15">
         <f t="shared" si="28"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="246" spans="3:9" x14ac:dyDescent="0.25">
@@ -6809,19 +6835,19 @@
       </c>
       <c r="F246" s="13">
         <f t="shared" si="25"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G246" s="8">
         <f t="shared" si="26"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H246" s="8">
         <f t="shared" si="27"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I246" s="15">
         <f t="shared" si="28"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="247" spans="3:9" x14ac:dyDescent="0.25">
@@ -6833,19 +6859,19 @@
       </c>
       <c r="F247" s="13">
         <f t="shared" si="25"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G247" s="8">
         <f t="shared" si="26"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H247" s="8">
         <f t="shared" si="27"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I247" s="15">
         <f t="shared" si="28"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="248" spans="3:9" x14ac:dyDescent="0.25">
@@ -6857,19 +6883,19 @@
       </c>
       <c r="F248" s="13">
         <f t="shared" si="25"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G248" s="8">
         <f t="shared" si="26"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H248" s="8">
         <f t="shared" si="27"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I248" s="15">
         <f t="shared" si="28"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="249" spans="3:9" x14ac:dyDescent="0.25">
@@ -6881,19 +6907,19 @@
       </c>
       <c r="F249" s="13">
         <f t="shared" si="25"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G249" s="8">
         <f t="shared" si="26"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H249" s="8">
         <f t="shared" si="27"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I249" s="15">
         <f t="shared" si="28"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="250" spans="3:9" x14ac:dyDescent="0.25">
@@ -6905,19 +6931,19 @@
       </c>
       <c r="F250" s="13">
         <f t="shared" si="25"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G250" s="8">
         <f t="shared" si="26"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H250" s="8">
         <f t="shared" si="27"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I250" s="15">
         <f t="shared" si="28"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="251" spans="3:9" x14ac:dyDescent="0.25">
@@ -6929,19 +6955,19 @@
       </c>
       <c r="F251" s="13">
         <f t="shared" si="25"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G251" s="8">
         <f t="shared" si="26"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H251" s="8">
         <f t="shared" si="27"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I251" s="15">
         <f t="shared" si="28"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="252" spans="3:9" x14ac:dyDescent="0.25">
@@ -6953,19 +6979,19 @@
       </c>
       <c r="F252" s="13">
         <f t="shared" si="25"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G252" s="8">
         <f t="shared" si="26"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H252" s="8">
         <f t="shared" si="27"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I252" s="15">
         <f t="shared" si="28"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="253" spans="3:9" x14ac:dyDescent="0.25">
@@ -6977,19 +7003,19 @@
       </c>
       <c r="F253" s="13">
         <f t="shared" si="25"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G253" s="8">
         <f t="shared" si="26"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H253" s="8">
         <f t="shared" si="27"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I253" s="15">
         <f t="shared" si="28"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="254" spans="3:9" x14ac:dyDescent="0.25">
@@ -7001,19 +7027,19 @@
       </c>
       <c r="F254" s="13">
         <f t="shared" si="25"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G254" s="8">
         <f t="shared" si="26"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H254" s="8">
         <f t="shared" si="27"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I254" s="15">
         <f t="shared" si="28"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
     <row r="255" spans="3:9" x14ac:dyDescent="0.25">
@@ -7025,19 +7051,19 @@
       </c>
       <c r="F255" s="13">
         <f t="shared" si="25"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="G255" s="8">
         <f t="shared" si="26"/>
-        <v>1.2201388888888889</v>
+        <v>1.5027777777777773</v>
       </c>
       <c r="H255" s="8">
         <f t="shared" si="27"/>
-        <v>2.3701388888888895</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="I255" s="15">
         <f t="shared" si="28"/>
-        <v>9670.1666666666697</v>
+        <v>10823.333333333332</v>
       </c>
     </row>
   </sheetData>

--- a/hodiny.xlsx
+++ b/hodiny.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB1EEA06-2556-483E-91D3-445FF6E27E5E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D26EA956-449F-4479-8C22-F5C8266CCAE3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5070" yWindow="5070" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>čas [min]</t>
   </si>
@@ -113,6 +113,15 @@
   </si>
   <si>
     <t>začátek 6368</t>
+  </si>
+  <si>
+    <t>15.6.</t>
+  </si>
+  <si>
+    <t>16.6.</t>
+  </si>
+  <si>
+    <t>22.6.</t>
   </si>
 </sst>
 </file>
@@ -627,7 +636,7 @@
   <dimension ref="B1:J255"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G68" sqref="G68"/>
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2463,7 +2472,7 @@
         <v>10214.166666666672</v>
       </c>
     </row>
-    <row r="65" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C65" s="2">
         <v>0.72569444444444453</v>
       </c>
@@ -2491,7 +2500,7 @@
         <v>10381.333333333336</v>
       </c>
     </row>
-    <row r="66" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C66" s="2">
         <v>0.76666666666666661</v>
       </c>
@@ -2522,7 +2531,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="67" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C67" s="2">
         <v>0.81527777777777777</v>
       </c>
@@ -2550,7 +2559,7 @@
         <v>10698.66666666667</v>
       </c>
     </row>
-    <row r="68" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C68" s="2">
         <v>0.90277777777777779</v>
       </c>
@@ -2578,103 +2587,128 @@
         <v>10823.333333333334</v>
       </c>
     </row>
-    <row r="69" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C69" s="2"/>
-      <c r="D69" s="10"/>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B69" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C69" s="2">
+        <v>0.26250000000000001</v>
+      </c>
+      <c r="D69" s="10">
+        <v>0.27361111111111108</v>
+      </c>
       <c r="E69" s="12">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1.1111111111111072E-2</v>
       </c>
       <c r="F69" s="13">
         <f t="shared" si="10"/>
-        <v>1.5027777777777773</v>
+        <v>1.5138888888888884</v>
       </c>
       <c r="G69" s="8">
         <f t="shared" si="11"/>
-        <v>1.5027777777777773</v>
+        <v>1.5138888888888884</v>
       </c>
       <c r="H69" s="8">
         <f t="shared" si="12"/>
-        <v>2.6527777777777777</v>
+        <v>2.6638888888888888</v>
       </c>
       <c r="I69" s="15">
         <f t="shared" si="13"/>
-        <v>10823.333333333332</v>
-      </c>
-    </row>
-    <row r="70" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C70" s="2"/>
-      <c r="D70" s="10"/>
+        <v>10868.666666666666</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C70" s="2">
+        <v>0.57222222222222219</v>
+      </c>
+      <c r="D70" s="10">
+        <v>0.60555555555555551</v>
+      </c>
       <c r="E70" s="12">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>3.3333333333333326E-2</v>
       </c>
       <c r="F70" s="13">
         <f t="shared" si="10"/>
-        <v>1.5027777777777773</v>
+        <v>1.5472222222222216</v>
       </c>
       <c r="G70" s="8">
         <f t="shared" si="11"/>
-        <v>1.5027777777777773</v>
+        <v>1.5472222222222216</v>
       </c>
       <c r="H70" s="8">
         <f t="shared" si="12"/>
-        <v>2.6527777777777777</v>
+        <v>2.697222222222222</v>
       </c>
       <c r="I70" s="15">
         <f t="shared" si="13"/>
-        <v>10823.333333333332</v>
-      </c>
-    </row>
-    <row r="71" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C71" s="2"/>
-      <c r="D71" s="10"/>
+        <v>11004.666666666664</v>
+      </c>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B71" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C71" s="2">
+        <v>0.72569444444444453</v>
+      </c>
+      <c r="D71" s="10">
+        <v>0.75347222222222221</v>
+      </c>
       <c r="E71" s="12">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>2.7777777777777679E-2</v>
       </c>
       <c r="F71" s="13">
         <f t="shared" si="10"/>
-        <v>1.5027777777777773</v>
+        <v>1.5749999999999993</v>
       </c>
       <c r="G71" s="8">
         <f t="shared" si="11"/>
-        <v>1.5027777777777773</v>
+        <v>1.5749999999999993</v>
       </c>
       <c r="H71" s="8">
         <f t="shared" si="12"/>
-        <v>2.6527777777777777</v>
+        <v>2.7249999999999996</v>
       </c>
       <c r="I71" s="15">
         <f t="shared" si="13"/>
-        <v>10823.333333333332</v>
-      </c>
-    </row>
-    <row r="72" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C72" s="2"/>
-      <c r="D72" s="10"/>
+        <v>11117.999999999998</v>
+      </c>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B72" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C72" s="2">
+        <v>9.375E-2</v>
+      </c>
+      <c r="D72" s="10">
+        <v>0.14027777777777778</v>
+      </c>
       <c r="E72" s="12">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>4.6527777777777779E-2</v>
       </c>
       <c r="F72" s="13">
         <f t="shared" si="10"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G72" s="8">
         <f t="shared" si="11"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H72" s="8">
         <f t="shared" si="12"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I72" s="15">
         <f t="shared" si="13"/>
-        <v>10823.333333333332</v>
-      </c>
-    </row>
-    <row r="73" spans="3:10" x14ac:dyDescent="0.25">
+        <v>11307.83333333333</v>
+      </c>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C73" s="2"/>
       <c r="D73" s="10"/>
       <c r="E73" s="12">
@@ -2683,22 +2717,22 @@
       </c>
       <c r="F73" s="13">
         <f t="shared" si="10"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G73" s="8">
         <f t="shared" si="11"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H73" s="8">
         <f t="shared" si="12"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I73" s="15">
         <f t="shared" si="13"/>
-        <v>10823.333333333332</v>
-      </c>
-    </row>
-    <row r="74" spans="3:10" x14ac:dyDescent="0.25">
+        <v>11307.83333333333</v>
+      </c>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C74" s="2"/>
       <c r="D74" s="10"/>
       <c r="E74" s="12">
@@ -2707,22 +2741,22 @@
       </c>
       <c r="F74" s="13">
         <f t="shared" si="10"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G74" s="8">
         <f t="shared" si="11"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H74" s="8">
         <f t="shared" si="12"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I74" s="15">
         <f t="shared" si="13"/>
-        <v>10823.333333333332</v>
-      </c>
-    </row>
-    <row r="75" spans="3:10" x14ac:dyDescent="0.25">
+        <v>11307.83333333333</v>
+      </c>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C75" s="2"/>
       <c r="D75" s="10"/>
       <c r="E75" s="12">
@@ -2731,22 +2765,22 @@
       </c>
       <c r="F75" s="13">
         <f t="shared" si="10"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G75" s="8">
         <f t="shared" si="11"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H75" s="8">
         <f t="shared" si="12"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I75" s="15">
         <f t="shared" si="13"/>
-        <v>10823.333333333332</v>
-      </c>
-    </row>
-    <row r="76" spans="3:10" x14ac:dyDescent="0.25">
+        <v>11307.83333333333</v>
+      </c>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C76" s="2"/>
       <c r="D76" s="10"/>
       <c r="E76" s="12">
@@ -2755,22 +2789,22 @@
       </c>
       <c r="F76" s="13">
         <f t="shared" si="10"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G76" s="8">
         <f t="shared" si="11"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H76" s="8">
         <f t="shared" si="12"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I76" s="15">
         <f t="shared" si="13"/>
-        <v>10823.333333333332</v>
-      </c>
-    </row>
-    <row r="77" spans="3:10" x14ac:dyDescent="0.25">
+        <v>11307.83333333333</v>
+      </c>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C77" s="2"/>
       <c r="D77" s="10"/>
       <c r="E77" s="12">
@@ -2779,22 +2813,22 @@
       </c>
       <c r="F77" s="13">
         <f t="shared" si="10"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G77" s="8">
         <f t="shared" si="11"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H77" s="8">
         <f t="shared" si="12"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I77" s="15">
         <f t="shared" si="13"/>
-        <v>10823.333333333332</v>
-      </c>
-    </row>
-    <row r="78" spans="3:10" x14ac:dyDescent="0.25">
+        <v>11307.83333333333</v>
+      </c>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C78" s="2"/>
       <c r="D78" s="10"/>
       <c r="E78" s="12">
@@ -2803,22 +2837,22 @@
       </c>
       <c r="F78" s="13">
         <f t="shared" si="10"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G78" s="8">
         <f t="shared" si="11"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H78" s="8">
         <f t="shared" si="12"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I78" s="15">
         <f t="shared" si="13"/>
-        <v>10823.333333333332</v>
-      </c>
-    </row>
-    <row r="79" spans="3:10" x14ac:dyDescent="0.25">
+        <v>11307.83333333333</v>
+      </c>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C79" s="2"/>
       <c r="D79" s="10"/>
       <c r="E79" s="12">
@@ -2827,22 +2861,22 @@
       </c>
       <c r="F79" s="13">
         <f t="shared" si="10"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G79" s="8">
         <f t="shared" si="11"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H79" s="8">
         <f t="shared" si="12"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I79" s="15">
         <f t="shared" si="13"/>
-        <v>10823.333333333332</v>
-      </c>
-    </row>
-    <row r="80" spans="3:10" x14ac:dyDescent="0.25">
+        <v>11307.83333333333</v>
+      </c>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C80" s="2"/>
       <c r="D80" s="10"/>
       <c r="E80" s="12">
@@ -2851,19 +2885,19 @@
       </c>
       <c r="F80" s="13">
         <f t="shared" si="10"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G80" s="8">
         <f t="shared" si="11"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H80" s="8">
         <f t="shared" si="12"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I80" s="15">
         <f t="shared" si="13"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="81" spans="3:9" x14ac:dyDescent="0.25">
@@ -2875,19 +2909,19 @@
       </c>
       <c r="F81" s="13">
         <f t="shared" si="10"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G81" s="8">
         <f t="shared" si="11"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H81" s="8">
         <f t="shared" si="12"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I81" s="15">
         <f t="shared" si="13"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="82" spans="3:9" x14ac:dyDescent="0.25">
@@ -2899,19 +2933,19 @@
       </c>
       <c r="F82" s="13">
         <f t="shared" si="10"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G82" s="8">
         <f t="shared" si="11"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H82" s="8">
         <f t="shared" si="12"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I82" s="15">
         <f t="shared" si="13"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="83" spans="3:9" x14ac:dyDescent="0.25">
@@ -2923,19 +2957,19 @@
       </c>
       <c r="F83" s="13">
         <f t="shared" si="10"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G83" s="8">
         <f t="shared" si="11"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H83" s="8">
         <f t="shared" si="12"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I83" s="15">
         <f t="shared" si="13"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="84" spans="3:9" x14ac:dyDescent="0.25">
@@ -2947,19 +2981,19 @@
       </c>
       <c r="F84" s="13">
         <f t="shared" si="10"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G84" s="8">
         <f t="shared" si="11"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H84" s="8">
         <f t="shared" si="12"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I84" s="15">
         <f t="shared" si="13"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="85" spans="3:9" x14ac:dyDescent="0.25">
@@ -2971,19 +3005,19 @@
       </c>
       <c r="F85" s="13">
         <f t="shared" si="10"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G85" s="8">
         <f t="shared" si="11"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H85" s="8">
         <f t="shared" si="12"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I85" s="15">
         <f t="shared" si="13"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="86" spans="3:9" x14ac:dyDescent="0.25">
@@ -2995,19 +3029,19 @@
       </c>
       <c r="F86" s="13">
         <f t="shared" si="10"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G86" s="8">
         <f t="shared" si="11"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H86" s="8">
         <f t="shared" si="12"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I86" s="15">
         <f t="shared" si="13"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="87" spans="3:9" x14ac:dyDescent="0.25">
@@ -3019,19 +3053,19 @@
       </c>
       <c r="F87" s="13">
         <f t="shared" si="10"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G87" s="8">
         <f t="shared" si="11"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H87" s="8">
         <f t="shared" si="12"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I87" s="15">
         <f t="shared" si="13"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="88" spans="3:9" x14ac:dyDescent="0.25">
@@ -3043,19 +3077,19 @@
       </c>
       <c r="F88" s="13">
         <f t="shared" si="10"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G88" s="8">
         <f t="shared" si="11"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H88" s="8">
         <f t="shared" si="12"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I88" s="15">
         <f t="shared" si="13"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="89" spans="3:9" x14ac:dyDescent="0.25">
@@ -3067,19 +3101,19 @@
       </c>
       <c r="F89" s="13">
         <f t="shared" si="10"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G89" s="8">
         <f t="shared" si="11"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H89" s="8">
         <f t="shared" si="12"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I89" s="15">
         <f t="shared" si="13"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="90" spans="3:9" x14ac:dyDescent="0.25">
@@ -3091,19 +3125,19 @@
       </c>
       <c r="F90" s="13">
         <f t="shared" si="10"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G90" s="8">
         <f t="shared" si="11"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H90" s="8">
         <f t="shared" si="12"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I90" s="15">
         <f t="shared" si="13"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="91" spans="3:9" x14ac:dyDescent="0.25">
@@ -3115,19 +3149,19 @@
       </c>
       <c r="F91" s="13">
         <f t="shared" si="10"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G91" s="8">
         <f t="shared" si="11"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H91" s="8">
         <f t="shared" si="12"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I91" s="15">
         <f t="shared" si="13"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="92" spans="3:9" x14ac:dyDescent="0.25">
@@ -3139,19 +3173,19 @@
       </c>
       <c r="F92" s="13">
         <f t="shared" si="10"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G92" s="8">
         <f t="shared" si="11"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H92" s="8">
         <f t="shared" si="12"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I92" s="15">
         <f t="shared" si="13"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="93" spans="3:9" x14ac:dyDescent="0.25">
@@ -3163,19 +3197,19 @@
       </c>
       <c r="F93" s="13">
         <f t="shared" si="10"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G93" s="8">
         <f t="shared" si="11"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H93" s="8">
         <f t="shared" si="12"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I93" s="15">
         <f t="shared" si="13"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="94" spans="3:9" x14ac:dyDescent="0.25">
@@ -3187,19 +3221,19 @@
       </c>
       <c r="F94" s="13">
         <f t="shared" si="10"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G94" s="8">
         <f t="shared" si="11"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H94" s="8">
         <f t="shared" si="12"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I94" s="15">
         <f t="shared" si="13"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="95" spans="3:9" x14ac:dyDescent="0.25">
@@ -3211,19 +3245,19 @@
       </c>
       <c r="F95" s="13">
         <f t="shared" si="10"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G95" s="8">
         <f t="shared" si="11"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H95" s="8">
         <f t="shared" si="12"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I95" s="15">
         <f t="shared" si="13"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="96" spans="3:9" x14ac:dyDescent="0.25">
@@ -3235,19 +3269,19 @@
       </c>
       <c r="F96" s="13">
         <f t="shared" si="10"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G96" s="8">
         <f t="shared" si="11"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H96" s="8">
         <f t="shared" si="12"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I96" s="15">
         <f t="shared" si="13"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="97" spans="3:9" x14ac:dyDescent="0.25">
@@ -3259,19 +3293,19 @@
       </c>
       <c r="F97" s="13">
         <f t="shared" si="10"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G97" s="8">
         <f t="shared" si="11"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H97" s="8">
         <f t="shared" si="12"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I97" s="15">
         <f t="shared" si="13"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="98" spans="3:9" x14ac:dyDescent="0.25">
@@ -3283,19 +3317,19 @@
       </c>
       <c r="F98" s="13">
         <f t="shared" si="10"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G98" s="8">
         <f t="shared" si="11"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H98" s="8">
         <f t="shared" si="12"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I98" s="15">
         <f t="shared" si="13"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="99" spans="3:9" x14ac:dyDescent="0.25">
@@ -3307,19 +3341,19 @@
       </c>
       <c r="F99" s="13">
         <f t="shared" si="10"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G99" s="8">
         <f t="shared" si="11"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H99" s="8">
         <f t="shared" si="12"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I99" s="15">
         <f t="shared" si="13"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="100" spans="3:9" x14ac:dyDescent="0.25">
@@ -3331,19 +3365,19 @@
       </c>
       <c r="F100" s="13">
         <f t="shared" si="10"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G100" s="8">
         <f t="shared" si="11"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H100" s="8">
         <f t="shared" si="12"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I100" s="15">
         <f t="shared" si="13"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="101" spans="3:9" x14ac:dyDescent="0.25">
@@ -3355,19 +3389,19 @@
       </c>
       <c r="F101" s="13">
         <f t="shared" si="10"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G101" s="8">
         <f t="shared" si="11"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H101" s="8">
         <f t="shared" si="12"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I101" s="15">
         <f t="shared" si="13"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="102" spans="3:9" x14ac:dyDescent="0.25">
@@ -3379,19 +3413,19 @@
       </c>
       <c r="F102" s="13">
         <f t="shared" si="10"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G102" s="8">
         <f t="shared" si="11"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H102" s="8">
         <f t="shared" si="12"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I102" s="15">
         <f t="shared" si="13"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="103" spans="3:9" x14ac:dyDescent="0.25">
@@ -3403,19 +3437,19 @@
       </c>
       <c r="F103" s="13">
         <f t="shared" si="10"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G103" s="8">
         <f t="shared" si="11"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H103" s="8">
         <f t="shared" si="12"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I103" s="15">
         <f t="shared" si="13"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="104" spans="3:9" x14ac:dyDescent="0.25">
@@ -3427,19 +3461,19 @@
       </c>
       <c r="F104" s="13">
         <f t="shared" ref="F104:F167" si="15">F103+E104</f>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G104" s="8">
         <f t="shared" ref="G104:G167" si="16">F104</f>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H104" s="8">
         <f t="shared" ref="H104:H167" si="17">(H103+G104-G103)</f>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I104" s="15">
         <f t="shared" ref="I104:I167" si="18">H104*24*$J$2</f>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="105" spans="3:9" x14ac:dyDescent="0.25">
@@ -3451,19 +3485,19 @@
       </c>
       <c r="F105" s="13">
         <f t="shared" si="15"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G105" s="8">
         <f t="shared" si="16"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H105" s="8">
         <f t="shared" si="17"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I105" s="15">
         <f t="shared" si="18"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="106" spans="3:9" x14ac:dyDescent="0.25">
@@ -3475,19 +3509,19 @@
       </c>
       <c r="F106" s="13">
         <f t="shared" si="15"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G106" s="8">
         <f t="shared" si="16"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H106" s="8">
         <f t="shared" si="17"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I106" s="15">
         <f t="shared" si="18"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="107" spans="3:9" x14ac:dyDescent="0.25">
@@ -3499,19 +3533,19 @@
       </c>
       <c r="F107" s="13">
         <f t="shared" si="15"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G107" s="8">
         <f t="shared" si="16"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H107" s="8">
         <f t="shared" si="17"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I107" s="15">
         <f t="shared" si="18"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="108" spans="3:9" x14ac:dyDescent="0.25">
@@ -3523,19 +3557,19 @@
       </c>
       <c r="F108" s="13">
         <f t="shared" si="15"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G108" s="8">
         <f t="shared" si="16"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H108" s="8">
         <f t="shared" si="17"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I108" s="15">
         <f t="shared" si="18"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="109" spans="3:9" x14ac:dyDescent="0.25">
@@ -3547,19 +3581,19 @@
       </c>
       <c r="F109" s="13">
         <f t="shared" si="15"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G109" s="8">
         <f t="shared" si="16"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H109" s="8">
         <f t="shared" si="17"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I109" s="15">
         <f t="shared" si="18"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="110" spans="3:9" x14ac:dyDescent="0.25">
@@ -3571,19 +3605,19 @@
       </c>
       <c r="F110" s="13">
         <f t="shared" si="15"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G110" s="8">
         <f t="shared" si="16"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H110" s="8">
         <f t="shared" si="17"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I110" s="15">
         <f t="shared" si="18"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="111" spans="3:9" x14ac:dyDescent="0.25">
@@ -3595,19 +3629,19 @@
       </c>
       <c r="F111" s="13">
         <f t="shared" si="15"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G111" s="8">
         <f t="shared" si="16"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H111" s="8">
         <f t="shared" si="17"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I111" s="15">
         <f t="shared" si="18"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="112" spans="3:9" x14ac:dyDescent="0.25">
@@ -3619,19 +3653,19 @@
       </c>
       <c r="F112" s="13">
         <f t="shared" si="15"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G112" s="8">
         <f t="shared" si="16"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H112" s="8">
         <f t="shared" si="17"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I112" s="15">
         <f t="shared" si="18"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="113" spans="3:9" x14ac:dyDescent="0.25">
@@ -3643,19 +3677,19 @@
       </c>
       <c r="F113" s="13">
         <f t="shared" si="15"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G113" s="8">
         <f t="shared" si="16"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H113" s="8">
         <f t="shared" si="17"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I113" s="15">
         <f t="shared" si="18"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="114" spans="3:9" x14ac:dyDescent="0.25">
@@ -3667,19 +3701,19 @@
       </c>
       <c r="F114" s="13">
         <f t="shared" si="15"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G114" s="8">
         <f t="shared" si="16"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H114" s="8">
         <f t="shared" si="17"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I114" s="15">
         <f t="shared" si="18"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="115" spans="3:9" x14ac:dyDescent="0.25">
@@ -3691,19 +3725,19 @@
       </c>
       <c r="F115" s="13">
         <f t="shared" si="15"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G115" s="8">
         <f t="shared" si="16"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H115" s="8">
         <f t="shared" si="17"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I115" s="15">
         <f t="shared" si="18"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="116" spans="3:9" x14ac:dyDescent="0.25">
@@ -3715,19 +3749,19 @@
       </c>
       <c r="F116" s="13">
         <f t="shared" si="15"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G116" s="8">
         <f t="shared" si="16"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H116" s="8">
         <f t="shared" si="17"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I116" s="15">
         <f t="shared" si="18"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="117" spans="3:9" x14ac:dyDescent="0.25">
@@ -3739,19 +3773,19 @@
       </c>
       <c r="F117" s="13">
         <f t="shared" si="15"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G117" s="8">
         <f t="shared" si="16"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H117" s="8">
         <f t="shared" si="17"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I117" s="15">
         <f t="shared" si="18"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="118" spans="3:9" x14ac:dyDescent="0.25">
@@ -3763,19 +3797,19 @@
       </c>
       <c r="F118" s="13">
         <f t="shared" si="15"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G118" s="8">
         <f t="shared" si="16"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H118" s="8">
         <f t="shared" si="17"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I118" s="15">
         <f t="shared" si="18"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="119" spans="3:9" x14ac:dyDescent="0.25">
@@ -3787,19 +3821,19 @@
       </c>
       <c r="F119" s="13">
         <f t="shared" si="15"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G119" s="8">
         <f t="shared" si="16"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H119" s="8">
         <f t="shared" si="17"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I119" s="15">
         <f t="shared" si="18"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="120" spans="3:9" x14ac:dyDescent="0.25">
@@ -3811,19 +3845,19 @@
       </c>
       <c r="F120" s="13">
         <f t="shared" si="15"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G120" s="8">
         <f t="shared" si="16"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H120" s="8">
         <f t="shared" si="17"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I120" s="15">
         <f t="shared" si="18"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="121" spans="3:9" x14ac:dyDescent="0.25">
@@ -3835,19 +3869,19 @@
       </c>
       <c r="F121" s="13">
         <f t="shared" si="15"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G121" s="8">
         <f t="shared" si="16"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H121" s="8">
         <f t="shared" si="17"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I121" s="15">
         <f t="shared" si="18"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="122" spans="3:9" x14ac:dyDescent="0.25">
@@ -3859,19 +3893,19 @@
       </c>
       <c r="F122" s="13">
         <f t="shared" si="15"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G122" s="8">
         <f t="shared" si="16"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H122" s="8">
         <f t="shared" si="17"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I122" s="15">
         <f t="shared" si="18"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="123" spans="3:9" x14ac:dyDescent="0.25">
@@ -3883,19 +3917,19 @@
       </c>
       <c r="F123" s="13">
         <f t="shared" si="15"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G123" s="8">
         <f t="shared" si="16"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H123" s="8">
         <f t="shared" si="17"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I123" s="15">
         <f t="shared" si="18"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="124" spans="3:9" x14ac:dyDescent="0.25">
@@ -3907,19 +3941,19 @@
       </c>
       <c r="F124" s="13">
         <f t="shared" si="15"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G124" s="8">
         <f t="shared" si="16"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H124" s="8">
         <f t="shared" si="17"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I124" s="15">
         <f t="shared" si="18"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="125" spans="3:9" x14ac:dyDescent="0.25">
@@ -3931,19 +3965,19 @@
       </c>
       <c r="F125" s="13">
         <f t="shared" si="15"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G125" s="8">
         <f t="shared" si="16"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H125" s="8">
         <f t="shared" si="17"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I125" s="15">
         <f t="shared" si="18"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="126" spans="3:9" x14ac:dyDescent="0.25">
@@ -3955,19 +3989,19 @@
       </c>
       <c r="F126" s="13">
         <f t="shared" si="15"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G126" s="8">
         <f t="shared" si="16"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H126" s="8">
         <f t="shared" si="17"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I126" s="15">
         <f t="shared" si="18"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="127" spans="3:9" x14ac:dyDescent="0.25">
@@ -3979,19 +4013,19 @@
       </c>
       <c r="F127" s="13">
         <f t="shared" si="15"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G127" s="8">
         <f t="shared" si="16"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H127" s="8">
         <f t="shared" si="17"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I127" s="15">
         <f t="shared" si="18"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="128" spans="3:9" x14ac:dyDescent="0.25">
@@ -4003,19 +4037,19 @@
       </c>
       <c r="F128" s="13">
         <f t="shared" si="15"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G128" s="8">
         <f t="shared" si="16"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H128" s="8">
         <f t="shared" si="17"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I128" s="15">
         <f t="shared" si="18"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="129" spans="3:9" x14ac:dyDescent="0.25">
@@ -4027,19 +4061,19 @@
       </c>
       <c r="F129" s="13">
         <f t="shared" si="15"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G129" s="8">
         <f t="shared" si="16"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H129" s="8">
         <f t="shared" si="17"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I129" s="15">
         <f t="shared" si="18"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="130" spans="3:9" x14ac:dyDescent="0.25">
@@ -4051,19 +4085,19 @@
       </c>
       <c r="F130" s="13">
         <f t="shared" si="15"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G130" s="8">
         <f t="shared" si="16"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H130" s="8">
         <f t="shared" si="17"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I130" s="15">
         <f t="shared" si="18"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="131" spans="3:9" x14ac:dyDescent="0.25">
@@ -4075,19 +4109,19 @@
       </c>
       <c r="F131" s="13">
         <f t="shared" si="15"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G131" s="8">
         <f t="shared" si="16"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H131" s="8">
         <f t="shared" si="17"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I131" s="15">
         <f t="shared" si="18"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="132" spans="3:9" x14ac:dyDescent="0.25">
@@ -4099,19 +4133,19 @@
       </c>
       <c r="F132" s="13">
         <f t="shared" si="15"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G132" s="8">
         <f t="shared" si="16"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H132" s="8">
         <f t="shared" si="17"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I132" s="15">
         <f t="shared" si="18"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="133" spans="3:9" x14ac:dyDescent="0.25">
@@ -4123,19 +4157,19 @@
       </c>
       <c r="F133" s="13">
         <f t="shared" si="15"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G133" s="8">
         <f t="shared" si="16"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H133" s="8">
         <f t="shared" si="17"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I133" s="15">
         <f t="shared" si="18"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="134" spans="3:9" x14ac:dyDescent="0.25">
@@ -4147,19 +4181,19 @@
       </c>
       <c r="F134" s="13">
         <f t="shared" si="15"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G134" s="8">
         <f t="shared" si="16"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H134" s="8">
         <f t="shared" si="17"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I134" s="15">
         <f t="shared" si="18"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="135" spans="3:9" x14ac:dyDescent="0.25">
@@ -4171,19 +4205,19 @@
       </c>
       <c r="F135" s="13">
         <f t="shared" si="15"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G135" s="8">
         <f t="shared" si="16"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H135" s="8">
         <f t="shared" si="17"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I135" s="15">
         <f t="shared" si="18"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="136" spans="3:9" x14ac:dyDescent="0.25">
@@ -4195,19 +4229,19 @@
       </c>
       <c r="F136" s="13">
         <f t="shared" si="15"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G136" s="8">
         <f t="shared" si="16"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H136" s="8">
         <f t="shared" si="17"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I136" s="15">
         <f t="shared" si="18"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="137" spans="3:9" x14ac:dyDescent="0.25">
@@ -4219,19 +4253,19 @@
       </c>
       <c r="F137" s="13">
         <f t="shared" si="15"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G137" s="8">
         <f t="shared" si="16"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H137" s="8">
         <f t="shared" si="17"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I137" s="15">
         <f t="shared" si="18"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="138" spans="3:9" x14ac:dyDescent="0.25">
@@ -4243,19 +4277,19 @@
       </c>
       <c r="F138" s="13">
         <f t="shared" si="15"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G138" s="8">
         <f t="shared" si="16"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H138" s="8">
         <f t="shared" si="17"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I138" s="15">
         <f t="shared" si="18"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="139" spans="3:9" x14ac:dyDescent="0.25">
@@ -4267,19 +4301,19 @@
       </c>
       <c r="F139" s="13">
         <f t="shared" si="15"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G139" s="8">
         <f t="shared" si="16"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H139" s="8">
         <f t="shared" si="17"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I139" s="15">
         <f t="shared" si="18"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="140" spans="3:9" x14ac:dyDescent="0.25">
@@ -4291,19 +4325,19 @@
       </c>
       <c r="F140" s="13">
         <f t="shared" si="15"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G140" s="8">
         <f t="shared" si="16"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H140" s="8">
         <f t="shared" si="17"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I140" s="15">
         <f t="shared" si="18"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="141" spans="3:9" x14ac:dyDescent="0.25">
@@ -4315,19 +4349,19 @@
       </c>
       <c r="F141" s="13">
         <f t="shared" si="15"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G141" s="8">
         <f t="shared" si="16"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H141" s="8">
         <f t="shared" si="17"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I141" s="15">
         <f t="shared" si="18"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="142" spans="3:9" x14ac:dyDescent="0.25">
@@ -4339,19 +4373,19 @@
       </c>
       <c r="F142" s="13">
         <f t="shared" si="15"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G142" s="8">
         <f t="shared" si="16"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H142" s="8">
         <f t="shared" si="17"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I142" s="15">
         <f t="shared" si="18"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="143" spans="3:9" x14ac:dyDescent="0.25">
@@ -4363,19 +4397,19 @@
       </c>
       <c r="F143" s="13">
         <f t="shared" si="15"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G143" s="8">
         <f t="shared" si="16"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H143" s="8">
         <f t="shared" si="17"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I143" s="15">
         <f t="shared" si="18"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="144" spans="3:9" x14ac:dyDescent="0.25">
@@ -4387,19 +4421,19 @@
       </c>
       <c r="F144" s="13">
         <f t="shared" si="15"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G144" s="8">
         <f t="shared" si="16"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H144" s="8">
         <f t="shared" si="17"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I144" s="15">
         <f t="shared" si="18"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="145" spans="3:9" x14ac:dyDescent="0.25">
@@ -4411,19 +4445,19 @@
       </c>
       <c r="F145" s="13">
         <f t="shared" si="15"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G145" s="8">
         <f t="shared" si="16"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H145" s="8">
         <f t="shared" si="17"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I145" s="15">
         <f t="shared" si="18"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="146" spans="3:9" x14ac:dyDescent="0.25">
@@ -4435,19 +4469,19 @@
       </c>
       <c r="F146" s="13">
         <f t="shared" si="15"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G146" s="8">
         <f t="shared" si="16"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H146" s="8">
         <f t="shared" si="17"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I146" s="15">
         <f t="shared" si="18"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="147" spans="3:9" x14ac:dyDescent="0.25">
@@ -4459,19 +4493,19 @@
       </c>
       <c r="F147" s="13">
         <f t="shared" si="15"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G147" s="8">
         <f t="shared" si="16"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H147" s="8">
         <f t="shared" si="17"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I147" s="15">
         <f t="shared" si="18"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="148" spans="3:9" x14ac:dyDescent="0.25">
@@ -4483,19 +4517,19 @@
       </c>
       <c r="F148" s="13">
         <f t="shared" si="15"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G148" s="8">
         <f t="shared" si="16"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H148" s="8">
         <f t="shared" si="17"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I148" s="15">
         <f t="shared" si="18"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="149" spans="3:9" x14ac:dyDescent="0.25">
@@ -4507,19 +4541,19 @@
       </c>
       <c r="F149" s="13">
         <f t="shared" si="15"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G149" s="8">
         <f t="shared" si="16"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H149" s="8">
         <f t="shared" si="17"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I149" s="15">
         <f t="shared" si="18"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="150" spans="3:9" x14ac:dyDescent="0.25">
@@ -4531,19 +4565,19 @@
       </c>
       <c r="F150" s="13">
         <f t="shared" si="15"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G150" s="8">
         <f t="shared" si="16"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H150" s="8">
         <f t="shared" si="17"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I150" s="15">
         <f t="shared" si="18"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="151" spans="3:9" x14ac:dyDescent="0.25">
@@ -4555,19 +4589,19 @@
       </c>
       <c r="F151" s="13">
         <f t="shared" si="15"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G151" s="8">
         <f t="shared" si="16"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H151" s="8">
         <f t="shared" si="17"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I151" s="15">
         <f t="shared" si="18"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="152" spans="3:9" x14ac:dyDescent="0.25">
@@ -4579,19 +4613,19 @@
       </c>
       <c r="F152" s="13">
         <f t="shared" si="15"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G152" s="8">
         <f t="shared" si="16"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H152" s="8">
         <f t="shared" si="17"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I152" s="15">
         <f t="shared" si="18"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="153" spans="3:9" x14ac:dyDescent="0.25">
@@ -4603,19 +4637,19 @@
       </c>
       <c r="F153" s="13">
         <f t="shared" si="15"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G153" s="8">
         <f t="shared" si="16"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H153" s="8">
         <f t="shared" si="17"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I153" s="15">
         <f t="shared" si="18"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="154" spans="3:9" x14ac:dyDescent="0.25">
@@ -4627,19 +4661,19 @@
       </c>
       <c r="F154" s="13">
         <f t="shared" si="15"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G154" s="8">
         <f t="shared" si="16"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H154" s="8">
         <f t="shared" si="17"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I154" s="15">
         <f t="shared" si="18"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="155" spans="3:9" x14ac:dyDescent="0.25">
@@ -4651,19 +4685,19 @@
       </c>
       <c r="F155" s="13">
         <f t="shared" si="15"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G155" s="8">
         <f t="shared" si="16"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H155" s="8">
         <f t="shared" si="17"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I155" s="15">
         <f t="shared" si="18"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="156" spans="3:9" x14ac:dyDescent="0.25">
@@ -4675,19 +4709,19 @@
       </c>
       <c r="F156" s="13">
         <f t="shared" si="15"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G156" s="8">
         <f t="shared" si="16"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H156" s="8">
         <f t="shared" si="17"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I156" s="15">
         <f t="shared" si="18"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="157" spans="3:9" x14ac:dyDescent="0.25">
@@ -4699,19 +4733,19 @@
       </c>
       <c r="F157" s="13">
         <f t="shared" si="15"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G157" s="8">
         <f t="shared" si="16"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H157" s="8">
         <f t="shared" si="17"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I157" s="15">
         <f t="shared" si="18"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="158" spans="3:9" x14ac:dyDescent="0.25">
@@ -4723,19 +4757,19 @@
       </c>
       <c r="F158" s="13">
         <f t="shared" si="15"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G158" s="8">
         <f t="shared" si="16"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H158" s="8">
         <f t="shared" si="17"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I158" s="15">
         <f t="shared" si="18"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="159" spans="3:9" x14ac:dyDescent="0.25">
@@ -4747,19 +4781,19 @@
       </c>
       <c r="F159" s="13">
         <f t="shared" si="15"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G159" s="8">
         <f t="shared" si="16"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H159" s="8">
         <f t="shared" si="17"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I159" s="15">
         <f t="shared" si="18"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="160" spans="3:9" x14ac:dyDescent="0.25">
@@ -4771,19 +4805,19 @@
       </c>
       <c r="F160" s="13">
         <f t="shared" si="15"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G160" s="8">
         <f t="shared" si="16"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H160" s="8">
         <f t="shared" si="17"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I160" s="15">
         <f t="shared" si="18"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="161" spans="3:9" x14ac:dyDescent="0.25">
@@ -4795,19 +4829,19 @@
       </c>
       <c r="F161" s="13">
         <f t="shared" si="15"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G161" s="8">
         <f t="shared" si="16"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H161" s="8">
         <f t="shared" si="17"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I161" s="15">
         <f t="shared" si="18"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="162" spans="3:9" x14ac:dyDescent="0.25">
@@ -4819,19 +4853,19 @@
       </c>
       <c r="F162" s="13">
         <f t="shared" si="15"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G162" s="8">
         <f t="shared" si="16"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H162" s="8">
         <f t="shared" si="17"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I162" s="15">
         <f t="shared" si="18"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="163" spans="3:9" x14ac:dyDescent="0.25">
@@ -4843,19 +4877,19 @@
       </c>
       <c r="F163" s="13">
         <f t="shared" si="15"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G163" s="8">
         <f t="shared" si="16"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H163" s="8">
         <f t="shared" si="17"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I163" s="15">
         <f t="shared" si="18"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="164" spans="3:9" x14ac:dyDescent="0.25">
@@ -4867,19 +4901,19 @@
       </c>
       <c r="F164" s="13">
         <f t="shared" si="15"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G164" s="8">
         <f t="shared" si="16"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H164" s="8">
         <f t="shared" si="17"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I164" s="15">
         <f t="shared" si="18"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="165" spans="3:9" x14ac:dyDescent="0.25">
@@ -4891,19 +4925,19 @@
       </c>
       <c r="F165" s="13">
         <f t="shared" si="15"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G165" s="8">
         <f t="shared" si="16"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H165" s="8">
         <f t="shared" si="17"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I165" s="15">
         <f t="shared" si="18"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="166" spans="3:9" x14ac:dyDescent="0.25">
@@ -4915,19 +4949,19 @@
       </c>
       <c r="F166" s="13">
         <f t="shared" si="15"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G166" s="8">
         <f t="shared" si="16"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H166" s="8">
         <f t="shared" si="17"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I166" s="15">
         <f t="shared" si="18"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="167" spans="3:9" x14ac:dyDescent="0.25">
@@ -4939,19 +4973,19 @@
       </c>
       <c r="F167" s="13">
         <f t="shared" si="15"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G167" s="8">
         <f t="shared" si="16"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H167" s="8">
         <f t="shared" si="17"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I167" s="15">
         <f t="shared" si="18"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="168" spans="3:9" x14ac:dyDescent="0.25">
@@ -4963,19 +4997,19 @@
       </c>
       <c r="F168" s="13">
         <f t="shared" ref="F168:F231" si="20">F167+E168</f>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G168" s="8">
         <f t="shared" ref="G168:G231" si="21">F168</f>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H168" s="8">
         <f t="shared" ref="H168:H231" si="22">(H167+G168-G167)</f>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I168" s="15">
         <f t="shared" ref="I168:I231" si="23">H168*24*$J$2</f>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="169" spans="3:9" x14ac:dyDescent="0.25">
@@ -4987,19 +5021,19 @@
       </c>
       <c r="F169" s="13">
         <f t="shared" si="20"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G169" s="8">
         <f t="shared" si="21"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H169" s="8">
         <f t="shared" si="22"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I169" s="15">
         <f t="shared" si="23"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="170" spans="3:9" x14ac:dyDescent="0.25">
@@ -5011,19 +5045,19 @@
       </c>
       <c r="F170" s="13">
         <f t="shared" si="20"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G170" s="8">
         <f t="shared" si="21"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H170" s="8">
         <f t="shared" si="22"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I170" s="15">
         <f t="shared" si="23"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="171" spans="3:9" x14ac:dyDescent="0.25">
@@ -5035,19 +5069,19 @@
       </c>
       <c r="F171" s="13">
         <f t="shared" si="20"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G171" s="8">
         <f t="shared" si="21"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H171" s="8">
         <f t="shared" si="22"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I171" s="15">
         <f t="shared" si="23"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="172" spans="3:9" x14ac:dyDescent="0.25">
@@ -5059,19 +5093,19 @@
       </c>
       <c r="F172" s="13">
         <f t="shared" si="20"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G172" s="8">
         <f t="shared" si="21"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H172" s="8">
         <f t="shared" si="22"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I172" s="15">
         <f t="shared" si="23"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="173" spans="3:9" x14ac:dyDescent="0.25">
@@ -5083,19 +5117,19 @@
       </c>
       <c r="F173" s="13">
         <f t="shared" si="20"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G173" s="8">
         <f t="shared" si="21"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H173" s="8">
         <f t="shared" si="22"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I173" s="15">
         <f t="shared" si="23"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="174" spans="3:9" x14ac:dyDescent="0.25">
@@ -5107,19 +5141,19 @@
       </c>
       <c r="F174" s="13">
         <f t="shared" si="20"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G174" s="8">
         <f t="shared" si="21"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H174" s="8">
         <f t="shared" si="22"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I174" s="15">
         <f t="shared" si="23"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="175" spans="3:9" x14ac:dyDescent="0.25">
@@ -5131,19 +5165,19 @@
       </c>
       <c r="F175" s="13">
         <f t="shared" si="20"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G175" s="8">
         <f t="shared" si="21"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H175" s="8">
         <f t="shared" si="22"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I175" s="15">
         <f t="shared" si="23"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="176" spans="3:9" x14ac:dyDescent="0.25">
@@ -5155,19 +5189,19 @@
       </c>
       <c r="F176" s="13">
         <f t="shared" si="20"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G176" s="8">
         <f t="shared" si="21"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H176" s="8">
         <f t="shared" si="22"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I176" s="15">
         <f t="shared" si="23"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="177" spans="3:9" x14ac:dyDescent="0.25">
@@ -5179,19 +5213,19 @@
       </c>
       <c r="F177" s="13">
         <f t="shared" si="20"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G177" s="8">
         <f t="shared" si="21"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H177" s="8">
         <f t="shared" si="22"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I177" s="15">
         <f t="shared" si="23"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="178" spans="3:9" x14ac:dyDescent="0.25">
@@ -5203,19 +5237,19 @@
       </c>
       <c r="F178" s="13">
         <f t="shared" si="20"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G178" s="8">
         <f t="shared" si="21"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H178" s="8">
         <f t="shared" si="22"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I178" s="15">
         <f t="shared" si="23"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="179" spans="3:9" x14ac:dyDescent="0.25">
@@ -5227,19 +5261,19 @@
       </c>
       <c r="F179" s="13">
         <f t="shared" si="20"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G179" s="8">
         <f t="shared" si="21"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H179" s="8">
         <f t="shared" si="22"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I179" s="15">
         <f t="shared" si="23"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="180" spans="3:9" x14ac:dyDescent="0.25">
@@ -5251,19 +5285,19 @@
       </c>
       <c r="F180" s="13">
         <f t="shared" si="20"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G180" s="8">
         <f t="shared" si="21"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H180" s="8">
         <f t="shared" si="22"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I180" s="15">
         <f t="shared" si="23"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="181" spans="3:9" x14ac:dyDescent="0.25">
@@ -5275,19 +5309,19 @@
       </c>
       <c r="F181" s="13">
         <f t="shared" si="20"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G181" s="8">
         <f t="shared" si="21"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H181" s="8">
         <f t="shared" si="22"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I181" s="15">
         <f t="shared" si="23"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="182" spans="3:9" x14ac:dyDescent="0.25">
@@ -5299,19 +5333,19 @@
       </c>
       <c r="F182" s="13">
         <f t="shared" si="20"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G182" s="8">
         <f t="shared" si="21"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H182" s="8">
         <f t="shared" si="22"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I182" s="15">
         <f t="shared" si="23"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="183" spans="3:9" x14ac:dyDescent="0.25">
@@ -5323,19 +5357,19 @@
       </c>
       <c r="F183" s="13">
         <f t="shared" si="20"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G183" s="8">
         <f t="shared" si="21"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H183" s="8">
         <f t="shared" si="22"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I183" s="15">
         <f t="shared" si="23"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="184" spans="3:9" x14ac:dyDescent="0.25">
@@ -5347,19 +5381,19 @@
       </c>
       <c r="F184" s="13">
         <f t="shared" si="20"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G184" s="8">
         <f t="shared" si="21"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H184" s="8">
         <f t="shared" si="22"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I184" s="15">
         <f t="shared" si="23"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="185" spans="3:9" x14ac:dyDescent="0.25">
@@ -5371,19 +5405,19 @@
       </c>
       <c r="F185" s="13">
         <f t="shared" si="20"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G185" s="8">
         <f t="shared" si="21"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H185" s="8">
         <f t="shared" si="22"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I185" s="15">
         <f t="shared" si="23"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="186" spans="3:9" x14ac:dyDescent="0.25">
@@ -5395,19 +5429,19 @@
       </c>
       <c r="F186" s="13">
         <f t="shared" si="20"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G186" s="8">
         <f t="shared" si="21"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H186" s="8">
         <f t="shared" si="22"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I186" s="15">
         <f t="shared" si="23"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="187" spans="3:9" x14ac:dyDescent="0.25">
@@ -5419,19 +5453,19 @@
       </c>
       <c r="F187" s="13">
         <f t="shared" si="20"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G187" s="8">
         <f t="shared" si="21"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H187" s="8">
         <f t="shared" si="22"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I187" s="15">
         <f t="shared" si="23"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="188" spans="3:9" x14ac:dyDescent="0.25">
@@ -5443,19 +5477,19 @@
       </c>
       <c r="F188" s="13">
         <f t="shared" si="20"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G188" s="8">
         <f t="shared" si="21"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H188" s="8">
         <f t="shared" si="22"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I188" s="15">
         <f t="shared" si="23"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="189" spans="3:9" x14ac:dyDescent="0.25">
@@ -5467,19 +5501,19 @@
       </c>
       <c r="F189" s="13">
         <f t="shared" si="20"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G189" s="8">
         <f t="shared" si="21"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H189" s="8">
         <f t="shared" si="22"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I189" s="15">
         <f t="shared" si="23"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="190" spans="3:9" x14ac:dyDescent="0.25">
@@ -5491,19 +5525,19 @@
       </c>
       <c r="F190" s="13">
         <f t="shared" si="20"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G190" s="8">
         <f t="shared" si="21"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H190" s="8">
         <f t="shared" si="22"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I190" s="15">
         <f t="shared" si="23"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="191" spans="3:9" x14ac:dyDescent="0.25">
@@ -5515,19 +5549,19 @@
       </c>
       <c r="F191" s="13">
         <f t="shared" si="20"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G191" s="8">
         <f t="shared" si="21"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H191" s="8">
         <f t="shared" si="22"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I191" s="15">
         <f t="shared" si="23"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="192" spans="3:9" x14ac:dyDescent="0.25">
@@ -5539,19 +5573,19 @@
       </c>
       <c r="F192" s="13">
         <f t="shared" si="20"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G192" s="8">
         <f t="shared" si="21"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H192" s="8">
         <f t="shared" si="22"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I192" s="15">
         <f t="shared" si="23"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="193" spans="3:9" x14ac:dyDescent="0.25">
@@ -5563,19 +5597,19 @@
       </c>
       <c r="F193" s="13">
         <f t="shared" si="20"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G193" s="8">
         <f t="shared" si="21"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H193" s="8">
         <f t="shared" si="22"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I193" s="15">
         <f t="shared" si="23"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="194" spans="3:9" x14ac:dyDescent="0.25">
@@ -5587,19 +5621,19 @@
       </c>
       <c r="F194" s="13">
         <f t="shared" si="20"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G194" s="8">
         <f t="shared" si="21"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H194" s="8">
         <f t="shared" si="22"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I194" s="15">
         <f t="shared" si="23"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="195" spans="3:9" x14ac:dyDescent="0.25">
@@ -5611,19 +5645,19 @@
       </c>
       <c r="F195" s="13">
         <f t="shared" si="20"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G195" s="8">
         <f t="shared" si="21"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H195" s="8">
         <f t="shared" si="22"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I195" s="15">
         <f t="shared" si="23"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="196" spans="3:9" x14ac:dyDescent="0.25">
@@ -5635,19 +5669,19 @@
       </c>
       <c r="F196" s="13">
         <f t="shared" si="20"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G196" s="8">
         <f t="shared" si="21"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H196" s="8">
         <f t="shared" si="22"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I196" s="15">
         <f t="shared" si="23"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="197" spans="3:9" x14ac:dyDescent="0.25">
@@ -5659,19 +5693,19 @@
       </c>
       <c r="F197" s="13">
         <f t="shared" si="20"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G197" s="8">
         <f t="shared" si="21"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H197" s="8">
         <f t="shared" si="22"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I197" s="15">
         <f t="shared" si="23"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="198" spans="3:9" x14ac:dyDescent="0.25">
@@ -5683,19 +5717,19 @@
       </c>
       <c r="F198" s="13">
         <f t="shared" si="20"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G198" s="8">
         <f t="shared" si="21"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H198" s="8">
         <f t="shared" si="22"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I198" s="15">
         <f t="shared" si="23"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="199" spans="3:9" x14ac:dyDescent="0.25">
@@ -5707,19 +5741,19 @@
       </c>
       <c r="F199" s="13">
         <f t="shared" si="20"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G199" s="8">
         <f t="shared" si="21"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H199" s="8">
         <f t="shared" si="22"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I199" s="15">
         <f t="shared" si="23"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="200" spans="3:9" x14ac:dyDescent="0.25">
@@ -5731,19 +5765,19 @@
       </c>
       <c r="F200" s="13">
         <f t="shared" si="20"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G200" s="8">
         <f t="shared" si="21"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H200" s="8">
         <f t="shared" si="22"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I200" s="15">
         <f t="shared" si="23"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="201" spans="3:9" x14ac:dyDescent="0.25">
@@ -5755,19 +5789,19 @@
       </c>
       <c r="F201" s="13">
         <f t="shared" si="20"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G201" s="8">
         <f t="shared" si="21"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H201" s="8">
         <f t="shared" si="22"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I201" s="15">
         <f t="shared" si="23"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="202" spans="3:9" x14ac:dyDescent="0.25">
@@ -5779,19 +5813,19 @@
       </c>
       <c r="F202" s="13">
         <f t="shared" si="20"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G202" s="8">
         <f t="shared" si="21"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H202" s="8">
         <f t="shared" si="22"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I202" s="15">
         <f t="shared" si="23"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="203" spans="3:9" x14ac:dyDescent="0.25">
@@ -5803,19 +5837,19 @@
       </c>
       <c r="F203" s="13">
         <f t="shared" si="20"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G203" s="8">
         <f t="shared" si="21"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H203" s="8">
         <f t="shared" si="22"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I203" s="15">
         <f t="shared" si="23"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="204" spans="3:9" x14ac:dyDescent="0.25">
@@ -5827,19 +5861,19 @@
       </c>
       <c r="F204" s="13">
         <f t="shared" si="20"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G204" s="8">
         <f t="shared" si="21"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H204" s="8">
         <f t="shared" si="22"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I204" s="15">
         <f t="shared" si="23"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="205" spans="3:9" x14ac:dyDescent="0.25">
@@ -5851,19 +5885,19 @@
       </c>
       <c r="F205" s="13">
         <f t="shared" si="20"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G205" s="8">
         <f t="shared" si="21"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H205" s="8">
         <f t="shared" si="22"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I205" s="15">
         <f t="shared" si="23"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="206" spans="3:9" x14ac:dyDescent="0.25">
@@ -5875,19 +5909,19 @@
       </c>
       <c r="F206" s="13">
         <f t="shared" si="20"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G206" s="8">
         <f t="shared" si="21"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H206" s="8">
         <f t="shared" si="22"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I206" s="15">
         <f t="shared" si="23"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="207" spans="3:9" x14ac:dyDescent="0.25">
@@ -5899,19 +5933,19 @@
       </c>
       <c r="F207" s="13">
         <f t="shared" si="20"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G207" s="8">
         <f t="shared" si="21"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H207" s="8">
         <f t="shared" si="22"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I207" s="15">
         <f t="shared" si="23"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="208" spans="3:9" x14ac:dyDescent="0.25">
@@ -5923,19 +5957,19 @@
       </c>
       <c r="F208" s="13">
         <f t="shared" si="20"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G208" s="8">
         <f t="shared" si="21"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H208" s="8">
         <f t="shared" si="22"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I208" s="15">
         <f t="shared" si="23"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="209" spans="3:9" x14ac:dyDescent="0.25">
@@ -5947,19 +5981,19 @@
       </c>
       <c r="F209" s="13">
         <f t="shared" si="20"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G209" s="8">
         <f t="shared" si="21"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H209" s="8">
         <f t="shared" si="22"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I209" s="15">
         <f t="shared" si="23"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="210" spans="3:9" x14ac:dyDescent="0.25">
@@ -5971,19 +6005,19 @@
       </c>
       <c r="F210" s="13">
         <f t="shared" si="20"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G210" s="8">
         <f t="shared" si="21"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H210" s="8">
         <f t="shared" si="22"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I210" s="15">
         <f t="shared" si="23"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="211" spans="3:9" x14ac:dyDescent="0.25">
@@ -5995,19 +6029,19 @@
       </c>
       <c r="F211" s="13">
         <f t="shared" si="20"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G211" s="8">
         <f t="shared" si="21"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H211" s="8">
         <f t="shared" si="22"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I211" s="15">
         <f t="shared" si="23"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="212" spans="3:9" x14ac:dyDescent="0.25">
@@ -6019,19 +6053,19 @@
       </c>
       <c r="F212" s="13">
         <f t="shared" si="20"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G212" s="8">
         <f t="shared" si="21"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H212" s="8">
         <f t="shared" si="22"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I212" s="15">
         <f t="shared" si="23"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="213" spans="3:9" x14ac:dyDescent="0.25">
@@ -6043,19 +6077,19 @@
       </c>
       <c r="F213" s="13">
         <f t="shared" si="20"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G213" s="8">
         <f t="shared" si="21"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H213" s="8">
         <f t="shared" si="22"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I213" s="15">
         <f t="shared" si="23"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="214" spans="3:9" x14ac:dyDescent="0.25">
@@ -6067,19 +6101,19 @@
       </c>
       <c r="F214" s="13">
         <f t="shared" si="20"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G214" s="8">
         <f t="shared" si="21"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H214" s="8">
         <f t="shared" si="22"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I214" s="15">
         <f t="shared" si="23"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="215" spans="3:9" x14ac:dyDescent="0.25">
@@ -6091,19 +6125,19 @@
       </c>
       <c r="F215" s="13">
         <f t="shared" si="20"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G215" s="8">
         <f t="shared" si="21"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H215" s="8">
         <f t="shared" si="22"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I215" s="15">
         <f t="shared" si="23"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="216" spans="3:9" x14ac:dyDescent="0.25">
@@ -6115,19 +6149,19 @@
       </c>
       <c r="F216" s="13">
         <f t="shared" si="20"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G216" s="8">
         <f t="shared" si="21"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H216" s="8">
         <f t="shared" si="22"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I216" s="15">
         <f t="shared" si="23"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="217" spans="3:9" x14ac:dyDescent="0.25">
@@ -6139,19 +6173,19 @@
       </c>
       <c r="F217" s="13">
         <f t="shared" si="20"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G217" s="8">
         <f t="shared" si="21"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H217" s="8">
         <f t="shared" si="22"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I217" s="15">
         <f t="shared" si="23"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="218" spans="3:9" x14ac:dyDescent="0.25">
@@ -6163,19 +6197,19 @@
       </c>
       <c r="F218" s="13">
         <f t="shared" si="20"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G218" s="8">
         <f t="shared" si="21"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H218" s="8">
         <f t="shared" si="22"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I218" s="15">
         <f t="shared" si="23"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="219" spans="3:9" x14ac:dyDescent="0.25">
@@ -6187,19 +6221,19 @@
       </c>
       <c r="F219" s="13">
         <f t="shared" si="20"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G219" s="8">
         <f t="shared" si="21"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H219" s="8">
         <f t="shared" si="22"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I219" s="15">
         <f t="shared" si="23"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="220" spans="3:9" x14ac:dyDescent="0.25">
@@ -6211,19 +6245,19 @@
       </c>
       <c r="F220" s="13">
         <f t="shared" si="20"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G220" s="8">
         <f t="shared" si="21"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H220" s="8">
         <f t="shared" si="22"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I220" s="15">
         <f t="shared" si="23"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="221" spans="3:9" x14ac:dyDescent="0.25">
@@ -6235,19 +6269,19 @@
       </c>
       <c r="F221" s="13">
         <f t="shared" si="20"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G221" s="8">
         <f t="shared" si="21"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H221" s="8">
         <f t="shared" si="22"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I221" s="15">
         <f t="shared" si="23"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="222" spans="3:9" x14ac:dyDescent="0.25">
@@ -6259,19 +6293,19 @@
       </c>
       <c r="F222" s="13">
         <f t="shared" si="20"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G222" s="8">
         <f t="shared" si="21"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H222" s="8">
         <f t="shared" si="22"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I222" s="15">
         <f t="shared" si="23"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="223" spans="3:9" x14ac:dyDescent="0.25">
@@ -6283,19 +6317,19 @@
       </c>
       <c r="F223" s="13">
         <f t="shared" si="20"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G223" s="8">
         <f t="shared" si="21"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H223" s="8">
         <f t="shared" si="22"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I223" s="15">
         <f t="shared" si="23"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="224" spans="3:9" x14ac:dyDescent="0.25">
@@ -6307,19 +6341,19 @@
       </c>
       <c r="F224" s="13">
         <f t="shared" si="20"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G224" s="8">
         <f t="shared" si="21"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H224" s="8">
         <f t="shared" si="22"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I224" s="15">
         <f t="shared" si="23"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="225" spans="3:9" x14ac:dyDescent="0.25">
@@ -6331,19 +6365,19 @@
       </c>
       <c r="F225" s="13">
         <f t="shared" si="20"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G225" s="8">
         <f t="shared" si="21"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H225" s="8">
         <f t="shared" si="22"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I225" s="15">
         <f t="shared" si="23"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="226" spans="3:9" x14ac:dyDescent="0.25">
@@ -6355,19 +6389,19 @@
       </c>
       <c r="F226" s="13">
         <f t="shared" si="20"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G226" s="8">
         <f t="shared" si="21"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H226" s="8">
         <f t="shared" si="22"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I226" s="15">
         <f t="shared" si="23"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="227" spans="3:9" x14ac:dyDescent="0.25">
@@ -6379,19 +6413,19 @@
       </c>
       <c r="F227" s="13">
         <f t="shared" si="20"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G227" s="8">
         <f t="shared" si="21"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H227" s="8">
         <f t="shared" si="22"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I227" s="15">
         <f t="shared" si="23"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="228" spans="3:9" x14ac:dyDescent="0.25">
@@ -6403,19 +6437,19 @@
       </c>
       <c r="F228" s="13">
         <f t="shared" si="20"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G228" s="8">
         <f t="shared" si="21"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H228" s="8">
         <f t="shared" si="22"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I228" s="15">
         <f t="shared" si="23"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="229" spans="3:9" x14ac:dyDescent="0.25">
@@ -6427,19 +6461,19 @@
       </c>
       <c r="F229" s="13">
         <f t="shared" si="20"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G229" s="8">
         <f t="shared" si="21"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H229" s="8">
         <f t="shared" si="22"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I229" s="15">
         <f t="shared" si="23"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="230" spans="3:9" x14ac:dyDescent="0.25">
@@ -6451,19 +6485,19 @@
       </c>
       <c r="F230" s="13">
         <f t="shared" si="20"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G230" s="8">
         <f t="shared" si="21"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H230" s="8">
         <f t="shared" si="22"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I230" s="15">
         <f t="shared" si="23"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="231" spans="3:9" x14ac:dyDescent="0.25">
@@ -6475,19 +6509,19 @@
       </c>
       <c r="F231" s="13">
         <f t="shared" si="20"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G231" s="8">
         <f t="shared" si="21"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H231" s="8">
         <f t="shared" si="22"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I231" s="15">
         <f t="shared" si="23"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="232" spans="3:9" x14ac:dyDescent="0.25">
@@ -6499,19 +6533,19 @@
       </c>
       <c r="F232" s="13">
         <f t="shared" ref="F232:F255" si="25">F231+E232</f>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G232" s="8">
         <f t="shared" ref="G232:G255" si="26">F232</f>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H232" s="8">
         <f t="shared" ref="H232:H255" si="27">(H231+G232-G231)</f>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I232" s="15">
         <f t="shared" ref="I232:I255" si="28">H232*24*$J$2</f>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="233" spans="3:9" x14ac:dyDescent="0.25">
@@ -6523,19 +6557,19 @@
       </c>
       <c r="F233" s="13">
         <f t="shared" si="25"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G233" s="8">
         <f t="shared" si="26"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H233" s="8">
         <f t="shared" si="27"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I233" s="15">
         <f t="shared" si="28"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="234" spans="3:9" x14ac:dyDescent="0.25">
@@ -6547,19 +6581,19 @@
       </c>
       <c r="F234" s="13">
         <f t="shared" si="25"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G234" s="8">
         <f t="shared" si="26"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H234" s="8">
         <f t="shared" si="27"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I234" s="15">
         <f t="shared" si="28"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="235" spans="3:9" x14ac:dyDescent="0.25">
@@ -6571,19 +6605,19 @@
       </c>
       <c r="F235" s="13">
         <f t="shared" si="25"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G235" s="8">
         <f t="shared" si="26"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H235" s="8">
         <f t="shared" si="27"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I235" s="15">
         <f t="shared" si="28"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="236" spans="3:9" x14ac:dyDescent="0.25">
@@ -6595,19 +6629,19 @@
       </c>
       <c r="F236" s="13">
         <f t="shared" si="25"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G236" s="8">
         <f t="shared" si="26"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H236" s="8">
         <f t="shared" si="27"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I236" s="15">
         <f t="shared" si="28"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="237" spans="3:9" x14ac:dyDescent="0.25">
@@ -6619,19 +6653,19 @@
       </c>
       <c r="F237" s="13">
         <f t="shared" si="25"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G237" s="8">
         <f t="shared" si="26"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H237" s="8">
         <f t="shared" si="27"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I237" s="15">
         <f t="shared" si="28"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="238" spans="3:9" x14ac:dyDescent="0.25">
@@ -6643,19 +6677,19 @@
       </c>
       <c r="F238" s="13">
         <f t="shared" si="25"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G238" s="8">
         <f t="shared" si="26"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H238" s="8">
         <f t="shared" si="27"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I238" s="15">
         <f t="shared" si="28"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="239" spans="3:9" x14ac:dyDescent="0.25">
@@ -6667,19 +6701,19 @@
       </c>
       <c r="F239" s="13">
         <f t="shared" si="25"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G239" s="8">
         <f t="shared" si="26"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H239" s="8">
         <f t="shared" si="27"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I239" s="15">
         <f t="shared" si="28"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="240" spans="3:9" x14ac:dyDescent="0.25">
@@ -6691,19 +6725,19 @@
       </c>
       <c r="F240" s="13">
         <f t="shared" si="25"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G240" s="8">
         <f t="shared" si="26"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H240" s="8">
         <f t="shared" si="27"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I240" s="15">
         <f t="shared" si="28"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="241" spans="3:9" x14ac:dyDescent="0.25">
@@ -6715,19 +6749,19 @@
       </c>
       <c r="F241" s="13">
         <f t="shared" si="25"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G241" s="8">
         <f t="shared" si="26"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H241" s="8">
         <f t="shared" si="27"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I241" s="15">
         <f t="shared" si="28"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="242" spans="3:9" x14ac:dyDescent="0.25">
@@ -6739,19 +6773,19 @@
       </c>
       <c r="F242" s="13">
         <f t="shared" si="25"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G242" s="8">
         <f t="shared" si="26"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H242" s="8">
         <f t="shared" si="27"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I242" s="15">
         <f t="shared" si="28"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="243" spans="3:9" x14ac:dyDescent="0.25">
@@ -6763,19 +6797,19 @@
       </c>
       <c r="F243" s="13">
         <f t="shared" si="25"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G243" s="8">
         <f t="shared" si="26"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H243" s="8">
         <f t="shared" si="27"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I243" s="15">
         <f t="shared" si="28"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="244" spans="3:9" x14ac:dyDescent="0.25">
@@ -6787,19 +6821,19 @@
       </c>
       <c r="F244" s="13">
         <f t="shared" si="25"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G244" s="8">
         <f t="shared" si="26"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H244" s="8">
         <f t="shared" si="27"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I244" s="15">
         <f t="shared" si="28"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="245" spans="3:9" x14ac:dyDescent="0.25">
@@ -6811,19 +6845,19 @@
       </c>
       <c r="F245" s="13">
         <f t="shared" si="25"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G245" s="8">
         <f t="shared" si="26"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H245" s="8">
         <f t="shared" si="27"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I245" s="15">
         <f t="shared" si="28"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="246" spans="3:9" x14ac:dyDescent="0.25">
@@ -6835,19 +6869,19 @@
       </c>
       <c r="F246" s="13">
         <f t="shared" si="25"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G246" s="8">
         <f t="shared" si="26"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H246" s="8">
         <f t="shared" si="27"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I246" s="15">
         <f t="shared" si="28"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="247" spans="3:9" x14ac:dyDescent="0.25">
@@ -6859,19 +6893,19 @@
       </c>
       <c r="F247" s="13">
         <f t="shared" si="25"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G247" s="8">
         <f t="shared" si="26"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H247" s="8">
         <f t="shared" si="27"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I247" s="15">
         <f t="shared" si="28"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="248" spans="3:9" x14ac:dyDescent="0.25">
@@ -6883,19 +6917,19 @@
       </c>
       <c r="F248" s="13">
         <f t="shared" si="25"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G248" s="8">
         <f t="shared" si="26"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H248" s="8">
         <f t="shared" si="27"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I248" s="15">
         <f t="shared" si="28"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="249" spans="3:9" x14ac:dyDescent="0.25">
@@ -6907,19 +6941,19 @@
       </c>
       <c r="F249" s="13">
         <f t="shared" si="25"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G249" s="8">
         <f t="shared" si="26"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H249" s="8">
         <f t="shared" si="27"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I249" s="15">
         <f t="shared" si="28"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="250" spans="3:9" x14ac:dyDescent="0.25">
@@ -6931,19 +6965,19 @@
       </c>
       <c r="F250" s="13">
         <f t="shared" si="25"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G250" s="8">
         <f t="shared" si="26"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H250" s="8">
         <f t="shared" si="27"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I250" s="15">
         <f t="shared" si="28"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="251" spans="3:9" x14ac:dyDescent="0.25">
@@ -6955,19 +6989,19 @@
       </c>
       <c r="F251" s="13">
         <f t="shared" si="25"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G251" s="8">
         <f t="shared" si="26"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H251" s="8">
         <f t="shared" si="27"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I251" s="15">
         <f t="shared" si="28"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="252" spans="3:9" x14ac:dyDescent="0.25">
@@ -6979,19 +7013,19 @@
       </c>
       <c r="F252" s="13">
         <f t="shared" si="25"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G252" s="8">
         <f t="shared" si="26"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H252" s="8">
         <f t="shared" si="27"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I252" s="15">
         <f t="shared" si="28"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="253" spans="3:9" x14ac:dyDescent="0.25">
@@ -7003,19 +7037,19 @@
       </c>
       <c r="F253" s="13">
         <f t="shared" si="25"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G253" s="8">
         <f t="shared" si="26"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H253" s="8">
         <f t="shared" si="27"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I253" s="15">
         <f t="shared" si="28"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="254" spans="3:9" x14ac:dyDescent="0.25">
@@ -7027,19 +7061,19 @@
       </c>
       <c r="F254" s="13">
         <f t="shared" si="25"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G254" s="8">
         <f t="shared" si="26"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H254" s="8">
         <f t="shared" si="27"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I254" s="15">
         <f t="shared" si="28"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
     <row r="255" spans="3:9" x14ac:dyDescent="0.25">
@@ -7051,19 +7085,19 @@
       </c>
       <c r="F255" s="13">
         <f t="shared" si="25"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="G255" s="8">
         <f t="shared" si="26"/>
-        <v>1.5027777777777773</v>
+        <v>1.621527777777777</v>
       </c>
       <c r="H255" s="8">
         <f t="shared" si="27"/>
-        <v>2.6527777777777777</v>
+        <v>2.7715277777777771</v>
       </c>
       <c r="I255" s="15">
         <f t="shared" si="28"/>
-        <v>10823.333333333332</v>
+        <v>11307.83333333333</v>
       </c>
     </row>
   </sheetData>

--- a/hodiny.xlsx
+++ b/hodiny.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D26EA956-449F-4479-8C22-F5C8266CCAE3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF2F5991-FCA0-417C-9C51-6549A5DA9FF1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5070" yWindow="5070" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5070" yWindow="5070" windowWidth="16710" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>čas [min]</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>22.6.</t>
+  </si>
+  <si>
+    <t>23.6.</t>
   </si>
 </sst>
 </file>
@@ -635,8 +638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2709,147 +2712,174 @@
       </c>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C73" s="2"/>
-      <c r="D73" s="10"/>
+      <c r="C73" s="2">
+        <v>0.75624999999999998</v>
+      </c>
+      <c r="D73" s="10">
+        <v>0.76736111111111116</v>
+      </c>
       <c r="E73" s="12">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1.1111111111111183E-2</v>
       </c>
       <c r="F73" s="13">
         <f t="shared" si="10"/>
-        <v>1.621527777777777</v>
+        <v>1.6326388888888883</v>
       </c>
       <c r="G73" s="8">
         <f t="shared" si="11"/>
-        <v>1.621527777777777</v>
+        <v>1.6326388888888883</v>
       </c>
       <c r="H73" s="8">
         <f t="shared" si="12"/>
-        <v>2.7715277777777771</v>
+        <v>2.7826388888888882</v>
       </c>
       <c r="I73" s="15">
         <f t="shared" si="13"/>
-        <v>11307.83333333333</v>
+        <v>11353.166666666664</v>
       </c>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C74" s="2"/>
-      <c r="D74" s="10"/>
+      <c r="C74" s="2">
+        <v>0.81388888888888899</v>
+      </c>
+      <c r="D74" s="10">
+        <v>0.89583333333333337</v>
+      </c>
       <c r="E74" s="12">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>8.1944444444444375E-2</v>
       </c>
       <c r="F74" s="13">
         <f t="shared" si="10"/>
-        <v>1.621527777777777</v>
+        <v>1.7145833333333327</v>
       </c>
       <c r="G74" s="8">
         <f t="shared" si="11"/>
-        <v>1.621527777777777</v>
+        <v>1.7145833333333327</v>
       </c>
       <c r="H74" s="8">
         <f t="shared" si="12"/>
-        <v>2.7715277777777771</v>
+        <v>2.8645833333333326</v>
       </c>
       <c r="I74" s="15">
         <f t="shared" si="13"/>
-        <v>11307.83333333333</v>
+        <v>11687.499999999998</v>
       </c>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C75" s="2"/>
-      <c r="D75" s="10"/>
+      <c r="C75" s="2">
+        <v>0.93194444444444446</v>
+      </c>
+      <c r="D75" s="10">
+        <v>0.95277777777777783</v>
+      </c>
       <c r="E75" s="12">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="F75" s="13">
         <f t="shared" si="10"/>
-        <v>1.621527777777777</v>
+        <v>1.7354166666666662</v>
       </c>
       <c r="G75" s="8">
         <f t="shared" si="11"/>
-        <v>1.621527777777777</v>
+        <v>1.7354166666666662</v>
       </c>
       <c r="H75" s="8">
         <f t="shared" si="12"/>
-        <v>2.7715277777777771</v>
+        <v>2.8854166666666661</v>
       </c>
       <c r="I75" s="15">
         <f t="shared" si="13"/>
-        <v>11307.83333333333</v>
+        <v>11772.499999999998</v>
       </c>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C76" s="2"/>
-      <c r="D76" s="10"/>
+      <c r="C76" s="2">
+        <v>0.95972222222222225</v>
+      </c>
+      <c r="D76" s="10">
+        <v>1</v>
+      </c>
       <c r="E76" s="12">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>4.0277777777777746E-2</v>
       </c>
       <c r="F76" s="13">
         <f t="shared" si="10"/>
-        <v>1.621527777777777</v>
+        <v>1.775694444444444</v>
       </c>
       <c r="G76" s="8">
         <f t="shared" si="11"/>
-        <v>1.621527777777777</v>
+        <v>1.775694444444444</v>
       </c>
       <c r="H76" s="8">
         <f t="shared" si="12"/>
-        <v>2.7715277777777771</v>
+        <v>2.9256944444444435</v>
       </c>
       <c r="I76" s="15">
         <f t="shared" si="13"/>
-        <v>11307.83333333333</v>
+        <v>11936.833333333328</v>
       </c>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C77" s="2"/>
-      <c r="D77" s="10"/>
+      <c r="B77" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C77" s="2">
+        <v>0</v>
+      </c>
+      <c r="D77" s="10">
+        <v>3.1944444444444449E-2</v>
+      </c>
       <c r="E77" s="12">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>3.1944444444444449E-2</v>
       </c>
       <c r="F77" s="13">
         <f t="shared" si="10"/>
-        <v>1.621527777777777</v>
+        <v>1.8076388888888886</v>
       </c>
       <c r="G77" s="8">
         <f t="shared" si="11"/>
-        <v>1.621527777777777</v>
+        <v>1.8076388888888886</v>
       </c>
       <c r="H77" s="8">
         <f t="shared" si="12"/>
-        <v>2.7715277777777771</v>
+        <v>2.9576388888888885</v>
       </c>
       <c r="I77" s="15">
         <f t="shared" si="13"/>
-        <v>11307.83333333333</v>
+        <v>12067.166666666664</v>
       </c>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C78" s="2"/>
-      <c r="D78" s="10"/>
+      <c r="C78" s="2">
+        <v>4.2361111111111106E-2</v>
+      </c>
+      <c r="D78" s="10">
+        <v>8.4722222222222213E-2</v>
+      </c>
       <c r="E78" s="12">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>4.2361111111111106E-2</v>
       </c>
       <c r="F78" s="13">
         <f t="shared" si="10"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G78" s="8">
         <f t="shared" si="11"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H78" s="8">
         <f t="shared" si="12"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I78" s="15">
         <f t="shared" si="13"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.25">
@@ -2861,19 +2891,19 @@
       </c>
       <c r="F79" s="13">
         <f t="shared" si="10"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G79" s="8">
         <f t="shared" si="11"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H79" s="8">
         <f t="shared" si="12"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I79" s="15">
         <f t="shared" si="13"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.25">
@@ -2885,19 +2915,19 @@
       </c>
       <c r="F80" s="13">
         <f t="shared" si="10"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G80" s="8">
         <f t="shared" si="11"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H80" s="8">
         <f t="shared" si="12"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I80" s="15">
         <f t="shared" si="13"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="81" spans="3:9" x14ac:dyDescent="0.25">
@@ -2909,19 +2939,19 @@
       </c>
       <c r="F81" s="13">
         <f t="shared" si="10"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G81" s="8">
         <f t="shared" si="11"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H81" s="8">
         <f t="shared" si="12"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I81" s="15">
         <f t="shared" si="13"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="82" spans="3:9" x14ac:dyDescent="0.25">
@@ -2933,19 +2963,19 @@
       </c>
       <c r="F82" s="13">
         <f t="shared" si="10"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G82" s="8">
         <f t="shared" si="11"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H82" s="8">
         <f t="shared" si="12"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I82" s="15">
         <f t="shared" si="13"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="83" spans="3:9" x14ac:dyDescent="0.25">
@@ -2957,19 +2987,19 @@
       </c>
       <c r="F83" s="13">
         <f t="shared" si="10"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G83" s="8">
         <f t="shared" si="11"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H83" s="8">
         <f t="shared" si="12"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I83" s="15">
         <f t="shared" si="13"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="84" spans="3:9" x14ac:dyDescent="0.25">
@@ -2981,19 +3011,19 @@
       </c>
       <c r="F84" s="13">
         <f t="shared" si="10"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G84" s="8">
         <f t="shared" si="11"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H84" s="8">
         <f t="shared" si="12"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I84" s="15">
         <f t="shared" si="13"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="85" spans="3:9" x14ac:dyDescent="0.25">
@@ -3005,19 +3035,19 @@
       </c>
       <c r="F85" s="13">
         <f t="shared" si="10"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G85" s="8">
         <f t="shared" si="11"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H85" s="8">
         <f t="shared" si="12"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I85" s="15">
         <f t="shared" si="13"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="86" spans="3:9" x14ac:dyDescent="0.25">
@@ -3029,19 +3059,19 @@
       </c>
       <c r="F86" s="13">
         <f t="shared" si="10"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G86" s="8">
         <f t="shared" si="11"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H86" s="8">
         <f t="shared" si="12"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I86" s="15">
         <f t="shared" si="13"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="87" spans="3:9" x14ac:dyDescent="0.25">
@@ -3053,19 +3083,19 @@
       </c>
       <c r="F87" s="13">
         <f t="shared" si="10"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G87" s="8">
         <f t="shared" si="11"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H87" s="8">
         <f t="shared" si="12"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I87" s="15">
         <f t="shared" si="13"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="88" spans="3:9" x14ac:dyDescent="0.25">
@@ -3077,19 +3107,19 @@
       </c>
       <c r="F88" s="13">
         <f t="shared" si="10"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G88" s="8">
         <f t="shared" si="11"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H88" s="8">
         <f t="shared" si="12"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I88" s="15">
         <f t="shared" si="13"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="89" spans="3:9" x14ac:dyDescent="0.25">
@@ -3101,19 +3131,19 @@
       </c>
       <c r="F89" s="13">
         <f t="shared" si="10"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G89" s="8">
         <f t="shared" si="11"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H89" s="8">
         <f t="shared" si="12"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I89" s="15">
         <f t="shared" si="13"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="90" spans="3:9" x14ac:dyDescent="0.25">
@@ -3125,19 +3155,19 @@
       </c>
       <c r="F90" s="13">
         <f t="shared" si="10"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G90" s="8">
         <f t="shared" si="11"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H90" s="8">
         <f t="shared" si="12"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I90" s="15">
         <f t="shared" si="13"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="91" spans="3:9" x14ac:dyDescent="0.25">
@@ -3149,19 +3179,19 @@
       </c>
       <c r="F91" s="13">
         <f t="shared" si="10"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G91" s="8">
         <f t="shared" si="11"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H91" s="8">
         <f t="shared" si="12"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I91" s="15">
         <f t="shared" si="13"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="92" spans="3:9" x14ac:dyDescent="0.25">
@@ -3173,19 +3203,19 @@
       </c>
       <c r="F92" s="13">
         <f t="shared" si="10"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G92" s="8">
         <f t="shared" si="11"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H92" s="8">
         <f t="shared" si="12"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I92" s="15">
         <f t="shared" si="13"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="93" spans="3:9" x14ac:dyDescent="0.25">
@@ -3197,19 +3227,19 @@
       </c>
       <c r="F93" s="13">
         <f t="shared" si="10"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G93" s="8">
         <f t="shared" si="11"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H93" s="8">
         <f t="shared" si="12"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I93" s="15">
         <f t="shared" si="13"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="94" spans="3:9" x14ac:dyDescent="0.25">
@@ -3221,19 +3251,19 @@
       </c>
       <c r="F94" s="13">
         <f t="shared" si="10"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G94" s="8">
         <f t="shared" si="11"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H94" s="8">
         <f t="shared" si="12"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I94" s="15">
         <f t="shared" si="13"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="95" spans="3:9" x14ac:dyDescent="0.25">
@@ -3245,19 +3275,19 @@
       </c>
       <c r="F95" s="13">
         <f t="shared" si="10"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G95" s="8">
         <f t="shared" si="11"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H95" s="8">
         <f t="shared" si="12"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I95" s="15">
         <f t="shared" si="13"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="96" spans="3:9" x14ac:dyDescent="0.25">
@@ -3269,19 +3299,19 @@
       </c>
       <c r="F96" s="13">
         <f t="shared" si="10"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G96" s="8">
         <f t="shared" si="11"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H96" s="8">
         <f t="shared" si="12"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I96" s="15">
         <f t="shared" si="13"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="97" spans="3:9" x14ac:dyDescent="0.25">
@@ -3293,19 +3323,19 @@
       </c>
       <c r="F97" s="13">
         <f t="shared" si="10"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G97" s="8">
         <f t="shared" si="11"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H97" s="8">
         <f t="shared" si="12"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I97" s="15">
         <f t="shared" si="13"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="98" spans="3:9" x14ac:dyDescent="0.25">
@@ -3317,19 +3347,19 @@
       </c>
       <c r="F98" s="13">
         <f t="shared" si="10"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G98" s="8">
         <f t="shared" si="11"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H98" s="8">
         <f t="shared" si="12"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I98" s="15">
         <f t="shared" si="13"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="99" spans="3:9" x14ac:dyDescent="0.25">
@@ -3341,19 +3371,19 @@
       </c>
       <c r="F99" s="13">
         <f t="shared" si="10"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G99" s="8">
         <f t="shared" si="11"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H99" s="8">
         <f t="shared" si="12"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I99" s="15">
         <f t="shared" si="13"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="100" spans="3:9" x14ac:dyDescent="0.25">
@@ -3365,19 +3395,19 @@
       </c>
       <c r="F100" s="13">
         <f t="shared" si="10"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G100" s="8">
         <f t="shared" si="11"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H100" s="8">
         <f t="shared" si="12"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I100" s="15">
         <f t="shared" si="13"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="101" spans="3:9" x14ac:dyDescent="0.25">
@@ -3389,19 +3419,19 @@
       </c>
       <c r="F101" s="13">
         <f t="shared" si="10"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G101" s="8">
         <f t="shared" si="11"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H101" s="8">
         <f t="shared" si="12"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I101" s="15">
         <f t="shared" si="13"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="102" spans="3:9" x14ac:dyDescent="0.25">
@@ -3413,19 +3443,19 @@
       </c>
       <c r="F102" s="13">
         <f t="shared" si="10"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G102" s="8">
         <f t="shared" si="11"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H102" s="8">
         <f t="shared" si="12"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I102" s="15">
         <f t="shared" si="13"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="103" spans="3:9" x14ac:dyDescent="0.25">
@@ -3437,19 +3467,19 @@
       </c>
       <c r="F103" s="13">
         <f t="shared" si="10"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G103" s="8">
         <f t="shared" si="11"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H103" s="8">
         <f t="shared" si="12"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I103" s="15">
         <f t="shared" si="13"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="104" spans="3:9" x14ac:dyDescent="0.25">
@@ -3461,19 +3491,19 @@
       </c>
       <c r="F104" s="13">
         <f t="shared" ref="F104:F167" si="15">F103+E104</f>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G104" s="8">
         <f t="shared" ref="G104:G167" si="16">F104</f>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H104" s="8">
         <f t="shared" ref="H104:H167" si="17">(H103+G104-G103)</f>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I104" s="15">
         <f t="shared" ref="I104:I167" si="18">H104*24*$J$2</f>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="105" spans="3:9" x14ac:dyDescent="0.25">
@@ -3485,19 +3515,19 @@
       </c>
       <c r="F105" s="13">
         <f t="shared" si="15"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G105" s="8">
         <f t="shared" si="16"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H105" s="8">
         <f t="shared" si="17"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I105" s="15">
         <f t="shared" si="18"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="106" spans="3:9" x14ac:dyDescent="0.25">
@@ -3509,19 +3539,19 @@
       </c>
       <c r="F106" s="13">
         <f t="shared" si="15"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G106" s="8">
         <f t="shared" si="16"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H106" s="8">
         <f t="shared" si="17"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I106" s="15">
         <f t="shared" si="18"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="107" spans="3:9" x14ac:dyDescent="0.25">
@@ -3533,19 +3563,19 @@
       </c>
       <c r="F107" s="13">
         <f t="shared" si="15"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G107" s="8">
         <f t="shared" si="16"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H107" s="8">
         <f t="shared" si="17"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I107" s="15">
         <f t="shared" si="18"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="108" spans="3:9" x14ac:dyDescent="0.25">
@@ -3557,19 +3587,19 @@
       </c>
       <c r="F108" s="13">
         <f t="shared" si="15"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G108" s="8">
         <f t="shared" si="16"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H108" s="8">
         <f t="shared" si="17"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I108" s="15">
         <f t="shared" si="18"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="109" spans="3:9" x14ac:dyDescent="0.25">
@@ -3581,19 +3611,19 @@
       </c>
       <c r="F109" s="13">
         <f t="shared" si="15"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G109" s="8">
         <f t="shared" si="16"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H109" s="8">
         <f t="shared" si="17"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I109" s="15">
         <f t="shared" si="18"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="110" spans="3:9" x14ac:dyDescent="0.25">
@@ -3605,19 +3635,19 @@
       </c>
       <c r="F110" s="13">
         <f t="shared" si="15"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G110" s="8">
         <f t="shared" si="16"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H110" s="8">
         <f t="shared" si="17"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I110" s="15">
         <f t="shared" si="18"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="111" spans="3:9" x14ac:dyDescent="0.25">
@@ -3629,19 +3659,19 @@
       </c>
       <c r="F111" s="13">
         <f t="shared" si="15"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G111" s="8">
         <f t="shared" si="16"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H111" s="8">
         <f t="shared" si="17"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I111" s="15">
         <f t="shared" si="18"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="112" spans="3:9" x14ac:dyDescent="0.25">
@@ -3653,19 +3683,19 @@
       </c>
       <c r="F112" s="13">
         <f t="shared" si="15"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G112" s="8">
         <f t="shared" si="16"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H112" s="8">
         <f t="shared" si="17"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I112" s="15">
         <f t="shared" si="18"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="113" spans="3:9" x14ac:dyDescent="0.25">
@@ -3677,19 +3707,19 @@
       </c>
       <c r="F113" s="13">
         <f t="shared" si="15"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G113" s="8">
         <f t="shared" si="16"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H113" s="8">
         <f t="shared" si="17"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I113" s="15">
         <f t="shared" si="18"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="114" spans="3:9" x14ac:dyDescent="0.25">
@@ -3701,19 +3731,19 @@
       </c>
       <c r="F114" s="13">
         <f t="shared" si="15"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G114" s="8">
         <f t="shared" si="16"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H114" s="8">
         <f t="shared" si="17"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I114" s="15">
         <f t="shared" si="18"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="115" spans="3:9" x14ac:dyDescent="0.25">
@@ -3725,19 +3755,19 @@
       </c>
       <c r="F115" s="13">
         <f t="shared" si="15"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G115" s="8">
         <f t="shared" si="16"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H115" s="8">
         <f t="shared" si="17"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I115" s="15">
         <f t="shared" si="18"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="116" spans="3:9" x14ac:dyDescent="0.25">
@@ -3749,19 +3779,19 @@
       </c>
       <c r="F116" s="13">
         <f t="shared" si="15"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G116" s="8">
         <f t="shared" si="16"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H116" s="8">
         <f t="shared" si="17"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I116" s="15">
         <f t="shared" si="18"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="117" spans="3:9" x14ac:dyDescent="0.25">
@@ -3773,19 +3803,19 @@
       </c>
       <c r="F117" s="13">
         <f t="shared" si="15"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G117" s="8">
         <f t="shared" si="16"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H117" s="8">
         <f t="shared" si="17"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I117" s="15">
         <f t="shared" si="18"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="118" spans="3:9" x14ac:dyDescent="0.25">
@@ -3797,19 +3827,19 @@
       </c>
       <c r="F118" s="13">
         <f t="shared" si="15"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G118" s="8">
         <f t="shared" si="16"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H118" s="8">
         <f t="shared" si="17"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I118" s="15">
         <f t="shared" si="18"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="119" spans="3:9" x14ac:dyDescent="0.25">
@@ -3821,19 +3851,19 @@
       </c>
       <c r="F119" s="13">
         <f t="shared" si="15"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G119" s="8">
         <f t="shared" si="16"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H119" s="8">
         <f t="shared" si="17"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I119" s="15">
         <f t="shared" si="18"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="120" spans="3:9" x14ac:dyDescent="0.25">
@@ -3845,19 +3875,19 @@
       </c>
       <c r="F120" s="13">
         <f t="shared" si="15"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G120" s="8">
         <f t="shared" si="16"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H120" s="8">
         <f t="shared" si="17"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I120" s="15">
         <f t="shared" si="18"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="121" spans="3:9" x14ac:dyDescent="0.25">
@@ -3869,19 +3899,19 @@
       </c>
       <c r="F121" s="13">
         <f t="shared" si="15"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G121" s="8">
         <f t="shared" si="16"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H121" s="8">
         <f t="shared" si="17"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I121" s="15">
         <f t="shared" si="18"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="122" spans="3:9" x14ac:dyDescent="0.25">
@@ -3893,19 +3923,19 @@
       </c>
       <c r="F122" s="13">
         <f t="shared" si="15"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G122" s="8">
         <f t="shared" si="16"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H122" s="8">
         <f t="shared" si="17"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I122" s="15">
         <f t="shared" si="18"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="123" spans="3:9" x14ac:dyDescent="0.25">
@@ -3917,19 +3947,19 @@
       </c>
       <c r="F123" s="13">
         <f t="shared" si="15"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G123" s="8">
         <f t="shared" si="16"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H123" s="8">
         <f t="shared" si="17"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I123" s="15">
         <f t="shared" si="18"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="124" spans="3:9" x14ac:dyDescent="0.25">
@@ -3941,19 +3971,19 @@
       </c>
       <c r="F124" s="13">
         <f t="shared" si="15"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G124" s="8">
         <f t="shared" si="16"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H124" s="8">
         <f t="shared" si="17"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I124" s="15">
         <f t="shared" si="18"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="125" spans="3:9" x14ac:dyDescent="0.25">
@@ -3965,19 +3995,19 @@
       </c>
       <c r="F125" s="13">
         <f t="shared" si="15"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G125" s="8">
         <f t="shared" si="16"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H125" s="8">
         <f t="shared" si="17"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I125" s="15">
         <f t="shared" si="18"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="126" spans="3:9" x14ac:dyDescent="0.25">
@@ -3989,19 +4019,19 @@
       </c>
       <c r="F126" s="13">
         <f t="shared" si="15"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G126" s="8">
         <f t="shared" si="16"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H126" s="8">
         <f t="shared" si="17"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I126" s="15">
         <f t="shared" si="18"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="127" spans="3:9" x14ac:dyDescent="0.25">
@@ -4013,19 +4043,19 @@
       </c>
       <c r="F127" s="13">
         <f t="shared" si="15"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G127" s="8">
         <f t="shared" si="16"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H127" s="8">
         <f t="shared" si="17"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I127" s="15">
         <f t="shared" si="18"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="128" spans="3:9" x14ac:dyDescent="0.25">
@@ -4037,19 +4067,19 @@
       </c>
       <c r="F128" s="13">
         <f t="shared" si="15"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G128" s="8">
         <f t="shared" si="16"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H128" s="8">
         <f t="shared" si="17"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I128" s="15">
         <f t="shared" si="18"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="129" spans="3:9" x14ac:dyDescent="0.25">
@@ -4061,19 +4091,19 @@
       </c>
       <c r="F129" s="13">
         <f t="shared" si="15"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G129" s="8">
         <f t="shared" si="16"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H129" s="8">
         <f t="shared" si="17"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I129" s="15">
         <f t="shared" si="18"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="130" spans="3:9" x14ac:dyDescent="0.25">
@@ -4085,19 +4115,19 @@
       </c>
       <c r="F130" s="13">
         <f t="shared" si="15"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G130" s="8">
         <f t="shared" si="16"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H130" s="8">
         <f t="shared" si="17"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I130" s="15">
         <f t="shared" si="18"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="131" spans="3:9" x14ac:dyDescent="0.25">
@@ -4109,19 +4139,19 @@
       </c>
       <c r="F131" s="13">
         <f t="shared" si="15"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G131" s="8">
         <f t="shared" si="16"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H131" s="8">
         <f t="shared" si="17"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I131" s="15">
         <f t="shared" si="18"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="132" spans="3:9" x14ac:dyDescent="0.25">
@@ -4133,19 +4163,19 @@
       </c>
       <c r="F132" s="13">
         <f t="shared" si="15"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G132" s="8">
         <f t="shared" si="16"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H132" s="8">
         <f t="shared" si="17"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I132" s="15">
         <f t="shared" si="18"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="133" spans="3:9" x14ac:dyDescent="0.25">
@@ -4157,19 +4187,19 @@
       </c>
       <c r="F133" s="13">
         <f t="shared" si="15"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G133" s="8">
         <f t="shared" si="16"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H133" s="8">
         <f t="shared" si="17"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I133" s="15">
         <f t="shared" si="18"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="134" spans="3:9" x14ac:dyDescent="0.25">
@@ -4181,19 +4211,19 @@
       </c>
       <c r="F134" s="13">
         <f t="shared" si="15"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G134" s="8">
         <f t="shared" si="16"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H134" s="8">
         <f t="shared" si="17"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I134" s="15">
         <f t="shared" si="18"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="135" spans="3:9" x14ac:dyDescent="0.25">
@@ -4205,19 +4235,19 @@
       </c>
       <c r="F135" s="13">
         <f t="shared" si="15"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G135" s="8">
         <f t="shared" si="16"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H135" s="8">
         <f t="shared" si="17"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I135" s="15">
         <f t="shared" si="18"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="136" spans="3:9" x14ac:dyDescent="0.25">
@@ -4229,19 +4259,19 @@
       </c>
       <c r="F136" s="13">
         <f t="shared" si="15"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G136" s="8">
         <f t="shared" si="16"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H136" s="8">
         <f t="shared" si="17"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I136" s="15">
         <f t="shared" si="18"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="137" spans="3:9" x14ac:dyDescent="0.25">
@@ -4253,19 +4283,19 @@
       </c>
       <c r="F137" s="13">
         <f t="shared" si="15"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G137" s="8">
         <f t="shared" si="16"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H137" s="8">
         <f t="shared" si="17"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I137" s="15">
         <f t="shared" si="18"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="138" spans="3:9" x14ac:dyDescent="0.25">
@@ -4277,19 +4307,19 @@
       </c>
       <c r="F138" s="13">
         <f t="shared" si="15"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G138" s="8">
         <f t="shared" si="16"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H138" s="8">
         <f t="shared" si="17"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I138" s="15">
         <f t="shared" si="18"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="139" spans="3:9" x14ac:dyDescent="0.25">
@@ -4301,19 +4331,19 @@
       </c>
       <c r="F139" s="13">
         <f t="shared" si="15"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G139" s="8">
         <f t="shared" si="16"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H139" s="8">
         <f t="shared" si="17"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I139" s="15">
         <f t="shared" si="18"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="140" spans="3:9" x14ac:dyDescent="0.25">
@@ -4325,19 +4355,19 @@
       </c>
       <c r="F140" s="13">
         <f t="shared" si="15"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G140" s="8">
         <f t="shared" si="16"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H140" s="8">
         <f t="shared" si="17"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I140" s="15">
         <f t="shared" si="18"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="141" spans="3:9" x14ac:dyDescent="0.25">
@@ -4349,19 +4379,19 @@
       </c>
       <c r="F141" s="13">
         <f t="shared" si="15"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G141" s="8">
         <f t="shared" si="16"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H141" s="8">
         <f t="shared" si="17"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I141" s="15">
         <f t="shared" si="18"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="142" spans="3:9" x14ac:dyDescent="0.25">
@@ -4373,19 +4403,19 @@
       </c>
       <c r="F142" s="13">
         <f t="shared" si="15"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G142" s="8">
         <f t="shared" si="16"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H142" s="8">
         <f t="shared" si="17"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I142" s="15">
         <f t="shared" si="18"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="143" spans="3:9" x14ac:dyDescent="0.25">
@@ -4397,19 +4427,19 @@
       </c>
       <c r="F143" s="13">
         <f t="shared" si="15"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G143" s="8">
         <f t="shared" si="16"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H143" s="8">
         <f t="shared" si="17"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I143" s="15">
         <f t="shared" si="18"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="144" spans="3:9" x14ac:dyDescent="0.25">
@@ -4421,19 +4451,19 @@
       </c>
       <c r="F144" s="13">
         <f t="shared" si="15"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G144" s="8">
         <f t="shared" si="16"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H144" s="8">
         <f t="shared" si="17"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I144" s="15">
         <f t="shared" si="18"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="145" spans="3:9" x14ac:dyDescent="0.25">
@@ -4445,19 +4475,19 @@
       </c>
       <c r="F145" s="13">
         <f t="shared" si="15"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G145" s="8">
         <f t="shared" si="16"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H145" s="8">
         <f t="shared" si="17"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I145" s="15">
         <f t="shared" si="18"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="146" spans="3:9" x14ac:dyDescent="0.25">
@@ -4469,19 +4499,19 @@
       </c>
       <c r="F146" s="13">
         <f t="shared" si="15"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G146" s="8">
         <f t="shared" si="16"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H146" s="8">
         <f t="shared" si="17"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I146" s="15">
         <f t="shared" si="18"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="147" spans="3:9" x14ac:dyDescent="0.25">
@@ -4493,19 +4523,19 @@
       </c>
       <c r="F147" s="13">
         <f t="shared" si="15"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G147" s="8">
         <f t="shared" si="16"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H147" s="8">
         <f t="shared" si="17"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I147" s="15">
         <f t="shared" si="18"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="148" spans="3:9" x14ac:dyDescent="0.25">
@@ -4517,19 +4547,19 @@
       </c>
       <c r="F148" s="13">
         <f t="shared" si="15"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G148" s="8">
         <f t="shared" si="16"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H148" s="8">
         <f t="shared" si="17"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I148" s="15">
         <f t="shared" si="18"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="149" spans="3:9" x14ac:dyDescent="0.25">
@@ -4541,19 +4571,19 @@
       </c>
       <c r="F149" s="13">
         <f t="shared" si="15"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G149" s="8">
         <f t="shared" si="16"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H149" s="8">
         <f t="shared" si="17"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I149" s="15">
         <f t="shared" si="18"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="150" spans="3:9" x14ac:dyDescent="0.25">
@@ -4565,19 +4595,19 @@
       </c>
       <c r="F150" s="13">
         <f t="shared" si="15"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G150" s="8">
         <f t="shared" si="16"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H150" s="8">
         <f t="shared" si="17"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I150" s="15">
         <f t="shared" si="18"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="151" spans="3:9" x14ac:dyDescent="0.25">
@@ -4589,19 +4619,19 @@
       </c>
       <c r="F151" s="13">
         <f t="shared" si="15"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G151" s="8">
         <f t="shared" si="16"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H151" s="8">
         <f t="shared" si="17"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I151" s="15">
         <f t="shared" si="18"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="152" spans="3:9" x14ac:dyDescent="0.25">
@@ -4613,19 +4643,19 @@
       </c>
       <c r="F152" s="13">
         <f t="shared" si="15"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G152" s="8">
         <f t="shared" si="16"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H152" s="8">
         <f t="shared" si="17"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I152" s="15">
         <f t="shared" si="18"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="153" spans="3:9" x14ac:dyDescent="0.25">
@@ -4637,19 +4667,19 @@
       </c>
       <c r="F153" s="13">
         <f t="shared" si="15"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G153" s="8">
         <f t="shared" si="16"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H153" s="8">
         <f t="shared" si="17"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I153" s="15">
         <f t="shared" si="18"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="154" spans="3:9" x14ac:dyDescent="0.25">
@@ -4661,19 +4691,19 @@
       </c>
       <c r="F154" s="13">
         <f t="shared" si="15"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G154" s="8">
         <f t="shared" si="16"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H154" s="8">
         <f t="shared" si="17"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I154" s="15">
         <f t="shared" si="18"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="155" spans="3:9" x14ac:dyDescent="0.25">
@@ -4685,19 +4715,19 @@
       </c>
       <c r="F155" s="13">
         <f t="shared" si="15"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G155" s="8">
         <f t="shared" si="16"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H155" s="8">
         <f t="shared" si="17"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I155" s="15">
         <f t="shared" si="18"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="156" spans="3:9" x14ac:dyDescent="0.25">
@@ -4709,19 +4739,19 @@
       </c>
       <c r="F156" s="13">
         <f t="shared" si="15"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G156" s="8">
         <f t="shared" si="16"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H156" s="8">
         <f t="shared" si="17"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I156" s="15">
         <f t="shared" si="18"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="157" spans="3:9" x14ac:dyDescent="0.25">
@@ -4733,19 +4763,19 @@
       </c>
       <c r="F157" s="13">
         <f t="shared" si="15"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G157" s="8">
         <f t="shared" si="16"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H157" s="8">
         <f t="shared" si="17"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I157" s="15">
         <f t="shared" si="18"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="158" spans="3:9" x14ac:dyDescent="0.25">
@@ -4757,19 +4787,19 @@
       </c>
       <c r="F158" s="13">
         <f t="shared" si="15"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G158" s="8">
         <f t="shared" si="16"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H158" s="8">
         <f t="shared" si="17"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I158" s="15">
         <f t="shared" si="18"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="159" spans="3:9" x14ac:dyDescent="0.25">
@@ -4781,19 +4811,19 @@
       </c>
       <c r="F159" s="13">
         <f t="shared" si="15"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G159" s="8">
         <f t="shared" si="16"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H159" s="8">
         <f t="shared" si="17"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I159" s="15">
         <f t="shared" si="18"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="160" spans="3:9" x14ac:dyDescent="0.25">
@@ -4805,19 +4835,19 @@
       </c>
       <c r="F160" s="13">
         <f t="shared" si="15"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G160" s="8">
         <f t="shared" si="16"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H160" s="8">
         <f t="shared" si="17"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I160" s="15">
         <f t="shared" si="18"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="161" spans="3:9" x14ac:dyDescent="0.25">
@@ -4829,19 +4859,19 @@
       </c>
       <c r="F161" s="13">
         <f t="shared" si="15"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G161" s="8">
         <f t="shared" si="16"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H161" s="8">
         <f t="shared" si="17"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I161" s="15">
         <f t="shared" si="18"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="162" spans="3:9" x14ac:dyDescent="0.25">
@@ -4853,19 +4883,19 @@
       </c>
       <c r="F162" s="13">
         <f t="shared" si="15"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G162" s="8">
         <f t="shared" si="16"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H162" s="8">
         <f t="shared" si="17"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I162" s="15">
         <f t="shared" si="18"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="163" spans="3:9" x14ac:dyDescent="0.25">
@@ -4877,19 +4907,19 @@
       </c>
       <c r="F163" s="13">
         <f t="shared" si="15"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G163" s="8">
         <f t="shared" si="16"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H163" s="8">
         <f t="shared" si="17"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I163" s="15">
         <f t="shared" si="18"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="164" spans="3:9" x14ac:dyDescent="0.25">
@@ -4901,19 +4931,19 @@
       </c>
       <c r="F164" s="13">
         <f t="shared" si="15"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G164" s="8">
         <f t="shared" si="16"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H164" s="8">
         <f t="shared" si="17"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I164" s="15">
         <f t="shared" si="18"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="165" spans="3:9" x14ac:dyDescent="0.25">
@@ -4925,19 +4955,19 @@
       </c>
       <c r="F165" s="13">
         <f t="shared" si="15"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G165" s="8">
         <f t="shared" si="16"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H165" s="8">
         <f t="shared" si="17"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I165" s="15">
         <f t="shared" si="18"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="166" spans="3:9" x14ac:dyDescent="0.25">
@@ -4949,19 +4979,19 @@
       </c>
       <c r="F166" s="13">
         <f t="shared" si="15"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G166" s="8">
         <f t="shared" si="16"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H166" s="8">
         <f t="shared" si="17"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I166" s="15">
         <f t="shared" si="18"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="167" spans="3:9" x14ac:dyDescent="0.25">
@@ -4973,19 +5003,19 @@
       </c>
       <c r="F167" s="13">
         <f t="shared" si="15"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G167" s="8">
         <f t="shared" si="16"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H167" s="8">
         <f t="shared" si="17"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I167" s="15">
         <f t="shared" si="18"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="168" spans="3:9" x14ac:dyDescent="0.25">
@@ -4997,19 +5027,19 @@
       </c>
       <c r="F168" s="13">
         <f t="shared" ref="F168:F231" si="20">F167+E168</f>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G168" s="8">
         <f t="shared" ref="G168:G231" si="21">F168</f>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H168" s="8">
         <f t="shared" ref="H168:H231" si="22">(H167+G168-G167)</f>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I168" s="15">
         <f t="shared" ref="I168:I231" si="23">H168*24*$J$2</f>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="169" spans="3:9" x14ac:dyDescent="0.25">
@@ -5021,19 +5051,19 @@
       </c>
       <c r="F169" s="13">
         <f t="shared" si="20"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G169" s="8">
         <f t="shared" si="21"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H169" s="8">
         <f t="shared" si="22"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I169" s="15">
         <f t="shared" si="23"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="170" spans="3:9" x14ac:dyDescent="0.25">
@@ -5045,19 +5075,19 @@
       </c>
       <c r="F170" s="13">
         <f t="shared" si="20"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G170" s="8">
         <f t="shared" si="21"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H170" s="8">
         <f t="shared" si="22"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I170" s="15">
         <f t="shared" si="23"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="171" spans="3:9" x14ac:dyDescent="0.25">
@@ -5069,19 +5099,19 @@
       </c>
       <c r="F171" s="13">
         <f t="shared" si="20"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G171" s="8">
         <f t="shared" si="21"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H171" s="8">
         <f t="shared" si="22"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I171" s="15">
         <f t="shared" si="23"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="172" spans="3:9" x14ac:dyDescent="0.25">
@@ -5093,19 +5123,19 @@
       </c>
       <c r="F172" s="13">
         <f t="shared" si="20"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G172" s="8">
         <f t="shared" si="21"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H172" s="8">
         <f t="shared" si="22"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I172" s="15">
         <f t="shared" si="23"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="173" spans="3:9" x14ac:dyDescent="0.25">
@@ -5117,19 +5147,19 @@
       </c>
       <c r="F173" s="13">
         <f t="shared" si="20"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G173" s="8">
         <f t="shared" si="21"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H173" s="8">
         <f t="shared" si="22"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I173" s="15">
         <f t="shared" si="23"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="174" spans="3:9" x14ac:dyDescent="0.25">
@@ -5141,19 +5171,19 @@
       </c>
       <c r="F174" s="13">
         <f t="shared" si="20"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G174" s="8">
         <f t="shared" si="21"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H174" s="8">
         <f t="shared" si="22"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I174" s="15">
         <f t="shared" si="23"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="175" spans="3:9" x14ac:dyDescent="0.25">
@@ -5165,19 +5195,19 @@
       </c>
       <c r="F175" s="13">
         <f t="shared" si="20"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G175" s="8">
         <f t="shared" si="21"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H175" s="8">
         <f t="shared" si="22"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I175" s="15">
         <f t="shared" si="23"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="176" spans="3:9" x14ac:dyDescent="0.25">
@@ -5189,19 +5219,19 @@
       </c>
       <c r="F176" s="13">
         <f t="shared" si="20"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G176" s="8">
         <f t="shared" si="21"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H176" s="8">
         <f t="shared" si="22"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I176" s="15">
         <f t="shared" si="23"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="177" spans="3:9" x14ac:dyDescent="0.25">
@@ -5213,19 +5243,19 @@
       </c>
       <c r="F177" s="13">
         <f t="shared" si="20"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G177" s="8">
         <f t="shared" si="21"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H177" s="8">
         <f t="shared" si="22"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I177" s="15">
         <f t="shared" si="23"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="178" spans="3:9" x14ac:dyDescent="0.25">
@@ -5237,19 +5267,19 @@
       </c>
       <c r="F178" s="13">
         <f t="shared" si="20"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G178" s="8">
         <f t="shared" si="21"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H178" s="8">
         <f t="shared" si="22"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I178" s="15">
         <f t="shared" si="23"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="179" spans="3:9" x14ac:dyDescent="0.25">
@@ -5261,19 +5291,19 @@
       </c>
       <c r="F179" s="13">
         <f t="shared" si="20"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G179" s="8">
         <f t="shared" si="21"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H179" s="8">
         <f t="shared" si="22"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I179" s="15">
         <f t="shared" si="23"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="180" spans="3:9" x14ac:dyDescent="0.25">
@@ -5285,19 +5315,19 @@
       </c>
       <c r="F180" s="13">
         <f t="shared" si="20"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G180" s="8">
         <f t="shared" si="21"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H180" s="8">
         <f t="shared" si="22"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I180" s="15">
         <f t="shared" si="23"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="181" spans="3:9" x14ac:dyDescent="0.25">
@@ -5309,19 +5339,19 @@
       </c>
       <c r="F181" s="13">
         <f t="shared" si="20"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G181" s="8">
         <f t="shared" si="21"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H181" s="8">
         <f t="shared" si="22"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I181" s="15">
         <f t="shared" si="23"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="182" spans="3:9" x14ac:dyDescent="0.25">
@@ -5333,19 +5363,19 @@
       </c>
       <c r="F182" s="13">
         <f t="shared" si="20"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G182" s="8">
         <f t="shared" si="21"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H182" s="8">
         <f t="shared" si="22"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I182" s="15">
         <f t="shared" si="23"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="183" spans="3:9" x14ac:dyDescent="0.25">
@@ -5357,19 +5387,19 @@
       </c>
       <c r="F183" s="13">
         <f t="shared" si="20"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G183" s="8">
         <f t="shared" si="21"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H183" s="8">
         <f t="shared" si="22"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I183" s="15">
         <f t="shared" si="23"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="184" spans="3:9" x14ac:dyDescent="0.25">
@@ -5381,19 +5411,19 @@
       </c>
       <c r="F184" s="13">
         <f t="shared" si="20"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G184" s="8">
         <f t="shared" si="21"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H184" s="8">
         <f t="shared" si="22"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I184" s="15">
         <f t="shared" si="23"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="185" spans="3:9" x14ac:dyDescent="0.25">
@@ -5405,19 +5435,19 @@
       </c>
       <c r="F185" s="13">
         <f t="shared" si="20"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G185" s="8">
         <f t="shared" si="21"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H185" s="8">
         <f t="shared" si="22"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I185" s="15">
         <f t="shared" si="23"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="186" spans="3:9" x14ac:dyDescent="0.25">
@@ -5429,19 +5459,19 @@
       </c>
       <c r="F186" s="13">
         <f t="shared" si="20"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G186" s="8">
         <f t="shared" si="21"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H186" s="8">
         <f t="shared" si="22"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I186" s="15">
         <f t="shared" si="23"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="187" spans="3:9" x14ac:dyDescent="0.25">
@@ -5453,19 +5483,19 @@
       </c>
       <c r="F187" s="13">
         <f t="shared" si="20"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G187" s="8">
         <f t="shared" si="21"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H187" s="8">
         <f t="shared" si="22"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I187" s="15">
         <f t="shared" si="23"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="188" spans="3:9" x14ac:dyDescent="0.25">
@@ -5477,19 +5507,19 @@
       </c>
       <c r="F188" s="13">
         <f t="shared" si="20"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G188" s="8">
         <f t="shared" si="21"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H188" s="8">
         <f t="shared" si="22"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I188" s="15">
         <f t="shared" si="23"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="189" spans="3:9" x14ac:dyDescent="0.25">
@@ -5501,19 +5531,19 @@
       </c>
       <c r="F189" s="13">
         <f t="shared" si="20"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G189" s="8">
         <f t="shared" si="21"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H189" s="8">
         <f t="shared" si="22"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I189" s="15">
         <f t="shared" si="23"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="190" spans="3:9" x14ac:dyDescent="0.25">
@@ -5525,19 +5555,19 @@
       </c>
       <c r="F190" s="13">
         <f t="shared" si="20"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G190" s="8">
         <f t="shared" si="21"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H190" s="8">
         <f t="shared" si="22"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I190" s="15">
         <f t="shared" si="23"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="191" spans="3:9" x14ac:dyDescent="0.25">
@@ -5549,19 +5579,19 @@
       </c>
       <c r="F191" s="13">
         <f t="shared" si="20"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G191" s="8">
         <f t="shared" si="21"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H191" s="8">
         <f t="shared" si="22"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I191" s="15">
         <f t="shared" si="23"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="192" spans="3:9" x14ac:dyDescent="0.25">
@@ -5573,19 +5603,19 @@
       </c>
       <c r="F192" s="13">
         <f t="shared" si="20"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G192" s="8">
         <f t="shared" si="21"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H192" s="8">
         <f t="shared" si="22"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I192" s="15">
         <f t="shared" si="23"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="193" spans="3:9" x14ac:dyDescent="0.25">
@@ -5597,19 +5627,19 @@
       </c>
       <c r="F193" s="13">
         <f t="shared" si="20"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G193" s="8">
         <f t="shared" si="21"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H193" s="8">
         <f t="shared" si="22"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I193" s="15">
         <f t="shared" si="23"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="194" spans="3:9" x14ac:dyDescent="0.25">
@@ -5621,19 +5651,19 @@
       </c>
       <c r="F194" s="13">
         <f t="shared" si="20"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G194" s="8">
         <f t="shared" si="21"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H194" s="8">
         <f t="shared" si="22"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I194" s="15">
         <f t="shared" si="23"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="195" spans="3:9" x14ac:dyDescent="0.25">
@@ -5645,19 +5675,19 @@
       </c>
       <c r="F195" s="13">
         <f t="shared" si="20"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G195" s="8">
         <f t="shared" si="21"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H195" s="8">
         <f t="shared" si="22"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I195" s="15">
         <f t="shared" si="23"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="196" spans="3:9" x14ac:dyDescent="0.25">
@@ -5669,19 +5699,19 @@
       </c>
       <c r="F196" s="13">
         <f t="shared" si="20"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G196" s="8">
         <f t="shared" si="21"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H196" s="8">
         <f t="shared" si="22"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I196" s="15">
         <f t="shared" si="23"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="197" spans="3:9" x14ac:dyDescent="0.25">
@@ -5693,19 +5723,19 @@
       </c>
       <c r="F197" s="13">
         <f t="shared" si="20"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G197" s="8">
         <f t="shared" si="21"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H197" s="8">
         <f t="shared" si="22"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I197" s="15">
         <f t="shared" si="23"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="198" spans="3:9" x14ac:dyDescent="0.25">
@@ -5717,19 +5747,19 @@
       </c>
       <c r="F198" s="13">
         <f t="shared" si="20"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G198" s="8">
         <f t="shared" si="21"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H198" s="8">
         <f t="shared" si="22"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I198" s="15">
         <f t="shared" si="23"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="199" spans="3:9" x14ac:dyDescent="0.25">
@@ -5741,19 +5771,19 @@
       </c>
       <c r="F199" s="13">
         <f t="shared" si="20"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G199" s="8">
         <f t="shared" si="21"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H199" s="8">
         <f t="shared" si="22"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I199" s="15">
         <f t="shared" si="23"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="200" spans="3:9" x14ac:dyDescent="0.25">
@@ -5765,19 +5795,19 @@
       </c>
       <c r="F200" s="13">
         <f t="shared" si="20"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G200" s="8">
         <f t="shared" si="21"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H200" s="8">
         <f t="shared" si="22"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I200" s="15">
         <f t="shared" si="23"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="201" spans="3:9" x14ac:dyDescent="0.25">
@@ -5789,19 +5819,19 @@
       </c>
       <c r="F201" s="13">
         <f t="shared" si="20"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G201" s="8">
         <f t="shared" si="21"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H201" s="8">
         <f t="shared" si="22"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I201" s="15">
         <f t="shared" si="23"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="202" spans="3:9" x14ac:dyDescent="0.25">
@@ -5813,19 +5843,19 @@
       </c>
       <c r="F202" s="13">
         <f t="shared" si="20"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G202" s="8">
         <f t="shared" si="21"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H202" s="8">
         <f t="shared" si="22"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I202" s="15">
         <f t="shared" si="23"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="203" spans="3:9" x14ac:dyDescent="0.25">
@@ -5837,19 +5867,19 @@
       </c>
       <c r="F203" s="13">
         <f t="shared" si="20"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G203" s="8">
         <f t="shared" si="21"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H203" s="8">
         <f t="shared" si="22"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I203" s="15">
         <f t="shared" si="23"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="204" spans="3:9" x14ac:dyDescent="0.25">
@@ -5861,19 +5891,19 @@
       </c>
       <c r="F204" s="13">
         <f t="shared" si="20"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G204" s="8">
         <f t="shared" si="21"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H204" s="8">
         <f t="shared" si="22"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I204" s="15">
         <f t="shared" si="23"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="205" spans="3:9" x14ac:dyDescent="0.25">
@@ -5885,19 +5915,19 @@
       </c>
       <c r="F205" s="13">
         <f t="shared" si="20"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G205" s="8">
         <f t="shared" si="21"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H205" s="8">
         <f t="shared" si="22"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I205" s="15">
         <f t="shared" si="23"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="206" spans="3:9" x14ac:dyDescent="0.25">
@@ -5909,19 +5939,19 @@
       </c>
       <c r="F206" s="13">
         <f t="shared" si="20"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G206" s="8">
         <f t="shared" si="21"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H206" s="8">
         <f t="shared" si="22"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I206" s="15">
         <f t="shared" si="23"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="207" spans="3:9" x14ac:dyDescent="0.25">
@@ -5933,19 +5963,19 @@
       </c>
       <c r="F207" s="13">
         <f t="shared" si="20"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G207" s="8">
         <f t="shared" si="21"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H207" s="8">
         <f t="shared" si="22"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I207" s="15">
         <f t="shared" si="23"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="208" spans="3:9" x14ac:dyDescent="0.25">
@@ -5957,19 +5987,19 @@
       </c>
       <c r="F208" s="13">
         <f t="shared" si="20"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G208" s="8">
         <f t="shared" si="21"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H208" s="8">
         <f t="shared" si="22"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I208" s="15">
         <f t="shared" si="23"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="209" spans="3:9" x14ac:dyDescent="0.25">
@@ -5981,19 +6011,19 @@
       </c>
       <c r="F209" s="13">
         <f t="shared" si="20"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G209" s="8">
         <f t="shared" si="21"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H209" s="8">
         <f t="shared" si="22"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I209" s="15">
         <f t="shared" si="23"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="210" spans="3:9" x14ac:dyDescent="0.25">
@@ -6005,19 +6035,19 @@
       </c>
       <c r="F210" s="13">
         <f t="shared" si="20"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G210" s="8">
         <f t="shared" si="21"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H210" s="8">
         <f t="shared" si="22"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I210" s="15">
         <f t="shared" si="23"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="211" spans="3:9" x14ac:dyDescent="0.25">
@@ -6029,19 +6059,19 @@
       </c>
       <c r="F211" s="13">
         <f t="shared" si="20"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G211" s="8">
         <f t="shared" si="21"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H211" s="8">
         <f t="shared" si="22"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I211" s="15">
         <f t="shared" si="23"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="212" spans="3:9" x14ac:dyDescent="0.25">
@@ -6053,19 +6083,19 @@
       </c>
       <c r="F212" s="13">
         <f t="shared" si="20"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G212" s="8">
         <f t="shared" si="21"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H212" s="8">
         <f t="shared" si="22"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I212" s="15">
         <f t="shared" si="23"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="213" spans="3:9" x14ac:dyDescent="0.25">
@@ -6077,19 +6107,19 @@
       </c>
       <c r="F213" s="13">
         <f t="shared" si="20"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G213" s="8">
         <f t="shared" si="21"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H213" s="8">
         <f t="shared" si="22"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I213" s="15">
         <f t="shared" si="23"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="214" spans="3:9" x14ac:dyDescent="0.25">
@@ -6101,19 +6131,19 @@
       </c>
       <c r="F214" s="13">
         <f t="shared" si="20"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G214" s="8">
         <f t="shared" si="21"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H214" s="8">
         <f t="shared" si="22"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I214" s="15">
         <f t="shared" si="23"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="215" spans="3:9" x14ac:dyDescent="0.25">
@@ -6125,19 +6155,19 @@
       </c>
       <c r="F215" s="13">
         <f t="shared" si="20"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G215" s="8">
         <f t="shared" si="21"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H215" s="8">
         <f t="shared" si="22"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I215" s="15">
         <f t="shared" si="23"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="216" spans="3:9" x14ac:dyDescent="0.25">
@@ -6149,19 +6179,19 @@
       </c>
       <c r="F216" s="13">
         <f t="shared" si="20"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G216" s="8">
         <f t="shared" si="21"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H216" s="8">
         <f t="shared" si="22"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I216" s="15">
         <f t="shared" si="23"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="217" spans="3:9" x14ac:dyDescent="0.25">
@@ -6173,19 +6203,19 @@
       </c>
       <c r="F217" s="13">
         <f t="shared" si="20"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G217" s="8">
         <f t="shared" si="21"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H217" s="8">
         <f t="shared" si="22"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I217" s="15">
         <f t="shared" si="23"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="218" spans="3:9" x14ac:dyDescent="0.25">
@@ -6197,19 +6227,19 @@
       </c>
       <c r="F218" s="13">
         <f t="shared" si="20"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G218" s="8">
         <f t="shared" si="21"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H218" s="8">
         <f t="shared" si="22"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I218" s="15">
         <f t="shared" si="23"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="219" spans="3:9" x14ac:dyDescent="0.25">
@@ -6221,19 +6251,19 @@
       </c>
       <c r="F219" s="13">
         <f t="shared" si="20"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G219" s="8">
         <f t="shared" si="21"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H219" s="8">
         <f t="shared" si="22"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I219" s="15">
         <f t="shared" si="23"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="220" spans="3:9" x14ac:dyDescent="0.25">
@@ -6245,19 +6275,19 @@
       </c>
       <c r="F220" s="13">
         <f t="shared" si="20"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G220" s="8">
         <f t="shared" si="21"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H220" s="8">
         <f t="shared" si="22"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I220" s="15">
         <f t="shared" si="23"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="221" spans="3:9" x14ac:dyDescent="0.25">
@@ -6269,19 +6299,19 @@
       </c>
       <c r="F221" s="13">
         <f t="shared" si="20"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G221" s="8">
         <f t="shared" si="21"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H221" s="8">
         <f t="shared" si="22"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I221" s="15">
         <f t="shared" si="23"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="222" spans="3:9" x14ac:dyDescent="0.25">
@@ -6293,19 +6323,19 @@
       </c>
       <c r="F222" s="13">
         <f t="shared" si="20"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G222" s="8">
         <f t="shared" si="21"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H222" s="8">
         <f t="shared" si="22"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I222" s="15">
         <f t="shared" si="23"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="223" spans="3:9" x14ac:dyDescent="0.25">
@@ -6317,19 +6347,19 @@
       </c>
       <c r="F223" s="13">
         <f t="shared" si="20"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G223" s="8">
         <f t="shared" si="21"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H223" s="8">
         <f t="shared" si="22"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I223" s="15">
         <f t="shared" si="23"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="224" spans="3:9" x14ac:dyDescent="0.25">
@@ -6341,19 +6371,19 @@
       </c>
       <c r="F224" s="13">
         <f t="shared" si="20"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G224" s="8">
         <f t="shared" si="21"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H224" s="8">
         <f t="shared" si="22"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I224" s="15">
         <f t="shared" si="23"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="225" spans="3:9" x14ac:dyDescent="0.25">
@@ -6365,19 +6395,19 @@
       </c>
       <c r="F225" s="13">
         <f t="shared" si="20"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G225" s="8">
         <f t="shared" si="21"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H225" s="8">
         <f t="shared" si="22"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I225" s="15">
         <f t="shared" si="23"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="226" spans="3:9" x14ac:dyDescent="0.25">
@@ -6389,19 +6419,19 @@
       </c>
       <c r="F226" s="13">
         <f t="shared" si="20"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G226" s="8">
         <f t="shared" si="21"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H226" s="8">
         <f t="shared" si="22"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I226" s="15">
         <f t="shared" si="23"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="227" spans="3:9" x14ac:dyDescent="0.25">
@@ -6413,19 +6443,19 @@
       </c>
       <c r="F227" s="13">
         <f t="shared" si="20"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G227" s="8">
         <f t="shared" si="21"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H227" s="8">
         <f t="shared" si="22"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I227" s="15">
         <f t="shared" si="23"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="228" spans="3:9" x14ac:dyDescent="0.25">
@@ -6437,19 +6467,19 @@
       </c>
       <c r="F228" s="13">
         <f t="shared" si="20"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G228" s="8">
         <f t="shared" si="21"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H228" s="8">
         <f t="shared" si="22"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I228" s="15">
         <f t="shared" si="23"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="229" spans="3:9" x14ac:dyDescent="0.25">
@@ -6461,19 +6491,19 @@
       </c>
       <c r="F229" s="13">
         <f t="shared" si="20"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G229" s="8">
         <f t="shared" si="21"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H229" s="8">
         <f t="shared" si="22"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I229" s="15">
         <f t="shared" si="23"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="230" spans="3:9" x14ac:dyDescent="0.25">
@@ -6485,19 +6515,19 @@
       </c>
       <c r="F230" s="13">
         <f t="shared" si="20"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G230" s="8">
         <f t="shared" si="21"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H230" s="8">
         <f t="shared" si="22"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I230" s="15">
         <f t="shared" si="23"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="231" spans="3:9" x14ac:dyDescent="0.25">
@@ -6509,19 +6539,19 @@
       </c>
       <c r="F231" s="13">
         <f t="shared" si="20"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G231" s="8">
         <f t="shared" si="21"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H231" s="8">
         <f t="shared" si="22"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I231" s="15">
         <f t="shared" si="23"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="232" spans="3:9" x14ac:dyDescent="0.25">
@@ -6533,19 +6563,19 @@
       </c>
       <c r="F232" s="13">
         <f t="shared" ref="F232:F255" si="25">F231+E232</f>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G232" s="8">
         <f t="shared" ref="G232:G255" si="26">F232</f>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H232" s="8">
         <f t="shared" ref="H232:H255" si="27">(H231+G232-G231)</f>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I232" s="15">
         <f t="shared" ref="I232:I255" si="28">H232*24*$J$2</f>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="233" spans="3:9" x14ac:dyDescent="0.25">
@@ -6557,19 +6587,19 @@
       </c>
       <c r="F233" s="13">
         <f t="shared" si="25"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G233" s="8">
         <f t="shared" si="26"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H233" s="8">
         <f t="shared" si="27"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I233" s="15">
         <f t="shared" si="28"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="234" spans="3:9" x14ac:dyDescent="0.25">
@@ -6581,19 +6611,19 @@
       </c>
       <c r="F234" s="13">
         <f t="shared" si="25"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G234" s="8">
         <f t="shared" si="26"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H234" s="8">
         <f t="shared" si="27"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I234" s="15">
         <f t="shared" si="28"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="235" spans="3:9" x14ac:dyDescent="0.25">
@@ -6605,19 +6635,19 @@
       </c>
       <c r="F235" s="13">
         <f t="shared" si="25"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G235" s="8">
         <f t="shared" si="26"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H235" s="8">
         <f t="shared" si="27"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I235" s="15">
         <f t="shared" si="28"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="236" spans="3:9" x14ac:dyDescent="0.25">
@@ -6629,19 +6659,19 @@
       </c>
       <c r="F236" s="13">
         <f t="shared" si="25"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G236" s="8">
         <f t="shared" si="26"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H236" s="8">
         <f t="shared" si="27"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I236" s="15">
         <f t="shared" si="28"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="237" spans="3:9" x14ac:dyDescent="0.25">
@@ -6653,19 +6683,19 @@
       </c>
       <c r="F237" s="13">
         <f t="shared" si="25"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G237" s="8">
         <f t="shared" si="26"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H237" s="8">
         <f t="shared" si="27"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I237" s="15">
         <f t="shared" si="28"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="238" spans="3:9" x14ac:dyDescent="0.25">
@@ -6677,19 +6707,19 @@
       </c>
       <c r="F238" s="13">
         <f t="shared" si="25"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G238" s="8">
         <f t="shared" si="26"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H238" s="8">
         <f t="shared" si="27"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I238" s="15">
         <f t="shared" si="28"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="239" spans="3:9" x14ac:dyDescent="0.25">
@@ -6701,19 +6731,19 @@
       </c>
       <c r="F239" s="13">
         <f t="shared" si="25"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G239" s="8">
         <f t="shared" si="26"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H239" s="8">
         <f t="shared" si="27"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I239" s="15">
         <f t="shared" si="28"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="240" spans="3:9" x14ac:dyDescent="0.25">
@@ -6725,19 +6755,19 @@
       </c>
       <c r="F240" s="13">
         <f t="shared" si="25"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G240" s="8">
         <f t="shared" si="26"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H240" s="8">
         <f t="shared" si="27"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I240" s="15">
         <f t="shared" si="28"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="241" spans="3:9" x14ac:dyDescent="0.25">
@@ -6749,19 +6779,19 @@
       </c>
       <c r="F241" s="13">
         <f t="shared" si="25"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G241" s="8">
         <f t="shared" si="26"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H241" s="8">
         <f t="shared" si="27"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I241" s="15">
         <f t="shared" si="28"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="242" spans="3:9" x14ac:dyDescent="0.25">
@@ -6773,19 +6803,19 @@
       </c>
       <c r="F242" s="13">
         <f t="shared" si="25"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G242" s="8">
         <f t="shared" si="26"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H242" s="8">
         <f t="shared" si="27"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I242" s="15">
         <f t="shared" si="28"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="243" spans="3:9" x14ac:dyDescent="0.25">
@@ -6797,19 +6827,19 @@
       </c>
       <c r="F243" s="13">
         <f t="shared" si="25"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G243" s="8">
         <f t="shared" si="26"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H243" s="8">
         <f t="shared" si="27"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I243" s="15">
         <f t="shared" si="28"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="244" spans="3:9" x14ac:dyDescent="0.25">
@@ -6821,19 +6851,19 @@
       </c>
       <c r="F244" s="13">
         <f t="shared" si="25"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G244" s="8">
         <f t="shared" si="26"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H244" s="8">
         <f t="shared" si="27"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I244" s="15">
         <f t="shared" si="28"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="245" spans="3:9" x14ac:dyDescent="0.25">
@@ -6845,19 +6875,19 @@
       </c>
       <c r="F245" s="13">
         <f t="shared" si="25"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G245" s="8">
         <f t="shared" si="26"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H245" s="8">
         <f t="shared" si="27"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I245" s="15">
         <f t="shared" si="28"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="246" spans="3:9" x14ac:dyDescent="0.25">
@@ -6869,19 +6899,19 @@
       </c>
       <c r="F246" s="13">
         <f t="shared" si="25"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G246" s="8">
         <f t="shared" si="26"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H246" s="8">
         <f t="shared" si="27"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I246" s="15">
         <f t="shared" si="28"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="247" spans="3:9" x14ac:dyDescent="0.25">
@@ -6893,19 +6923,19 @@
       </c>
       <c r="F247" s="13">
         <f t="shared" si="25"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G247" s="8">
         <f t="shared" si="26"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H247" s="8">
         <f t="shared" si="27"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I247" s="15">
         <f t="shared" si="28"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="248" spans="3:9" x14ac:dyDescent="0.25">
@@ -6917,19 +6947,19 @@
       </c>
       <c r="F248" s="13">
         <f t="shared" si="25"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G248" s="8">
         <f t="shared" si="26"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H248" s="8">
         <f t="shared" si="27"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I248" s="15">
         <f t="shared" si="28"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="249" spans="3:9" x14ac:dyDescent="0.25">
@@ -6941,19 +6971,19 @@
       </c>
       <c r="F249" s="13">
         <f t="shared" si="25"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G249" s="8">
         <f t="shared" si="26"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H249" s="8">
         <f t="shared" si="27"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I249" s="15">
         <f t="shared" si="28"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="250" spans="3:9" x14ac:dyDescent="0.25">
@@ -6965,19 +6995,19 @@
       </c>
       <c r="F250" s="13">
         <f t="shared" si="25"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G250" s="8">
         <f t="shared" si="26"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H250" s="8">
         <f t="shared" si="27"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I250" s="15">
         <f t="shared" si="28"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="251" spans="3:9" x14ac:dyDescent="0.25">
@@ -6989,19 +7019,19 @@
       </c>
       <c r="F251" s="13">
         <f t="shared" si="25"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G251" s="8">
         <f t="shared" si="26"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H251" s="8">
         <f t="shared" si="27"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I251" s="15">
         <f t="shared" si="28"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="252" spans="3:9" x14ac:dyDescent="0.25">
@@ -7013,19 +7043,19 @@
       </c>
       <c r="F252" s="13">
         <f t="shared" si="25"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G252" s="8">
         <f t="shared" si="26"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H252" s="8">
         <f t="shared" si="27"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I252" s="15">
         <f t="shared" si="28"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="253" spans="3:9" x14ac:dyDescent="0.25">
@@ -7037,19 +7067,19 @@
       </c>
       <c r="F253" s="13">
         <f t="shared" si="25"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G253" s="8">
         <f t="shared" si="26"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H253" s="8">
         <f t="shared" si="27"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I253" s="15">
         <f t="shared" si="28"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="254" spans="3:9" x14ac:dyDescent="0.25">
@@ -7061,19 +7091,19 @@
       </c>
       <c r="F254" s="13">
         <f t="shared" si="25"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G254" s="8">
         <f t="shared" si="26"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H254" s="8">
         <f t="shared" si="27"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I254" s="15">
         <f t="shared" si="28"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="255" spans="3:9" x14ac:dyDescent="0.25">
@@ -7085,19 +7115,19 @@
       </c>
       <c r="F255" s="13">
         <f t="shared" si="25"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="G255" s="8">
         <f t="shared" si="26"/>
-        <v>1.621527777777777</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="H255" s="8">
         <f t="shared" si="27"/>
-        <v>2.7715277777777771</v>
+        <v>3</v>
       </c>
       <c r="I255" s="15">
         <f t="shared" si="28"/>
-        <v>11307.83333333333</v>
+        <v>12240</v>
       </c>
     </row>
   </sheetData>

--- a/hodiny.xlsx
+++ b/hodiny.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF2F5991-FCA0-417C-9C51-6549A5DA9FF1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{770F62EC-261A-40CF-B56F-04127BAF6E1A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5070" yWindow="5070" windowWidth="16710" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>čas [min]</t>
   </si>
@@ -125,6 +125,12 @@
   </si>
   <si>
     <t>23.6.</t>
+  </si>
+  <si>
+    <t>24.6.</t>
+  </si>
+  <si>
+    <t>topologie + odeslano 6863</t>
   </si>
 </sst>
 </file>
@@ -639,7 +645,7 @@
   <dimension ref="B1:J255"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A64" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D79" sqref="D79"/>
+      <selection activeCell="J88" sqref="J88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2883,222 +2889,264 @@
       </c>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C79" s="2"/>
-      <c r="D79" s="10"/>
+      <c r="C79" s="2">
+        <v>0.54513888888888895</v>
+      </c>
+      <c r="D79" s="10">
+        <v>0.61249999999999993</v>
+      </c>
       <c r="E79" s="12">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>6.7361111111110983E-2</v>
       </c>
       <c r="F79" s="13">
         <f t="shared" si="10"/>
-        <v>1.8499999999999996</v>
+        <v>1.9173611111111106</v>
       </c>
       <c r="G79" s="8">
         <f t="shared" si="11"/>
-        <v>1.8499999999999996</v>
+        <v>1.9173611111111106</v>
       </c>
       <c r="H79" s="8">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>3.0673611111111114</v>
       </c>
       <c r="I79" s="15">
         <f t="shared" si="13"/>
-        <v>12240</v>
+        <v>12514.833333333334</v>
       </c>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C80" s="2"/>
-      <c r="D80" s="10"/>
+      <c r="C80" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="D80" s="10">
+        <v>0.67569444444444438</v>
+      </c>
       <c r="E80" s="12">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>2.5694444444444353E-2</v>
       </c>
       <c r="F80" s="13">
         <f t="shared" si="10"/>
-        <v>1.8499999999999996</v>
+        <v>1.9430555555555551</v>
       </c>
       <c r="G80" s="8">
         <f t="shared" si="11"/>
-        <v>1.8499999999999996</v>
+        <v>1.9430555555555551</v>
       </c>
       <c r="H80" s="8">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>3.0930555555555554</v>
       </c>
       <c r="I80" s="15">
         <f t="shared" si="13"/>
-        <v>12240</v>
-      </c>
-    </row>
-    <row r="81" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C81" s="2"/>
-      <c r="D81" s="10"/>
+        <v>12619.666666666666</v>
+      </c>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C81" s="2">
+        <v>0.68611111111111101</v>
+      </c>
+      <c r="D81" s="10">
+        <v>0.69930555555555562</v>
+      </c>
       <c r="E81" s="12">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1.319444444444462E-2</v>
       </c>
       <c r="F81" s="13">
         <f t="shared" si="10"/>
-        <v>1.8499999999999996</v>
+        <v>1.9562499999999998</v>
       </c>
       <c r="G81" s="8">
         <f t="shared" si="11"/>
-        <v>1.8499999999999996</v>
+        <v>1.9562499999999998</v>
       </c>
       <c r="H81" s="8">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>3.1062500000000006</v>
       </c>
       <c r="I81" s="15">
         <f t="shared" si="13"/>
-        <v>12240</v>
-      </c>
-    </row>
-    <row r="82" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C82" s="2"/>
-      <c r="D82" s="10"/>
+        <v>12673.500000000002</v>
+      </c>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C82" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D82" s="10">
+        <v>0.71388888888888891</v>
+      </c>
       <c r="E82" s="12">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>5.5555555555555358E-3</v>
       </c>
       <c r="F82" s="13">
         <f t="shared" si="10"/>
-        <v>1.8499999999999996</v>
+        <v>1.9618055555555554</v>
       </c>
       <c r="G82" s="8">
         <f t="shared" si="11"/>
-        <v>1.8499999999999996</v>
+        <v>1.9618055555555554</v>
       </c>
       <c r="H82" s="8">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>3.1118055555555566</v>
       </c>
       <c r="I82" s="15">
         <f t="shared" si="13"/>
-        <v>12240</v>
-      </c>
-    </row>
-    <row r="83" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C83" s="2"/>
-      <c r="D83" s="10"/>
+        <v>12696.166666666672</v>
+      </c>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C83" s="2">
+        <v>0.7583333333333333</v>
+      </c>
+      <c r="D83" s="10">
+        <v>0.81805555555555554</v>
+      </c>
       <c r="E83" s="12">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>5.9722222222222232E-2</v>
       </c>
       <c r="F83" s="13">
         <f t="shared" si="10"/>
-        <v>1.8499999999999996</v>
+        <v>2.0215277777777776</v>
       </c>
       <c r="G83" s="8">
         <f t="shared" si="11"/>
-        <v>1.8499999999999996</v>
+        <v>2.0215277777777776</v>
       </c>
       <c r="H83" s="8">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>3.1715277777777793</v>
       </c>
       <c r="I83" s="15">
         <f t="shared" si="13"/>
-        <v>12240</v>
-      </c>
-    </row>
-    <row r="84" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C84" s="2"/>
-      <c r="D84" s="10"/>
+        <v>12939.833333333339</v>
+      </c>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C84" s="2">
+        <v>0.83263888888888893</v>
+      </c>
+      <c r="D84" s="10">
+        <v>0.90277777777777779</v>
+      </c>
       <c r="E84" s="12">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>7.0138888888888862E-2</v>
       </c>
       <c r="F84" s="13">
         <f t="shared" si="10"/>
-        <v>1.8499999999999996</v>
+        <v>2.0916666666666663</v>
       </c>
       <c r="G84" s="8">
         <f t="shared" si="11"/>
-        <v>1.8499999999999996</v>
+        <v>2.0916666666666663</v>
       </c>
       <c r="H84" s="8">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>3.2416666666666685</v>
       </c>
       <c r="I84" s="15">
         <f t="shared" si="13"/>
-        <v>12240</v>
-      </c>
-    </row>
-    <row r="85" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C85" s="2"/>
-      <c r="D85" s="10"/>
+        <v>13226.000000000007</v>
+      </c>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C85" s="2">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D85" s="10">
+        <v>1</v>
+      </c>
       <c r="E85" s="12">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>5.208333333333337E-2</v>
       </c>
       <c r="F85" s="13">
         <f t="shared" si="10"/>
-        <v>1.8499999999999996</v>
+        <v>2.1437499999999998</v>
       </c>
       <c r="G85" s="8">
         <f t="shared" si="11"/>
-        <v>1.8499999999999996</v>
+        <v>2.1437499999999998</v>
       </c>
       <c r="H85" s="8">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>3.2937500000000015</v>
       </c>
       <c r="I85" s="15">
         <f t="shared" si="13"/>
-        <v>12240</v>
-      </c>
-    </row>
-    <row r="86" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C86" s="2"/>
-      <c r="D86" s="10"/>
+        <v>13438.500000000007</v>
+      </c>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B86" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C86" s="2">
+        <v>0</v>
+      </c>
+      <c r="D86" s="10">
+        <v>1.1805555555555555E-2</v>
+      </c>
       <c r="E86" s="12">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1.1805555555555555E-2</v>
       </c>
       <c r="F86" s="13">
         <f t="shared" si="10"/>
-        <v>1.8499999999999996</v>
+        <v>2.1555555555555554</v>
       </c>
       <c r="G86" s="8">
         <f t="shared" si="11"/>
-        <v>1.8499999999999996</v>
+        <v>2.1555555555555554</v>
       </c>
       <c r="H86" s="8">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>3.3055555555555571</v>
       </c>
       <c r="I86" s="15">
         <f t="shared" si="13"/>
-        <v>12240</v>
-      </c>
-    </row>
-    <row r="87" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C87" s="2"/>
-      <c r="D87" s="10"/>
+        <v>13486.666666666673</v>
+      </c>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C87" s="2">
+        <v>1.7361111111111112E-2</v>
+      </c>
+      <c r="D87" s="10">
+        <v>3.888888888888889E-2</v>
+      </c>
       <c r="E87" s="12">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>2.1527777777777778E-2</v>
       </c>
       <c r="F87" s="13">
         <f t="shared" si="10"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G87" s="8">
         <f t="shared" si="11"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H87" s="8">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>3.3270833333333347</v>
       </c>
       <c r="I87" s="15">
         <f t="shared" si="13"/>
-        <v>12240</v>
-      </c>
-    </row>
-    <row r="88" spans="3:9" x14ac:dyDescent="0.25">
+        <v>13574.500000000005</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C88" s="2"/>
       <c r="D88" s="10"/>
       <c r="E88" s="12">
@@ -3107,22 +3155,22 @@
       </c>
       <c r="F88" s="13">
         <f t="shared" si="10"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G88" s="8">
         <f t="shared" si="11"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H88" s="8">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I88" s="15">
         <f t="shared" si="13"/>
-        <v>12240</v>
-      </c>
-    </row>
-    <row r="89" spans="3:9" x14ac:dyDescent="0.25">
+        <v>13574.500000000009</v>
+      </c>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C89" s="2"/>
       <c r="D89" s="10"/>
       <c r="E89" s="12">
@@ -3131,22 +3179,22 @@
       </c>
       <c r="F89" s="13">
         <f t="shared" si="10"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G89" s="8">
         <f t="shared" si="11"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H89" s="8">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I89" s="15">
         <f t="shared" si="13"/>
-        <v>12240</v>
-      </c>
-    </row>
-    <row r="90" spans="3:9" x14ac:dyDescent="0.25">
+        <v>13574.500000000009</v>
+      </c>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C90" s="2"/>
       <c r="D90" s="10"/>
       <c r="E90" s="12">
@@ -3155,22 +3203,22 @@
       </c>
       <c r="F90" s="13">
         <f t="shared" si="10"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G90" s="8">
         <f t="shared" si="11"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H90" s="8">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I90" s="15">
         <f t="shared" si="13"/>
-        <v>12240</v>
-      </c>
-    </row>
-    <row r="91" spans="3:9" x14ac:dyDescent="0.25">
+        <v>13574.500000000009</v>
+      </c>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C91" s="2"/>
       <c r="D91" s="10"/>
       <c r="E91" s="12">
@@ -3179,22 +3227,22 @@
       </c>
       <c r="F91" s="13">
         <f t="shared" si="10"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G91" s="8">
         <f t="shared" si="11"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H91" s="8">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I91" s="15">
         <f t="shared" si="13"/>
-        <v>12240</v>
-      </c>
-    </row>
-    <row r="92" spans="3:9" x14ac:dyDescent="0.25">
+        <v>13574.500000000009</v>
+      </c>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C92" s="2"/>
       <c r="D92" s="10"/>
       <c r="E92" s="12">
@@ -3203,22 +3251,22 @@
       </c>
       <c r="F92" s="13">
         <f t="shared" si="10"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G92" s="8">
         <f t="shared" si="11"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H92" s="8">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I92" s="15">
         <f t="shared" si="13"/>
-        <v>12240</v>
-      </c>
-    </row>
-    <row r="93" spans="3:9" x14ac:dyDescent="0.25">
+        <v>13574.500000000009</v>
+      </c>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C93" s="2"/>
       <c r="D93" s="10"/>
       <c r="E93" s="12">
@@ -3227,22 +3275,22 @@
       </c>
       <c r="F93" s="13">
         <f t="shared" si="10"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G93" s="8">
         <f t="shared" si="11"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H93" s="8">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I93" s="15">
         <f t="shared" si="13"/>
-        <v>12240</v>
-      </c>
-    </row>
-    <row r="94" spans="3:9" x14ac:dyDescent="0.25">
+        <v>13574.500000000009</v>
+      </c>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C94" s="2"/>
       <c r="D94" s="10"/>
       <c r="E94" s="12">
@@ -3251,22 +3299,22 @@
       </c>
       <c r="F94" s="13">
         <f t="shared" si="10"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G94" s="8">
         <f t="shared" si="11"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H94" s="8">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I94" s="15">
         <f t="shared" si="13"/>
-        <v>12240</v>
-      </c>
-    </row>
-    <row r="95" spans="3:9" x14ac:dyDescent="0.25">
+        <v>13574.500000000009</v>
+      </c>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C95" s="2"/>
       <c r="D95" s="10"/>
       <c r="E95" s="12">
@@ -3275,22 +3323,22 @@
       </c>
       <c r="F95" s="13">
         <f t="shared" si="10"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G95" s="8">
         <f t="shared" si="11"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H95" s="8">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I95" s="15">
         <f t="shared" si="13"/>
-        <v>12240</v>
-      </c>
-    </row>
-    <row r="96" spans="3:9" x14ac:dyDescent="0.25">
+        <v>13574.500000000009</v>
+      </c>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C96" s="2"/>
       <c r="D96" s="10"/>
       <c r="E96" s="12">
@@ -3299,19 +3347,19 @@
       </c>
       <c r="F96" s="13">
         <f t="shared" si="10"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G96" s="8">
         <f t="shared" si="11"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H96" s="8">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I96" s="15">
         <f t="shared" si="13"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="97" spans="3:9" x14ac:dyDescent="0.25">
@@ -3323,19 +3371,19 @@
       </c>
       <c r="F97" s="13">
         <f t="shared" si="10"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G97" s="8">
         <f t="shared" si="11"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H97" s="8">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I97" s="15">
         <f t="shared" si="13"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="98" spans="3:9" x14ac:dyDescent="0.25">
@@ -3347,19 +3395,19 @@
       </c>
       <c r="F98" s="13">
         <f t="shared" si="10"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G98" s="8">
         <f t="shared" si="11"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H98" s="8">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I98" s="15">
         <f t="shared" si="13"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="99" spans="3:9" x14ac:dyDescent="0.25">
@@ -3371,19 +3419,19 @@
       </c>
       <c r="F99" s="13">
         <f t="shared" si="10"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G99" s="8">
         <f t="shared" si="11"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H99" s="8">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I99" s="15">
         <f t="shared" si="13"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="100" spans="3:9" x14ac:dyDescent="0.25">
@@ -3395,19 +3443,19 @@
       </c>
       <c r="F100" s="13">
         <f t="shared" si="10"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G100" s="8">
         <f t="shared" si="11"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H100" s="8">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I100" s="15">
         <f t="shared" si="13"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="101" spans="3:9" x14ac:dyDescent="0.25">
@@ -3419,19 +3467,19 @@
       </c>
       <c r="F101" s="13">
         <f t="shared" si="10"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G101" s="8">
         <f t="shared" si="11"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H101" s="8">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I101" s="15">
         <f t="shared" si="13"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="102" spans="3:9" x14ac:dyDescent="0.25">
@@ -3443,19 +3491,19 @@
       </c>
       <c r="F102" s="13">
         <f t="shared" si="10"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G102" s="8">
         <f t="shared" si="11"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H102" s="8">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I102" s="15">
         <f t="shared" si="13"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="103" spans="3:9" x14ac:dyDescent="0.25">
@@ -3467,19 +3515,19 @@
       </c>
       <c r="F103" s="13">
         <f t="shared" si="10"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G103" s="8">
         <f t="shared" si="11"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H103" s="8">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I103" s="15">
         <f t="shared" si="13"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="104" spans="3:9" x14ac:dyDescent="0.25">
@@ -3491,19 +3539,19 @@
       </c>
       <c r="F104" s="13">
         <f t="shared" ref="F104:F167" si="15">F103+E104</f>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G104" s="8">
         <f t="shared" ref="G104:G167" si="16">F104</f>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H104" s="8">
         <f t="shared" ref="H104:H167" si="17">(H103+G104-G103)</f>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I104" s="15">
         <f t="shared" ref="I104:I167" si="18">H104*24*$J$2</f>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="105" spans="3:9" x14ac:dyDescent="0.25">
@@ -3515,19 +3563,19 @@
       </c>
       <c r="F105" s="13">
         <f t="shared" si="15"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G105" s="8">
         <f t="shared" si="16"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H105" s="8">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I105" s="15">
         <f t="shared" si="18"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="106" spans="3:9" x14ac:dyDescent="0.25">
@@ -3539,19 +3587,19 @@
       </c>
       <c r="F106" s="13">
         <f t="shared" si="15"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G106" s="8">
         <f t="shared" si="16"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H106" s="8">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I106" s="15">
         <f t="shared" si="18"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="107" spans="3:9" x14ac:dyDescent="0.25">
@@ -3563,19 +3611,19 @@
       </c>
       <c r="F107" s="13">
         <f t="shared" si="15"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G107" s="8">
         <f t="shared" si="16"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H107" s="8">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I107" s="15">
         <f t="shared" si="18"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="108" spans="3:9" x14ac:dyDescent="0.25">
@@ -3587,19 +3635,19 @@
       </c>
       <c r="F108" s="13">
         <f t="shared" si="15"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G108" s="8">
         <f t="shared" si="16"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H108" s="8">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I108" s="15">
         <f t="shared" si="18"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="109" spans="3:9" x14ac:dyDescent="0.25">
@@ -3611,19 +3659,19 @@
       </c>
       <c r="F109" s="13">
         <f t="shared" si="15"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G109" s="8">
         <f t="shared" si="16"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H109" s="8">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I109" s="15">
         <f t="shared" si="18"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="110" spans="3:9" x14ac:dyDescent="0.25">
@@ -3635,19 +3683,19 @@
       </c>
       <c r="F110" s="13">
         <f t="shared" si="15"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G110" s="8">
         <f t="shared" si="16"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H110" s="8">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I110" s="15">
         <f t="shared" si="18"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="111" spans="3:9" x14ac:dyDescent="0.25">
@@ -3659,19 +3707,19 @@
       </c>
       <c r="F111" s="13">
         <f t="shared" si="15"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G111" s="8">
         <f t="shared" si="16"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H111" s="8">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I111" s="15">
         <f t="shared" si="18"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="112" spans="3:9" x14ac:dyDescent="0.25">
@@ -3683,19 +3731,19 @@
       </c>
       <c r="F112" s="13">
         <f t="shared" si="15"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G112" s="8">
         <f t="shared" si="16"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H112" s="8">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I112" s="15">
         <f t="shared" si="18"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="113" spans="3:9" x14ac:dyDescent="0.25">
@@ -3707,19 +3755,19 @@
       </c>
       <c r="F113" s="13">
         <f t="shared" si="15"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G113" s="8">
         <f t="shared" si="16"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H113" s="8">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I113" s="15">
         <f t="shared" si="18"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="114" spans="3:9" x14ac:dyDescent="0.25">
@@ -3731,19 +3779,19 @@
       </c>
       <c r="F114" s="13">
         <f t="shared" si="15"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G114" s="8">
         <f t="shared" si="16"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H114" s="8">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I114" s="15">
         <f t="shared" si="18"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="115" spans="3:9" x14ac:dyDescent="0.25">
@@ -3755,19 +3803,19 @@
       </c>
       <c r="F115" s="13">
         <f t="shared" si="15"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G115" s="8">
         <f t="shared" si="16"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H115" s="8">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I115" s="15">
         <f t="shared" si="18"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="116" spans="3:9" x14ac:dyDescent="0.25">
@@ -3779,19 +3827,19 @@
       </c>
       <c r="F116" s="13">
         <f t="shared" si="15"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G116" s="8">
         <f t="shared" si="16"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H116" s="8">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I116" s="15">
         <f t="shared" si="18"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="117" spans="3:9" x14ac:dyDescent="0.25">
@@ -3803,19 +3851,19 @@
       </c>
       <c r="F117" s="13">
         <f t="shared" si="15"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G117" s="8">
         <f t="shared" si="16"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H117" s="8">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I117" s="15">
         <f t="shared" si="18"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="118" spans="3:9" x14ac:dyDescent="0.25">
@@ -3827,19 +3875,19 @@
       </c>
       <c r="F118" s="13">
         <f t="shared" si="15"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G118" s="8">
         <f t="shared" si="16"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H118" s="8">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I118" s="15">
         <f t="shared" si="18"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="119" spans="3:9" x14ac:dyDescent="0.25">
@@ -3851,19 +3899,19 @@
       </c>
       <c r="F119" s="13">
         <f t="shared" si="15"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G119" s="8">
         <f t="shared" si="16"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H119" s="8">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I119" s="15">
         <f t="shared" si="18"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="120" spans="3:9" x14ac:dyDescent="0.25">
@@ -3875,19 +3923,19 @@
       </c>
       <c r="F120" s="13">
         <f t="shared" si="15"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G120" s="8">
         <f t="shared" si="16"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H120" s="8">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I120" s="15">
         <f t="shared" si="18"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="121" spans="3:9" x14ac:dyDescent="0.25">
@@ -3899,19 +3947,19 @@
       </c>
       <c r="F121" s="13">
         <f t="shared" si="15"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G121" s="8">
         <f t="shared" si="16"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H121" s="8">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I121" s="15">
         <f t="shared" si="18"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="122" spans="3:9" x14ac:dyDescent="0.25">
@@ -3923,19 +3971,19 @@
       </c>
       <c r="F122" s="13">
         <f t="shared" si="15"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G122" s="8">
         <f t="shared" si="16"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H122" s="8">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I122" s="15">
         <f t="shared" si="18"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="123" spans="3:9" x14ac:dyDescent="0.25">
@@ -3947,19 +3995,19 @@
       </c>
       <c r="F123" s="13">
         <f t="shared" si="15"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G123" s="8">
         <f t="shared" si="16"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H123" s="8">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I123" s="15">
         <f t="shared" si="18"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="124" spans="3:9" x14ac:dyDescent="0.25">
@@ -3971,19 +4019,19 @@
       </c>
       <c r="F124" s="13">
         <f t="shared" si="15"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G124" s="8">
         <f t="shared" si="16"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H124" s="8">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I124" s="15">
         <f t="shared" si="18"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="125" spans="3:9" x14ac:dyDescent="0.25">
@@ -3995,19 +4043,19 @@
       </c>
       <c r="F125" s="13">
         <f t="shared" si="15"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G125" s="8">
         <f t="shared" si="16"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H125" s="8">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I125" s="15">
         <f t="shared" si="18"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="126" spans="3:9" x14ac:dyDescent="0.25">
@@ -4019,19 +4067,19 @@
       </c>
       <c r="F126" s="13">
         <f t="shared" si="15"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G126" s="8">
         <f t="shared" si="16"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H126" s="8">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I126" s="15">
         <f t="shared" si="18"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="127" spans="3:9" x14ac:dyDescent="0.25">
@@ -4043,19 +4091,19 @@
       </c>
       <c r="F127" s="13">
         <f t="shared" si="15"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G127" s="8">
         <f t="shared" si="16"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H127" s="8">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I127" s="15">
         <f t="shared" si="18"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="128" spans="3:9" x14ac:dyDescent="0.25">
@@ -4067,19 +4115,19 @@
       </c>
       <c r="F128" s="13">
         <f t="shared" si="15"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G128" s="8">
         <f t="shared" si="16"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H128" s="8">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I128" s="15">
         <f t="shared" si="18"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="129" spans="3:9" x14ac:dyDescent="0.25">
@@ -4091,19 +4139,19 @@
       </c>
       <c r="F129" s="13">
         <f t="shared" si="15"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G129" s="8">
         <f t="shared" si="16"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H129" s="8">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I129" s="15">
         <f t="shared" si="18"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="130" spans="3:9" x14ac:dyDescent="0.25">
@@ -4115,19 +4163,19 @@
       </c>
       <c r="F130" s="13">
         <f t="shared" si="15"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G130" s="8">
         <f t="shared" si="16"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H130" s="8">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I130" s="15">
         <f t="shared" si="18"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="131" spans="3:9" x14ac:dyDescent="0.25">
@@ -4139,19 +4187,19 @@
       </c>
       <c r="F131" s="13">
         <f t="shared" si="15"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G131" s="8">
         <f t="shared" si="16"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H131" s="8">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I131" s="15">
         <f t="shared" si="18"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="132" spans="3:9" x14ac:dyDescent="0.25">
@@ -4163,19 +4211,19 @@
       </c>
       <c r="F132" s="13">
         <f t="shared" si="15"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G132" s="8">
         <f t="shared" si="16"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H132" s="8">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I132" s="15">
         <f t="shared" si="18"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="133" spans="3:9" x14ac:dyDescent="0.25">
@@ -4187,19 +4235,19 @@
       </c>
       <c r="F133" s="13">
         <f t="shared" si="15"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G133" s="8">
         <f t="shared" si="16"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H133" s="8">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I133" s="15">
         <f t="shared" si="18"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="134" spans="3:9" x14ac:dyDescent="0.25">
@@ -4211,19 +4259,19 @@
       </c>
       <c r="F134" s="13">
         <f t="shared" si="15"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G134" s="8">
         <f t="shared" si="16"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H134" s="8">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I134" s="15">
         <f t="shared" si="18"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="135" spans="3:9" x14ac:dyDescent="0.25">
@@ -4235,19 +4283,19 @@
       </c>
       <c r="F135" s="13">
         <f t="shared" si="15"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G135" s="8">
         <f t="shared" si="16"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H135" s="8">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I135" s="15">
         <f t="shared" si="18"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="136" spans="3:9" x14ac:dyDescent="0.25">
@@ -4259,19 +4307,19 @@
       </c>
       <c r="F136" s="13">
         <f t="shared" si="15"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G136" s="8">
         <f t="shared" si="16"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H136" s="8">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I136" s="15">
         <f t="shared" si="18"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="137" spans="3:9" x14ac:dyDescent="0.25">
@@ -4283,19 +4331,19 @@
       </c>
       <c r="F137" s="13">
         <f t="shared" si="15"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G137" s="8">
         <f t="shared" si="16"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H137" s="8">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I137" s="15">
         <f t="shared" si="18"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="138" spans="3:9" x14ac:dyDescent="0.25">
@@ -4307,19 +4355,19 @@
       </c>
       <c r="F138" s="13">
         <f t="shared" si="15"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G138" s="8">
         <f t="shared" si="16"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H138" s="8">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I138" s="15">
         <f t="shared" si="18"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="139" spans="3:9" x14ac:dyDescent="0.25">
@@ -4331,19 +4379,19 @@
       </c>
       <c r="F139" s="13">
         <f t="shared" si="15"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G139" s="8">
         <f t="shared" si="16"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H139" s="8">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I139" s="15">
         <f t="shared" si="18"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="140" spans="3:9" x14ac:dyDescent="0.25">
@@ -4355,19 +4403,19 @@
       </c>
       <c r="F140" s="13">
         <f t="shared" si="15"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G140" s="8">
         <f t="shared" si="16"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H140" s="8">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I140" s="15">
         <f t="shared" si="18"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="141" spans="3:9" x14ac:dyDescent="0.25">
@@ -4379,19 +4427,19 @@
       </c>
       <c r="F141" s="13">
         <f t="shared" si="15"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G141" s="8">
         <f t="shared" si="16"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H141" s="8">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I141" s="15">
         <f t="shared" si="18"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="142" spans="3:9" x14ac:dyDescent="0.25">
@@ -4403,19 +4451,19 @@
       </c>
       <c r="F142" s="13">
         <f t="shared" si="15"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G142" s="8">
         <f t="shared" si="16"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H142" s="8">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I142" s="15">
         <f t="shared" si="18"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="143" spans="3:9" x14ac:dyDescent="0.25">
@@ -4427,19 +4475,19 @@
       </c>
       <c r="F143" s="13">
         <f t="shared" si="15"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G143" s="8">
         <f t="shared" si="16"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H143" s="8">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I143" s="15">
         <f t="shared" si="18"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="144" spans="3:9" x14ac:dyDescent="0.25">
@@ -4451,19 +4499,19 @@
       </c>
       <c r="F144" s="13">
         <f t="shared" si="15"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G144" s="8">
         <f t="shared" si="16"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H144" s="8">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I144" s="15">
         <f t="shared" si="18"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="145" spans="3:9" x14ac:dyDescent="0.25">
@@ -4475,19 +4523,19 @@
       </c>
       <c r="F145" s="13">
         <f t="shared" si="15"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G145" s="8">
         <f t="shared" si="16"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H145" s="8">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I145" s="15">
         <f t="shared" si="18"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="146" spans="3:9" x14ac:dyDescent="0.25">
@@ -4499,19 +4547,19 @@
       </c>
       <c r="F146" s="13">
         <f t="shared" si="15"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G146" s="8">
         <f t="shared" si="16"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H146" s="8">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I146" s="15">
         <f t="shared" si="18"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="147" spans="3:9" x14ac:dyDescent="0.25">
@@ -4523,19 +4571,19 @@
       </c>
       <c r="F147" s="13">
         <f t="shared" si="15"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G147" s="8">
         <f t="shared" si="16"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H147" s="8">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I147" s="15">
         <f t="shared" si="18"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="148" spans="3:9" x14ac:dyDescent="0.25">
@@ -4547,19 +4595,19 @@
       </c>
       <c r="F148" s="13">
         <f t="shared" si="15"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G148" s="8">
         <f t="shared" si="16"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H148" s="8">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I148" s="15">
         <f t="shared" si="18"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="149" spans="3:9" x14ac:dyDescent="0.25">
@@ -4571,19 +4619,19 @@
       </c>
       <c r="F149" s="13">
         <f t="shared" si="15"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G149" s="8">
         <f t="shared" si="16"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H149" s="8">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I149" s="15">
         <f t="shared" si="18"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="150" spans="3:9" x14ac:dyDescent="0.25">
@@ -4595,19 +4643,19 @@
       </c>
       <c r="F150" s="13">
         <f t="shared" si="15"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G150" s="8">
         <f t="shared" si="16"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H150" s="8">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I150" s="15">
         <f t="shared" si="18"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="151" spans="3:9" x14ac:dyDescent="0.25">
@@ -4619,19 +4667,19 @@
       </c>
       <c r="F151" s="13">
         <f t="shared" si="15"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G151" s="8">
         <f t="shared" si="16"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H151" s="8">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I151" s="15">
         <f t="shared" si="18"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="152" spans="3:9" x14ac:dyDescent="0.25">
@@ -4643,19 +4691,19 @@
       </c>
       <c r="F152" s="13">
         <f t="shared" si="15"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G152" s="8">
         <f t="shared" si="16"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H152" s="8">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I152" s="15">
         <f t="shared" si="18"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="153" spans="3:9" x14ac:dyDescent="0.25">
@@ -4667,19 +4715,19 @@
       </c>
       <c r="F153" s="13">
         <f t="shared" si="15"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G153" s="8">
         <f t="shared" si="16"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H153" s="8">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I153" s="15">
         <f t="shared" si="18"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="154" spans="3:9" x14ac:dyDescent="0.25">
@@ -4691,19 +4739,19 @@
       </c>
       <c r="F154" s="13">
         <f t="shared" si="15"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G154" s="8">
         <f t="shared" si="16"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H154" s="8">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I154" s="15">
         <f t="shared" si="18"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="155" spans="3:9" x14ac:dyDescent="0.25">
@@ -4715,19 +4763,19 @@
       </c>
       <c r="F155" s="13">
         <f t="shared" si="15"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G155" s="8">
         <f t="shared" si="16"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H155" s="8">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I155" s="15">
         <f t="shared" si="18"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="156" spans="3:9" x14ac:dyDescent="0.25">
@@ -4739,19 +4787,19 @@
       </c>
       <c r="F156" s="13">
         <f t="shared" si="15"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G156" s="8">
         <f t="shared" si="16"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H156" s="8">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I156" s="15">
         <f t="shared" si="18"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="157" spans="3:9" x14ac:dyDescent="0.25">
@@ -4763,19 +4811,19 @@
       </c>
       <c r="F157" s="13">
         <f t="shared" si="15"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G157" s="8">
         <f t="shared" si="16"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H157" s="8">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I157" s="15">
         <f t="shared" si="18"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="158" spans="3:9" x14ac:dyDescent="0.25">
@@ -4787,19 +4835,19 @@
       </c>
       <c r="F158" s="13">
         <f t="shared" si="15"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G158" s="8">
         <f t="shared" si="16"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H158" s="8">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I158" s="15">
         <f t="shared" si="18"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="159" spans="3:9" x14ac:dyDescent="0.25">
@@ -4811,19 +4859,19 @@
       </c>
       <c r="F159" s="13">
         <f t="shared" si="15"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G159" s="8">
         <f t="shared" si="16"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H159" s="8">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I159" s="15">
         <f t="shared" si="18"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="160" spans="3:9" x14ac:dyDescent="0.25">
@@ -4835,19 +4883,19 @@
       </c>
       <c r="F160" s="13">
         <f t="shared" si="15"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G160" s="8">
         <f t="shared" si="16"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H160" s="8">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I160" s="15">
         <f t="shared" si="18"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="161" spans="3:9" x14ac:dyDescent="0.25">
@@ -4859,19 +4907,19 @@
       </c>
       <c r="F161" s="13">
         <f t="shared" si="15"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G161" s="8">
         <f t="shared" si="16"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H161" s="8">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I161" s="15">
         <f t="shared" si="18"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="162" spans="3:9" x14ac:dyDescent="0.25">
@@ -4883,19 +4931,19 @@
       </c>
       <c r="F162" s="13">
         <f t="shared" si="15"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G162" s="8">
         <f t="shared" si="16"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H162" s="8">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I162" s="15">
         <f t="shared" si="18"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="163" spans="3:9" x14ac:dyDescent="0.25">
@@ -4907,19 +4955,19 @@
       </c>
       <c r="F163" s="13">
         <f t="shared" si="15"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G163" s="8">
         <f t="shared" si="16"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H163" s="8">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I163" s="15">
         <f t="shared" si="18"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="164" spans="3:9" x14ac:dyDescent="0.25">
@@ -4931,19 +4979,19 @@
       </c>
       <c r="F164" s="13">
         <f t="shared" si="15"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G164" s="8">
         <f t="shared" si="16"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H164" s="8">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I164" s="15">
         <f t="shared" si="18"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="165" spans="3:9" x14ac:dyDescent="0.25">
@@ -4955,19 +5003,19 @@
       </c>
       <c r="F165" s="13">
         <f t="shared" si="15"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G165" s="8">
         <f t="shared" si="16"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H165" s="8">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I165" s="15">
         <f t="shared" si="18"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="166" spans="3:9" x14ac:dyDescent="0.25">
@@ -4979,19 +5027,19 @@
       </c>
       <c r="F166" s="13">
         <f t="shared" si="15"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G166" s="8">
         <f t="shared" si="16"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H166" s="8">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I166" s="15">
         <f t="shared" si="18"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="167" spans="3:9" x14ac:dyDescent="0.25">
@@ -5003,19 +5051,19 @@
       </c>
       <c r="F167" s="13">
         <f t="shared" si="15"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G167" s="8">
         <f t="shared" si="16"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H167" s="8">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I167" s="15">
         <f t="shared" si="18"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="168" spans="3:9" x14ac:dyDescent="0.25">
@@ -5027,19 +5075,19 @@
       </c>
       <c r="F168" s="13">
         <f t="shared" ref="F168:F231" si="20">F167+E168</f>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G168" s="8">
         <f t="shared" ref="G168:G231" si="21">F168</f>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H168" s="8">
         <f t="shared" ref="H168:H231" si="22">(H167+G168-G167)</f>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I168" s="15">
         <f t="shared" ref="I168:I231" si="23">H168*24*$J$2</f>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="169" spans="3:9" x14ac:dyDescent="0.25">
@@ -5051,19 +5099,19 @@
       </c>
       <c r="F169" s="13">
         <f t="shared" si="20"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G169" s="8">
         <f t="shared" si="21"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H169" s="8">
         <f t="shared" si="22"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I169" s="15">
         <f t="shared" si="23"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="170" spans="3:9" x14ac:dyDescent="0.25">
@@ -5075,19 +5123,19 @@
       </c>
       <c r="F170" s="13">
         <f t="shared" si="20"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G170" s="8">
         <f t="shared" si="21"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H170" s="8">
         <f t="shared" si="22"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I170" s="15">
         <f t="shared" si="23"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="171" spans="3:9" x14ac:dyDescent="0.25">
@@ -5099,19 +5147,19 @@
       </c>
       <c r="F171" s="13">
         <f t="shared" si="20"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G171" s="8">
         <f t="shared" si="21"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H171" s="8">
         <f t="shared" si="22"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I171" s="15">
         <f t="shared" si="23"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="172" spans="3:9" x14ac:dyDescent="0.25">
@@ -5123,19 +5171,19 @@
       </c>
       <c r="F172" s="13">
         <f t="shared" si="20"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G172" s="8">
         <f t="shared" si="21"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H172" s="8">
         <f t="shared" si="22"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I172" s="15">
         <f t="shared" si="23"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="173" spans="3:9" x14ac:dyDescent="0.25">
@@ -5147,19 +5195,19 @@
       </c>
       <c r="F173" s="13">
         <f t="shared" si="20"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G173" s="8">
         <f t="shared" si="21"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H173" s="8">
         <f t="shared" si="22"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I173" s="15">
         <f t="shared" si="23"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="174" spans="3:9" x14ac:dyDescent="0.25">
@@ -5171,19 +5219,19 @@
       </c>
       <c r="F174" s="13">
         <f t="shared" si="20"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G174" s="8">
         <f t="shared" si="21"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H174" s="8">
         <f t="shared" si="22"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I174" s="15">
         <f t="shared" si="23"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="175" spans="3:9" x14ac:dyDescent="0.25">
@@ -5195,19 +5243,19 @@
       </c>
       <c r="F175" s="13">
         <f t="shared" si="20"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G175" s="8">
         <f t="shared" si="21"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H175" s="8">
         <f t="shared" si="22"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I175" s="15">
         <f t="shared" si="23"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="176" spans="3:9" x14ac:dyDescent="0.25">
@@ -5219,19 +5267,19 @@
       </c>
       <c r="F176" s="13">
         <f t="shared" si="20"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G176" s="8">
         <f t="shared" si="21"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H176" s="8">
         <f t="shared" si="22"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I176" s="15">
         <f t="shared" si="23"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="177" spans="3:9" x14ac:dyDescent="0.25">
@@ -5243,19 +5291,19 @@
       </c>
       <c r="F177" s="13">
         <f t="shared" si="20"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G177" s="8">
         <f t="shared" si="21"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H177" s="8">
         <f t="shared" si="22"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I177" s="15">
         <f t="shared" si="23"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="178" spans="3:9" x14ac:dyDescent="0.25">
@@ -5267,19 +5315,19 @@
       </c>
       <c r="F178" s="13">
         <f t="shared" si="20"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G178" s="8">
         <f t="shared" si="21"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H178" s="8">
         <f t="shared" si="22"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I178" s="15">
         <f t="shared" si="23"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="179" spans="3:9" x14ac:dyDescent="0.25">
@@ -5291,19 +5339,19 @@
       </c>
       <c r="F179" s="13">
         <f t="shared" si="20"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G179" s="8">
         <f t="shared" si="21"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H179" s="8">
         <f t="shared" si="22"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I179" s="15">
         <f t="shared" si="23"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="180" spans="3:9" x14ac:dyDescent="0.25">
@@ -5315,19 +5363,19 @@
       </c>
       <c r="F180" s="13">
         <f t="shared" si="20"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G180" s="8">
         <f t="shared" si="21"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H180" s="8">
         <f t="shared" si="22"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I180" s="15">
         <f t="shared" si="23"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="181" spans="3:9" x14ac:dyDescent="0.25">
@@ -5339,19 +5387,19 @@
       </c>
       <c r="F181" s="13">
         <f t="shared" si="20"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G181" s="8">
         <f t="shared" si="21"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H181" s="8">
         <f t="shared" si="22"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I181" s="15">
         <f t="shared" si="23"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="182" spans="3:9" x14ac:dyDescent="0.25">
@@ -5363,19 +5411,19 @@
       </c>
       <c r="F182" s="13">
         <f t="shared" si="20"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G182" s="8">
         <f t="shared" si="21"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H182" s="8">
         <f t="shared" si="22"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I182" s="15">
         <f t="shared" si="23"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="183" spans="3:9" x14ac:dyDescent="0.25">
@@ -5387,19 +5435,19 @@
       </c>
       <c r="F183" s="13">
         <f t="shared" si="20"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G183" s="8">
         <f t="shared" si="21"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H183" s="8">
         <f t="shared" si="22"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I183" s="15">
         <f t="shared" si="23"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="184" spans="3:9" x14ac:dyDescent="0.25">
@@ -5411,19 +5459,19 @@
       </c>
       <c r="F184" s="13">
         <f t="shared" si="20"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G184" s="8">
         <f t="shared" si="21"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H184" s="8">
         <f t="shared" si="22"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I184" s="15">
         <f t="shared" si="23"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="185" spans="3:9" x14ac:dyDescent="0.25">
@@ -5435,19 +5483,19 @@
       </c>
       <c r="F185" s="13">
         <f t="shared" si="20"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G185" s="8">
         <f t="shared" si="21"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H185" s="8">
         <f t="shared" si="22"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I185" s="15">
         <f t="shared" si="23"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="186" spans="3:9" x14ac:dyDescent="0.25">
@@ -5459,19 +5507,19 @@
       </c>
       <c r="F186" s="13">
         <f t="shared" si="20"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G186" s="8">
         <f t="shared" si="21"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H186" s="8">
         <f t="shared" si="22"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I186" s="15">
         <f t="shared" si="23"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="187" spans="3:9" x14ac:dyDescent="0.25">
@@ -5483,19 +5531,19 @@
       </c>
       <c r="F187" s="13">
         <f t="shared" si="20"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G187" s="8">
         <f t="shared" si="21"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H187" s="8">
         <f t="shared" si="22"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I187" s="15">
         <f t="shared" si="23"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="188" spans="3:9" x14ac:dyDescent="0.25">
@@ -5507,19 +5555,19 @@
       </c>
       <c r="F188" s="13">
         <f t="shared" si="20"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G188" s="8">
         <f t="shared" si="21"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H188" s="8">
         <f t="shared" si="22"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I188" s="15">
         <f t="shared" si="23"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="189" spans="3:9" x14ac:dyDescent="0.25">
@@ -5531,19 +5579,19 @@
       </c>
       <c r="F189" s="13">
         <f t="shared" si="20"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G189" s="8">
         <f t="shared" si="21"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H189" s="8">
         <f t="shared" si="22"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I189" s="15">
         <f t="shared" si="23"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="190" spans="3:9" x14ac:dyDescent="0.25">
@@ -5555,19 +5603,19 @@
       </c>
       <c r="F190" s="13">
         <f t="shared" si="20"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G190" s="8">
         <f t="shared" si="21"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H190" s="8">
         <f t="shared" si="22"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I190" s="15">
         <f t="shared" si="23"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="191" spans="3:9" x14ac:dyDescent="0.25">
@@ -5579,19 +5627,19 @@
       </c>
       <c r="F191" s="13">
         <f t="shared" si="20"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G191" s="8">
         <f t="shared" si="21"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H191" s="8">
         <f t="shared" si="22"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I191" s="15">
         <f t="shared" si="23"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="192" spans="3:9" x14ac:dyDescent="0.25">
@@ -5603,19 +5651,19 @@
       </c>
       <c r="F192" s="13">
         <f t="shared" si="20"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G192" s="8">
         <f t="shared" si="21"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H192" s="8">
         <f t="shared" si="22"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I192" s="15">
         <f t="shared" si="23"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="193" spans="3:9" x14ac:dyDescent="0.25">
@@ -5627,19 +5675,19 @@
       </c>
       <c r="F193" s="13">
         <f t="shared" si="20"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G193" s="8">
         <f t="shared" si="21"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H193" s="8">
         <f t="shared" si="22"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I193" s="15">
         <f t="shared" si="23"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="194" spans="3:9" x14ac:dyDescent="0.25">
@@ -5651,19 +5699,19 @@
       </c>
       <c r="F194" s="13">
         <f t="shared" si="20"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G194" s="8">
         <f t="shared" si="21"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H194" s="8">
         <f t="shared" si="22"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I194" s="15">
         <f t="shared" si="23"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="195" spans="3:9" x14ac:dyDescent="0.25">
@@ -5675,19 +5723,19 @@
       </c>
       <c r="F195" s="13">
         <f t="shared" si="20"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G195" s="8">
         <f t="shared" si="21"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H195" s="8">
         <f t="shared" si="22"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I195" s="15">
         <f t="shared" si="23"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="196" spans="3:9" x14ac:dyDescent="0.25">
@@ -5699,19 +5747,19 @@
       </c>
       <c r="F196" s="13">
         <f t="shared" si="20"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G196" s="8">
         <f t="shared" si="21"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H196" s="8">
         <f t="shared" si="22"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I196" s="15">
         <f t="shared" si="23"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="197" spans="3:9" x14ac:dyDescent="0.25">
@@ -5723,19 +5771,19 @@
       </c>
       <c r="F197" s="13">
         <f t="shared" si="20"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G197" s="8">
         <f t="shared" si="21"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H197" s="8">
         <f t="shared" si="22"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I197" s="15">
         <f t="shared" si="23"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="198" spans="3:9" x14ac:dyDescent="0.25">
@@ -5747,19 +5795,19 @@
       </c>
       <c r="F198" s="13">
         <f t="shared" si="20"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G198" s="8">
         <f t="shared" si="21"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H198" s="8">
         <f t="shared" si="22"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I198" s="15">
         <f t="shared" si="23"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="199" spans="3:9" x14ac:dyDescent="0.25">
@@ -5771,19 +5819,19 @@
       </c>
       <c r="F199" s="13">
         <f t="shared" si="20"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G199" s="8">
         <f t="shared" si="21"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H199" s="8">
         <f t="shared" si="22"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I199" s="15">
         <f t="shared" si="23"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="200" spans="3:9" x14ac:dyDescent="0.25">
@@ -5795,19 +5843,19 @@
       </c>
       <c r="F200" s="13">
         <f t="shared" si="20"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G200" s="8">
         <f t="shared" si="21"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H200" s="8">
         <f t="shared" si="22"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I200" s="15">
         <f t="shared" si="23"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="201" spans="3:9" x14ac:dyDescent="0.25">
@@ -5819,19 +5867,19 @@
       </c>
       <c r="F201" s="13">
         <f t="shared" si="20"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G201" s="8">
         <f t="shared" si="21"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H201" s="8">
         <f t="shared" si="22"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I201" s="15">
         <f t="shared" si="23"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="202" spans="3:9" x14ac:dyDescent="0.25">
@@ -5843,19 +5891,19 @@
       </c>
       <c r="F202" s="13">
         <f t="shared" si="20"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G202" s="8">
         <f t="shared" si="21"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H202" s="8">
         <f t="shared" si="22"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I202" s="15">
         <f t="shared" si="23"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="203" spans="3:9" x14ac:dyDescent="0.25">
@@ -5867,19 +5915,19 @@
       </c>
       <c r="F203" s="13">
         <f t="shared" si="20"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G203" s="8">
         <f t="shared" si="21"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H203" s="8">
         <f t="shared" si="22"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I203" s="15">
         <f t="shared" si="23"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="204" spans="3:9" x14ac:dyDescent="0.25">
@@ -5891,19 +5939,19 @@
       </c>
       <c r="F204" s="13">
         <f t="shared" si="20"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G204" s="8">
         <f t="shared" si="21"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H204" s="8">
         <f t="shared" si="22"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I204" s="15">
         <f t="shared" si="23"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="205" spans="3:9" x14ac:dyDescent="0.25">
@@ -5915,19 +5963,19 @@
       </c>
       <c r="F205" s="13">
         <f t="shared" si="20"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G205" s="8">
         <f t="shared" si="21"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H205" s="8">
         <f t="shared" si="22"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I205" s="15">
         <f t="shared" si="23"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="206" spans="3:9" x14ac:dyDescent="0.25">
@@ -5939,19 +5987,19 @@
       </c>
       <c r="F206" s="13">
         <f t="shared" si="20"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G206" s="8">
         <f t="shared" si="21"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H206" s="8">
         <f t="shared" si="22"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I206" s="15">
         <f t="shared" si="23"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="207" spans="3:9" x14ac:dyDescent="0.25">
@@ -5963,19 +6011,19 @@
       </c>
       <c r="F207" s="13">
         <f t="shared" si="20"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G207" s="8">
         <f t="shared" si="21"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H207" s="8">
         <f t="shared" si="22"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I207" s="15">
         <f t="shared" si="23"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="208" spans="3:9" x14ac:dyDescent="0.25">
@@ -5987,19 +6035,19 @@
       </c>
       <c r="F208" s="13">
         <f t="shared" si="20"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G208" s="8">
         <f t="shared" si="21"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H208" s="8">
         <f t="shared" si="22"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I208" s="15">
         <f t="shared" si="23"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="209" spans="3:9" x14ac:dyDescent="0.25">
@@ -6011,19 +6059,19 @@
       </c>
       <c r="F209" s="13">
         <f t="shared" si="20"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G209" s="8">
         <f t="shared" si="21"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H209" s="8">
         <f t="shared" si="22"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I209" s="15">
         <f t="shared" si="23"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="210" spans="3:9" x14ac:dyDescent="0.25">
@@ -6035,19 +6083,19 @@
       </c>
       <c r="F210" s="13">
         <f t="shared" si="20"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G210" s="8">
         <f t="shared" si="21"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H210" s="8">
         <f t="shared" si="22"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I210" s="15">
         <f t="shared" si="23"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="211" spans="3:9" x14ac:dyDescent="0.25">
@@ -6059,19 +6107,19 @@
       </c>
       <c r="F211" s="13">
         <f t="shared" si="20"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G211" s="8">
         <f t="shared" si="21"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H211" s="8">
         <f t="shared" si="22"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I211" s="15">
         <f t="shared" si="23"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="212" spans="3:9" x14ac:dyDescent="0.25">
@@ -6083,19 +6131,19 @@
       </c>
       <c r="F212" s="13">
         <f t="shared" si="20"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G212" s="8">
         <f t="shared" si="21"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H212" s="8">
         <f t="shared" si="22"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I212" s="15">
         <f t="shared" si="23"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="213" spans="3:9" x14ac:dyDescent="0.25">
@@ -6107,19 +6155,19 @@
       </c>
       <c r="F213" s="13">
         <f t="shared" si="20"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G213" s="8">
         <f t="shared" si="21"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H213" s="8">
         <f t="shared" si="22"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I213" s="15">
         <f t="shared" si="23"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="214" spans="3:9" x14ac:dyDescent="0.25">
@@ -6131,19 +6179,19 @@
       </c>
       <c r="F214" s="13">
         <f t="shared" si="20"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G214" s="8">
         <f t="shared" si="21"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H214" s="8">
         <f t="shared" si="22"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I214" s="15">
         <f t="shared" si="23"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="215" spans="3:9" x14ac:dyDescent="0.25">
@@ -6155,19 +6203,19 @@
       </c>
       <c r="F215" s="13">
         <f t="shared" si="20"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G215" s="8">
         <f t="shared" si="21"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H215" s="8">
         <f t="shared" si="22"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I215" s="15">
         <f t="shared" si="23"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="216" spans="3:9" x14ac:dyDescent="0.25">
@@ -6179,19 +6227,19 @@
       </c>
       <c r="F216" s="13">
         <f t="shared" si="20"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G216" s="8">
         <f t="shared" si="21"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H216" s="8">
         <f t="shared" si="22"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I216" s="15">
         <f t="shared" si="23"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="217" spans="3:9" x14ac:dyDescent="0.25">
@@ -6203,19 +6251,19 @@
       </c>
       <c r="F217" s="13">
         <f t="shared" si="20"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G217" s="8">
         <f t="shared" si="21"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H217" s="8">
         <f t="shared" si="22"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I217" s="15">
         <f t="shared" si="23"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="218" spans="3:9" x14ac:dyDescent="0.25">
@@ -6227,19 +6275,19 @@
       </c>
       <c r="F218" s="13">
         <f t="shared" si="20"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G218" s="8">
         <f t="shared" si="21"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H218" s="8">
         <f t="shared" si="22"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I218" s="15">
         <f t="shared" si="23"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="219" spans="3:9" x14ac:dyDescent="0.25">
@@ -6251,19 +6299,19 @@
       </c>
       <c r="F219" s="13">
         <f t="shared" si="20"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G219" s="8">
         <f t="shared" si="21"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H219" s="8">
         <f t="shared" si="22"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I219" s="15">
         <f t="shared" si="23"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="220" spans="3:9" x14ac:dyDescent="0.25">
@@ -6275,19 +6323,19 @@
       </c>
       <c r="F220" s="13">
         <f t="shared" si="20"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G220" s="8">
         <f t="shared" si="21"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H220" s="8">
         <f t="shared" si="22"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I220" s="15">
         <f t="shared" si="23"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="221" spans="3:9" x14ac:dyDescent="0.25">
@@ -6299,19 +6347,19 @@
       </c>
       <c r="F221" s="13">
         <f t="shared" si="20"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G221" s="8">
         <f t="shared" si="21"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H221" s="8">
         <f t="shared" si="22"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I221" s="15">
         <f t="shared" si="23"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="222" spans="3:9" x14ac:dyDescent="0.25">
@@ -6323,19 +6371,19 @@
       </c>
       <c r="F222" s="13">
         <f t="shared" si="20"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G222" s="8">
         <f t="shared" si="21"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H222" s="8">
         <f t="shared" si="22"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I222" s="15">
         <f t="shared" si="23"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="223" spans="3:9" x14ac:dyDescent="0.25">
@@ -6347,19 +6395,19 @@
       </c>
       <c r="F223" s="13">
         <f t="shared" si="20"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G223" s="8">
         <f t="shared" si="21"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H223" s="8">
         <f t="shared" si="22"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I223" s="15">
         <f t="shared" si="23"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="224" spans="3:9" x14ac:dyDescent="0.25">
@@ -6371,19 +6419,19 @@
       </c>
       <c r="F224" s="13">
         <f t="shared" si="20"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G224" s="8">
         <f t="shared" si="21"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H224" s="8">
         <f t="shared" si="22"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I224" s="15">
         <f t="shared" si="23"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="225" spans="3:9" x14ac:dyDescent="0.25">
@@ -6395,19 +6443,19 @@
       </c>
       <c r="F225" s="13">
         <f t="shared" si="20"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G225" s="8">
         <f t="shared" si="21"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H225" s="8">
         <f t="shared" si="22"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I225" s="15">
         <f t="shared" si="23"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="226" spans="3:9" x14ac:dyDescent="0.25">
@@ -6419,19 +6467,19 @@
       </c>
       <c r="F226" s="13">
         <f t="shared" si="20"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G226" s="8">
         <f t="shared" si="21"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H226" s="8">
         <f t="shared" si="22"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I226" s="15">
         <f t="shared" si="23"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="227" spans="3:9" x14ac:dyDescent="0.25">
@@ -6443,19 +6491,19 @@
       </c>
       <c r="F227" s="13">
         <f t="shared" si="20"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G227" s="8">
         <f t="shared" si="21"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H227" s="8">
         <f t="shared" si="22"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I227" s="15">
         <f t="shared" si="23"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="228" spans="3:9" x14ac:dyDescent="0.25">
@@ -6467,19 +6515,19 @@
       </c>
       <c r="F228" s="13">
         <f t="shared" si="20"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G228" s="8">
         <f t="shared" si="21"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H228" s="8">
         <f t="shared" si="22"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I228" s="15">
         <f t="shared" si="23"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="229" spans="3:9" x14ac:dyDescent="0.25">
@@ -6491,19 +6539,19 @@
       </c>
       <c r="F229" s="13">
         <f t="shared" si="20"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G229" s="8">
         <f t="shared" si="21"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H229" s="8">
         <f t="shared" si="22"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I229" s="15">
         <f t="shared" si="23"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="230" spans="3:9" x14ac:dyDescent="0.25">
@@ -6515,19 +6563,19 @@
       </c>
       <c r="F230" s="13">
         <f t="shared" si="20"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G230" s="8">
         <f t="shared" si="21"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H230" s="8">
         <f t="shared" si="22"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I230" s="15">
         <f t="shared" si="23"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="231" spans="3:9" x14ac:dyDescent="0.25">
@@ -6539,19 +6587,19 @@
       </c>
       <c r="F231" s="13">
         <f t="shared" si="20"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G231" s="8">
         <f t="shared" si="21"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H231" s="8">
         <f t="shared" si="22"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I231" s="15">
         <f t="shared" si="23"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="232" spans="3:9" x14ac:dyDescent="0.25">
@@ -6563,19 +6611,19 @@
       </c>
       <c r="F232" s="13">
         <f t="shared" ref="F232:F255" si="25">F231+E232</f>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G232" s="8">
         <f t="shared" ref="G232:G255" si="26">F232</f>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H232" s="8">
         <f t="shared" ref="H232:H255" si="27">(H231+G232-G231)</f>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I232" s="15">
         <f t="shared" ref="I232:I255" si="28">H232*24*$J$2</f>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="233" spans="3:9" x14ac:dyDescent="0.25">
@@ -6587,19 +6635,19 @@
       </c>
       <c r="F233" s="13">
         <f t="shared" si="25"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G233" s="8">
         <f t="shared" si="26"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H233" s="8">
         <f t="shared" si="27"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I233" s="15">
         <f t="shared" si="28"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="234" spans="3:9" x14ac:dyDescent="0.25">
@@ -6611,19 +6659,19 @@
       </c>
       <c r="F234" s="13">
         <f t="shared" si="25"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G234" s="8">
         <f t="shared" si="26"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H234" s="8">
         <f t="shared" si="27"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I234" s="15">
         <f t="shared" si="28"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="235" spans="3:9" x14ac:dyDescent="0.25">
@@ -6635,19 +6683,19 @@
       </c>
       <c r="F235" s="13">
         <f t="shared" si="25"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G235" s="8">
         <f t="shared" si="26"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H235" s="8">
         <f t="shared" si="27"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I235" s="15">
         <f t="shared" si="28"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="236" spans="3:9" x14ac:dyDescent="0.25">
@@ -6659,19 +6707,19 @@
       </c>
       <c r="F236" s="13">
         <f t="shared" si="25"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G236" s="8">
         <f t="shared" si="26"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H236" s="8">
         <f t="shared" si="27"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I236" s="15">
         <f t="shared" si="28"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="237" spans="3:9" x14ac:dyDescent="0.25">
@@ -6683,19 +6731,19 @@
       </c>
       <c r="F237" s="13">
         <f t="shared" si="25"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G237" s="8">
         <f t="shared" si="26"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H237" s="8">
         <f t="shared" si="27"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I237" s="15">
         <f t="shared" si="28"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="238" spans="3:9" x14ac:dyDescent="0.25">
@@ -6707,19 +6755,19 @@
       </c>
       <c r="F238" s="13">
         <f t="shared" si="25"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G238" s="8">
         <f t="shared" si="26"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H238" s="8">
         <f t="shared" si="27"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I238" s="15">
         <f t="shared" si="28"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="239" spans="3:9" x14ac:dyDescent="0.25">
@@ -6731,19 +6779,19 @@
       </c>
       <c r="F239" s="13">
         <f t="shared" si="25"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G239" s="8">
         <f t="shared" si="26"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H239" s="8">
         <f t="shared" si="27"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I239" s="15">
         <f t="shared" si="28"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="240" spans="3:9" x14ac:dyDescent="0.25">
@@ -6755,19 +6803,19 @@
       </c>
       <c r="F240" s="13">
         <f t="shared" si="25"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G240" s="8">
         <f t="shared" si="26"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H240" s="8">
         <f t="shared" si="27"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I240" s="15">
         <f t="shared" si="28"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="241" spans="3:9" x14ac:dyDescent="0.25">
@@ -6779,19 +6827,19 @@
       </c>
       <c r="F241" s="13">
         <f t="shared" si="25"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G241" s="8">
         <f t="shared" si="26"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H241" s="8">
         <f t="shared" si="27"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I241" s="15">
         <f t="shared" si="28"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="242" spans="3:9" x14ac:dyDescent="0.25">
@@ -6803,19 +6851,19 @@
       </c>
       <c r="F242" s="13">
         <f t="shared" si="25"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G242" s="8">
         <f t="shared" si="26"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H242" s="8">
         <f t="shared" si="27"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I242" s="15">
         <f t="shared" si="28"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="243" spans="3:9" x14ac:dyDescent="0.25">
@@ -6827,19 +6875,19 @@
       </c>
       <c r="F243" s="13">
         <f t="shared" si="25"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G243" s="8">
         <f t="shared" si="26"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H243" s="8">
         <f t="shared" si="27"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I243" s="15">
         <f t="shared" si="28"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="244" spans="3:9" x14ac:dyDescent="0.25">
@@ -6851,19 +6899,19 @@
       </c>
       <c r="F244" s="13">
         <f t="shared" si="25"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G244" s="8">
         <f t="shared" si="26"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H244" s="8">
         <f t="shared" si="27"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I244" s="15">
         <f t="shared" si="28"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="245" spans="3:9" x14ac:dyDescent="0.25">
@@ -6875,19 +6923,19 @@
       </c>
       <c r="F245" s="13">
         <f t="shared" si="25"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G245" s="8">
         <f t="shared" si="26"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H245" s="8">
         <f t="shared" si="27"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I245" s="15">
         <f t="shared" si="28"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="246" spans="3:9" x14ac:dyDescent="0.25">
@@ -6899,19 +6947,19 @@
       </c>
       <c r="F246" s="13">
         <f t="shared" si="25"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G246" s="8">
         <f t="shared" si="26"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H246" s="8">
         <f t="shared" si="27"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I246" s="15">
         <f t="shared" si="28"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="247" spans="3:9" x14ac:dyDescent="0.25">
@@ -6923,19 +6971,19 @@
       </c>
       <c r="F247" s="13">
         <f t="shared" si="25"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G247" s="8">
         <f t="shared" si="26"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H247" s="8">
         <f t="shared" si="27"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I247" s="15">
         <f t="shared" si="28"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="248" spans="3:9" x14ac:dyDescent="0.25">
@@ -6947,19 +6995,19 @@
       </c>
       <c r="F248" s="13">
         <f t="shared" si="25"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G248" s="8">
         <f t="shared" si="26"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H248" s="8">
         <f t="shared" si="27"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I248" s="15">
         <f t="shared" si="28"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="249" spans="3:9" x14ac:dyDescent="0.25">
@@ -6971,19 +7019,19 @@
       </c>
       <c r="F249" s="13">
         <f t="shared" si="25"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G249" s="8">
         <f t="shared" si="26"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H249" s="8">
         <f t="shared" si="27"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I249" s="15">
         <f t="shared" si="28"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="250" spans="3:9" x14ac:dyDescent="0.25">
@@ -6995,19 +7043,19 @@
       </c>
       <c r="F250" s="13">
         <f t="shared" si="25"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G250" s="8">
         <f t="shared" si="26"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H250" s="8">
         <f t="shared" si="27"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I250" s="15">
         <f t="shared" si="28"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="251" spans="3:9" x14ac:dyDescent="0.25">
@@ -7019,19 +7067,19 @@
       </c>
       <c r="F251" s="13">
         <f t="shared" si="25"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G251" s="8">
         <f t="shared" si="26"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H251" s="8">
         <f t="shared" si="27"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I251" s="15">
         <f t="shared" si="28"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="252" spans="3:9" x14ac:dyDescent="0.25">
@@ -7043,19 +7091,19 @@
       </c>
       <c r="F252" s="13">
         <f t="shared" si="25"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G252" s="8">
         <f t="shared" si="26"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H252" s="8">
         <f t="shared" si="27"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I252" s="15">
         <f t="shared" si="28"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="253" spans="3:9" x14ac:dyDescent="0.25">
@@ -7067,19 +7115,19 @@
       </c>
       <c r="F253" s="13">
         <f t="shared" si="25"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G253" s="8">
         <f t="shared" si="26"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H253" s="8">
         <f t="shared" si="27"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I253" s="15">
         <f t="shared" si="28"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="254" spans="3:9" x14ac:dyDescent="0.25">
@@ -7091,19 +7139,19 @@
       </c>
       <c r="F254" s="13">
         <f t="shared" si="25"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G254" s="8">
         <f t="shared" si="26"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H254" s="8">
         <f t="shared" si="27"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I254" s="15">
         <f t="shared" si="28"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
     <row r="255" spans="3:9" x14ac:dyDescent="0.25">
@@ -7115,19 +7163,19 @@
       </c>
       <c r="F255" s="13">
         <f t="shared" si="25"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="G255" s="8">
         <f t="shared" si="26"/>
-        <v>1.8499999999999996</v>
+        <v>2.177083333333333</v>
       </c>
       <c r="H255" s="8">
         <f t="shared" si="27"/>
-        <v>3</v>
+        <v>3.3270833333333352</v>
       </c>
       <c r="I255" s="15">
         <f t="shared" si="28"/>
-        <v>12240</v>
+        <v>13574.500000000009</v>
       </c>
     </row>
   </sheetData>

--- a/hodiny.xlsx
+++ b/hodiny.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{770F62EC-261A-40CF-B56F-04127BAF6E1A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ACE1486-3960-4B17-A8B1-A1E04E4570B7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5070" yWindow="5070" windowWidth="16710" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="28800" windowHeight="14925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>čas [min]</t>
   </si>
@@ -131,6 +131,12 @@
   </si>
   <si>
     <t>topologie + odeslano 6863</t>
+  </si>
+  <si>
+    <t>27.6.</t>
+  </si>
+  <si>
+    <t>2161 zacatek</t>
   </si>
 </sst>
 </file>
@@ -644,8 +650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J88" sqref="J88"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D98" sqref="D98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3147,243 +3153,289 @@
       </c>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C88" s="2"/>
-      <c r="D88" s="10"/>
+      <c r="B88" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C88" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="D88" s="10">
+        <v>0.46527777777777773</v>
+      </c>
       <c r="E88" s="12">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>9.0277777777777735E-2</v>
       </c>
       <c r="F88" s="13">
         <f t="shared" si="10"/>
-        <v>2.177083333333333</v>
+        <v>2.2673611111111107</v>
       </c>
       <c r="G88" s="8">
         <f t="shared" si="11"/>
-        <v>2.177083333333333</v>
+        <v>2.2673611111111107</v>
       </c>
       <c r="H88" s="8">
         <f t="shared" si="12"/>
-        <v>3.3270833333333352</v>
+        <v>3.417361111111112</v>
       </c>
       <c r="I88" s="15">
         <f t="shared" si="13"/>
-        <v>13574.500000000009</v>
+        <v>13942.833333333336</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C89" s="2"/>
-      <c r="D89" s="10"/>
+      <c r="C89" s="2">
+        <v>0.53888888888888886</v>
+      </c>
+      <c r="D89" s="10">
+        <v>0.57986111111111105</v>
+      </c>
       <c r="E89" s="12">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>4.0972222222222188E-2</v>
       </c>
       <c r="F89" s="13">
         <f t="shared" si="10"/>
-        <v>2.177083333333333</v>
+        <v>2.3083333333333327</v>
       </c>
       <c r="G89" s="8">
         <f t="shared" si="11"/>
-        <v>2.177083333333333</v>
+        <v>2.3083333333333327</v>
       </c>
       <c r="H89" s="8">
         <f t="shared" si="12"/>
-        <v>3.3270833333333352</v>
+        <v>3.4583333333333339</v>
       </c>
       <c r="I89" s="15">
         <f t="shared" si="13"/>
-        <v>13574.500000000009</v>
+        <v>14110.000000000002</v>
       </c>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C90" s="2"/>
-      <c r="D90" s="10"/>
+      <c r="C90" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="D90" s="10">
+        <v>0.61597222222222225</v>
+      </c>
       <c r="E90" s="12">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1.5972222222222276E-2</v>
       </c>
       <c r="F90" s="13">
         <f t="shared" si="10"/>
-        <v>2.177083333333333</v>
+        <v>2.3243055555555552</v>
       </c>
       <c r="G90" s="8">
         <f t="shared" si="11"/>
-        <v>2.177083333333333</v>
+        <v>2.3243055555555552</v>
       </c>
       <c r="H90" s="8">
         <f t="shared" si="12"/>
-        <v>3.3270833333333352</v>
+        <v>3.4743055555555564</v>
       </c>
       <c r="I90" s="15">
         <f t="shared" si="13"/>
-        <v>13574.500000000009</v>
+        <v>14175.16666666667</v>
       </c>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C91" s="2"/>
-      <c r="D91" s="10"/>
+      <c r="C91" s="2">
+        <v>0.62152777777777779</v>
+      </c>
+      <c r="D91" s="10">
+        <v>0.65486111111111112</v>
+      </c>
       <c r="E91" s="12">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>3.3333333333333326E-2</v>
       </c>
       <c r="F91" s="13">
         <f t="shared" si="10"/>
-        <v>2.177083333333333</v>
+        <v>2.3576388888888884</v>
       </c>
       <c r="G91" s="8">
         <f t="shared" si="11"/>
-        <v>2.177083333333333</v>
+        <v>2.3576388888888884</v>
       </c>
       <c r="H91" s="8">
         <f t="shared" si="12"/>
-        <v>3.3270833333333352</v>
+        <v>3.5076388888888896</v>
       </c>
       <c r="I91" s="15">
         <f t="shared" si="13"/>
-        <v>13574.500000000009</v>
+        <v>14311.16666666667</v>
       </c>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C92" s="2"/>
-      <c r="D92" s="10"/>
+      <c r="C92" s="2">
+        <v>0.66736111111111107</v>
+      </c>
+      <c r="D92" s="10">
+        <v>0.67361111111111116</v>
+      </c>
       <c r="E92" s="12">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>6.2500000000000888E-3</v>
       </c>
       <c r="F92" s="13">
         <f t="shared" si="10"/>
-        <v>2.177083333333333</v>
+        <v>2.3638888888888885</v>
       </c>
       <c r="G92" s="8">
         <f t="shared" si="11"/>
-        <v>2.177083333333333</v>
+        <v>2.3638888888888885</v>
       </c>
       <c r="H92" s="8">
         <f t="shared" si="12"/>
-        <v>3.3270833333333352</v>
+        <v>3.5138888888888902</v>
       </c>
       <c r="I92" s="15">
         <f t="shared" si="13"/>
-        <v>13574.500000000009</v>
+        <v>14336.666666666673</v>
       </c>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C93" s="2"/>
-      <c r="D93" s="10"/>
+      <c r="C93" s="2">
+        <v>0.68541666666666667</v>
+      </c>
+      <c r="D93" s="10">
+        <v>0.7104166666666667</v>
+      </c>
       <c r="E93" s="12">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>2.5000000000000022E-2</v>
       </c>
       <c r="F93" s="13">
         <f t="shared" si="10"/>
-        <v>2.177083333333333</v>
+        <v>2.3888888888888884</v>
       </c>
       <c r="G93" s="8">
         <f t="shared" si="11"/>
-        <v>2.177083333333333</v>
+        <v>2.3888888888888884</v>
       </c>
       <c r="H93" s="8">
         <f t="shared" si="12"/>
-        <v>3.3270833333333352</v>
+        <v>3.5388888888888901</v>
       </c>
       <c r="I93" s="15">
         <f t="shared" si="13"/>
-        <v>13574.500000000009</v>
+        <v>14438.666666666672</v>
       </c>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C94" s="2"/>
-      <c r="D94" s="10"/>
+      <c r="C94" s="2">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="D94" s="10">
+        <v>0.77500000000000002</v>
+      </c>
       <c r="E94" s="12">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1.8055555555555491E-2</v>
       </c>
       <c r="F94" s="13">
         <f t="shared" si="10"/>
-        <v>2.177083333333333</v>
+        <v>2.4069444444444441</v>
       </c>
       <c r="G94" s="8">
         <f t="shared" si="11"/>
-        <v>2.177083333333333</v>
+        <v>2.4069444444444441</v>
       </c>
       <c r="H94" s="8">
         <f t="shared" si="12"/>
-        <v>3.3270833333333352</v>
+        <v>3.5569444444444462</v>
       </c>
       <c r="I94" s="15">
         <f t="shared" si="13"/>
-        <v>13574.500000000009</v>
+        <v>14512.333333333339</v>
       </c>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C95" s="2"/>
-      <c r="D95" s="10"/>
+      <c r="C95" s="2">
+        <v>0.77847222222222223</v>
+      </c>
+      <c r="D95" s="10">
+        <v>0.79375000000000007</v>
+      </c>
       <c r="E95" s="12">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1.5277777777777835E-2</v>
       </c>
       <c r="F95" s="13">
         <f t="shared" si="10"/>
-        <v>2.177083333333333</v>
+        <v>2.4222222222222221</v>
       </c>
       <c r="G95" s="8">
         <f t="shared" si="11"/>
-        <v>2.177083333333333</v>
+        <v>2.4222222222222221</v>
       </c>
       <c r="H95" s="8">
         <f t="shared" si="12"/>
-        <v>3.3270833333333352</v>
+        <v>3.5722222222222237</v>
       </c>
       <c r="I95" s="15">
         <f t="shared" si="13"/>
-        <v>13574.500000000009</v>
+        <v>14574.666666666673</v>
       </c>
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C96" s="2"/>
-      <c r="D96" s="10"/>
+      <c r="C96" s="2">
+        <v>0.80763888888888891</v>
+      </c>
+      <c r="D96" s="10">
+        <v>0.82500000000000007</v>
+      </c>
       <c r="E96" s="12">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1.736111111111116E-2</v>
       </c>
       <c r="F96" s="13">
         <f t="shared" si="10"/>
-        <v>2.177083333333333</v>
+        <v>2.4395833333333332</v>
       </c>
       <c r="G96" s="8">
         <f t="shared" si="11"/>
-        <v>2.177083333333333</v>
+        <v>2.4395833333333332</v>
       </c>
       <c r="H96" s="8">
         <f t="shared" si="12"/>
-        <v>3.3270833333333352</v>
+        <v>3.5895833333333349</v>
       </c>
       <c r="I96" s="15">
         <f t="shared" si="13"/>
-        <v>13574.500000000009</v>
+        <v>14645.500000000005</v>
       </c>
     </row>
     <row r="97" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C97" s="2"/>
-      <c r="D97" s="10"/>
+      <c r="C97" s="2">
+        <v>0.85763888888888884</v>
+      </c>
+      <c r="D97" s="10">
+        <v>0.8930555555555556</v>
+      </c>
       <c r="E97" s="12">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>3.5416666666666763E-2</v>
       </c>
       <c r="F97" s="13">
         <f t="shared" si="10"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G97" s="8">
         <f t="shared" si="11"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H97" s="8">
         <f t="shared" si="12"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000018</v>
       </c>
       <c r="I97" s="15">
         <f t="shared" si="13"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000007</v>
       </c>
     </row>
     <row r="98" spans="3:9" x14ac:dyDescent="0.25">
@@ -3395,19 +3447,19 @@
       </c>
       <c r="F98" s="13">
         <f t="shared" si="10"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G98" s="8">
         <f t="shared" si="11"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H98" s="8">
         <f t="shared" si="12"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I98" s="15">
         <f t="shared" si="13"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="99" spans="3:9" x14ac:dyDescent="0.25">
@@ -3419,19 +3471,19 @@
       </c>
       <c r="F99" s="13">
         <f t="shared" si="10"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G99" s="8">
         <f t="shared" si="11"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H99" s="8">
         <f t="shared" si="12"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I99" s="15">
         <f t="shared" si="13"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="100" spans="3:9" x14ac:dyDescent="0.25">
@@ -3443,19 +3495,19 @@
       </c>
       <c r="F100" s="13">
         <f t="shared" si="10"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G100" s="8">
         <f t="shared" si="11"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H100" s="8">
         <f t="shared" si="12"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I100" s="15">
         <f t="shared" si="13"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="101" spans="3:9" x14ac:dyDescent="0.25">
@@ -3467,19 +3519,19 @@
       </c>
       <c r="F101" s="13">
         <f t="shared" si="10"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G101" s="8">
         <f t="shared" si="11"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H101" s="8">
         <f t="shared" si="12"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I101" s="15">
         <f t="shared" si="13"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="102" spans="3:9" x14ac:dyDescent="0.25">
@@ -3491,19 +3543,19 @@
       </c>
       <c r="F102" s="13">
         <f t="shared" si="10"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G102" s="8">
         <f t="shared" si="11"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H102" s="8">
         <f t="shared" si="12"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I102" s="15">
         <f t="shared" si="13"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="103" spans="3:9" x14ac:dyDescent="0.25">
@@ -3515,19 +3567,19 @@
       </c>
       <c r="F103" s="13">
         <f t="shared" si="10"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G103" s="8">
         <f t="shared" si="11"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H103" s="8">
         <f t="shared" si="12"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I103" s="15">
         <f t="shared" si="13"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="104" spans="3:9" x14ac:dyDescent="0.25">
@@ -3539,19 +3591,19 @@
       </c>
       <c r="F104" s="13">
         <f t="shared" ref="F104:F167" si="15">F103+E104</f>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G104" s="8">
         <f t="shared" ref="G104:G167" si="16">F104</f>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H104" s="8">
         <f t="shared" ref="H104:H167" si="17">(H103+G104-G103)</f>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I104" s="15">
         <f t="shared" ref="I104:I167" si="18">H104*24*$J$2</f>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="105" spans="3:9" x14ac:dyDescent="0.25">
@@ -3563,19 +3615,19 @@
       </c>
       <c r="F105" s="13">
         <f t="shared" si="15"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G105" s="8">
         <f t="shared" si="16"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H105" s="8">
         <f t="shared" si="17"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I105" s="15">
         <f t="shared" si="18"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="106" spans="3:9" x14ac:dyDescent="0.25">
@@ -3587,19 +3639,19 @@
       </c>
       <c r="F106" s="13">
         <f t="shared" si="15"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G106" s="8">
         <f t="shared" si="16"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H106" s="8">
         <f t="shared" si="17"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I106" s="15">
         <f t="shared" si="18"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="107" spans="3:9" x14ac:dyDescent="0.25">
@@ -3611,19 +3663,19 @@
       </c>
       <c r="F107" s="13">
         <f t="shared" si="15"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G107" s="8">
         <f t="shared" si="16"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H107" s="8">
         <f t="shared" si="17"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I107" s="15">
         <f t="shared" si="18"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="108" spans="3:9" x14ac:dyDescent="0.25">
@@ -3635,19 +3687,19 @@
       </c>
       <c r="F108" s="13">
         <f t="shared" si="15"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G108" s="8">
         <f t="shared" si="16"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H108" s="8">
         <f t="shared" si="17"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I108" s="15">
         <f t="shared" si="18"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="109" spans="3:9" x14ac:dyDescent="0.25">
@@ -3659,19 +3711,19 @@
       </c>
       <c r="F109" s="13">
         <f t="shared" si="15"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G109" s="8">
         <f t="shared" si="16"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H109" s="8">
         <f t="shared" si="17"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I109" s="15">
         <f t="shared" si="18"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="110" spans="3:9" x14ac:dyDescent="0.25">
@@ -3683,19 +3735,19 @@
       </c>
       <c r="F110" s="13">
         <f t="shared" si="15"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G110" s="8">
         <f t="shared" si="16"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H110" s="8">
         <f t="shared" si="17"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I110" s="15">
         <f t="shared" si="18"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="111" spans="3:9" x14ac:dyDescent="0.25">
@@ -3707,19 +3759,19 @@
       </c>
       <c r="F111" s="13">
         <f t="shared" si="15"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G111" s="8">
         <f t="shared" si="16"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H111" s="8">
         <f t="shared" si="17"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I111" s="15">
         <f t="shared" si="18"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="112" spans="3:9" x14ac:dyDescent="0.25">
@@ -3731,19 +3783,19 @@
       </c>
       <c r="F112" s="13">
         <f t="shared" si="15"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G112" s="8">
         <f t="shared" si="16"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H112" s="8">
         <f t="shared" si="17"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I112" s="15">
         <f t="shared" si="18"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="113" spans="3:9" x14ac:dyDescent="0.25">
@@ -3755,19 +3807,19 @@
       </c>
       <c r="F113" s="13">
         <f t="shared" si="15"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G113" s="8">
         <f t="shared" si="16"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H113" s="8">
         <f t="shared" si="17"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I113" s="15">
         <f t="shared" si="18"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="114" spans="3:9" x14ac:dyDescent="0.25">
@@ -3779,19 +3831,19 @@
       </c>
       <c r="F114" s="13">
         <f t="shared" si="15"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G114" s="8">
         <f t="shared" si="16"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H114" s="8">
         <f t="shared" si="17"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I114" s="15">
         <f t="shared" si="18"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="115" spans="3:9" x14ac:dyDescent="0.25">
@@ -3803,19 +3855,19 @@
       </c>
       <c r="F115" s="13">
         <f t="shared" si="15"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G115" s="8">
         <f t="shared" si="16"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H115" s="8">
         <f t="shared" si="17"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I115" s="15">
         <f t="shared" si="18"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="116" spans="3:9" x14ac:dyDescent="0.25">
@@ -3827,19 +3879,19 @@
       </c>
       <c r="F116" s="13">
         <f t="shared" si="15"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G116" s="8">
         <f t="shared" si="16"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H116" s="8">
         <f t="shared" si="17"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I116" s="15">
         <f t="shared" si="18"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="117" spans="3:9" x14ac:dyDescent="0.25">
@@ -3851,19 +3903,19 @@
       </c>
       <c r="F117" s="13">
         <f t="shared" si="15"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G117" s="8">
         <f t="shared" si="16"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H117" s="8">
         <f t="shared" si="17"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I117" s="15">
         <f t="shared" si="18"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="118" spans="3:9" x14ac:dyDescent="0.25">
@@ -3875,19 +3927,19 @@
       </c>
       <c r="F118" s="13">
         <f t="shared" si="15"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G118" s="8">
         <f t="shared" si="16"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H118" s="8">
         <f t="shared" si="17"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I118" s="15">
         <f t="shared" si="18"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="119" spans="3:9" x14ac:dyDescent="0.25">
@@ -3899,19 +3951,19 @@
       </c>
       <c r="F119" s="13">
         <f t="shared" si="15"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G119" s="8">
         <f t="shared" si="16"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H119" s="8">
         <f t="shared" si="17"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I119" s="15">
         <f t="shared" si="18"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="120" spans="3:9" x14ac:dyDescent="0.25">
@@ -3923,19 +3975,19 @@
       </c>
       <c r="F120" s="13">
         <f t="shared" si="15"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G120" s="8">
         <f t="shared" si="16"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H120" s="8">
         <f t="shared" si="17"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I120" s="15">
         <f t="shared" si="18"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="121" spans="3:9" x14ac:dyDescent="0.25">
@@ -3947,19 +3999,19 @@
       </c>
       <c r="F121" s="13">
         <f t="shared" si="15"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G121" s="8">
         <f t="shared" si="16"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H121" s="8">
         <f t="shared" si="17"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I121" s="15">
         <f t="shared" si="18"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="122" spans="3:9" x14ac:dyDescent="0.25">
@@ -3971,19 +4023,19 @@
       </c>
       <c r="F122" s="13">
         <f t="shared" si="15"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G122" s="8">
         <f t="shared" si="16"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H122" s="8">
         <f t="shared" si="17"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I122" s="15">
         <f t="shared" si="18"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="123" spans="3:9" x14ac:dyDescent="0.25">
@@ -3995,19 +4047,19 @@
       </c>
       <c r="F123" s="13">
         <f t="shared" si="15"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G123" s="8">
         <f t="shared" si="16"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H123" s="8">
         <f t="shared" si="17"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I123" s="15">
         <f t="shared" si="18"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="124" spans="3:9" x14ac:dyDescent="0.25">
@@ -4019,19 +4071,19 @@
       </c>
       <c r="F124" s="13">
         <f t="shared" si="15"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G124" s="8">
         <f t="shared" si="16"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H124" s="8">
         <f t="shared" si="17"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I124" s="15">
         <f t="shared" si="18"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="125" spans="3:9" x14ac:dyDescent="0.25">
@@ -4043,19 +4095,19 @@
       </c>
       <c r="F125" s="13">
         <f t="shared" si="15"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G125" s="8">
         <f t="shared" si="16"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H125" s="8">
         <f t="shared" si="17"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I125" s="15">
         <f t="shared" si="18"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="126" spans="3:9" x14ac:dyDescent="0.25">
@@ -4067,19 +4119,19 @@
       </c>
       <c r="F126" s="13">
         <f t="shared" si="15"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G126" s="8">
         <f t="shared" si="16"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H126" s="8">
         <f t="shared" si="17"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I126" s="15">
         <f t="shared" si="18"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="127" spans="3:9" x14ac:dyDescent="0.25">
@@ -4091,19 +4143,19 @@
       </c>
       <c r="F127" s="13">
         <f t="shared" si="15"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G127" s="8">
         <f t="shared" si="16"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H127" s="8">
         <f t="shared" si="17"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I127" s="15">
         <f t="shared" si="18"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="128" spans="3:9" x14ac:dyDescent="0.25">
@@ -4115,19 +4167,19 @@
       </c>
       <c r="F128" s="13">
         <f t="shared" si="15"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G128" s="8">
         <f t="shared" si="16"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H128" s="8">
         <f t="shared" si="17"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I128" s="15">
         <f t="shared" si="18"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="129" spans="3:9" x14ac:dyDescent="0.25">
@@ -4139,19 +4191,19 @@
       </c>
       <c r="F129" s="13">
         <f t="shared" si="15"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G129" s="8">
         <f t="shared" si="16"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H129" s="8">
         <f t="shared" si="17"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I129" s="15">
         <f t="shared" si="18"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="130" spans="3:9" x14ac:dyDescent="0.25">
@@ -4163,19 +4215,19 @@
       </c>
       <c r="F130" s="13">
         <f t="shared" si="15"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G130" s="8">
         <f t="shared" si="16"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H130" s="8">
         <f t="shared" si="17"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I130" s="15">
         <f t="shared" si="18"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="131" spans="3:9" x14ac:dyDescent="0.25">
@@ -4187,19 +4239,19 @@
       </c>
       <c r="F131" s="13">
         <f t="shared" si="15"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G131" s="8">
         <f t="shared" si="16"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H131" s="8">
         <f t="shared" si="17"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I131" s="15">
         <f t="shared" si="18"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="132" spans="3:9" x14ac:dyDescent="0.25">
@@ -4211,19 +4263,19 @@
       </c>
       <c r="F132" s="13">
         <f t="shared" si="15"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G132" s="8">
         <f t="shared" si="16"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H132" s="8">
         <f t="shared" si="17"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I132" s="15">
         <f t="shared" si="18"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="133" spans="3:9" x14ac:dyDescent="0.25">
@@ -4235,19 +4287,19 @@
       </c>
       <c r="F133" s="13">
         <f t="shared" si="15"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G133" s="8">
         <f t="shared" si="16"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H133" s="8">
         <f t="shared" si="17"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I133" s="15">
         <f t="shared" si="18"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="134" spans="3:9" x14ac:dyDescent="0.25">
@@ -4259,19 +4311,19 @@
       </c>
       <c r="F134" s="13">
         <f t="shared" si="15"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G134" s="8">
         <f t="shared" si="16"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H134" s="8">
         <f t="shared" si="17"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I134" s="15">
         <f t="shared" si="18"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="135" spans="3:9" x14ac:dyDescent="0.25">
@@ -4283,19 +4335,19 @@
       </c>
       <c r="F135" s="13">
         <f t="shared" si="15"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G135" s="8">
         <f t="shared" si="16"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H135" s="8">
         <f t="shared" si="17"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I135" s="15">
         <f t="shared" si="18"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="136" spans="3:9" x14ac:dyDescent="0.25">
@@ -4307,19 +4359,19 @@
       </c>
       <c r="F136" s="13">
         <f t="shared" si="15"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G136" s="8">
         <f t="shared" si="16"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H136" s="8">
         <f t="shared" si="17"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I136" s="15">
         <f t="shared" si="18"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="137" spans="3:9" x14ac:dyDescent="0.25">
@@ -4331,19 +4383,19 @@
       </c>
       <c r="F137" s="13">
         <f t="shared" si="15"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G137" s="8">
         <f t="shared" si="16"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H137" s="8">
         <f t="shared" si="17"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I137" s="15">
         <f t="shared" si="18"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="138" spans="3:9" x14ac:dyDescent="0.25">
@@ -4355,19 +4407,19 @@
       </c>
       <c r="F138" s="13">
         <f t="shared" si="15"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G138" s="8">
         <f t="shared" si="16"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H138" s="8">
         <f t="shared" si="17"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I138" s="15">
         <f t="shared" si="18"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="139" spans="3:9" x14ac:dyDescent="0.25">
@@ -4379,19 +4431,19 @@
       </c>
       <c r="F139" s="13">
         <f t="shared" si="15"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G139" s="8">
         <f t="shared" si="16"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H139" s="8">
         <f t="shared" si="17"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I139" s="15">
         <f t="shared" si="18"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="140" spans="3:9" x14ac:dyDescent="0.25">
@@ -4403,19 +4455,19 @@
       </c>
       <c r="F140" s="13">
         <f t="shared" si="15"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G140" s="8">
         <f t="shared" si="16"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H140" s="8">
         <f t="shared" si="17"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I140" s="15">
         <f t="shared" si="18"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="141" spans="3:9" x14ac:dyDescent="0.25">
@@ -4427,19 +4479,19 @@
       </c>
       <c r="F141" s="13">
         <f t="shared" si="15"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G141" s="8">
         <f t="shared" si="16"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H141" s="8">
         <f t="shared" si="17"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I141" s="15">
         <f t="shared" si="18"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="142" spans="3:9" x14ac:dyDescent="0.25">
@@ -4451,19 +4503,19 @@
       </c>
       <c r="F142" s="13">
         <f t="shared" si="15"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G142" s="8">
         <f t="shared" si="16"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H142" s="8">
         <f t="shared" si="17"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I142" s="15">
         <f t="shared" si="18"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="143" spans="3:9" x14ac:dyDescent="0.25">
@@ -4475,19 +4527,19 @@
       </c>
       <c r="F143" s="13">
         <f t="shared" si="15"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G143" s="8">
         <f t="shared" si="16"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H143" s="8">
         <f t="shared" si="17"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I143" s="15">
         <f t="shared" si="18"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="144" spans="3:9" x14ac:dyDescent="0.25">
@@ -4499,19 +4551,19 @@
       </c>
       <c r="F144" s="13">
         <f t="shared" si="15"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G144" s="8">
         <f t="shared" si="16"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H144" s="8">
         <f t="shared" si="17"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I144" s="15">
         <f t="shared" si="18"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="145" spans="3:9" x14ac:dyDescent="0.25">
@@ -4523,19 +4575,19 @@
       </c>
       <c r="F145" s="13">
         <f t="shared" si="15"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G145" s="8">
         <f t="shared" si="16"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H145" s="8">
         <f t="shared" si="17"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I145" s="15">
         <f t="shared" si="18"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="146" spans="3:9" x14ac:dyDescent="0.25">
@@ -4547,19 +4599,19 @@
       </c>
       <c r="F146" s="13">
         <f t="shared" si="15"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G146" s="8">
         <f t="shared" si="16"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H146" s="8">
         <f t="shared" si="17"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I146" s="15">
         <f t="shared" si="18"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="147" spans="3:9" x14ac:dyDescent="0.25">
@@ -4571,19 +4623,19 @@
       </c>
       <c r="F147" s="13">
         <f t="shared" si="15"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G147" s="8">
         <f t="shared" si="16"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H147" s="8">
         <f t="shared" si="17"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I147" s="15">
         <f t="shared" si="18"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="148" spans="3:9" x14ac:dyDescent="0.25">
@@ -4595,19 +4647,19 @@
       </c>
       <c r="F148" s="13">
         <f t="shared" si="15"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G148" s="8">
         <f t="shared" si="16"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H148" s="8">
         <f t="shared" si="17"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I148" s="15">
         <f t="shared" si="18"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="149" spans="3:9" x14ac:dyDescent="0.25">
@@ -4619,19 +4671,19 @@
       </c>
       <c r="F149" s="13">
         <f t="shared" si="15"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G149" s="8">
         <f t="shared" si="16"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H149" s="8">
         <f t="shared" si="17"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I149" s="15">
         <f t="shared" si="18"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="150" spans="3:9" x14ac:dyDescent="0.25">
@@ -4643,19 +4695,19 @@
       </c>
       <c r="F150" s="13">
         <f t="shared" si="15"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G150" s="8">
         <f t="shared" si="16"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H150" s="8">
         <f t="shared" si="17"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I150" s="15">
         <f t="shared" si="18"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="151" spans="3:9" x14ac:dyDescent="0.25">
@@ -4667,19 +4719,19 @@
       </c>
       <c r="F151" s="13">
         <f t="shared" si="15"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G151" s="8">
         <f t="shared" si="16"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H151" s="8">
         <f t="shared" si="17"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I151" s="15">
         <f t="shared" si="18"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="152" spans="3:9" x14ac:dyDescent="0.25">
@@ -4691,19 +4743,19 @@
       </c>
       <c r="F152" s="13">
         <f t="shared" si="15"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G152" s="8">
         <f t="shared" si="16"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H152" s="8">
         <f t="shared" si="17"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I152" s="15">
         <f t="shared" si="18"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="153" spans="3:9" x14ac:dyDescent="0.25">
@@ -4715,19 +4767,19 @@
       </c>
       <c r="F153" s="13">
         <f t="shared" si="15"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G153" s="8">
         <f t="shared" si="16"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H153" s="8">
         <f t="shared" si="17"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I153" s="15">
         <f t="shared" si="18"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="154" spans="3:9" x14ac:dyDescent="0.25">
@@ -4739,19 +4791,19 @@
       </c>
       <c r="F154" s="13">
         <f t="shared" si="15"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G154" s="8">
         <f t="shared" si="16"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H154" s="8">
         <f t="shared" si="17"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I154" s="15">
         <f t="shared" si="18"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="155" spans="3:9" x14ac:dyDescent="0.25">
@@ -4763,19 +4815,19 @@
       </c>
       <c r="F155" s="13">
         <f t="shared" si="15"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G155" s="8">
         <f t="shared" si="16"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H155" s="8">
         <f t="shared" si="17"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I155" s="15">
         <f t="shared" si="18"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="156" spans="3:9" x14ac:dyDescent="0.25">
@@ -4787,19 +4839,19 @@
       </c>
       <c r="F156" s="13">
         <f t="shared" si="15"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G156" s="8">
         <f t="shared" si="16"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H156" s="8">
         <f t="shared" si="17"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I156" s="15">
         <f t="shared" si="18"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="157" spans="3:9" x14ac:dyDescent="0.25">
@@ -4811,19 +4863,19 @@
       </c>
       <c r="F157" s="13">
         <f t="shared" si="15"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G157" s="8">
         <f t="shared" si="16"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H157" s="8">
         <f t="shared" si="17"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I157" s="15">
         <f t="shared" si="18"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="158" spans="3:9" x14ac:dyDescent="0.25">
@@ -4835,19 +4887,19 @@
       </c>
       <c r="F158" s="13">
         <f t="shared" si="15"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G158" s="8">
         <f t="shared" si="16"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H158" s="8">
         <f t="shared" si="17"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I158" s="15">
         <f t="shared" si="18"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="159" spans="3:9" x14ac:dyDescent="0.25">
@@ -4859,19 +4911,19 @@
       </c>
       <c r="F159" s="13">
         <f t="shared" si="15"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G159" s="8">
         <f t="shared" si="16"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H159" s="8">
         <f t="shared" si="17"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I159" s="15">
         <f t="shared" si="18"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="160" spans="3:9" x14ac:dyDescent="0.25">
@@ -4883,19 +4935,19 @@
       </c>
       <c r="F160" s="13">
         <f t="shared" si="15"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G160" s="8">
         <f t="shared" si="16"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H160" s="8">
         <f t="shared" si="17"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I160" s="15">
         <f t="shared" si="18"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="161" spans="3:9" x14ac:dyDescent="0.25">
@@ -4907,19 +4959,19 @@
       </c>
       <c r="F161" s="13">
         <f t="shared" si="15"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G161" s="8">
         <f t="shared" si="16"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H161" s="8">
         <f t="shared" si="17"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I161" s="15">
         <f t="shared" si="18"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="162" spans="3:9" x14ac:dyDescent="0.25">
@@ -4931,19 +4983,19 @@
       </c>
       <c r="F162" s="13">
         <f t="shared" si="15"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G162" s="8">
         <f t="shared" si="16"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H162" s="8">
         <f t="shared" si="17"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I162" s="15">
         <f t="shared" si="18"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="163" spans="3:9" x14ac:dyDescent="0.25">
@@ -4955,19 +5007,19 @@
       </c>
       <c r="F163" s="13">
         <f t="shared" si="15"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G163" s="8">
         <f t="shared" si="16"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H163" s="8">
         <f t="shared" si="17"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I163" s="15">
         <f t="shared" si="18"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="164" spans="3:9" x14ac:dyDescent="0.25">
@@ -4979,19 +5031,19 @@
       </c>
       <c r="F164" s="13">
         <f t="shared" si="15"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G164" s="8">
         <f t="shared" si="16"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H164" s="8">
         <f t="shared" si="17"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I164" s="15">
         <f t="shared" si="18"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="165" spans="3:9" x14ac:dyDescent="0.25">
@@ -5003,19 +5055,19 @@
       </c>
       <c r="F165" s="13">
         <f t="shared" si="15"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G165" s="8">
         <f t="shared" si="16"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H165" s="8">
         <f t="shared" si="17"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I165" s="15">
         <f t="shared" si="18"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="166" spans="3:9" x14ac:dyDescent="0.25">
@@ -5027,19 +5079,19 @@
       </c>
       <c r="F166" s="13">
         <f t="shared" si="15"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G166" s="8">
         <f t="shared" si="16"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H166" s="8">
         <f t="shared" si="17"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I166" s="15">
         <f t="shared" si="18"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="167" spans="3:9" x14ac:dyDescent="0.25">
@@ -5051,19 +5103,19 @@
       </c>
       <c r="F167" s="13">
         <f t="shared" si="15"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G167" s="8">
         <f t="shared" si="16"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H167" s="8">
         <f t="shared" si="17"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I167" s="15">
         <f t="shared" si="18"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="168" spans="3:9" x14ac:dyDescent="0.25">
@@ -5075,19 +5127,19 @@
       </c>
       <c r="F168" s="13">
         <f t="shared" ref="F168:F231" si="20">F167+E168</f>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G168" s="8">
         <f t="shared" ref="G168:G231" si="21">F168</f>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H168" s="8">
         <f t="shared" ref="H168:H231" si="22">(H167+G168-G167)</f>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I168" s="15">
         <f t="shared" ref="I168:I231" si="23">H168*24*$J$2</f>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="169" spans="3:9" x14ac:dyDescent="0.25">
@@ -5099,19 +5151,19 @@
       </c>
       <c r="F169" s="13">
         <f t="shared" si="20"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G169" s="8">
         <f t="shared" si="21"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H169" s="8">
         <f t="shared" si="22"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I169" s="15">
         <f t="shared" si="23"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="170" spans="3:9" x14ac:dyDescent="0.25">
@@ -5123,19 +5175,19 @@
       </c>
       <c r="F170" s="13">
         <f t="shared" si="20"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G170" s="8">
         <f t="shared" si="21"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H170" s="8">
         <f t="shared" si="22"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I170" s="15">
         <f t="shared" si="23"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="171" spans="3:9" x14ac:dyDescent="0.25">
@@ -5147,19 +5199,19 @@
       </c>
       <c r="F171" s="13">
         <f t="shared" si="20"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G171" s="8">
         <f t="shared" si="21"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H171" s="8">
         <f t="shared" si="22"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I171" s="15">
         <f t="shared" si="23"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="172" spans="3:9" x14ac:dyDescent="0.25">
@@ -5171,19 +5223,19 @@
       </c>
       <c r="F172" s="13">
         <f t="shared" si="20"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G172" s="8">
         <f t="shared" si="21"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H172" s="8">
         <f t="shared" si="22"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I172" s="15">
         <f t="shared" si="23"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="173" spans="3:9" x14ac:dyDescent="0.25">
@@ -5195,19 +5247,19 @@
       </c>
       <c r="F173" s="13">
         <f t="shared" si="20"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G173" s="8">
         <f t="shared" si="21"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H173" s="8">
         <f t="shared" si="22"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I173" s="15">
         <f t="shared" si="23"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="174" spans="3:9" x14ac:dyDescent="0.25">
@@ -5219,19 +5271,19 @@
       </c>
       <c r="F174" s="13">
         <f t="shared" si="20"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G174" s="8">
         <f t="shared" si="21"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H174" s="8">
         <f t="shared" si="22"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I174" s="15">
         <f t="shared" si="23"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="175" spans="3:9" x14ac:dyDescent="0.25">
@@ -5243,19 +5295,19 @@
       </c>
       <c r="F175" s="13">
         <f t="shared" si="20"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G175" s="8">
         <f t="shared" si="21"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H175" s="8">
         <f t="shared" si="22"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I175" s="15">
         <f t="shared" si="23"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="176" spans="3:9" x14ac:dyDescent="0.25">
@@ -5267,19 +5319,19 @@
       </c>
       <c r="F176" s="13">
         <f t="shared" si="20"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G176" s="8">
         <f t="shared" si="21"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H176" s="8">
         <f t="shared" si="22"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I176" s="15">
         <f t="shared" si="23"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="177" spans="3:9" x14ac:dyDescent="0.25">
@@ -5291,19 +5343,19 @@
       </c>
       <c r="F177" s="13">
         <f t="shared" si="20"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G177" s="8">
         <f t="shared" si="21"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H177" s="8">
         <f t="shared" si="22"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I177" s="15">
         <f t="shared" si="23"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="178" spans="3:9" x14ac:dyDescent="0.25">
@@ -5315,19 +5367,19 @@
       </c>
       <c r="F178" s="13">
         <f t="shared" si="20"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G178" s="8">
         <f t="shared" si="21"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H178" s="8">
         <f t="shared" si="22"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I178" s="15">
         <f t="shared" si="23"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="179" spans="3:9" x14ac:dyDescent="0.25">
@@ -5339,19 +5391,19 @@
       </c>
       <c r="F179" s="13">
         <f t="shared" si="20"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G179" s="8">
         <f t="shared" si="21"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H179" s="8">
         <f t="shared" si="22"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I179" s="15">
         <f t="shared" si="23"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="180" spans="3:9" x14ac:dyDescent="0.25">
@@ -5363,19 +5415,19 @@
       </c>
       <c r="F180" s="13">
         <f t="shared" si="20"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G180" s="8">
         <f t="shared" si="21"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H180" s="8">
         <f t="shared" si="22"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I180" s="15">
         <f t="shared" si="23"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="181" spans="3:9" x14ac:dyDescent="0.25">
@@ -5387,19 +5439,19 @@
       </c>
       <c r="F181" s="13">
         <f t="shared" si="20"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G181" s="8">
         <f t="shared" si="21"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H181" s="8">
         <f t="shared" si="22"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I181" s="15">
         <f t="shared" si="23"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="182" spans="3:9" x14ac:dyDescent="0.25">
@@ -5411,19 +5463,19 @@
       </c>
       <c r="F182" s="13">
         <f t="shared" si="20"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G182" s="8">
         <f t="shared" si="21"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H182" s="8">
         <f t="shared" si="22"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I182" s="15">
         <f t="shared" si="23"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="183" spans="3:9" x14ac:dyDescent="0.25">
@@ -5435,19 +5487,19 @@
       </c>
       <c r="F183" s="13">
         <f t="shared" si="20"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G183" s="8">
         <f t="shared" si="21"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H183" s="8">
         <f t="shared" si="22"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I183" s="15">
         <f t="shared" si="23"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="184" spans="3:9" x14ac:dyDescent="0.25">
@@ -5459,19 +5511,19 @@
       </c>
       <c r="F184" s="13">
         <f t="shared" si="20"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G184" s="8">
         <f t="shared" si="21"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H184" s="8">
         <f t="shared" si="22"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I184" s="15">
         <f t="shared" si="23"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="185" spans="3:9" x14ac:dyDescent="0.25">
@@ -5483,19 +5535,19 @@
       </c>
       <c r="F185" s="13">
         <f t="shared" si="20"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G185" s="8">
         <f t="shared" si="21"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H185" s="8">
         <f t="shared" si="22"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I185" s="15">
         <f t="shared" si="23"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="186" spans="3:9" x14ac:dyDescent="0.25">
@@ -5507,19 +5559,19 @@
       </c>
       <c r="F186" s="13">
         <f t="shared" si="20"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G186" s="8">
         <f t="shared" si="21"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H186" s="8">
         <f t="shared" si="22"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I186" s="15">
         <f t="shared" si="23"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="187" spans="3:9" x14ac:dyDescent="0.25">
@@ -5531,19 +5583,19 @@
       </c>
       <c r="F187" s="13">
         <f t="shared" si="20"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G187" s="8">
         <f t="shared" si="21"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H187" s="8">
         <f t="shared" si="22"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I187" s="15">
         <f t="shared" si="23"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="188" spans="3:9" x14ac:dyDescent="0.25">
@@ -5555,19 +5607,19 @@
       </c>
       <c r="F188" s="13">
         <f t="shared" si="20"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G188" s="8">
         <f t="shared" si="21"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H188" s="8">
         <f t="shared" si="22"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I188" s="15">
         <f t="shared" si="23"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="189" spans="3:9" x14ac:dyDescent="0.25">
@@ -5579,19 +5631,19 @@
       </c>
       <c r="F189" s="13">
         <f t="shared" si="20"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G189" s="8">
         <f t="shared" si="21"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H189" s="8">
         <f t="shared" si="22"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I189" s="15">
         <f t="shared" si="23"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="190" spans="3:9" x14ac:dyDescent="0.25">
@@ -5603,19 +5655,19 @@
       </c>
       <c r="F190" s="13">
         <f t="shared" si="20"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G190" s="8">
         <f t="shared" si="21"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H190" s="8">
         <f t="shared" si="22"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I190" s="15">
         <f t="shared" si="23"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="191" spans="3:9" x14ac:dyDescent="0.25">
@@ -5627,19 +5679,19 @@
       </c>
       <c r="F191" s="13">
         <f t="shared" si="20"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G191" s="8">
         <f t="shared" si="21"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H191" s="8">
         <f t="shared" si="22"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I191" s="15">
         <f t="shared" si="23"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="192" spans="3:9" x14ac:dyDescent="0.25">
@@ -5651,19 +5703,19 @@
       </c>
       <c r="F192" s="13">
         <f t="shared" si="20"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G192" s="8">
         <f t="shared" si="21"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H192" s="8">
         <f t="shared" si="22"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I192" s="15">
         <f t="shared" si="23"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="193" spans="3:9" x14ac:dyDescent="0.25">
@@ -5675,19 +5727,19 @@
       </c>
       <c r="F193" s="13">
         <f t="shared" si="20"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G193" s="8">
         <f t="shared" si="21"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H193" s="8">
         <f t="shared" si="22"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I193" s="15">
         <f t="shared" si="23"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="194" spans="3:9" x14ac:dyDescent="0.25">
@@ -5699,19 +5751,19 @@
       </c>
       <c r="F194" s="13">
         <f t="shared" si="20"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G194" s="8">
         <f t="shared" si="21"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H194" s="8">
         <f t="shared" si="22"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I194" s="15">
         <f t="shared" si="23"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="195" spans="3:9" x14ac:dyDescent="0.25">
@@ -5723,19 +5775,19 @@
       </c>
       <c r="F195" s="13">
         <f t="shared" si="20"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G195" s="8">
         <f t="shared" si="21"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H195" s="8">
         <f t="shared" si="22"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I195" s="15">
         <f t="shared" si="23"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="196" spans="3:9" x14ac:dyDescent="0.25">
@@ -5747,19 +5799,19 @@
       </c>
       <c r="F196" s="13">
         <f t="shared" si="20"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G196" s="8">
         <f t="shared" si="21"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H196" s="8">
         <f t="shared" si="22"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I196" s="15">
         <f t="shared" si="23"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="197" spans="3:9" x14ac:dyDescent="0.25">
@@ -5771,19 +5823,19 @@
       </c>
       <c r="F197" s="13">
         <f t="shared" si="20"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G197" s="8">
         <f t="shared" si="21"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H197" s="8">
         <f t="shared" si="22"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I197" s="15">
         <f t="shared" si="23"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="198" spans="3:9" x14ac:dyDescent="0.25">
@@ -5795,19 +5847,19 @@
       </c>
       <c r="F198" s="13">
         <f t="shared" si="20"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G198" s="8">
         <f t="shared" si="21"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H198" s="8">
         <f t="shared" si="22"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I198" s="15">
         <f t="shared" si="23"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="199" spans="3:9" x14ac:dyDescent="0.25">
@@ -5819,19 +5871,19 @@
       </c>
       <c r="F199" s="13">
         <f t="shared" si="20"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G199" s="8">
         <f t="shared" si="21"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H199" s="8">
         <f t="shared" si="22"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I199" s="15">
         <f t="shared" si="23"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="200" spans="3:9" x14ac:dyDescent="0.25">
@@ -5843,19 +5895,19 @@
       </c>
       <c r="F200" s="13">
         <f t="shared" si="20"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G200" s="8">
         <f t="shared" si="21"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H200" s="8">
         <f t="shared" si="22"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I200" s="15">
         <f t="shared" si="23"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="201" spans="3:9" x14ac:dyDescent="0.25">
@@ -5867,19 +5919,19 @@
       </c>
       <c r="F201" s="13">
         <f t="shared" si="20"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G201" s="8">
         <f t="shared" si="21"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H201" s="8">
         <f t="shared" si="22"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I201" s="15">
         <f t="shared" si="23"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="202" spans="3:9" x14ac:dyDescent="0.25">
@@ -5891,19 +5943,19 @@
       </c>
       <c r="F202" s="13">
         <f t="shared" si="20"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G202" s="8">
         <f t="shared" si="21"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H202" s="8">
         <f t="shared" si="22"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I202" s="15">
         <f t="shared" si="23"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="203" spans="3:9" x14ac:dyDescent="0.25">
@@ -5915,19 +5967,19 @@
       </c>
       <c r="F203" s="13">
         <f t="shared" si="20"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G203" s="8">
         <f t="shared" si="21"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H203" s="8">
         <f t="shared" si="22"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I203" s="15">
         <f t="shared" si="23"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="204" spans="3:9" x14ac:dyDescent="0.25">
@@ -5939,19 +5991,19 @@
       </c>
       <c r="F204" s="13">
         <f t="shared" si="20"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G204" s="8">
         <f t="shared" si="21"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H204" s="8">
         <f t="shared" si="22"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I204" s="15">
         <f t="shared" si="23"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="205" spans="3:9" x14ac:dyDescent="0.25">
@@ -5963,19 +6015,19 @@
       </c>
       <c r="F205" s="13">
         <f t="shared" si="20"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G205" s="8">
         <f t="shared" si="21"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H205" s="8">
         <f t="shared" si="22"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I205" s="15">
         <f t="shared" si="23"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="206" spans="3:9" x14ac:dyDescent="0.25">
@@ -5987,19 +6039,19 @@
       </c>
       <c r="F206" s="13">
         <f t="shared" si="20"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G206" s="8">
         <f t="shared" si="21"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H206" s="8">
         <f t="shared" si="22"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I206" s="15">
         <f t="shared" si="23"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="207" spans="3:9" x14ac:dyDescent="0.25">
@@ -6011,19 +6063,19 @@
       </c>
       <c r="F207" s="13">
         <f t="shared" si="20"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G207" s="8">
         <f t="shared" si="21"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H207" s="8">
         <f t="shared" si="22"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I207" s="15">
         <f t="shared" si="23"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="208" spans="3:9" x14ac:dyDescent="0.25">
@@ -6035,19 +6087,19 @@
       </c>
       <c r="F208" s="13">
         <f t="shared" si="20"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G208" s="8">
         <f t="shared" si="21"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H208" s="8">
         <f t="shared" si="22"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I208" s="15">
         <f t="shared" si="23"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="209" spans="3:9" x14ac:dyDescent="0.25">
@@ -6059,19 +6111,19 @@
       </c>
       <c r="F209" s="13">
         <f t="shared" si="20"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G209" s="8">
         <f t="shared" si="21"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H209" s="8">
         <f t="shared" si="22"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I209" s="15">
         <f t="shared" si="23"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="210" spans="3:9" x14ac:dyDescent="0.25">
@@ -6083,19 +6135,19 @@
       </c>
       <c r="F210" s="13">
         <f t="shared" si="20"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G210" s="8">
         <f t="shared" si="21"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H210" s="8">
         <f t="shared" si="22"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I210" s="15">
         <f t="shared" si="23"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="211" spans="3:9" x14ac:dyDescent="0.25">
@@ -6107,19 +6159,19 @@
       </c>
       <c r="F211" s="13">
         <f t="shared" si="20"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G211" s="8">
         <f t="shared" si="21"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H211" s="8">
         <f t="shared" si="22"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I211" s="15">
         <f t="shared" si="23"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="212" spans="3:9" x14ac:dyDescent="0.25">
@@ -6131,19 +6183,19 @@
       </c>
       <c r="F212" s="13">
         <f t="shared" si="20"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G212" s="8">
         <f t="shared" si="21"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H212" s="8">
         <f t="shared" si="22"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I212" s="15">
         <f t="shared" si="23"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="213" spans="3:9" x14ac:dyDescent="0.25">
@@ -6155,19 +6207,19 @@
       </c>
       <c r="F213" s="13">
         <f t="shared" si="20"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G213" s="8">
         <f t="shared" si="21"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H213" s="8">
         <f t="shared" si="22"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I213" s="15">
         <f t="shared" si="23"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="214" spans="3:9" x14ac:dyDescent="0.25">
@@ -6179,19 +6231,19 @@
       </c>
       <c r="F214" s="13">
         <f t="shared" si="20"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G214" s="8">
         <f t="shared" si="21"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H214" s="8">
         <f t="shared" si="22"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I214" s="15">
         <f t="shared" si="23"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="215" spans="3:9" x14ac:dyDescent="0.25">
@@ -6203,19 +6255,19 @@
       </c>
       <c r="F215" s="13">
         <f t="shared" si="20"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G215" s="8">
         <f t="shared" si="21"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H215" s="8">
         <f t="shared" si="22"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I215" s="15">
         <f t="shared" si="23"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="216" spans="3:9" x14ac:dyDescent="0.25">
@@ -6227,19 +6279,19 @@
       </c>
       <c r="F216" s="13">
         <f t="shared" si="20"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G216" s="8">
         <f t="shared" si="21"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H216" s="8">
         <f t="shared" si="22"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I216" s="15">
         <f t="shared" si="23"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="217" spans="3:9" x14ac:dyDescent="0.25">
@@ -6251,19 +6303,19 @@
       </c>
       <c r="F217" s="13">
         <f t="shared" si="20"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G217" s="8">
         <f t="shared" si="21"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H217" s="8">
         <f t="shared" si="22"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I217" s="15">
         <f t="shared" si="23"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="218" spans="3:9" x14ac:dyDescent="0.25">
@@ -6275,19 +6327,19 @@
       </c>
       <c r="F218" s="13">
         <f t="shared" si="20"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G218" s="8">
         <f t="shared" si="21"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H218" s="8">
         <f t="shared" si="22"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I218" s="15">
         <f t="shared" si="23"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="219" spans="3:9" x14ac:dyDescent="0.25">
@@ -6299,19 +6351,19 @@
       </c>
       <c r="F219" s="13">
         <f t="shared" si="20"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G219" s="8">
         <f t="shared" si="21"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H219" s="8">
         <f t="shared" si="22"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I219" s="15">
         <f t="shared" si="23"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="220" spans="3:9" x14ac:dyDescent="0.25">
@@ -6323,19 +6375,19 @@
       </c>
       <c r="F220" s="13">
         <f t="shared" si="20"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G220" s="8">
         <f t="shared" si="21"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H220" s="8">
         <f t="shared" si="22"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I220" s="15">
         <f t="shared" si="23"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="221" spans="3:9" x14ac:dyDescent="0.25">
@@ -6347,19 +6399,19 @@
       </c>
       <c r="F221" s="13">
         <f t="shared" si="20"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G221" s="8">
         <f t="shared" si="21"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H221" s="8">
         <f t="shared" si="22"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I221" s="15">
         <f t="shared" si="23"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="222" spans="3:9" x14ac:dyDescent="0.25">
@@ -6371,19 +6423,19 @@
       </c>
       <c r="F222" s="13">
         <f t="shared" si="20"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G222" s="8">
         <f t="shared" si="21"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H222" s="8">
         <f t="shared" si="22"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I222" s="15">
         <f t="shared" si="23"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="223" spans="3:9" x14ac:dyDescent="0.25">
@@ -6395,19 +6447,19 @@
       </c>
       <c r="F223" s="13">
         <f t="shared" si="20"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G223" s="8">
         <f t="shared" si="21"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H223" s="8">
         <f t="shared" si="22"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I223" s="15">
         <f t="shared" si="23"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="224" spans="3:9" x14ac:dyDescent="0.25">
@@ -6419,19 +6471,19 @@
       </c>
       <c r="F224" s="13">
         <f t="shared" si="20"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G224" s="8">
         <f t="shared" si="21"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H224" s="8">
         <f t="shared" si="22"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I224" s="15">
         <f t="shared" si="23"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="225" spans="3:9" x14ac:dyDescent="0.25">
@@ -6443,19 +6495,19 @@
       </c>
       <c r="F225" s="13">
         <f t="shared" si="20"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G225" s="8">
         <f t="shared" si="21"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H225" s="8">
         <f t="shared" si="22"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I225" s="15">
         <f t="shared" si="23"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="226" spans="3:9" x14ac:dyDescent="0.25">
@@ -6467,19 +6519,19 @@
       </c>
       <c r="F226" s="13">
         <f t="shared" si="20"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G226" s="8">
         <f t="shared" si="21"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H226" s="8">
         <f t="shared" si="22"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I226" s="15">
         <f t="shared" si="23"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="227" spans="3:9" x14ac:dyDescent="0.25">
@@ -6491,19 +6543,19 @@
       </c>
       <c r="F227" s="13">
         <f t="shared" si="20"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G227" s="8">
         <f t="shared" si="21"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H227" s="8">
         <f t="shared" si="22"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I227" s="15">
         <f t="shared" si="23"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="228" spans="3:9" x14ac:dyDescent="0.25">
@@ -6515,19 +6567,19 @@
       </c>
       <c r="F228" s="13">
         <f t="shared" si="20"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G228" s="8">
         <f t="shared" si="21"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H228" s="8">
         <f t="shared" si="22"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I228" s="15">
         <f t="shared" si="23"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="229" spans="3:9" x14ac:dyDescent="0.25">
@@ -6539,19 +6591,19 @@
       </c>
       <c r="F229" s="13">
         <f t="shared" si="20"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G229" s="8">
         <f t="shared" si="21"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H229" s="8">
         <f t="shared" si="22"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I229" s="15">
         <f t="shared" si="23"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="230" spans="3:9" x14ac:dyDescent="0.25">
@@ -6563,19 +6615,19 @@
       </c>
       <c r="F230" s="13">
         <f t="shared" si="20"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G230" s="8">
         <f t="shared" si="21"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H230" s="8">
         <f t="shared" si="22"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I230" s="15">
         <f t="shared" si="23"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="231" spans="3:9" x14ac:dyDescent="0.25">
@@ -6587,19 +6639,19 @@
       </c>
       <c r="F231" s="13">
         <f t="shared" si="20"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G231" s="8">
         <f t="shared" si="21"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H231" s="8">
         <f t="shared" si="22"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I231" s="15">
         <f t="shared" si="23"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="232" spans="3:9" x14ac:dyDescent="0.25">
@@ -6611,19 +6663,19 @@
       </c>
       <c r="F232" s="13">
         <f t="shared" ref="F232:F255" si="25">F231+E232</f>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G232" s="8">
         <f t="shared" ref="G232:G255" si="26">F232</f>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H232" s="8">
         <f t="shared" ref="H232:H255" si="27">(H231+G232-G231)</f>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I232" s="15">
         <f t="shared" ref="I232:I255" si="28">H232*24*$J$2</f>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="233" spans="3:9" x14ac:dyDescent="0.25">
@@ -6635,19 +6687,19 @@
       </c>
       <c r="F233" s="13">
         <f t="shared" si="25"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G233" s="8">
         <f t="shared" si="26"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H233" s="8">
         <f t="shared" si="27"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I233" s="15">
         <f t="shared" si="28"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="234" spans="3:9" x14ac:dyDescent="0.25">
@@ -6659,19 +6711,19 @@
       </c>
       <c r="F234" s="13">
         <f t="shared" si="25"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G234" s="8">
         <f t="shared" si="26"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H234" s="8">
         <f t="shared" si="27"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I234" s="15">
         <f t="shared" si="28"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="235" spans="3:9" x14ac:dyDescent="0.25">
@@ -6683,19 +6735,19 @@
       </c>
       <c r="F235" s="13">
         <f t="shared" si="25"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G235" s="8">
         <f t="shared" si="26"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H235" s="8">
         <f t="shared" si="27"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I235" s="15">
         <f t="shared" si="28"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="236" spans="3:9" x14ac:dyDescent="0.25">
@@ -6707,19 +6759,19 @@
       </c>
       <c r="F236" s="13">
         <f t="shared" si="25"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G236" s="8">
         <f t="shared" si="26"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H236" s="8">
         <f t="shared" si="27"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I236" s="15">
         <f t="shared" si="28"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="237" spans="3:9" x14ac:dyDescent="0.25">
@@ -6731,19 +6783,19 @@
       </c>
       <c r="F237" s="13">
         <f t="shared" si="25"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G237" s="8">
         <f t="shared" si="26"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H237" s="8">
         <f t="shared" si="27"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I237" s="15">
         <f t="shared" si="28"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="238" spans="3:9" x14ac:dyDescent="0.25">
@@ -6755,19 +6807,19 @@
       </c>
       <c r="F238" s="13">
         <f t="shared" si="25"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G238" s="8">
         <f t="shared" si="26"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H238" s="8">
         <f t="shared" si="27"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I238" s="15">
         <f t="shared" si="28"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="239" spans="3:9" x14ac:dyDescent="0.25">
@@ -6779,19 +6831,19 @@
       </c>
       <c r="F239" s="13">
         <f t="shared" si="25"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G239" s="8">
         <f t="shared" si="26"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H239" s="8">
         <f t="shared" si="27"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I239" s="15">
         <f t="shared" si="28"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="240" spans="3:9" x14ac:dyDescent="0.25">
@@ -6803,19 +6855,19 @@
       </c>
       <c r="F240" s="13">
         <f t="shared" si="25"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G240" s="8">
         <f t="shared" si="26"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H240" s="8">
         <f t="shared" si="27"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I240" s="15">
         <f t="shared" si="28"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="241" spans="3:9" x14ac:dyDescent="0.25">
@@ -6827,19 +6879,19 @@
       </c>
       <c r="F241" s="13">
         <f t="shared" si="25"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G241" s="8">
         <f t="shared" si="26"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H241" s="8">
         <f t="shared" si="27"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I241" s="15">
         <f t="shared" si="28"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="242" spans="3:9" x14ac:dyDescent="0.25">
@@ -6851,19 +6903,19 @@
       </c>
       <c r="F242" s="13">
         <f t="shared" si="25"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G242" s="8">
         <f t="shared" si="26"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H242" s="8">
         <f t="shared" si="27"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I242" s="15">
         <f t="shared" si="28"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="243" spans="3:9" x14ac:dyDescent="0.25">
@@ -6875,19 +6927,19 @@
       </c>
       <c r="F243" s="13">
         <f t="shared" si="25"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G243" s="8">
         <f t="shared" si="26"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H243" s="8">
         <f t="shared" si="27"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I243" s="15">
         <f t="shared" si="28"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="244" spans="3:9" x14ac:dyDescent="0.25">
@@ -6899,19 +6951,19 @@
       </c>
       <c r="F244" s="13">
         <f t="shared" si="25"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G244" s="8">
         <f t="shared" si="26"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H244" s="8">
         <f t="shared" si="27"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I244" s="15">
         <f t="shared" si="28"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="245" spans="3:9" x14ac:dyDescent="0.25">
@@ -6923,19 +6975,19 @@
       </c>
       <c r="F245" s="13">
         <f t="shared" si="25"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G245" s="8">
         <f t="shared" si="26"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H245" s="8">
         <f t="shared" si="27"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I245" s="15">
         <f t="shared" si="28"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="246" spans="3:9" x14ac:dyDescent="0.25">
@@ -6947,19 +6999,19 @@
       </c>
       <c r="F246" s="13">
         <f t="shared" si="25"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G246" s="8">
         <f t="shared" si="26"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H246" s="8">
         <f t="shared" si="27"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I246" s="15">
         <f t="shared" si="28"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="247" spans="3:9" x14ac:dyDescent="0.25">
@@ -6971,19 +7023,19 @@
       </c>
       <c r="F247" s="13">
         <f t="shared" si="25"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G247" s="8">
         <f t="shared" si="26"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H247" s="8">
         <f t="shared" si="27"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I247" s="15">
         <f t="shared" si="28"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="248" spans="3:9" x14ac:dyDescent="0.25">
@@ -6995,19 +7047,19 @@
       </c>
       <c r="F248" s="13">
         <f t="shared" si="25"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G248" s="8">
         <f t="shared" si="26"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H248" s="8">
         <f t="shared" si="27"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I248" s="15">
         <f t="shared" si="28"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="249" spans="3:9" x14ac:dyDescent="0.25">
@@ -7019,19 +7071,19 @@
       </c>
       <c r="F249" s="13">
         <f t="shared" si="25"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G249" s="8">
         <f t="shared" si="26"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H249" s="8">
         <f t="shared" si="27"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I249" s="15">
         <f t="shared" si="28"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="250" spans="3:9" x14ac:dyDescent="0.25">
@@ -7043,19 +7095,19 @@
       </c>
       <c r="F250" s="13">
         <f t="shared" si="25"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G250" s="8">
         <f t="shared" si="26"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H250" s="8">
         <f t="shared" si="27"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I250" s="15">
         <f t="shared" si="28"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="251" spans="3:9" x14ac:dyDescent="0.25">
@@ -7067,19 +7119,19 @@
       </c>
       <c r="F251" s="13">
         <f t="shared" si="25"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G251" s="8">
         <f t="shared" si="26"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H251" s="8">
         <f t="shared" si="27"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I251" s="15">
         <f t="shared" si="28"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="252" spans="3:9" x14ac:dyDescent="0.25">
@@ -7091,19 +7143,19 @@
       </c>
       <c r="F252" s="13">
         <f t="shared" si="25"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G252" s="8">
         <f t="shared" si="26"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H252" s="8">
         <f t="shared" si="27"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I252" s="15">
         <f t="shared" si="28"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="253" spans="3:9" x14ac:dyDescent="0.25">
@@ -7115,19 +7167,19 @@
       </c>
       <c r="F253" s="13">
         <f t="shared" si="25"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G253" s="8">
         <f t="shared" si="26"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H253" s="8">
         <f t="shared" si="27"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I253" s="15">
         <f t="shared" si="28"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="254" spans="3:9" x14ac:dyDescent="0.25">
@@ -7139,19 +7191,19 @@
       </c>
       <c r="F254" s="13">
         <f t="shared" si="25"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G254" s="8">
         <f t="shared" si="26"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H254" s="8">
         <f t="shared" si="27"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I254" s="15">
         <f t="shared" si="28"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
     <row r="255" spans="3:9" x14ac:dyDescent="0.25">
@@ -7163,19 +7215,19 @@
       </c>
       <c r="F255" s="13">
         <f t="shared" si="25"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G255" s="8">
         <f t="shared" si="26"/>
-        <v>2.177083333333333</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H255" s="8">
         <f t="shared" si="27"/>
-        <v>3.3270833333333352</v>
+        <v>3.6250000000000013</v>
       </c>
       <c r="I255" s="15">
         <f t="shared" si="28"/>
-        <v>13574.500000000009</v>
+        <v>14790.000000000005</v>
       </c>
     </row>
   </sheetData>

--- a/hodiny.xlsx
+++ b/hodiny.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ACE1486-3960-4B17-A8B1-A1E04E4570B7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C141620-6286-473D-AB26-F4BC4C26BBB9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3120" yWindow="3120" windowWidth="28800" windowHeight="14925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>čas [min]</t>
   </si>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t>2161 zacatek</t>
+  </si>
+  <si>
+    <t>28.6.</t>
   </si>
 </sst>
 </file>
@@ -651,7 +654,7 @@
   <dimension ref="B1:J255"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A79" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D98" sqref="D98"/>
+      <selection activeCell="D100" sqref="D100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3410,7 +3413,7 @@
         <v>14645.500000000005</v>
       </c>
     </row>
-    <row r="97" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C97" s="2">
         <v>0.85763888888888884</v>
       </c>
@@ -3438,55 +3441,66 @@
         <v>14790.000000000007</v>
       </c>
     </row>
-    <row r="98" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C98" s="2"/>
-      <c r="D98" s="10"/>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B98" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C98" s="2">
+        <v>0.69513888888888886</v>
+      </c>
+      <c r="D98" s="10">
+        <v>0.77361111111111114</v>
+      </c>
       <c r="E98" s="12">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>7.8472222222222276E-2</v>
       </c>
       <c r="F98" s="13">
         <f t="shared" si="10"/>
-        <v>2.4750000000000001</v>
+        <v>2.5534722222222221</v>
       </c>
       <c r="G98" s="8">
         <f t="shared" si="11"/>
-        <v>2.4750000000000001</v>
+        <v>2.5534722222222221</v>
       </c>
       <c r="H98" s="8">
         <f t="shared" si="12"/>
-        <v>3.6250000000000013</v>
+        <v>3.7034722222222238</v>
       </c>
       <c r="I98" s="15">
         <f t="shared" si="13"/>
-        <v>14790.000000000005</v>
-      </c>
-    </row>
-    <row r="99" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C99" s="2"/>
-      <c r="D99" s="10"/>
+        <v>15110.166666666673</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C99" s="2">
+        <v>0.79722222222222217</v>
+      </c>
+      <c r="D99" s="10">
+        <v>0.93680555555555556</v>
+      </c>
       <c r="E99" s="12">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.13958333333333339</v>
       </c>
       <c r="F99" s="13">
         <f t="shared" si="10"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G99" s="8">
         <f t="shared" si="11"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H99" s="8">
         <f t="shared" si="12"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I99" s="15">
         <f t="shared" si="13"/>
-        <v>14790.000000000005</v>
-      </c>
-    </row>
-    <row r="100" spans="3:9" x14ac:dyDescent="0.25">
+        <v>15679.666666666672</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C100" s="2"/>
       <c r="D100" s="10"/>
       <c r="E100" s="12">
@@ -3495,22 +3509,22 @@
       </c>
       <c r="F100" s="13">
         <f t="shared" si="10"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G100" s="8">
         <f t="shared" si="11"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H100" s="8">
         <f t="shared" si="12"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I100" s="15">
         <f t="shared" si="13"/>
-        <v>14790.000000000005</v>
-      </c>
-    </row>
-    <row r="101" spans="3:9" x14ac:dyDescent="0.25">
+        <v>15679.666666666672</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C101" s="2"/>
       <c r="D101" s="10"/>
       <c r="E101" s="12">
@@ -3519,22 +3533,22 @@
       </c>
       <c r="F101" s="13">
         <f t="shared" si="10"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G101" s="8">
         <f t="shared" si="11"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H101" s="8">
         <f t="shared" si="12"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I101" s="15">
         <f t="shared" si="13"/>
-        <v>14790.000000000005</v>
-      </c>
-    </row>
-    <row r="102" spans="3:9" x14ac:dyDescent="0.25">
+        <v>15679.666666666672</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C102" s="2"/>
       <c r="D102" s="10"/>
       <c r="E102" s="12">
@@ -3543,22 +3557,22 @@
       </c>
       <c r="F102" s="13">
         <f t="shared" si="10"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G102" s="8">
         <f t="shared" si="11"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H102" s="8">
         <f t="shared" si="12"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I102" s="15">
         <f t="shared" si="13"/>
-        <v>14790.000000000005</v>
-      </c>
-    </row>
-    <row r="103" spans="3:9" x14ac:dyDescent="0.25">
+        <v>15679.666666666672</v>
+      </c>
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C103" s="2"/>
       <c r="D103" s="10"/>
       <c r="E103" s="12">
@@ -3567,22 +3581,22 @@
       </c>
       <c r="F103" s="13">
         <f t="shared" si="10"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G103" s="8">
         <f t="shared" si="11"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H103" s="8">
         <f t="shared" si="12"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I103" s="15">
         <f t="shared" si="13"/>
-        <v>14790.000000000005</v>
-      </c>
-    </row>
-    <row r="104" spans="3:9" x14ac:dyDescent="0.25">
+        <v>15679.666666666672</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C104" s="2"/>
       <c r="D104" s="10"/>
       <c r="E104" s="12">
@@ -3591,22 +3605,22 @@
       </c>
       <c r="F104" s="13">
         <f t="shared" ref="F104:F167" si="15">F103+E104</f>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G104" s="8">
         <f t="shared" ref="G104:G167" si="16">F104</f>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H104" s="8">
         <f t="shared" ref="H104:H167" si="17">(H103+G104-G103)</f>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I104" s="15">
         <f t="shared" ref="I104:I167" si="18">H104*24*$J$2</f>
-        <v>14790.000000000005</v>
-      </c>
-    </row>
-    <row r="105" spans="3:9" x14ac:dyDescent="0.25">
+        <v>15679.666666666672</v>
+      </c>
+    </row>
+    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C105" s="2"/>
       <c r="D105" s="10"/>
       <c r="E105" s="12">
@@ -3615,22 +3629,22 @@
       </c>
       <c r="F105" s="13">
         <f t="shared" si="15"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G105" s="8">
         <f t="shared" si="16"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H105" s="8">
         <f t="shared" si="17"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I105" s="15">
         <f t="shared" si="18"/>
-        <v>14790.000000000005</v>
-      </c>
-    </row>
-    <row r="106" spans="3:9" x14ac:dyDescent="0.25">
+        <v>15679.666666666672</v>
+      </c>
+    </row>
+    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C106" s="2"/>
       <c r="D106" s="10"/>
       <c r="E106" s="12">
@@ -3639,22 +3653,22 @@
       </c>
       <c r="F106" s="13">
         <f t="shared" si="15"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G106" s="8">
         <f t="shared" si="16"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H106" s="8">
         <f t="shared" si="17"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I106" s="15">
         <f t="shared" si="18"/>
-        <v>14790.000000000005</v>
-      </c>
-    </row>
-    <row r="107" spans="3:9" x14ac:dyDescent="0.25">
+        <v>15679.666666666672</v>
+      </c>
+    </row>
+    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C107" s="2"/>
       <c r="D107" s="10"/>
       <c r="E107" s="12">
@@ -3663,22 +3677,22 @@
       </c>
       <c r="F107" s="13">
         <f t="shared" si="15"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G107" s="8">
         <f t="shared" si="16"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H107" s="8">
         <f t="shared" si="17"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I107" s="15">
         <f t="shared" si="18"/>
-        <v>14790.000000000005</v>
-      </c>
-    </row>
-    <row r="108" spans="3:9" x14ac:dyDescent="0.25">
+        <v>15679.666666666672</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C108" s="2"/>
       <c r="D108" s="10"/>
       <c r="E108" s="12">
@@ -3687,22 +3701,22 @@
       </c>
       <c r="F108" s="13">
         <f t="shared" si="15"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G108" s="8">
         <f t="shared" si="16"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H108" s="8">
         <f t="shared" si="17"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I108" s="15">
         <f t="shared" si="18"/>
-        <v>14790.000000000005</v>
-      </c>
-    </row>
-    <row r="109" spans="3:9" x14ac:dyDescent="0.25">
+        <v>15679.666666666672</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C109" s="2"/>
       <c r="D109" s="10"/>
       <c r="E109" s="12">
@@ -3711,22 +3725,22 @@
       </c>
       <c r="F109" s="13">
         <f t="shared" si="15"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G109" s="8">
         <f t="shared" si="16"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H109" s="8">
         <f t="shared" si="17"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I109" s="15">
         <f t="shared" si="18"/>
-        <v>14790.000000000005</v>
-      </c>
-    </row>
-    <row r="110" spans="3:9" x14ac:dyDescent="0.25">
+        <v>15679.666666666672</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C110" s="2"/>
       <c r="D110" s="10"/>
       <c r="E110" s="12">
@@ -3735,22 +3749,22 @@
       </c>
       <c r="F110" s="13">
         <f t="shared" si="15"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G110" s="8">
         <f t="shared" si="16"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H110" s="8">
         <f t="shared" si="17"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I110" s="15">
         <f t="shared" si="18"/>
-        <v>14790.000000000005</v>
-      </c>
-    </row>
-    <row r="111" spans="3:9" x14ac:dyDescent="0.25">
+        <v>15679.666666666672</v>
+      </c>
+    </row>
+    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C111" s="2"/>
       <c r="D111" s="10"/>
       <c r="E111" s="12">
@@ -3759,22 +3773,22 @@
       </c>
       <c r="F111" s="13">
         <f t="shared" si="15"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G111" s="8">
         <f t="shared" si="16"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H111" s="8">
         <f t="shared" si="17"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I111" s="15">
         <f t="shared" si="18"/>
-        <v>14790.000000000005</v>
-      </c>
-    </row>
-    <row r="112" spans="3:9" x14ac:dyDescent="0.25">
+        <v>15679.666666666672</v>
+      </c>
+    </row>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C112" s="2"/>
       <c r="D112" s="10"/>
       <c r="E112" s="12">
@@ -3783,19 +3797,19 @@
       </c>
       <c r="F112" s="13">
         <f t="shared" si="15"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G112" s="8">
         <f t="shared" si="16"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H112" s="8">
         <f t="shared" si="17"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I112" s="15">
         <f t="shared" si="18"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="113" spans="3:9" x14ac:dyDescent="0.25">
@@ -3807,19 +3821,19 @@
       </c>
       <c r="F113" s="13">
         <f t="shared" si="15"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G113" s="8">
         <f t="shared" si="16"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H113" s="8">
         <f t="shared" si="17"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I113" s="15">
         <f t="shared" si="18"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="114" spans="3:9" x14ac:dyDescent="0.25">
@@ -3831,19 +3845,19 @@
       </c>
       <c r="F114" s="13">
         <f t="shared" si="15"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G114" s="8">
         <f t="shared" si="16"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H114" s="8">
         <f t="shared" si="17"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I114" s="15">
         <f t="shared" si="18"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="115" spans="3:9" x14ac:dyDescent="0.25">
@@ -3855,19 +3869,19 @@
       </c>
       <c r="F115" s="13">
         <f t="shared" si="15"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G115" s="8">
         <f t="shared" si="16"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H115" s="8">
         <f t="shared" si="17"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I115" s="15">
         <f t="shared" si="18"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="116" spans="3:9" x14ac:dyDescent="0.25">
@@ -3879,19 +3893,19 @@
       </c>
       <c r="F116" s="13">
         <f t="shared" si="15"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G116" s="8">
         <f t="shared" si="16"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H116" s="8">
         <f t="shared" si="17"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I116" s="15">
         <f t="shared" si="18"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="117" spans="3:9" x14ac:dyDescent="0.25">
@@ -3903,19 +3917,19 @@
       </c>
       <c r="F117" s="13">
         <f t="shared" si="15"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G117" s="8">
         <f t="shared" si="16"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H117" s="8">
         <f t="shared" si="17"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I117" s="15">
         <f t="shared" si="18"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="118" spans="3:9" x14ac:dyDescent="0.25">
@@ -3927,19 +3941,19 @@
       </c>
       <c r="F118" s="13">
         <f t="shared" si="15"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G118" s="8">
         <f t="shared" si="16"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H118" s="8">
         <f t="shared" si="17"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I118" s="15">
         <f t="shared" si="18"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="119" spans="3:9" x14ac:dyDescent="0.25">
@@ -3951,19 +3965,19 @@
       </c>
       <c r="F119" s="13">
         <f t="shared" si="15"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G119" s="8">
         <f t="shared" si="16"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H119" s="8">
         <f t="shared" si="17"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I119" s="15">
         <f t="shared" si="18"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="120" spans="3:9" x14ac:dyDescent="0.25">
@@ -3975,19 +3989,19 @@
       </c>
       <c r="F120" s="13">
         <f t="shared" si="15"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G120" s="8">
         <f t="shared" si="16"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H120" s="8">
         <f t="shared" si="17"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I120" s="15">
         <f t="shared" si="18"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="121" spans="3:9" x14ac:dyDescent="0.25">
@@ -3999,19 +4013,19 @@
       </c>
       <c r="F121" s="13">
         <f t="shared" si="15"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G121" s="8">
         <f t="shared" si="16"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H121" s="8">
         <f t="shared" si="17"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I121" s="15">
         <f t="shared" si="18"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="122" spans="3:9" x14ac:dyDescent="0.25">
@@ -4023,19 +4037,19 @@
       </c>
       <c r="F122" s="13">
         <f t="shared" si="15"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G122" s="8">
         <f t="shared" si="16"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H122" s="8">
         <f t="shared" si="17"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I122" s="15">
         <f t="shared" si="18"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="123" spans="3:9" x14ac:dyDescent="0.25">
@@ -4047,19 +4061,19 @@
       </c>
       <c r="F123" s="13">
         <f t="shared" si="15"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G123" s="8">
         <f t="shared" si="16"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H123" s="8">
         <f t="shared" si="17"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I123" s="15">
         <f t="shared" si="18"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="124" spans="3:9" x14ac:dyDescent="0.25">
@@ -4071,19 +4085,19 @@
       </c>
       <c r="F124" s="13">
         <f t="shared" si="15"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G124" s="8">
         <f t="shared" si="16"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H124" s="8">
         <f t="shared" si="17"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I124" s="15">
         <f t="shared" si="18"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="125" spans="3:9" x14ac:dyDescent="0.25">
@@ -4095,19 +4109,19 @@
       </c>
       <c r="F125" s="13">
         <f t="shared" si="15"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G125" s="8">
         <f t="shared" si="16"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H125" s="8">
         <f t="shared" si="17"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I125" s="15">
         <f t="shared" si="18"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="126" spans="3:9" x14ac:dyDescent="0.25">
@@ -4119,19 +4133,19 @@
       </c>
       <c r="F126" s="13">
         <f t="shared" si="15"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G126" s="8">
         <f t="shared" si="16"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H126" s="8">
         <f t="shared" si="17"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I126" s="15">
         <f t="shared" si="18"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="127" spans="3:9" x14ac:dyDescent="0.25">
@@ -4143,19 +4157,19 @@
       </c>
       <c r="F127" s="13">
         <f t="shared" si="15"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G127" s="8">
         <f t="shared" si="16"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H127" s="8">
         <f t="shared" si="17"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I127" s="15">
         <f t="shared" si="18"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="128" spans="3:9" x14ac:dyDescent="0.25">
@@ -4167,19 +4181,19 @@
       </c>
       <c r="F128" s="13">
         <f t="shared" si="15"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G128" s="8">
         <f t="shared" si="16"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H128" s="8">
         <f t="shared" si="17"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I128" s="15">
         <f t="shared" si="18"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="129" spans="3:9" x14ac:dyDescent="0.25">
@@ -4191,19 +4205,19 @@
       </c>
       <c r="F129" s="13">
         <f t="shared" si="15"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G129" s="8">
         <f t="shared" si="16"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H129" s="8">
         <f t="shared" si="17"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I129" s="15">
         <f t="shared" si="18"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="130" spans="3:9" x14ac:dyDescent="0.25">
@@ -4215,19 +4229,19 @@
       </c>
       <c r="F130" s="13">
         <f t="shared" si="15"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G130" s="8">
         <f t="shared" si="16"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H130" s="8">
         <f t="shared" si="17"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I130" s="15">
         <f t="shared" si="18"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="131" spans="3:9" x14ac:dyDescent="0.25">
@@ -4239,19 +4253,19 @@
       </c>
       <c r="F131" s="13">
         <f t="shared" si="15"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G131" s="8">
         <f t="shared" si="16"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H131" s="8">
         <f t="shared" si="17"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I131" s="15">
         <f t="shared" si="18"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="132" spans="3:9" x14ac:dyDescent="0.25">
@@ -4263,19 +4277,19 @@
       </c>
       <c r="F132" s="13">
         <f t="shared" si="15"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G132" s="8">
         <f t="shared" si="16"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H132" s="8">
         <f t="shared" si="17"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I132" s="15">
         <f t="shared" si="18"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="133" spans="3:9" x14ac:dyDescent="0.25">
@@ -4287,19 +4301,19 @@
       </c>
       <c r="F133" s="13">
         <f t="shared" si="15"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G133" s="8">
         <f t="shared" si="16"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H133" s="8">
         <f t="shared" si="17"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I133" s="15">
         <f t="shared" si="18"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="134" spans="3:9" x14ac:dyDescent="0.25">
@@ -4311,19 +4325,19 @@
       </c>
       <c r="F134" s="13">
         <f t="shared" si="15"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G134" s="8">
         <f t="shared" si="16"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H134" s="8">
         <f t="shared" si="17"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I134" s="15">
         <f t="shared" si="18"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="135" spans="3:9" x14ac:dyDescent="0.25">
@@ -4335,19 +4349,19 @@
       </c>
       <c r="F135" s="13">
         <f t="shared" si="15"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G135" s="8">
         <f t="shared" si="16"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H135" s="8">
         <f t="shared" si="17"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I135" s="15">
         <f t="shared" si="18"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="136" spans="3:9" x14ac:dyDescent="0.25">
@@ -4359,19 +4373,19 @@
       </c>
       <c r="F136" s="13">
         <f t="shared" si="15"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G136" s="8">
         <f t="shared" si="16"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H136" s="8">
         <f t="shared" si="17"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I136" s="15">
         <f t="shared" si="18"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="137" spans="3:9" x14ac:dyDescent="0.25">
@@ -4383,19 +4397,19 @@
       </c>
       <c r="F137" s="13">
         <f t="shared" si="15"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G137" s="8">
         <f t="shared" si="16"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H137" s="8">
         <f t="shared" si="17"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I137" s="15">
         <f t="shared" si="18"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="138" spans="3:9" x14ac:dyDescent="0.25">
@@ -4407,19 +4421,19 @@
       </c>
       <c r="F138" s="13">
         <f t="shared" si="15"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G138" s="8">
         <f t="shared" si="16"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H138" s="8">
         <f t="shared" si="17"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I138" s="15">
         <f t="shared" si="18"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="139" spans="3:9" x14ac:dyDescent="0.25">
@@ -4431,19 +4445,19 @@
       </c>
       <c r="F139" s="13">
         <f t="shared" si="15"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G139" s="8">
         <f t="shared" si="16"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H139" s="8">
         <f t="shared" si="17"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I139" s="15">
         <f t="shared" si="18"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="140" spans="3:9" x14ac:dyDescent="0.25">
@@ -4455,19 +4469,19 @@
       </c>
       <c r="F140" s="13">
         <f t="shared" si="15"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G140" s="8">
         <f t="shared" si="16"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H140" s="8">
         <f t="shared" si="17"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I140" s="15">
         <f t="shared" si="18"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="141" spans="3:9" x14ac:dyDescent="0.25">
@@ -4479,19 +4493,19 @@
       </c>
       <c r="F141" s="13">
         <f t="shared" si="15"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G141" s="8">
         <f t="shared" si="16"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H141" s="8">
         <f t="shared" si="17"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I141" s="15">
         <f t="shared" si="18"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="142" spans="3:9" x14ac:dyDescent="0.25">
@@ -4503,19 +4517,19 @@
       </c>
       <c r="F142" s="13">
         <f t="shared" si="15"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G142" s="8">
         <f t="shared" si="16"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H142" s="8">
         <f t="shared" si="17"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I142" s="15">
         <f t="shared" si="18"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="143" spans="3:9" x14ac:dyDescent="0.25">
@@ -4527,19 +4541,19 @@
       </c>
       <c r="F143" s="13">
         <f t="shared" si="15"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G143" s="8">
         <f t="shared" si="16"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H143" s="8">
         <f t="shared" si="17"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I143" s="15">
         <f t="shared" si="18"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="144" spans="3:9" x14ac:dyDescent="0.25">
@@ -4551,19 +4565,19 @@
       </c>
       <c r="F144" s="13">
         <f t="shared" si="15"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G144" s="8">
         <f t="shared" si="16"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H144" s="8">
         <f t="shared" si="17"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I144" s="15">
         <f t="shared" si="18"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="145" spans="3:9" x14ac:dyDescent="0.25">
@@ -4575,19 +4589,19 @@
       </c>
       <c r="F145" s="13">
         <f t="shared" si="15"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G145" s="8">
         <f t="shared" si="16"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H145" s="8">
         <f t="shared" si="17"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I145" s="15">
         <f t="shared" si="18"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="146" spans="3:9" x14ac:dyDescent="0.25">
@@ -4599,19 +4613,19 @@
       </c>
       <c r="F146" s="13">
         <f t="shared" si="15"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G146" s="8">
         <f t="shared" si="16"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H146" s="8">
         <f t="shared" si="17"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I146" s="15">
         <f t="shared" si="18"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="147" spans="3:9" x14ac:dyDescent="0.25">
@@ -4623,19 +4637,19 @@
       </c>
       <c r="F147" s="13">
         <f t="shared" si="15"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G147" s="8">
         <f t="shared" si="16"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H147" s="8">
         <f t="shared" si="17"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I147" s="15">
         <f t="shared" si="18"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="148" spans="3:9" x14ac:dyDescent="0.25">
@@ -4647,19 +4661,19 @@
       </c>
       <c r="F148" s="13">
         <f t="shared" si="15"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G148" s="8">
         <f t="shared" si="16"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H148" s="8">
         <f t="shared" si="17"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I148" s="15">
         <f t="shared" si="18"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="149" spans="3:9" x14ac:dyDescent="0.25">
@@ -4671,19 +4685,19 @@
       </c>
       <c r="F149" s="13">
         <f t="shared" si="15"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G149" s="8">
         <f t="shared" si="16"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H149" s="8">
         <f t="shared" si="17"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I149" s="15">
         <f t="shared" si="18"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="150" spans="3:9" x14ac:dyDescent="0.25">
@@ -4695,19 +4709,19 @@
       </c>
       <c r="F150" s="13">
         <f t="shared" si="15"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G150" s="8">
         <f t="shared" si="16"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H150" s="8">
         <f t="shared" si="17"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I150" s="15">
         <f t="shared" si="18"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="151" spans="3:9" x14ac:dyDescent="0.25">
@@ -4719,19 +4733,19 @@
       </c>
       <c r="F151" s="13">
         <f t="shared" si="15"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G151" s="8">
         <f t="shared" si="16"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H151" s="8">
         <f t="shared" si="17"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I151" s="15">
         <f t="shared" si="18"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="152" spans="3:9" x14ac:dyDescent="0.25">
@@ -4743,19 +4757,19 @@
       </c>
       <c r="F152" s="13">
         <f t="shared" si="15"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G152" s="8">
         <f t="shared" si="16"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H152" s="8">
         <f t="shared" si="17"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I152" s="15">
         <f t="shared" si="18"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="153" spans="3:9" x14ac:dyDescent="0.25">
@@ -4767,19 +4781,19 @@
       </c>
       <c r="F153" s="13">
         <f t="shared" si="15"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G153" s="8">
         <f t="shared" si="16"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H153" s="8">
         <f t="shared" si="17"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I153" s="15">
         <f t="shared" si="18"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="154" spans="3:9" x14ac:dyDescent="0.25">
@@ -4791,19 +4805,19 @@
       </c>
       <c r="F154" s="13">
         <f t="shared" si="15"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G154" s="8">
         <f t="shared" si="16"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H154" s="8">
         <f t="shared" si="17"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I154" s="15">
         <f t="shared" si="18"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="155" spans="3:9" x14ac:dyDescent="0.25">
@@ -4815,19 +4829,19 @@
       </c>
       <c r="F155" s="13">
         <f t="shared" si="15"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G155" s="8">
         <f t="shared" si="16"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H155" s="8">
         <f t="shared" si="17"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I155" s="15">
         <f t="shared" si="18"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="156" spans="3:9" x14ac:dyDescent="0.25">
@@ -4839,19 +4853,19 @@
       </c>
       <c r="F156" s="13">
         <f t="shared" si="15"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G156" s="8">
         <f t="shared" si="16"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H156" s="8">
         <f t="shared" si="17"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I156" s="15">
         <f t="shared" si="18"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="157" spans="3:9" x14ac:dyDescent="0.25">
@@ -4863,19 +4877,19 @@
       </c>
       <c r="F157" s="13">
         <f t="shared" si="15"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G157" s="8">
         <f t="shared" si="16"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H157" s="8">
         <f t="shared" si="17"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I157" s="15">
         <f t="shared" si="18"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="158" spans="3:9" x14ac:dyDescent="0.25">
@@ -4887,19 +4901,19 @@
       </c>
       <c r="F158" s="13">
         <f t="shared" si="15"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G158" s="8">
         <f t="shared" si="16"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H158" s="8">
         <f t="shared" si="17"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I158" s="15">
         <f t="shared" si="18"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="159" spans="3:9" x14ac:dyDescent="0.25">
@@ -4911,19 +4925,19 @@
       </c>
       <c r="F159" s="13">
         <f t="shared" si="15"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G159" s="8">
         <f t="shared" si="16"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H159" s="8">
         <f t="shared" si="17"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I159" s="15">
         <f t="shared" si="18"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="160" spans="3:9" x14ac:dyDescent="0.25">
@@ -4935,19 +4949,19 @@
       </c>
       <c r="F160" s="13">
         <f t="shared" si="15"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G160" s="8">
         <f t="shared" si="16"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H160" s="8">
         <f t="shared" si="17"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I160" s="15">
         <f t="shared" si="18"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="161" spans="3:9" x14ac:dyDescent="0.25">
@@ -4959,19 +4973,19 @@
       </c>
       <c r="F161" s="13">
         <f t="shared" si="15"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G161" s="8">
         <f t="shared" si="16"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H161" s="8">
         <f t="shared" si="17"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I161" s="15">
         <f t="shared" si="18"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="162" spans="3:9" x14ac:dyDescent="0.25">
@@ -4983,19 +4997,19 @@
       </c>
       <c r="F162" s="13">
         <f t="shared" si="15"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G162" s="8">
         <f t="shared" si="16"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H162" s="8">
         <f t="shared" si="17"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I162" s="15">
         <f t="shared" si="18"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="163" spans="3:9" x14ac:dyDescent="0.25">
@@ -5007,19 +5021,19 @@
       </c>
       <c r="F163" s="13">
         <f t="shared" si="15"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G163" s="8">
         <f t="shared" si="16"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H163" s="8">
         <f t="shared" si="17"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I163" s="15">
         <f t="shared" si="18"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="164" spans="3:9" x14ac:dyDescent="0.25">
@@ -5031,19 +5045,19 @@
       </c>
       <c r="F164" s="13">
         <f t="shared" si="15"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G164" s="8">
         <f t="shared" si="16"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H164" s="8">
         <f t="shared" si="17"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I164" s="15">
         <f t="shared" si="18"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="165" spans="3:9" x14ac:dyDescent="0.25">
@@ -5055,19 +5069,19 @@
       </c>
       <c r="F165" s="13">
         <f t="shared" si="15"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G165" s="8">
         <f t="shared" si="16"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H165" s="8">
         <f t="shared" si="17"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I165" s="15">
         <f t="shared" si="18"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="166" spans="3:9" x14ac:dyDescent="0.25">
@@ -5079,19 +5093,19 @@
       </c>
       <c r="F166" s="13">
         <f t="shared" si="15"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G166" s="8">
         <f t="shared" si="16"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H166" s="8">
         <f t="shared" si="17"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I166" s="15">
         <f t="shared" si="18"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="167" spans="3:9" x14ac:dyDescent="0.25">
@@ -5103,19 +5117,19 @@
       </c>
       <c r="F167" s="13">
         <f t="shared" si="15"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G167" s="8">
         <f t="shared" si="16"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H167" s="8">
         <f t="shared" si="17"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I167" s="15">
         <f t="shared" si="18"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="168" spans="3:9" x14ac:dyDescent="0.25">
@@ -5127,19 +5141,19 @@
       </c>
       <c r="F168" s="13">
         <f t="shared" ref="F168:F231" si="20">F167+E168</f>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G168" s="8">
         <f t="shared" ref="G168:G231" si="21">F168</f>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H168" s="8">
         <f t="shared" ref="H168:H231" si="22">(H167+G168-G167)</f>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I168" s="15">
         <f t="shared" ref="I168:I231" si="23">H168*24*$J$2</f>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="169" spans="3:9" x14ac:dyDescent="0.25">
@@ -5151,19 +5165,19 @@
       </c>
       <c r="F169" s="13">
         <f t="shared" si="20"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G169" s="8">
         <f t="shared" si="21"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H169" s="8">
         <f t="shared" si="22"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I169" s="15">
         <f t="shared" si="23"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="170" spans="3:9" x14ac:dyDescent="0.25">
@@ -5175,19 +5189,19 @@
       </c>
       <c r="F170" s="13">
         <f t="shared" si="20"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G170" s="8">
         <f t="shared" si="21"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H170" s="8">
         <f t="shared" si="22"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I170" s="15">
         <f t="shared" si="23"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="171" spans="3:9" x14ac:dyDescent="0.25">
@@ -5199,19 +5213,19 @@
       </c>
       <c r="F171" s="13">
         <f t="shared" si="20"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G171" s="8">
         <f t="shared" si="21"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H171" s="8">
         <f t="shared" si="22"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I171" s="15">
         <f t="shared" si="23"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="172" spans="3:9" x14ac:dyDescent="0.25">
@@ -5223,19 +5237,19 @@
       </c>
       <c r="F172" s="13">
         <f t="shared" si="20"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G172" s="8">
         <f t="shared" si="21"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H172" s="8">
         <f t="shared" si="22"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I172" s="15">
         <f t="shared" si="23"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="173" spans="3:9" x14ac:dyDescent="0.25">
@@ -5247,19 +5261,19 @@
       </c>
       <c r="F173" s="13">
         <f t="shared" si="20"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G173" s="8">
         <f t="shared" si="21"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H173" s="8">
         <f t="shared" si="22"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I173" s="15">
         <f t="shared" si="23"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="174" spans="3:9" x14ac:dyDescent="0.25">
@@ -5271,19 +5285,19 @@
       </c>
       <c r="F174" s="13">
         <f t="shared" si="20"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G174" s="8">
         <f t="shared" si="21"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H174" s="8">
         <f t="shared" si="22"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I174" s="15">
         <f t="shared" si="23"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="175" spans="3:9" x14ac:dyDescent="0.25">
@@ -5295,19 +5309,19 @@
       </c>
       <c r="F175" s="13">
         <f t="shared" si="20"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G175" s="8">
         <f t="shared" si="21"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H175" s="8">
         <f t="shared" si="22"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I175" s="15">
         <f t="shared" si="23"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="176" spans="3:9" x14ac:dyDescent="0.25">
@@ -5319,19 +5333,19 @@
       </c>
       <c r="F176" s="13">
         <f t="shared" si="20"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G176" s="8">
         <f t="shared" si="21"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H176" s="8">
         <f t="shared" si="22"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I176" s="15">
         <f t="shared" si="23"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="177" spans="3:9" x14ac:dyDescent="0.25">
@@ -5343,19 +5357,19 @@
       </c>
       <c r="F177" s="13">
         <f t="shared" si="20"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G177" s="8">
         <f t="shared" si="21"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H177" s="8">
         <f t="shared" si="22"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I177" s="15">
         <f t="shared" si="23"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="178" spans="3:9" x14ac:dyDescent="0.25">
@@ -5367,19 +5381,19 @@
       </c>
       <c r="F178" s="13">
         <f t="shared" si="20"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G178" s="8">
         <f t="shared" si="21"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H178" s="8">
         <f t="shared" si="22"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I178" s="15">
         <f t="shared" si="23"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="179" spans="3:9" x14ac:dyDescent="0.25">
@@ -5391,19 +5405,19 @@
       </c>
       <c r="F179" s="13">
         <f t="shared" si="20"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G179" s="8">
         <f t="shared" si="21"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H179" s="8">
         <f t="shared" si="22"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I179" s="15">
         <f t="shared" si="23"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="180" spans="3:9" x14ac:dyDescent="0.25">
@@ -5415,19 +5429,19 @@
       </c>
       <c r="F180" s="13">
         <f t="shared" si="20"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G180" s="8">
         <f t="shared" si="21"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H180" s="8">
         <f t="shared" si="22"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I180" s="15">
         <f t="shared" si="23"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="181" spans="3:9" x14ac:dyDescent="0.25">
@@ -5439,19 +5453,19 @@
       </c>
       <c r="F181" s="13">
         <f t="shared" si="20"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G181" s="8">
         <f t="shared" si="21"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H181" s="8">
         <f t="shared" si="22"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I181" s="15">
         <f t="shared" si="23"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="182" spans="3:9" x14ac:dyDescent="0.25">
@@ -5463,19 +5477,19 @@
       </c>
       <c r="F182" s="13">
         <f t="shared" si="20"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G182" s="8">
         <f t="shared" si="21"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H182" s="8">
         <f t="shared" si="22"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I182" s="15">
         <f t="shared" si="23"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="183" spans="3:9" x14ac:dyDescent="0.25">
@@ -5487,19 +5501,19 @@
       </c>
       <c r="F183" s="13">
         <f t="shared" si="20"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G183" s="8">
         <f t="shared" si="21"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H183" s="8">
         <f t="shared" si="22"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I183" s="15">
         <f t="shared" si="23"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="184" spans="3:9" x14ac:dyDescent="0.25">
@@ -5511,19 +5525,19 @@
       </c>
       <c r="F184" s="13">
         <f t="shared" si="20"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G184" s="8">
         <f t="shared" si="21"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H184" s="8">
         <f t="shared" si="22"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I184" s="15">
         <f t="shared" si="23"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="185" spans="3:9" x14ac:dyDescent="0.25">
@@ -5535,19 +5549,19 @@
       </c>
       <c r="F185" s="13">
         <f t="shared" si="20"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G185" s="8">
         <f t="shared" si="21"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H185" s="8">
         <f t="shared" si="22"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I185" s="15">
         <f t="shared" si="23"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="186" spans="3:9" x14ac:dyDescent="0.25">
@@ -5559,19 +5573,19 @@
       </c>
       <c r="F186" s="13">
         <f t="shared" si="20"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G186" s="8">
         <f t="shared" si="21"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H186" s="8">
         <f t="shared" si="22"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I186" s="15">
         <f t="shared" si="23"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="187" spans="3:9" x14ac:dyDescent="0.25">
@@ -5583,19 +5597,19 @@
       </c>
       <c r="F187" s="13">
         <f t="shared" si="20"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G187" s="8">
         <f t="shared" si="21"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H187" s="8">
         <f t="shared" si="22"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I187" s="15">
         <f t="shared" si="23"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="188" spans="3:9" x14ac:dyDescent="0.25">
@@ -5607,19 +5621,19 @@
       </c>
       <c r="F188" s="13">
         <f t="shared" si="20"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G188" s="8">
         <f t="shared" si="21"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H188" s="8">
         <f t="shared" si="22"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I188" s="15">
         <f t="shared" si="23"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="189" spans="3:9" x14ac:dyDescent="0.25">
@@ -5631,19 +5645,19 @@
       </c>
       <c r="F189" s="13">
         <f t="shared" si="20"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G189" s="8">
         <f t="shared" si="21"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H189" s="8">
         <f t="shared" si="22"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I189" s="15">
         <f t="shared" si="23"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="190" spans="3:9" x14ac:dyDescent="0.25">
@@ -5655,19 +5669,19 @@
       </c>
       <c r="F190" s="13">
         <f t="shared" si="20"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G190" s="8">
         <f t="shared" si="21"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H190" s="8">
         <f t="shared" si="22"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I190" s="15">
         <f t="shared" si="23"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="191" spans="3:9" x14ac:dyDescent="0.25">
@@ -5679,19 +5693,19 @@
       </c>
       <c r="F191" s="13">
         <f t="shared" si="20"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G191" s="8">
         <f t="shared" si="21"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H191" s="8">
         <f t="shared" si="22"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I191" s="15">
         <f t="shared" si="23"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="192" spans="3:9" x14ac:dyDescent="0.25">
@@ -5703,19 +5717,19 @@
       </c>
       <c r="F192" s="13">
         <f t="shared" si="20"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G192" s="8">
         <f t="shared" si="21"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H192" s="8">
         <f t="shared" si="22"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I192" s="15">
         <f t="shared" si="23"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="193" spans="3:9" x14ac:dyDescent="0.25">
@@ -5727,19 +5741,19 @@
       </c>
       <c r="F193" s="13">
         <f t="shared" si="20"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G193" s="8">
         <f t="shared" si="21"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H193" s="8">
         <f t="shared" si="22"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I193" s="15">
         <f t="shared" si="23"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="194" spans="3:9" x14ac:dyDescent="0.25">
@@ -5751,19 +5765,19 @@
       </c>
       <c r="F194" s="13">
         <f t="shared" si="20"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G194" s="8">
         <f t="shared" si="21"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H194" s="8">
         <f t="shared" si="22"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I194" s="15">
         <f t="shared" si="23"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="195" spans="3:9" x14ac:dyDescent="0.25">
@@ -5775,19 +5789,19 @@
       </c>
       <c r="F195" s="13">
         <f t="shared" si="20"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G195" s="8">
         <f t="shared" si="21"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H195" s="8">
         <f t="shared" si="22"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I195" s="15">
         <f t="shared" si="23"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="196" spans="3:9" x14ac:dyDescent="0.25">
@@ -5799,19 +5813,19 @@
       </c>
       <c r="F196" s="13">
         <f t="shared" si="20"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G196" s="8">
         <f t="shared" si="21"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H196" s="8">
         <f t="shared" si="22"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I196" s="15">
         <f t="shared" si="23"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="197" spans="3:9" x14ac:dyDescent="0.25">
@@ -5823,19 +5837,19 @@
       </c>
       <c r="F197" s="13">
         <f t="shared" si="20"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G197" s="8">
         <f t="shared" si="21"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H197" s="8">
         <f t="shared" si="22"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I197" s="15">
         <f t="shared" si="23"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="198" spans="3:9" x14ac:dyDescent="0.25">
@@ -5847,19 +5861,19 @@
       </c>
       <c r="F198" s="13">
         <f t="shared" si="20"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G198" s="8">
         <f t="shared" si="21"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H198" s="8">
         <f t="shared" si="22"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I198" s="15">
         <f t="shared" si="23"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="199" spans="3:9" x14ac:dyDescent="0.25">
@@ -5871,19 +5885,19 @@
       </c>
       <c r="F199" s="13">
         <f t="shared" si="20"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G199" s="8">
         <f t="shared" si="21"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H199" s="8">
         <f t="shared" si="22"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I199" s="15">
         <f t="shared" si="23"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="200" spans="3:9" x14ac:dyDescent="0.25">
@@ -5895,19 +5909,19 @@
       </c>
       <c r="F200" s="13">
         <f t="shared" si="20"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G200" s="8">
         <f t="shared" si="21"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H200" s="8">
         <f t="shared" si="22"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I200" s="15">
         <f t="shared" si="23"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="201" spans="3:9" x14ac:dyDescent="0.25">
@@ -5919,19 +5933,19 @@
       </c>
       <c r="F201" s="13">
         <f t="shared" si="20"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G201" s="8">
         <f t="shared" si="21"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H201" s="8">
         <f t="shared" si="22"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I201" s="15">
         <f t="shared" si="23"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="202" spans="3:9" x14ac:dyDescent="0.25">
@@ -5943,19 +5957,19 @@
       </c>
       <c r="F202" s="13">
         <f t="shared" si="20"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G202" s="8">
         <f t="shared" si="21"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H202" s="8">
         <f t="shared" si="22"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I202" s="15">
         <f t="shared" si="23"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="203" spans="3:9" x14ac:dyDescent="0.25">
@@ -5967,19 +5981,19 @@
       </c>
       <c r="F203" s="13">
         <f t="shared" si="20"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G203" s="8">
         <f t="shared" si="21"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H203" s="8">
         <f t="shared" si="22"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I203" s="15">
         <f t="shared" si="23"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="204" spans="3:9" x14ac:dyDescent="0.25">
@@ -5991,19 +6005,19 @@
       </c>
       <c r="F204" s="13">
         <f t="shared" si="20"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G204" s="8">
         <f t="shared" si="21"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H204" s="8">
         <f t="shared" si="22"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I204" s="15">
         <f t="shared" si="23"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="205" spans="3:9" x14ac:dyDescent="0.25">
@@ -6015,19 +6029,19 @@
       </c>
       <c r="F205" s="13">
         <f t="shared" si="20"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G205" s="8">
         <f t="shared" si="21"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H205" s="8">
         <f t="shared" si="22"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I205" s="15">
         <f t="shared" si="23"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="206" spans="3:9" x14ac:dyDescent="0.25">
@@ -6039,19 +6053,19 @@
       </c>
       <c r="F206" s="13">
         <f t="shared" si="20"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G206" s="8">
         <f t="shared" si="21"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H206" s="8">
         <f t="shared" si="22"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I206" s="15">
         <f t="shared" si="23"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="207" spans="3:9" x14ac:dyDescent="0.25">
@@ -6063,19 +6077,19 @@
       </c>
       <c r="F207" s="13">
         <f t="shared" si="20"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G207" s="8">
         <f t="shared" si="21"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H207" s="8">
         <f t="shared" si="22"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I207" s="15">
         <f t="shared" si="23"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="208" spans="3:9" x14ac:dyDescent="0.25">
@@ -6087,19 +6101,19 @@
       </c>
       <c r="F208" s="13">
         <f t="shared" si="20"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G208" s="8">
         <f t="shared" si="21"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H208" s="8">
         <f t="shared" si="22"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I208" s="15">
         <f t="shared" si="23"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="209" spans="3:9" x14ac:dyDescent="0.25">
@@ -6111,19 +6125,19 @@
       </c>
       <c r="F209" s="13">
         <f t="shared" si="20"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G209" s="8">
         <f t="shared" si="21"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H209" s="8">
         <f t="shared" si="22"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I209" s="15">
         <f t="shared" si="23"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="210" spans="3:9" x14ac:dyDescent="0.25">
@@ -6135,19 +6149,19 @@
       </c>
       <c r="F210" s="13">
         <f t="shared" si="20"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G210" s="8">
         <f t="shared" si="21"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H210" s="8">
         <f t="shared" si="22"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I210" s="15">
         <f t="shared" si="23"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="211" spans="3:9" x14ac:dyDescent="0.25">
@@ -6159,19 +6173,19 @@
       </c>
       <c r="F211" s="13">
         <f t="shared" si="20"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G211" s="8">
         <f t="shared" si="21"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H211" s="8">
         <f t="shared" si="22"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I211" s="15">
         <f t="shared" si="23"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="212" spans="3:9" x14ac:dyDescent="0.25">
@@ -6183,19 +6197,19 @@
       </c>
       <c r="F212" s="13">
         <f t="shared" si="20"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G212" s="8">
         <f t="shared" si="21"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H212" s="8">
         <f t="shared" si="22"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I212" s="15">
         <f t="shared" si="23"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="213" spans="3:9" x14ac:dyDescent="0.25">
@@ -6207,19 +6221,19 @@
       </c>
       <c r="F213" s="13">
         <f t="shared" si="20"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G213" s="8">
         <f t="shared" si="21"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H213" s="8">
         <f t="shared" si="22"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I213" s="15">
         <f t="shared" si="23"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="214" spans="3:9" x14ac:dyDescent="0.25">
@@ -6231,19 +6245,19 @@
       </c>
       <c r="F214" s="13">
         <f t="shared" si="20"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G214" s="8">
         <f t="shared" si="21"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H214" s="8">
         <f t="shared" si="22"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I214" s="15">
         <f t="shared" si="23"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="215" spans="3:9" x14ac:dyDescent="0.25">
@@ -6255,19 +6269,19 @@
       </c>
       <c r="F215" s="13">
         <f t="shared" si="20"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G215" s="8">
         <f t="shared" si="21"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H215" s="8">
         <f t="shared" si="22"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I215" s="15">
         <f t="shared" si="23"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="216" spans="3:9" x14ac:dyDescent="0.25">
@@ -6279,19 +6293,19 @@
       </c>
       <c r="F216" s="13">
         <f t="shared" si="20"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G216" s="8">
         <f t="shared" si="21"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H216" s="8">
         <f t="shared" si="22"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I216" s="15">
         <f t="shared" si="23"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="217" spans="3:9" x14ac:dyDescent="0.25">
@@ -6303,19 +6317,19 @@
       </c>
       <c r="F217" s="13">
         <f t="shared" si="20"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G217" s="8">
         <f t="shared" si="21"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H217" s="8">
         <f t="shared" si="22"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I217" s="15">
         <f t="shared" si="23"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="218" spans="3:9" x14ac:dyDescent="0.25">
@@ -6327,19 +6341,19 @@
       </c>
       <c r="F218" s="13">
         <f t="shared" si="20"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G218" s="8">
         <f t="shared" si="21"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H218" s="8">
         <f t="shared" si="22"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I218" s="15">
         <f t="shared" si="23"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="219" spans="3:9" x14ac:dyDescent="0.25">
@@ -6351,19 +6365,19 @@
       </c>
       <c r="F219" s="13">
         <f t="shared" si="20"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G219" s="8">
         <f t="shared" si="21"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H219" s="8">
         <f t="shared" si="22"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I219" s="15">
         <f t="shared" si="23"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="220" spans="3:9" x14ac:dyDescent="0.25">
@@ -6375,19 +6389,19 @@
       </c>
       <c r="F220" s="13">
         <f t="shared" si="20"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G220" s="8">
         <f t="shared" si="21"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H220" s="8">
         <f t="shared" si="22"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I220" s="15">
         <f t="shared" si="23"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="221" spans="3:9" x14ac:dyDescent="0.25">
@@ -6399,19 +6413,19 @@
       </c>
       <c r="F221" s="13">
         <f t="shared" si="20"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G221" s="8">
         <f t="shared" si="21"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H221" s="8">
         <f t="shared" si="22"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I221" s="15">
         <f t="shared" si="23"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="222" spans="3:9" x14ac:dyDescent="0.25">
@@ -6423,19 +6437,19 @@
       </c>
       <c r="F222" s="13">
         <f t="shared" si="20"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G222" s="8">
         <f t="shared" si="21"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H222" s="8">
         <f t="shared" si="22"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I222" s="15">
         <f t="shared" si="23"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="223" spans="3:9" x14ac:dyDescent="0.25">
@@ -6447,19 +6461,19 @@
       </c>
       <c r="F223" s="13">
         <f t="shared" si="20"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G223" s="8">
         <f t="shared" si="21"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H223" s="8">
         <f t="shared" si="22"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I223" s="15">
         <f t="shared" si="23"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="224" spans="3:9" x14ac:dyDescent="0.25">
@@ -6471,19 +6485,19 @@
       </c>
       <c r="F224" s="13">
         <f t="shared" si="20"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G224" s="8">
         <f t="shared" si="21"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H224" s="8">
         <f t="shared" si="22"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I224" s="15">
         <f t="shared" si="23"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="225" spans="3:9" x14ac:dyDescent="0.25">
@@ -6495,19 +6509,19 @@
       </c>
       <c r="F225" s="13">
         <f t="shared" si="20"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G225" s="8">
         <f t="shared" si="21"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H225" s="8">
         <f t="shared" si="22"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I225" s="15">
         <f t="shared" si="23"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="226" spans="3:9" x14ac:dyDescent="0.25">
@@ -6519,19 +6533,19 @@
       </c>
       <c r="F226" s="13">
         <f t="shared" si="20"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G226" s="8">
         <f t="shared" si="21"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H226" s="8">
         <f t="shared" si="22"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I226" s="15">
         <f t="shared" si="23"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="227" spans="3:9" x14ac:dyDescent="0.25">
@@ -6543,19 +6557,19 @@
       </c>
       <c r="F227" s="13">
         <f t="shared" si="20"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G227" s="8">
         <f t="shared" si="21"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H227" s="8">
         <f t="shared" si="22"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I227" s="15">
         <f t="shared" si="23"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="228" spans="3:9" x14ac:dyDescent="0.25">
@@ -6567,19 +6581,19 @@
       </c>
       <c r="F228" s="13">
         <f t="shared" si="20"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G228" s="8">
         <f t="shared" si="21"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H228" s="8">
         <f t="shared" si="22"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I228" s="15">
         <f t="shared" si="23"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="229" spans="3:9" x14ac:dyDescent="0.25">
@@ -6591,19 +6605,19 @@
       </c>
       <c r="F229" s="13">
         <f t="shared" si="20"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G229" s="8">
         <f t="shared" si="21"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H229" s="8">
         <f t="shared" si="22"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I229" s="15">
         <f t="shared" si="23"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="230" spans="3:9" x14ac:dyDescent="0.25">
@@ -6615,19 +6629,19 @@
       </c>
       <c r="F230" s="13">
         <f t="shared" si="20"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G230" s="8">
         <f t="shared" si="21"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H230" s="8">
         <f t="shared" si="22"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I230" s="15">
         <f t="shared" si="23"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="231" spans="3:9" x14ac:dyDescent="0.25">
@@ -6639,19 +6653,19 @@
       </c>
       <c r="F231" s="13">
         <f t="shared" si="20"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G231" s="8">
         <f t="shared" si="21"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H231" s="8">
         <f t="shared" si="22"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I231" s="15">
         <f t="shared" si="23"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="232" spans="3:9" x14ac:dyDescent="0.25">
@@ -6663,19 +6677,19 @@
       </c>
       <c r="F232" s="13">
         <f t="shared" ref="F232:F255" si="25">F231+E232</f>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G232" s="8">
         <f t="shared" ref="G232:G255" si="26">F232</f>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H232" s="8">
         <f t="shared" ref="H232:H255" si="27">(H231+G232-G231)</f>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I232" s="15">
         <f t="shared" ref="I232:I255" si="28">H232*24*$J$2</f>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="233" spans="3:9" x14ac:dyDescent="0.25">
@@ -6687,19 +6701,19 @@
       </c>
       <c r="F233" s="13">
         <f t="shared" si="25"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G233" s="8">
         <f t="shared" si="26"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H233" s="8">
         <f t="shared" si="27"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I233" s="15">
         <f t="shared" si="28"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="234" spans="3:9" x14ac:dyDescent="0.25">
@@ -6711,19 +6725,19 @@
       </c>
       <c r="F234" s="13">
         <f t="shared" si="25"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G234" s="8">
         <f t="shared" si="26"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H234" s="8">
         <f t="shared" si="27"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I234" s="15">
         <f t="shared" si="28"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="235" spans="3:9" x14ac:dyDescent="0.25">
@@ -6735,19 +6749,19 @@
       </c>
       <c r="F235" s="13">
         <f t="shared" si="25"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G235" s="8">
         <f t="shared" si="26"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H235" s="8">
         <f t="shared" si="27"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I235" s="15">
         <f t="shared" si="28"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="236" spans="3:9" x14ac:dyDescent="0.25">
@@ -6759,19 +6773,19 @@
       </c>
       <c r="F236" s="13">
         <f t="shared" si="25"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G236" s="8">
         <f t="shared" si="26"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H236" s="8">
         <f t="shared" si="27"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I236" s="15">
         <f t="shared" si="28"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="237" spans="3:9" x14ac:dyDescent="0.25">
@@ -6783,19 +6797,19 @@
       </c>
       <c r="F237" s="13">
         <f t="shared" si="25"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G237" s="8">
         <f t="shared" si="26"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H237" s="8">
         <f t="shared" si="27"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I237" s="15">
         <f t="shared" si="28"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="238" spans="3:9" x14ac:dyDescent="0.25">
@@ -6807,19 +6821,19 @@
       </c>
       <c r="F238" s="13">
         <f t="shared" si="25"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G238" s="8">
         <f t="shared" si="26"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H238" s="8">
         <f t="shared" si="27"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I238" s="15">
         <f t="shared" si="28"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="239" spans="3:9" x14ac:dyDescent="0.25">
@@ -6831,19 +6845,19 @@
       </c>
       <c r="F239" s="13">
         <f t="shared" si="25"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G239" s="8">
         <f t="shared" si="26"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H239" s="8">
         <f t="shared" si="27"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I239" s="15">
         <f t="shared" si="28"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="240" spans="3:9" x14ac:dyDescent="0.25">
@@ -6855,19 +6869,19 @@
       </c>
       <c r="F240" s="13">
         <f t="shared" si="25"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G240" s="8">
         <f t="shared" si="26"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H240" s="8">
         <f t="shared" si="27"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I240" s="15">
         <f t="shared" si="28"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="241" spans="3:9" x14ac:dyDescent="0.25">
@@ -6879,19 +6893,19 @@
       </c>
       <c r="F241" s="13">
         <f t="shared" si="25"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G241" s="8">
         <f t="shared" si="26"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H241" s="8">
         <f t="shared" si="27"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I241" s="15">
         <f t="shared" si="28"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="242" spans="3:9" x14ac:dyDescent="0.25">
@@ -6903,19 +6917,19 @@
       </c>
       <c r="F242" s="13">
         <f t="shared" si="25"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G242" s="8">
         <f t="shared" si="26"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H242" s="8">
         <f t="shared" si="27"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I242" s="15">
         <f t="shared" si="28"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="243" spans="3:9" x14ac:dyDescent="0.25">
@@ -6927,19 +6941,19 @@
       </c>
       <c r="F243" s="13">
         <f t="shared" si="25"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G243" s="8">
         <f t="shared" si="26"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H243" s="8">
         <f t="shared" si="27"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I243" s="15">
         <f t="shared" si="28"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="244" spans="3:9" x14ac:dyDescent="0.25">
@@ -6951,19 +6965,19 @@
       </c>
       <c r="F244" s="13">
         <f t="shared" si="25"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G244" s="8">
         <f t="shared" si="26"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H244" s="8">
         <f t="shared" si="27"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I244" s="15">
         <f t="shared" si="28"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="245" spans="3:9" x14ac:dyDescent="0.25">
@@ -6975,19 +6989,19 @@
       </c>
       <c r="F245" s="13">
         <f t="shared" si="25"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G245" s="8">
         <f t="shared" si="26"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H245" s="8">
         <f t="shared" si="27"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I245" s="15">
         <f t="shared" si="28"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="246" spans="3:9" x14ac:dyDescent="0.25">
@@ -6999,19 +7013,19 @@
       </c>
       <c r="F246" s="13">
         <f t="shared" si="25"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G246" s="8">
         <f t="shared" si="26"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H246" s="8">
         <f t="shared" si="27"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I246" s="15">
         <f t="shared" si="28"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="247" spans="3:9" x14ac:dyDescent="0.25">
@@ -7023,19 +7037,19 @@
       </c>
       <c r="F247" s="13">
         <f t="shared" si="25"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G247" s="8">
         <f t="shared" si="26"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H247" s="8">
         <f t="shared" si="27"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I247" s="15">
         <f t="shared" si="28"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="248" spans="3:9" x14ac:dyDescent="0.25">
@@ -7047,19 +7061,19 @@
       </c>
       <c r="F248" s="13">
         <f t="shared" si="25"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G248" s="8">
         <f t="shared" si="26"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H248" s="8">
         <f t="shared" si="27"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I248" s="15">
         <f t="shared" si="28"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="249" spans="3:9" x14ac:dyDescent="0.25">
@@ -7071,19 +7085,19 @@
       </c>
       <c r="F249" s="13">
         <f t="shared" si="25"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G249" s="8">
         <f t="shared" si="26"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H249" s="8">
         <f t="shared" si="27"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I249" s="15">
         <f t="shared" si="28"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="250" spans="3:9" x14ac:dyDescent="0.25">
@@ -7095,19 +7109,19 @@
       </c>
       <c r="F250" s="13">
         <f t="shared" si="25"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G250" s="8">
         <f t="shared" si="26"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H250" s="8">
         <f t="shared" si="27"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I250" s="15">
         <f t="shared" si="28"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="251" spans="3:9" x14ac:dyDescent="0.25">
@@ -7119,19 +7133,19 @@
       </c>
       <c r="F251" s="13">
         <f t="shared" si="25"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G251" s="8">
         <f t="shared" si="26"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H251" s="8">
         <f t="shared" si="27"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I251" s="15">
         <f t="shared" si="28"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="252" spans="3:9" x14ac:dyDescent="0.25">
@@ -7143,19 +7157,19 @@
       </c>
       <c r="F252" s="13">
         <f t="shared" si="25"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G252" s="8">
         <f t="shared" si="26"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H252" s="8">
         <f t="shared" si="27"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I252" s="15">
         <f t="shared" si="28"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="253" spans="3:9" x14ac:dyDescent="0.25">
@@ -7167,19 +7181,19 @@
       </c>
       <c r="F253" s="13">
         <f t="shared" si="25"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G253" s="8">
         <f t="shared" si="26"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H253" s="8">
         <f t="shared" si="27"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I253" s="15">
         <f t="shared" si="28"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="254" spans="3:9" x14ac:dyDescent="0.25">
@@ -7191,19 +7205,19 @@
       </c>
       <c r="F254" s="13">
         <f t="shared" si="25"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G254" s="8">
         <f t="shared" si="26"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H254" s="8">
         <f t="shared" si="27"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I254" s="15">
         <f t="shared" si="28"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
     <row r="255" spans="3:9" x14ac:dyDescent="0.25">
@@ -7215,19 +7229,19 @@
       </c>
       <c r="F255" s="13">
         <f t="shared" si="25"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="G255" s="8">
         <f t="shared" si="26"/>
-        <v>2.4750000000000001</v>
+        <v>2.6930555555555555</v>
       </c>
       <c r="H255" s="8">
         <f t="shared" si="27"/>
-        <v>3.6250000000000013</v>
+        <v>3.8430555555555568</v>
       </c>
       <c r="I255" s="15">
         <f t="shared" si="28"/>
-        <v>14790.000000000005</v>
+        <v>15679.666666666672</v>
       </c>
     </row>
   </sheetData>

--- a/hodiny.xlsx
+++ b/hodiny.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C141620-6286-473D-AB26-F4BC4C26BBB9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0542ED50-22E9-4D70-9F28-513093B6CDCA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3120" yWindow="3120" windowWidth="28800" windowHeight="14925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>čas [min]</t>
   </si>
@@ -140,6 +140,9 @@
   </si>
   <si>
     <t>28.6.</t>
+  </si>
+  <si>
+    <t>29.6.</t>
   </si>
 </sst>
 </file>
@@ -653,8 +656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D100" sqref="D100"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D108" sqref="D108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3501,195 +3504,230 @@
       </c>
     </row>
     <row r="100" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C100" s="2"/>
-      <c r="D100" s="10"/>
+      <c r="B100" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C100" s="2">
+        <v>0.55694444444444446</v>
+      </c>
+      <c r="D100" s="10">
+        <v>0.56180555555555556</v>
+      </c>
       <c r="E100" s="12">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>4.8611111111110938E-3</v>
       </c>
       <c r="F100" s="13">
         <f t="shared" si="10"/>
-        <v>2.6930555555555555</v>
+        <v>2.6979166666666665</v>
       </c>
       <c r="G100" s="8">
         <f t="shared" si="11"/>
-        <v>2.6930555555555555</v>
+        <v>2.6979166666666665</v>
       </c>
       <c r="H100" s="8">
         <f t="shared" si="12"/>
-        <v>3.8430555555555568</v>
+        <v>3.8479166666666673</v>
       </c>
       <c r="I100" s="15">
         <f t="shared" si="13"/>
-        <v>15679.666666666672</v>
+        <v>15699.500000000004</v>
       </c>
     </row>
     <row r="101" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C101" s="2"/>
-      <c r="D101" s="10"/>
+      <c r="C101" s="2">
+        <v>0.57361111111111118</v>
+      </c>
+      <c r="D101" s="10">
+        <v>0.5805555555555556</v>
+      </c>
       <c r="E101" s="12">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>6.9444444444444198E-3</v>
       </c>
       <c r="F101" s="13">
         <f t="shared" si="10"/>
-        <v>2.6930555555555555</v>
+        <v>2.7048611111111107</v>
       </c>
       <c r="G101" s="8">
         <f t="shared" si="11"/>
-        <v>2.6930555555555555</v>
+        <v>2.7048611111111107</v>
       </c>
       <c r="H101" s="8">
         <f t="shared" si="12"/>
-        <v>3.8430555555555568</v>
+        <v>3.8548611111111115</v>
       </c>
       <c r="I101" s="15">
         <f t="shared" si="13"/>
-        <v>15679.666666666672</v>
+        <v>15727.833333333336</v>
       </c>
     </row>
     <row r="102" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C102" s="2"/>
-      <c r="D102" s="10"/>
+      <c r="C102" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D102" s="10">
+        <v>0.59236111111111112</v>
+      </c>
       <c r="E102" s="12">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>9.0277777777777457E-3</v>
       </c>
       <c r="F102" s="13">
         <f t="shared" si="10"/>
-        <v>2.6930555555555555</v>
+        <v>2.7138888888888886</v>
       </c>
       <c r="G102" s="8">
         <f t="shared" si="11"/>
-        <v>2.6930555555555555</v>
+        <v>2.7138888888888886</v>
       </c>
       <c r="H102" s="8">
         <f t="shared" si="12"/>
-        <v>3.8430555555555568</v>
+        <v>3.8638888888888889</v>
       </c>
       <c r="I102" s="15">
         <f t="shared" si="13"/>
-        <v>15679.666666666672</v>
+        <v>15764.666666666666</v>
       </c>
     </row>
     <row r="103" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C103" s="2"/>
-      <c r="D103" s="10"/>
+      <c r="C103" s="2">
+        <v>0.59861111111111109</v>
+      </c>
+      <c r="D103" s="10">
+        <v>0.63263888888888886</v>
+      </c>
       <c r="E103" s="12">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>3.4027777777777768E-2</v>
       </c>
       <c r="F103" s="13">
         <f t="shared" si="10"/>
-        <v>2.6930555555555555</v>
+        <v>2.7479166666666663</v>
       </c>
       <c r="G103" s="8">
         <f t="shared" si="11"/>
-        <v>2.6930555555555555</v>
+        <v>2.7479166666666663</v>
       </c>
       <c r="H103" s="8">
         <f t="shared" si="12"/>
-        <v>3.8430555555555568</v>
+        <v>3.8979166666666671</v>
       </c>
       <c r="I103" s="15">
         <f t="shared" si="13"/>
-        <v>15679.666666666672</v>
+        <v>15903.500000000002</v>
       </c>
     </row>
     <row r="104" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C104" s="2"/>
-      <c r="D104" s="10"/>
+      <c r="C104" s="2">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D104" s="10">
+        <v>0.75</v>
+      </c>
       <c r="E104" s="12">
         <f t="shared" ref="E104:E167" si="14">D104-C104</f>
-        <v>0</v>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="F104" s="13">
         <f t="shared" ref="F104:F167" si="15">F103+E104</f>
-        <v>2.6930555555555555</v>
+        <v>2.7687499999999998</v>
       </c>
       <c r="G104" s="8">
         <f t="shared" ref="G104:G167" si="16">F104</f>
-        <v>2.6930555555555555</v>
+        <v>2.7687499999999998</v>
       </c>
       <c r="H104" s="8">
         <f t="shared" ref="H104:H167" si="17">(H103+G104-G103)</f>
-        <v>3.8430555555555568</v>
+        <v>3.9187500000000006</v>
       </c>
       <c r="I104" s="15">
         <f t="shared" ref="I104:I167" si="18">H104*24*$J$2</f>
-        <v>15679.666666666672</v>
+        <v>15988.500000000002</v>
       </c>
     </row>
     <row r="105" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C105" s="2"/>
-      <c r="D105" s="10"/>
+      <c r="C105" s="2">
+        <v>0.76527777777777783</v>
+      </c>
+      <c r="D105" s="10">
+        <v>0.77986111111111101</v>
+      </c>
       <c r="E105" s="12">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1.4583333333333171E-2</v>
       </c>
       <c r="F105" s="13">
         <f t="shared" si="15"/>
-        <v>2.6930555555555555</v>
+        <v>2.7833333333333332</v>
       </c>
       <c r="G105" s="8">
         <f t="shared" si="16"/>
-        <v>2.6930555555555555</v>
+        <v>2.7833333333333332</v>
       </c>
       <c r="H105" s="8">
         <f t="shared" si="17"/>
-        <v>3.8430555555555568</v>
+        <v>3.9333333333333345</v>
       </c>
       <c r="I105" s="15">
         <f t="shared" si="18"/>
-        <v>15679.666666666672</v>
+        <v>16048.000000000005</v>
       </c>
     </row>
     <row r="106" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C106" s="2"/>
-      <c r="D106" s="10"/>
+      <c r="C106" s="2">
+        <v>0.79305555555555562</v>
+      </c>
+      <c r="D106" s="10">
+        <v>0.83124999999999993</v>
+      </c>
       <c r="E106" s="12">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>3.8194444444444309E-2</v>
       </c>
       <c r="F106" s="13">
         <f t="shared" si="15"/>
-        <v>2.6930555555555555</v>
+        <v>2.8215277777777774</v>
       </c>
       <c r="G106" s="8">
         <f t="shared" si="16"/>
-        <v>2.6930555555555555</v>
+        <v>2.8215277777777774</v>
       </c>
       <c r="H106" s="8">
         <f t="shared" si="17"/>
-        <v>3.8430555555555568</v>
+        <v>3.9715277777777782</v>
       </c>
       <c r="I106" s="15">
         <f t="shared" si="18"/>
-        <v>15679.666666666672</v>
+        <v>16203.833333333336</v>
       </c>
     </row>
     <row r="107" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C107" s="2"/>
-      <c r="D107" s="10"/>
+      <c r="C107" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="D107" s="10">
+        <v>0.8881944444444444</v>
+      </c>
       <c r="E107" s="12">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>3.819444444444442E-2</v>
       </c>
       <c r="F107" s="13">
         <f t="shared" si="15"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G107" s="8">
         <f t="shared" si="16"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H107" s="8">
         <f t="shared" si="17"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I107" s="15">
         <f t="shared" si="18"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="108" spans="2:9" x14ac:dyDescent="0.25">
@@ -3701,19 +3739,19 @@
       </c>
       <c r="F108" s="13">
         <f t="shared" si="15"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G108" s="8">
         <f t="shared" si="16"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H108" s="8">
         <f t="shared" si="17"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I108" s="15">
         <f t="shared" si="18"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="109" spans="2:9" x14ac:dyDescent="0.25">
@@ -3725,19 +3763,19 @@
       </c>
       <c r="F109" s="13">
         <f t="shared" si="15"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G109" s="8">
         <f t="shared" si="16"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H109" s="8">
         <f t="shared" si="17"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I109" s="15">
         <f t="shared" si="18"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="110" spans="2:9" x14ac:dyDescent="0.25">
@@ -3749,19 +3787,19 @@
       </c>
       <c r="F110" s="13">
         <f t="shared" si="15"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G110" s="8">
         <f t="shared" si="16"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H110" s="8">
         <f t="shared" si="17"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I110" s="15">
         <f t="shared" si="18"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="111" spans="2:9" x14ac:dyDescent="0.25">
@@ -3773,19 +3811,19 @@
       </c>
       <c r="F111" s="13">
         <f t="shared" si="15"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G111" s="8">
         <f t="shared" si="16"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H111" s="8">
         <f t="shared" si="17"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I111" s="15">
         <f t="shared" si="18"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="112" spans="2:9" x14ac:dyDescent="0.25">
@@ -3797,19 +3835,19 @@
       </c>
       <c r="F112" s="13">
         <f t="shared" si="15"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G112" s="8">
         <f t="shared" si="16"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H112" s="8">
         <f t="shared" si="17"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I112" s="15">
         <f t="shared" si="18"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="113" spans="3:9" x14ac:dyDescent="0.25">
@@ -3821,19 +3859,19 @@
       </c>
       <c r="F113" s="13">
         <f t="shared" si="15"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G113" s="8">
         <f t="shared" si="16"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H113" s="8">
         <f t="shared" si="17"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I113" s="15">
         <f t="shared" si="18"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="114" spans="3:9" x14ac:dyDescent="0.25">
@@ -3845,19 +3883,19 @@
       </c>
       <c r="F114" s="13">
         <f t="shared" si="15"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G114" s="8">
         <f t="shared" si="16"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H114" s="8">
         <f t="shared" si="17"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I114" s="15">
         <f t="shared" si="18"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="115" spans="3:9" x14ac:dyDescent="0.25">
@@ -3869,19 +3907,19 @@
       </c>
       <c r="F115" s="13">
         <f t="shared" si="15"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G115" s="8">
         <f t="shared" si="16"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H115" s="8">
         <f t="shared" si="17"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I115" s="15">
         <f t="shared" si="18"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="116" spans="3:9" x14ac:dyDescent="0.25">
@@ -3893,19 +3931,19 @@
       </c>
       <c r="F116" s="13">
         <f t="shared" si="15"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G116" s="8">
         <f t="shared" si="16"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H116" s="8">
         <f t="shared" si="17"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I116" s="15">
         <f t="shared" si="18"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="117" spans="3:9" x14ac:dyDescent="0.25">
@@ -3917,19 +3955,19 @@
       </c>
       <c r="F117" s="13">
         <f t="shared" si="15"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G117" s="8">
         <f t="shared" si="16"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H117" s="8">
         <f t="shared" si="17"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I117" s="15">
         <f t="shared" si="18"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="118" spans="3:9" x14ac:dyDescent="0.25">
@@ -3941,19 +3979,19 @@
       </c>
       <c r="F118" s="13">
         <f t="shared" si="15"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G118" s="8">
         <f t="shared" si="16"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H118" s="8">
         <f t="shared" si="17"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I118" s="15">
         <f t="shared" si="18"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="119" spans="3:9" x14ac:dyDescent="0.25">
@@ -3965,19 +4003,19 @@
       </c>
       <c r="F119" s="13">
         <f t="shared" si="15"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G119" s="8">
         <f t="shared" si="16"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H119" s="8">
         <f t="shared" si="17"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I119" s="15">
         <f t="shared" si="18"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="120" spans="3:9" x14ac:dyDescent="0.25">
@@ -3989,19 +4027,19 @@
       </c>
       <c r="F120" s="13">
         <f t="shared" si="15"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G120" s="8">
         <f t="shared" si="16"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H120" s="8">
         <f t="shared" si="17"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I120" s="15">
         <f t="shared" si="18"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="121" spans="3:9" x14ac:dyDescent="0.25">
@@ -4013,19 +4051,19 @@
       </c>
       <c r="F121" s="13">
         <f t="shared" si="15"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G121" s="8">
         <f t="shared" si="16"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H121" s="8">
         <f t="shared" si="17"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I121" s="15">
         <f t="shared" si="18"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="122" spans="3:9" x14ac:dyDescent="0.25">
@@ -4037,19 +4075,19 @@
       </c>
       <c r="F122" s="13">
         <f t="shared" si="15"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G122" s="8">
         <f t="shared" si="16"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H122" s="8">
         <f t="shared" si="17"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I122" s="15">
         <f t="shared" si="18"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="123" spans="3:9" x14ac:dyDescent="0.25">
@@ -4061,19 +4099,19 @@
       </c>
       <c r="F123" s="13">
         <f t="shared" si="15"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G123" s="8">
         <f t="shared" si="16"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H123" s="8">
         <f t="shared" si="17"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I123" s="15">
         <f t="shared" si="18"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="124" spans="3:9" x14ac:dyDescent="0.25">
@@ -4085,19 +4123,19 @@
       </c>
       <c r="F124" s="13">
         <f t="shared" si="15"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G124" s="8">
         <f t="shared" si="16"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H124" s="8">
         <f t="shared" si="17"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I124" s="15">
         <f t="shared" si="18"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="125" spans="3:9" x14ac:dyDescent="0.25">
@@ -4109,19 +4147,19 @@
       </c>
       <c r="F125" s="13">
         <f t="shared" si="15"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G125" s="8">
         <f t="shared" si="16"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H125" s="8">
         <f t="shared" si="17"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I125" s="15">
         <f t="shared" si="18"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="126" spans="3:9" x14ac:dyDescent="0.25">
@@ -4133,19 +4171,19 @@
       </c>
       <c r="F126" s="13">
         <f t="shared" si="15"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G126" s="8">
         <f t="shared" si="16"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H126" s="8">
         <f t="shared" si="17"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I126" s="15">
         <f t="shared" si="18"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="127" spans="3:9" x14ac:dyDescent="0.25">
@@ -4157,19 +4195,19 @@
       </c>
       <c r="F127" s="13">
         <f t="shared" si="15"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G127" s="8">
         <f t="shared" si="16"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H127" s="8">
         <f t="shared" si="17"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I127" s="15">
         <f t="shared" si="18"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="128" spans="3:9" x14ac:dyDescent="0.25">
@@ -4181,19 +4219,19 @@
       </c>
       <c r="F128" s="13">
         <f t="shared" si="15"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G128" s="8">
         <f t="shared" si="16"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H128" s="8">
         <f t="shared" si="17"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I128" s="15">
         <f t="shared" si="18"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="129" spans="3:9" x14ac:dyDescent="0.25">
@@ -4205,19 +4243,19 @@
       </c>
       <c r="F129" s="13">
         <f t="shared" si="15"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G129" s="8">
         <f t="shared" si="16"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H129" s="8">
         <f t="shared" si="17"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I129" s="15">
         <f t="shared" si="18"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="130" spans="3:9" x14ac:dyDescent="0.25">
@@ -4229,19 +4267,19 @@
       </c>
       <c r="F130" s="13">
         <f t="shared" si="15"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G130" s="8">
         <f t="shared" si="16"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H130" s="8">
         <f t="shared" si="17"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I130" s="15">
         <f t="shared" si="18"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="131" spans="3:9" x14ac:dyDescent="0.25">
@@ -4253,19 +4291,19 @@
       </c>
       <c r="F131" s="13">
         <f t="shared" si="15"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G131" s="8">
         <f t="shared" si="16"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H131" s="8">
         <f t="shared" si="17"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I131" s="15">
         <f t="shared" si="18"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="132" spans="3:9" x14ac:dyDescent="0.25">
@@ -4277,19 +4315,19 @@
       </c>
       <c r="F132" s="13">
         <f t="shared" si="15"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G132" s="8">
         <f t="shared" si="16"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H132" s="8">
         <f t="shared" si="17"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I132" s="15">
         <f t="shared" si="18"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="133" spans="3:9" x14ac:dyDescent="0.25">
@@ -4301,19 +4339,19 @@
       </c>
       <c r="F133" s="13">
         <f t="shared" si="15"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G133" s="8">
         <f t="shared" si="16"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H133" s="8">
         <f t="shared" si="17"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I133" s="15">
         <f t="shared" si="18"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="134" spans="3:9" x14ac:dyDescent="0.25">
@@ -4325,19 +4363,19 @@
       </c>
       <c r="F134" s="13">
         <f t="shared" si="15"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G134" s="8">
         <f t="shared" si="16"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H134" s="8">
         <f t="shared" si="17"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I134" s="15">
         <f t="shared" si="18"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="135" spans="3:9" x14ac:dyDescent="0.25">
@@ -4349,19 +4387,19 @@
       </c>
       <c r="F135" s="13">
         <f t="shared" si="15"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G135" s="8">
         <f t="shared" si="16"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H135" s="8">
         <f t="shared" si="17"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I135" s="15">
         <f t="shared" si="18"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="136" spans="3:9" x14ac:dyDescent="0.25">
@@ -4373,19 +4411,19 @@
       </c>
       <c r="F136" s="13">
         <f t="shared" si="15"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G136" s="8">
         <f t="shared" si="16"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H136" s="8">
         <f t="shared" si="17"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I136" s="15">
         <f t="shared" si="18"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="137" spans="3:9" x14ac:dyDescent="0.25">
@@ -4397,19 +4435,19 @@
       </c>
       <c r="F137" s="13">
         <f t="shared" si="15"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G137" s="8">
         <f t="shared" si="16"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H137" s="8">
         <f t="shared" si="17"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I137" s="15">
         <f t="shared" si="18"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="138" spans="3:9" x14ac:dyDescent="0.25">
@@ -4421,19 +4459,19 @@
       </c>
       <c r="F138" s="13">
         <f t="shared" si="15"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G138" s="8">
         <f t="shared" si="16"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H138" s="8">
         <f t="shared" si="17"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I138" s="15">
         <f t="shared" si="18"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="139" spans="3:9" x14ac:dyDescent="0.25">
@@ -4445,19 +4483,19 @@
       </c>
       <c r="F139" s="13">
         <f t="shared" si="15"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G139" s="8">
         <f t="shared" si="16"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H139" s="8">
         <f t="shared" si="17"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I139" s="15">
         <f t="shared" si="18"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="140" spans="3:9" x14ac:dyDescent="0.25">
@@ -4469,19 +4507,19 @@
       </c>
       <c r="F140" s="13">
         <f t="shared" si="15"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G140" s="8">
         <f t="shared" si="16"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H140" s="8">
         <f t="shared" si="17"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I140" s="15">
         <f t="shared" si="18"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="141" spans="3:9" x14ac:dyDescent="0.25">
@@ -4493,19 +4531,19 @@
       </c>
       <c r="F141" s="13">
         <f t="shared" si="15"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G141" s="8">
         <f t="shared" si="16"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H141" s="8">
         <f t="shared" si="17"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I141" s="15">
         <f t="shared" si="18"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="142" spans="3:9" x14ac:dyDescent="0.25">
@@ -4517,19 +4555,19 @@
       </c>
       <c r="F142" s="13">
         <f t="shared" si="15"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G142" s="8">
         <f t="shared" si="16"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H142" s="8">
         <f t="shared" si="17"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I142" s="15">
         <f t="shared" si="18"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="143" spans="3:9" x14ac:dyDescent="0.25">
@@ -4541,19 +4579,19 @@
       </c>
       <c r="F143" s="13">
         <f t="shared" si="15"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G143" s="8">
         <f t="shared" si="16"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H143" s="8">
         <f t="shared" si="17"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I143" s="15">
         <f t="shared" si="18"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="144" spans="3:9" x14ac:dyDescent="0.25">
@@ -4565,19 +4603,19 @@
       </c>
       <c r="F144" s="13">
         <f t="shared" si="15"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G144" s="8">
         <f t="shared" si="16"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H144" s="8">
         <f t="shared" si="17"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I144" s="15">
         <f t="shared" si="18"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="145" spans="3:9" x14ac:dyDescent="0.25">
@@ -4589,19 +4627,19 @@
       </c>
       <c r="F145" s="13">
         <f t="shared" si="15"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G145" s="8">
         <f t="shared" si="16"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H145" s="8">
         <f t="shared" si="17"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I145" s="15">
         <f t="shared" si="18"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="146" spans="3:9" x14ac:dyDescent="0.25">
@@ -4613,19 +4651,19 @@
       </c>
       <c r="F146" s="13">
         <f t="shared" si="15"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G146" s="8">
         <f t="shared" si="16"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H146" s="8">
         <f t="shared" si="17"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I146" s="15">
         <f t="shared" si="18"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="147" spans="3:9" x14ac:dyDescent="0.25">
@@ -4637,19 +4675,19 @@
       </c>
       <c r="F147" s="13">
         <f t="shared" si="15"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G147" s="8">
         <f t="shared" si="16"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H147" s="8">
         <f t="shared" si="17"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I147" s="15">
         <f t="shared" si="18"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="148" spans="3:9" x14ac:dyDescent="0.25">
@@ -4661,19 +4699,19 @@
       </c>
       <c r="F148" s="13">
         <f t="shared" si="15"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G148" s="8">
         <f t="shared" si="16"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H148" s="8">
         <f t="shared" si="17"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I148" s="15">
         <f t="shared" si="18"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="149" spans="3:9" x14ac:dyDescent="0.25">
@@ -4685,19 +4723,19 @@
       </c>
       <c r="F149" s="13">
         <f t="shared" si="15"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G149" s="8">
         <f t="shared" si="16"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H149" s="8">
         <f t="shared" si="17"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I149" s="15">
         <f t="shared" si="18"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="150" spans="3:9" x14ac:dyDescent="0.25">
@@ -4709,19 +4747,19 @@
       </c>
       <c r="F150" s="13">
         <f t="shared" si="15"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G150" s="8">
         <f t="shared" si="16"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H150" s="8">
         <f t="shared" si="17"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I150" s="15">
         <f t="shared" si="18"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="151" spans="3:9" x14ac:dyDescent="0.25">
@@ -4733,19 +4771,19 @@
       </c>
       <c r="F151" s="13">
         <f t="shared" si="15"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G151" s="8">
         <f t="shared" si="16"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H151" s="8">
         <f t="shared" si="17"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I151" s="15">
         <f t="shared" si="18"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="152" spans="3:9" x14ac:dyDescent="0.25">
@@ -4757,19 +4795,19 @@
       </c>
       <c r="F152" s="13">
         <f t="shared" si="15"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G152" s="8">
         <f t="shared" si="16"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H152" s="8">
         <f t="shared" si="17"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I152" s="15">
         <f t="shared" si="18"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="153" spans="3:9" x14ac:dyDescent="0.25">
@@ -4781,19 +4819,19 @@
       </c>
       <c r="F153" s="13">
         <f t="shared" si="15"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G153" s="8">
         <f t="shared" si="16"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H153" s="8">
         <f t="shared" si="17"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I153" s="15">
         <f t="shared" si="18"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="154" spans="3:9" x14ac:dyDescent="0.25">
@@ -4805,19 +4843,19 @@
       </c>
       <c r="F154" s="13">
         <f t="shared" si="15"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G154" s="8">
         <f t="shared" si="16"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H154" s="8">
         <f t="shared" si="17"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I154" s="15">
         <f t="shared" si="18"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="155" spans="3:9" x14ac:dyDescent="0.25">
@@ -4829,19 +4867,19 @@
       </c>
       <c r="F155" s="13">
         <f t="shared" si="15"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G155" s="8">
         <f t="shared" si="16"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H155" s="8">
         <f t="shared" si="17"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I155" s="15">
         <f t="shared" si="18"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="156" spans="3:9" x14ac:dyDescent="0.25">
@@ -4853,19 +4891,19 @@
       </c>
       <c r="F156" s="13">
         <f t="shared" si="15"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G156" s="8">
         <f t="shared" si="16"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H156" s="8">
         <f t="shared" si="17"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I156" s="15">
         <f t="shared" si="18"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="157" spans="3:9" x14ac:dyDescent="0.25">
@@ -4877,19 +4915,19 @@
       </c>
       <c r="F157" s="13">
         <f t="shared" si="15"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G157" s="8">
         <f t="shared" si="16"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H157" s="8">
         <f t="shared" si="17"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I157" s="15">
         <f t="shared" si="18"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="158" spans="3:9" x14ac:dyDescent="0.25">
@@ -4901,19 +4939,19 @@
       </c>
       <c r="F158" s="13">
         <f t="shared" si="15"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G158" s="8">
         <f t="shared" si="16"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H158" s="8">
         <f t="shared" si="17"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I158" s="15">
         <f t="shared" si="18"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="159" spans="3:9" x14ac:dyDescent="0.25">
@@ -4925,19 +4963,19 @@
       </c>
       <c r="F159" s="13">
         <f t="shared" si="15"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G159" s="8">
         <f t="shared" si="16"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H159" s="8">
         <f t="shared" si="17"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I159" s="15">
         <f t="shared" si="18"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="160" spans="3:9" x14ac:dyDescent="0.25">
@@ -4949,19 +4987,19 @@
       </c>
       <c r="F160" s="13">
         <f t="shared" si="15"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G160" s="8">
         <f t="shared" si="16"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H160" s="8">
         <f t="shared" si="17"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I160" s="15">
         <f t="shared" si="18"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="161" spans="3:9" x14ac:dyDescent="0.25">
@@ -4973,19 +5011,19 @@
       </c>
       <c r="F161" s="13">
         <f t="shared" si="15"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G161" s="8">
         <f t="shared" si="16"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H161" s="8">
         <f t="shared" si="17"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I161" s="15">
         <f t="shared" si="18"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="162" spans="3:9" x14ac:dyDescent="0.25">
@@ -4997,19 +5035,19 @@
       </c>
       <c r="F162" s="13">
         <f t="shared" si="15"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G162" s="8">
         <f t="shared" si="16"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H162" s="8">
         <f t="shared" si="17"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I162" s="15">
         <f t="shared" si="18"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="163" spans="3:9" x14ac:dyDescent="0.25">
@@ -5021,19 +5059,19 @@
       </c>
       <c r="F163" s="13">
         <f t="shared" si="15"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G163" s="8">
         <f t="shared" si="16"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H163" s="8">
         <f t="shared" si="17"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I163" s="15">
         <f t="shared" si="18"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="164" spans="3:9" x14ac:dyDescent="0.25">
@@ -5045,19 +5083,19 @@
       </c>
       <c r="F164" s="13">
         <f t="shared" si="15"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G164" s="8">
         <f t="shared" si="16"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H164" s="8">
         <f t="shared" si="17"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I164" s="15">
         <f t="shared" si="18"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="165" spans="3:9" x14ac:dyDescent="0.25">
@@ -5069,19 +5107,19 @@
       </c>
       <c r="F165" s="13">
         <f t="shared" si="15"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G165" s="8">
         <f t="shared" si="16"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H165" s="8">
         <f t="shared" si="17"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I165" s="15">
         <f t="shared" si="18"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="166" spans="3:9" x14ac:dyDescent="0.25">
@@ -5093,19 +5131,19 @@
       </c>
       <c r="F166" s="13">
         <f t="shared" si="15"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G166" s="8">
         <f t="shared" si="16"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H166" s="8">
         <f t="shared" si="17"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I166" s="15">
         <f t="shared" si="18"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="167" spans="3:9" x14ac:dyDescent="0.25">
@@ -5117,19 +5155,19 @@
       </c>
       <c r="F167" s="13">
         <f t="shared" si="15"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G167" s="8">
         <f t="shared" si="16"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H167" s="8">
         <f t="shared" si="17"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I167" s="15">
         <f t="shared" si="18"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="168" spans="3:9" x14ac:dyDescent="0.25">
@@ -5141,19 +5179,19 @@
       </c>
       <c r="F168" s="13">
         <f t="shared" ref="F168:F231" si="20">F167+E168</f>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G168" s="8">
         <f t="shared" ref="G168:G231" si="21">F168</f>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H168" s="8">
         <f t="shared" ref="H168:H231" si="22">(H167+G168-G167)</f>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I168" s="15">
         <f t="shared" ref="I168:I231" si="23">H168*24*$J$2</f>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="169" spans="3:9" x14ac:dyDescent="0.25">
@@ -5165,19 +5203,19 @@
       </c>
       <c r="F169" s="13">
         <f t="shared" si="20"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G169" s="8">
         <f t="shared" si="21"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H169" s="8">
         <f t="shared" si="22"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I169" s="15">
         <f t="shared" si="23"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="170" spans="3:9" x14ac:dyDescent="0.25">
@@ -5189,19 +5227,19 @@
       </c>
       <c r="F170" s="13">
         <f t="shared" si="20"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G170" s="8">
         <f t="shared" si="21"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H170" s="8">
         <f t="shared" si="22"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I170" s="15">
         <f t="shared" si="23"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="171" spans="3:9" x14ac:dyDescent="0.25">
@@ -5213,19 +5251,19 @@
       </c>
       <c r="F171" s="13">
         <f t="shared" si="20"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G171" s="8">
         <f t="shared" si="21"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H171" s="8">
         <f t="shared" si="22"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I171" s="15">
         <f t="shared" si="23"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="172" spans="3:9" x14ac:dyDescent="0.25">
@@ -5237,19 +5275,19 @@
       </c>
       <c r="F172" s="13">
         <f t="shared" si="20"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G172" s="8">
         <f t="shared" si="21"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H172" s="8">
         <f t="shared" si="22"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I172" s="15">
         <f t="shared" si="23"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="173" spans="3:9" x14ac:dyDescent="0.25">
@@ -5261,19 +5299,19 @@
       </c>
       <c r="F173" s="13">
         <f t="shared" si="20"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G173" s="8">
         <f t="shared" si="21"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H173" s="8">
         <f t="shared" si="22"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I173" s="15">
         <f t="shared" si="23"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="174" spans="3:9" x14ac:dyDescent="0.25">
@@ -5285,19 +5323,19 @@
       </c>
       <c r="F174" s="13">
         <f t="shared" si="20"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G174" s="8">
         <f t="shared" si="21"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H174" s="8">
         <f t="shared" si="22"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I174" s="15">
         <f t="shared" si="23"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="175" spans="3:9" x14ac:dyDescent="0.25">
@@ -5309,19 +5347,19 @@
       </c>
       <c r="F175" s="13">
         <f t="shared" si="20"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G175" s="8">
         <f t="shared" si="21"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H175" s="8">
         <f t="shared" si="22"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I175" s="15">
         <f t="shared" si="23"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="176" spans="3:9" x14ac:dyDescent="0.25">
@@ -5333,19 +5371,19 @@
       </c>
       <c r="F176" s="13">
         <f t="shared" si="20"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G176" s="8">
         <f t="shared" si="21"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H176" s="8">
         <f t="shared" si="22"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I176" s="15">
         <f t="shared" si="23"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="177" spans="3:9" x14ac:dyDescent="0.25">
@@ -5357,19 +5395,19 @@
       </c>
       <c r="F177" s="13">
         <f t="shared" si="20"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G177" s="8">
         <f t="shared" si="21"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H177" s="8">
         <f t="shared" si="22"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I177" s="15">
         <f t="shared" si="23"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="178" spans="3:9" x14ac:dyDescent="0.25">
@@ -5381,19 +5419,19 @@
       </c>
       <c r="F178" s="13">
         <f t="shared" si="20"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G178" s="8">
         <f t="shared" si="21"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H178" s="8">
         <f t="shared" si="22"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I178" s="15">
         <f t="shared" si="23"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="179" spans="3:9" x14ac:dyDescent="0.25">
@@ -5405,19 +5443,19 @@
       </c>
       <c r="F179" s="13">
         <f t="shared" si="20"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G179" s="8">
         <f t="shared" si="21"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H179" s="8">
         <f t="shared" si="22"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I179" s="15">
         <f t="shared" si="23"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="180" spans="3:9" x14ac:dyDescent="0.25">
@@ -5429,19 +5467,19 @@
       </c>
       <c r="F180" s="13">
         <f t="shared" si="20"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G180" s="8">
         <f t="shared" si="21"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H180" s="8">
         <f t="shared" si="22"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I180" s="15">
         <f t="shared" si="23"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="181" spans="3:9" x14ac:dyDescent="0.25">
@@ -5453,19 +5491,19 @@
       </c>
       <c r="F181" s="13">
         <f t="shared" si="20"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G181" s="8">
         <f t="shared" si="21"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H181" s="8">
         <f t="shared" si="22"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I181" s="15">
         <f t="shared" si="23"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="182" spans="3:9" x14ac:dyDescent="0.25">
@@ -5477,19 +5515,19 @@
       </c>
       <c r="F182" s="13">
         <f t="shared" si="20"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G182" s="8">
         <f t="shared" si="21"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H182" s="8">
         <f t="shared" si="22"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I182" s="15">
         <f t="shared" si="23"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="183" spans="3:9" x14ac:dyDescent="0.25">
@@ -5501,19 +5539,19 @@
       </c>
       <c r="F183" s="13">
         <f t="shared" si="20"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G183" s="8">
         <f t="shared" si="21"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H183" s="8">
         <f t="shared" si="22"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I183" s="15">
         <f t="shared" si="23"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="184" spans="3:9" x14ac:dyDescent="0.25">
@@ -5525,19 +5563,19 @@
       </c>
       <c r="F184" s="13">
         <f t="shared" si="20"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G184" s="8">
         <f t="shared" si="21"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H184" s="8">
         <f t="shared" si="22"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I184" s="15">
         <f t="shared" si="23"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="185" spans="3:9" x14ac:dyDescent="0.25">
@@ -5549,19 +5587,19 @@
       </c>
       <c r="F185" s="13">
         <f t="shared" si="20"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G185" s="8">
         <f t="shared" si="21"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H185" s="8">
         <f t="shared" si="22"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I185" s="15">
         <f t="shared" si="23"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="186" spans="3:9" x14ac:dyDescent="0.25">
@@ -5573,19 +5611,19 @@
       </c>
       <c r="F186" s="13">
         <f t="shared" si="20"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G186" s="8">
         <f t="shared" si="21"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H186" s="8">
         <f t="shared" si="22"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I186" s="15">
         <f t="shared" si="23"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="187" spans="3:9" x14ac:dyDescent="0.25">
@@ -5597,19 +5635,19 @@
       </c>
       <c r="F187" s="13">
         <f t="shared" si="20"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G187" s="8">
         <f t="shared" si="21"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H187" s="8">
         <f t="shared" si="22"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I187" s="15">
         <f t="shared" si="23"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="188" spans="3:9" x14ac:dyDescent="0.25">
@@ -5621,19 +5659,19 @@
       </c>
       <c r="F188" s="13">
         <f t="shared" si="20"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G188" s="8">
         <f t="shared" si="21"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H188" s="8">
         <f t="shared" si="22"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I188" s="15">
         <f t="shared" si="23"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="189" spans="3:9" x14ac:dyDescent="0.25">
@@ -5645,19 +5683,19 @@
       </c>
       <c r="F189" s="13">
         <f t="shared" si="20"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G189" s="8">
         <f t="shared" si="21"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H189" s="8">
         <f t="shared" si="22"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I189" s="15">
         <f t="shared" si="23"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="190" spans="3:9" x14ac:dyDescent="0.25">
@@ -5669,19 +5707,19 @@
       </c>
       <c r="F190" s="13">
         <f t="shared" si="20"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G190" s="8">
         <f t="shared" si="21"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H190" s="8">
         <f t="shared" si="22"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I190" s="15">
         <f t="shared" si="23"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="191" spans="3:9" x14ac:dyDescent="0.25">
@@ -5693,19 +5731,19 @@
       </c>
       <c r="F191" s="13">
         <f t="shared" si="20"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G191" s="8">
         <f t="shared" si="21"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H191" s="8">
         <f t="shared" si="22"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I191" s="15">
         <f t="shared" si="23"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="192" spans="3:9" x14ac:dyDescent="0.25">
@@ -5717,19 +5755,19 @@
       </c>
       <c r="F192" s="13">
         <f t="shared" si="20"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G192" s="8">
         <f t="shared" si="21"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H192" s="8">
         <f t="shared" si="22"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I192" s="15">
         <f t="shared" si="23"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="193" spans="3:9" x14ac:dyDescent="0.25">
@@ -5741,19 +5779,19 @@
       </c>
       <c r="F193" s="13">
         <f t="shared" si="20"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G193" s="8">
         <f t="shared" si="21"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H193" s="8">
         <f t="shared" si="22"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I193" s="15">
         <f t="shared" si="23"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="194" spans="3:9" x14ac:dyDescent="0.25">
@@ -5765,19 +5803,19 @@
       </c>
       <c r="F194" s="13">
         <f t="shared" si="20"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G194" s="8">
         <f t="shared" si="21"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H194" s="8">
         <f t="shared" si="22"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I194" s="15">
         <f t="shared" si="23"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="195" spans="3:9" x14ac:dyDescent="0.25">
@@ -5789,19 +5827,19 @@
       </c>
       <c r="F195" s="13">
         <f t="shared" si="20"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G195" s="8">
         <f t="shared" si="21"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H195" s="8">
         <f t="shared" si="22"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I195" s="15">
         <f t="shared" si="23"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="196" spans="3:9" x14ac:dyDescent="0.25">
@@ -5813,19 +5851,19 @@
       </c>
       <c r="F196" s="13">
         <f t="shared" si="20"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G196" s="8">
         <f t="shared" si="21"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H196" s="8">
         <f t="shared" si="22"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I196" s="15">
         <f t="shared" si="23"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="197" spans="3:9" x14ac:dyDescent="0.25">
@@ -5837,19 +5875,19 @@
       </c>
       <c r="F197" s="13">
         <f t="shared" si="20"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G197" s="8">
         <f t="shared" si="21"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H197" s="8">
         <f t="shared" si="22"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I197" s="15">
         <f t="shared" si="23"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="198" spans="3:9" x14ac:dyDescent="0.25">
@@ -5861,19 +5899,19 @@
       </c>
       <c r="F198" s="13">
         <f t="shared" si="20"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G198" s="8">
         <f t="shared" si="21"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H198" s="8">
         <f t="shared" si="22"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I198" s="15">
         <f t="shared" si="23"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="199" spans="3:9" x14ac:dyDescent="0.25">
@@ -5885,19 +5923,19 @@
       </c>
       <c r="F199" s="13">
         <f t="shared" si="20"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G199" s="8">
         <f t="shared" si="21"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H199" s="8">
         <f t="shared" si="22"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I199" s="15">
         <f t="shared" si="23"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="200" spans="3:9" x14ac:dyDescent="0.25">
@@ -5909,19 +5947,19 @@
       </c>
       <c r="F200" s="13">
         <f t="shared" si="20"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G200" s="8">
         <f t="shared" si="21"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H200" s="8">
         <f t="shared" si="22"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I200" s="15">
         <f t="shared" si="23"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="201" spans="3:9" x14ac:dyDescent="0.25">
@@ -5933,19 +5971,19 @@
       </c>
       <c r="F201" s="13">
         <f t="shared" si="20"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G201" s="8">
         <f t="shared" si="21"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H201" s="8">
         <f t="shared" si="22"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I201" s="15">
         <f t="shared" si="23"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="202" spans="3:9" x14ac:dyDescent="0.25">
@@ -5957,19 +5995,19 @@
       </c>
       <c r="F202" s="13">
         <f t="shared" si="20"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G202" s="8">
         <f t="shared" si="21"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H202" s="8">
         <f t="shared" si="22"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I202" s="15">
         <f t="shared" si="23"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="203" spans="3:9" x14ac:dyDescent="0.25">
@@ -5981,19 +6019,19 @@
       </c>
       <c r="F203" s="13">
         <f t="shared" si="20"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G203" s="8">
         <f t="shared" si="21"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H203" s="8">
         <f t="shared" si="22"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I203" s="15">
         <f t="shared" si="23"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="204" spans="3:9" x14ac:dyDescent="0.25">
@@ -6005,19 +6043,19 @@
       </c>
       <c r="F204" s="13">
         <f t="shared" si="20"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G204" s="8">
         <f t="shared" si="21"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H204" s="8">
         <f t="shared" si="22"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I204" s="15">
         <f t="shared" si="23"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="205" spans="3:9" x14ac:dyDescent="0.25">
@@ -6029,19 +6067,19 @@
       </c>
       <c r="F205" s="13">
         <f t="shared" si="20"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G205" s="8">
         <f t="shared" si="21"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H205" s="8">
         <f t="shared" si="22"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I205" s="15">
         <f t="shared" si="23"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="206" spans="3:9" x14ac:dyDescent="0.25">
@@ -6053,19 +6091,19 @@
       </c>
       <c r="F206" s="13">
         <f t="shared" si="20"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G206" s="8">
         <f t="shared" si="21"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H206" s="8">
         <f t="shared" si="22"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I206" s="15">
         <f t="shared" si="23"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="207" spans="3:9" x14ac:dyDescent="0.25">
@@ -6077,19 +6115,19 @@
       </c>
       <c r="F207" s="13">
         <f t="shared" si="20"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G207" s="8">
         <f t="shared" si="21"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H207" s="8">
         <f t="shared" si="22"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I207" s="15">
         <f t="shared" si="23"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="208" spans="3:9" x14ac:dyDescent="0.25">
@@ -6101,19 +6139,19 @@
       </c>
       <c r="F208" s="13">
         <f t="shared" si="20"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G208" s="8">
         <f t="shared" si="21"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H208" s="8">
         <f t="shared" si="22"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I208" s="15">
         <f t="shared" si="23"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="209" spans="3:9" x14ac:dyDescent="0.25">
@@ -6125,19 +6163,19 @@
       </c>
       <c r="F209" s="13">
         <f t="shared" si="20"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G209" s="8">
         <f t="shared" si="21"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H209" s="8">
         <f t="shared" si="22"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I209" s="15">
         <f t="shared" si="23"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="210" spans="3:9" x14ac:dyDescent="0.25">
@@ -6149,19 +6187,19 @@
       </c>
       <c r="F210" s="13">
         <f t="shared" si="20"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G210" s="8">
         <f t="shared" si="21"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H210" s="8">
         <f t="shared" si="22"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I210" s="15">
         <f t="shared" si="23"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="211" spans="3:9" x14ac:dyDescent="0.25">
@@ -6173,19 +6211,19 @@
       </c>
       <c r="F211" s="13">
         <f t="shared" si="20"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G211" s="8">
         <f t="shared" si="21"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H211" s="8">
         <f t="shared" si="22"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I211" s="15">
         <f t="shared" si="23"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="212" spans="3:9" x14ac:dyDescent="0.25">
@@ -6197,19 +6235,19 @@
       </c>
       <c r="F212" s="13">
         <f t="shared" si="20"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G212" s="8">
         <f t="shared" si="21"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H212" s="8">
         <f t="shared" si="22"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I212" s="15">
         <f t="shared" si="23"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="213" spans="3:9" x14ac:dyDescent="0.25">
@@ -6221,19 +6259,19 @@
       </c>
       <c r="F213" s="13">
         <f t="shared" si="20"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G213" s="8">
         <f t="shared" si="21"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H213" s="8">
         <f t="shared" si="22"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I213" s="15">
         <f t="shared" si="23"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="214" spans="3:9" x14ac:dyDescent="0.25">
@@ -6245,19 +6283,19 @@
       </c>
       <c r="F214" s="13">
         <f t="shared" si="20"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G214" s="8">
         <f t="shared" si="21"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H214" s="8">
         <f t="shared" si="22"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I214" s="15">
         <f t="shared" si="23"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="215" spans="3:9" x14ac:dyDescent="0.25">
@@ -6269,19 +6307,19 @@
       </c>
       <c r="F215" s="13">
         <f t="shared" si="20"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G215" s="8">
         <f t="shared" si="21"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H215" s="8">
         <f t="shared" si="22"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I215" s="15">
         <f t="shared" si="23"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="216" spans="3:9" x14ac:dyDescent="0.25">
@@ -6293,19 +6331,19 @@
       </c>
       <c r="F216" s="13">
         <f t="shared" si="20"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G216" s="8">
         <f t="shared" si="21"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H216" s="8">
         <f t="shared" si="22"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I216" s="15">
         <f t="shared" si="23"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="217" spans="3:9" x14ac:dyDescent="0.25">
@@ -6317,19 +6355,19 @@
       </c>
       <c r="F217" s="13">
         <f t="shared" si="20"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G217" s="8">
         <f t="shared" si="21"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H217" s="8">
         <f t="shared" si="22"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I217" s="15">
         <f t="shared" si="23"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="218" spans="3:9" x14ac:dyDescent="0.25">
@@ -6341,19 +6379,19 @@
       </c>
       <c r="F218" s="13">
         <f t="shared" si="20"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G218" s="8">
         <f t="shared" si="21"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H218" s="8">
         <f t="shared" si="22"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I218" s="15">
         <f t="shared" si="23"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="219" spans="3:9" x14ac:dyDescent="0.25">
@@ -6365,19 +6403,19 @@
       </c>
       <c r="F219" s="13">
         <f t="shared" si="20"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G219" s="8">
         <f t="shared" si="21"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H219" s="8">
         <f t="shared" si="22"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I219" s="15">
         <f t="shared" si="23"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="220" spans="3:9" x14ac:dyDescent="0.25">
@@ -6389,19 +6427,19 @@
       </c>
       <c r="F220" s="13">
         <f t="shared" si="20"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G220" s="8">
         <f t="shared" si="21"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H220" s="8">
         <f t="shared" si="22"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I220" s="15">
         <f t="shared" si="23"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="221" spans="3:9" x14ac:dyDescent="0.25">
@@ -6413,19 +6451,19 @@
       </c>
       <c r="F221" s="13">
         <f t="shared" si="20"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G221" s="8">
         <f t="shared" si="21"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H221" s="8">
         <f t="shared" si="22"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I221" s="15">
         <f t="shared" si="23"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="222" spans="3:9" x14ac:dyDescent="0.25">
@@ -6437,19 +6475,19 @@
       </c>
       <c r="F222" s="13">
         <f t="shared" si="20"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G222" s="8">
         <f t="shared" si="21"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H222" s="8">
         <f t="shared" si="22"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I222" s="15">
         <f t="shared" si="23"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="223" spans="3:9" x14ac:dyDescent="0.25">
@@ -6461,19 +6499,19 @@
       </c>
       <c r="F223" s="13">
         <f t="shared" si="20"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G223" s="8">
         <f t="shared" si="21"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H223" s="8">
         <f t="shared" si="22"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I223" s="15">
         <f t="shared" si="23"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="224" spans="3:9" x14ac:dyDescent="0.25">
@@ -6485,19 +6523,19 @@
       </c>
       <c r="F224" s="13">
         <f t="shared" si="20"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G224" s="8">
         <f t="shared" si="21"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H224" s="8">
         <f t="shared" si="22"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I224" s="15">
         <f t="shared" si="23"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="225" spans="3:9" x14ac:dyDescent="0.25">
@@ -6509,19 +6547,19 @@
       </c>
       <c r="F225" s="13">
         <f t="shared" si="20"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G225" s="8">
         <f t="shared" si="21"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H225" s="8">
         <f t="shared" si="22"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I225" s="15">
         <f t="shared" si="23"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="226" spans="3:9" x14ac:dyDescent="0.25">
@@ -6533,19 +6571,19 @@
       </c>
       <c r="F226" s="13">
         <f t="shared" si="20"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G226" s="8">
         <f t="shared" si="21"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H226" s="8">
         <f t="shared" si="22"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I226" s="15">
         <f t="shared" si="23"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="227" spans="3:9" x14ac:dyDescent="0.25">
@@ -6557,19 +6595,19 @@
       </c>
       <c r="F227" s="13">
         <f t="shared" si="20"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G227" s="8">
         <f t="shared" si="21"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H227" s="8">
         <f t="shared" si="22"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I227" s="15">
         <f t="shared" si="23"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="228" spans="3:9" x14ac:dyDescent="0.25">
@@ -6581,19 +6619,19 @@
       </c>
       <c r="F228" s="13">
         <f t="shared" si="20"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G228" s="8">
         <f t="shared" si="21"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H228" s="8">
         <f t="shared" si="22"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I228" s="15">
         <f t="shared" si="23"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="229" spans="3:9" x14ac:dyDescent="0.25">
@@ -6605,19 +6643,19 @@
       </c>
       <c r="F229" s="13">
         <f t="shared" si="20"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G229" s="8">
         <f t="shared" si="21"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H229" s="8">
         <f t="shared" si="22"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I229" s="15">
         <f t="shared" si="23"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="230" spans="3:9" x14ac:dyDescent="0.25">
@@ -6629,19 +6667,19 @@
       </c>
       <c r="F230" s="13">
         <f t="shared" si="20"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G230" s="8">
         <f t="shared" si="21"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H230" s="8">
         <f t="shared" si="22"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I230" s="15">
         <f t="shared" si="23"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="231" spans="3:9" x14ac:dyDescent="0.25">
@@ -6653,19 +6691,19 @@
       </c>
       <c r="F231" s="13">
         <f t="shared" si="20"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G231" s="8">
         <f t="shared" si="21"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H231" s="8">
         <f t="shared" si="22"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I231" s="15">
         <f t="shared" si="23"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="232" spans="3:9" x14ac:dyDescent="0.25">
@@ -6677,19 +6715,19 @@
       </c>
       <c r="F232" s="13">
         <f t="shared" ref="F232:F255" si="25">F231+E232</f>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G232" s="8">
         <f t="shared" ref="G232:G255" si="26">F232</f>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H232" s="8">
         <f t="shared" ref="H232:H255" si="27">(H231+G232-G231)</f>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I232" s="15">
         <f t="shared" ref="I232:I255" si="28">H232*24*$J$2</f>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="233" spans="3:9" x14ac:dyDescent="0.25">
@@ -6701,19 +6739,19 @@
       </c>
       <c r="F233" s="13">
         <f t="shared" si="25"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G233" s="8">
         <f t="shared" si="26"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H233" s="8">
         <f t="shared" si="27"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I233" s="15">
         <f t="shared" si="28"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="234" spans="3:9" x14ac:dyDescent="0.25">
@@ -6725,19 +6763,19 @@
       </c>
       <c r="F234" s="13">
         <f t="shared" si="25"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G234" s="8">
         <f t="shared" si="26"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H234" s="8">
         <f t="shared" si="27"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I234" s="15">
         <f t="shared" si="28"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="235" spans="3:9" x14ac:dyDescent="0.25">
@@ -6749,19 +6787,19 @@
       </c>
       <c r="F235" s="13">
         <f t="shared" si="25"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G235" s="8">
         <f t="shared" si="26"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H235" s="8">
         <f t="shared" si="27"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I235" s="15">
         <f t="shared" si="28"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="236" spans="3:9" x14ac:dyDescent="0.25">
@@ -6773,19 +6811,19 @@
       </c>
       <c r="F236" s="13">
         <f t="shared" si="25"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G236" s="8">
         <f t="shared" si="26"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H236" s="8">
         <f t="shared" si="27"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I236" s="15">
         <f t="shared" si="28"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="237" spans="3:9" x14ac:dyDescent="0.25">
@@ -6797,19 +6835,19 @@
       </c>
       <c r="F237" s="13">
         <f t="shared" si="25"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G237" s="8">
         <f t="shared" si="26"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H237" s="8">
         <f t="shared" si="27"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I237" s="15">
         <f t="shared" si="28"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="238" spans="3:9" x14ac:dyDescent="0.25">
@@ -6821,19 +6859,19 @@
       </c>
       <c r="F238" s="13">
         <f t="shared" si="25"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G238" s="8">
         <f t="shared" si="26"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H238" s="8">
         <f t="shared" si="27"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I238" s="15">
         <f t="shared" si="28"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="239" spans="3:9" x14ac:dyDescent="0.25">
@@ -6845,19 +6883,19 @@
       </c>
       <c r="F239" s="13">
         <f t="shared" si="25"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G239" s="8">
         <f t="shared" si="26"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H239" s="8">
         <f t="shared" si="27"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I239" s="15">
         <f t="shared" si="28"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="240" spans="3:9" x14ac:dyDescent="0.25">
@@ -6869,19 +6907,19 @@
       </c>
       <c r="F240" s="13">
         <f t="shared" si="25"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G240" s="8">
         <f t="shared" si="26"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H240" s="8">
         <f t="shared" si="27"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I240" s="15">
         <f t="shared" si="28"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="241" spans="3:9" x14ac:dyDescent="0.25">
@@ -6893,19 +6931,19 @@
       </c>
       <c r="F241" s="13">
         <f t="shared" si="25"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G241" s="8">
         <f t="shared" si="26"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H241" s="8">
         <f t="shared" si="27"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I241" s="15">
         <f t="shared" si="28"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="242" spans="3:9" x14ac:dyDescent="0.25">
@@ -6917,19 +6955,19 @@
       </c>
       <c r="F242" s="13">
         <f t="shared" si="25"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G242" s="8">
         <f t="shared" si="26"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H242" s="8">
         <f t="shared" si="27"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I242" s="15">
         <f t="shared" si="28"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="243" spans="3:9" x14ac:dyDescent="0.25">
@@ -6941,19 +6979,19 @@
       </c>
       <c r="F243" s="13">
         <f t="shared" si="25"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G243" s="8">
         <f t="shared" si="26"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H243" s="8">
         <f t="shared" si="27"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I243" s="15">
         <f t="shared" si="28"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="244" spans="3:9" x14ac:dyDescent="0.25">
@@ -6965,19 +7003,19 @@
       </c>
       <c r="F244" s="13">
         <f t="shared" si="25"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G244" s="8">
         <f t="shared" si="26"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H244" s="8">
         <f t="shared" si="27"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I244" s="15">
         <f t="shared" si="28"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="245" spans="3:9" x14ac:dyDescent="0.25">
@@ -6989,19 +7027,19 @@
       </c>
       <c r="F245" s="13">
         <f t="shared" si="25"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G245" s="8">
         <f t="shared" si="26"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H245" s="8">
         <f t="shared" si="27"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I245" s="15">
         <f t="shared" si="28"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="246" spans="3:9" x14ac:dyDescent="0.25">
@@ -7013,19 +7051,19 @@
       </c>
       <c r="F246" s="13">
         <f t="shared" si="25"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G246" s="8">
         <f t="shared" si="26"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H246" s="8">
         <f t="shared" si="27"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I246" s="15">
         <f t="shared" si="28"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="247" spans="3:9" x14ac:dyDescent="0.25">
@@ -7037,19 +7075,19 @@
       </c>
       <c r="F247" s="13">
         <f t="shared" si="25"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G247" s="8">
         <f t="shared" si="26"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H247" s="8">
         <f t="shared" si="27"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I247" s="15">
         <f t="shared" si="28"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="248" spans="3:9" x14ac:dyDescent="0.25">
@@ -7061,19 +7099,19 @@
       </c>
       <c r="F248" s="13">
         <f t="shared" si="25"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G248" s="8">
         <f t="shared" si="26"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H248" s="8">
         <f t="shared" si="27"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I248" s="15">
         <f t="shared" si="28"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="249" spans="3:9" x14ac:dyDescent="0.25">
@@ -7085,19 +7123,19 @@
       </c>
       <c r="F249" s="13">
         <f t="shared" si="25"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G249" s="8">
         <f t="shared" si="26"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H249" s="8">
         <f t="shared" si="27"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I249" s="15">
         <f t="shared" si="28"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="250" spans="3:9" x14ac:dyDescent="0.25">
@@ -7109,19 +7147,19 @@
       </c>
       <c r="F250" s="13">
         <f t="shared" si="25"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G250" s="8">
         <f t="shared" si="26"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H250" s="8">
         <f t="shared" si="27"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I250" s="15">
         <f t="shared" si="28"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="251" spans="3:9" x14ac:dyDescent="0.25">
@@ -7133,19 +7171,19 @@
       </c>
       <c r="F251" s="13">
         <f t="shared" si="25"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G251" s="8">
         <f t="shared" si="26"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H251" s="8">
         <f t="shared" si="27"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I251" s="15">
         <f t="shared" si="28"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="252" spans="3:9" x14ac:dyDescent="0.25">
@@ -7157,19 +7195,19 @@
       </c>
       <c r="F252" s="13">
         <f t="shared" si="25"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G252" s="8">
         <f t="shared" si="26"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H252" s="8">
         <f t="shared" si="27"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I252" s="15">
         <f t="shared" si="28"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="253" spans="3:9" x14ac:dyDescent="0.25">
@@ -7181,19 +7219,19 @@
       </c>
       <c r="F253" s="13">
         <f t="shared" si="25"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G253" s="8">
         <f t="shared" si="26"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H253" s="8">
         <f t="shared" si="27"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I253" s="15">
         <f t="shared" si="28"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="254" spans="3:9" x14ac:dyDescent="0.25">
@@ -7205,19 +7243,19 @@
       </c>
       <c r="F254" s="13">
         <f t="shared" si="25"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G254" s="8">
         <f t="shared" si="26"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H254" s="8">
         <f t="shared" si="27"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I254" s="15">
         <f t="shared" si="28"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
     <row r="255" spans="3:9" x14ac:dyDescent="0.25">
@@ -7229,19 +7267,19 @@
       </c>
       <c r="F255" s="13">
         <f t="shared" si="25"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="G255" s="8">
         <f t="shared" si="26"/>
-        <v>2.6930555555555555</v>
+        <v>2.8597222222222216</v>
       </c>
       <c r="H255" s="8">
         <f t="shared" si="27"/>
-        <v>3.8430555555555568</v>
+        <v>4.0097222222222229</v>
       </c>
       <c r="I255" s="15">
         <f t="shared" si="28"/>
-        <v>15679.666666666672</v>
+        <v>16359.66666666667</v>
       </c>
     </row>
   </sheetData>

--- a/hodiny.xlsx
+++ b/hodiny.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0542ED50-22E9-4D70-9F28-513093B6CDCA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91881FC3-66C4-4FB0-9FDE-0B719E90FE9B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3120" yWindow="3120" windowWidth="28800" windowHeight="14925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>čas [min]</t>
   </si>
@@ -143,6 +143,9 @@
   </si>
   <si>
     <t>29.6.</t>
+  </si>
+  <si>
+    <t>30.6.</t>
   </si>
 </sst>
 </file>
@@ -657,7 +660,7 @@
   <dimension ref="B1:J255"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A94" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D108" sqref="D108"/>
+      <selection activeCell="D109" sqref="D109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3731,27 +3734,34 @@
       </c>
     </row>
     <row r="108" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C108" s="2"/>
-      <c r="D108" s="10"/>
+      <c r="B108" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C108" s="2">
+        <v>2.4999999999999998E-2</v>
+      </c>
+      <c r="D108" s="10">
+        <v>9.9999999999999992E-2</v>
+      </c>
       <c r="E108" s="12">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="F108" s="13">
         <f t="shared" si="15"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G108" s="8">
         <f t="shared" si="16"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H108" s="8">
         <f t="shared" si="17"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I108" s="15">
         <f t="shared" si="18"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="109" spans="2:9" x14ac:dyDescent="0.25">
@@ -3763,19 +3773,19 @@
       </c>
       <c r="F109" s="13">
         <f t="shared" si="15"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G109" s="8">
         <f t="shared" si="16"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H109" s="8">
         <f t="shared" si="17"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I109" s="15">
         <f t="shared" si="18"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="110" spans="2:9" x14ac:dyDescent="0.25">
@@ -3787,19 +3797,19 @@
       </c>
       <c r="F110" s="13">
         <f t="shared" si="15"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G110" s="8">
         <f t="shared" si="16"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H110" s="8">
         <f t="shared" si="17"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I110" s="15">
         <f t="shared" si="18"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="111" spans="2:9" x14ac:dyDescent="0.25">
@@ -3811,19 +3821,19 @@
       </c>
       <c r="F111" s="13">
         <f t="shared" si="15"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G111" s="8">
         <f t="shared" si="16"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H111" s="8">
         <f t="shared" si="17"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I111" s="15">
         <f t="shared" si="18"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="112" spans="2:9" x14ac:dyDescent="0.25">
@@ -3835,19 +3845,19 @@
       </c>
       <c r="F112" s="13">
         <f t="shared" si="15"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G112" s="8">
         <f t="shared" si="16"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H112" s="8">
         <f t="shared" si="17"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I112" s="15">
         <f t="shared" si="18"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="113" spans="3:9" x14ac:dyDescent="0.25">
@@ -3859,19 +3869,19 @@
       </c>
       <c r="F113" s="13">
         <f t="shared" si="15"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G113" s="8">
         <f t="shared" si="16"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H113" s="8">
         <f t="shared" si="17"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I113" s="15">
         <f t="shared" si="18"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="114" spans="3:9" x14ac:dyDescent="0.25">
@@ -3883,19 +3893,19 @@
       </c>
       <c r="F114" s="13">
         <f t="shared" si="15"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G114" s="8">
         <f t="shared" si="16"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H114" s="8">
         <f t="shared" si="17"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I114" s="15">
         <f t="shared" si="18"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="115" spans="3:9" x14ac:dyDescent="0.25">
@@ -3907,19 +3917,19 @@
       </c>
       <c r="F115" s="13">
         <f t="shared" si="15"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G115" s="8">
         <f t="shared" si="16"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H115" s="8">
         <f t="shared" si="17"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I115" s="15">
         <f t="shared" si="18"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="116" spans="3:9" x14ac:dyDescent="0.25">
@@ -3931,19 +3941,19 @@
       </c>
       <c r="F116" s="13">
         <f t="shared" si="15"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G116" s="8">
         <f t="shared" si="16"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H116" s="8">
         <f t="shared" si="17"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I116" s="15">
         <f t="shared" si="18"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="117" spans="3:9" x14ac:dyDescent="0.25">
@@ -3955,19 +3965,19 @@
       </c>
       <c r="F117" s="13">
         <f t="shared" si="15"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G117" s="8">
         <f t="shared" si="16"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H117" s="8">
         <f t="shared" si="17"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I117" s="15">
         <f t="shared" si="18"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="118" spans="3:9" x14ac:dyDescent="0.25">
@@ -3979,19 +3989,19 @@
       </c>
       <c r="F118" s="13">
         <f t="shared" si="15"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G118" s="8">
         <f t="shared" si="16"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H118" s="8">
         <f t="shared" si="17"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I118" s="15">
         <f t="shared" si="18"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="119" spans="3:9" x14ac:dyDescent="0.25">
@@ -4003,19 +4013,19 @@
       </c>
       <c r="F119" s="13">
         <f t="shared" si="15"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G119" s="8">
         <f t="shared" si="16"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H119" s="8">
         <f t="shared" si="17"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I119" s="15">
         <f t="shared" si="18"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="120" spans="3:9" x14ac:dyDescent="0.25">
@@ -4027,19 +4037,19 @@
       </c>
       <c r="F120" s="13">
         <f t="shared" si="15"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G120" s="8">
         <f t="shared" si="16"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H120" s="8">
         <f t="shared" si="17"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I120" s="15">
         <f t="shared" si="18"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="121" spans="3:9" x14ac:dyDescent="0.25">
@@ -4051,19 +4061,19 @@
       </c>
       <c r="F121" s="13">
         <f t="shared" si="15"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G121" s="8">
         <f t="shared" si="16"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H121" s="8">
         <f t="shared" si="17"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I121" s="15">
         <f t="shared" si="18"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="122" spans="3:9" x14ac:dyDescent="0.25">
@@ -4075,19 +4085,19 @@
       </c>
       <c r="F122" s="13">
         <f t="shared" si="15"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G122" s="8">
         <f t="shared" si="16"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H122" s="8">
         <f t="shared" si="17"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I122" s="15">
         <f t="shared" si="18"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="123" spans="3:9" x14ac:dyDescent="0.25">
@@ -4099,19 +4109,19 @@
       </c>
       <c r="F123" s="13">
         <f t="shared" si="15"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G123" s="8">
         <f t="shared" si="16"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H123" s="8">
         <f t="shared" si="17"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I123" s="15">
         <f t="shared" si="18"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="124" spans="3:9" x14ac:dyDescent="0.25">
@@ -4123,19 +4133,19 @@
       </c>
       <c r="F124" s="13">
         <f t="shared" si="15"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G124" s="8">
         <f t="shared" si="16"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H124" s="8">
         <f t="shared" si="17"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I124" s="15">
         <f t="shared" si="18"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="125" spans="3:9" x14ac:dyDescent="0.25">
@@ -4147,19 +4157,19 @@
       </c>
       <c r="F125" s="13">
         <f t="shared" si="15"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G125" s="8">
         <f t="shared" si="16"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H125" s="8">
         <f t="shared" si="17"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I125" s="15">
         <f t="shared" si="18"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="126" spans="3:9" x14ac:dyDescent="0.25">
@@ -4171,19 +4181,19 @@
       </c>
       <c r="F126" s="13">
         <f t="shared" si="15"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G126" s="8">
         <f t="shared" si="16"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H126" s="8">
         <f t="shared" si="17"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I126" s="15">
         <f t="shared" si="18"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="127" spans="3:9" x14ac:dyDescent="0.25">
@@ -4195,19 +4205,19 @@
       </c>
       <c r="F127" s="13">
         <f t="shared" si="15"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G127" s="8">
         <f t="shared" si="16"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H127" s="8">
         <f t="shared" si="17"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I127" s="15">
         <f t="shared" si="18"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="128" spans="3:9" x14ac:dyDescent="0.25">
@@ -4219,19 +4229,19 @@
       </c>
       <c r="F128" s="13">
         <f t="shared" si="15"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G128" s="8">
         <f t="shared" si="16"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H128" s="8">
         <f t="shared" si="17"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I128" s="15">
         <f t="shared" si="18"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="129" spans="3:9" x14ac:dyDescent="0.25">
@@ -4243,19 +4253,19 @@
       </c>
       <c r="F129" s="13">
         <f t="shared" si="15"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G129" s="8">
         <f t="shared" si="16"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H129" s="8">
         <f t="shared" si="17"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I129" s="15">
         <f t="shared" si="18"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="130" spans="3:9" x14ac:dyDescent="0.25">
@@ -4267,19 +4277,19 @@
       </c>
       <c r="F130" s="13">
         <f t="shared" si="15"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G130" s="8">
         <f t="shared" si="16"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H130" s="8">
         <f t="shared" si="17"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I130" s="15">
         <f t="shared" si="18"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="131" spans="3:9" x14ac:dyDescent="0.25">
@@ -4291,19 +4301,19 @@
       </c>
       <c r="F131" s="13">
         <f t="shared" si="15"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G131" s="8">
         <f t="shared" si="16"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H131" s="8">
         <f t="shared" si="17"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I131" s="15">
         <f t="shared" si="18"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="132" spans="3:9" x14ac:dyDescent="0.25">
@@ -4315,19 +4325,19 @@
       </c>
       <c r="F132" s="13">
         <f t="shared" si="15"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G132" s="8">
         <f t="shared" si="16"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H132" s="8">
         <f t="shared" si="17"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I132" s="15">
         <f t="shared" si="18"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="133" spans="3:9" x14ac:dyDescent="0.25">
@@ -4339,19 +4349,19 @@
       </c>
       <c r="F133" s="13">
         <f t="shared" si="15"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G133" s="8">
         <f t="shared" si="16"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H133" s="8">
         <f t="shared" si="17"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I133" s="15">
         <f t="shared" si="18"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="134" spans="3:9" x14ac:dyDescent="0.25">
@@ -4363,19 +4373,19 @@
       </c>
       <c r="F134" s="13">
         <f t="shared" si="15"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G134" s="8">
         <f t="shared" si="16"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H134" s="8">
         <f t="shared" si="17"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I134" s="15">
         <f t="shared" si="18"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="135" spans="3:9" x14ac:dyDescent="0.25">
@@ -4387,19 +4397,19 @@
       </c>
       <c r="F135" s="13">
         <f t="shared" si="15"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G135" s="8">
         <f t="shared" si="16"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H135" s="8">
         <f t="shared" si="17"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I135" s="15">
         <f t="shared" si="18"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="136" spans="3:9" x14ac:dyDescent="0.25">
@@ -4411,19 +4421,19 @@
       </c>
       <c r="F136" s="13">
         <f t="shared" si="15"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G136" s="8">
         <f t="shared" si="16"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H136" s="8">
         <f t="shared" si="17"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I136" s="15">
         <f t="shared" si="18"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="137" spans="3:9" x14ac:dyDescent="0.25">
@@ -4435,19 +4445,19 @@
       </c>
       <c r="F137" s="13">
         <f t="shared" si="15"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G137" s="8">
         <f t="shared" si="16"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H137" s="8">
         <f t="shared" si="17"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I137" s="15">
         <f t="shared" si="18"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="138" spans="3:9" x14ac:dyDescent="0.25">
@@ -4459,19 +4469,19 @@
       </c>
       <c r="F138" s="13">
         <f t="shared" si="15"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G138" s="8">
         <f t="shared" si="16"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H138" s="8">
         <f t="shared" si="17"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I138" s="15">
         <f t="shared" si="18"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="139" spans="3:9" x14ac:dyDescent="0.25">
@@ -4483,19 +4493,19 @@
       </c>
       <c r="F139" s="13">
         <f t="shared" si="15"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G139" s="8">
         <f t="shared" si="16"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H139" s="8">
         <f t="shared" si="17"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I139" s="15">
         <f t="shared" si="18"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="140" spans="3:9" x14ac:dyDescent="0.25">
@@ -4507,19 +4517,19 @@
       </c>
       <c r="F140" s="13">
         <f t="shared" si="15"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G140" s="8">
         <f t="shared" si="16"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H140" s="8">
         <f t="shared" si="17"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I140" s="15">
         <f t="shared" si="18"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="141" spans="3:9" x14ac:dyDescent="0.25">
@@ -4531,19 +4541,19 @@
       </c>
       <c r="F141" s="13">
         <f t="shared" si="15"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G141" s="8">
         <f t="shared" si="16"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H141" s="8">
         <f t="shared" si="17"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I141" s="15">
         <f t="shared" si="18"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="142" spans="3:9" x14ac:dyDescent="0.25">
@@ -4555,19 +4565,19 @@
       </c>
       <c r="F142" s="13">
         <f t="shared" si="15"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G142" s="8">
         <f t="shared" si="16"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H142" s="8">
         <f t="shared" si="17"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I142" s="15">
         <f t="shared" si="18"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="143" spans="3:9" x14ac:dyDescent="0.25">
@@ -4579,19 +4589,19 @@
       </c>
       <c r="F143" s="13">
         <f t="shared" si="15"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G143" s="8">
         <f t="shared" si="16"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H143" s="8">
         <f t="shared" si="17"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I143" s="15">
         <f t="shared" si="18"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="144" spans="3:9" x14ac:dyDescent="0.25">
@@ -4603,19 +4613,19 @@
       </c>
       <c r="F144" s="13">
         <f t="shared" si="15"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G144" s="8">
         <f t="shared" si="16"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H144" s="8">
         <f t="shared" si="17"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I144" s="15">
         <f t="shared" si="18"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="145" spans="3:9" x14ac:dyDescent="0.25">
@@ -4627,19 +4637,19 @@
       </c>
       <c r="F145" s="13">
         <f t="shared" si="15"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G145" s="8">
         <f t="shared" si="16"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H145" s="8">
         <f t="shared" si="17"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I145" s="15">
         <f t="shared" si="18"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="146" spans="3:9" x14ac:dyDescent="0.25">
@@ -4651,19 +4661,19 @@
       </c>
       <c r="F146" s="13">
         <f t="shared" si="15"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G146" s="8">
         <f t="shared" si="16"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H146" s="8">
         <f t="shared" si="17"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I146" s="15">
         <f t="shared" si="18"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="147" spans="3:9" x14ac:dyDescent="0.25">
@@ -4675,19 +4685,19 @@
       </c>
       <c r="F147" s="13">
         <f t="shared" si="15"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G147" s="8">
         <f t="shared" si="16"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H147" s="8">
         <f t="shared" si="17"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I147" s="15">
         <f t="shared" si="18"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="148" spans="3:9" x14ac:dyDescent="0.25">
@@ -4699,19 +4709,19 @@
       </c>
       <c r="F148" s="13">
         <f t="shared" si="15"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G148" s="8">
         <f t="shared" si="16"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H148" s="8">
         <f t="shared" si="17"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I148" s="15">
         <f t="shared" si="18"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="149" spans="3:9" x14ac:dyDescent="0.25">
@@ -4723,19 +4733,19 @@
       </c>
       <c r="F149" s="13">
         <f t="shared" si="15"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G149" s="8">
         <f t="shared" si="16"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H149" s="8">
         <f t="shared" si="17"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I149" s="15">
         <f t="shared" si="18"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="150" spans="3:9" x14ac:dyDescent="0.25">
@@ -4747,19 +4757,19 @@
       </c>
       <c r="F150" s="13">
         <f t="shared" si="15"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G150" s="8">
         <f t="shared" si="16"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H150" s="8">
         <f t="shared" si="17"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I150" s="15">
         <f t="shared" si="18"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="151" spans="3:9" x14ac:dyDescent="0.25">
@@ -4771,19 +4781,19 @@
       </c>
       <c r="F151" s="13">
         <f t="shared" si="15"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G151" s="8">
         <f t="shared" si="16"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H151" s="8">
         <f t="shared" si="17"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I151" s="15">
         <f t="shared" si="18"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="152" spans="3:9" x14ac:dyDescent="0.25">
@@ -4795,19 +4805,19 @@
       </c>
       <c r="F152" s="13">
         <f t="shared" si="15"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G152" s="8">
         <f t="shared" si="16"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H152" s="8">
         <f t="shared" si="17"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I152" s="15">
         <f t="shared" si="18"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="153" spans="3:9" x14ac:dyDescent="0.25">
@@ -4819,19 +4829,19 @@
       </c>
       <c r="F153" s="13">
         <f t="shared" si="15"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G153" s="8">
         <f t="shared" si="16"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H153" s="8">
         <f t="shared" si="17"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I153" s="15">
         <f t="shared" si="18"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="154" spans="3:9" x14ac:dyDescent="0.25">
@@ -4843,19 +4853,19 @@
       </c>
       <c r="F154" s="13">
         <f t="shared" si="15"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G154" s="8">
         <f t="shared" si="16"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H154" s="8">
         <f t="shared" si="17"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I154" s="15">
         <f t="shared" si="18"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="155" spans="3:9" x14ac:dyDescent="0.25">
@@ -4867,19 +4877,19 @@
       </c>
       <c r="F155" s="13">
         <f t="shared" si="15"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G155" s="8">
         <f t="shared" si="16"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H155" s="8">
         <f t="shared" si="17"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I155" s="15">
         <f t="shared" si="18"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="156" spans="3:9" x14ac:dyDescent="0.25">
@@ -4891,19 +4901,19 @@
       </c>
       <c r="F156" s="13">
         <f t="shared" si="15"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G156" s="8">
         <f t="shared" si="16"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H156" s="8">
         <f t="shared" si="17"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I156" s="15">
         <f t="shared" si="18"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="157" spans="3:9" x14ac:dyDescent="0.25">
@@ -4915,19 +4925,19 @@
       </c>
       <c r="F157" s="13">
         <f t="shared" si="15"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G157" s="8">
         <f t="shared" si="16"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H157" s="8">
         <f t="shared" si="17"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I157" s="15">
         <f t="shared" si="18"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="158" spans="3:9" x14ac:dyDescent="0.25">
@@ -4939,19 +4949,19 @@
       </c>
       <c r="F158" s="13">
         <f t="shared" si="15"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G158" s="8">
         <f t="shared" si="16"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H158" s="8">
         <f t="shared" si="17"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I158" s="15">
         <f t="shared" si="18"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="159" spans="3:9" x14ac:dyDescent="0.25">
@@ -4963,19 +4973,19 @@
       </c>
       <c r="F159" s="13">
         <f t="shared" si="15"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G159" s="8">
         <f t="shared" si="16"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H159" s="8">
         <f t="shared" si="17"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I159" s="15">
         <f t="shared" si="18"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="160" spans="3:9" x14ac:dyDescent="0.25">
@@ -4987,19 +4997,19 @@
       </c>
       <c r="F160" s="13">
         <f t="shared" si="15"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G160" s="8">
         <f t="shared" si="16"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H160" s="8">
         <f t="shared" si="17"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I160" s="15">
         <f t="shared" si="18"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="161" spans="3:9" x14ac:dyDescent="0.25">
@@ -5011,19 +5021,19 @@
       </c>
       <c r="F161" s="13">
         <f t="shared" si="15"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G161" s="8">
         <f t="shared" si="16"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H161" s="8">
         <f t="shared" si="17"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I161" s="15">
         <f t="shared" si="18"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="162" spans="3:9" x14ac:dyDescent="0.25">
@@ -5035,19 +5045,19 @@
       </c>
       <c r="F162" s="13">
         <f t="shared" si="15"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G162" s="8">
         <f t="shared" si="16"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H162" s="8">
         <f t="shared" si="17"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I162" s="15">
         <f t="shared" si="18"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="163" spans="3:9" x14ac:dyDescent="0.25">
@@ -5059,19 +5069,19 @@
       </c>
       <c r="F163" s="13">
         <f t="shared" si="15"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G163" s="8">
         <f t="shared" si="16"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H163" s="8">
         <f t="shared" si="17"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I163" s="15">
         <f t="shared" si="18"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="164" spans="3:9" x14ac:dyDescent="0.25">
@@ -5083,19 +5093,19 @@
       </c>
       <c r="F164" s="13">
         <f t="shared" si="15"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G164" s="8">
         <f t="shared" si="16"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H164" s="8">
         <f t="shared" si="17"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I164" s="15">
         <f t="shared" si="18"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="165" spans="3:9" x14ac:dyDescent="0.25">
@@ -5107,19 +5117,19 @@
       </c>
       <c r="F165" s="13">
         <f t="shared" si="15"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G165" s="8">
         <f t="shared" si="16"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H165" s="8">
         <f t="shared" si="17"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I165" s="15">
         <f t="shared" si="18"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="166" spans="3:9" x14ac:dyDescent="0.25">
@@ -5131,19 +5141,19 @@
       </c>
       <c r="F166" s="13">
         <f t="shared" si="15"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G166" s="8">
         <f t="shared" si="16"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H166" s="8">
         <f t="shared" si="17"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I166" s="15">
         <f t="shared" si="18"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="167" spans="3:9" x14ac:dyDescent="0.25">
@@ -5155,19 +5165,19 @@
       </c>
       <c r="F167" s="13">
         <f t="shared" si="15"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G167" s="8">
         <f t="shared" si="16"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H167" s="8">
         <f t="shared" si="17"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I167" s="15">
         <f t="shared" si="18"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="168" spans="3:9" x14ac:dyDescent="0.25">
@@ -5179,19 +5189,19 @@
       </c>
       <c r="F168" s="13">
         <f t="shared" ref="F168:F231" si="20">F167+E168</f>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G168" s="8">
         <f t="shared" ref="G168:G231" si="21">F168</f>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H168" s="8">
         <f t="shared" ref="H168:H231" si="22">(H167+G168-G167)</f>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I168" s="15">
         <f t="shared" ref="I168:I231" si="23">H168*24*$J$2</f>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="169" spans="3:9" x14ac:dyDescent="0.25">
@@ -5203,19 +5213,19 @@
       </c>
       <c r="F169" s="13">
         <f t="shared" si="20"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G169" s="8">
         <f t="shared" si="21"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H169" s="8">
         <f t="shared" si="22"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I169" s="15">
         <f t="shared" si="23"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="170" spans="3:9" x14ac:dyDescent="0.25">
@@ -5227,19 +5237,19 @@
       </c>
       <c r="F170" s="13">
         <f t="shared" si="20"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G170" s="8">
         <f t="shared" si="21"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H170" s="8">
         <f t="shared" si="22"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I170" s="15">
         <f t="shared" si="23"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="171" spans="3:9" x14ac:dyDescent="0.25">
@@ -5251,19 +5261,19 @@
       </c>
       <c r="F171" s="13">
         <f t="shared" si="20"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G171" s="8">
         <f t="shared" si="21"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H171" s="8">
         <f t="shared" si="22"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I171" s="15">
         <f t="shared" si="23"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="172" spans="3:9" x14ac:dyDescent="0.25">
@@ -5275,19 +5285,19 @@
       </c>
       <c r="F172" s="13">
         <f t="shared" si="20"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G172" s="8">
         <f t="shared" si="21"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H172" s="8">
         <f t="shared" si="22"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I172" s="15">
         <f t="shared" si="23"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="173" spans="3:9" x14ac:dyDescent="0.25">
@@ -5299,19 +5309,19 @@
       </c>
       <c r="F173" s="13">
         <f t="shared" si="20"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G173" s="8">
         <f t="shared" si="21"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H173" s="8">
         <f t="shared" si="22"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I173" s="15">
         <f t="shared" si="23"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="174" spans="3:9" x14ac:dyDescent="0.25">
@@ -5323,19 +5333,19 @@
       </c>
       <c r="F174" s="13">
         <f t="shared" si="20"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G174" s="8">
         <f t="shared" si="21"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H174" s="8">
         <f t="shared" si="22"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I174" s="15">
         <f t="shared" si="23"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="175" spans="3:9" x14ac:dyDescent="0.25">
@@ -5347,19 +5357,19 @@
       </c>
       <c r="F175" s="13">
         <f t="shared" si="20"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G175" s="8">
         <f t="shared" si="21"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H175" s="8">
         <f t="shared" si="22"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I175" s="15">
         <f t="shared" si="23"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="176" spans="3:9" x14ac:dyDescent="0.25">
@@ -5371,19 +5381,19 @@
       </c>
       <c r="F176" s="13">
         <f t="shared" si="20"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G176" s="8">
         <f t="shared" si="21"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H176" s="8">
         <f t="shared" si="22"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I176" s="15">
         <f t="shared" si="23"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="177" spans="3:9" x14ac:dyDescent="0.25">
@@ -5395,19 +5405,19 @@
       </c>
       <c r="F177" s="13">
         <f t="shared" si="20"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G177" s="8">
         <f t="shared" si="21"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H177" s="8">
         <f t="shared" si="22"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I177" s="15">
         <f t="shared" si="23"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="178" spans="3:9" x14ac:dyDescent="0.25">
@@ -5419,19 +5429,19 @@
       </c>
       <c r="F178" s="13">
         <f t="shared" si="20"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G178" s="8">
         <f t="shared" si="21"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H178" s="8">
         <f t="shared" si="22"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I178" s="15">
         <f t="shared" si="23"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="179" spans="3:9" x14ac:dyDescent="0.25">
@@ -5443,19 +5453,19 @@
       </c>
       <c r="F179" s="13">
         <f t="shared" si="20"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G179" s="8">
         <f t="shared" si="21"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H179" s="8">
         <f t="shared" si="22"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I179" s="15">
         <f t="shared" si="23"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="180" spans="3:9" x14ac:dyDescent="0.25">
@@ -5467,19 +5477,19 @@
       </c>
       <c r="F180" s="13">
         <f t="shared" si="20"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G180" s="8">
         <f t="shared" si="21"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H180" s="8">
         <f t="shared" si="22"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I180" s="15">
         <f t="shared" si="23"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="181" spans="3:9" x14ac:dyDescent="0.25">
@@ -5491,19 +5501,19 @@
       </c>
       <c r="F181" s="13">
         <f t="shared" si="20"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G181" s="8">
         <f t="shared" si="21"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H181" s="8">
         <f t="shared" si="22"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I181" s="15">
         <f t="shared" si="23"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="182" spans="3:9" x14ac:dyDescent="0.25">
@@ -5515,19 +5525,19 @@
       </c>
       <c r="F182" s="13">
         <f t="shared" si="20"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G182" s="8">
         <f t="shared" si="21"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H182" s="8">
         <f t="shared" si="22"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I182" s="15">
         <f t="shared" si="23"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="183" spans="3:9" x14ac:dyDescent="0.25">
@@ -5539,19 +5549,19 @@
       </c>
       <c r="F183" s="13">
         <f t="shared" si="20"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G183" s="8">
         <f t="shared" si="21"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H183" s="8">
         <f t="shared" si="22"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I183" s="15">
         <f t="shared" si="23"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="184" spans="3:9" x14ac:dyDescent="0.25">
@@ -5563,19 +5573,19 @@
       </c>
       <c r="F184" s="13">
         <f t="shared" si="20"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G184" s="8">
         <f t="shared" si="21"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H184" s="8">
         <f t="shared" si="22"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I184" s="15">
         <f t="shared" si="23"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="185" spans="3:9" x14ac:dyDescent="0.25">
@@ -5587,19 +5597,19 @@
       </c>
       <c r="F185" s="13">
         <f t="shared" si="20"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G185" s="8">
         <f t="shared" si="21"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H185" s="8">
         <f t="shared" si="22"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I185" s="15">
         <f t="shared" si="23"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="186" spans="3:9" x14ac:dyDescent="0.25">
@@ -5611,19 +5621,19 @@
       </c>
       <c r="F186" s="13">
         <f t="shared" si="20"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G186" s="8">
         <f t="shared" si="21"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H186" s="8">
         <f t="shared" si="22"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I186" s="15">
         <f t="shared" si="23"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="187" spans="3:9" x14ac:dyDescent="0.25">
@@ -5635,19 +5645,19 @@
       </c>
       <c r="F187" s="13">
         <f t="shared" si="20"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G187" s="8">
         <f t="shared" si="21"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H187" s="8">
         <f t="shared" si="22"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I187" s="15">
         <f t="shared" si="23"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="188" spans="3:9" x14ac:dyDescent="0.25">
@@ -5659,19 +5669,19 @@
       </c>
       <c r="F188" s="13">
         <f t="shared" si="20"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G188" s="8">
         <f t="shared" si="21"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H188" s="8">
         <f t="shared" si="22"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I188" s="15">
         <f t="shared" si="23"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="189" spans="3:9" x14ac:dyDescent="0.25">
@@ -5683,19 +5693,19 @@
       </c>
       <c r="F189" s="13">
         <f t="shared" si="20"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G189" s="8">
         <f t="shared" si="21"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H189" s="8">
         <f t="shared" si="22"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I189" s="15">
         <f t="shared" si="23"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="190" spans="3:9" x14ac:dyDescent="0.25">
@@ -5707,19 +5717,19 @@
       </c>
       <c r="F190" s="13">
         <f t="shared" si="20"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G190" s="8">
         <f t="shared" si="21"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H190" s="8">
         <f t="shared" si="22"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I190" s="15">
         <f t="shared" si="23"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="191" spans="3:9" x14ac:dyDescent="0.25">
@@ -5731,19 +5741,19 @@
       </c>
       <c r="F191" s="13">
         <f t="shared" si="20"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G191" s="8">
         <f t="shared" si="21"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H191" s="8">
         <f t="shared" si="22"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I191" s="15">
         <f t="shared" si="23"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="192" spans="3:9" x14ac:dyDescent="0.25">
@@ -5755,19 +5765,19 @@
       </c>
       <c r="F192" s="13">
         <f t="shared" si="20"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G192" s="8">
         <f t="shared" si="21"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H192" s="8">
         <f t="shared" si="22"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I192" s="15">
         <f t="shared" si="23"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="193" spans="3:9" x14ac:dyDescent="0.25">
@@ -5779,19 +5789,19 @@
       </c>
       <c r="F193" s="13">
         <f t="shared" si="20"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G193" s="8">
         <f t="shared" si="21"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H193" s="8">
         <f t="shared" si="22"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I193" s="15">
         <f t="shared" si="23"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="194" spans="3:9" x14ac:dyDescent="0.25">
@@ -5803,19 +5813,19 @@
       </c>
       <c r="F194" s="13">
         <f t="shared" si="20"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G194" s="8">
         <f t="shared" si="21"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H194" s="8">
         <f t="shared" si="22"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I194" s="15">
         <f t="shared" si="23"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="195" spans="3:9" x14ac:dyDescent="0.25">
@@ -5827,19 +5837,19 @@
       </c>
       <c r="F195" s="13">
         <f t="shared" si="20"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G195" s="8">
         <f t="shared" si="21"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H195" s="8">
         <f t="shared" si="22"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I195" s="15">
         <f t="shared" si="23"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="196" spans="3:9" x14ac:dyDescent="0.25">
@@ -5851,19 +5861,19 @@
       </c>
       <c r="F196" s="13">
         <f t="shared" si="20"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G196" s="8">
         <f t="shared" si="21"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H196" s="8">
         <f t="shared" si="22"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I196" s="15">
         <f t="shared" si="23"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="197" spans="3:9" x14ac:dyDescent="0.25">
@@ -5875,19 +5885,19 @@
       </c>
       <c r="F197" s="13">
         <f t="shared" si="20"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G197" s="8">
         <f t="shared" si="21"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H197" s="8">
         <f t="shared" si="22"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I197" s="15">
         <f t="shared" si="23"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="198" spans="3:9" x14ac:dyDescent="0.25">
@@ -5899,19 +5909,19 @@
       </c>
       <c r="F198" s="13">
         <f t="shared" si="20"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G198" s="8">
         <f t="shared" si="21"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H198" s="8">
         <f t="shared" si="22"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I198" s="15">
         <f t="shared" si="23"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="199" spans="3:9" x14ac:dyDescent="0.25">
@@ -5923,19 +5933,19 @@
       </c>
       <c r="F199" s="13">
         <f t="shared" si="20"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G199" s="8">
         <f t="shared" si="21"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H199" s="8">
         <f t="shared" si="22"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I199" s="15">
         <f t="shared" si="23"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="200" spans="3:9" x14ac:dyDescent="0.25">
@@ -5947,19 +5957,19 @@
       </c>
       <c r="F200" s="13">
         <f t="shared" si="20"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G200" s="8">
         <f t="shared" si="21"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H200" s="8">
         <f t="shared" si="22"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I200" s="15">
         <f t="shared" si="23"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="201" spans="3:9" x14ac:dyDescent="0.25">
@@ -5971,19 +5981,19 @@
       </c>
       <c r="F201" s="13">
         <f t="shared" si="20"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G201" s="8">
         <f t="shared" si="21"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H201" s="8">
         <f t="shared" si="22"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I201" s="15">
         <f t="shared" si="23"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="202" spans="3:9" x14ac:dyDescent="0.25">
@@ -5995,19 +6005,19 @@
       </c>
       <c r="F202" s="13">
         <f t="shared" si="20"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G202" s="8">
         <f t="shared" si="21"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H202" s="8">
         <f t="shared" si="22"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I202" s="15">
         <f t="shared" si="23"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="203" spans="3:9" x14ac:dyDescent="0.25">
@@ -6019,19 +6029,19 @@
       </c>
       <c r="F203" s="13">
         <f t="shared" si="20"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G203" s="8">
         <f t="shared" si="21"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H203" s="8">
         <f t="shared" si="22"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I203" s="15">
         <f t="shared" si="23"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="204" spans="3:9" x14ac:dyDescent="0.25">
@@ -6043,19 +6053,19 @@
       </c>
       <c r="F204" s="13">
         <f t="shared" si="20"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G204" s="8">
         <f t="shared" si="21"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H204" s="8">
         <f t="shared" si="22"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I204" s="15">
         <f t="shared" si="23"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="205" spans="3:9" x14ac:dyDescent="0.25">
@@ -6067,19 +6077,19 @@
       </c>
       <c r="F205" s="13">
         <f t="shared" si="20"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G205" s="8">
         <f t="shared" si="21"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H205" s="8">
         <f t="shared" si="22"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I205" s="15">
         <f t="shared" si="23"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="206" spans="3:9" x14ac:dyDescent="0.25">
@@ -6091,19 +6101,19 @@
       </c>
       <c r="F206" s="13">
         <f t="shared" si="20"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G206" s="8">
         <f t="shared" si="21"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H206" s="8">
         <f t="shared" si="22"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I206" s="15">
         <f t="shared" si="23"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="207" spans="3:9" x14ac:dyDescent="0.25">
@@ -6115,19 +6125,19 @@
       </c>
       <c r="F207" s="13">
         <f t="shared" si="20"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G207" s="8">
         <f t="shared" si="21"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H207" s="8">
         <f t="shared" si="22"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I207" s="15">
         <f t="shared" si="23"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="208" spans="3:9" x14ac:dyDescent="0.25">
@@ -6139,19 +6149,19 @@
       </c>
       <c r="F208" s="13">
         <f t="shared" si="20"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G208" s="8">
         <f t="shared" si="21"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H208" s="8">
         <f t="shared" si="22"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I208" s="15">
         <f t="shared" si="23"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="209" spans="3:9" x14ac:dyDescent="0.25">
@@ -6163,19 +6173,19 @@
       </c>
       <c r="F209" s="13">
         <f t="shared" si="20"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G209" s="8">
         <f t="shared" si="21"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H209" s="8">
         <f t="shared" si="22"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I209" s="15">
         <f t="shared" si="23"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="210" spans="3:9" x14ac:dyDescent="0.25">
@@ -6187,19 +6197,19 @@
       </c>
       <c r="F210" s="13">
         <f t="shared" si="20"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G210" s="8">
         <f t="shared" si="21"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H210" s="8">
         <f t="shared" si="22"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I210" s="15">
         <f t="shared" si="23"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="211" spans="3:9" x14ac:dyDescent="0.25">
@@ -6211,19 +6221,19 @@
       </c>
       <c r="F211" s="13">
         <f t="shared" si="20"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G211" s="8">
         <f t="shared" si="21"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H211" s="8">
         <f t="shared" si="22"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I211" s="15">
         <f t="shared" si="23"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="212" spans="3:9" x14ac:dyDescent="0.25">
@@ -6235,19 +6245,19 @@
       </c>
       <c r="F212" s="13">
         <f t="shared" si="20"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G212" s="8">
         <f t="shared" si="21"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H212" s="8">
         <f t="shared" si="22"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I212" s="15">
         <f t="shared" si="23"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="213" spans="3:9" x14ac:dyDescent="0.25">
@@ -6259,19 +6269,19 @@
       </c>
       <c r="F213" s="13">
         <f t="shared" si="20"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G213" s="8">
         <f t="shared" si="21"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H213" s="8">
         <f t="shared" si="22"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I213" s="15">
         <f t="shared" si="23"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="214" spans="3:9" x14ac:dyDescent="0.25">
@@ -6283,19 +6293,19 @@
       </c>
       <c r="F214" s="13">
         <f t="shared" si="20"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G214" s="8">
         <f t="shared" si="21"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H214" s="8">
         <f t="shared" si="22"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I214" s="15">
         <f t="shared" si="23"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="215" spans="3:9" x14ac:dyDescent="0.25">
@@ -6307,19 +6317,19 @@
       </c>
       <c r="F215" s="13">
         <f t="shared" si="20"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G215" s="8">
         <f t="shared" si="21"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H215" s="8">
         <f t="shared" si="22"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I215" s="15">
         <f t="shared" si="23"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="216" spans="3:9" x14ac:dyDescent="0.25">
@@ -6331,19 +6341,19 @@
       </c>
       <c r="F216" s="13">
         <f t="shared" si="20"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G216" s="8">
         <f t="shared" si="21"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H216" s="8">
         <f t="shared" si="22"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I216" s="15">
         <f t="shared" si="23"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="217" spans="3:9" x14ac:dyDescent="0.25">
@@ -6355,19 +6365,19 @@
       </c>
       <c r="F217" s="13">
         <f t="shared" si="20"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G217" s="8">
         <f t="shared" si="21"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H217" s="8">
         <f t="shared" si="22"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I217" s="15">
         <f t="shared" si="23"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="218" spans="3:9" x14ac:dyDescent="0.25">
@@ -6379,19 +6389,19 @@
       </c>
       <c r="F218" s="13">
         <f t="shared" si="20"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G218" s="8">
         <f t="shared" si="21"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H218" s="8">
         <f t="shared" si="22"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I218" s="15">
         <f t="shared" si="23"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="219" spans="3:9" x14ac:dyDescent="0.25">
@@ -6403,19 +6413,19 @@
       </c>
       <c r="F219" s="13">
         <f t="shared" si="20"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G219" s="8">
         <f t="shared" si="21"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H219" s="8">
         <f t="shared" si="22"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I219" s="15">
         <f t="shared" si="23"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="220" spans="3:9" x14ac:dyDescent="0.25">
@@ -6427,19 +6437,19 @@
       </c>
       <c r="F220" s="13">
         <f t="shared" si="20"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G220" s="8">
         <f t="shared" si="21"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H220" s="8">
         <f t="shared" si="22"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I220" s="15">
         <f t="shared" si="23"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="221" spans="3:9" x14ac:dyDescent="0.25">
@@ -6451,19 +6461,19 @@
       </c>
       <c r="F221" s="13">
         <f t="shared" si="20"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G221" s="8">
         <f t="shared" si="21"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H221" s="8">
         <f t="shared" si="22"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I221" s="15">
         <f t="shared" si="23"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="222" spans="3:9" x14ac:dyDescent="0.25">
@@ -6475,19 +6485,19 @@
       </c>
       <c r="F222" s="13">
         <f t="shared" si="20"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G222" s="8">
         <f t="shared" si="21"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H222" s="8">
         <f t="shared" si="22"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I222" s="15">
         <f t="shared" si="23"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="223" spans="3:9" x14ac:dyDescent="0.25">
@@ -6499,19 +6509,19 @@
       </c>
       <c r="F223" s="13">
         <f t="shared" si="20"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G223" s="8">
         <f t="shared" si="21"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H223" s="8">
         <f t="shared" si="22"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I223" s="15">
         <f t="shared" si="23"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="224" spans="3:9" x14ac:dyDescent="0.25">
@@ -6523,19 +6533,19 @@
       </c>
       <c r="F224" s="13">
         <f t="shared" si="20"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G224" s="8">
         <f t="shared" si="21"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H224" s="8">
         <f t="shared" si="22"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I224" s="15">
         <f t="shared" si="23"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="225" spans="3:9" x14ac:dyDescent="0.25">
@@ -6547,19 +6557,19 @@
       </c>
       <c r="F225" s="13">
         <f t="shared" si="20"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G225" s="8">
         <f t="shared" si="21"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H225" s="8">
         <f t="shared" si="22"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I225" s="15">
         <f t="shared" si="23"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="226" spans="3:9" x14ac:dyDescent="0.25">
@@ -6571,19 +6581,19 @@
       </c>
       <c r="F226" s="13">
         <f t="shared" si="20"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G226" s="8">
         <f t="shared" si="21"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H226" s="8">
         <f t="shared" si="22"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I226" s="15">
         <f t="shared" si="23"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="227" spans="3:9" x14ac:dyDescent="0.25">
@@ -6595,19 +6605,19 @@
       </c>
       <c r="F227" s="13">
         <f t="shared" si="20"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G227" s="8">
         <f t="shared" si="21"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H227" s="8">
         <f t="shared" si="22"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I227" s="15">
         <f t="shared" si="23"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="228" spans="3:9" x14ac:dyDescent="0.25">
@@ -6619,19 +6629,19 @@
       </c>
       <c r="F228" s="13">
         <f t="shared" si="20"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G228" s="8">
         <f t="shared" si="21"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H228" s="8">
         <f t="shared" si="22"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I228" s="15">
         <f t="shared" si="23"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="229" spans="3:9" x14ac:dyDescent="0.25">
@@ -6643,19 +6653,19 @@
       </c>
       <c r="F229" s="13">
         <f t="shared" si="20"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G229" s="8">
         <f t="shared" si="21"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H229" s="8">
         <f t="shared" si="22"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I229" s="15">
         <f t="shared" si="23"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="230" spans="3:9" x14ac:dyDescent="0.25">
@@ -6667,19 +6677,19 @@
       </c>
       <c r="F230" s="13">
         <f t="shared" si="20"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G230" s="8">
         <f t="shared" si="21"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H230" s="8">
         <f t="shared" si="22"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I230" s="15">
         <f t="shared" si="23"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="231" spans="3:9" x14ac:dyDescent="0.25">
@@ -6691,19 +6701,19 @@
       </c>
       <c r="F231" s="13">
         <f t="shared" si="20"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G231" s="8">
         <f t="shared" si="21"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H231" s="8">
         <f t="shared" si="22"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I231" s="15">
         <f t="shared" si="23"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="232" spans="3:9" x14ac:dyDescent="0.25">
@@ -6715,19 +6725,19 @@
       </c>
       <c r="F232" s="13">
         <f t="shared" ref="F232:F255" si="25">F231+E232</f>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G232" s="8">
         <f t="shared" ref="G232:G255" si="26">F232</f>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H232" s="8">
         <f t="shared" ref="H232:H255" si="27">(H231+G232-G231)</f>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I232" s="15">
         <f t="shared" ref="I232:I255" si="28">H232*24*$J$2</f>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="233" spans="3:9" x14ac:dyDescent="0.25">
@@ -6739,19 +6749,19 @@
       </c>
       <c r="F233" s="13">
         <f t="shared" si="25"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G233" s="8">
         <f t="shared" si="26"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H233" s="8">
         <f t="shared" si="27"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I233" s="15">
         <f t="shared" si="28"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="234" spans="3:9" x14ac:dyDescent="0.25">
@@ -6763,19 +6773,19 @@
       </c>
       <c r="F234" s="13">
         <f t="shared" si="25"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G234" s="8">
         <f t="shared" si="26"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H234" s="8">
         <f t="shared" si="27"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I234" s="15">
         <f t="shared" si="28"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="235" spans="3:9" x14ac:dyDescent="0.25">
@@ -6787,19 +6797,19 @@
       </c>
       <c r="F235" s="13">
         <f t="shared" si="25"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G235" s="8">
         <f t="shared" si="26"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H235" s="8">
         <f t="shared" si="27"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I235" s="15">
         <f t="shared" si="28"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="236" spans="3:9" x14ac:dyDescent="0.25">
@@ -6811,19 +6821,19 @@
       </c>
       <c r="F236" s="13">
         <f t="shared" si="25"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G236" s="8">
         <f t="shared" si="26"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H236" s="8">
         <f t="shared" si="27"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I236" s="15">
         <f t="shared" si="28"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="237" spans="3:9" x14ac:dyDescent="0.25">
@@ -6835,19 +6845,19 @@
       </c>
       <c r="F237" s="13">
         <f t="shared" si="25"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G237" s="8">
         <f t="shared" si="26"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H237" s="8">
         <f t="shared" si="27"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I237" s="15">
         <f t="shared" si="28"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="238" spans="3:9" x14ac:dyDescent="0.25">
@@ -6859,19 +6869,19 @@
       </c>
       <c r="F238" s="13">
         <f t="shared" si="25"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G238" s="8">
         <f t="shared" si="26"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H238" s="8">
         <f t="shared" si="27"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I238" s="15">
         <f t="shared" si="28"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="239" spans="3:9" x14ac:dyDescent="0.25">
@@ -6883,19 +6893,19 @@
       </c>
       <c r="F239" s="13">
         <f t="shared" si="25"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G239" s="8">
         <f t="shared" si="26"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H239" s="8">
         <f t="shared" si="27"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I239" s="15">
         <f t="shared" si="28"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="240" spans="3:9" x14ac:dyDescent="0.25">
@@ -6907,19 +6917,19 @@
       </c>
       <c r="F240" s="13">
         <f t="shared" si="25"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G240" s="8">
         <f t="shared" si="26"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H240" s="8">
         <f t="shared" si="27"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I240" s="15">
         <f t="shared" si="28"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="241" spans="3:9" x14ac:dyDescent="0.25">
@@ -6931,19 +6941,19 @@
       </c>
       <c r="F241" s="13">
         <f t="shared" si="25"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G241" s="8">
         <f t="shared" si="26"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H241" s="8">
         <f t="shared" si="27"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I241" s="15">
         <f t="shared" si="28"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="242" spans="3:9" x14ac:dyDescent="0.25">
@@ -6955,19 +6965,19 @@
       </c>
       <c r="F242" s="13">
         <f t="shared" si="25"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G242" s="8">
         <f t="shared" si="26"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H242" s="8">
         <f t="shared" si="27"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I242" s="15">
         <f t="shared" si="28"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="243" spans="3:9" x14ac:dyDescent="0.25">
@@ -6979,19 +6989,19 @@
       </c>
       <c r="F243" s="13">
         <f t="shared" si="25"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G243" s="8">
         <f t="shared" si="26"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H243" s="8">
         <f t="shared" si="27"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I243" s="15">
         <f t="shared" si="28"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="244" spans="3:9" x14ac:dyDescent="0.25">
@@ -7003,19 +7013,19 @@
       </c>
       <c r="F244" s="13">
         <f t="shared" si="25"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G244" s="8">
         <f t="shared" si="26"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H244" s="8">
         <f t="shared" si="27"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I244" s="15">
         <f t="shared" si="28"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="245" spans="3:9" x14ac:dyDescent="0.25">
@@ -7027,19 +7037,19 @@
       </c>
       <c r="F245" s="13">
         <f t="shared" si="25"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G245" s="8">
         <f t="shared" si="26"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H245" s="8">
         <f t="shared" si="27"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I245" s="15">
         <f t="shared" si="28"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="246" spans="3:9" x14ac:dyDescent="0.25">
@@ -7051,19 +7061,19 @@
       </c>
       <c r="F246" s="13">
         <f t="shared" si="25"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G246" s="8">
         <f t="shared" si="26"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H246" s="8">
         <f t="shared" si="27"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I246" s="15">
         <f t="shared" si="28"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="247" spans="3:9" x14ac:dyDescent="0.25">
@@ -7075,19 +7085,19 @@
       </c>
       <c r="F247" s="13">
         <f t="shared" si="25"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G247" s="8">
         <f t="shared" si="26"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H247" s="8">
         <f t="shared" si="27"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I247" s="15">
         <f t="shared" si="28"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="248" spans="3:9" x14ac:dyDescent="0.25">
@@ -7099,19 +7109,19 @@
       </c>
       <c r="F248" s="13">
         <f t="shared" si="25"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G248" s="8">
         <f t="shared" si="26"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H248" s="8">
         <f t="shared" si="27"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I248" s="15">
         <f t="shared" si="28"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="249" spans="3:9" x14ac:dyDescent="0.25">
@@ -7123,19 +7133,19 @@
       </c>
       <c r="F249" s="13">
         <f t="shared" si="25"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G249" s="8">
         <f t="shared" si="26"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H249" s="8">
         <f t="shared" si="27"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I249" s="15">
         <f t="shared" si="28"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="250" spans="3:9" x14ac:dyDescent="0.25">
@@ -7147,19 +7157,19 @@
       </c>
       <c r="F250" s="13">
         <f t="shared" si="25"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G250" s="8">
         <f t="shared" si="26"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H250" s="8">
         <f t="shared" si="27"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I250" s="15">
         <f t="shared" si="28"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="251" spans="3:9" x14ac:dyDescent="0.25">
@@ -7171,19 +7181,19 @@
       </c>
       <c r="F251" s="13">
         <f t="shared" si="25"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G251" s="8">
         <f t="shared" si="26"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H251" s="8">
         <f t="shared" si="27"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I251" s="15">
         <f t="shared" si="28"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="252" spans="3:9" x14ac:dyDescent="0.25">
@@ -7195,19 +7205,19 @@
       </c>
       <c r="F252" s="13">
         <f t="shared" si="25"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G252" s="8">
         <f t="shared" si="26"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H252" s="8">
         <f t="shared" si="27"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I252" s="15">
         <f t="shared" si="28"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="253" spans="3:9" x14ac:dyDescent="0.25">
@@ -7219,19 +7229,19 @@
       </c>
       <c r="F253" s="13">
         <f t="shared" si="25"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G253" s="8">
         <f t="shared" si="26"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H253" s="8">
         <f t="shared" si="27"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I253" s="15">
         <f t="shared" si="28"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="254" spans="3:9" x14ac:dyDescent="0.25">
@@ -7243,19 +7253,19 @@
       </c>
       <c r="F254" s="13">
         <f t="shared" si="25"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G254" s="8">
         <f t="shared" si="26"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H254" s="8">
         <f t="shared" si="27"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I254" s="15">
         <f t="shared" si="28"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
     <row r="255" spans="3:9" x14ac:dyDescent="0.25">
@@ -7267,19 +7277,19 @@
       </c>
       <c r="F255" s="13">
         <f t="shared" si="25"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="G255" s="8">
         <f t="shared" si="26"/>
-        <v>2.8597222222222216</v>
+        <v>2.9347222222222218</v>
       </c>
       <c r="H255" s="8">
         <f t="shared" si="27"/>
-        <v>4.0097222222222229</v>
+        <v>4.084722222222223</v>
       </c>
       <c r="I255" s="15">
         <f t="shared" si="28"/>
-        <v>16359.66666666667</v>
+        <v>16665.666666666672</v>
       </c>
     </row>
   </sheetData>

--- a/hodiny.xlsx
+++ b/hodiny.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91881FC3-66C4-4FB0-9FDE-0B719E90FE9B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E4E88D8-F791-4753-A643-BE81DBB74A0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="28800" windowHeight="14925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3360" yWindow="4650" windowWidth="28800" windowHeight="14925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -23,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>čas [min]</t>
   </si>
@@ -146,6 +148,18 @@
   </si>
   <si>
     <t>30.6.</t>
+  </si>
+  <si>
+    <t>23.7.</t>
+  </si>
+  <si>
+    <t>24.7.</t>
+  </si>
+  <si>
+    <t>georef Vetrni</t>
+  </si>
+  <si>
+    <t>georef hotové</t>
   </si>
 </sst>
 </file>
@@ -660,7 +674,7 @@
   <dimension ref="B1:J255"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A94" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D109" sqref="D109"/>
+      <selection activeCell="M105" sqref="M105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3419,7 +3433,7 @@
         <v>14645.500000000005</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C97" s="2">
         <v>0.85763888888888884</v>
       </c>
@@ -3447,7 +3461,7 @@
         <v>14790.000000000007</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B98" s="16" t="s">
         <v>38</v>
       </c>
@@ -3478,7 +3492,7 @@
         <v>15110.166666666673</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C99" s="2">
         <v>0.79722222222222217</v>
       </c>
@@ -3506,7 +3520,7 @@
         <v>15679.666666666672</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B100" s="16" t="s">
         <v>39</v>
       </c>
@@ -3537,7 +3551,7 @@
         <v>15699.500000000004</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C101" s="2">
         <v>0.57361111111111118</v>
       </c>
@@ -3565,7 +3579,7 @@
         <v>15727.833333333336</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C102" s="2">
         <v>0.58333333333333337</v>
       </c>
@@ -3593,7 +3607,7 @@
         <v>15764.666666666666</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C103" s="2">
         <v>0.59861111111111109</v>
       </c>
@@ -3621,7 +3635,7 @@
         <v>15903.500000000002</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C104" s="2">
         <v>0.72916666666666663</v>
       </c>
@@ -3649,7 +3663,7 @@
         <v>15988.500000000002</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C105" s="2">
         <v>0.76527777777777783</v>
       </c>
@@ -3677,7 +3691,7 @@
         <v>16048.000000000005</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C106" s="2">
         <v>0.79305555555555562</v>
       </c>
@@ -3705,7 +3719,7 @@
         <v>16203.833333333336</v>
       </c>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C107" s="2">
         <v>0.85</v>
       </c>
@@ -3733,7 +3747,7 @@
         <v>16359.66666666667</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B108" s="16" t="s">
         <v>40</v>
       </c>
@@ -3764,151 +3778,187 @@
         <v>16665.666666666672</v>
       </c>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C109" s="2"/>
-      <c r="D109" s="10"/>
+    <row r="109" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C109" s="2">
+        <v>0.63958333333333328</v>
+      </c>
+      <c r="D109" s="10">
+        <v>0.68541666666666667</v>
+      </c>
       <c r="E109" s="12">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>4.5833333333333393E-2</v>
       </c>
       <c r="F109" s="13">
         <f t="shared" si="15"/>
-        <v>2.9347222222222218</v>
+        <v>2.9805555555555552</v>
       </c>
       <c r="G109" s="8">
         <f t="shared" si="16"/>
-        <v>2.9347222222222218</v>
+        <v>2.9805555555555552</v>
       </c>
       <c r="H109" s="8">
         <f t="shared" si="17"/>
-        <v>4.084722222222223</v>
+        <v>4.1305555555555564</v>
       </c>
       <c r="I109" s="15">
         <f t="shared" si="18"/>
-        <v>16665.666666666672</v>
-      </c>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C110" s="2"/>
-      <c r="D110" s="10"/>
+        <v>16852.666666666672</v>
+      </c>
+    </row>
+    <row r="110" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C110" s="2">
+        <v>0.6958333333333333</v>
+      </c>
+      <c r="D110" s="10">
+        <v>0.73402777777777783</v>
+      </c>
       <c r="E110" s="12">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>3.8194444444444531E-2</v>
       </c>
       <c r="F110" s="13">
         <f t="shared" si="15"/>
-        <v>2.9347222222222218</v>
+        <v>3.0187499999999998</v>
       </c>
       <c r="G110" s="8">
         <f t="shared" si="16"/>
-        <v>2.9347222222222218</v>
+        <v>3.0187499999999998</v>
       </c>
       <c r="H110" s="8">
         <f t="shared" si="17"/>
-        <v>4.084722222222223</v>
+        <v>4.1687500000000011</v>
       </c>
       <c r="I110" s="15">
         <f t="shared" si="18"/>
-        <v>16665.666666666672</v>
-      </c>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C111" s="2"/>
-      <c r="D111" s="10"/>
+        <v>17008.500000000004</v>
+      </c>
+    </row>
+    <row r="111" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B111" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C111" s="2">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="D111" s="10">
+        <v>0.85069444444444453</v>
+      </c>
       <c r="E111" s="12">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.1527777777777779</v>
       </c>
       <c r="F111" s="13">
         <f t="shared" si="15"/>
-        <v>2.9347222222222218</v>
+        <v>3.1715277777777775</v>
       </c>
       <c r="G111" s="8">
         <f t="shared" si="16"/>
-        <v>2.9347222222222218</v>
+        <v>3.1715277777777775</v>
       </c>
       <c r="H111" s="8">
         <f t="shared" si="17"/>
-        <v>4.084722222222223</v>
+        <v>4.3215277777777787</v>
       </c>
       <c r="I111" s="15">
         <f t="shared" si="18"/>
-        <v>16665.666666666672</v>
-      </c>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C112" s="2"/>
-      <c r="D112" s="10"/>
+        <v>17631.833333333339</v>
+      </c>
+      <c r="J111" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="112" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C112" s="2">
+        <v>0.84375</v>
+      </c>
+      <c r="D112" s="10">
+        <v>0.90416666666666667</v>
+      </c>
       <c r="E112" s="12">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>6.0416666666666674E-2</v>
       </c>
       <c r="F112" s="13">
         <f t="shared" si="15"/>
-        <v>2.9347222222222218</v>
+        <v>3.2319444444444443</v>
       </c>
       <c r="G112" s="8">
         <f t="shared" si="16"/>
-        <v>2.9347222222222218</v>
+        <v>3.2319444444444443</v>
       </c>
       <c r="H112" s="8">
         <f t="shared" si="17"/>
-        <v>4.084722222222223</v>
+        <v>4.3819444444444455</v>
       </c>
       <c r="I112" s="15">
         <f t="shared" si="18"/>
-        <v>16665.666666666672</v>
-      </c>
-    </row>
-    <row r="113" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C113" s="2"/>
-      <c r="D113" s="10"/>
+        <v>17878.333333333336</v>
+      </c>
+    </row>
+    <row r="113" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C113" s="2">
+        <v>0.92083333333333339</v>
+      </c>
+      <c r="D113" s="10">
+        <v>1</v>
+      </c>
       <c r="E113" s="12">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>7.9166666666666607E-2</v>
       </c>
       <c r="F113" s="13">
         <f t="shared" si="15"/>
-        <v>2.9347222222222218</v>
+        <v>3.3111111111111109</v>
       </c>
       <c r="G113" s="8">
         <f t="shared" si="16"/>
-        <v>2.9347222222222218</v>
+        <v>3.3111111111111109</v>
       </c>
       <c r="H113" s="8">
         <f t="shared" si="17"/>
-        <v>4.084722222222223</v>
+        <v>4.4611111111111121</v>
       </c>
       <c r="I113" s="15">
         <f t="shared" si="18"/>
-        <v>16665.666666666672</v>
-      </c>
-    </row>
-    <row r="114" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C114" s="2"/>
-      <c r="D114" s="10"/>
+        <v>18201.333333333336</v>
+      </c>
+    </row>
+    <row r="114" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B114" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C114" s="2">
+        <v>0</v>
+      </c>
+      <c r="D114" s="10">
+        <v>0.25208333333333333</v>
+      </c>
       <c r="E114" s="12">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.25208333333333333</v>
       </c>
       <c r="F114" s="13">
         <f t="shared" si="15"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G114" s="8">
         <f t="shared" si="16"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H114" s="8">
         <f t="shared" si="17"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I114" s="15">
         <f t="shared" si="18"/>
-        <v>16665.666666666672</v>
-      </c>
-    </row>
-    <row r="115" spans="3:9" x14ac:dyDescent="0.25">
+        <v>19229.833333333339</v>
+      </c>
+      <c r="J114" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="115" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C115" s="2"/>
       <c r="D115" s="10"/>
       <c r="E115" s="12">
@@ -3917,22 +3967,22 @@
       </c>
       <c r="F115" s="13">
         <f t="shared" si="15"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G115" s="8">
         <f t="shared" si="16"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H115" s="8">
         <f t="shared" si="17"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I115" s="15">
         <f t="shared" si="18"/>
-        <v>16665.666666666672</v>
-      </c>
-    </row>
-    <row r="116" spans="3:9" x14ac:dyDescent="0.25">
+        <v>19229.833333333339</v>
+      </c>
+    </row>
+    <row r="116" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C116" s="2"/>
       <c r="D116" s="10"/>
       <c r="E116" s="12">
@@ -3941,22 +3991,22 @@
       </c>
       <c r="F116" s="13">
         <f t="shared" si="15"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G116" s="8">
         <f t="shared" si="16"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H116" s="8">
         <f t="shared" si="17"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I116" s="15">
         <f t="shared" si="18"/>
-        <v>16665.666666666672</v>
-      </c>
-    </row>
-    <row r="117" spans="3:9" x14ac:dyDescent="0.25">
+        <v>19229.833333333339</v>
+      </c>
+    </row>
+    <row r="117" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C117" s="2"/>
       <c r="D117" s="10"/>
       <c r="E117" s="12">
@@ -3965,22 +4015,22 @@
       </c>
       <c r="F117" s="13">
         <f t="shared" si="15"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G117" s="8">
         <f t="shared" si="16"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H117" s="8">
         <f t="shared" si="17"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I117" s="15">
         <f t="shared" si="18"/>
-        <v>16665.666666666672</v>
-      </c>
-    </row>
-    <row r="118" spans="3:9" x14ac:dyDescent="0.25">
+        <v>19229.833333333339</v>
+      </c>
+    </row>
+    <row r="118" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C118" s="2"/>
       <c r="D118" s="10"/>
       <c r="E118" s="12">
@@ -3989,22 +4039,22 @@
       </c>
       <c r="F118" s="13">
         <f t="shared" si="15"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G118" s="8">
         <f t="shared" si="16"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H118" s="8">
         <f t="shared" si="17"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I118" s="15">
         <f t="shared" si="18"/>
-        <v>16665.666666666672</v>
-      </c>
-    </row>
-    <row r="119" spans="3:9" x14ac:dyDescent="0.25">
+        <v>19229.833333333339</v>
+      </c>
+    </row>
+    <row r="119" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C119" s="2"/>
       <c r="D119" s="10"/>
       <c r="E119" s="12">
@@ -4013,22 +4063,22 @@
       </c>
       <c r="F119" s="13">
         <f t="shared" si="15"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G119" s="8">
         <f t="shared" si="16"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H119" s="8">
         <f t="shared" si="17"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I119" s="15">
         <f t="shared" si="18"/>
-        <v>16665.666666666672</v>
-      </c>
-    </row>
-    <row r="120" spans="3:9" x14ac:dyDescent="0.25">
+        <v>19229.833333333339</v>
+      </c>
+    </row>
+    <row r="120" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C120" s="2"/>
       <c r="D120" s="10"/>
       <c r="E120" s="12">
@@ -4037,22 +4087,22 @@
       </c>
       <c r="F120" s="13">
         <f t="shared" si="15"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G120" s="8">
         <f t="shared" si="16"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H120" s="8">
         <f t="shared" si="17"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I120" s="15">
         <f t="shared" si="18"/>
-        <v>16665.666666666672</v>
-      </c>
-    </row>
-    <row r="121" spans="3:9" x14ac:dyDescent="0.25">
+        <v>19229.833333333339</v>
+      </c>
+    </row>
+    <row r="121" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C121" s="2"/>
       <c r="D121" s="10"/>
       <c r="E121" s="12">
@@ -4061,22 +4111,22 @@
       </c>
       <c r="F121" s="13">
         <f t="shared" si="15"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G121" s="8">
         <f t="shared" si="16"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H121" s="8">
         <f t="shared" si="17"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I121" s="15">
         <f t="shared" si="18"/>
-        <v>16665.666666666672</v>
-      </c>
-    </row>
-    <row r="122" spans="3:9" x14ac:dyDescent="0.25">
+        <v>19229.833333333339</v>
+      </c>
+    </row>
+    <row r="122" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C122" s="2"/>
       <c r="D122" s="10"/>
       <c r="E122" s="12">
@@ -4085,22 +4135,22 @@
       </c>
       <c r="F122" s="13">
         <f t="shared" si="15"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G122" s="8">
         <f t="shared" si="16"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H122" s="8">
         <f t="shared" si="17"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I122" s="15">
         <f t="shared" si="18"/>
-        <v>16665.666666666672</v>
-      </c>
-    </row>
-    <row r="123" spans="3:9" x14ac:dyDescent="0.25">
+        <v>19229.833333333339</v>
+      </c>
+    </row>
+    <row r="123" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C123" s="2"/>
       <c r="D123" s="10"/>
       <c r="E123" s="12">
@@ -4109,22 +4159,22 @@
       </c>
       <c r="F123" s="13">
         <f t="shared" si="15"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G123" s="8">
         <f t="shared" si="16"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H123" s="8">
         <f t="shared" si="17"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I123" s="15">
         <f t="shared" si="18"/>
-        <v>16665.666666666672</v>
-      </c>
-    </row>
-    <row r="124" spans="3:9" x14ac:dyDescent="0.25">
+        <v>19229.833333333339</v>
+      </c>
+    </row>
+    <row r="124" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C124" s="2"/>
       <c r="D124" s="10"/>
       <c r="E124" s="12">
@@ -4133,22 +4183,22 @@
       </c>
       <c r="F124" s="13">
         <f t="shared" si="15"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G124" s="8">
         <f t="shared" si="16"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H124" s="8">
         <f t="shared" si="17"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I124" s="15">
         <f t="shared" si="18"/>
-        <v>16665.666666666672</v>
-      </c>
-    </row>
-    <row r="125" spans="3:9" x14ac:dyDescent="0.25">
+        <v>19229.833333333339</v>
+      </c>
+    </row>
+    <row r="125" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C125" s="2"/>
       <c r="D125" s="10"/>
       <c r="E125" s="12">
@@ -4157,22 +4207,22 @@
       </c>
       <c r="F125" s="13">
         <f t="shared" si="15"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G125" s="8">
         <f t="shared" si="16"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H125" s="8">
         <f t="shared" si="17"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I125" s="15">
         <f t="shared" si="18"/>
-        <v>16665.666666666672</v>
-      </c>
-    </row>
-    <row r="126" spans="3:9" x14ac:dyDescent="0.25">
+        <v>19229.833333333339</v>
+      </c>
+    </row>
+    <row r="126" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C126" s="2"/>
       <c r="D126" s="10"/>
       <c r="E126" s="12">
@@ -4181,22 +4231,22 @@
       </c>
       <c r="F126" s="13">
         <f t="shared" si="15"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G126" s="8">
         <f t="shared" si="16"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H126" s="8">
         <f t="shared" si="17"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I126" s="15">
         <f t="shared" si="18"/>
-        <v>16665.666666666672</v>
-      </c>
-    </row>
-    <row r="127" spans="3:9" x14ac:dyDescent="0.25">
+        <v>19229.833333333339</v>
+      </c>
+    </row>
+    <row r="127" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C127" s="2"/>
       <c r="D127" s="10"/>
       <c r="E127" s="12">
@@ -4205,22 +4255,22 @@
       </c>
       <c r="F127" s="13">
         <f t="shared" si="15"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G127" s="8">
         <f t="shared" si="16"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H127" s="8">
         <f t="shared" si="17"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I127" s="15">
         <f t="shared" si="18"/>
-        <v>16665.666666666672</v>
-      </c>
-    </row>
-    <row r="128" spans="3:9" x14ac:dyDescent="0.25">
+        <v>19229.833333333339</v>
+      </c>
+    </row>
+    <row r="128" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C128" s="2"/>
       <c r="D128" s="10"/>
       <c r="E128" s="12">
@@ -4229,19 +4279,19 @@
       </c>
       <c r="F128" s="13">
         <f t="shared" si="15"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G128" s="8">
         <f t="shared" si="16"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H128" s="8">
         <f t="shared" si="17"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I128" s="15">
         <f t="shared" si="18"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="129" spans="3:9" x14ac:dyDescent="0.25">
@@ -4253,19 +4303,19 @@
       </c>
       <c r="F129" s="13">
         <f t="shared" si="15"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G129" s="8">
         <f t="shared" si="16"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H129" s="8">
         <f t="shared" si="17"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I129" s="15">
         <f t="shared" si="18"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="130" spans="3:9" x14ac:dyDescent="0.25">
@@ -4277,19 +4327,19 @@
       </c>
       <c r="F130" s="13">
         <f t="shared" si="15"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G130" s="8">
         <f t="shared" si="16"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H130" s="8">
         <f t="shared" si="17"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I130" s="15">
         <f t="shared" si="18"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="131" spans="3:9" x14ac:dyDescent="0.25">
@@ -4301,19 +4351,19 @@
       </c>
       <c r="F131" s="13">
         <f t="shared" si="15"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G131" s="8">
         <f t="shared" si="16"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H131" s="8">
         <f t="shared" si="17"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I131" s="15">
         <f t="shared" si="18"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="132" spans="3:9" x14ac:dyDescent="0.25">
@@ -4325,19 +4375,19 @@
       </c>
       <c r="F132" s="13">
         <f t="shared" si="15"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G132" s="8">
         <f t="shared" si="16"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H132" s="8">
         <f t="shared" si="17"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I132" s="15">
         <f t="shared" si="18"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="133" spans="3:9" x14ac:dyDescent="0.25">
@@ -4349,19 +4399,19 @@
       </c>
       <c r="F133" s="13">
         <f t="shared" si="15"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G133" s="8">
         <f t="shared" si="16"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H133" s="8">
         <f t="shared" si="17"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I133" s="15">
         <f t="shared" si="18"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="134" spans="3:9" x14ac:dyDescent="0.25">
@@ -4373,19 +4423,19 @@
       </c>
       <c r="F134" s="13">
         <f t="shared" si="15"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G134" s="8">
         <f t="shared" si="16"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H134" s="8">
         <f t="shared" si="17"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I134" s="15">
         <f t="shared" si="18"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="135" spans="3:9" x14ac:dyDescent="0.25">
@@ -4397,19 +4447,19 @@
       </c>
       <c r="F135" s="13">
         <f t="shared" si="15"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G135" s="8">
         <f t="shared" si="16"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H135" s="8">
         <f t="shared" si="17"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I135" s="15">
         <f t="shared" si="18"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="136" spans="3:9" x14ac:dyDescent="0.25">
@@ -4421,19 +4471,19 @@
       </c>
       <c r="F136" s="13">
         <f t="shared" si="15"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G136" s="8">
         <f t="shared" si="16"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H136" s="8">
         <f t="shared" si="17"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I136" s="15">
         <f t="shared" si="18"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="137" spans="3:9" x14ac:dyDescent="0.25">
@@ -4445,19 +4495,19 @@
       </c>
       <c r="F137" s="13">
         <f t="shared" si="15"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G137" s="8">
         <f t="shared" si="16"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H137" s="8">
         <f t="shared" si="17"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I137" s="15">
         <f t="shared" si="18"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="138" spans="3:9" x14ac:dyDescent="0.25">
@@ -4469,19 +4519,19 @@
       </c>
       <c r="F138" s="13">
         <f t="shared" si="15"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G138" s="8">
         <f t="shared" si="16"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H138" s="8">
         <f t="shared" si="17"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I138" s="15">
         <f t="shared" si="18"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="139" spans="3:9" x14ac:dyDescent="0.25">
@@ -4493,19 +4543,19 @@
       </c>
       <c r="F139" s="13">
         <f t="shared" si="15"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G139" s="8">
         <f t="shared" si="16"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H139" s="8">
         <f t="shared" si="17"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I139" s="15">
         <f t="shared" si="18"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="140" spans="3:9" x14ac:dyDescent="0.25">
@@ -4517,19 +4567,19 @@
       </c>
       <c r="F140" s="13">
         <f t="shared" si="15"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G140" s="8">
         <f t="shared" si="16"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H140" s="8">
         <f t="shared" si="17"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I140" s="15">
         <f t="shared" si="18"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="141" spans="3:9" x14ac:dyDescent="0.25">
@@ -4541,19 +4591,19 @@
       </c>
       <c r="F141" s="13">
         <f t="shared" si="15"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G141" s="8">
         <f t="shared" si="16"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H141" s="8">
         <f t="shared" si="17"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I141" s="15">
         <f t="shared" si="18"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="142" spans="3:9" x14ac:dyDescent="0.25">
@@ -4565,19 +4615,19 @@
       </c>
       <c r="F142" s="13">
         <f t="shared" si="15"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G142" s="8">
         <f t="shared" si="16"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H142" s="8">
         <f t="shared" si="17"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I142" s="15">
         <f t="shared" si="18"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="143" spans="3:9" x14ac:dyDescent="0.25">
@@ -4589,19 +4639,19 @@
       </c>
       <c r="F143" s="13">
         <f t="shared" si="15"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G143" s="8">
         <f t="shared" si="16"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H143" s="8">
         <f t="shared" si="17"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I143" s="15">
         <f t="shared" si="18"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="144" spans="3:9" x14ac:dyDescent="0.25">
@@ -4613,19 +4663,19 @@
       </c>
       <c r="F144" s="13">
         <f t="shared" si="15"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G144" s="8">
         <f t="shared" si="16"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H144" s="8">
         <f t="shared" si="17"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I144" s="15">
         <f t="shared" si="18"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="145" spans="3:9" x14ac:dyDescent="0.25">
@@ -4637,19 +4687,19 @@
       </c>
       <c r="F145" s="13">
         <f t="shared" si="15"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G145" s="8">
         <f t="shared" si="16"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H145" s="8">
         <f t="shared" si="17"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I145" s="15">
         <f t="shared" si="18"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="146" spans="3:9" x14ac:dyDescent="0.25">
@@ -4661,19 +4711,19 @@
       </c>
       <c r="F146" s="13">
         <f t="shared" si="15"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G146" s="8">
         <f t="shared" si="16"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H146" s="8">
         <f t="shared" si="17"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I146" s="15">
         <f t="shared" si="18"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="147" spans="3:9" x14ac:dyDescent="0.25">
@@ -4685,19 +4735,19 @@
       </c>
       <c r="F147" s="13">
         <f t="shared" si="15"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G147" s="8">
         <f t="shared" si="16"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H147" s="8">
         <f t="shared" si="17"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I147" s="15">
         <f t="shared" si="18"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="148" spans="3:9" x14ac:dyDescent="0.25">
@@ -4709,19 +4759,19 @@
       </c>
       <c r="F148" s="13">
         <f t="shared" si="15"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G148" s="8">
         <f t="shared" si="16"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H148" s="8">
         <f t="shared" si="17"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I148" s="15">
         <f t="shared" si="18"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="149" spans="3:9" x14ac:dyDescent="0.25">
@@ -4733,19 +4783,19 @@
       </c>
       <c r="F149" s="13">
         <f t="shared" si="15"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G149" s="8">
         <f t="shared" si="16"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H149" s="8">
         <f t="shared" si="17"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I149" s="15">
         <f t="shared" si="18"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="150" spans="3:9" x14ac:dyDescent="0.25">
@@ -4757,19 +4807,19 @@
       </c>
       <c r="F150" s="13">
         <f t="shared" si="15"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G150" s="8">
         <f t="shared" si="16"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H150" s="8">
         <f t="shared" si="17"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I150" s="15">
         <f t="shared" si="18"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="151" spans="3:9" x14ac:dyDescent="0.25">
@@ -4781,19 +4831,19 @@
       </c>
       <c r="F151" s="13">
         <f t="shared" si="15"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G151" s="8">
         <f t="shared" si="16"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H151" s="8">
         <f t="shared" si="17"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I151" s="15">
         <f t="shared" si="18"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="152" spans="3:9" x14ac:dyDescent="0.25">
@@ -4805,19 +4855,19 @@
       </c>
       <c r="F152" s="13">
         <f t="shared" si="15"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G152" s="8">
         <f t="shared" si="16"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H152" s="8">
         <f t="shared" si="17"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I152" s="15">
         <f t="shared" si="18"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="153" spans="3:9" x14ac:dyDescent="0.25">
@@ -4829,19 +4879,19 @@
       </c>
       <c r="F153" s="13">
         <f t="shared" si="15"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G153" s="8">
         <f t="shared" si="16"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H153" s="8">
         <f t="shared" si="17"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I153" s="15">
         <f t="shared" si="18"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="154" spans="3:9" x14ac:dyDescent="0.25">
@@ -4853,19 +4903,19 @@
       </c>
       <c r="F154" s="13">
         <f t="shared" si="15"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G154" s="8">
         <f t="shared" si="16"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H154" s="8">
         <f t="shared" si="17"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I154" s="15">
         <f t="shared" si="18"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="155" spans="3:9" x14ac:dyDescent="0.25">
@@ -4877,19 +4927,19 @@
       </c>
       <c r="F155" s="13">
         <f t="shared" si="15"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G155" s="8">
         <f t="shared" si="16"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H155" s="8">
         <f t="shared" si="17"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I155" s="15">
         <f t="shared" si="18"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="156" spans="3:9" x14ac:dyDescent="0.25">
@@ -4901,19 +4951,19 @@
       </c>
       <c r="F156" s="13">
         <f t="shared" si="15"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G156" s="8">
         <f t="shared" si="16"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H156" s="8">
         <f t="shared" si="17"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I156" s="15">
         <f t="shared" si="18"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="157" spans="3:9" x14ac:dyDescent="0.25">
@@ -4925,19 +4975,19 @@
       </c>
       <c r="F157" s="13">
         <f t="shared" si="15"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G157" s="8">
         <f t="shared" si="16"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H157" s="8">
         <f t="shared" si="17"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I157" s="15">
         <f t="shared" si="18"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="158" spans="3:9" x14ac:dyDescent="0.25">
@@ -4949,19 +4999,19 @@
       </c>
       <c r="F158" s="13">
         <f t="shared" si="15"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G158" s="8">
         <f t="shared" si="16"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H158" s="8">
         <f t="shared" si="17"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I158" s="15">
         <f t="shared" si="18"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="159" spans="3:9" x14ac:dyDescent="0.25">
@@ -4973,19 +5023,19 @@
       </c>
       <c r="F159" s="13">
         <f t="shared" si="15"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G159" s="8">
         <f t="shared" si="16"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H159" s="8">
         <f t="shared" si="17"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I159" s="15">
         <f t="shared" si="18"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="160" spans="3:9" x14ac:dyDescent="0.25">
@@ -4997,19 +5047,19 @@
       </c>
       <c r="F160" s="13">
         <f t="shared" si="15"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G160" s="8">
         <f t="shared" si="16"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H160" s="8">
         <f t="shared" si="17"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I160" s="15">
         <f t="shared" si="18"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="161" spans="3:9" x14ac:dyDescent="0.25">
@@ -5021,19 +5071,19 @@
       </c>
       <c r="F161" s="13">
         <f t="shared" si="15"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G161" s="8">
         <f t="shared" si="16"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H161" s="8">
         <f t="shared" si="17"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I161" s="15">
         <f t="shared" si="18"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="162" spans="3:9" x14ac:dyDescent="0.25">
@@ -5045,19 +5095,19 @@
       </c>
       <c r="F162" s="13">
         <f t="shared" si="15"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G162" s="8">
         <f t="shared" si="16"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H162" s="8">
         <f t="shared" si="17"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I162" s="15">
         <f t="shared" si="18"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="163" spans="3:9" x14ac:dyDescent="0.25">
@@ -5069,19 +5119,19 @@
       </c>
       <c r="F163" s="13">
         <f t="shared" si="15"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G163" s="8">
         <f t="shared" si="16"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H163" s="8">
         <f t="shared" si="17"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I163" s="15">
         <f t="shared" si="18"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="164" spans="3:9" x14ac:dyDescent="0.25">
@@ -5093,19 +5143,19 @@
       </c>
       <c r="F164" s="13">
         <f t="shared" si="15"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G164" s="8">
         <f t="shared" si="16"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H164" s="8">
         <f t="shared" si="17"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I164" s="15">
         <f t="shared" si="18"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="165" spans="3:9" x14ac:dyDescent="0.25">
@@ -5117,19 +5167,19 @@
       </c>
       <c r="F165" s="13">
         <f t="shared" si="15"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G165" s="8">
         <f t="shared" si="16"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H165" s="8">
         <f t="shared" si="17"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I165" s="15">
         <f t="shared" si="18"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="166" spans="3:9" x14ac:dyDescent="0.25">
@@ -5141,19 +5191,19 @@
       </c>
       <c r="F166" s="13">
         <f t="shared" si="15"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G166" s="8">
         <f t="shared" si="16"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H166" s="8">
         <f t="shared" si="17"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I166" s="15">
         <f t="shared" si="18"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="167" spans="3:9" x14ac:dyDescent="0.25">
@@ -5165,19 +5215,19 @@
       </c>
       <c r="F167" s="13">
         <f t="shared" si="15"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G167" s="8">
         <f t="shared" si="16"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H167" s="8">
         <f t="shared" si="17"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I167" s="15">
         <f t="shared" si="18"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="168" spans="3:9" x14ac:dyDescent="0.25">
@@ -5189,19 +5239,19 @@
       </c>
       <c r="F168" s="13">
         <f t="shared" ref="F168:F231" si="20">F167+E168</f>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G168" s="8">
         <f t="shared" ref="G168:G231" si="21">F168</f>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H168" s="8">
         <f t="shared" ref="H168:H231" si="22">(H167+G168-G167)</f>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I168" s="15">
         <f t="shared" ref="I168:I231" si="23">H168*24*$J$2</f>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="169" spans="3:9" x14ac:dyDescent="0.25">
@@ -5213,19 +5263,19 @@
       </c>
       <c r="F169" s="13">
         <f t="shared" si="20"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G169" s="8">
         <f t="shared" si="21"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H169" s="8">
         <f t="shared" si="22"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I169" s="15">
         <f t="shared" si="23"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="170" spans="3:9" x14ac:dyDescent="0.25">
@@ -5237,19 +5287,19 @@
       </c>
       <c r="F170" s="13">
         <f t="shared" si="20"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G170" s="8">
         <f t="shared" si="21"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H170" s="8">
         <f t="shared" si="22"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I170" s="15">
         <f t="shared" si="23"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="171" spans="3:9" x14ac:dyDescent="0.25">
@@ -5261,19 +5311,19 @@
       </c>
       <c r="F171" s="13">
         <f t="shared" si="20"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G171" s="8">
         <f t="shared" si="21"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H171" s="8">
         <f t="shared" si="22"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I171" s="15">
         <f t="shared" si="23"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="172" spans="3:9" x14ac:dyDescent="0.25">
@@ -5285,19 +5335,19 @@
       </c>
       <c r="F172" s="13">
         <f t="shared" si="20"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G172" s="8">
         <f t="shared" si="21"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H172" s="8">
         <f t="shared" si="22"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I172" s="15">
         <f t="shared" si="23"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="173" spans="3:9" x14ac:dyDescent="0.25">
@@ -5309,19 +5359,19 @@
       </c>
       <c r="F173" s="13">
         <f t="shared" si="20"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G173" s="8">
         <f t="shared" si="21"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H173" s="8">
         <f t="shared" si="22"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I173" s="15">
         <f t="shared" si="23"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="174" spans="3:9" x14ac:dyDescent="0.25">
@@ -5333,19 +5383,19 @@
       </c>
       <c r="F174" s="13">
         <f t="shared" si="20"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G174" s="8">
         <f t="shared" si="21"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H174" s="8">
         <f t="shared" si="22"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I174" s="15">
         <f t="shared" si="23"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="175" spans="3:9" x14ac:dyDescent="0.25">
@@ -5357,19 +5407,19 @@
       </c>
       <c r="F175" s="13">
         <f t="shared" si="20"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G175" s="8">
         <f t="shared" si="21"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H175" s="8">
         <f t="shared" si="22"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I175" s="15">
         <f t="shared" si="23"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="176" spans="3:9" x14ac:dyDescent="0.25">
@@ -5381,19 +5431,19 @@
       </c>
       <c r="F176" s="13">
         <f t="shared" si="20"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G176" s="8">
         <f t="shared" si="21"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H176" s="8">
         <f t="shared" si="22"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I176" s="15">
         <f t="shared" si="23"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="177" spans="3:9" x14ac:dyDescent="0.25">
@@ -5405,19 +5455,19 @@
       </c>
       <c r="F177" s="13">
         <f t="shared" si="20"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G177" s="8">
         <f t="shared" si="21"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H177" s="8">
         <f t="shared" si="22"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I177" s="15">
         <f t="shared" si="23"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="178" spans="3:9" x14ac:dyDescent="0.25">
@@ -5429,19 +5479,19 @@
       </c>
       <c r="F178" s="13">
         <f t="shared" si="20"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G178" s="8">
         <f t="shared" si="21"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H178" s="8">
         <f t="shared" si="22"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I178" s="15">
         <f t="shared" si="23"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="179" spans="3:9" x14ac:dyDescent="0.25">
@@ -5453,19 +5503,19 @@
       </c>
       <c r="F179" s="13">
         <f t="shared" si="20"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G179" s="8">
         <f t="shared" si="21"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H179" s="8">
         <f t="shared" si="22"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I179" s="15">
         <f t="shared" si="23"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="180" spans="3:9" x14ac:dyDescent="0.25">
@@ -5477,19 +5527,19 @@
       </c>
       <c r="F180" s="13">
         <f t="shared" si="20"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G180" s="8">
         <f t="shared" si="21"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H180" s="8">
         <f t="shared" si="22"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I180" s="15">
         <f t="shared" si="23"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="181" spans="3:9" x14ac:dyDescent="0.25">
@@ -5501,19 +5551,19 @@
       </c>
       <c r="F181" s="13">
         <f t="shared" si="20"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G181" s="8">
         <f t="shared" si="21"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H181" s="8">
         <f t="shared" si="22"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I181" s="15">
         <f t="shared" si="23"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="182" spans="3:9" x14ac:dyDescent="0.25">
@@ -5525,19 +5575,19 @@
       </c>
       <c r="F182" s="13">
         <f t="shared" si="20"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G182" s="8">
         <f t="shared" si="21"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H182" s="8">
         <f t="shared" si="22"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I182" s="15">
         <f t="shared" si="23"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="183" spans="3:9" x14ac:dyDescent="0.25">
@@ -5549,19 +5599,19 @@
       </c>
       <c r="F183" s="13">
         <f t="shared" si="20"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G183" s="8">
         <f t="shared" si="21"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H183" s="8">
         <f t="shared" si="22"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I183" s="15">
         <f t="shared" si="23"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="184" spans="3:9" x14ac:dyDescent="0.25">
@@ -5573,19 +5623,19 @@
       </c>
       <c r="F184" s="13">
         <f t="shared" si="20"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G184" s="8">
         <f t="shared" si="21"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H184" s="8">
         <f t="shared" si="22"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I184" s="15">
         <f t="shared" si="23"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="185" spans="3:9" x14ac:dyDescent="0.25">
@@ -5597,19 +5647,19 @@
       </c>
       <c r="F185" s="13">
         <f t="shared" si="20"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G185" s="8">
         <f t="shared" si="21"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H185" s="8">
         <f t="shared" si="22"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I185" s="15">
         <f t="shared" si="23"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="186" spans="3:9" x14ac:dyDescent="0.25">
@@ -5621,19 +5671,19 @@
       </c>
       <c r="F186" s="13">
         <f t="shared" si="20"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G186" s="8">
         <f t="shared" si="21"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H186" s="8">
         <f t="shared" si="22"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I186" s="15">
         <f t="shared" si="23"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="187" spans="3:9" x14ac:dyDescent="0.25">
@@ -5645,19 +5695,19 @@
       </c>
       <c r="F187" s="13">
         <f t="shared" si="20"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G187" s="8">
         <f t="shared" si="21"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H187" s="8">
         <f t="shared" si="22"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I187" s="15">
         <f t="shared" si="23"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="188" spans="3:9" x14ac:dyDescent="0.25">
@@ -5669,19 +5719,19 @@
       </c>
       <c r="F188" s="13">
         <f t="shared" si="20"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G188" s="8">
         <f t="shared" si="21"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H188" s="8">
         <f t="shared" si="22"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I188" s="15">
         <f t="shared" si="23"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="189" spans="3:9" x14ac:dyDescent="0.25">
@@ -5693,19 +5743,19 @@
       </c>
       <c r="F189" s="13">
         <f t="shared" si="20"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G189" s="8">
         <f t="shared" si="21"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H189" s="8">
         <f t="shared" si="22"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I189" s="15">
         <f t="shared" si="23"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="190" spans="3:9" x14ac:dyDescent="0.25">
@@ -5717,19 +5767,19 @@
       </c>
       <c r="F190" s="13">
         <f t="shared" si="20"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G190" s="8">
         <f t="shared" si="21"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H190" s="8">
         <f t="shared" si="22"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I190" s="15">
         <f t="shared" si="23"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="191" spans="3:9" x14ac:dyDescent="0.25">
@@ -5741,19 +5791,19 @@
       </c>
       <c r="F191" s="13">
         <f t="shared" si="20"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G191" s="8">
         <f t="shared" si="21"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H191" s="8">
         <f t="shared" si="22"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I191" s="15">
         <f t="shared" si="23"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="192" spans="3:9" x14ac:dyDescent="0.25">
@@ -5765,19 +5815,19 @@
       </c>
       <c r="F192" s="13">
         <f t="shared" si="20"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G192" s="8">
         <f t="shared" si="21"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H192" s="8">
         <f t="shared" si="22"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I192" s="15">
         <f t="shared" si="23"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="193" spans="3:9" x14ac:dyDescent="0.25">
@@ -5789,19 +5839,19 @@
       </c>
       <c r="F193" s="13">
         <f t="shared" si="20"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G193" s="8">
         <f t="shared" si="21"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H193" s="8">
         <f t="shared" si="22"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I193" s="15">
         <f t="shared" si="23"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="194" spans="3:9" x14ac:dyDescent="0.25">
@@ -5813,19 +5863,19 @@
       </c>
       <c r="F194" s="13">
         <f t="shared" si="20"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G194" s="8">
         <f t="shared" si="21"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H194" s="8">
         <f t="shared" si="22"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I194" s="15">
         <f t="shared" si="23"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="195" spans="3:9" x14ac:dyDescent="0.25">
@@ -5837,19 +5887,19 @@
       </c>
       <c r="F195" s="13">
         <f t="shared" si="20"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G195" s="8">
         <f t="shared" si="21"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H195" s="8">
         <f t="shared" si="22"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I195" s="15">
         <f t="shared" si="23"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="196" spans="3:9" x14ac:dyDescent="0.25">
@@ -5861,19 +5911,19 @@
       </c>
       <c r="F196" s="13">
         <f t="shared" si="20"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G196" s="8">
         <f t="shared" si="21"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H196" s="8">
         <f t="shared" si="22"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I196" s="15">
         <f t="shared" si="23"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="197" spans="3:9" x14ac:dyDescent="0.25">
@@ -5885,19 +5935,19 @@
       </c>
       <c r="F197" s="13">
         <f t="shared" si="20"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G197" s="8">
         <f t="shared" si="21"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H197" s="8">
         <f t="shared" si="22"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I197" s="15">
         <f t="shared" si="23"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="198" spans="3:9" x14ac:dyDescent="0.25">
@@ -5909,19 +5959,19 @@
       </c>
       <c r="F198" s="13">
         <f t="shared" si="20"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G198" s="8">
         <f t="shared" si="21"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H198" s="8">
         <f t="shared" si="22"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I198" s="15">
         <f t="shared" si="23"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="199" spans="3:9" x14ac:dyDescent="0.25">
@@ -5933,19 +5983,19 @@
       </c>
       <c r="F199" s="13">
         <f t="shared" si="20"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G199" s="8">
         <f t="shared" si="21"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H199" s="8">
         <f t="shared" si="22"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I199" s="15">
         <f t="shared" si="23"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="200" spans="3:9" x14ac:dyDescent="0.25">
@@ -5957,19 +6007,19 @@
       </c>
       <c r="F200" s="13">
         <f t="shared" si="20"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G200" s="8">
         <f t="shared" si="21"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H200" s="8">
         <f t="shared" si="22"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I200" s="15">
         <f t="shared" si="23"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="201" spans="3:9" x14ac:dyDescent="0.25">
@@ -5981,19 +6031,19 @@
       </c>
       <c r="F201" s="13">
         <f t="shared" si="20"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G201" s="8">
         <f t="shared" si="21"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H201" s="8">
         <f t="shared" si="22"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I201" s="15">
         <f t="shared" si="23"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="202" spans="3:9" x14ac:dyDescent="0.25">
@@ -6005,19 +6055,19 @@
       </c>
       <c r="F202" s="13">
         <f t="shared" si="20"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G202" s="8">
         <f t="shared" si="21"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H202" s="8">
         <f t="shared" si="22"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I202" s="15">
         <f t="shared" si="23"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="203" spans="3:9" x14ac:dyDescent="0.25">
@@ -6029,19 +6079,19 @@
       </c>
       <c r="F203" s="13">
         <f t="shared" si="20"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G203" s="8">
         <f t="shared" si="21"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H203" s="8">
         <f t="shared" si="22"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I203" s="15">
         <f t="shared" si="23"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="204" spans="3:9" x14ac:dyDescent="0.25">
@@ -6053,19 +6103,19 @@
       </c>
       <c r="F204" s="13">
         <f t="shared" si="20"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G204" s="8">
         <f t="shared" si="21"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H204" s="8">
         <f t="shared" si="22"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I204" s="15">
         <f t="shared" si="23"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="205" spans="3:9" x14ac:dyDescent="0.25">
@@ -6077,19 +6127,19 @@
       </c>
       <c r="F205" s="13">
         <f t="shared" si="20"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G205" s="8">
         <f t="shared" si="21"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H205" s="8">
         <f t="shared" si="22"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I205" s="15">
         <f t="shared" si="23"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="206" spans="3:9" x14ac:dyDescent="0.25">
@@ -6101,19 +6151,19 @@
       </c>
       <c r="F206" s="13">
         <f t="shared" si="20"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G206" s="8">
         <f t="shared" si="21"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H206" s="8">
         <f t="shared" si="22"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I206" s="15">
         <f t="shared" si="23"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="207" spans="3:9" x14ac:dyDescent="0.25">
@@ -6125,19 +6175,19 @@
       </c>
       <c r="F207" s="13">
         <f t="shared" si="20"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G207" s="8">
         <f t="shared" si="21"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H207" s="8">
         <f t="shared" si="22"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I207" s="15">
         <f t="shared" si="23"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="208" spans="3:9" x14ac:dyDescent="0.25">
@@ -6149,19 +6199,19 @@
       </c>
       <c r="F208" s="13">
         <f t="shared" si="20"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G208" s="8">
         <f t="shared" si="21"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H208" s="8">
         <f t="shared" si="22"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I208" s="15">
         <f t="shared" si="23"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="209" spans="3:9" x14ac:dyDescent="0.25">
@@ -6173,19 +6223,19 @@
       </c>
       <c r="F209" s="13">
         <f t="shared" si="20"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G209" s="8">
         <f t="shared" si="21"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H209" s="8">
         <f t="shared" si="22"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I209" s="15">
         <f t="shared" si="23"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="210" spans="3:9" x14ac:dyDescent="0.25">
@@ -6197,19 +6247,19 @@
       </c>
       <c r="F210" s="13">
         <f t="shared" si="20"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G210" s="8">
         <f t="shared" si="21"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H210" s="8">
         <f t="shared" si="22"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I210" s="15">
         <f t="shared" si="23"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="211" spans="3:9" x14ac:dyDescent="0.25">
@@ -6221,19 +6271,19 @@
       </c>
       <c r="F211" s="13">
         <f t="shared" si="20"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G211" s="8">
         <f t="shared" si="21"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H211" s="8">
         <f t="shared" si="22"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I211" s="15">
         <f t="shared" si="23"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="212" spans="3:9" x14ac:dyDescent="0.25">
@@ -6245,19 +6295,19 @@
       </c>
       <c r="F212" s="13">
         <f t="shared" si="20"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G212" s="8">
         <f t="shared" si="21"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H212" s="8">
         <f t="shared" si="22"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I212" s="15">
         <f t="shared" si="23"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="213" spans="3:9" x14ac:dyDescent="0.25">
@@ -6269,19 +6319,19 @@
       </c>
       <c r="F213" s="13">
         <f t="shared" si="20"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G213" s="8">
         <f t="shared" si="21"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H213" s="8">
         <f t="shared" si="22"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I213" s="15">
         <f t="shared" si="23"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="214" spans="3:9" x14ac:dyDescent="0.25">
@@ -6293,19 +6343,19 @@
       </c>
       <c r="F214" s="13">
         <f t="shared" si="20"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G214" s="8">
         <f t="shared" si="21"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H214" s="8">
         <f t="shared" si="22"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I214" s="15">
         <f t="shared" si="23"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="215" spans="3:9" x14ac:dyDescent="0.25">
@@ -6317,19 +6367,19 @@
       </c>
       <c r="F215" s="13">
         <f t="shared" si="20"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G215" s="8">
         <f t="shared" si="21"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H215" s="8">
         <f t="shared" si="22"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I215" s="15">
         <f t="shared" si="23"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="216" spans="3:9" x14ac:dyDescent="0.25">
@@ -6341,19 +6391,19 @@
       </c>
       <c r="F216" s="13">
         <f t="shared" si="20"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G216" s="8">
         <f t="shared" si="21"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H216" s="8">
         <f t="shared" si="22"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I216" s="15">
         <f t="shared" si="23"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="217" spans="3:9" x14ac:dyDescent="0.25">
@@ -6365,19 +6415,19 @@
       </c>
       <c r="F217" s="13">
         <f t="shared" si="20"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G217" s="8">
         <f t="shared" si="21"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H217" s="8">
         <f t="shared" si="22"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I217" s="15">
         <f t="shared" si="23"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="218" spans="3:9" x14ac:dyDescent="0.25">
@@ -6389,19 +6439,19 @@
       </c>
       <c r="F218" s="13">
         <f t="shared" si="20"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G218" s="8">
         <f t="shared" si="21"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H218" s="8">
         <f t="shared" si="22"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I218" s="15">
         <f t="shared" si="23"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="219" spans="3:9" x14ac:dyDescent="0.25">
@@ -6413,19 +6463,19 @@
       </c>
       <c r="F219" s="13">
         <f t="shared" si="20"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G219" s="8">
         <f t="shared" si="21"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H219" s="8">
         <f t="shared" si="22"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I219" s="15">
         <f t="shared" si="23"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="220" spans="3:9" x14ac:dyDescent="0.25">
@@ -6437,19 +6487,19 @@
       </c>
       <c r="F220" s="13">
         <f t="shared" si="20"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G220" s="8">
         <f t="shared" si="21"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H220" s="8">
         <f t="shared" si="22"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I220" s="15">
         <f t="shared" si="23"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="221" spans="3:9" x14ac:dyDescent="0.25">
@@ -6461,19 +6511,19 @@
       </c>
       <c r="F221" s="13">
         <f t="shared" si="20"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G221" s="8">
         <f t="shared" si="21"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H221" s="8">
         <f t="shared" si="22"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I221" s="15">
         <f t="shared" si="23"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="222" spans="3:9" x14ac:dyDescent="0.25">
@@ -6485,19 +6535,19 @@
       </c>
       <c r="F222" s="13">
         <f t="shared" si="20"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G222" s="8">
         <f t="shared" si="21"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H222" s="8">
         <f t="shared" si="22"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I222" s="15">
         <f t="shared" si="23"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="223" spans="3:9" x14ac:dyDescent="0.25">
@@ -6509,19 +6559,19 @@
       </c>
       <c r="F223" s="13">
         <f t="shared" si="20"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G223" s="8">
         <f t="shared" si="21"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H223" s="8">
         <f t="shared" si="22"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I223" s="15">
         <f t="shared" si="23"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="224" spans="3:9" x14ac:dyDescent="0.25">
@@ -6533,19 +6583,19 @@
       </c>
       <c r="F224" s="13">
         <f t="shared" si="20"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G224" s="8">
         <f t="shared" si="21"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H224" s="8">
         <f t="shared" si="22"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I224" s="15">
         <f t="shared" si="23"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="225" spans="3:9" x14ac:dyDescent="0.25">
@@ -6557,19 +6607,19 @@
       </c>
       <c r="F225" s="13">
         <f t="shared" si="20"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G225" s="8">
         <f t="shared" si="21"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H225" s="8">
         <f t="shared" si="22"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I225" s="15">
         <f t="shared" si="23"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="226" spans="3:9" x14ac:dyDescent="0.25">
@@ -6581,19 +6631,19 @@
       </c>
       <c r="F226" s="13">
         <f t="shared" si="20"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G226" s="8">
         <f t="shared" si="21"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H226" s="8">
         <f t="shared" si="22"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I226" s="15">
         <f t="shared" si="23"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="227" spans="3:9" x14ac:dyDescent="0.25">
@@ -6605,19 +6655,19 @@
       </c>
       <c r="F227" s="13">
         <f t="shared" si="20"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G227" s="8">
         <f t="shared" si="21"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H227" s="8">
         <f t="shared" si="22"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I227" s="15">
         <f t="shared" si="23"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="228" spans="3:9" x14ac:dyDescent="0.25">
@@ -6629,19 +6679,19 @@
       </c>
       <c r="F228" s="13">
         <f t="shared" si="20"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G228" s="8">
         <f t="shared" si="21"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H228" s="8">
         <f t="shared" si="22"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I228" s="15">
         <f t="shared" si="23"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="229" spans="3:9" x14ac:dyDescent="0.25">
@@ -6653,19 +6703,19 @@
       </c>
       <c r="F229" s="13">
         <f t="shared" si="20"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G229" s="8">
         <f t="shared" si="21"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H229" s="8">
         <f t="shared" si="22"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I229" s="15">
         <f t="shared" si="23"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="230" spans="3:9" x14ac:dyDescent="0.25">
@@ -6677,19 +6727,19 @@
       </c>
       <c r="F230" s="13">
         <f t="shared" si="20"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G230" s="8">
         <f t="shared" si="21"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H230" s="8">
         <f t="shared" si="22"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I230" s="15">
         <f t="shared" si="23"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="231" spans="3:9" x14ac:dyDescent="0.25">
@@ -6701,19 +6751,19 @@
       </c>
       <c r="F231" s="13">
         <f t="shared" si="20"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G231" s="8">
         <f t="shared" si="21"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H231" s="8">
         <f t="shared" si="22"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I231" s="15">
         <f t="shared" si="23"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="232" spans="3:9" x14ac:dyDescent="0.25">
@@ -6725,19 +6775,19 @@
       </c>
       <c r="F232" s="13">
         <f t="shared" ref="F232:F255" si="25">F231+E232</f>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G232" s="8">
         <f t="shared" ref="G232:G255" si="26">F232</f>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H232" s="8">
         <f t="shared" ref="H232:H255" si="27">(H231+G232-G231)</f>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I232" s="15">
         <f t="shared" ref="I232:I255" si="28">H232*24*$J$2</f>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="233" spans="3:9" x14ac:dyDescent="0.25">
@@ -6749,19 +6799,19 @@
       </c>
       <c r="F233" s="13">
         <f t="shared" si="25"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G233" s="8">
         <f t="shared" si="26"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H233" s="8">
         <f t="shared" si="27"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I233" s="15">
         <f t="shared" si="28"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="234" spans="3:9" x14ac:dyDescent="0.25">
@@ -6773,19 +6823,19 @@
       </c>
       <c r="F234" s="13">
         <f t="shared" si="25"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G234" s="8">
         <f t="shared" si="26"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H234" s="8">
         <f t="shared" si="27"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I234" s="15">
         <f t="shared" si="28"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="235" spans="3:9" x14ac:dyDescent="0.25">
@@ -6797,19 +6847,19 @@
       </c>
       <c r="F235" s="13">
         <f t="shared" si="25"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G235" s="8">
         <f t="shared" si="26"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H235" s="8">
         <f t="shared" si="27"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I235" s="15">
         <f t="shared" si="28"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="236" spans="3:9" x14ac:dyDescent="0.25">
@@ -6821,19 +6871,19 @@
       </c>
       <c r="F236" s="13">
         <f t="shared" si="25"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G236" s="8">
         <f t="shared" si="26"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H236" s="8">
         <f t="shared" si="27"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I236" s="15">
         <f t="shared" si="28"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="237" spans="3:9" x14ac:dyDescent="0.25">
@@ -6845,19 +6895,19 @@
       </c>
       <c r="F237" s="13">
         <f t="shared" si="25"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G237" s="8">
         <f t="shared" si="26"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H237" s="8">
         <f t="shared" si="27"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I237" s="15">
         <f t="shared" si="28"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="238" spans="3:9" x14ac:dyDescent="0.25">
@@ -6869,19 +6919,19 @@
       </c>
       <c r="F238" s="13">
         <f t="shared" si="25"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G238" s="8">
         <f t="shared" si="26"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H238" s="8">
         <f t="shared" si="27"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I238" s="15">
         <f t="shared" si="28"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="239" spans="3:9" x14ac:dyDescent="0.25">
@@ -6893,19 +6943,19 @@
       </c>
       <c r="F239" s="13">
         <f t="shared" si="25"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G239" s="8">
         <f t="shared" si="26"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H239" s="8">
         <f t="shared" si="27"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I239" s="15">
         <f t="shared" si="28"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="240" spans="3:9" x14ac:dyDescent="0.25">
@@ -6917,19 +6967,19 @@
       </c>
       <c r="F240" s="13">
         <f t="shared" si="25"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G240" s="8">
         <f t="shared" si="26"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H240" s="8">
         <f t="shared" si="27"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I240" s="15">
         <f t="shared" si="28"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="241" spans="3:9" x14ac:dyDescent="0.25">
@@ -6941,19 +6991,19 @@
       </c>
       <c r="F241" s="13">
         <f t="shared" si="25"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G241" s="8">
         <f t="shared" si="26"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H241" s="8">
         <f t="shared" si="27"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I241" s="15">
         <f t="shared" si="28"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="242" spans="3:9" x14ac:dyDescent="0.25">
@@ -6965,19 +7015,19 @@
       </c>
       <c r="F242" s="13">
         <f t="shared" si="25"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G242" s="8">
         <f t="shared" si="26"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H242" s="8">
         <f t="shared" si="27"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I242" s="15">
         <f t="shared" si="28"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="243" spans="3:9" x14ac:dyDescent="0.25">
@@ -6989,19 +7039,19 @@
       </c>
       <c r="F243" s="13">
         <f t="shared" si="25"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G243" s="8">
         <f t="shared" si="26"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H243" s="8">
         <f t="shared" si="27"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I243" s="15">
         <f t="shared" si="28"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="244" spans="3:9" x14ac:dyDescent="0.25">
@@ -7013,19 +7063,19 @@
       </c>
       <c r="F244" s="13">
         <f t="shared" si="25"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G244" s="8">
         <f t="shared" si="26"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H244" s="8">
         <f t="shared" si="27"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I244" s="15">
         <f t="shared" si="28"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="245" spans="3:9" x14ac:dyDescent="0.25">
@@ -7037,19 +7087,19 @@
       </c>
       <c r="F245" s="13">
         <f t="shared" si="25"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G245" s="8">
         <f t="shared" si="26"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H245" s="8">
         <f t="shared" si="27"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I245" s="15">
         <f t="shared" si="28"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="246" spans="3:9" x14ac:dyDescent="0.25">
@@ -7061,19 +7111,19 @@
       </c>
       <c r="F246" s="13">
         <f t="shared" si="25"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G246" s="8">
         <f t="shared" si="26"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H246" s="8">
         <f t="shared" si="27"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I246" s="15">
         <f t="shared" si="28"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="247" spans="3:9" x14ac:dyDescent="0.25">
@@ -7085,19 +7135,19 @@
       </c>
       <c r="F247" s="13">
         <f t="shared" si="25"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G247" s="8">
         <f t="shared" si="26"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H247" s="8">
         <f t="shared" si="27"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I247" s="15">
         <f t="shared" si="28"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="248" spans="3:9" x14ac:dyDescent="0.25">
@@ -7109,19 +7159,19 @@
       </c>
       <c r="F248" s="13">
         <f t="shared" si="25"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G248" s="8">
         <f t="shared" si="26"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H248" s="8">
         <f t="shared" si="27"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I248" s="15">
         <f t="shared" si="28"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="249" spans="3:9" x14ac:dyDescent="0.25">
@@ -7133,19 +7183,19 @@
       </c>
       <c r="F249" s="13">
         <f t="shared" si="25"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G249" s="8">
         <f t="shared" si="26"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H249" s="8">
         <f t="shared" si="27"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I249" s="15">
         <f t="shared" si="28"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="250" spans="3:9" x14ac:dyDescent="0.25">
@@ -7157,19 +7207,19 @@
       </c>
       <c r="F250" s="13">
         <f t="shared" si="25"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G250" s="8">
         <f t="shared" si="26"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H250" s="8">
         <f t="shared" si="27"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I250" s="15">
         <f t="shared" si="28"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="251" spans="3:9" x14ac:dyDescent="0.25">
@@ -7181,19 +7231,19 @@
       </c>
       <c r="F251" s="13">
         <f t="shared" si="25"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G251" s="8">
         <f t="shared" si="26"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H251" s="8">
         <f t="shared" si="27"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I251" s="15">
         <f t="shared" si="28"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="252" spans="3:9" x14ac:dyDescent="0.25">
@@ -7205,19 +7255,19 @@
       </c>
       <c r="F252" s="13">
         <f t="shared" si="25"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G252" s="8">
         <f t="shared" si="26"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H252" s="8">
         <f t="shared" si="27"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I252" s="15">
         <f t="shared" si="28"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="253" spans="3:9" x14ac:dyDescent="0.25">
@@ -7229,19 +7279,19 @@
       </c>
       <c r="F253" s="13">
         <f t="shared" si="25"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G253" s="8">
         <f t="shared" si="26"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H253" s="8">
         <f t="shared" si="27"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I253" s="15">
         <f t="shared" si="28"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="254" spans="3:9" x14ac:dyDescent="0.25">
@@ -7253,19 +7303,19 @@
       </c>
       <c r="F254" s="13">
         <f t="shared" si="25"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G254" s="8">
         <f t="shared" si="26"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H254" s="8">
         <f t="shared" si="27"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I254" s="15">
         <f t="shared" si="28"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
     <row r="255" spans="3:9" x14ac:dyDescent="0.25">
@@ -7277,19 +7327,19 @@
       </c>
       <c r="F255" s="13">
         <f t="shared" si="25"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="G255" s="8">
         <f t="shared" si="26"/>
-        <v>2.9347222222222218</v>
+        <v>3.5631944444444441</v>
       </c>
       <c r="H255" s="8">
         <f t="shared" si="27"/>
-        <v>4.084722222222223</v>
+        <v>4.7131944444444462</v>
       </c>
       <c r="I255" s="15">
         <f t="shared" si="28"/>
-        <v>16665.666666666672</v>
+        <v>19229.833333333339</v>
       </c>
     </row>
   </sheetData>

--- a/hodiny.xlsx
+++ b/hodiny.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E4E88D8-F791-4753-A643-BE81DBB74A0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89E250F2-A6DA-4AA3-A87D-A3331141BDC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3360" yWindow="4650" windowWidth="28800" windowHeight="14925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>čas [min]</t>
   </si>
@@ -160,6 +160,21 @@
   </si>
   <si>
     <t>georef hotové</t>
+  </si>
+  <si>
+    <t>25.7.</t>
+  </si>
+  <si>
+    <t>26.7.</t>
+  </si>
+  <si>
+    <t>27.7.</t>
+  </si>
+  <si>
+    <t>29.7.</t>
+  </si>
+  <si>
+    <t>31.7.</t>
   </si>
 </sst>
 </file>
@@ -673,8 +688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M105" sqref="M105"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D126" sqref="D126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3959,267 +3974,326 @@
       </c>
     </row>
     <row r="115" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C115" s="2"/>
-      <c r="D115" s="10"/>
+      <c r="B115" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C115" s="2">
+        <v>0.12291666666666667</v>
+      </c>
+      <c r="D115" s="10">
+        <v>0.13819444444444443</v>
+      </c>
       <c r="E115" s="12">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1.5277777777777751E-2</v>
       </c>
       <c r="F115" s="13">
         <f t="shared" si="15"/>
-        <v>3.5631944444444441</v>
+        <v>3.5784722222222221</v>
       </c>
       <c r="G115" s="8">
         <f t="shared" si="16"/>
-        <v>3.5631944444444441</v>
+        <v>3.5784722222222221</v>
       </c>
       <c r="H115" s="8">
         <f t="shared" si="17"/>
-        <v>4.7131944444444462</v>
+        <v>4.7284722222222237</v>
       </c>
       <c r="I115" s="15">
         <f t="shared" si="18"/>
-        <v>19229.833333333339</v>
+        <v>19292.166666666675</v>
       </c>
     </row>
     <row r="116" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C116" s="2"/>
-      <c r="D116" s="10"/>
+      <c r="C116" s="2">
+        <v>0.58611111111111114</v>
+      </c>
+      <c r="D116" s="10">
+        <v>0.6020833333333333</v>
+      </c>
       <c r="E116" s="12">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1.5972222222222165E-2</v>
       </c>
       <c r="F116" s="13">
         <f t="shared" si="15"/>
-        <v>3.5631944444444441</v>
+        <v>3.5944444444444441</v>
       </c>
       <c r="G116" s="8">
         <f t="shared" si="16"/>
-        <v>3.5631944444444441</v>
+        <v>3.5944444444444441</v>
       </c>
       <c r="H116" s="8">
         <f t="shared" si="17"/>
-        <v>4.7131944444444462</v>
+        <v>4.7444444444444454</v>
       </c>
       <c r="I116" s="15">
         <f t="shared" si="18"/>
-        <v>19229.833333333339</v>
+        <v>19357.333333333336</v>
       </c>
     </row>
     <row r="117" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C117" s="2"/>
-      <c r="D117" s="10"/>
+      <c r="C117" s="2">
+        <v>0.61597222222222225</v>
+      </c>
+      <c r="D117" s="10">
+        <v>0.65486111111111112</v>
+      </c>
       <c r="E117" s="12">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>3.8888888888888862E-2</v>
       </c>
       <c r="F117" s="13">
         <f t="shared" si="15"/>
-        <v>3.5631944444444441</v>
+        <v>3.6333333333333329</v>
       </c>
       <c r="G117" s="8">
         <f t="shared" si="16"/>
-        <v>3.5631944444444441</v>
+        <v>3.6333333333333329</v>
       </c>
       <c r="H117" s="8">
         <f t="shared" si="17"/>
-        <v>4.7131944444444462</v>
+        <v>4.7833333333333341</v>
       </c>
       <c r="I117" s="15">
         <f t="shared" si="18"/>
-        <v>19229.833333333339</v>
+        <v>19516.000000000004</v>
       </c>
     </row>
     <row r="118" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C118" s="2"/>
-      <c r="D118" s="10"/>
+      <c r="C118" s="2">
+        <v>0.65555555555555556</v>
+      </c>
+      <c r="D118" s="10">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="E118" s="12">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1.1111111111111072E-2</v>
       </c>
       <c r="F118" s="13">
         <f t="shared" si="15"/>
-        <v>3.5631944444444441</v>
+        <v>3.6444444444444439</v>
       </c>
       <c r="G118" s="8">
         <f t="shared" si="16"/>
-        <v>3.5631944444444441</v>
+        <v>3.6444444444444439</v>
       </c>
       <c r="H118" s="8">
         <f t="shared" si="17"/>
-        <v>4.7131944444444462</v>
+        <v>4.7944444444444443</v>
       </c>
       <c r="I118" s="15">
         <f t="shared" si="18"/>
-        <v>19229.833333333339</v>
+        <v>19561.333333333332</v>
       </c>
     </row>
     <row r="119" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C119" s="2"/>
-      <c r="D119" s="10"/>
+      <c r="B119" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C119" s="2">
+        <v>0.74236111111111114</v>
+      </c>
+      <c r="D119" s="10">
+        <v>0.77777777777777779</v>
+      </c>
       <c r="E119" s="12">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>3.5416666666666652E-2</v>
       </c>
       <c r="F119" s="13">
         <f t="shared" si="15"/>
-        <v>3.5631944444444441</v>
+        <v>3.6798611111111104</v>
       </c>
       <c r="G119" s="8">
         <f t="shared" si="16"/>
-        <v>3.5631944444444441</v>
+        <v>3.6798611111111104</v>
       </c>
       <c r="H119" s="8">
         <f t="shared" si="17"/>
-        <v>4.7131944444444462</v>
+        <v>4.8298611111111107</v>
       </c>
       <c r="I119" s="15">
         <f t="shared" si="18"/>
-        <v>19229.833333333339</v>
+        <v>19705.833333333332</v>
       </c>
     </row>
     <row r="120" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C120" s="2"/>
-      <c r="D120" s="10"/>
+      <c r="C120" s="2">
+        <v>0.83263888888888893</v>
+      </c>
+      <c r="D120" s="10">
+        <v>0.85972222222222217</v>
+      </c>
       <c r="E120" s="12">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>2.7083333333333237E-2</v>
       </c>
       <c r="F120" s="13">
         <f t="shared" si="15"/>
-        <v>3.5631944444444441</v>
+        <v>3.7069444444444435</v>
       </c>
       <c r="G120" s="8">
         <f t="shared" si="16"/>
-        <v>3.5631944444444441</v>
+        <v>3.7069444444444435</v>
       </c>
       <c r="H120" s="8">
         <f t="shared" si="17"/>
-        <v>4.7131944444444462</v>
+        <v>4.8569444444444443</v>
       </c>
       <c r="I120" s="15">
         <f t="shared" si="18"/>
-        <v>19229.833333333339</v>
+        <v>19816.333333333332</v>
       </c>
     </row>
     <row r="121" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C121" s="2"/>
-      <c r="D121" s="10"/>
+      <c r="B121" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C121" s="2">
+        <v>0.53611111111111109</v>
+      </c>
+      <c r="D121" s="10">
+        <v>0.56388888888888888</v>
+      </c>
       <c r="E121" s="12">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>2.777777777777779E-2</v>
       </c>
       <c r="F121" s="13">
         <f t="shared" si="15"/>
-        <v>3.5631944444444441</v>
+        <v>3.7347222222222212</v>
       </c>
       <c r="G121" s="8">
         <f t="shared" si="16"/>
-        <v>3.5631944444444441</v>
+        <v>3.7347222222222212</v>
       </c>
       <c r="H121" s="8">
         <f t="shared" si="17"/>
-        <v>4.7131944444444462</v>
+        <v>4.8847222222222211</v>
       </c>
       <c r="I121" s="15">
         <f t="shared" si="18"/>
-        <v>19229.833333333339</v>
+        <v>19929.666666666661</v>
       </c>
     </row>
     <row r="122" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C122" s="2"/>
-      <c r="D122" s="10"/>
+      <c r="B122" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C122" s="2">
+        <v>0.50763888888888886</v>
+      </c>
+      <c r="D122" s="10">
+        <v>0.56874999999999998</v>
+      </c>
       <c r="E122" s="12">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>6.1111111111111116E-2</v>
       </c>
       <c r="F122" s="13">
         <f t="shared" si="15"/>
-        <v>3.5631944444444441</v>
+        <v>3.7958333333333325</v>
       </c>
       <c r="G122" s="8">
         <f t="shared" si="16"/>
-        <v>3.5631944444444441</v>
+        <v>3.7958333333333325</v>
       </c>
       <c r="H122" s="8">
         <f t="shared" si="17"/>
-        <v>4.7131944444444462</v>
+        <v>4.9458333333333329</v>
       </c>
       <c r="I122" s="15">
         <f t="shared" si="18"/>
-        <v>19229.833333333339</v>
+        <v>20178.999999999996</v>
       </c>
     </row>
     <row r="123" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C123" s="2"/>
-      <c r="D123" s="10"/>
+      <c r="B123" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C123" s="2">
+        <v>5.6250000000000001E-2</v>
+      </c>
+      <c r="D123" s="10">
+        <v>8.9583333333333334E-2</v>
+      </c>
       <c r="E123" s="12">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="F123" s="13">
         <f t="shared" si="15"/>
-        <v>3.5631944444444441</v>
+        <v>3.8291666666666657</v>
       </c>
       <c r="G123" s="8">
         <f t="shared" si="16"/>
-        <v>3.5631944444444441</v>
+        <v>3.8291666666666657</v>
       </c>
       <c r="H123" s="8">
         <f t="shared" si="17"/>
-        <v>4.7131944444444462</v>
+        <v>4.9791666666666661</v>
       </c>
       <c r="I123" s="15">
         <f t="shared" si="18"/>
-        <v>19229.833333333339</v>
+        <v>20314.999999999996</v>
       </c>
     </row>
     <row r="124" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C124" s="2"/>
-      <c r="D124" s="10"/>
+      <c r="C124" s="2">
+        <v>0.79236111111111107</v>
+      </c>
+      <c r="D124" s="10">
+        <v>0.8125</v>
+      </c>
       <c r="E124" s="12">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>2.0138888888888928E-2</v>
       </c>
       <c r="F124" s="13">
         <f t="shared" si="15"/>
-        <v>3.5631944444444441</v>
+        <v>3.8493055555555546</v>
       </c>
       <c r="G124" s="8">
         <f t="shared" si="16"/>
-        <v>3.5631944444444441</v>
+        <v>3.8493055555555546</v>
       </c>
       <c r="H124" s="8">
         <f t="shared" si="17"/>
-        <v>4.7131944444444462</v>
+        <v>4.999305555555555</v>
       </c>
       <c r="I124" s="15">
         <f t="shared" si="18"/>
-        <v>19229.833333333339</v>
+        <v>20397.166666666664</v>
       </c>
     </row>
     <row r="125" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C125" s="2"/>
-      <c r="D125" s="10"/>
+      <c r="C125" s="2">
+        <v>0.82986111111111116</v>
+      </c>
+      <c r="D125" s="10">
+        <v>0.8965277777777777</v>
+      </c>
       <c r="E125" s="12">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>6.6666666666666541E-2</v>
       </c>
       <c r="F125" s="13">
         <f t="shared" si="15"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G125" s="8">
         <f t="shared" si="16"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H125" s="8">
         <f t="shared" si="17"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I125" s="15">
         <f t="shared" si="18"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="126" spans="2:10" x14ac:dyDescent="0.25">
@@ -4231,19 +4305,19 @@
       </c>
       <c r="F126" s="13">
         <f t="shared" si="15"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G126" s="8">
         <f t="shared" si="16"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H126" s="8">
         <f t="shared" si="17"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I126" s="15">
         <f t="shared" si="18"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="127" spans="2:10" x14ac:dyDescent="0.25">
@@ -4255,19 +4329,19 @@
       </c>
       <c r="F127" s="13">
         <f t="shared" si="15"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G127" s="8">
         <f t="shared" si="16"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H127" s="8">
         <f t="shared" si="17"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I127" s="15">
         <f t="shared" si="18"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="128" spans="2:10" x14ac:dyDescent="0.25">
@@ -4279,19 +4353,19 @@
       </c>
       <c r="F128" s="13">
         <f t="shared" si="15"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G128" s="8">
         <f t="shared" si="16"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H128" s="8">
         <f t="shared" si="17"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I128" s="15">
         <f t="shared" si="18"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="129" spans="3:9" x14ac:dyDescent="0.25">
@@ -4303,19 +4377,19 @@
       </c>
       <c r="F129" s="13">
         <f t="shared" si="15"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G129" s="8">
         <f t="shared" si="16"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H129" s="8">
         <f t="shared" si="17"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I129" s="15">
         <f t="shared" si="18"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="130" spans="3:9" x14ac:dyDescent="0.25">
@@ -4327,19 +4401,19 @@
       </c>
       <c r="F130" s="13">
         <f t="shared" si="15"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G130" s="8">
         <f t="shared" si="16"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H130" s="8">
         <f t="shared" si="17"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I130" s="15">
         <f t="shared" si="18"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="131" spans="3:9" x14ac:dyDescent="0.25">
@@ -4351,19 +4425,19 @@
       </c>
       <c r="F131" s="13">
         <f t="shared" si="15"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G131" s="8">
         <f t="shared" si="16"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H131" s="8">
         <f t="shared" si="17"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I131" s="15">
         <f t="shared" si="18"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="132" spans="3:9" x14ac:dyDescent="0.25">
@@ -4375,19 +4449,19 @@
       </c>
       <c r="F132" s="13">
         <f t="shared" si="15"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G132" s="8">
         <f t="shared" si="16"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H132" s="8">
         <f t="shared" si="17"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I132" s="15">
         <f t="shared" si="18"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="133" spans="3:9" x14ac:dyDescent="0.25">
@@ -4399,19 +4473,19 @@
       </c>
       <c r="F133" s="13">
         <f t="shared" si="15"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G133" s="8">
         <f t="shared" si="16"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H133" s="8">
         <f t="shared" si="17"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I133" s="15">
         <f t="shared" si="18"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="134" spans="3:9" x14ac:dyDescent="0.25">
@@ -4423,19 +4497,19 @@
       </c>
       <c r="F134" s="13">
         <f t="shared" si="15"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G134" s="8">
         <f t="shared" si="16"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H134" s="8">
         <f t="shared" si="17"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I134" s="15">
         <f t="shared" si="18"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="135" spans="3:9" x14ac:dyDescent="0.25">
@@ -4447,19 +4521,19 @@
       </c>
       <c r="F135" s="13">
         <f t="shared" si="15"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G135" s="8">
         <f t="shared" si="16"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H135" s="8">
         <f t="shared" si="17"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I135" s="15">
         <f t="shared" si="18"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="136" spans="3:9" x14ac:dyDescent="0.25">
@@ -4471,19 +4545,19 @@
       </c>
       <c r="F136" s="13">
         <f t="shared" si="15"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G136" s="8">
         <f t="shared" si="16"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H136" s="8">
         <f t="shared" si="17"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I136" s="15">
         <f t="shared" si="18"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="137" spans="3:9" x14ac:dyDescent="0.25">
@@ -4495,19 +4569,19 @@
       </c>
       <c r="F137" s="13">
         <f t="shared" si="15"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G137" s="8">
         <f t="shared" si="16"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H137" s="8">
         <f t="shared" si="17"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I137" s="15">
         <f t="shared" si="18"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="138" spans="3:9" x14ac:dyDescent="0.25">
@@ -4519,19 +4593,19 @@
       </c>
       <c r="F138" s="13">
         <f t="shared" si="15"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G138" s="8">
         <f t="shared" si="16"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H138" s="8">
         <f t="shared" si="17"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I138" s="15">
         <f t="shared" si="18"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="139" spans="3:9" x14ac:dyDescent="0.25">
@@ -4543,19 +4617,19 @@
       </c>
       <c r="F139" s="13">
         <f t="shared" si="15"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G139" s="8">
         <f t="shared" si="16"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H139" s="8">
         <f t="shared" si="17"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I139" s="15">
         <f t="shared" si="18"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="140" spans="3:9" x14ac:dyDescent="0.25">
@@ -4567,19 +4641,19 @@
       </c>
       <c r="F140" s="13">
         <f t="shared" si="15"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G140" s="8">
         <f t="shared" si="16"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H140" s="8">
         <f t="shared" si="17"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I140" s="15">
         <f t="shared" si="18"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="141" spans="3:9" x14ac:dyDescent="0.25">
@@ -4591,19 +4665,19 @@
       </c>
       <c r="F141" s="13">
         <f t="shared" si="15"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G141" s="8">
         <f t="shared" si="16"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H141" s="8">
         <f t="shared" si="17"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I141" s="15">
         <f t="shared" si="18"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="142" spans="3:9" x14ac:dyDescent="0.25">
@@ -4615,19 +4689,19 @@
       </c>
       <c r="F142" s="13">
         <f t="shared" si="15"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G142" s="8">
         <f t="shared" si="16"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H142" s="8">
         <f t="shared" si="17"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I142" s="15">
         <f t="shared" si="18"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="143" spans="3:9" x14ac:dyDescent="0.25">
@@ -4639,19 +4713,19 @@
       </c>
       <c r="F143" s="13">
         <f t="shared" si="15"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G143" s="8">
         <f t="shared" si="16"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H143" s="8">
         <f t="shared" si="17"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I143" s="15">
         <f t="shared" si="18"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="144" spans="3:9" x14ac:dyDescent="0.25">
@@ -4663,19 +4737,19 @@
       </c>
       <c r="F144" s="13">
         <f t="shared" si="15"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G144" s="8">
         <f t="shared" si="16"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H144" s="8">
         <f t="shared" si="17"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I144" s="15">
         <f t="shared" si="18"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="145" spans="3:9" x14ac:dyDescent="0.25">
@@ -4687,19 +4761,19 @@
       </c>
       <c r="F145" s="13">
         <f t="shared" si="15"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G145" s="8">
         <f t="shared" si="16"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H145" s="8">
         <f t="shared" si="17"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I145" s="15">
         <f t="shared" si="18"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="146" spans="3:9" x14ac:dyDescent="0.25">
@@ -4711,19 +4785,19 @@
       </c>
       <c r="F146" s="13">
         <f t="shared" si="15"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G146" s="8">
         <f t="shared" si="16"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H146" s="8">
         <f t="shared" si="17"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I146" s="15">
         <f t="shared" si="18"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="147" spans="3:9" x14ac:dyDescent="0.25">
@@ -4735,19 +4809,19 @@
       </c>
       <c r="F147" s="13">
         <f t="shared" si="15"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G147" s="8">
         <f t="shared" si="16"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H147" s="8">
         <f t="shared" si="17"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I147" s="15">
         <f t="shared" si="18"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="148" spans="3:9" x14ac:dyDescent="0.25">
@@ -4759,19 +4833,19 @@
       </c>
       <c r="F148" s="13">
         <f t="shared" si="15"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G148" s="8">
         <f t="shared" si="16"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H148" s="8">
         <f t="shared" si="17"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I148" s="15">
         <f t="shared" si="18"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="149" spans="3:9" x14ac:dyDescent="0.25">
@@ -4783,19 +4857,19 @@
       </c>
       <c r="F149" s="13">
         <f t="shared" si="15"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G149" s="8">
         <f t="shared" si="16"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H149" s="8">
         <f t="shared" si="17"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I149" s="15">
         <f t="shared" si="18"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="150" spans="3:9" x14ac:dyDescent="0.25">
@@ -4807,19 +4881,19 @@
       </c>
       <c r="F150" s="13">
         <f t="shared" si="15"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G150" s="8">
         <f t="shared" si="16"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H150" s="8">
         <f t="shared" si="17"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I150" s="15">
         <f t="shared" si="18"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="151" spans="3:9" x14ac:dyDescent="0.25">
@@ -4831,19 +4905,19 @@
       </c>
       <c r="F151" s="13">
         <f t="shared" si="15"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G151" s="8">
         <f t="shared" si="16"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H151" s="8">
         <f t="shared" si="17"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I151" s="15">
         <f t="shared" si="18"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="152" spans="3:9" x14ac:dyDescent="0.25">
@@ -4855,19 +4929,19 @@
       </c>
       <c r="F152" s="13">
         <f t="shared" si="15"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G152" s="8">
         <f t="shared" si="16"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H152" s="8">
         <f t="shared" si="17"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I152" s="15">
         <f t="shared" si="18"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="153" spans="3:9" x14ac:dyDescent="0.25">
@@ -4879,19 +4953,19 @@
       </c>
       <c r="F153" s="13">
         <f t="shared" si="15"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G153" s="8">
         <f t="shared" si="16"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H153" s="8">
         <f t="shared" si="17"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I153" s="15">
         <f t="shared" si="18"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="154" spans="3:9" x14ac:dyDescent="0.25">
@@ -4903,19 +4977,19 @@
       </c>
       <c r="F154" s="13">
         <f t="shared" si="15"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G154" s="8">
         <f t="shared" si="16"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H154" s="8">
         <f t="shared" si="17"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I154" s="15">
         <f t="shared" si="18"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="155" spans="3:9" x14ac:dyDescent="0.25">
@@ -4927,19 +5001,19 @@
       </c>
       <c r="F155" s="13">
         <f t="shared" si="15"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G155" s="8">
         <f t="shared" si="16"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H155" s="8">
         <f t="shared" si="17"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I155" s="15">
         <f t="shared" si="18"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="156" spans="3:9" x14ac:dyDescent="0.25">
@@ -4951,19 +5025,19 @@
       </c>
       <c r="F156" s="13">
         <f t="shared" si="15"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G156" s="8">
         <f t="shared" si="16"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H156" s="8">
         <f t="shared" si="17"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I156" s="15">
         <f t="shared" si="18"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="157" spans="3:9" x14ac:dyDescent="0.25">
@@ -4975,19 +5049,19 @@
       </c>
       <c r="F157" s="13">
         <f t="shared" si="15"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G157" s="8">
         <f t="shared" si="16"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H157" s="8">
         <f t="shared" si="17"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I157" s="15">
         <f t="shared" si="18"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="158" spans="3:9" x14ac:dyDescent="0.25">
@@ -4999,19 +5073,19 @@
       </c>
       <c r="F158" s="13">
         <f t="shared" si="15"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G158" s="8">
         <f t="shared" si="16"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H158" s="8">
         <f t="shared" si="17"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I158" s="15">
         <f t="shared" si="18"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="159" spans="3:9" x14ac:dyDescent="0.25">
@@ -5023,19 +5097,19 @@
       </c>
       <c r="F159" s="13">
         <f t="shared" si="15"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G159" s="8">
         <f t="shared" si="16"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H159" s="8">
         <f t="shared" si="17"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I159" s="15">
         <f t="shared" si="18"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="160" spans="3:9" x14ac:dyDescent="0.25">
@@ -5047,19 +5121,19 @@
       </c>
       <c r="F160" s="13">
         <f t="shared" si="15"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G160" s="8">
         <f t="shared" si="16"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H160" s="8">
         <f t="shared" si="17"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I160" s="15">
         <f t="shared" si="18"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="161" spans="3:9" x14ac:dyDescent="0.25">
@@ -5071,19 +5145,19 @@
       </c>
       <c r="F161" s="13">
         <f t="shared" si="15"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G161" s="8">
         <f t="shared" si="16"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H161" s="8">
         <f t="shared" si="17"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I161" s="15">
         <f t="shared" si="18"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="162" spans="3:9" x14ac:dyDescent="0.25">
@@ -5095,19 +5169,19 @@
       </c>
       <c r="F162" s="13">
         <f t="shared" si="15"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G162" s="8">
         <f t="shared" si="16"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H162" s="8">
         <f t="shared" si="17"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I162" s="15">
         <f t="shared" si="18"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="163" spans="3:9" x14ac:dyDescent="0.25">
@@ -5119,19 +5193,19 @@
       </c>
       <c r="F163" s="13">
         <f t="shared" si="15"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G163" s="8">
         <f t="shared" si="16"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H163" s="8">
         <f t="shared" si="17"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I163" s="15">
         <f t="shared" si="18"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="164" spans="3:9" x14ac:dyDescent="0.25">
@@ -5143,19 +5217,19 @@
       </c>
       <c r="F164" s="13">
         <f t="shared" si="15"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G164" s="8">
         <f t="shared" si="16"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H164" s="8">
         <f t="shared" si="17"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I164" s="15">
         <f t="shared" si="18"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="165" spans="3:9" x14ac:dyDescent="0.25">
@@ -5167,19 +5241,19 @@
       </c>
       <c r="F165" s="13">
         <f t="shared" si="15"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G165" s="8">
         <f t="shared" si="16"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H165" s="8">
         <f t="shared" si="17"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I165" s="15">
         <f t="shared" si="18"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="166" spans="3:9" x14ac:dyDescent="0.25">
@@ -5191,19 +5265,19 @@
       </c>
       <c r="F166" s="13">
         <f t="shared" si="15"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G166" s="8">
         <f t="shared" si="16"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H166" s="8">
         <f t="shared" si="17"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I166" s="15">
         <f t="shared" si="18"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="167" spans="3:9" x14ac:dyDescent="0.25">
@@ -5215,19 +5289,19 @@
       </c>
       <c r="F167" s="13">
         <f t="shared" si="15"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G167" s="8">
         <f t="shared" si="16"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H167" s="8">
         <f t="shared" si="17"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I167" s="15">
         <f t="shared" si="18"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="168" spans="3:9" x14ac:dyDescent="0.25">
@@ -5239,19 +5313,19 @@
       </c>
       <c r="F168" s="13">
         <f t="shared" ref="F168:F231" si="20">F167+E168</f>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G168" s="8">
         <f t="shared" ref="G168:G231" si="21">F168</f>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H168" s="8">
         <f t="shared" ref="H168:H231" si="22">(H167+G168-G167)</f>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I168" s="15">
         <f t="shared" ref="I168:I231" si="23">H168*24*$J$2</f>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="169" spans="3:9" x14ac:dyDescent="0.25">
@@ -5263,19 +5337,19 @@
       </c>
       <c r="F169" s="13">
         <f t="shared" si="20"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G169" s="8">
         <f t="shared" si="21"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H169" s="8">
         <f t="shared" si="22"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I169" s="15">
         <f t="shared" si="23"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="170" spans="3:9" x14ac:dyDescent="0.25">
@@ -5287,19 +5361,19 @@
       </c>
       <c r="F170" s="13">
         <f t="shared" si="20"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G170" s="8">
         <f t="shared" si="21"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H170" s="8">
         <f t="shared" si="22"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I170" s="15">
         <f t="shared" si="23"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="171" spans="3:9" x14ac:dyDescent="0.25">
@@ -5311,19 +5385,19 @@
       </c>
       <c r="F171" s="13">
         <f t="shared" si="20"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G171" s="8">
         <f t="shared" si="21"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H171" s="8">
         <f t="shared" si="22"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I171" s="15">
         <f t="shared" si="23"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="172" spans="3:9" x14ac:dyDescent="0.25">
@@ -5335,19 +5409,19 @@
       </c>
       <c r="F172" s="13">
         <f t="shared" si="20"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G172" s="8">
         <f t="shared" si="21"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H172" s="8">
         <f t="shared" si="22"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I172" s="15">
         <f t="shared" si="23"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="173" spans="3:9" x14ac:dyDescent="0.25">
@@ -5359,19 +5433,19 @@
       </c>
       <c r="F173" s="13">
         <f t="shared" si="20"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G173" s="8">
         <f t="shared" si="21"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H173" s="8">
         <f t="shared" si="22"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I173" s="15">
         <f t="shared" si="23"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="174" spans="3:9" x14ac:dyDescent="0.25">
@@ -5383,19 +5457,19 @@
       </c>
       <c r="F174" s="13">
         <f t="shared" si="20"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G174" s="8">
         <f t="shared" si="21"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H174" s="8">
         <f t="shared" si="22"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I174" s="15">
         <f t="shared" si="23"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="175" spans="3:9" x14ac:dyDescent="0.25">
@@ -5407,19 +5481,19 @@
       </c>
       <c r="F175" s="13">
         <f t="shared" si="20"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G175" s="8">
         <f t="shared" si="21"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H175" s="8">
         <f t="shared" si="22"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I175" s="15">
         <f t="shared" si="23"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="176" spans="3:9" x14ac:dyDescent="0.25">
@@ -5431,19 +5505,19 @@
       </c>
       <c r="F176" s="13">
         <f t="shared" si="20"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G176" s="8">
         <f t="shared" si="21"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H176" s="8">
         <f t="shared" si="22"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I176" s="15">
         <f t="shared" si="23"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="177" spans="3:9" x14ac:dyDescent="0.25">
@@ -5455,19 +5529,19 @@
       </c>
       <c r="F177" s="13">
         <f t="shared" si="20"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G177" s="8">
         <f t="shared" si="21"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H177" s="8">
         <f t="shared" si="22"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I177" s="15">
         <f t="shared" si="23"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="178" spans="3:9" x14ac:dyDescent="0.25">
@@ -5479,19 +5553,19 @@
       </c>
       <c r="F178" s="13">
         <f t="shared" si="20"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G178" s="8">
         <f t="shared" si="21"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H178" s="8">
         <f t="shared" si="22"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I178" s="15">
         <f t="shared" si="23"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="179" spans="3:9" x14ac:dyDescent="0.25">
@@ -5503,19 +5577,19 @@
       </c>
       <c r="F179" s="13">
         <f t="shared" si="20"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G179" s="8">
         <f t="shared" si="21"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H179" s="8">
         <f t="shared" si="22"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I179" s="15">
         <f t="shared" si="23"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="180" spans="3:9" x14ac:dyDescent="0.25">
@@ -5527,19 +5601,19 @@
       </c>
       <c r="F180" s="13">
         <f t="shared" si="20"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G180" s="8">
         <f t="shared" si="21"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H180" s="8">
         <f t="shared" si="22"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I180" s="15">
         <f t="shared" si="23"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="181" spans="3:9" x14ac:dyDescent="0.25">
@@ -5551,19 +5625,19 @@
       </c>
       <c r="F181" s="13">
         <f t="shared" si="20"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G181" s="8">
         <f t="shared" si="21"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H181" s="8">
         <f t="shared" si="22"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I181" s="15">
         <f t="shared" si="23"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="182" spans="3:9" x14ac:dyDescent="0.25">
@@ -5575,19 +5649,19 @@
       </c>
       <c r="F182" s="13">
         <f t="shared" si="20"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G182" s="8">
         <f t="shared" si="21"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H182" s="8">
         <f t="shared" si="22"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I182" s="15">
         <f t="shared" si="23"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="183" spans="3:9" x14ac:dyDescent="0.25">
@@ -5599,19 +5673,19 @@
       </c>
       <c r="F183" s="13">
         <f t="shared" si="20"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G183" s="8">
         <f t="shared" si="21"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H183" s="8">
         <f t="shared" si="22"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I183" s="15">
         <f t="shared" si="23"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="184" spans="3:9" x14ac:dyDescent="0.25">
@@ -5623,19 +5697,19 @@
       </c>
       <c r="F184" s="13">
         <f t="shared" si="20"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G184" s="8">
         <f t="shared" si="21"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H184" s="8">
         <f t="shared" si="22"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I184" s="15">
         <f t="shared" si="23"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="185" spans="3:9" x14ac:dyDescent="0.25">
@@ -5647,19 +5721,19 @@
       </c>
       <c r="F185" s="13">
         <f t="shared" si="20"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G185" s="8">
         <f t="shared" si="21"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H185" s="8">
         <f t="shared" si="22"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I185" s="15">
         <f t="shared" si="23"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="186" spans="3:9" x14ac:dyDescent="0.25">
@@ -5671,19 +5745,19 @@
       </c>
       <c r="F186" s="13">
         <f t="shared" si="20"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G186" s="8">
         <f t="shared" si="21"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H186" s="8">
         <f t="shared" si="22"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I186" s="15">
         <f t="shared" si="23"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="187" spans="3:9" x14ac:dyDescent="0.25">
@@ -5695,19 +5769,19 @@
       </c>
       <c r="F187" s="13">
         <f t="shared" si="20"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G187" s="8">
         <f t="shared" si="21"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H187" s="8">
         <f t="shared" si="22"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I187" s="15">
         <f t="shared" si="23"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="188" spans="3:9" x14ac:dyDescent="0.25">
@@ -5719,19 +5793,19 @@
       </c>
       <c r="F188" s="13">
         <f t="shared" si="20"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G188" s="8">
         <f t="shared" si="21"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H188" s="8">
         <f t="shared" si="22"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I188" s="15">
         <f t="shared" si="23"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="189" spans="3:9" x14ac:dyDescent="0.25">
@@ -5743,19 +5817,19 @@
       </c>
       <c r="F189" s="13">
         <f t="shared" si="20"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G189" s="8">
         <f t="shared" si="21"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H189" s="8">
         <f t="shared" si="22"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I189" s="15">
         <f t="shared" si="23"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="190" spans="3:9" x14ac:dyDescent="0.25">
@@ -5767,19 +5841,19 @@
       </c>
       <c r="F190" s="13">
         <f t="shared" si="20"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G190" s="8">
         <f t="shared" si="21"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H190" s="8">
         <f t="shared" si="22"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I190" s="15">
         <f t="shared" si="23"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="191" spans="3:9" x14ac:dyDescent="0.25">
@@ -5791,19 +5865,19 @@
       </c>
       <c r="F191" s="13">
         <f t="shared" si="20"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G191" s="8">
         <f t="shared" si="21"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H191" s="8">
         <f t="shared" si="22"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I191" s="15">
         <f t="shared" si="23"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="192" spans="3:9" x14ac:dyDescent="0.25">
@@ -5815,19 +5889,19 @@
       </c>
       <c r="F192" s="13">
         <f t="shared" si="20"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G192" s="8">
         <f t="shared" si="21"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H192" s="8">
         <f t="shared" si="22"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I192" s="15">
         <f t="shared" si="23"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="193" spans="3:9" x14ac:dyDescent="0.25">
@@ -5839,19 +5913,19 @@
       </c>
       <c r="F193" s="13">
         <f t="shared" si="20"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G193" s="8">
         <f t="shared" si="21"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H193" s="8">
         <f t="shared" si="22"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I193" s="15">
         <f t="shared" si="23"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="194" spans="3:9" x14ac:dyDescent="0.25">
@@ -5863,19 +5937,19 @@
       </c>
       <c r="F194" s="13">
         <f t="shared" si="20"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G194" s="8">
         <f t="shared" si="21"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H194" s="8">
         <f t="shared" si="22"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I194" s="15">
         <f t="shared" si="23"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="195" spans="3:9" x14ac:dyDescent="0.25">
@@ -5887,19 +5961,19 @@
       </c>
       <c r="F195" s="13">
         <f t="shared" si="20"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G195" s="8">
         <f t="shared" si="21"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H195" s="8">
         <f t="shared" si="22"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I195" s="15">
         <f t="shared" si="23"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="196" spans="3:9" x14ac:dyDescent="0.25">
@@ -5911,19 +5985,19 @@
       </c>
       <c r="F196" s="13">
         <f t="shared" si="20"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G196" s="8">
         <f t="shared" si="21"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H196" s="8">
         <f t="shared" si="22"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I196" s="15">
         <f t="shared" si="23"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="197" spans="3:9" x14ac:dyDescent="0.25">
@@ -5935,19 +6009,19 @@
       </c>
       <c r="F197" s="13">
         <f t="shared" si="20"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G197" s="8">
         <f t="shared" si="21"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H197" s="8">
         <f t="shared" si="22"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I197" s="15">
         <f t="shared" si="23"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="198" spans="3:9" x14ac:dyDescent="0.25">
@@ -5959,19 +6033,19 @@
       </c>
       <c r="F198" s="13">
         <f t="shared" si="20"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G198" s="8">
         <f t="shared" si="21"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H198" s="8">
         <f t="shared" si="22"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I198" s="15">
         <f t="shared" si="23"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="199" spans="3:9" x14ac:dyDescent="0.25">
@@ -5983,19 +6057,19 @@
       </c>
       <c r="F199" s="13">
         <f t="shared" si="20"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G199" s="8">
         <f t="shared" si="21"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H199" s="8">
         <f t="shared" si="22"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I199" s="15">
         <f t="shared" si="23"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="200" spans="3:9" x14ac:dyDescent="0.25">
@@ -6007,19 +6081,19 @@
       </c>
       <c r="F200" s="13">
         <f t="shared" si="20"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G200" s="8">
         <f t="shared" si="21"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H200" s="8">
         <f t="shared" si="22"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I200" s="15">
         <f t="shared" si="23"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="201" spans="3:9" x14ac:dyDescent="0.25">
@@ -6031,19 +6105,19 @@
       </c>
       <c r="F201" s="13">
         <f t="shared" si="20"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G201" s="8">
         <f t="shared" si="21"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H201" s="8">
         <f t="shared" si="22"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I201" s="15">
         <f t="shared" si="23"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="202" spans="3:9" x14ac:dyDescent="0.25">
@@ -6055,19 +6129,19 @@
       </c>
       <c r="F202" s="13">
         <f t="shared" si="20"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G202" s="8">
         <f t="shared" si="21"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H202" s="8">
         <f t="shared" si="22"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I202" s="15">
         <f t="shared" si="23"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="203" spans="3:9" x14ac:dyDescent="0.25">
@@ -6079,19 +6153,19 @@
       </c>
       <c r="F203" s="13">
         <f t="shared" si="20"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G203" s="8">
         <f t="shared" si="21"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H203" s="8">
         <f t="shared" si="22"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I203" s="15">
         <f t="shared" si="23"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="204" spans="3:9" x14ac:dyDescent="0.25">
@@ -6103,19 +6177,19 @@
       </c>
       <c r="F204" s="13">
         <f t="shared" si="20"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G204" s="8">
         <f t="shared" si="21"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H204" s="8">
         <f t="shared" si="22"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I204" s="15">
         <f t="shared" si="23"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="205" spans="3:9" x14ac:dyDescent="0.25">
@@ -6127,19 +6201,19 @@
       </c>
       <c r="F205" s="13">
         <f t="shared" si="20"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G205" s="8">
         <f t="shared" si="21"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H205" s="8">
         <f t="shared" si="22"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I205" s="15">
         <f t="shared" si="23"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="206" spans="3:9" x14ac:dyDescent="0.25">
@@ -6151,19 +6225,19 @@
       </c>
       <c r="F206" s="13">
         <f t="shared" si="20"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G206" s="8">
         <f t="shared" si="21"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H206" s="8">
         <f t="shared" si="22"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I206" s="15">
         <f t="shared" si="23"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="207" spans="3:9" x14ac:dyDescent="0.25">
@@ -6175,19 +6249,19 @@
       </c>
       <c r="F207" s="13">
         <f t="shared" si="20"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G207" s="8">
         <f t="shared" si="21"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H207" s="8">
         <f t="shared" si="22"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I207" s="15">
         <f t="shared" si="23"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="208" spans="3:9" x14ac:dyDescent="0.25">
@@ -6199,19 +6273,19 @@
       </c>
       <c r="F208" s="13">
         <f t="shared" si="20"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G208" s="8">
         <f t="shared" si="21"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H208" s="8">
         <f t="shared" si="22"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I208" s="15">
         <f t="shared" si="23"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="209" spans="3:9" x14ac:dyDescent="0.25">
@@ -6223,19 +6297,19 @@
       </c>
       <c r="F209" s="13">
         <f t="shared" si="20"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G209" s="8">
         <f t="shared" si="21"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H209" s="8">
         <f t="shared" si="22"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I209" s="15">
         <f t="shared" si="23"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="210" spans="3:9" x14ac:dyDescent="0.25">
@@ -6247,19 +6321,19 @@
       </c>
       <c r="F210" s="13">
         <f t="shared" si="20"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G210" s="8">
         <f t="shared" si="21"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H210" s="8">
         <f t="shared" si="22"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I210" s="15">
         <f t="shared" si="23"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="211" spans="3:9" x14ac:dyDescent="0.25">
@@ -6271,19 +6345,19 @@
       </c>
       <c r="F211" s="13">
         <f t="shared" si="20"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G211" s="8">
         <f t="shared" si="21"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H211" s="8">
         <f t="shared" si="22"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I211" s="15">
         <f t="shared" si="23"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="212" spans="3:9" x14ac:dyDescent="0.25">
@@ -6295,19 +6369,19 @@
       </c>
       <c r="F212" s="13">
         <f t="shared" si="20"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G212" s="8">
         <f t="shared" si="21"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H212" s="8">
         <f t="shared" si="22"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I212" s="15">
         <f t="shared" si="23"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="213" spans="3:9" x14ac:dyDescent="0.25">
@@ -6319,19 +6393,19 @@
       </c>
       <c r="F213" s="13">
         <f t="shared" si="20"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G213" s="8">
         <f t="shared" si="21"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H213" s="8">
         <f t="shared" si="22"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I213" s="15">
         <f t="shared" si="23"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="214" spans="3:9" x14ac:dyDescent="0.25">
@@ -6343,19 +6417,19 @@
       </c>
       <c r="F214" s="13">
         <f t="shared" si="20"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G214" s="8">
         <f t="shared" si="21"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H214" s="8">
         <f t="shared" si="22"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I214" s="15">
         <f t="shared" si="23"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="215" spans="3:9" x14ac:dyDescent="0.25">
@@ -6367,19 +6441,19 @@
       </c>
       <c r="F215" s="13">
         <f t="shared" si="20"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G215" s="8">
         <f t="shared" si="21"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H215" s="8">
         <f t="shared" si="22"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I215" s="15">
         <f t="shared" si="23"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="216" spans="3:9" x14ac:dyDescent="0.25">
@@ -6391,19 +6465,19 @@
       </c>
       <c r="F216" s="13">
         <f t="shared" si="20"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G216" s="8">
         <f t="shared" si="21"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H216" s="8">
         <f t="shared" si="22"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I216" s="15">
         <f t="shared" si="23"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="217" spans="3:9" x14ac:dyDescent="0.25">
@@ -6415,19 +6489,19 @@
       </c>
       <c r="F217" s="13">
         <f t="shared" si="20"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G217" s="8">
         <f t="shared" si="21"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H217" s="8">
         <f t="shared" si="22"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I217" s="15">
         <f t="shared" si="23"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="218" spans="3:9" x14ac:dyDescent="0.25">
@@ -6439,19 +6513,19 @@
       </c>
       <c r="F218" s="13">
         <f t="shared" si="20"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G218" s="8">
         <f t="shared" si="21"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H218" s="8">
         <f t="shared" si="22"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I218" s="15">
         <f t="shared" si="23"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="219" spans="3:9" x14ac:dyDescent="0.25">
@@ -6463,19 +6537,19 @@
       </c>
       <c r="F219" s="13">
         <f t="shared" si="20"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G219" s="8">
         <f t="shared" si="21"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H219" s="8">
         <f t="shared" si="22"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I219" s="15">
         <f t="shared" si="23"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="220" spans="3:9" x14ac:dyDescent="0.25">
@@ -6487,19 +6561,19 @@
       </c>
       <c r="F220" s="13">
         <f t="shared" si="20"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G220" s="8">
         <f t="shared" si="21"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H220" s="8">
         <f t="shared" si="22"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I220" s="15">
         <f t="shared" si="23"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="221" spans="3:9" x14ac:dyDescent="0.25">
@@ -6511,19 +6585,19 @@
       </c>
       <c r="F221" s="13">
         <f t="shared" si="20"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G221" s="8">
         <f t="shared" si="21"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H221" s="8">
         <f t="shared" si="22"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I221" s="15">
         <f t="shared" si="23"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="222" spans="3:9" x14ac:dyDescent="0.25">
@@ -6535,19 +6609,19 @@
       </c>
       <c r="F222" s="13">
         <f t="shared" si="20"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G222" s="8">
         <f t="shared" si="21"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H222" s="8">
         <f t="shared" si="22"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I222" s="15">
         <f t="shared" si="23"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="223" spans="3:9" x14ac:dyDescent="0.25">
@@ -6559,19 +6633,19 @@
       </c>
       <c r="F223" s="13">
         <f t="shared" si="20"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G223" s="8">
         <f t="shared" si="21"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H223" s="8">
         <f t="shared" si="22"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I223" s="15">
         <f t="shared" si="23"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="224" spans="3:9" x14ac:dyDescent="0.25">
@@ -6583,19 +6657,19 @@
       </c>
       <c r="F224" s="13">
         <f t="shared" si="20"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G224" s="8">
         <f t="shared" si="21"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H224" s="8">
         <f t="shared" si="22"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I224" s="15">
         <f t="shared" si="23"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="225" spans="3:9" x14ac:dyDescent="0.25">
@@ -6607,19 +6681,19 @@
       </c>
       <c r="F225" s="13">
         <f t="shared" si="20"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G225" s="8">
         <f t="shared" si="21"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H225" s="8">
         <f t="shared" si="22"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I225" s="15">
         <f t="shared" si="23"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="226" spans="3:9" x14ac:dyDescent="0.25">
@@ -6631,19 +6705,19 @@
       </c>
       <c r="F226" s="13">
         <f t="shared" si="20"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G226" s="8">
         <f t="shared" si="21"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H226" s="8">
         <f t="shared" si="22"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I226" s="15">
         <f t="shared" si="23"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="227" spans="3:9" x14ac:dyDescent="0.25">
@@ -6655,19 +6729,19 @@
       </c>
       <c r="F227" s="13">
         <f t="shared" si="20"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G227" s="8">
         <f t="shared" si="21"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H227" s="8">
         <f t="shared" si="22"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I227" s="15">
         <f t="shared" si="23"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="228" spans="3:9" x14ac:dyDescent="0.25">
@@ -6679,19 +6753,19 @@
       </c>
       <c r="F228" s="13">
         <f t="shared" si="20"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G228" s="8">
         <f t="shared" si="21"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H228" s="8">
         <f t="shared" si="22"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I228" s="15">
         <f t="shared" si="23"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="229" spans="3:9" x14ac:dyDescent="0.25">
@@ -6703,19 +6777,19 @@
       </c>
       <c r="F229" s="13">
         <f t="shared" si="20"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G229" s="8">
         <f t="shared" si="21"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H229" s="8">
         <f t="shared" si="22"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I229" s="15">
         <f t="shared" si="23"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="230" spans="3:9" x14ac:dyDescent="0.25">
@@ -6727,19 +6801,19 @@
       </c>
       <c r="F230" s="13">
         <f t="shared" si="20"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G230" s="8">
         <f t="shared" si="21"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H230" s="8">
         <f t="shared" si="22"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I230" s="15">
         <f t="shared" si="23"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="231" spans="3:9" x14ac:dyDescent="0.25">
@@ -6751,19 +6825,19 @@
       </c>
       <c r="F231" s="13">
         <f t="shared" si="20"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G231" s="8">
         <f t="shared" si="21"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H231" s="8">
         <f t="shared" si="22"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I231" s="15">
         <f t="shared" si="23"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="232" spans="3:9" x14ac:dyDescent="0.25">
@@ -6775,19 +6849,19 @@
       </c>
       <c r="F232" s="13">
         <f t="shared" ref="F232:F255" si="25">F231+E232</f>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G232" s="8">
         <f t="shared" ref="G232:G255" si="26">F232</f>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H232" s="8">
         <f t="shared" ref="H232:H255" si="27">(H231+G232-G231)</f>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I232" s="15">
         <f t="shared" ref="I232:I255" si="28">H232*24*$J$2</f>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="233" spans="3:9" x14ac:dyDescent="0.25">
@@ -6799,19 +6873,19 @@
       </c>
       <c r="F233" s="13">
         <f t="shared" si="25"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G233" s="8">
         <f t="shared" si="26"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H233" s="8">
         <f t="shared" si="27"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I233" s="15">
         <f t="shared" si="28"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="234" spans="3:9" x14ac:dyDescent="0.25">
@@ -6823,19 +6897,19 @@
       </c>
       <c r="F234" s="13">
         <f t="shared" si="25"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G234" s="8">
         <f t="shared" si="26"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H234" s="8">
         <f t="shared" si="27"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I234" s="15">
         <f t="shared" si="28"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="235" spans="3:9" x14ac:dyDescent="0.25">
@@ -6847,19 +6921,19 @@
       </c>
       <c r="F235" s="13">
         <f t="shared" si="25"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G235" s="8">
         <f t="shared" si="26"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H235" s="8">
         <f t="shared" si="27"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I235" s="15">
         <f t="shared" si="28"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="236" spans="3:9" x14ac:dyDescent="0.25">
@@ -6871,19 +6945,19 @@
       </c>
       <c r="F236" s="13">
         <f t="shared" si="25"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G236" s="8">
         <f t="shared" si="26"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H236" s="8">
         <f t="shared" si="27"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I236" s="15">
         <f t="shared" si="28"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="237" spans="3:9" x14ac:dyDescent="0.25">
@@ -6895,19 +6969,19 @@
       </c>
       <c r="F237" s="13">
         <f t="shared" si="25"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G237" s="8">
         <f t="shared" si="26"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H237" s="8">
         <f t="shared" si="27"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I237" s="15">
         <f t="shared" si="28"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="238" spans="3:9" x14ac:dyDescent="0.25">
@@ -6919,19 +6993,19 @@
       </c>
       <c r="F238" s="13">
         <f t="shared" si="25"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G238" s="8">
         <f t="shared" si="26"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H238" s="8">
         <f t="shared" si="27"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I238" s="15">
         <f t="shared" si="28"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="239" spans="3:9" x14ac:dyDescent="0.25">
@@ -6943,19 +7017,19 @@
       </c>
       <c r="F239" s="13">
         <f t="shared" si="25"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G239" s="8">
         <f t="shared" si="26"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H239" s="8">
         <f t="shared" si="27"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I239" s="15">
         <f t="shared" si="28"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="240" spans="3:9" x14ac:dyDescent="0.25">
@@ -6967,19 +7041,19 @@
       </c>
       <c r="F240" s="13">
         <f t="shared" si="25"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G240" s="8">
         <f t="shared" si="26"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H240" s="8">
         <f t="shared" si="27"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I240" s="15">
         <f t="shared" si="28"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="241" spans="3:9" x14ac:dyDescent="0.25">
@@ -6991,19 +7065,19 @@
       </c>
       <c r="F241" s="13">
         <f t="shared" si="25"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G241" s="8">
         <f t="shared" si="26"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H241" s="8">
         <f t="shared" si="27"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I241" s="15">
         <f t="shared" si="28"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="242" spans="3:9" x14ac:dyDescent="0.25">
@@ -7015,19 +7089,19 @@
       </c>
       <c r="F242" s="13">
         <f t="shared" si="25"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G242" s="8">
         <f t="shared" si="26"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H242" s="8">
         <f t="shared" si="27"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I242" s="15">
         <f t="shared" si="28"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="243" spans="3:9" x14ac:dyDescent="0.25">
@@ -7039,19 +7113,19 @@
       </c>
       <c r="F243" s="13">
         <f t="shared" si="25"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G243" s="8">
         <f t="shared" si="26"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H243" s="8">
         <f t="shared" si="27"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I243" s="15">
         <f t="shared" si="28"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="244" spans="3:9" x14ac:dyDescent="0.25">
@@ -7063,19 +7137,19 @@
       </c>
       <c r="F244" s="13">
         <f t="shared" si="25"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G244" s="8">
         <f t="shared" si="26"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H244" s="8">
         <f t="shared" si="27"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I244" s="15">
         <f t="shared" si="28"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="245" spans="3:9" x14ac:dyDescent="0.25">
@@ -7087,19 +7161,19 @@
       </c>
       <c r="F245" s="13">
         <f t="shared" si="25"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G245" s="8">
         <f t="shared" si="26"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H245" s="8">
         <f t="shared" si="27"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I245" s="15">
         <f t="shared" si="28"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="246" spans="3:9" x14ac:dyDescent="0.25">
@@ -7111,19 +7185,19 @@
       </c>
       <c r="F246" s="13">
         <f t="shared" si="25"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G246" s="8">
         <f t="shared" si="26"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H246" s="8">
         <f t="shared" si="27"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I246" s="15">
         <f t="shared" si="28"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="247" spans="3:9" x14ac:dyDescent="0.25">
@@ -7135,19 +7209,19 @@
       </c>
       <c r="F247" s="13">
         <f t="shared" si="25"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G247" s="8">
         <f t="shared" si="26"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H247" s="8">
         <f t="shared" si="27"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I247" s="15">
         <f t="shared" si="28"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="248" spans="3:9" x14ac:dyDescent="0.25">
@@ -7159,19 +7233,19 @@
       </c>
       <c r="F248" s="13">
         <f t="shared" si="25"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G248" s="8">
         <f t="shared" si="26"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H248" s="8">
         <f t="shared" si="27"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I248" s="15">
         <f t="shared" si="28"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="249" spans="3:9" x14ac:dyDescent="0.25">
@@ -7183,19 +7257,19 @@
       </c>
       <c r="F249" s="13">
         <f t="shared" si="25"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G249" s="8">
         <f t="shared" si="26"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H249" s="8">
         <f t="shared" si="27"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I249" s="15">
         <f t="shared" si="28"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="250" spans="3:9" x14ac:dyDescent="0.25">
@@ -7207,19 +7281,19 @@
       </c>
       <c r="F250" s="13">
         <f t="shared" si="25"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G250" s="8">
         <f t="shared" si="26"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H250" s="8">
         <f t="shared" si="27"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I250" s="15">
         <f t="shared" si="28"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="251" spans="3:9" x14ac:dyDescent="0.25">
@@ -7231,19 +7305,19 @@
       </c>
       <c r="F251" s="13">
         <f t="shared" si="25"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G251" s="8">
         <f t="shared" si="26"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H251" s="8">
         <f t="shared" si="27"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I251" s="15">
         <f t="shared" si="28"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="252" spans="3:9" x14ac:dyDescent="0.25">
@@ -7255,19 +7329,19 @@
       </c>
       <c r="F252" s="13">
         <f t="shared" si="25"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G252" s="8">
         <f t="shared" si="26"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H252" s="8">
         <f t="shared" si="27"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I252" s="15">
         <f t="shared" si="28"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="253" spans="3:9" x14ac:dyDescent="0.25">
@@ -7279,19 +7353,19 @@
       </c>
       <c r="F253" s="13">
         <f t="shared" si="25"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G253" s="8">
         <f t="shared" si="26"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H253" s="8">
         <f t="shared" si="27"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I253" s="15">
         <f t="shared" si="28"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="254" spans="3:9" x14ac:dyDescent="0.25">
@@ -7303,19 +7377,19 @@
       </c>
       <c r="F254" s="13">
         <f t="shared" si="25"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G254" s="8">
         <f t="shared" si="26"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H254" s="8">
         <f t="shared" si="27"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I254" s="15">
         <f t="shared" si="28"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
     <row r="255" spans="3:9" x14ac:dyDescent="0.25">
@@ -7327,19 +7401,19 @@
       </c>
       <c r="F255" s="13">
         <f t="shared" si="25"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="G255" s="8">
         <f t="shared" si="26"/>
-        <v>3.5631944444444441</v>
+        <v>3.9159722222222211</v>
       </c>
       <c r="H255" s="8">
         <f t="shared" si="27"/>
-        <v>4.7131944444444462</v>
+        <v>5.0659722222222214</v>
       </c>
       <c r="I255" s="15">
         <f t="shared" si="28"/>
-        <v>19229.833333333339</v>
+        <v>20669.166666666664</v>
       </c>
     </row>
   </sheetData>

--- a/hodiny.xlsx
+++ b/hodiny.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89E250F2-A6DA-4AA3-A87D-A3331141BDC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50DE072B-E7F0-46C8-9317-B67BE86CA58E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3360" yWindow="4650" windowWidth="28800" windowHeight="14925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
   <si>
     <t>čas [min]</t>
   </si>
@@ -175,6 +175,15 @@
   </si>
   <si>
     <t>31.7.</t>
+  </si>
+  <si>
+    <t>2.8.</t>
+  </si>
+  <si>
+    <t>3.8.</t>
+  </si>
+  <si>
+    <t>12.8.</t>
   </si>
 </sst>
 </file>
@@ -688,8 +697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D126" sqref="D126"/>
+    <sheetView tabSelected="1" topLeftCell="A113" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K126" sqref="K126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4297,171 +4306,208 @@
       </c>
     </row>
     <row r="126" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C126" s="2"/>
-      <c r="D126" s="10"/>
+      <c r="B126" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C126" s="2">
+        <v>0.50347222222222221</v>
+      </c>
+      <c r="D126" s="10">
+        <v>0.53749999999999998</v>
+      </c>
       <c r="E126" s="12">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>3.4027777777777768E-2</v>
       </c>
       <c r="F126" s="13">
         <f t="shared" si="15"/>
-        <v>3.9159722222222211</v>
+        <v>3.9499999999999988</v>
       </c>
       <c r="G126" s="8">
         <f t="shared" si="16"/>
-        <v>3.9159722222222211</v>
+        <v>3.9499999999999988</v>
       </c>
       <c r="H126" s="8">
         <f t="shared" si="17"/>
-        <v>5.0659722222222214</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="I126" s="15">
         <f t="shared" si="18"/>
-        <v>20669.166666666664</v>
+        <v>20808</v>
       </c>
     </row>
     <row r="127" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C127" s="2"/>
-      <c r="D127" s="10"/>
+      <c r="B127" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C127" s="2">
+        <v>0.29305555555555557</v>
+      </c>
+      <c r="D127" s="10">
+        <v>0.3263888888888889</v>
+      </c>
       <c r="E127" s="12">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>3.3333333333333326E-2</v>
       </c>
       <c r="F127" s="13">
         <f t="shared" si="15"/>
-        <v>3.9159722222222211</v>
+        <v>3.9833333333333321</v>
       </c>
       <c r="G127" s="8">
         <f t="shared" si="16"/>
-        <v>3.9159722222222211</v>
+        <v>3.9833333333333321</v>
       </c>
       <c r="H127" s="8">
         <f t="shared" si="17"/>
-        <v>5.0659722222222214</v>
+        <v>5.1333333333333329</v>
       </c>
       <c r="I127" s="15">
         <f t="shared" si="18"/>
-        <v>20669.166666666664</v>
+        <v>20943.999999999996</v>
       </c>
     </row>
     <row r="128" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C128" s="2"/>
-      <c r="D128" s="10"/>
+      <c r="B128" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C128" s="2">
+        <v>0.53541666666666665</v>
+      </c>
+      <c r="D128" s="10">
+        <v>0.54999999999999993</v>
+      </c>
       <c r="E128" s="12">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1.4583333333333282E-2</v>
       </c>
       <c r="F128" s="13">
         <f t="shared" si="15"/>
-        <v>3.9159722222222211</v>
+        <v>3.9979166666666655</v>
       </c>
       <c r="G128" s="8">
         <f t="shared" si="16"/>
-        <v>3.9159722222222211</v>
+        <v>3.9979166666666655</v>
       </c>
       <c r="H128" s="8">
         <f t="shared" si="17"/>
-        <v>5.0659722222222214</v>
+        <v>5.1479166666666654</v>
       </c>
       <c r="I128" s="15">
         <f t="shared" si="18"/>
-        <v>20669.166666666664</v>
+        <v>21003.499999999996</v>
       </c>
     </row>
     <row r="129" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C129" s="2"/>
-      <c r="D129" s="10"/>
+      <c r="C129" s="2">
+        <v>0.5541666666666667</v>
+      </c>
+      <c r="D129" s="10">
+        <v>0.57152777777777775</v>
+      </c>
       <c r="E129" s="12">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1.7361111111111049E-2</v>
       </c>
       <c r="F129" s="13">
         <f t="shared" si="15"/>
-        <v>3.9159722222222211</v>
+        <v>4.0152777777777766</v>
       </c>
       <c r="G129" s="8">
         <f t="shared" si="16"/>
-        <v>3.9159722222222211</v>
+        <v>4.0152777777777766</v>
       </c>
       <c r="H129" s="8">
         <f t="shared" si="17"/>
-        <v>5.0659722222222214</v>
+        <v>5.1652777777777779</v>
       </c>
       <c r="I129" s="15">
         <f t="shared" si="18"/>
-        <v>20669.166666666664</v>
+        <v>21074.333333333332</v>
       </c>
     </row>
     <row r="130" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C130" s="2"/>
-      <c r="D130" s="10"/>
+      <c r="C130" s="2">
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="D130" s="10">
+        <v>0.77916666666666667</v>
+      </c>
       <c r="E130" s="12">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.12638888888888888</v>
       </c>
       <c r="F130" s="13">
         <f t="shared" si="15"/>
-        <v>3.9159722222222211</v>
+        <v>4.1416666666666657</v>
       </c>
       <c r="G130" s="8">
         <f t="shared" si="16"/>
-        <v>3.9159722222222211</v>
+        <v>4.1416666666666657</v>
       </c>
       <c r="H130" s="8">
         <f t="shared" si="17"/>
-        <v>5.0659722222222214</v>
+        <v>5.291666666666667</v>
       </c>
       <c r="I130" s="15">
         <f t="shared" si="18"/>
-        <v>20669.166666666664</v>
+        <v>21590</v>
       </c>
     </row>
     <row r="131" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C131" s="2"/>
-      <c r="D131" s="10"/>
+      <c r="C131" s="2">
+        <v>0.78819444444444453</v>
+      </c>
+      <c r="D131" s="10">
+        <v>0.83819444444444446</v>
+      </c>
       <c r="E131" s="12">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>4.9999999999999933E-2</v>
       </c>
       <c r="F131" s="13">
         <f t="shared" si="15"/>
-        <v>3.9159722222222211</v>
+        <v>4.1916666666666655</v>
       </c>
       <c r="G131" s="8">
         <f t="shared" si="16"/>
-        <v>3.9159722222222211</v>
+        <v>4.1916666666666655</v>
       </c>
       <c r="H131" s="8">
         <f t="shared" si="17"/>
-        <v>5.0659722222222214</v>
+        <v>5.3416666666666668</v>
       </c>
       <c r="I131" s="15">
         <f t="shared" si="18"/>
-        <v>20669.166666666664</v>
+        <v>21793.999999999996</v>
       </c>
     </row>
     <row r="132" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C132" s="2"/>
-      <c r="D132" s="10"/>
+      <c r="C132" s="2">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="D132" s="10">
+        <v>0.95138888888888884</v>
+      </c>
       <c r="E132" s="12">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>5.5555555555555469E-2</v>
       </c>
       <c r="F132" s="13">
         <f t="shared" si="15"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G132" s="8">
         <f t="shared" si="16"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H132" s="8">
         <f t="shared" si="17"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I132" s="15">
         <f t="shared" si="18"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="133" spans="3:9" x14ac:dyDescent="0.25">
@@ -4473,19 +4519,19 @@
       </c>
       <c r="F133" s="13">
         <f t="shared" si="15"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G133" s="8">
         <f t="shared" si="16"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H133" s="8">
         <f t="shared" si="17"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I133" s="15">
         <f t="shared" si="18"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="134" spans="3:9" x14ac:dyDescent="0.25">
@@ -4497,19 +4543,19 @@
       </c>
       <c r="F134" s="13">
         <f t="shared" si="15"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G134" s="8">
         <f t="shared" si="16"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H134" s="8">
         <f t="shared" si="17"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I134" s="15">
         <f t="shared" si="18"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="135" spans="3:9" x14ac:dyDescent="0.25">
@@ -4521,19 +4567,19 @@
       </c>
       <c r="F135" s="13">
         <f t="shared" si="15"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G135" s="8">
         <f t="shared" si="16"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H135" s="8">
         <f t="shared" si="17"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I135" s="15">
         <f t="shared" si="18"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="136" spans="3:9" x14ac:dyDescent="0.25">
@@ -4545,19 +4591,19 @@
       </c>
       <c r="F136" s="13">
         <f t="shared" si="15"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G136" s="8">
         <f t="shared" si="16"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H136" s="8">
         <f t="shared" si="17"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I136" s="15">
         <f t="shared" si="18"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="137" spans="3:9" x14ac:dyDescent="0.25">
@@ -4569,19 +4615,19 @@
       </c>
       <c r="F137" s="13">
         <f t="shared" si="15"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G137" s="8">
         <f t="shared" si="16"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H137" s="8">
         <f t="shared" si="17"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I137" s="15">
         <f t="shared" si="18"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="138" spans="3:9" x14ac:dyDescent="0.25">
@@ -4593,19 +4639,19 @@
       </c>
       <c r="F138" s="13">
         <f t="shared" si="15"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G138" s="8">
         <f t="shared" si="16"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H138" s="8">
         <f t="shared" si="17"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I138" s="15">
         <f t="shared" si="18"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="139" spans="3:9" x14ac:dyDescent="0.25">
@@ -4617,19 +4663,19 @@
       </c>
       <c r="F139" s="13">
         <f t="shared" si="15"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G139" s="8">
         <f t="shared" si="16"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H139" s="8">
         <f t="shared" si="17"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I139" s="15">
         <f t="shared" si="18"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="140" spans="3:9" x14ac:dyDescent="0.25">
@@ -4641,19 +4687,19 @@
       </c>
       <c r="F140" s="13">
         <f t="shared" si="15"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G140" s="8">
         <f t="shared" si="16"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H140" s="8">
         <f t="shared" si="17"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I140" s="15">
         <f t="shared" si="18"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="141" spans="3:9" x14ac:dyDescent="0.25">
@@ -4665,19 +4711,19 @@
       </c>
       <c r="F141" s="13">
         <f t="shared" si="15"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G141" s="8">
         <f t="shared" si="16"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H141" s="8">
         <f t="shared" si="17"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I141" s="15">
         <f t="shared" si="18"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="142" spans="3:9" x14ac:dyDescent="0.25">
@@ -4689,19 +4735,19 @@
       </c>
       <c r="F142" s="13">
         <f t="shared" si="15"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G142" s="8">
         <f t="shared" si="16"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H142" s="8">
         <f t="shared" si="17"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I142" s="15">
         <f t="shared" si="18"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="143" spans="3:9" x14ac:dyDescent="0.25">
@@ -4713,19 +4759,19 @@
       </c>
       <c r="F143" s="13">
         <f t="shared" si="15"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G143" s="8">
         <f t="shared" si="16"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H143" s="8">
         <f t="shared" si="17"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I143" s="15">
         <f t="shared" si="18"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="144" spans="3:9" x14ac:dyDescent="0.25">
@@ -4737,19 +4783,19 @@
       </c>
       <c r="F144" s="13">
         <f t="shared" si="15"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G144" s="8">
         <f t="shared" si="16"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H144" s="8">
         <f t="shared" si="17"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I144" s="15">
         <f t="shared" si="18"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="145" spans="3:9" x14ac:dyDescent="0.25">
@@ -4761,19 +4807,19 @@
       </c>
       <c r="F145" s="13">
         <f t="shared" si="15"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G145" s="8">
         <f t="shared" si="16"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H145" s="8">
         <f t="shared" si="17"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I145" s="15">
         <f t="shared" si="18"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="146" spans="3:9" x14ac:dyDescent="0.25">
@@ -4785,19 +4831,19 @@
       </c>
       <c r="F146" s="13">
         <f t="shared" si="15"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G146" s="8">
         <f t="shared" si="16"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H146" s="8">
         <f t="shared" si="17"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I146" s="15">
         <f t="shared" si="18"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="147" spans="3:9" x14ac:dyDescent="0.25">
@@ -4809,19 +4855,19 @@
       </c>
       <c r="F147" s="13">
         <f t="shared" si="15"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G147" s="8">
         <f t="shared" si="16"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H147" s="8">
         <f t="shared" si="17"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I147" s="15">
         <f t="shared" si="18"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="148" spans="3:9" x14ac:dyDescent="0.25">
@@ -4833,19 +4879,19 @@
       </c>
       <c r="F148" s="13">
         <f t="shared" si="15"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G148" s="8">
         <f t="shared" si="16"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H148" s="8">
         <f t="shared" si="17"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I148" s="15">
         <f t="shared" si="18"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="149" spans="3:9" x14ac:dyDescent="0.25">
@@ -4857,19 +4903,19 @@
       </c>
       <c r="F149" s="13">
         <f t="shared" si="15"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G149" s="8">
         <f t="shared" si="16"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H149" s="8">
         <f t="shared" si="17"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I149" s="15">
         <f t="shared" si="18"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="150" spans="3:9" x14ac:dyDescent="0.25">
@@ -4881,19 +4927,19 @@
       </c>
       <c r="F150" s="13">
         <f t="shared" si="15"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G150" s="8">
         <f t="shared" si="16"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H150" s="8">
         <f t="shared" si="17"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I150" s="15">
         <f t="shared" si="18"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="151" spans="3:9" x14ac:dyDescent="0.25">
@@ -4905,19 +4951,19 @@
       </c>
       <c r="F151" s="13">
         <f t="shared" si="15"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G151" s="8">
         <f t="shared" si="16"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H151" s="8">
         <f t="shared" si="17"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I151" s="15">
         <f t="shared" si="18"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="152" spans="3:9" x14ac:dyDescent="0.25">
@@ -4929,19 +4975,19 @@
       </c>
       <c r="F152" s="13">
         <f t="shared" si="15"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G152" s="8">
         <f t="shared" si="16"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H152" s="8">
         <f t="shared" si="17"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I152" s="15">
         <f t="shared" si="18"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="153" spans="3:9" x14ac:dyDescent="0.25">
@@ -4953,19 +4999,19 @@
       </c>
       <c r="F153" s="13">
         <f t="shared" si="15"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G153" s="8">
         <f t="shared" si="16"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H153" s="8">
         <f t="shared" si="17"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I153" s="15">
         <f t="shared" si="18"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="154" spans="3:9" x14ac:dyDescent="0.25">
@@ -4977,19 +5023,19 @@
       </c>
       <c r="F154" s="13">
         <f t="shared" si="15"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G154" s="8">
         <f t="shared" si="16"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H154" s="8">
         <f t="shared" si="17"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I154" s="15">
         <f t="shared" si="18"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="155" spans="3:9" x14ac:dyDescent="0.25">
@@ -5001,19 +5047,19 @@
       </c>
       <c r="F155" s="13">
         <f t="shared" si="15"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G155" s="8">
         <f t="shared" si="16"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H155" s="8">
         <f t="shared" si="17"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I155" s="15">
         <f t="shared" si="18"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="156" spans="3:9" x14ac:dyDescent="0.25">
@@ -5025,19 +5071,19 @@
       </c>
       <c r="F156" s="13">
         <f t="shared" si="15"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G156" s="8">
         <f t="shared" si="16"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H156" s="8">
         <f t="shared" si="17"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I156" s="15">
         <f t="shared" si="18"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="157" spans="3:9" x14ac:dyDescent="0.25">
@@ -5049,19 +5095,19 @@
       </c>
       <c r="F157" s="13">
         <f t="shared" si="15"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G157" s="8">
         <f t="shared" si="16"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H157" s="8">
         <f t="shared" si="17"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I157" s="15">
         <f t="shared" si="18"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="158" spans="3:9" x14ac:dyDescent="0.25">
@@ -5073,19 +5119,19 @@
       </c>
       <c r="F158" s="13">
         <f t="shared" si="15"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G158" s="8">
         <f t="shared" si="16"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H158" s="8">
         <f t="shared" si="17"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I158" s="15">
         <f t="shared" si="18"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="159" spans="3:9" x14ac:dyDescent="0.25">
@@ -5097,19 +5143,19 @@
       </c>
       <c r="F159" s="13">
         <f t="shared" si="15"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G159" s="8">
         <f t="shared" si="16"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H159" s="8">
         <f t="shared" si="17"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I159" s="15">
         <f t="shared" si="18"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="160" spans="3:9" x14ac:dyDescent="0.25">
@@ -5121,19 +5167,19 @@
       </c>
       <c r="F160" s="13">
         <f t="shared" si="15"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G160" s="8">
         <f t="shared" si="16"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H160" s="8">
         <f t="shared" si="17"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I160" s="15">
         <f t="shared" si="18"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="161" spans="3:9" x14ac:dyDescent="0.25">
@@ -5145,19 +5191,19 @@
       </c>
       <c r="F161" s="13">
         <f t="shared" si="15"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G161" s="8">
         <f t="shared" si="16"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H161" s="8">
         <f t="shared" si="17"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I161" s="15">
         <f t="shared" si="18"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="162" spans="3:9" x14ac:dyDescent="0.25">
@@ -5169,19 +5215,19 @@
       </c>
       <c r="F162" s="13">
         <f t="shared" si="15"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G162" s="8">
         <f t="shared" si="16"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H162" s="8">
         <f t="shared" si="17"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I162" s="15">
         <f t="shared" si="18"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="163" spans="3:9" x14ac:dyDescent="0.25">
@@ -5193,19 +5239,19 @@
       </c>
       <c r="F163" s="13">
         <f t="shared" si="15"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G163" s="8">
         <f t="shared" si="16"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H163" s="8">
         <f t="shared" si="17"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I163" s="15">
         <f t="shared" si="18"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="164" spans="3:9" x14ac:dyDescent="0.25">
@@ -5217,19 +5263,19 @@
       </c>
       <c r="F164" s="13">
         <f t="shared" si="15"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G164" s="8">
         <f t="shared" si="16"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H164" s="8">
         <f t="shared" si="17"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I164" s="15">
         <f t="shared" si="18"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="165" spans="3:9" x14ac:dyDescent="0.25">
@@ -5241,19 +5287,19 @@
       </c>
       <c r="F165" s="13">
         <f t="shared" si="15"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G165" s="8">
         <f t="shared" si="16"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H165" s="8">
         <f t="shared" si="17"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I165" s="15">
         <f t="shared" si="18"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="166" spans="3:9" x14ac:dyDescent="0.25">
@@ -5265,19 +5311,19 @@
       </c>
       <c r="F166" s="13">
         <f t="shared" si="15"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G166" s="8">
         <f t="shared" si="16"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H166" s="8">
         <f t="shared" si="17"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I166" s="15">
         <f t="shared" si="18"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="167" spans="3:9" x14ac:dyDescent="0.25">
@@ -5289,19 +5335,19 @@
       </c>
       <c r="F167" s="13">
         <f t="shared" si="15"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G167" s="8">
         <f t="shared" si="16"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H167" s="8">
         <f t="shared" si="17"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I167" s="15">
         <f t="shared" si="18"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="168" spans="3:9" x14ac:dyDescent="0.25">
@@ -5313,19 +5359,19 @@
       </c>
       <c r="F168" s="13">
         <f t="shared" ref="F168:F231" si="20">F167+E168</f>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G168" s="8">
         <f t="shared" ref="G168:G231" si="21">F168</f>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H168" s="8">
         <f t="shared" ref="H168:H231" si="22">(H167+G168-G167)</f>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I168" s="15">
         <f t="shared" ref="I168:I231" si="23">H168*24*$J$2</f>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="169" spans="3:9" x14ac:dyDescent="0.25">
@@ -5337,19 +5383,19 @@
       </c>
       <c r="F169" s="13">
         <f t="shared" si="20"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G169" s="8">
         <f t="shared" si="21"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H169" s="8">
         <f t="shared" si="22"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I169" s="15">
         <f t="shared" si="23"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="170" spans="3:9" x14ac:dyDescent="0.25">
@@ -5361,19 +5407,19 @@
       </c>
       <c r="F170" s="13">
         <f t="shared" si="20"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G170" s="8">
         <f t="shared" si="21"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H170" s="8">
         <f t="shared" si="22"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I170" s="15">
         <f t="shared" si="23"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="171" spans="3:9" x14ac:dyDescent="0.25">
@@ -5385,19 +5431,19 @@
       </c>
       <c r="F171" s="13">
         <f t="shared" si="20"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G171" s="8">
         <f t="shared" si="21"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H171" s="8">
         <f t="shared" si="22"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I171" s="15">
         <f t="shared" si="23"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="172" spans="3:9" x14ac:dyDescent="0.25">
@@ -5409,19 +5455,19 @@
       </c>
       <c r="F172" s="13">
         <f t="shared" si="20"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G172" s="8">
         <f t="shared" si="21"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H172" s="8">
         <f t="shared" si="22"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I172" s="15">
         <f t="shared" si="23"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="173" spans="3:9" x14ac:dyDescent="0.25">
@@ -5433,19 +5479,19 @@
       </c>
       <c r="F173" s="13">
         <f t="shared" si="20"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G173" s="8">
         <f t="shared" si="21"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H173" s="8">
         <f t="shared" si="22"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I173" s="15">
         <f t="shared" si="23"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="174" spans="3:9" x14ac:dyDescent="0.25">
@@ -5457,19 +5503,19 @@
       </c>
       <c r="F174" s="13">
         <f t="shared" si="20"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G174" s="8">
         <f t="shared" si="21"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H174" s="8">
         <f t="shared" si="22"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I174" s="15">
         <f t="shared" si="23"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="175" spans="3:9" x14ac:dyDescent="0.25">
@@ -5481,19 +5527,19 @@
       </c>
       <c r="F175" s="13">
         <f t="shared" si="20"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G175" s="8">
         <f t="shared" si="21"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H175" s="8">
         <f t="shared" si="22"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I175" s="15">
         <f t="shared" si="23"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="176" spans="3:9" x14ac:dyDescent="0.25">
@@ -5505,19 +5551,19 @@
       </c>
       <c r="F176" s="13">
         <f t="shared" si="20"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G176" s="8">
         <f t="shared" si="21"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H176" s="8">
         <f t="shared" si="22"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I176" s="15">
         <f t="shared" si="23"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="177" spans="3:9" x14ac:dyDescent="0.25">
@@ -5529,19 +5575,19 @@
       </c>
       <c r="F177" s="13">
         <f t="shared" si="20"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G177" s="8">
         <f t="shared" si="21"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H177" s="8">
         <f t="shared" si="22"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I177" s="15">
         <f t="shared" si="23"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="178" spans="3:9" x14ac:dyDescent="0.25">
@@ -5553,19 +5599,19 @@
       </c>
       <c r="F178" s="13">
         <f t="shared" si="20"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G178" s="8">
         <f t="shared" si="21"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H178" s="8">
         <f t="shared" si="22"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I178" s="15">
         <f t="shared" si="23"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="179" spans="3:9" x14ac:dyDescent="0.25">
@@ -5577,19 +5623,19 @@
       </c>
       <c r="F179" s="13">
         <f t="shared" si="20"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G179" s="8">
         <f t="shared" si="21"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H179" s="8">
         <f t="shared" si="22"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I179" s="15">
         <f t="shared" si="23"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="180" spans="3:9" x14ac:dyDescent="0.25">
@@ -5601,19 +5647,19 @@
       </c>
       <c r="F180" s="13">
         <f t="shared" si="20"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G180" s="8">
         <f t="shared" si="21"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H180" s="8">
         <f t="shared" si="22"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I180" s="15">
         <f t="shared" si="23"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="181" spans="3:9" x14ac:dyDescent="0.25">
@@ -5625,19 +5671,19 @@
       </c>
       <c r="F181" s="13">
         <f t="shared" si="20"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G181" s="8">
         <f t="shared" si="21"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H181" s="8">
         <f t="shared" si="22"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I181" s="15">
         <f t="shared" si="23"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="182" spans="3:9" x14ac:dyDescent="0.25">
@@ -5649,19 +5695,19 @@
       </c>
       <c r="F182" s="13">
         <f t="shared" si="20"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G182" s="8">
         <f t="shared" si="21"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H182" s="8">
         <f t="shared" si="22"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I182" s="15">
         <f t="shared" si="23"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="183" spans="3:9" x14ac:dyDescent="0.25">
@@ -5673,19 +5719,19 @@
       </c>
       <c r="F183" s="13">
         <f t="shared" si="20"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G183" s="8">
         <f t="shared" si="21"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H183" s="8">
         <f t="shared" si="22"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I183" s="15">
         <f t="shared" si="23"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="184" spans="3:9" x14ac:dyDescent="0.25">
@@ -5697,19 +5743,19 @@
       </c>
       <c r="F184" s="13">
         <f t="shared" si="20"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G184" s="8">
         <f t="shared" si="21"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H184" s="8">
         <f t="shared" si="22"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I184" s="15">
         <f t="shared" si="23"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="185" spans="3:9" x14ac:dyDescent="0.25">
@@ -5721,19 +5767,19 @@
       </c>
       <c r="F185" s="13">
         <f t="shared" si="20"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G185" s="8">
         <f t="shared" si="21"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H185" s="8">
         <f t="shared" si="22"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I185" s="15">
         <f t="shared" si="23"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="186" spans="3:9" x14ac:dyDescent="0.25">
@@ -5745,19 +5791,19 @@
       </c>
       <c r="F186" s="13">
         <f t="shared" si="20"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G186" s="8">
         <f t="shared" si="21"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H186" s="8">
         <f t="shared" si="22"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I186" s="15">
         <f t="shared" si="23"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="187" spans="3:9" x14ac:dyDescent="0.25">
@@ -5769,19 +5815,19 @@
       </c>
       <c r="F187" s="13">
         <f t="shared" si="20"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G187" s="8">
         <f t="shared" si="21"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H187" s="8">
         <f t="shared" si="22"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I187" s="15">
         <f t="shared" si="23"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="188" spans="3:9" x14ac:dyDescent="0.25">
@@ -5793,19 +5839,19 @@
       </c>
       <c r="F188" s="13">
         <f t="shared" si="20"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G188" s="8">
         <f t="shared" si="21"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H188" s="8">
         <f t="shared" si="22"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I188" s="15">
         <f t="shared" si="23"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="189" spans="3:9" x14ac:dyDescent="0.25">
@@ -5817,19 +5863,19 @@
       </c>
       <c r="F189" s="13">
         <f t="shared" si="20"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G189" s="8">
         <f t="shared" si="21"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H189" s="8">
         <f t="shared" si="22"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I189" s="15">
         <f t="shared" si="23"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="190" spans="3:9" x14ac:dyDescent="0.25">
@@ -5841,19 +5887,19 @@
       </c>
       <c r="F190" s="13">
         <f t="shared" si="20"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G190" s="8">
         <f t="shared" si="21"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H190" s="8">
         <f t="shared" si="22"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I190" s="15">
         <f t="shared" si="23"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="191" spans="3:9" x14ac:dyDescent="0.25">
@@ -5865,19 +5911,19 @@
       </c>
       <c r="F191" s="13">
         <f t="shared" si="20"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G191" s="8">
         <f t="shared" si="21"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H191" s="8">
         <f t="shared" si="22"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I191" s="15">
         <f t="shared" si="23"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="192" spans="3:9" x14ac:dyDescent="0.25">
@@ -5889,19 +5935,19 @@
       </c>
       <c r="F192" s="13">
         <f t="shared" si="20"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G192" s="8">
         <f t="shared" si="21"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H192" s="8">
         <f t="shared" si="22"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I192" s="15">
         <f t="shared" si="23"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="193" spans="3:9" x14ac:dyDescent="0.25">
@@ -5913,19 +5959,19 @@
       </c>
       <c r="F193" s="13">
         <f t="shared" si="20"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G193" s="8">
         <f t="shared" si="21"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H193" s="8">
         <f t="shared" si="22"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I193" s="15">
         <f t="shared" si="23"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="194" spans="3:9" x14ac:dyDescent="0.25">
@@ -5937,19 +5983,19 @@
       </c>
       <c r="F194" s="13">
         <f t="shared" si="20"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G194" s="8">
         <f t="shared" si="21"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H194" s="8">
         <f t="shared" si="22"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I194" s="15">
         <f t="shared" si="23"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="195" spans="3:9" x14ac:dyDescent="0.25">
@@ -5961,19 +6007,19 @@
       </c>
       <c r="F195" s="13">
         <f t="shared" si="20"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G195" s="8">
         <f t="shared" si="21"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H195" s="8">
         <f t="shared" si="22"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I195" s="15">
         <f t="shared" si="23"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="196" spans="3:9" x14ac:dyDescent="0.25">
@@ -5985,19 +6031,19 @@
       </c>
       <c r="F196" s="13">
         <f t="shared" si="20"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G196" s="8">
         <f t="shared" si="21"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H196" s="8">
         <f t="shared" si="22"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I196" s="15">
         <f t="shared" si="23"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="197" spans="3:9" x14ac:dyDescent="0.25">
@@ -6009,19 +6055,19 @@
       </c>
       <c r="F197" s="13">
         <f t="shared" si="20"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G197" s="8">
         <f t="shared" si="21"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H197" s="8">
         <f t="shared" si="22"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I197" s="15">
         <f t="shared" si="23"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="198" spans="3:9" x14ac:dyDescent="0.25">
@@ -6033,19 +6079,19 @@
       </c>
       <c r="F198" s="13">
         <f t="shared" si="20"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G198" s="8">
         <f t="shared" si="21"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H198" s="8">
         <f t="shared" si="22"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I198" s="15">
         <f t="shared" si="23"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="199" spans="3:9" x14ac:dyDescent="0.25">
@@ -6057,19 +6103,19 @@
       </c>
       <c r="F199" s="13">
         <f t="shared" si="20"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G199" s="8">
         <f t="shared" si="21"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H199" s="8">
         <f t="shared" si="22"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I199" s="15">
         <f t="shared" si="23"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="200" spans="3:9" x14ac:dyDescent="0.25">
@@ -6081,19 +6127,19 @@
       </c>
       <c r="F200" s="13">
         <f t="shared" si="20"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G200" s="8">
         <f t="shared" si="21"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H200" s="8">
         <f t="shared" si="22"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I200" s="15">
         <f t="shared" si="23"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="201" spans="3:9" x14ac:dyDescent="0.25">
@@ -6105,19 +6151,19 @@
       </c>
       <c r="F201" s="13">
         <f t="shared" si="20"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G201" s="8">
         <f t="shared" si="21"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H201" s="8">
         <f t="shared" si="22"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I201" s="15">
         <f t="shared" si="23"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="202" spans="3:9" x14ac:dyDescent="0.25">
@@ -6129,19 +6175,19 @@
       </c>
       <c r="F202" s="13">
         <f t="shared" si="20"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G202" s="8">
         <f t="shared" si="21"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H202" s="8">
         <f t="shared" si="22"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I202" s="15">
         <f t="shared" si="23"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="203" spans="3:9" x14ac:dyDescent="0.25">
@@ -6153,19 +6199,19 @@
       </c>
       <c r="F203" s="13">
         <f t="shared" si="20"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G203" s="8">
         <f t="shared" si="21"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H203" s="8">
         <f t="shared" si="22"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I203" s="15">
         <f t="shared" si="23"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="204" spans="3:9" x14ac:dyDescent="0.25">
@@ -6177,19 +6223,19 @@
       </c>
       <c r="F204" s="13">
         <f t="shared" si="20"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G204" s="8">
         <f t="shared" si="21"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H204" s="8">
         <f t="shared" si="22"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I204" s="15">
         <f t="shared" si="23"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="205" spans="3:9" x14ac:dyDescent="0.25">
@@ -6201,19 +6247,19 @@
       </c>
       <c r="F205" s="13">
         <f t="shared" si="20"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G205" s="8">
         <f t="shared" si="21"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H205" s="8">
         <f t="shared" si="22"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I205" s="15">
         <f t="shared" si="23"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="206" spans="3:9" x14ac:dyDescent="0.25">
@@ -6225,19 +6271,19 @@
       </c>
       <c r="F206" s="13">
         <f t="shared" si="20"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G206" s="8">
         <f t="shared" si="21"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H206" s="8">
         <f t="shared" si="22"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I206" s="15">
         <f t="shared" si="23"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="207" spans="3:9" x14ac:dyDescent="0.25">
@@ -6249,19 +6295,19 @@
       </c>
       <c r="F207" s="13">
         <f t="shared" si="20"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G207" s="8">
         <f t="shared" si="21"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H207" s="8">
         <f t="shared" si="22"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I207" s="15">
         <f t="shared" si="23"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="208" spans="3:9" x14ac:dyDescent="0.25">
@@ -6273,19 +6319,19 @@
       </c>
       <c r="F208" s="13">
         <f t="shared" si="20"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G208" s="8">
         <f t="shared" si="21"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H208" s="8">
         <f t="shared" si="22"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I208" s="15">
         <f t="shared" si="23"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="209" spans="3:9" x14ac:dyDescent="0.25">
@@ -6297,19 +6343,19 @@
       </c>
       <c r="F209" s="13">
         <f t="shared" si="20"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G209" s="8">
         <f t="shared" si="21"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H209" s="8">
         <f t="shared" si="22"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I209" s="15">
         <f t="shared" si="23"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="210" spans="3:9" x14ac:dyDescent="0.25">
@@ -6321,19 +6367,19 @@
       </c>
       <c r="F210" s="13">
         <f t="shared" si="20"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G210" s="8">
         <f t="shared" si="21"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H210" s="8">
         <f t="shared" si="22"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I210" s="15">
         <f t="shared" si="23"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="211" spans="3:9" x14ac:dyDescent="0.25">
@@ -6345,19 +6391,19 @@
       </c>
       <c r="F211" s="13">
         <f t="shared" si="20"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G211" s="8">
         <f t="shared" si="21"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H211" s="8">
         <f t="shared" si="22"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I211" s="15">
         <f t="shared" si="23"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="212" spans="3:9" x14ac:dyDescent="0.25">
@@ -6369,19 +6415,19 @@
       </c>
       <c r="F212" s="13">
         <f t="shared" si="20"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G212" s="8">
         <f t="shared" si="21"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H212" s="8">
         <f t="shared" si="22"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I212" s="15">
         <f t="shared" si="23"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="213" spans="3:9" x14ac:dyDescent="0.25">
@@ -6393,19 +6439,19 @@
       </c>
       <c r="F213" s="13">
         <f t="shared" si="20"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G213" s="8">
         <f t="shared" si="21"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H213" s="8">
         <f t="shared" si="22"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I213" s="15">
         <f t="shared" si="23"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="214" spans="3:9" x14ac:dyDescent="0.25">
@@ -6417,19 +6463,19 @@
       </c>
       <c r="F214" s="13">
         <f t="shared" si="20"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G214" s="8">
         <f t="shared" si="21"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H214" s="8">
         <f t="shared" si="22"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I214" s="15">
         <f t="shared" si="23"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="215" spans="3:9" x14ac:dyDescent="0.25">
@@ -6441,19 +6487,19 @@
       </c>
       <c r="F215" s="13">
         <f t="shared" si="20"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G215" s="8">
         <f t="shared" si="21"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H215" s="8">
         <f t="shared" si="22"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I215" s="15">
         <f t="shared" si="23"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="216" spans="3:9" x14ac:dyDescent="0.25">
@@ -6465,19 +6511,19 @@
       </c>
       <c r="F216" s="13">
         <f t="shared" si="20"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G216" s="8">
         <f t="shared" si="21"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H216" s="8">
         <f t="shared" si="22"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I216" s="15">
         <f t="shared" si="23"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="217" spans="3:9" x14ac:dyDescent="0.25">
@@ -6489,19 +6535,19 @@
       </c>
       <c r="F217" s="13">
         <f t="shared" si="20"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G217" s="8">
         <f t="shared" si="21"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H217" s="8">
         <f t="shared" si="22"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I217" s="15">
         <f t="shared" si="23"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="218" spans="3:9" x14ac:dyDescent="0.25">
@@ -6513,19 +6559,19 @@
       </c>
       <c r="F218" s="13">
         <f t="shared" si="20"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G218" s="8">
         <f t="shared" si="21"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H218" s="8">
         <f t="shared" si="22"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I218" s="15">
         <f t="shared" si="23"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="219" spans="3:9" x14ac:dyDescent="0.25">
@@ -6537,19 +6583,19 @@
       </c>
       <c r="F219" s="13">
         <f t="shared" si="20"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G219" s="8">
         <f t="shared" si="21"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H219" s="8">
         <f t="shared" si="22"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I219" s="15">
         <f t="shared" si="23"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="220" spans="3:9" x14ac:dyDescent="0.25">
@@ -6561,19 +6607,19 @@
       </c>
       <c r="F220" s="13">
         <f t="shared" si="20"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G220" s="8">
         <f t="shared" si="21"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H220" s="8">
         <f t="shared" si="22"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I220" s="15">
         <f t="shared" si="23"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="221" spans="3:9" x14ac:dyDescent="0.25">
@@ -6585,19 +6631,19 @@
       </c>
       <c r="F221" s="13">
         <f t="shared" si="20"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G221" s="8">
         <f t="shared" si="21"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H221" s="8">
         <f t="shared" si="22"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I221" s="15">
         <f t="shared" si="23"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="222" spans="3:9" x14ac:dyDescent="0.25">
@@ -6609,19 +6655,19 @@
       </c>
       <c r="F222" s="13">
         <f t="shared" si="20"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G222" s="8">
         <f t="shared" si="21"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H222" s="8">
         <f t="shared" si="22"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I222" s="15">
         <f t="shared" si="23"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="223" spans="3:9" x14ac:dyDescent="0.25">
@@ -6633,19 +6679,19 @@
       </c>
       <c r="F223" s="13">
         <f t="shared" si="20"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G223" s="8">
         <f t="shared" si="21"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H223" s="8">
         <f t="shared" si="22"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I223" s="15">
         <f t="shared" si="23"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="224" spans="3:9" x14ac:dyDescent="0.25">
@@ -6657,19 +6703,19 @@
       </c>
       <c r="F224" s="13">
         <f t="shared" si="20"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G224" s="8">
         <f t="shared" si="21"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H224" s="8">
         <f t="shared" si="22"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I224" s="15">
         <f t="shared" si="23"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="225" spans="3:9" x14ac:dyDescent="0.25">
@@ -6681,19 +6727,19 @@
       </c>
       <c r="F225" s="13">
         <f t="shared" si="20"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G225" s="8">
         <f t="shared" si="21"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H225" s="8">
         <f t="shared" si="22"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I225" s="15">
         <f t="shared" si="23"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="226" spans="3:9" x14ac:dyDescent="0.25">
@@ -6705,19 +6751,19 @@
       </c>
       <c r="F226" s="13">
         <f t="shared" si="20"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G226" s="8">
         <f t="shared" si="21"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H226" s="8">
         <f t="shared" si="22"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I226" s="15">
         <f t="shared" si="23"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="227" spans="3:9" x14ac:dyDescent="0.25">
@@ -6729,19 +6775,19 @@
       </c>
       <c r="F227" s="13">
         <f t="shared" si="20"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G227" s="8">
         <f t="shared" si="21"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H227" s="8">
         <f t="shared" si="22"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I227" s="15">
         <f t="shared" si="23"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="228" spans="3:9" x14ac:dyDescent="0.25">
@@ -6753,19 +6799,19 @@
       </c>
       <c r="F228" s="13">
         <f t="shared" si="20"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G228" s="8">
         <f t="shared" si="21"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H228" s="8">
         <f t="shared" si="22"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I228" s="15">
         <f t="shared" si="23"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="229" spans="3:9" x14ac:dyDescent="0.25">
@@ -6777,19 +6823,19 @@
       </c>
       <c r="F229" s="13">
         <f t="shared" si="20"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G229" s="8">
         <f t="shared" si="21"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H229" s="8">
         <f t="shared" si="22"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I229" s="15">
         <f t="shared" si="23"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="230" spans="3:9" x14ac:dyDescent="0.25">
@@ -6801,19 +6847,19 @@
       </c>
       <c r="F230" s="13">
         <f t="shared" si="20"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G230" s="8">
         <f t="shared" si="21"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H230" s="8">
         <f t="shared" si="22"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I230" s="15">
         <f t="shared" si="23"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="231" spans="3:9" x14ac:dyDescent="0.25">
@@ -6825,19 +6871,19 @@
       </c>
       <c r="F231" s="13">
         <f t="shared" si="20"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G231" s="8">
         <f t="shared" si="21"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H231" s="8">
         <f t="shared" si="22"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I231" s="15">
         <f t="shared" si="23"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="232" spans="3:9" x14ac:dyDescent="0.25">
@@ -6849,19 +6895,19 @@
       </c>
       <c r="F232" s="13">
         <f t="shared" ref="F232:F255" si="25">F231+E232</f>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G232" s="8">
         <f t="shared" ref="G232:G255" si="26">F232</f>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H232" s="8">
         <f t="shared" ref="H232:H255" si="27">(H231+G232-G231)</f>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I232" s="15">
         <f t="shared" ref="I232:I255" si="28">H232*24*$J$2</f>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="233" spans="3:9" x14ac:dyDescent="0.25">
@@ -6873,19 +6919,19 @@
       </c>
       <c r="F233" s="13">
         <f t="shared" si="25"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G233" s="8">
         <f t="shared" si="26"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H233" s="8">
         <f t="shared" si="27"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I233" s="15">
         <f t="shared" si="28"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="234" spans="3:9" x14ac:dyDescent="0.25">
@@ -6897,19 +6943,19 @@
       </c>
       <c r="F234" s="13">
         <f t="shared" si="25"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G234" s="8">
         <f t="shared" si="26"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H234" s="8">
         <f t="shared" si="27"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I234" s="15">
         <f t="shared" si="28"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="235" spans="3:9" x14ac:dyDescent="0.25">
@@ -6921,19 +6967,19 @@
       </c>
       <c r="F235" s="13">
         <f t="shared" si="25"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G235" s="8">
         <f t="shared" si="26"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H235" s="8">
         <f t="shared" si="27"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I235" s="15">
         <f t="shared" si="28"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="236" spans="3:9" x14ac:dyDescent="0.25">
@@ -6945,19 +6991,19 @@
       </c>
       <c r="F236" s="13">
         <f t="shared" si="25"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G236" s="8">
         <f t="shared" si="26"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H236" s="8">
         <f t="shared" si="27"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I236" s="15">
         <f t="shared" si="28"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="237" spans="3:9" x14ac:dyDescent="0.25">
@@ -6969,19 +7015,19 @@
       </c>
       <c r="F237" s="13">
         <f t="shared" si="25"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G237" s="8">
         <f t="shared" si="26"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H237" s="8">
         <f t="shared" si="27"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I237" s="15">
         <f t="shared" si="28"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="238" spans="3:9" x14ac:dyDescent="0.25">
@@ -6993,19 +7039,19 @@
       </c>
       <c r="F238" s="13">
         <f t="shared" si="25"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G238" s="8">
         <f t="shared" si="26"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H238" s="8">
         <f t="shared" si="27"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I238" s="15">
         <f t="shared" si="28"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="239" spans="3:9" x14ac:dyDescent="0.25">
@@ -7017,19 +7063,19 @@
       </c>
       <c r="F239" s="13">
         <f t="shared" si="25"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G239" s="8">
         <f t="shared" si="26"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H239" s="8">
         <f t="shared" si="27"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I239" s="15">
         <f t="shared" si="28"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="240" spans="3:9" x14ac:dyDescent="0.25">
@@ -7041,19 +7087,19 @@
       </c>
       <c r="F240" s="13">
         <f t="shared" si="25"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G240" s="8">
         <f t="shared" si="26"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H240" s="8">
         <f t="shared" si="27"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I240" s="15">
         <f t="shared" si="28"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="241" spans="3:9" x14ac:dyDescent="0.25">
@@ -7065,19 +7111,19 @@
       </c>
       <c r="F241" s="13">
         <f t="shared" si="25"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G241" s="8">
         <f t="shared" si="26"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H241" s="8">
         <f t="shared" si="27"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I241" s="15">
         <f t="shared" si="28"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="242" spans="3:9" x14ac:dyDescent="0.25">
@@ -7089,19 +7135,19 @@
       </c>
       <c r="F242" s="13">
         <f t="shared" si="25"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G242" s="8">
         <f t="shared" si="26"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H242" s="8">
         <f t="shared" si="27"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I242" s="15">
         <f t="shared" si="28"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="243" spans="3:9" x14ac:dyDescent="0.25">
@@ -7113,19 +7159,19 @@
       </c>
       <c r="F243" s="13">
         <f t="shared" si="25"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G243" s="8">
         <f t="shared" si="26"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H243" s="8">
         <f t="shared" si="27"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I243" s="15">
         <f t="shared" si="28"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="244" spans="3:9" x14ac:dyDescent="0.25">
@@ -7137,19 +7183,19 @@
       </c>
       <c r="F244" s="13">
         <f t="shared" si="25"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G244" s="8">
         <f t="shared" si="26"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H244" s="8">
         <f t="shared" si="27"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I244" s="15">
         <f t="shared" si="28"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="245" spans="3:9" x14ac:dyDescent="0.25">
@@ -7161,19 +7207,19 @@
       </c>
       <c r="F245" s="13">
         <f t="shared" si="25"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G245" s="8">
         <f t="shared" si="26"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H245" s="8">
         <f t="shared" si="27"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I245" s="15">
         <f t="shared" si="28"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="246" spans="3:9" x14ac:dyDescent="0.25">
@@ -7185,19 +7231,19 @@
       </c>
       <c r="F246" s="13">
         <f t="shared" si="25"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G246" s="8">
         <f t="shared" si="26"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H246" s="8">
         <f t="shared" si="27"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I246" s="15">
         <f t="shared" si="28"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="247" spans="3:9" x14ac:dyDescent="0.25">
@@ -7209,19 +7255,19 @@
       </c>
       <c r="F247" s="13">
         <f t="shared" si="25"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G247" s="8">
         <f t="shared" si="26"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H247" s="8">
         <f t="shared" si="27"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I247" s="15">
         <f t="shared" si="28"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="248" spans="3:9" x14ac:dyDescent="0.25">
@@ -7233,19 +7279,19 @@
       </c>
       <c r="F248" s="13">
         <f t="shared" si="25"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G248" s="8">
         <f t="shared" si="26"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H248" s="8">
         <f t="shared" si="27"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I248" s="15">
         <f t="shared" si="28"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="249" spans="3:9" x14ac:dyDescent="0.25">
@@ -7257,19 +7303,19 @@
       </c>
       <c r="F249" s="13">
         <f t="shared" si="25"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G249" s="8">
         <f t="shared" si="26"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H249" s="8">
         <f t="shared" si="27"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I249" s="15">
         <f t="shared" si="28"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="250" spans="3:9" x14ac:dyDescent="0.25">
@@ -7281,19 +7327,19 @@
       </c>
       <c r="F250" s="13">
         <f t="shared" si="25"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G250" s="8">
         <f t="shared" si="26"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H250" s="8">
         <f t="shared" si="27"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I250" s="15">
         <f t="shared" si="28"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="251" spans="3:9" x14ac:dyDescent="0.25">
@@ -7305,19 +7351,19 @@
       </c>
       <c r="F251" s="13">
         <f t="shared" si="25"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G251" s="8">
         <f t="shared" si="26"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H251" s="8">
         <f t="shared" si="27"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I251" s="15">
         <f t="shared" si="28"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="252" spans="3:9" x14ac:dyDescent="0.25">
@@ -7329,19 +7375,19 @@
       </c>
       <c r="F252" s="13">
         <f t="shared" si="25"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G252" s="8">
         <f t="shared" si="26"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H252" s="8">
         <f t="shared" si="27"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I252" s="15">
         <f t="shared" si="28"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="253" spans="3:9" x14ac:dyDescent="0.25">
@@ -7353,19 +7399,19 @@
       </c>
       <c r="F253" s="13">
         <f t="shared" si="25"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G253" s="8">
         <f t="shared" si="26"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H253" s="8">
         <f t="shared" si="27"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I253" s="15">
         <f t="shared" si="28"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="254" spans="3:9" x14ac:dyDescent="0.25">
@@ -7377,19 +7423,19 @@
       </c>
       <c r="F254" s="13">
         <f t="shared" si="25"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G254" s="8">
         <f t="shared" si="26"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H254" s="8">
         <f t="shared" si="27"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I254" s="15">
         <f t="shared" si="28"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
     <row r="255" spans="3:9" x14ac:dyDescent="0.25">
@@ -7401,19 +7447,19 @@
       </c>
       <c r="F255" s="13">
         <f t="shared" si="25"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="G255" s="8">
         <f t="shared" si="26"/>
-        <v>3.9159722222222211</v>
+        <v>4.2472222222222209</v>
       </c>
       <c r="H255" s="8">
         <f t="shared" si="27"/>
-        <v>5.0659722222222214</v>
+        <v>5.397222222222223</v>
       </c>
       <c r="I255" s="15">
         <f t="shared" si="28"/>
-        <v>20669.166666666664</v>
+        <v>22020.666666666672</v>
       </c>
     </row>
   </sheetData>

--- a/hodiny.xlsx
+++ b/hodiny.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50DE072B-E7F0-46C8-9317-B67BE86CA58E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A116F40A-C78F-4D55-A113-1237F99F2F84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3360" yWindow="4650" windowWidth="28800" windowHeight="14925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
   <si>
     <t>čas [min]</t>
   </si>
@@ -184,6 +184,12 @@
   </si>
   <si>
     <t>12.8.</t>
+  </si>
+  <si>
+    <t>13.8.</t>
+  </si>
+  <si>
+    <t>konec Vetrni</t>
   </si>
 </sst>
 </file>
@@ -697,8 +703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K126" sqref="K126"/>
+    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J134" sqref="J134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4398,7 +4404,7 @@
         <v>21003.499999999996</v>
       </c>
     </row>
-    <row r="129" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C129" s="2">
         <v>0.5541666666666667</v>
       </c>
@@ -4426,7 +4432,7 @@
         <v>21074.333333333332</v>
       </c>
     </row>
-    <row r="130" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C130" s="2">
         <v>0.65277777777777779</v>
       </c>
@@ -4454,7 +4460,7 @@
         <v>21590</v>
       </c>
     </row>
-    <row r="131" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C131" s="2">
         <v>0.78819444444444453</v>
       </c>
@@ -4482,7 +4488,7 @@
         <v>21793.999999999996</v>
       </c>
     </row>
-    <row r="132" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C132" s="2">
         <v>0.89583333333333337</v>
       </c>
@@ -4510,31 +4516,41 @@
         <v>22020.666666666672</v>
       </c>
     </row>
-    <row r="133" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C133" s="2"/>
-      <c r="D133" s="10"/>
+    <row r="133" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B133" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C133" s="2">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D133" s="10">
+        <v>0.98888888888888893</v>
+      </c>
       <c r="E133" s="12">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>3.0555555555555558E-2</v>
       </c>
       <c r="F133" s="13">
         <f t="shared" si="15"/>
-        <v>4.2472222222222209</v>
+        <v>4.2777777777777768</v>
       </c>
       <c r="G133" s="8">
         <f t="shared" si="16"/>
-        <v>4.2472222222222209</v>
+        <v>4.2777777777777768</v>
       </c>
       <c r="H133" s="8">
         <f t="shared" si="17"/>
-        <v>5.397222222222223</v>
+        <v>5.4277777777777798</v>
       </c>
       <c r="I133" s="15">
         <f t="shared" si="18"/>
-        <v>22020.666666666672</v>
-      </c>
-    </row>
-    <row r="134" spans="3:9" x14ac:dyDescent="0.25">
+        <v>22145.333333333339</v>
+      </c>
+      <c r="J133" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="134" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C134" s="2"/>
       <c r="D134" s="10"/>
       <c r="E134" s="12">
@@ -4543,22 +4559,22 @@
       </c>
       <c r="F134" s="13">
         <f t="shared" si="15"/>
-        <v>4.2472222222222209</v>
+        <v>4.2777777777777768</v>
       </c>
       <c r="G134" s="8">
         <f t="shared" si="16"/>
-        <v>4.2472222222222209</v>
+        <v>4.2777777777777768</v>
       </c>
       <c r="H134" s="8">
         <f t="shared" si="17"/>
-        <v>5.397222222222223</v>
+        <v>5.4277777777777789</v>
       </c>
       <c r="I134" s="15">
         <f t="shared" si="18"/>
-        <v>22020.666666666672</v>
-      </c>
-    </row>
-    <row r="135" spans="3:9" x14ac:dyDescent="0.25">
+        <v>22145.333333333339</v>
+      </c>
+    </row>
+    <row r="135" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C135" s="2"/>
       <c r="D135" s="10"/>
       <c r="E135" s="12">
@@ -4567,22 +4583,22 @@
       </c>
       <c r="F135" s="13">
         <f t="shared" si="15"/>
-        <v>4.2472222222222209</v>
+        <v>4.2777777777777768</v>
       </c>
       <c r="G135" s="8">
         <f t="shared" si="16"/>
-        <v>4.2472222222222209</v>
+        <v>4.2777777777777768</v>
       </c>
       <c r="H135" s="8">
         <f t="shared" si="17"/>
-        <v>5.397222222222223</v>
+        <v>5.4277777777777789</v>
       </c>
       <c r="I135" s="15">
         <f t="shared" si="18"/>
-        <v>22020.666666666672</v>
-      </c>
-    </row>
-    <row r="136" spans="3:9" x14ac:dyDescent="0.25">
+        <v>22145.333333333339</v>
+      </c>
+    </row>
+    <row r="136" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C136" s="2"/>
       <c r="D136" s="10"/>
       <c r="E136" s="12">
@@ -4591,22 +4607,22 @@
       </c>
       <c r="F136" s="13">
         <f t="shared" si="15"/>
-        <v>4.2472222222222209</v>
+        <v>4.2777777777777768</v>
       </c>
       <c r="G136" s="8">
         <f t="shared" si="16"/>
-        <v>4.2472222222222209</v>
+        <v>4.2777777777777768</v>
       </c>
       <c r="H136" s="8">
         <f t="shared" si="17"/>
-        <v>5.397222222222223</v>
+        <v>5.4277777777777789</v>
       </c>
       <c r="I136" s="15">
         <f t="shared" si="18"/>
-        <v>22020.666666666672</v>
-      </c>
-    </row>
-    <row r="137" spans="3:9" x14ac:dyDescent="0.25">
+        <v>22145.333333333339</v>
+      </c>
+    </row>
+    <row r="137" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C137" s="2"/>
       <c r="D137" s="10"/>
       <c r="E137" s="12">
@@ -4615,22 +4631,22 @@
       </c>
       <c r="F137" s="13">
         <f t="shared" si="15"/>
-        <v>4.2472222222222209</v>
+        <v>4.2777777777777768</v>
       </c>
       <c r="G137" s="8">
         <f t="shared" si="16"/>
-        <v>4.2472222222222209</v>
+        <v>4.2777777777777768</v>
       </c>
       <c r="H137" s="8">
         <f t="shared" si="17"/>
-        <v>5.397222222222223</v>
+        <v>5.4277777777777789</v>
       </c>
       <c r="I137" s="15">
         <f t="shared" si="18"/>
-        <v>22020.666666666672</v>
-      </c>
-    </row>
-    <row r="138" spans="3:9" x14ac:dyDescent="0.25">
+        <v>22145.333333333339</v>
+      </c>
+    </row>
+    <row r="138" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C138" s="2"/>
       <c r="D138" s="10"/>
       <c r="E138" s="12">
@@ -4639,22 +4655,22 @@
       </c>
       <c r="F138" s="13">
         <f t="shared" si="15"/>
-        <v>4.2472222222222209</v>
+        <v>4.2777777777777768</v>
       </c>
       <c r="G138" s="8">
         <f t="shared" si="16"/>
-        <v>4.2472222222222209</v>
+        <v>4.2777777777777768</v>
       </c>
       <c r="H138" s="8">
         <f t="shared" si="17"/>
-        <v>5.397222222222223</v>
+        <v>5.4277777777777789</v>
       </c>
       <c r="I138" s="15">
         <f t="shared" si="18"/>
-        <v>22020.666666666672</v>
-      </c>
-    </row>
-    <row r="139" spans="3:9" x14ac:dyDescent="0.25">
+        <v>22145.333333333339</v>
+      </c>
+    </row>
+    <row r="139" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C139" s="2"/>
       <c r="D139" s="10"/>
       <c r="E139" s="12">
@@ -4663,22 +4679,22 @@
       </c>
       <c r="F139" s="13">
         <f t="shared" si="15"/>
-        <v>4.2472222222222209</v>
+        <v>4.2777777777777768</v>
       </c>
       <c r="G139" s="8">
         <f t="shared" si="16"/>
-        <v>4.2472222222222209</v>
+        <v>4.2777777777777768</v>
       </c>
       <c r="H139" s="8">
         <f t="shared" si="17"/>
-        <v>5.397222222222223</v>
+        <v>5.4277777777777789</v>
       </c>
       <c r="I139" s="15">
         <f t="shared" si="18"/>
-        <v>22020.666666666672</v>
-      </c>
-    </row>
-    <row r="140" spans="3:9" x14ac:dyDescent="0.25">
+        <v>22145.333333333339</v>
+      </c>
+    </row>
+    <row r="140" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C140" s="2"/>
       <c r="D140" s="10"/>
       <c r="E140" s="12">
@@ -4687,22 +4703,22 @@
       </c>
       <c r="F140" s="13">
         <f t="shared" si="15"/>
-        <v>4.2472222222222209</v>
+        <v>4.2777777777777768</v>
       </c>
       <c r="G140" s="8">
         <f t="shared" si="16"/>
-        <v>4.2472222222222209</v>
+        <v>4.2777777777777768</v>
       </c>
       <c r="H140" s="8">
         <f t="shared" si="17"/>
-        <v>5.397222222222223</v>
+        <v>5.4277777777777789</v>
       </c>
       <c r="I140" s="15">
         <f t="shared" si="18"/>
-        <v>22020.666666666672</v>
-      </c>
-    </row>
-    <row r="141" spans="3:9" x14ac:dyDescent="0.25">
+        <v>22145.333333333339</v>
+      </c>
+    </row>
+    <row r="141" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C141" s="2"/>
       <c r="D141" s="10"/>
       <c r="E141" s="12">
@@ -4711,22 +4727,22 @@
       </c>
       <c r="F141" s="13">
         <f t="shared" si="15"/>
-        <v>4.2472222222222209</v>
+        <v>4.2777777777777768</v>
       </c>
       <c r="G141" s="8">
         <f t="shared" si="16"/>
-        <v>4.2472222222222209</v>
+        <v>4.2777777777777768</v>
       </c>
       <c r="H141" s="8">
         <f t="shared" si="17"/>
-        <v>5.397222222222223</v>
+        <v>5.4277777777777789</v>
       </c>
       <c r="I141" s="15">
         <f t="shared" si="18"/>
-        <v>22020.666666666672</v>
-      </c>
-    </row>
-    <row r="142" spans="3:9" x14ac:dyDescent="0.25">
+        <v>22145.333333333339</v>
+      </c>
+    </row>
+    <row r="142" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C142" s="2"/>
       <c r="D142" s="10"/>
       <c r="E142" s="12">
@@ -4735,22 +4751,22 @@
       </c>
       <c r="F142" s="13">
         <f t="shared" si="15"/>
-        <v>4.2472222222222209</v>
+        <v>4.2777777777777768</v>
       </c>
       <c r="G142" s="8">
         <f t="shared" si="16"/>
-        <v>4.2472222222222209</v>
+        <v>4.2777777777777768</v>
       </c>
       <c r="H142" s="8">
         <f t="shared" si="17"/>
-        <v>5.397222222222223</v>
+        <v>5.4277777777777789</v>
       </c>
       <c r="I142" s="15">
         <f t="shared" si="18"/>
-        <v>22020.666666666672</v>
-      </c>
-    </row>
-    <row r="143" spans="3:9" x14ac:dyDescent="0.25">
+        <v>22145.333333333339</v>
+      </c>
+    </row>
+    <row r="143" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C143" s="2"/>
       <c r="D143" s="10"/>
       <c r="E143" s="12">
@@ -4759,22 +4775,22 @@
       </c>
       <c r="F143" s="13">
         <f t="shared" si="15"/>
-        <v>4.2472222222222209</v>
+        <v>4.2777777777777768</v>
       </c>
       <c r="G143" s="8">
         <f t="shared" si="16"/>
-        <v>4.2472222222222209</v>
+        <v>4.2777777777777768</v>
       </c>
       <c r="H143" s="8">
         <f t="shared" si="17"/>
-        <v>5.397222222222223</v>
+        <v>5.4277777777777789</v>
       </c>
       <c r="I143" s="15">
         <f t="shared" si="18"/>
-        <v>22020.666666666672</v>
-      </c>
-    </row>
-    <row r="144" spans="3:9" x14ac:dyDescent="0.25">
+        <v>22145.333333333339</v>
+      </c>
+    </row>
+    <row r="144" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C144" s="2"/>
       <c r="D144" s="10"/>
       <c r="E144" s="12">
@@ -4783,19 +4799,19 @@
       </c>
       <c r="F144" s="13">
         <f t="shared" si="15"/>
-        <v>4.2472222222222209</v>
+        <v>4.2777777777777768</v>
       </c>
       <c r="G144" s="8">
         <f t="shared" si="16"/>
-        <v>4.2472222222222209</v>
+        <v>4.2777777777777768</v>
       </c>
       <c r="H144" s="8">
         <f t="shared" si="17"/>
-        <v>5.397222222222223</v>
+        <v>5.4277777777777789</v>
       </c>
       <c r="I144" s="15">
         <f t="shared" si="18"/>
-        <v>22020.666666666672</v>
+        <v>22145.333333333339</v>
       </c>
     </row>
     <row r="145" spans="3:9" x14ac:dyDescent="0.25">
@@ -4807,19 +4823,19 @@
       </c>
       <c r="F145" s="13">
         <f t="shared" si="15"/>
-        <v>4.2472222222222209</v>
+        <v>4.2777777777777768</v>
       </c>
       <c r="G145" s="8">
         <f t="shared" si="16"/>
-        <v>4.2472222222222209</v>
+        <v>4.2777777777777768</v>
       </c>
       <c r="H145" s="8">
         <f t="shared" si="17"/>
-        <v>5.397222222222223</v>
+        <v>5.4277777777777789</v>
       </c>
       <c r="I145" s="15">
         <f t="shared" si="18"/>
-        <v>22020.666666666672</v>
+        <v>22145.333333333339</v>
       </c>
     </row>
     <row r="146" spans="3:9" x14ac:dyDescent="0.25">
@@ -4831,19 +4847,19 @@
       </c>
       <c r="F146" s="13">
         <f t="shared" si="15"/>
-        <v>4.2472222222222209</v>
+        <v>4.2777777777777768</v>
       </c>
       <c r="G146" s="8">
         <f t="shared" si="16"/>
-        <v>4.2472222222222209</v>
+        <v>4.2777777777777768</v>
       </c>
       <c r="H146" s="8">
         <f t="shared" si="17"/>
-        <v>5.397222222222223</v>
+        <v>5.4277777777777789</v>
       </c>
       <c r="I146" s="15">
         <f t="shared" si="18"/>
-        <v>22020.666666666672</v>
+        <v>22145.333333333339</v>
       </c>
     </row>
     <row r="147" spans="3:9" x14ac:dyDescent="0.25">
@@ -4855,19 +4871,19 @@
       </c>
       <c r="F147" s="13">
         <f t="shared" si="15"/>
-        <v>4.2472222222222209</v>
+        <v>4.2777777777777768</v>
       </c>
       <c r="G147" s="8">
         <f t="shared" si="16"/>
-        <v>4.2472222222222209</v>
+        <v>4.2777777777777768</v>
       </c>
       <c r="H147" s="8">
         <f t="shared" si="17"/>
-        <v>5.397222222222223</v>
+        <v>5.4277777777777789</v>
       </c>
       <c r="I147" s="15">
         <f t="shared" si="18"/>
-        <v>22020.666666666672</v>
+        <v>22145.333333333339</v>
       </c>
     </row>
     <row r="148" spans="3:9" x14ac:dyDescent="0.25">
@@ -4879,19 +4895,19 @@
       </c>
       <c r="F148" s="13">
         <f t="shared" si="15"/>
-        <v>4.2472222222222209</v>
+        <v>4.2777777777777768</v>
       </c>
       <c r="G148" s="8">
         <f t="shared" si="16"/>
-        <v>4.2472222222222209</v>
+        <v>4.2777777777777768</v>
       </c>
       <c r="H148" s="8">
         <f t="shared" si="17"/>
-        <v>5.397222222222223</v>
+        <v>5.4277777777777789</v>
       </c>
       <c r="I148" s="15">
         <f t="shared" si="18"/>
-        <v>22020.666666666672</v>
+        <v>22145.333333333339</v>
       </c>
     </row>
     <row r="149" spans="3:9" x14ac:dyDescent="0.25">
@@ -4903,19 +4919,19 @@
       </c>
       <c r="F149" s="13">
         <f t="shared" si="15"/>
-        <v>4.2472222222222209</v>
+        <v>4.2777777777777768</v>
       </c>
       <c r="G149" s="8">
         <f t="shared" si="16"/>
-        <v>4.2472222222222209</v>
+        <v>4.2777777777777768</v>
       </c>
       <c r="H149" s="8">
         <f t="shared" si="17"/>
-        <v>5.397222222222223</v>
+        <v>5.4277777777777789</v>
       </c>
       <c r="I149" s="15">
         <f t="shared" si="18"/>
-        <v>22020.666666666672</v>
+        <v>22145.333333333339</v>
       </c>
     </row>
     <row r="150" spans="3:9" x14ac:dyDescent="0.25">
@@ -4927,19 +4943,19 @@
       </c>
       <c r="F150" s="13">
         <f t="shared" si="15"/>
-        <v>4.2472222222222209</v>
+        <v>4.2777777777777768</v>
       </c>
       <c r="G150" s="8">
         <f t="shared" si="16"/>
-        <v>4.2472222222222209</v>
+        <v>4.2777777777777768</v>
       </c>
       <c r="H150" s="8">
         <f t="shared" si="17"/>
-        <v>5.397222222222223</v>
+        <v>5.4277777777777789</v>
       </c>
       <c r="I150" s="15">
         <f t="shared" si="18"/>
-        <v>22020.666666666672</v>
+        <v>22145.333333333339</v>
       </c>
     </row>
     <row r="151" spans="3:9" x14ac:dyDescent="0.25">
@@ -4951,19 +4967,19 @@
       </c>
       <c r="F151" s="13">
         <f t="shared" si="15"/>
-        <v>4.2472222222222209</v>
+        <v>4.2777777777777768</v>
       </c>
       <c r="G151" s="8">
         <f t="shared" si="16"/>
-        <v>4.2472222222222209</v>
+        <v>4.2777777777777768</v>
       </c>
       <c r="H151" s="8">
         <f t="shared" si="17"/>
-        <v>5.397222222222223</v>
+        <v>5.4277777777777789</v>
       </c>
       <c r="I151" s="15">
         <f t="shared" si="18"/>
-        <v>22020.666666666672</v>
+        <v>22145.333333333339</v>
       </c>
     </row>
     <row r="152" spans="3:9" x14ac:dyDescent="0.25">
@@ -4975,19 +4991,19 @@
       </c>
       <c r="F152" s="13">
         <f t="shared" si="15"/>
-        <v>4.2472222222222209</v>
+        <v>4.2777777777777768</v>
       </c>
       <c r="G152" s="8">
         <f t="shared" si="16"/>
-        <v>4.2472222222222209</v>
+        <v>4.2777777777777768</v>
       </c>
       <c r="H152" s="8">
         <f t="shared" si="17"/>
-        <v>5.397222222222223</v>
+        <v>5.4277777777777789</v>
       </c>
       <c r="I152" s="15">
         <f t="shared" si="18"/>
-        <v>22020.666666666672</v>
+        <v>22145.333333333339</v>
       </c>
     </row>
     <row r="153" spans="3:9" x14ac:dyDescent="0.25">
@@ -4999,19 +5015,19 @@
       </c>
       <c r="F153" s="13">
         <f t="shared" si="15"/>
-        <v>4.2472222222222209</v>
+        <v>4.2777777777777768</v>
       </c>
       <c r="G153" s="8">
         <f t="shared" si="16"/>
-        <v>4.2472222222222209</v>
+        <v>4.2777777777777768</v>
       </c>
       <c r="H153" s="8">
         <f t="shared" si="17"/>
-        <v>5.397222222222223</v>
+        <v>5.4277777777777789</v>
       </c>
       <c r="I153" s="15">
         <f t="shared" si="18"/>
-        <v>22020.666666666672</v>
+        <v>22145.333333333339</v>
       </c>
     </row>
     <row r="154" spans="3:9" x14ac:dyDescent="0.25">
@@ -5023,19 +5039,19 @@
       </c>
       <c r="F154" s="13">
         <f t="shared" si="15"/>
-        <v>4.2472222222222209</v>
+        <v>4.2777777777777768</v>
       </c>
       <c r="G154" s="8">
         <f t="shared" si="16"/>
-        <v>4.2472222222222209</v>
+        <v>4.2777777777777768</v>
       </c>
       <c r="H154" s="8">
         <f t="shared" si="17"/>
-        <v>5.397222222222223</v>
+        <v>5.4277777777777789</v>
       </c>
       <c r="I154" s="15">
         <f t="shared" si="18"/>
-        <v>22020.666666666672</v>
+        <v>22145.333333333339</v>
       </c>
     </row>
     <row r="155" spans="3:9" x14ac:dyDescent="0.25">
@@ -5047,19 +5063,19 @@
       </c>
       <c r="F155" s="13">
         <f t="shared" si="15"/>
-        <v>4.2472222222222209</v>
+        <v>4.2777777777777768</v>
       </c>
       <c r="G155" s="8">
         <f t="shared" si="16"/>
-        <v>4.2472222222222209</v>
+        <v>4.2777777777777768</v>
       </c>
       <c r="H155" s="8">
         <f t="shared" si="17"/>
-        <v>5.397222222222223</v>
+        <v>5.4277777777777789</v>
       </c>
       <c r="I155" s="15">
         <f t="shared" si="18"/>
-        <v>22020.666666666672</v>
+        <v>22145.333333333339</v>
       </c>
     </row>
     <row r="156" spans="3:9" x14ac:dyDescent="0.25">
@@ -5071,19 +5087,19 @@
       </c>
       <c r="F156" s="13">
         <f t="shared" si="15"/>
-        <v>4.2472222222222209</v>
+        <v>4.2777777777777768</v>
       </c>
       <c r="G156" s="8">
         <f t="shared" si="16"/>
-        <v>4.2472222222222209</v>
+        <v>4.2777777777777768</v>
       </c>
       <c r="H156" s="8">
         <f t="shared" si="17"/>
-        <v>5.397222222222223</v>
+        <v>5.4277777777777789</v>
       </c>
       <c r="I156" s="15">
         <f t="shared" si="18"/>
-        <v>22020.666666666672</v>
+        <v>22145.333333333339</v>
       </c>
     </row>
     <row r="157" spans="3:9" x14ac:dyDescent="0.25">
@@ -5095,19 +5111,19 @@
       </c>
       <c r="F157" s="13">
         <f t="shared" si="15"/>
-        <v>4.2472222222222209</v>
+        <v>4.2777777777777768</v>
       </c>
       <c r="G157" s="8">
         <f t="shared" si="16"/>
-        <v>4.2472222222222209</v>
+        <v>4.2777777777777768</v>
       </c>
       <c r="H157" s="8">
         <f t="shared" si="17"/>
-        <v>5.397222222222223</v>
+        <v>5.4277777777777789</v>
       </c>
       <c r="I157" s="15">
         <f t="shared" si="18"/>
-        <v>22020.666666666672</v>
+        <v>22145.333333333339</v>
       </c>
     </row>
     <row r="158" spans="3:9" x14ac:dyDescent="0.25">
@@ -5119,19 +5135,19 @@
       </c>
       <c r="F158" s="13">
         <f t="shared" si="15"/>
-        <v>4.2472222222222209</v>
+        <v>4.2777777777777768</v>
       </c>
       <c r="G158" s="8">
         <f t="shared" si="16"/>
-        <v>4.2472222222222209</v>
+        <v>4.2777777777777768</v>
       </c>
       <c r="H158" s="8">
         <f t="shared" si="17"/>
-        <v>5.397222222222223</v>
+        <v>5.4277777777777789</v>
       </c>
       <c r="I158" s="15">
         <f t="shared" si="18"/>
-        <v>22020.666666666672</v>
+        <v>22145.333333333339</v>
       </c>
     </row>
     <row r="159" spans="3:9" x14ac:dyDescent="0.25">
@@ -5143,19 +5159,19 @@
       </c>
       <c r="F159" s="13">
         <f t="shared" si="15"/>
-        <v>4.2472222222222209</v>
+        <v>4.2777777777777768</v>
       </c>
       <c r="G159" s="8">
         <f t="shared" si="16"/>
-        <v>4.2472222222222209</v>
+        <v>4.2777777777777768</v>
       </c>
       <c r="H159" s="8">
         <f t="shared" si="17"/>
-        <v>5.397222222222223</v>
+        <v>5.4277777777777789</v>
       </c>
       <c r="I159" s="15">
         <f t="shared" si="18"/>
-        <v>22020.666666666672</v>
+        <v>22145.333333333339</v>
       </c>
     </row>
     <row r="160" spans="3:9" x14ac:dyDescent="0.25">
@@ -5167,19 +5183,19 @@
       </c>
       <c r="F160" s="13">
         <f t="shared" si="15"/>
-        <v>4.2472222222222209</v>
+        <v>4.2777777777777768</v>
       </c>
       <c r="G160" s="8">
         <f t="shared" si="16"/>
-        <v>4.2472222222222209</v>
+        <v>4.2777777777777768</v>
       </c>
       <c r="H160" s="8">
         <f t="shared" si="17"/>
-        <v>5.397222222222223</v>
+        <v>5.4277777777777789</v>
       </c>
       <c r="I160" s="15">
         <f t="shared" si="18"/>
-        <v>22020.666666666672</v>
+        <v>22145.333333333339</v>
       </c>
     </row>
     <row r="161" spans="3:9" x14ac:dyDescent="0.25">
@@ -5191,19 +5207,19 @@
       </c>
       <c r="F161" s="13">
         <f t="shared" si="15"/>
-        <v>4.2472222222222209</v>
+        <v>4.2777777777777768</v>
       </c>
       <c r="G161" s="8">
         <f t="shared" si="16"/>
-        <v>4.2472222222222209</v>
+        <v>4.2777777777777768</v>
       </c>
       <c r="H161" s="8">
         <f t="shared" si="17"/>
-        <v>5.397222222222223</v>
+        <v>5.4277777777777789</v>
       </c>
       <c r="I161" s="15">
         <f t="shared" si="18"/>
-        <v>22020.666666666672</v>
+        <v>22145.333333333339</v>
       </c>
     </row>
     <row r="162" spans="3:9" x14ac:dyDescent="0.25">
@@ -5215,19 +5231,19 @@
       </c>
       <c r="F162" s="13">
         <f t="shared" si="15"/>
-        <v>4.2472222222222209</v>
+        <v>4.2777777777777768</v>
       </c>
       <c r="G162" s="8">
         <f t=